--- a/D.K STATEMENT -2021-22.xlsx
+++ b/D.K STATEMENT -2021-22.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\New folder\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26AB53B-2EDB-499B-B476-F045C06415E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021-22" sheetId="82" r:id="rId1"/>
@@ -20,7 +14,7 @@
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -201,11 +195,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1271,49 +1265,147 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1323,21 +1415,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1391,141 +1468,58 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1546,7 +1540,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="April 2021-22"/>
@@ -1575,14 +1569,35 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="15">
+          <cell r="K15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="K25">
+            <v>9127.68</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="K35">
+            <v>12800.560000000001</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="K45">
+            <v>7130.4600000000009</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="April 2021-22"/>
@@ -1627,39 +1642,39 @@
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="32">
-          <cell r="B32">
+        <row r="29">
+          <cell r="B29">
             <v>0</v>
           </cell>
-          <cell r="C32">
+          <cell r="C29">
             <v>0</v>
           </cell>
-          <cell r="D32">
+          <cell r="D29">
+            <v>6270</v>
+          </cell>
+          <cell r="E29">
             <v>0</v>
           </cell>
-          <cell r="E32">
-            <v>0</v>
+          <cell r="F29">
+            <v>572</v>
           </cell>
-          <cell r="F32">
-            <v>0</v>
+          <cell r="G29">
+            <v>220</v>
           </cell>
-          <cell r="G32">
-            <v>0</v>
+          <cell r="H29">
+            <v>3096</v>
           </cell>
-          <cell r="H32">
-            <v>0</v>
+          <cell r="I29">
+            <v>2496</v>
           </cell>
-          <cell r="I32">
-            <v>0</v>
+          <cell r="J29">
+            <v>15384</v>
           </cell>
-          <cell r="J32">
-            <v>0</v>
+          <cell r="K29">
+            <v>2064</v>
           </cell>
-          <cell r="K32">
-            <v>0</v>
-          </cell>
-          <cell r="L32">
-            <v>0</v>
+          <cell r="L29">
+            <v>3132</v>
           </cell>
         </row>
       </sheetData>
@@ -1711,7 +1726,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1743,27 +1758,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1795,24 +1792,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1988,14 +1967,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10:U13"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
@@ -2021,258 +2000,258 @@
     <col min="25" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="178" t="s">
+    <row r="1" spans="1:23" ht="18.75">
+      <c r="A1" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="178"/>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="178"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="179"/>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="179"/>
-      <c r="N2" s="179"/>
-      <c r="O2" s="179"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="179"/>
-      <c r="R2" s="179"/>
-    </row>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="180" t="s">
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A3" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="150"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="115"/>
       <c r="M3" s="55"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="182"/>
-      <c r="B4" s="183"/>
-      <c r="C4" s="186" t="s">
+    <row r="4" spans="1:23">
+      <c r="A4" s="116"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="187"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="188" t="s">
+      <c r="F4" s="122" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="182" t="s">
+      <c r="H4" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="190"/>
-      <c r="J4" s="183"/>
-      <c r="K4" s="186" t="s">
+      <c r="I4" s="124"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="187"/>
+      <c r="L4" s="121"/>
       <c r="M4" s="55"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="184"/>
-      <c r="B5" s="185"/>
-      <c r="C5" s="191" t="s">
+    <row r="5" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A5" s="118"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="192"/>
+      <c r="D5" s="126"/>
       <c r="E5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="189"/>
+      <c r="F5" s="123"/>
       <c r="G5" s="95"/>
-      <c r="H5" s="165" t="s">
+      <c r="H5" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="166"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="191" t="s">
+      <c r="I5" s="128"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="192"/>
+      <c r="L5" s="126"/>
       <c r="M5" s="55"/>
       <c r="T5" s="29"/>
       <c r="U5" s="29"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="193"/>
-      <c r="B6" s="194"/>
-      <c r="C6" s="195">
+    <row r="6" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A6" s="130"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="132">
         <v>666070.9</v>
       </c>
-      <c r="D6" s="196"/>
+      <c r="D6" s="133"/>
       <c r="E6" s="54"/>
       <c r="F6" s="97"/>
       <c r="G6" s="91">
         <f>C6+E6+F6</f>
         <v>666070.9</v>
       </c>
-      <c r="H6" s="195">
+      <c r="H6" s="132">
         <f>G15</f>
         <v>160041.90000000002</v>
       </c>
-      <c r="I6" s="151"/>
-      <c r="J6" s="196"/>
-      <c r="K6" s="131">
+      <c r="I6" s="134"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="135">
         <f>G6-H6</f>
         <v>506029</v>
       </c>
-      <c r="L6" s="132"/>
+      <c r="L6" s="136"/>
       <c r="M6" s="55"/>
       <c r="O6" s="29"/>
       <c r="Q6" s="29"/>
     </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="177" t="s">
+    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A7" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="177"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="177"/>
-      <c r="J7" s="177"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177"/>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="177"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="110"/>
+      <c r="R7" s="110"/>
       <c r="U7" s="29"/>
     </row>
-    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="170" t="s">
+    <row r="8" spans="1:23" ht="22.5" customHeight="1">
+      <c r="A8" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="172" t="s">
+      <c r="B8" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="173"/>
-      <c r="D8" s="157" t="s">
+      <c r="C8" s="142"/>
+      <c r="D8" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="159" t="s">
+      <c r="E8" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="160"/>
-      <c r="G8" s="157" t="s">
+      <c r="F8" s="146"/>
+      <c r="G8" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="157" t="s">
+      <c r="H8" s="143" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="173" t="s">
+      <c r="J8" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="174"/>
-      <c r="L8" s="172" t="s">
+      <c r="K8" s="149"/>
+      <c r="L8" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="173"/>
-      <c r="N8" s="175" t="s">
+      <c r="M8" s="142"/>
+      <c r="N8" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="176"/>
-      <c r="P8" s="157" t="s">
+      <c r="O8" s="151"/>
+      <c r="P8" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="159" t="s">
+      <c r="Q8" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="160"/>
-    </row>
-    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="171"/>
-      <c r="B9" s="165" t="s">
+      <c r="R8" s="146"/>
+    </row>
+    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A9" s="140"/>
+      <c r="B9" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="166"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="144"/>
       <c r="I9" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="166" t="s">
+      <c r="J9" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="167"/>
-      <c r="L9" s="165" t="s">
+      <c r="K9" s="129"/>
+      <c r="L9" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="166"/>
-      <c r="N9" s="168" t="s">
+      <c r="M9" s="128"/>
+      <c r="N9" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="169"/>
-      <c r="P9" s="158"/>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="162"/>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O9" s="138"/>
+      <c r="P9" s="144"/>
+      <c r="Q9" s="147"/>
+      <c r="R9" s="148"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="131">
+      <c r="B10" s="135">
         <v>2060.5</v>
       </c>
-      <c r="C10" s="151"/>
+      <c r="C10" s="134"/>
       <c r="D10" s="60">
         <v>0</v>
       </c>
-      <c r="E10" s="131">
+      <c r="E10" s="135">
         <f>B10-D10</f>
         <v>2060.5</v>
       </c>
-      <c r="F10" s="132"/>
+      <c r="F10" s="136"/>
       <c r="G10" s="92">
         <f>36127.6+36854+36195.2</f>
         <v>109176.8</v>
@@ -2282,231 +2261,211 @@
         <v>292.40999999999997</v>
       </c>
       <c r="I10" s="60"/>
-      <c r="J10" s="131">
+      <c r="J10" s="135">
         <f>B10+G10+H10+I10</f>
         <v>111529.71</v>
       </c>
-      <c r="K10" s="132"/>
-      <c r="L10" s="131">
+      <c r="K10" s="136"/>
+      <c r="L10" s="135">
         <f>G29+G30+G31</f>
         <v>74136</v>
       </c>
-      <c r="M10" s="152"/>
-      <c r="N10" s="131">
+      <c r="M10" s="153"/>
+      <c r="N10" s="135">
         <f>J10-L10</f>
         <v>37393.710000000006</v>
       </c>
-      <c r="O10" s="132"/>
+      <c r="O10" s="136"/>
       <c r="P10" s="60">
         <f>'[1]April 2021-22'!$K$41</f>
         <v>28956.159999999996</v>
       </c>
-      <c r="Q10" s="131">
+      <c r="Q10" s="135">
         <f>N10-P10</f>
         <v>8437.5500000000102</v>
       </c>
-      <c r="R10" s="156"/>
+      <c r="R10" s="152"/>
       <c r="S10" s="32"/>
-      <c r="T10" s="2">
-        <v>37393.71</v>
-      </c>
-      <c r="U10" s="2">
-        <v>28956.16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:23" ht="15.75" thickBot="1">
       <c r="A11" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="131">
+      <c r="B11" s="135">
         <v>6061.85</v>
       </c>
-      <c r="C11" s="151"/>
+      <c r="C11" s="134"/>
       <c r="D11" s="60">
         <v>0</v>
       </c>
-      <c r="E11" s="131">
+      <c r="E11" s="135">
         <f t="shared" ref="E11:E13" si="0">B11-D11</f>
         <v>6061.85</v>
       </c>
-      <c r="F11" s="132"/>
+      <c r="F11" s="136"/>
       <c r="G11" s="92">
         <v>15212.8</v>
       </c>
       <c r="H11" s="60"/>
       <c r="I11" s="60"/>
-      <c r="J11" s="131">
+      <c r="J11" s="135">
         <f>B11+G11+H11+I11</f>
         <v>21274.65</v>
       </c>
-      <c r="K11" s="132"/>
-      <c r="L11" s="131">
+      <c r="K11" s="136"/>
+      <c r="L11" s="135">
         <f>SUM(G21:G22)</f>
         <v>8664</v>
       </c>
-      <c r="M11" s="152"/>
-      <c r="N11" s="163">
+      <c r="M11" s="153"/>
+      <c r="N11" s="154">
         <f>J11-L11</f>
         <v>12610.650000000001</v>
       </c>
-      <c r="O11" s="164"/>
+      <c r="O11" s="155"/>
       <c r="P11" s="61">
         <f>'[1]April 2021-22'!$K$65</f>
         <v>12170.24</v>
       </c>
-      <c r="Q11" s="131">
+      <c r="Q11" s="135">
         <f t="shared" ref="Q11:Q13" si="1">N11-P11</f>
         <v>440.41000000000167</v>
       </c>
-      <c r="R11" s="156"/>
+      <c r="R11" s="152"/>
       <c r="S11" s="32"/>
-      <c r="T11" s="2">
-        <v>12610.65</v>
-      </c>
-      <c r="U11" s="2">
-        <v>12170.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="131">
+      <c r="B12" s="135">
         <v>11800.7</v>
       </c>
-      <c r="C12" s="151"/>
+      <c r="C12" s="134"/>
       <c r="D12" s="60">
         <v>0</v>
       </c>
-      <c r="E12" s="131">
+      <c r="E12" s="135">
         <f t="shared" si="0"/>
         <v>11800.7</v>
       </c>
-      <c r="F12" s="132"/>
+      <c r="F12" s="136"/>
       <c r="G12" s="92"/>
       <c r="H12" s="60"/>
       <c r="I12" s="60"/>
-      <c r="J12" s="131">
+      <c r="J12" s="135">
         <f>B12+G12+H12+I12</f>
         <v>11800.7</v>
       </c>
-      <c r="K12" s="132"/>
-      <c r="L12" s="131">
+      <c r="K12" s="136"/>
+      <c r="L12" s="135">
         <f>SUM(G33:G34)</f>
         <v>7560</v>
       </c>
-      <c r="M12" s="156"/>
-      <c r="N12" s="131">
+      <c r="M12" s="152"/>
+      <c r="N12" s="135">
         <f>J12-L12</f>
         <v>4240.7000000000007</v>
       </c>
-      <c r="O12" s="132"/>
+      <c r="O12" s="136"/>
       <c r="P12" s="61">
         <f>'[1]April 2021-22'!$K$57</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="131">
+      <c r="Q12" s="135">
         <f t="shared" si="1"/>
         <v>4240.7000000000007</v>
       </c>
-      <c r="R12" s="156"/>
-      <c r="T12" s="2">
-        <v>4240.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R12" s="152"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1">
       <c r="A13" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="131">
+      <c r="B13" s="135">
         <v>30749.88</v>
       </c>
-      <c r="C13" s="151"/>
+      <c r="C13" s="134"/>
       <c r="D13" s="60">
         <v>0</v>
       </c>
-      <c r="E13" s="131">
+      <c r="E13" s="135">
         <f t="shared" si="0"/>
         <v>30749.88</v>
       </c>
-      <c r="F13" s="132"/>
+      <c r="F13" s="136"/>
       <c r="G13" s="92">
         <f>35652.3</f>
         <v>35652.300000000003</v>
       </c>
       <c r="H13" s="60"/>
       <c r="I13" s="60"/>
-      <c r="J13" s="131">
+      <c r="J13" s="135">
         <f>B13+G13+H13+I13</f>
         <v>66402.180000000008</v>
       </c>
-      <c r="K13" s="132"/>
-      <c r="L13" s="131">
+      <c r="K13" s="136"/>
+      <c r="L13" s="135">
         <f>G24+G25+G26+G27</f>
         <v>38302</v>
       </c>
-      <c r="M13" s="156"/>
-      <c r="N13" s="131">
+      <c r="M13" s="152"/>
+      <c r="N13" s="135">
         <f>J13-L13</f>
         <v>28100.180000000008</v>
       </c>
-      <c r="O13" s="132"/>
+      <c r="O13" s="136"/>
       <c r="P13" s="61">
         <f>'[1]April 2021-22'!$K$49</f>
         <v>21391.380000000005</v>
       </c>
-      <c r="Q13" s="131">
+      <c r="Q13" s="135">
         <f t="shared" si="1"/>
         <v>6708.8000000000029</v>
       </c>
-      <c r="R13" s="156"/>
-      <c r="T13" s="2">
-        <v>28100.18</v>
-      </c>
-      <c r="U13" s="29">
-        <v>21391.4</v>
-      </c>
+      <c r="R13" s="152"/>
+      <c r="U13" s="29"/>
       <c r="W13" s="29"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="58"/>
-      <c r="B14" s="153"/>
-      <c r="C14" s="154"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="157"/>
       <c r="D14" s="61"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="155"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="158"/>
       <c r="G14" s="92"/>
       <c r="H14" s="60"/>
       <c r="I14" s="60"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="132"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="136"/>
       <c r="N14" s="62"/>
       <c r="O14" s="63"/>
       <c r="P14" s="60"/>
-      <c r="Q14" s="131"/>
-      <c r="R14" s="156"/>
+      <c r="Q14" s="135"/>
+      <c r="R14" s="152"/>
       <c r="T14" s="64"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="15.75" thickBot="1">
       <c r="A15" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="131">
+      <c r="B15" s="135">
         <f>SUM(B10:C14)</f>
         <v>50672.930000000008</v>
       </c>
-      <c r="C15" s="132"/>
+      <c r="C15" s="136"/>
       <c r="D15" s="60">
         <f>SUM(D10:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="131">
+      <c r="E15" s="135">
         <f>SUM(E10:F14)</f>
         <v>50672.930000000008</v>
       </c>
-      <c r="F15" s="150"/>
+      <c r="F15" s="115"/>
       <c r="G15" s="92">
         <f>SUM(G10:G14)</f>
         <v>160041.90000000002</v>
@@ -2519,33 +2478,33 @@
         <f>SUM(I10:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="151">
+      <c r="J15" s="134">
         <f>SUM(J10:K14)</f>
         <v>211007.24000000005</v>
       </c>
-      <c r="K15" s="132"/>
-      <c r="L15" s="131">
+      <c r="K15" s="136"/>
+      <c r="L15" s="135">
         <f>SUM(L10:M14)</f>
         <v>128662</v>
       </c>
-      <c r="M15" s="152"/>
-      <c r="N15" s="131">
+      <c r="M15" s="153"/>
+      <c r="N15" s="135">
         <f>SUM(N10:O14)</f>
         <v>82345.24000000002</v>
       </c>
-      <c r="O15" s="132"/>
+      <c r="O15" s="136"/>
       <c r="P15" s="60">
         <f>SUM(P10:P14)</f>
         <v>62517.78</v>
       </c>
-      <c r="Q15" s="131">
+      <c r="Q15" s="135">
         <f>SUM(Q10:R13)</f>
         <v>19827.460000000014</v>
       </c>
-      <c r="R15" s="132"/>
+      <c r="R15" s="136"/>
       <c r="S15" s="29"/>
     </row>
-    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1">
       <c r="A16" s="65"/>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -2560,83 +2519,83 @@
       <c r="L16" s="67"/>
       <c r="M16" s="67"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="133" t="s">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A17" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="134"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="141" t="s">
+      <c r="B17" s="163"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="170" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="142"/>
-      <c r="M17" s="142"/>
-      <c r="N17" s="142"/>
-      <c r="O17" s="143"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="171"/>
+      <c r="K17" s="171"/>
+      <c r="L17" s="171"/>
+      <c r="M17" s="171"/>
+      <c r="N17" s="171"/>
+      <c r="O17" s="172"/>
       <c r="P17" s="68"/>
       <c r="Q17" s="68"/>
       <c r="R17" s="68"/>
       <c r="S17" s="68"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="135"/>
-      <c r="B18" s="136"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="144" t="s">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A18" s="164"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="173" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="145"/>
-      <c r="F18" s="144" t="s">
+      <c r="E18" s="174"/>
+      <c r="F18" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="145"/>
-      <c r="H18" s="148" t="s">
+      <c r="G18" s="174"/>
+      <c r="H18" s="177" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="149"/>
-      <c r="J18" s="149"/>
-      <c r="K18" s="149"/>
-      <c r="L18" s="144" t="s">
+      <c r="I18" s="178"/>
+      <c r="J18" s="178"/>
+      <c r="K18" s="178"/>
+      <c r="L18" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="145"/>
-      <c r="N18" s="144" t="s">
+      <c r="M18" s="174"/>
+      <c r="N18" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="O18" s="145"/>
-    </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="135"/>
-      <c r="B19" s="136"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="141" t="s">
+      <c r="O18" s="174"/>
+    </row>
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A19" s="164"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="176"/>
+      <c r="F19" s="173"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="142"/>
-      <c r="J19" s="141" t="s">
+      <c r="I19" s="171"/>
+      <c r="J19" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="142"/>
-      <c r="L19" s="146"/>
-      <c r="M19" s="147"/>
-      <c r="N19" s="146"/>
-      <c r="O19" s="147"/>
-    </row>
-    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="138"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="140"/>
+      <c r="K19" s="171"/>
+      <c r="L19" s="175"/>
+      <c r="M19" s="176"/>
+      <c r="N19" s="175"/>
+      <c r="O19" s="176"/>
+    </row>
+    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A20" s="167"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="169"/>
       <c r="D20" s="98" t="s">
         <v>26</v>
       </c>
@@ -2683,12 +2642,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="110" t="s">
+    <row r="21" spans="1:23">
+      <c r="A21" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="112"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="181"/>
       <c r="D21" s="74">
         <f>E21/24</f>
         <v>4</v>
@@ -2749,12 +2708,12 @@
       <c r="V21" s="75"/>
       <c r="W21" s="29"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="113" t="s">
+    <row r="22" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A22" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="115"/>
+      <c r="B22" s="183"/>
+      <c r="C22" s="184"/>
       <c r="D22" s="76">
         <f>E22/24</f>
         <v>1</v>
@@ -2816,12 +2775,12 @@
       <c r="V22" s="75"/>
       <c r="W22" s="29"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="116" t="s">
+    <row r="23" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A23" s="185" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="117"/>
-      <c r="C23" s="118"/>
+      <c r="B23" s="186"/>
+      <c r="C23" s="187"/>
       <c r="D23" s="77">
         <f>SUM(D21:D22)</f>
         <v>5</v>
@@ -2876,12 +2835,12 @@
       <c r="V23" s="75"/>
       <c r="W23" s="29"/>
     </row>
-    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="110" t="s">
+    <row r="24" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A24" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="111"/>
-      <c r="C24" s="112"/>
+      <c r="B24" s="180"/>
+      <c r="C24" s="181"/>
       <c r="D24" s="74">
         <f>E24/30</f>
         <v>38</v>
@@ -2943,12 +2902,12 @@
       <c r="V24" s="75"/>
       <c r="W24" s="29"/>
     </row>
-    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="128" t="s">
+    <row r="25" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A25" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="129"/>
-      <c r="C25" s="130"/>
+      <c r="B25" s="189"/>
+      <c r="C25" s="190"/>
       <c r="D25" s="81">
         <f>E25/24</f>
         <v>0</v>
@@ -3008,12 +2967,12 @@
       <c r="V25" s="75"/>
       <c r="W25" s="29"/>
     </row>
-    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="125" t="s">
+    <row r="26" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A26" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="126"/>
-      <c r="C26" s="127"/>
+      <c r="B26" s="160"/>
+      <c r="C26" s="161"/>
       <c r="D26" s="82">
         <f>E26/22</f>
         <v>51</v>
@@ -3074,12 +3033,12 @@
       <c r="V26" s="29"/>
       <c r="W26" s="29"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="122" t="s">
+    <row r="27" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A27" s="194" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="123"/>
-      <c r="C27" s="124"/>
+      <c r="B27" s="195"/>
+      <c r="C27" s="196"/>
       <c r="D27" s="83">
         <f>E27/22</f>
         <v>23</v>
@@ -3140,12 +3099,12 @@
       <c r="V27" s="75"/>
       <c r="W27" s="29"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="116" t="s">
+    <row r="28" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A28" s="185" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="117"/>
-      <c r="C28" s="118"/>
+      <c r="B28" s="186"/>
+      <c r="C28" s="187"/>
       <c r="D28" s="79">
         <f t="shared" ref="D28:O28" si="8">SUM(D24:D27)</f>
         <v>112</v>
@@ -3200,12 +3159,12 @@
       <c r="V28" s="75"/>
       <c r="W28" s="29"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="110" t="s">
+    <row r="29" spans="1:23">
+      <c r="A29" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="111"/>
-      <c r="C29" s="112"/>
+      <c r="B29" s="180"/>
+      <c r="C29" s="181"/>
       <c r="D29" s="74">
         <f>E29/24</f>
         <v>0</v>
@@ -3266,12 +3225,12 @@
       <c r="V29" s="75"/>
       <c r="W29" s="29"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="125" t="s">
+    <row r="30" spans="1:23">
+      <c r="A30" s="159" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="126"/>
-      <c r="C30" s="127"/>
+      <c r="B30" s="160"/>
+      <c r="C30" s="161"/>
       <c r="D30" s="82">
         <f>E30/24</f>
         <v>49</v>
@@ -3332,12 +3291,12 @@
       <c r="V30" s="75"/>
       <c r="W30" s="29"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="125" t="s">
+    <row r="31" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A31" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="126"/>
-      <c r="C31" s="127"/>
+      <c r="B31" s="160"/>
+      <c r="C31" s="161"/>
       <c r="D31" s="82">
         <f>E31/24</f>
         <v>18</v>
@@ -3399,12 +3358,12 @@
       <c r="V31" s="75"/>
       <c r="W31" s="29"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="116" t="s">
+    <row r="32" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A32" s="185" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="117"/>
-      <c r="C32" s="118"/>
+      <c r="B32" s="186"/>
+      <c r="C32" s="187"/>
       <c r="D32" s="84">
         <f t="shared" ref="D32:O32" si="13">SUM(D29:D31)</f>
         <v>67</v>
@@ -3459,12 +3418,12 @@
       <c r="V32" s="75"/>
       <c r="W32" s="29"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="110" t="s">
+    <row r="33" spans="1:23">
+      <c r="A33" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="111"/>
-      <c r="C33" s="112"/>
+      <c r="B33" s="180"/>
+      <c r="C33" s="181"/>
       <c r="D33" s="85">
         <f>E33/12</f>
         <v>35</v>
@@ -3526,12 +3485,12 @@
       <c r="V33" s="86"/>
       <c r="W33" s="29"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="113" t="s">
+    <row r="34" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A34" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="114"/>
-      <c r="C34" s="115"/>
+      <c r="B34" s="183"/>
+      <c r="C34" s="184"/>
       <c r="D34" s="76">
         <f>E34/12</f>
         <v>0</v>
@@ -3590,12 +3549,12 @@
       <c r="V34" s="75"/>
       <c r="W34" s="29"/>
     </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="116" t="s">
+    <row r="35" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A35" s="185" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="117"/>
-      <c r="C35" s="118"/>
+      <c r="B35" s="186"/>
+      <c r="C35" s="187"/>
       <c r="D35" s="84">
         <f>SUM(D33:D34)</f>
         <v>35</v>
@@ -3649,12 +3608,12 @@
       <c r="U35" s="34"/>
       <c r="W35" s="29"/>
     </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="119" t="s">
+    <row r="36" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A36" s="191" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="120"/>
-      <c r="C36" s="121"/>
+      <c r="B36" s="192"/>
+      <c r="C36" s="193"/>
       <c r="D36" s="87">
         <f t="shared" ref="D36:O36" si="18">D21+D22+D24+D25+D26+D27+D29+D30+D31+D33+D34</f>
         <v>219</v>
@@ -3717,19 +3676,1816 @@
       </c>
       <c r="W36" s="29"/>
     </row>
-    <row r="37" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="9" customHeight="1">
       <c r="U37" s="32"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23">
       <c r="V38" s="29"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23">
       <c r="P40" s="75"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23">
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="18.75">
+      <c r="P42" s="90"/>
+    </row>
+  </sheetData>
+  <mergeCells count="91">
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="A17:C20"/>
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:L6"/>
+  </mergeCells>
+  <pageMargins left="0.16" right="0.16" top="0.25" bottom="0.23" header="0.23" footer="0.2"/>
+  <pageSetup orientation="landscape" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6" style="2" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7" style="2" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" style="2" customWidth="1"/>
+    <col min="16" max="17" width="7.85546875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="6" style="2" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="2"/>
+    <col min="24" max="24" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="18.75">
+      <c r="A1" s="111" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A3" s="113" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="55"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="116"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="120" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="121"/>
+      <c r="E4" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="122" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="124"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="121"/>
+      <c r="M4" s="55"/>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A5" s="118"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="125" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="126"/>
+      <c r="E5" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="123"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="128"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="125" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="126"/>
+      <c r="M5" s="55"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A6" s="130"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="132">
+        <v>506029</v>
+      </c>
+      <c r="D6" s="133"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="104">
+        <f>C6+E6+F6</f>
+        <v>506029</v>
+      </c>
+      <c r="H6" s="132">
+        <f>G15</f>
+        <v>16000.7</v>
+      </c>
+      <c r="I6" s="134"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="135">
+        <f>G6-H6</f>
+        <v>490028.3</v>
+      </c>
+      <c r="L6" s="136"/>
+      <c r="M6" s="55"/>
+      <c r="O6" s="29"/>
+      <c r="Q6" s="29"/>
+    </row>
+    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A7" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="110"/>
+      <c r="R7" s="110"/>
+      <c r="U7" s="29"/>
+    </row>
+    <row r="8" spans="1:23" ht="22.5" customHeight="1">
+      <c r="A8" s="139" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="141" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="142"/>
+      <c r="D8" s="143" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="145" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="146"/>
+      <c r="G8" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="143" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="142" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="149"/>
+      <c r="L8" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="142"/>
+      <c r="N8" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="151"/>
+      <c r="P8" s="143" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="146"/>
+    </row>
+    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A9" s="140"/>
+      <c r="B9" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="128"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="102" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="128" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="129"/>
+      <c r="L9" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="128"/>
+      <c r="N9" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="138"/>
+      <c r="P9" s="144"/>
+      <c r="Q9" s="147"/>
+      <c r="R9" s="148"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A10" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="135">
+        <v>37393.71</v>
+      </c>
+      <c r="C10" s="134"/>
+      <c r="D10" s="60">
+        <v>28956.16</v>
+      </c>
+      <c r="E10" s="135">
+        <f>B10-D10</f>
+        <v>8437.5499999999993</v>
+      </c>
+      <c r="F10" s="136"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="60">
+        <v>144.78</v>
+      </c>
+      <c r="I10" s="60"/>
+      <c r="J10" s="135">
+        <f>B10+G10+H10+I10</f>
+        <v>37538.49</v>
+      </c>
+      <c r="K10" s="136"/>
+      <c r="L10" s="135">
+        <f>G29+G30+G31</f>
+        <v>20976</v>
+      </c>
+      <c r="M10" s="153"/>
+      <c r="N10" s="135">
+        <f>J10-L10</f>
+        <v>16562.489999999998</v>
+      </c>
+      <c r="O10" s="136"/>
+      <c r="P10" s="60">
+        <f>'[1]May 2021'!$K$15</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="135">
+        <f>N10-P10</f>
+        <v>16562.489999999998</v>
+      </c>
+      <c r="R10" s="152"/>
+      <c r="S10" s="32"/>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A11" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="135">
+        <v>12610.65</v>
+      </c>
+      <c r="C11" s="134"/>
+      <c r="D11" s="60">
+        <v>12170.24</v>
+      </c>
+      <c r="E11" s="135">
+        <f t="shared" ref="E11:E13" si="0">B11-D11</f>
+        <v>440.40999999999985</v>
+      </c>
+      <c r="F11" s="136"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="135">
+        <f>B11+G11+H11+I11</f>
+        <v>12610.65</v>
+      </c>
+      <c r="K11" s="136"/>
+      <c r="L11" s="135">
+        <f>SUM(G21:G22)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="153"/>
+      <c r="N11" s="154">
+        <f>J11-L11</f>
+        <v>12610.65</v>
+      </c>
+      <c r="O11" s="155"/>
+      <c r="P11" s="60">
+        <f>'[1]May 2021'!$K$25</f>
+        <v>9127.68</v>
+      </c>
+      <c r="Q11" s="135">
+        <f t="shared" ref="Q11:Q13" si="1">N11-P11</f>
+        <v>3482.9699999999993</v>
+      </c>
+      <c r="R11" s="152"/>
+      <c r="S11" s="32"/>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A12" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="135">
+        <v>4240.7</v>
+      </c>
+      <c r="C12" s="134"/>
+      <c r="D12" s="60">
+        <v>0</v>
+      </c>
+      <c r="E12" s="135">
+        <f t="shared" si="0"/>
+        <v>4240.7</v>
+      </c>
+      <c r="F12" s="136"/>
+      <c r="G12" s="105">
+        <v>16000.7</v>
+      </c>
+      <c r="H12" s="60">
+        <v>64.002799999999993</v>
+      </c>
+      <c r="I12" s="60"/>
+      <c r="J12" s="135">
+        <f>B12+G12+H12+I12</f>
+        <v>20305.4028</v>
+      </c>
+      <c r="K12" s="136"/>
+      <c r="L12" s="135">
+        <f>SUM(G33:G34)</f>
+        <v>5196</v>
+      </c>
+      <c r="M12" s="152"/>
+      <c r="N12" s="135">
+        <f>J12-L12</f>
+        <v>15109.4028</v>
+      </c>
+      <c r="O12" s="136"/>
+      <c r="P12" s="60">
+        <f>'[1]May 2021'!$K$35</f>
+        <v>12800.560000000001</v>
+      </c>
+      <c r="Q12" s="135">
+        <f t="shared" si="1"/>
+        <v>2308.8427999999985</v>
+      </c>
+      <c r="R12" s="152"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A13" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="135">
+        <v>28100.18</v>
+      </c>
+      <c r="C13" s="134"/>
+      <c r="D13" s="60">
+        <v>21391.38</v>
+      </c>
+      <c r="E13" s="135">
+        <f t="shared" si="0"/>
+        <v>6708.7999999999993</v>
+      </c>
+      <c r="F13" s="136"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="135">
+        <f>B13+G13+H13+I13</f>
+        <v>28100.18</v>
+      </c>
+      <c r="K13" s="136"/>
+      <c r="L13" s="135">
+        <f>G24+G25+G26+G27</f>
+        <v>7062</v>
+      </c>
+      <c r="M13" s="152"/>
+      <c r="N13" s="135">
+        <f>J13-L13</f>
+        <v>21038.18</v>
+      </c>
+      <c r="O13" s="136"/>
+      <c r="P13" s="60">
+        <f>'[1]May 2021'!$K$45</f>
+        <v>7130.4600000000009</v>
+      </c>
+      <c r="Q13" s="135">
+        <f t="shared" si="1"/>
+        <v>13907.72</v>
+      </c>
+      <c r="R13" s="152"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A14" s="58"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="135"/>
+      <c r="R14" s="152"/>
+      <c r="T14" s="64"/>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A15" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="135">
+        <f>SUM(B10:C14)</f>
+        <v>82345.239999999991</v>
+      </c>
+      <c r="C15" s="136"/>
+      <c r="D15" s="60">
+        <f>SUM(D10:D14)</f>
+        <v>62517.78</v>
+      </c>
+      <c r="E15" s="135">
+        <f>SUM(E10:F14)</f>
+        <v>19827.46</v>
+      </c>
+      <c r="F15" s="115"/>
+      <c r="G15" s="105">
+        <f>SUM(G10:G14)</f>
+        <v>16000.7</v>
+      </c>
+      <c r="H15" s="60">
+        <f>SUM(H10:H14)</f>
+        <v>208.78280000000001</v>
+      </c>
+      <c r="I15" s="60">
+        <f>SUM(I10:I14)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="134">
+        <f>SUM(J10:K14)</f>
+        <v>98554.722799999989</v>
+      </c>
+      <c r="K15" s="136"/>
+      <c r="L15" s="135">
+        <f>SUM(L10:M14)</f>
+        <v>33234</v>
+      </c>
+      <c r="M15" s="153"/>
+      <c r="N15" s="135">
+        <f>SUM(N10:O14)</f>
+        <v>65320.722799999996</v>
+      </c>
+      <c r="O15" s="136"/>
+      <c r="P15" s="60">
+        <f>SUM(P10:P14)</f>
+        <v>29058.700000000004</v>
+      </c>
+      <c r="Q15" s="135">
+        <f>SUM(Q10:R13)</f>
+        <v>36262.022799999999</v>
+      </c>
+      <c r="R15" s="136"/>
+      <c r="S15" s="29"/>
+    </row>
+    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1">
+      <c r="A16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+    </row>
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A17" s="162" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="163"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="170" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="171"/>
+      <c r="K17" s="171"/>
+      <c r="L17" s="171"/>
+      <c r="M17" s="171"/>
+      <c r="N17" s="171"/>
+      <c r="O17" s="172"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A18" s="164"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="173" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="174"/>
+      <c r="F18" s="173" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="174"/>
+      <c r="H18" s="177" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="178"/>
+      <c r="J18" s="178"/>
+      <c r="K18" s="178"/>
+      <c r="L18" s="173" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="174"/>
+      <c r="N18" s="173" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="174"/>
+    </row>
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A19" s="164"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="176"/>
+      <c r="F19" s="173"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="170" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="171"/>
+      <c r="J19" s="170" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="171"/>
+      <c r="L19" s="175"/>
+      <c r="M19" s="176"/>
+      <c r="N19" s="175"/>
+      <c r="O19" s="176"/>
+    </row>
+    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A20" s="167"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="169"/>
+      <c r="D20" s="108" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="S20" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="T20" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="U20" s="37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="179" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="180"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="74">
+        <f>E21/24</f>
+        <v>14</v>
+      </c>
+      <c r="E21" s="10">
+        <v>336</v>
+      </c>
+      <c r="F21" s="74">
+        <f>G21/24</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
+        <f>'[2]May 2021'!$B$29</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="23">
+        <f>I21/24</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="26">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <f>K21/24</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="10">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <f>M21/24</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="10">
+        <v>0</v>
+      </c>
+      <c r="N21" s="23">
+        <f>O21/24</f>
+        <v>14</v>
+      </c>
+      <c r="O21" s="36">
+        <f>E21+G21-I21-K21-M21</f>
+        <v>336</v>
+      </c>
+      <c r="S21" s="5">
+        <v>288</v>
+      </c>
+      <c r="T21" s="7">
+        <f>2*24</f>
+        <v>48</v>
+      </c>
+      <c r="U21" s="30">
+        <f>S21+T21-O21</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="75"/>
+      <c r="W21" s="29"/>
+    </row>
+    <row r="22" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A22" s="182" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="183"/>
+      <c r="C22" s="184"/>
+      <c r="D22" s="76">
+        <f>E22/24</f>
+        <v>82</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1968</v>
+      </c>
+      <c r="F22" s="76">
+        <f>G22/24</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="12">
+        <f>'[2]May 2021'!$C$29</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="24">
+        <f>I22/24</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="33">
+        <v>0</v>
+      </c>
+      <c r="J22" s="13">
+        <f>K22/24</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="12">
+        <v>0</v>
+      </c>
+      <c r="L22" s="13">
+        <f>M22/24</f>
+        <v>2</v>
+      </c>
+      <c r="M22" s="12">
+        <v>48</v>
+      </c>
+      <c r="N22" s="24">
+        <f>O22/24</f>
+        <v>80</v>
+      </c>
+      <c r="O22" s="36">
+        <f>E22+G22-I22-K22-M22</f>
+        <v>1920</v>
+      </c>
+      <c r="S22" s="6">
+        <v>1416</v>
+      </c>
+      <c r="T22" s="9">
+        <f>20*24</f>
+        <v>480</v>
+      </c>
+      <c r="U22" s="34">
+        <f>S22+T22-O22</f>
+        <v>-24</v>
+      </c>
+      <c r="V22" s="75"/>
+      <c r="W22" s="29"/>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A23" s="185" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="186"/>
+      <c r="C23" s="187"/>
+      <c r="D23" s="77">
+        <f>SUM(D21:D22)</f>
+        <v>96</v>
+      </c>
+      <c r="E23" s="78">
+        <f t="shared" ref="E23:H23" si="2">SUM(E21:E22)</f>
+        <v>2304</v>
+      </c>
+      <c r="F23" s="77">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="79">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="80">
+        <f>SUM(I21:I22)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="77">
+        <f t="shared" ref="J23:O23" si="3">SUM(J21:J22)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="77">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M23" s="78">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="N23" s="77">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="O23" s="78">
+        <f t="shared" si="3"/>
+        <v>2256</v>
+      </c>
+      <c r="S23" s="45"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="29"/>
+    </row>
+    <row r="24" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A24" s="179" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="180"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="74">
+        <f>E24/30</f>
+        <v>138</v>
+      </c>
+      <c r="E24" s="10">
+        <v>4140</v>
+      </c>
+      <c r="F24" s="74">
+        <f>G24/30</f>
+        <v>209</v>
+      </c>
+      <c r="G24" s="10">
+        <f>'[2]May 2021'!$D$29</f>
+        <v>6270</v>
+      </c>
+      <c r="H24" s="23">
+        <f>I24/30</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0</v>
+      </c>
+      <c r="J24" s="23">
+        <f>K24/30</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="10">
+        <v>0</v>
+      </c>
+      <c r="L24" s="23">
+        <f>M24/30</f>
+        <v>258</v>
+      </c>
+      <c r="M24" s="10">
+        <f>7740</f>
+        <v>7740</v>
+      </c>
+      <c r="N24" s="23">
+        <f>O24/30</f>
+        <v>89</v>
+      </c>
+      <c r="O24" s="36">
+        <f>E24+G24-I24-K24-M24</f>
+        <v>2670</v>
+      </c>
+      <c r="S24" s="50">
+        <v>1560</v>
+      </c>
+      <c r="T24" s="51">
+        <f>34*30</f>
+        <v>1020</v>
+      </c>
+      <c r="U24" s="47">
+        <f>S24+T24-O24</f>
+        <v>-90</v>
+      </c>
+      <c r="V24" s="75"/>
+      <c r="W24" s="29"/>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A25" s="188" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="189"/>
+      <c r="C25" s="190"/>
+      <c r="D25" s="81">
+        <f>E25/24</f>
+        <v>8</v>
+      </c>
+      <c r="E25" s="36">
+        <v>192</v>
+      </c>
+      <c r="F25" s="81">
+        <f>G25/24</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="27">
+        <f>'[2]May 2021'!$E$29</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="39">
+        <f>I25/24</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="27">
+        <v>0</v>
+      </c>
+      <c r="J25" s="40">
+        <f t="shared" ref="J25" si="4">K25/24</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="36">
+        <v>0</v>
+      </c>
+      <c r="L25" s="40">
+        <f t="shared" ref="L25" si="5">M25/24</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="36">
+        <v>0</v>
+      </c>
+      <c r="N25" s="39">
+        <f>O25/24</f>
+        <v>8</v>
+      </c>
+      <c r="O25" s="36">
+        <f t="shared" ref="O25:O27" si="6">E25+G25-I25-K25-M25</f>
+        <v>192</v>
+      </c>
+      <c r="S25" s="4">
+        <v>192</v>
+      </c>
+      <c r="T25" s="22">
+        <v>0</v>
+      </c>
+      <c r="U25" s="47">
+        <f t="shared" ref="U25:U27" si="7">S25+T25-O25</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="75"/>
+      <c r="W25" s="29"/>
+    </row>
+    <row r="26" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A26" s="159" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="160"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="82">
+        <f>E26/22</f>
+        <v>25</v>
+      </c>
+      <c r="E26" s="3">
+        <v>550</v>
+      </c>
+      <c r="F26" s="82">
+        <f>G26/22</f>
+        <v>26</v>
+      </c>
+      <c r="G26" s="3">
+        <f>'[2]May 2021'!$F$29</f>
+        <v>572</v>
+      </c>
+      <c r="H26" s="25">
+        <v>0</v>
+      </c>
+      <c r="I26" s="28">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <f>K26/22</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <f>M26/22</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="25">
+        <f>O26/22</f>
+        <v>51</v>
+      </c>
+      <c r="O26" s="36">
+        <f t="shared" si="6"/>
+        <v>1122</v>
+      </c>
+      <c r="R26" s="29"/>
+      <c r="S26" s="4">
+        <v>1012</v>
+      </c>
+      <c r="T26" s="22">
+        <f>5*22</f>
+        <v>110</v>
+      </c>
+      <c r="U26" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A27" s="194" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="195"/>
+      <c r="C27" s="196"/>
+      <c r="D27" s="83">
+        <f>E27/22</f>
+        <v>3</v>
+      </c>
+      <c r="E27" s="41">
+        <v>66</v>
+      </c>
+      <c r="F27" s="83">
+        <f>G27/22</f>
+        <v>10</v>
+      </c>
+      <c r="G27" s="41">
+        <f>'[2]May 2021'!$G$29</f>
+        <v>220</v>
+      </c>
+      <c r="H27" s="42">
+        <f>I27/22</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="43">
+        <v>0</v>
+      </c>
+      <c r="J27" s="44">
+        <f>K27/22</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="41">
+        <v>0</v>
+      </c>
+      <c r="L27" s="44">
+        <f>M27/22</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="41">
+        <v>0</v>
+      </c>
+      <c r="N27" s="42">
+        <f>O27/22</f>
+        <v>13</v>
+      </c>
+      <c r="O27" s="38">
+        <f t="shared" si="6"/>
+        <v>286</v>
+      </c>
+      <c r="S27" s="52">
+        <v>220</v>
+      </c>
+      <c r="T27" s="53">
+        <f>3*22</f>
+        <v>66</v>
+      </c>
+      <c r="U27" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="75"/>
+      <c r="W27" s="29"/>
+    </row>
+    <row r="28" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A28" s="185" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="186"/>
+      <c r="C28" s="187"/>
+      <c r="D28" s="79">
+        <f t="shared" ref="D28:O28" si="8">SUM(D24:D27)</f>
+        <v>174</v>
+      </c>
+      <c r="E28" s="21">
+        <f t="shared" si="8"/>
+        <v>4948</v>
+      </c>
+      <c r="F28" s="79">
+        <f t="shared" si="8"/>
+        <v>245</v>
+      </c>
+      <c r="G28" s="21">
+        <f t="shared" si="8"/>
+        <v>7062</v>
+      </c>
+      <c r="H28" s="79">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="79">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="79">
+        <f t="shared" si="8"/>
+        <v>258</v>
+      </c>
+      <c r="M28" s="21">
+        <f t="shared" si="8"/>
+        <v>7740</v>
+      </c>
+      <c r="N28" s="79">
+        <f t="shared" si="8"/>
+        <v>161</v>
+      </c>
+      <c r="O28" s="21">
+        <f t="shared" si="8"/>
+        <v>4270</v>
+      </c>
+      <c r="S28" s="46"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="75"/>
+      <c r="W28" s="29"/>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="179" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="180"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="74">
+        <f>E29/24</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
+      <c r="F29" s="74">
+        <f>G29/24</f>
+        <v>129</v>
+      </c>
+      <c r="G29" s="10">
+        <f>'[2]May 2021'!$H$29</f>
+        <v>3096</v>
+      </c>
+      <c r="H29" s="23">
+        <f>I29/24</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="26">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <f t="shared" ref="J29:J31" si="9">K29/24</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="10">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <f t="shared" ref="L29:L31" si="10">M29/24</f>
+        <v>105</v>
+      </c>
+      <c r="M29" s="10">
+        <f>2520</f>
+        <v>2520</v>
+      </c>
+      <c r="N29" s="23">
+        <f>O29/24</f>
+        <v>24</v>
+      </c>
+      <c r="O29" s="36">
+        <f>E29+G29-I29-K29-M29</f>
+        <v>576</v>
+      </c>
+      <c r="S29" s="5">
+        <v>576</v>
+      </c>
+      <c r="T29" s="16">
+        <v>0</v>
+      </c>
+      <c r="U29" s="30">
+        <f t="shared" ref="U29:U30" si="11">S29+T29-O29</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="75"/>
+      <c r="W29" s="29"/>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="159" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="160"/>
+      <c r="C30" s="161"/>
+      <c r="D30" s="82">
+        <f>E30/24</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="82">
+        <f>G30/24</f>
+        <v>104</v>
+      </c>
+      <c r="G30" s="3">
+        <f>'[2]May 2021'!$I$29</f>
+        <v>2496</v>
+      </c>
+      <c r="H30" s="25">
+        <f>I30/24</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="28">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <f>M30/24</f>
+        <v>45</v>
+      </c>
+      <c r="M30" s="3">
+        <f>1080</f>
+        <v>1080</v>
+      </c>
+      <c r="N30" s="25">
+        <f>O30/24</f>
+        <v>59</v>
+      </c>
+      <c r="O30" s="36">
+        <f t="shared" ref="O30:O31" si="12">E30+G30-I30-K30-M30</f>
+        <v>1416</v>
+      </c>
+      <c r="S30" s="4">
+        <v>1416</v>
+      </c>
+      <c r="T30" s="8">
+        <v>0</v>
+      </c>
+      <c r="U30" s="35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="75"/>
+      <c r="W30" s="29"/>
+    </row>
+    <row r="31" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A31" s="159" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="160"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="82">
+        <f>E31/24</f>
+        <v>123</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2952</v>
+      </c>
+      <c r="F31" s="82">
+        <f>G31/24</f>
+        <v>641</v>
+      </c>
+      <c r="G31" s="3">
+        <f>'[2]May 2021'!$J$29</f>
+        <v>15384</v>
+      </c>
+      <c r="H31" s="25">
+        <f>I31/24</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="28">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="10"/>
+        <v>295</v>
+      </c>
+      <c r="M31" s="3">
+        <v>7080</v>
+      </c>
+      <c r="N31" s="25">
+        <f>O31/24</f>
+        <v>469</v>
+      </c>
+      <c r="O31" s="36">
+        <f t="shared" si="12"/>
+        <v>11256</v>
+      </c>
+      <c r="S31" s="4">
+        <v>9984</v>
+      </c>
+      <c r="T31" s="8">
+        <f>53*24</f>
+        <v>1272</v>
+      </c>
+      <c r="U31" s="35">
+        <f>S31+T31-O31</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="75"/>
+      <c r="W31" s="29"/>
+    </row>
+    <row r="32" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A32" s="185" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="186"/>
+      <c r="C32" s="187"/>
+      <c r="D32" s="84">
+        <f t="shared" ref="D32:O32" si="13">SUM(D29:D31)</f>
+        <v>123</v>
+      </c>
+      <c r="E32" s="78">
+        <f t="shared" si="13"/>
+        <v>2952</v>
+      </c>
+      <c r="F32" s="84">
+        <f t="shared" si="13"/>
+        <v>874</v>
+      </c>
+      <c r="G32" s="78">
+        <f t="shared" si="13"/>
+        <v>20976</v>
+      </c>
+      <c r="H32" s="79">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="80">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="84">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="78">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="84">
+        <f t="shared" si="13"/>
+        <v>445</v>
+      </c>
+      <c r="M32" s="78">
+        <f t="shared" si="13"/>
+        <v>10680</v>
+      </c>
+      <c r="N32" s="84">
+        <f t="shared" si="13"/>
+        <v>552</v>
+      </c>
+      <c r="O32" s="78">
+        <f t="shared" si="13"/>
+        <v>13248</v>
+      </c>
+      <c r="S32" s="17"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="75"/>
+      <c r="W32" s="29"/>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="179" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="180"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="85">
+        <f>E33/12</f>
+        <v>34</v>
+      </c>
+      <c r="E33" s="14">
+        <v>408</v>
+      </c>
+      <c r="F33" s="85">
+        <f>G33/12</f>
+        <v>172</v>
+      </c>
+      <c r="G33" s="14">
+        <f>'[2]May 2021'!$K$29</f>
+        <v>2064</v>
+      </c>
+      <c r="H33" s="23">
+        <f>I33/12</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="26">
+        <v>0</v>
+      </c>
+      <c r="J33" s="15">
+        <f t="shared" ref="J33:J34" si="14">K33/12</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="10">
+        <v>0</v>
+      </c>
+      <c r="L33" s="15">
+        <f t="shared" ref="L33:L34" si="15">M33/12</f>
+        <v>15</v>
+      </c>
+      <c r="M33" s="10">
+        <f>180</f>
+        <v>180</v>
+      </c>
+      <c r="N33" s="23">
+        <f>O33/12</f>
+        <v>191</v>
+      </c>
+      <c r="O33" s="36">
+        <f>E33+G33-I33-K33-M33</f>
+        <v>2292</v>
+      </c>
+      <c r="S33" s="5">
+        <v>2040</v>
+      </c>
+      <c r="T33" s="16">
+        <f>17*12</f>
+        <v>204</v>
+      </c>
+      <c r="U33" s="30">
+        <f>S33+T33-O33</f>
+        <v>-48</v>
+      </c>
+      <c r="V33" s="86"/>
+      <c r="W33" s="29"/>
+    </row>
+    <row r="34" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A34" s="182" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="183"/>
+      <c r="C34" s="184"/>
+      <c r="D34" s="76">
+        <f>E34/12</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0</v>
+      </c>
+      <c r="F34" s="76">
+        <f>G34/12</f>
+        <v>261</v>
+      </c>
+      <c r="G34" s="12">
+        <f>'[2]May 2021'!$L$29</f>
+        <v>3132</v>
+      </c>
+      <c r="H34" s="24">
+        <f>I34/12</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="33">
+        <v>0</v>
+      </c>
+      <c r="J34" s="13">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="12">
+        <v>0</v>
+      </c>
+      <c r="L34" s="13">
+        <f t="shared" si="15"/>
+        <v>261</v>
+      </c>
+      <c r="M34" s="12">
+        <f>3132</f>
+        <v>3132</v>
+      </c>
+      <c r="N34" s="24">
+        <f>O34/12</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="36">
+        <f>E34+G34-I34-K34-M34</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="4">
+        <v>0</v>
+      </c>
+      <c r="T34" s="22">
+        <v>0</v>
+      </c>
+      <c r="U34" s="35">
+        <f>S34+T34-O34</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="75"/>
+      <c r="W34" s="29"/>
+    </row>
+    <row r="35" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A35" s="185" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="186"/>
+      <c r="C35" s="187"/>
+      <c r="D35" s="84">
+        <f>SUM(D33:D34)</f>
+        <v>34</v>
+      </c>
+      <c r="E35" s="78">
+        <f t="shared" ref="E35:H35" si="16">SUM(E33:E34)</f>
+        <v>408</v>
+      </c>
+      <c r="F35" s="84">
+        <f t="shared" si="16"/>
+        <v>433</v>
+      </c>
+      <c r="G35" s="78">
+        <f t="shared" si="16"/>
+        <v>5196</v>
+      </c>
+      <c r="H35" s="79">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="80">
+        <f>SUM(I33:I34)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="84">
+        <f t="shared" ref="J35:O35" si="17">SUM(J33:J34)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="78">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="84">
+        <f t="shared" si="17"/>
+        <v>276</v>
+      </c>
+      <c r="M35" s="78">
+        <f t="shared" si="17"/>
+        <v>3312</v>
+      </c>
+      <c r="N35" s="84">
+        <f t="shared" si="17"/>
+        <v>191</v>
+      </c>
+      <c r="O35" s="78">
+        <f t="shared" si="17"/>
+        <v>2292</v>
+      </c>
+      <c r="S35" s="19"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="34"/>
+      <c r="W35" s="29"/>
+    </row>
+    <row r="36" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A36" s="191" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="192"/>
+      <c r="C36" s="193"/>
+      <c r="D36" s="87">
+        <f t="shared" ref="D36:O36" si="18">D21+D22+D24+D25+D26+D27+D29+D30+D31+D33+D34</f>
+        <v>427</v>
+      </c>
+      <c r="E36" s="87">
+        <f t="shared" si="18"/>
+        <v>10612</v>
+      </c>
+      <c r="F36" s="87">
+        <f t="shared" si="18"/>
+        <v>1552</v>
+      </c>
+      <c r="G36" s="87">
+        <f t="shared" si="18"/>
+        <v>33234</v>
+      </c>
+      <c r="H36" s="87">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="87">
+        <f>I21+I22+I24+I25+I26+I27+I29+I30+I31+I33+I34</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="87">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="87">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="87">
+        <f t="shared" si="18"/>
+        <v>981</v>
+      </c>
+      <c r="M36" s="87">
+        <f t="shared" si="18"/>
+        <v>21780</v>
+      </c>
+      <c r="N36" s="87">
+        <f t="shared" si="18"/>
+        <v>998</v>
+      </c>
+      <c r="O36" s="87">
+        <f t="shared" si="18"/>
+        <v>22066</v>
+      </c>
+      <c r="S36" s="88">
+        <f>SUM(S21:S34)</f>
+        <v>18704</v>
+      </c>
+      <c r="T36" s="89">
+        <f>SUM(T21:T34)</f>
+        <v>3200</v>
+      </c>
+      <c r="U36" s="31">
+        <f>S36+T36-O36</f>
+        <v>-162</v>
+      </c>
+      <c r="W36" s="29"/>
+    </row>
+    <row r="37" spans="1:23" ht="9" customHeight="1">
+      <c r="U37" s="32"/>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="V38" s="29"/>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="P40" s="75"/>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="G41" s="29"/>
+    </row>
+    <row r="42" spans="1:23" ht="18.75">
       <c r="P42" s="90"/>
     </row>
   </sheetData>
@@ -3829,1724 +5585,4 @@
   <pageMargins left="0.16" right="0.16" top="0.25" bottom="0.23" header="0.23" footer="0.2"/>
   <pageSetup orientation="landscape" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D00CD5-4420-4189-8F09-AE20283B8A47}">
-  <dimension ref="A1:W42"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6" style="2" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6" style="2" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7" style="2" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" style="2" customWidth="1"/>
-    <col min="16" max="17" width="7.85546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="6" style="2" customWidth="1"/>
-    <col min="19" max="19" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="2"/>
-    <col min="24" max="24" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="178" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="178"/>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="178"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="179"/>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="179"/>
-      <c r="N2" s="179"/>
-      <c r="O2" s="179"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="179"/>
-      <c r="R2" s="179"/>
-    </row>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="180" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="55"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="182"/>
-      <c r="B4" s="183"/>
-      <c r="C4" s="186" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="188" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="182" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="190"/>
-      <c r="J4" s="183"/>
-      <c r="K4" s="186" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="187"/>
-      <c r="M4" s="55"/>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="184"/>
-      <c r="B5" s="185"/>
-      <c r="C5" s="191" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="192"/>
-      <c r="E5" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="189"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="165" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="166"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="191" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="192"/>
-      <c r="M5" s="55"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-    </row>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="193"/>
-      <c r="B6" s="194"/>
-      <c r="C6" s="195">
-        <v>506029</v>
-      </c>
-      <c r="D6" s="196"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="104">
-        <f>C6+E6+F6</f>
-        <v>506029</v>
-      </c>
-      <c r="H6" s="195">
-        <f>G15</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="151"/>
-      <c r="J6" s="196"/>
-      <c r="K6" s="131">
-        <f>G6-H6</f>
-        <v>506029</v>
-      </c>
-      <c r="L6" s="132"/>
-      <c r="M6" s="55"/>
-      <c r="O6" s="29"/>
-      <c r="Q6" s="29"/>
-    </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="177" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="177"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="177"/>
-      <c r="J7" s="177"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177"/>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="177"/>
-      <c r="U7" s="29"/>
-    </row>
-    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="170" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="172" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="173"/>
-      <c r="D8" s="157" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="159" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="160"/>
-      <c r="G8" s="157" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="157" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="106" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="173" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="174"/>
-      <c r="L8" s="172" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="173"/>
-      <c r="N8" s="175" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="176"/>
-      <c r="P8" s="157" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" s="159" t="s">
-        <v>35</v>
-      </c>
-      <c r="R8" s="160"/>
-    </row>
-    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="171"/>
-      <c r="B9" s="165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="166"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="166" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="167"/>
-      <c r="L9" s="165" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="166"/>
-      <c r="N9" s="168" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="169"/>
-      <c r="P9" s="158"/>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="162"/>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="131">
-        <v>37393.71</v>
-      </c>
-      <c r="C10" s="151"/>
-      <c r="D10" s="60">
-        <v>28956.16</v>
-      </c>
-      <c r="E10" s="131">
-        <f>B10-D10</f>
-        <v>8437.5499999999993</v>
-      </c>
-      <c r="F10" s="132"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="131">
-        <f>B10+G10+H10+I10</f>
-        <v>37393.71</v>
-      </c>
-      <c r="K10" s="132"/>
-      <c r="L10" s="131">
-        <f>G29+G30+G31</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="152"/>
-      <c r="N10" s="131">
-        <f>J10-L10</f>
-        <v>37393.71</v>
-      </c>
-      <c r="O10" s="132"/>
-      <c r="P10" s="60">
-        <f>'[1]April 2021-22'!$K$41</f>
-        <v>28956.159999999996</v>
-      </c>
-      <c r="Q10" s="131">
-        <f>N10-P10</f>
-        <v>8437.5500000000029</v>
-      </c>
-      <c r="R10" s="156"/>
-      <c r="S10" s="32"/>
-    </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="131">
-        <v>12610.65</v>
-      </c>
-      <c r="C11" s="151"/>
-      <c r="D11" s="60">
-        <v>12170.24</v>
-      </c>
-      <c r="E11" s="131">
-        <f t="shared" ref="E11:E13" si="0">B11-D11</f>
-        <v>440.40999999999985</v>
-      </c>
-      <c r="F11" s="132"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="131">
-        <f>B11+G11+H11+I11</f>
-        <v>12610.65</v>
-      </c>
-      <c r="K11" s="132"/>
-      <c r="L11" s="131">
-        <f>SUM(G21:G22)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="152"/>
-      <c r="N11" s="163">
-        <f>J11-L11</f>
-        <v>12610.65</v>
-      </c>
-      <c r="O11" s="164"/>
-      <c r="P11" s="60">
-        <f>'[1]April 2021-22'!$K$65</f>
-        <v>12170.24</v>
-      </c>
-      <c r="Q11" s="131">
-        <f t="shared" ref="Q11:Q13" si="1">N11-P11</f>
-        <v>440.40999999999985</v>
-      </c>
-      <c r="R11" s="156"/>
-      <c r="S11" s="32"/>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="131">
-        <v>4240.7</v>
-      </c>
-      <c r="C12" s="151"/>
-      <c r="D12" s="60">
-        <v>0</v>
-      </c>
-      <c r="E12" s="131">
-        <f t="shared" si="0"/>
-        <v>4240.7</v>
-      </c>
-      <c r="F12" s="132"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="131">
-        <f>B12+G12+H12+I12</f>
-        <v>4240.7</v>
-      </c>
-      <c r="K12" s="132"/>
-      <c r="L12" s="131">
-        <f>SUM(G33:G34)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="156"/>
-      <c r="N12" s="131">
-        <f>J12-L12</f>
-        <v>4240.7</v>
-      </c>
-      <c r="O12" s="132"/>
-      <c r="P12" s="60">
-        <f>'[1]April 2021-22'!$K$57</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="131">
-        <f t="shared" si="1"/>
-        <v>4240.7</v>
-      </c>
-      <c r="R12" s="156"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="131">
-        <v>28100.18</v>
-      </c>
-      <c r="C13" s="151"/>
-      <c r="D13" s="60">
-        <v>21391.38</v>
-      </c>
-      <c r="E13" s="131">
-        <f t="shared" si="0"/>
-        <v>6708.7999999999993</v>
-      </c>
-      <c r="F13" s="132"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="131">
-        <f>B13+G13+H13+I13</f>
-        <v>28100.18</v>
-      </c>
-      <c r="K13" s="132"/>
-      <c r="L13" s="131">
-        <f>G24+G25+G26+G27</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="156"/>
-      <c r="N13" s="131">
-        <f>J13-L13</f>
-        <v>28100.18</v>
-      </c>
-      <c r="O13" s="132"/>
-      <c r="P13" s="60">
-        <f>'[1]April 2021-22'!$K$49</f>
-        <v>21391.380000000005</v>
-      </c>
-      <c r="Q13" s="131">
-        <f t="shared" si="1"/>
-        <v>6708.7999999999956</v>
-      </c>
-      <c r="R13" s="156"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-    </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="153"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="131"/>
-      <c r="R14" s="156"/>
-      <c r="T14" s="64"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="131">
-        <f>SUM(B10:C14)</f>
-        <v>82345.239999999991</v>
-      </c>
-      <c r="C15" s="132"/>
-      <c r="D15" s="60">
-        <f>SUM(D10:D14)</f>
-        <v>62517.78</v>
-      </c>
-      <c r="E15" s="131">
-        <f>SUM(E10:F14)</f>
-        <v>19827.46</v>
-      </c>
-      <c r="F15" s="150"/>
-      <c r="G15" s="105">
-        <f>SUM(G10:G14)</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="60">
-        <f>SUM(H10:H14)</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="60">
-        <f>SUM(I10:I14)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="151">
-        <f>SUM(J10:K14)</f>
-        <v>82345.239999999991</v>
-      </c>
-      <c r="K15" s="132"/>
-      <c r="L15" s="131">
-        <f>SUM(L10:M14)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="152"/>
-      <c r="N15" s="131">
-        <f>SUM(N10:O14)</f>
-        <v>82345.239999999991</v>
-      </c>
-      <c r="O15" s="132"/>
-      <c r="P15" s="60">
-        <f>SUM(P10:P14)</f>
-        <v>62517.78</v>
-      </c>
-      <c r="Q15" s="131">
-        <f>SUM(Q10:R13)</f>
-        <v>19827.46</v>
-      </c>
-      <c r="R15" s="132"/>
-      <c r="S15" s="29"/>
-    </row>
-    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-    </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="133" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="134"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="141" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="142"/>
-      <c r="M17" s="142"/>
-      <c r="N17" s="142"/>
-      <c r="O17" s="143"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="68"/>
-    </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="135"/>
-      <c r="B18" s="136"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="144" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="145"/>
-      <c r="F18" s="144" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="145"/>
-      <c r="H18" s="148" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="149"/>
-      <c r="J18" s="149"/>
-      <c r="K18" s="149"/>
-      <c r="L18" s="144" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="145"/>
-      <c r="N18" s="144" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" s="145"/>
-    </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="135"/>
-      <c r="B19" s="136"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="141" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="142"/>
-      <c r="J19" s="141" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="142"/>
-      <c r="L19" s="146"/>
-      <c r="M19" s="147"/>
-      <c r="N19" s="146"/>
-      <c r="O19" s="147"/>
-    </row>
-    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="138"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="108" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="O20" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="S20" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="T20" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="U20" s="37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="110" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="74">
-        <f>E21/24</f>
-        <v>14</v>
-      </c>
-      <c r="E21" s="10">
-        <v>336</v>
-      </c>
-      <c r="F21" s="74">
-        <f>G21/24</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="10">
-        <f>'[2]May 2021'!$B$32</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="23">
-        <f>I21/24</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="11">
-        <f>K21/24</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="11">
-        <f>M21/24</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="10"/>
-      <c r="N21" s="23">
-        <f>O21/24</f>
-        <v>14</v>
-      </c>
-      <c r="O21" s="36">
-        <f>E21+G21-I21-K21-M21</f>
-        <v>336</v>
-      </c>
-      <c r="S21" s="5">
-        <v>288</v>
-      </c>
-      <c r="T21" s="7">
-        <f>2*24</f>
-        <v>48</v>
-      </c>
-      <c r="U21" s="30">
-        <f>S21+T21-O21</f>
-        <v>0</v>
-      </c>
-      <c r="V21" s="75"/>
-      <c r="W21" s="29"/>
-    </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="76">
-        <f>E22/24</f>
-        <v>82</v>
-      </c>
-      <c r="E22" s="12">
-        <v>1968</v>
-      </c>
-      <c r="F22" s="76">
-        <f>G22/24</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="12">
-        <f>'[2]May 2021'!$C$32</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="24">
-        <f>I22/24</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="33"/>
-      <c r="J22" s="13">
-        <f>K22/24</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="13">
-        <f>M22/24</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="12"/>
-      <c r="N22" s="24">
-        <f>O22/24</f>
-        <v>82</v>
-      </c>
-      <c r="O22" s="36">
-        <f>E22+G22-I22-K22-M22</f>
-        <v>1968</v>
-      </c>
-      <c r="S22" s="6">
-        <v>1656</v>
-      </c>
-      <c r="T22" s="9">
-        <f>12*24</f>
-        <v>288</v>
-      </c>
-      <c r="U22" s="34">
-        <f>S22+T22-O22</f>
-        <v>-24</v>
-      </c>
-      <c r="V22" s="75"/>
-      <c r="W22" s="29"/>
-    </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="116" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="117"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="77">
-        <f>SUM(D21:D22)</f>
-        <v>96</v>
-      </c>
-      <c r="E23" s="78">
-        <f t="shared" ref="E23:H23" si="2">SUM(E21:E22)</f>
-        <v>2304</v>
-      </c>
-      <c r="F23" s="77">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="78">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="79">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="80">
-        <f>SUM(I21:I22)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="77">
-        <f t="shared" ref="J23:O23" si="3">SUM(J21:J22)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="78">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="77">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="78">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="77">
-        <f t="shared" si="3"/>
-        <v>96</v>
-      </c>
-      <c r="O23" s="78">
-        <f t="shared" si="3"/>
-        <v>2304</v>
-      </c>
-      <c r="S23" s="45"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="75"/>
-      <c r="W23" s="29"/>
-    </row>
-    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="110" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="111"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="74">
-        <f>E24/30</f>
-        <v>138</v>
-      </c>
-      <c r="E24" s="10">
-        <v>4140</v>
-      </c>
-      <c r="F24" s="74">
-        <f>G24/30</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="12">
-        <f>'[2]May 2021'!$D$32</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="23">
-        <f>I24/30</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="23">
-        <f>K24/30</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="23">
-        <f>M24/30</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="10"/>
-      <c r="N24" s="23">
-        <f>O24/30</f>
-        <v>138</v>
-      </c>
-      <c r="O24" s="36">
-        <f>E24+G24-I24-K24-M24</f>
-        <v>4140</v>
-      </c>
-      <c r="S24" s="50">
-        <v>3240</v>
-      </c>
-      <c r="T24" s="51">
-        <f>25*30</f>
-        <v>750</v>
-      </c>
-      <c r="U24" s="47">
-        <f>S24+T24-O24</f>
-        <v>-150</v>
-      </c>
-      <c r="V24" s="75"/>
-      <c r="W24" s="29"/>
-    </row>
-    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="128" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="129"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="81">
-        <f>E25/24</f>
-        <v>8</v>
-      </c>
-      <c r="E25" s="36">
-        <v>192</v>
-      </c>
-      <c r="F25" s="81">
-        <f>G25/24</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="12">
-        <f>'[2]May 2021'!$E$32</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="39">
-        <f>I25/24</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="40">
-        <f t="shared" ref="J25" si="4">K25/24</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="36"/>
-      <c r="L25" s="40">
-        <f t="shared" ref="L25" si="5">M25/24</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="36"/>
-      <c r="N25" s="39">
-        <f>O25/24</f>
-        <v>8</v>
-      </c>
-      <c r="O25" s="36">
-        <f t="shared" ref="O25:O27" si="6">E25+G25-I25-K25-M25</f>
-        <v>192</v>
-      </c>
-      <c r="S25" s="4">
-        <v>192</v>
-      </c>
-      <c r="T25" s="22">
-        <v>0</v>
-      </c>
-      <c r="U25" s="47">
-        <f t="shared" ref="U25:U27" si="7">S25+T25-O25</f>
-        <v>0</v>
-      </c>
-      <c r="V25" s="75"/>
-      <c r="W25" s="29"/>
-    </row>
-    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="125" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="126"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="82">
-        <f>E26/22</f>
-        <v>25</v>
-      </c>
-      <c r="E26" s="3">
-        <v>550</v>
-      </c>
-      <c r="F26" s="82">
-        <f>G26/22</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <f>'[2]May 2021'!$F$32</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="25">
-        <v>0</v>
-      </c>
-      <c r="I26" s="28"/>
-      <c r="J26" s="1">
-        <f>K26/22</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="1">
-        <f>M26/22</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="25">
-        <f>O26/22</f>
-        <v>25</v>
-      </c>
-      <c r="O26" s="36">
-        <f t="shared" si="6"/>
-        <v>550</v>
-      </c>
-      <c r="R26" s="29"/>
-      <c r="S26" s="4">
-        <v>440</v>
-      </c>
-      <c r="T26" s="22">
-        <f>5*22</f>
-        <v>110</v>
-      </c>
-      <c r="U26" s="47">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-    </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="122" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="123"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="83">
-        <f>E27/22</f>
-        <v>3</v>
-      </c>
-      <c r="E27" s="41">
-        <v>66</v>
-      </c>
-      <c r="F27" s="83">
-        <f>G27/22</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="41">
-        <f>'[2]May 2021'!$G$32</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="42">
-        <f>I27/22</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="43"/>
-      <c r="J27" s="44">
-        <f>K27/22</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="41"/>
-      <c r="L27" s="44">
-        <f>M27/22</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="41"/>
-      <c r="N27" s="42">
-        <f>O27/22</f>
-        <v>3</v>
-      </c>
-      <c r="O27" s="38">
-        <f t="shared" si="6"/>
-        <v>66</v>
-      </c>
-      <c r="S27" s="52">
-        <v>0</v>
-      </c>
-      <c r="T27" s="53">
-        <f>2*22</f>
-        <v>44</v>
-      </c>
-      <c r="U27" s="47">
-        <f t="shared" si="7"/>
-        <v>-22</v>
-      </c>
-      <c r="V27" s="75"/>
-      <c r="W27" s="29"/>
-    </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="116" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="117"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="79">
-        <f t="shared" ref="D28:O28" si="8">SUM(D24:D27)</f>
-        <v>174</v>
-      </c>
-      <c r="E28" s="21">
-        <f t="shared" si="8"/>
-        <v>4948</v>
-      </c>
-      <c r="F28" s="79">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="21">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="79">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="21">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="79">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="21">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="79">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="21">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="79">
-        <f t="shared" si="8"/>
-        <v>174</v>
-      </c>
-      <c r="O28" s="21">
-        <f t="shared" si="8"/>
-        <v>4948</v>
-      </c>
-      <c r="S28" s="46"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="75"/>
-      <c r="W28" s="29"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="110" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="111"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="74">
-        <f>E29/24</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="10">
-        <v>0</v>
-      </c>
-      <c r="F29" s="74">
-        <f>G29/24</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="10">
-        <f>'[2]May 2021'!$H$32</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="23">
-        <f>I29/24</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="11">
-        <f t="shared" ref="J29:J31" si="9">K29/24</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="10"/>
-      <c r="L29" s="11">
-        <f t="shared" ref="L29:L31" si="10">M29/24</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="10"/>
-      <c r="N29" s="23">
-        <f>O29/24</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="36">
-        <f>E29+G29-I29-K29-M29</f>
-        <v>0</v>
-      </c>
-      <c r="S29" s="5">
-        <v>0</v>
-      </c>
-      <c r="T29" s="16">
-        <v>0</v>
-      </c>
-      <c r="U29" s="30">
-        <f t="shared" ref="U29:U30" si="11">S29+T29-O29</f>
-        <v>0</v>
-      </c>
-      <c r="V29" s="75"/>
-      <c r="W29" s="29"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="125" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="126"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="82">
-        <f>E30/24</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="82">
-        <f>G30/24</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="3">
-        <f>'[2]May 2021'!$I$32</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="25">
-        <f>I30/24</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="28"/>
-      <c r="J30" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="1">
-        <f>M30/24</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="25">
-        <f>O30/24</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="36">
-        <f t="shared" ref="O30:O31" si="12">E30+G30-I30-K30-M30</f>
-        <v>0</v>
-      </c>
-      <c r="S30" s="4">
-        <v>0</v>
-      </c>
-      <c r="T30" s="8">
-        <v>0</v>
-      </c>
-      <c r="U30" s="35">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="75"/>
-      <c r="W30" s="29"/>
-    </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="125" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="126"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="82">
-        <f>E31/24</f>
-        <v>123</v>
-      </c>
-      <c r="E31" s="3">
-        <v>2952</v>
-      </c>
-      <c r="F31" s="82">
-        <f>G31/24</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="3">
-        <f>'[2]May 2021'!$J$32</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="25">
-        <f>I31/24</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="28"/>
-      <c r="J31" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="25">
-        <f>O31/24</f>
-        <v>123</v>
-      </c>
-      <c r="O31" s="36">
-        <f t="shared" si="12"/>
-        <v>2952</v>
-      </c>
-      <c r="S31" s="4">
-        <v>2760</v>
-      </c>
-      <c r="T31" s="8">
-        <f>8*24</f>
-        <v>192</v>
-      </c>
-      <c r="U31" s="35">
-        <f>S31+T31-O31</f>
-        <v>0</v>
-      </c>
-      <c r="V31" s="75"/>
-      <c r="W31" s="29"/>
-    </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="116" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="117"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="84">
-        <f t="shared" ref="D32:O32" si="13">SUM(D29:D31)</f>
-        <v>123</v>
-      </c>
-      <c r="E32" s="78">
-        <f t="shared" si="13"/>
-        <v>2952</v>
-      </c>
-      <c r="F32" s="84">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="78">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="79">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="80">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="84">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="78">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="84">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="78">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="84">
-        <f t="shared" si="13"/>
-        <v>123</v>
-      </c>
-      <c r="O32" s="78">
-        <f t="shared" si="13"/>
-        <v>2952</v>
-      </c>
-      <c r="S32" s="17"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="75"/>
-      <c r="W32" s="29"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="110" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="111"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="85">
-        <f>E33/12</f>
-        <v>34</v>
-      </c>
-      <c r="E33" s="14">
-        <v>408</v>
-      </c>
-      <c r="F33" s="85">
-        <f>G33/12</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="14">
-        <f>'[2]May 2021'!$K$32</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="23">
-        <f>I33/12</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="26"/>
-      <c r="J33" s="15">
-        <f t="shared" ref="J33:J34" si="14">K33/12</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="10"/>
-      <c r="L33" s="15">
-        <f t="shared" ref="L33:L34" si="15">M33/12</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="10"/>
-      <c r="N33" s="23">
-        <f>O33/12</f>
-        <v>34</v>
-      </c>
-      <c r="O33" s="36">
-        <f>E33+G33-I33-K33-M33</f>
-        <v>408</v>
-      </c>
-      <c r="S33" s="5">
-        <v>336</v>
-      </c>
-      <c r="T33" s="16">
-        <f>3*12</f>
-        <v>36</v>
-      </c>
-      <c r="U33" s="30">
-        <f>S33+T33-O33</f>
-        <v>-36</v>
-      </c>
-      <c r="V33" s="86"/>
-      <c r="W33" s="29"/>
-    </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="114"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="76">
-        <f>E34/12</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="12">
-        <v>0</v>
-      </c>
-      <c r="F34" s="76">
-        <f>G34/12</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="12">
-        <f>'[2]May 2021'!$L$32</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="24">
-        <f>I34/12</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="33"/>
-      <c r="J34" s="13">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="12"/>
-      <c r="L34" s="13">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="12"/>
-      <c r="N34" s="24">
-        <f>O34/12</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="36">
-        <f>E34+G34-I34-K34-M34</f>
-        <v>0</v>
-      </c>
-      <c r="S34" s="4">
-        <v>0</v>
-      </c>
-      <c r="T34" s="22">
-        <v>0</v>
-      </c>
-      <c r="U34" s="35">
-        <f>S34+T34-O34</f>
-        <v>0</v>
-      </c>
-      <c r="V34" s="75"/>
-      <c r="W34" s="29"/>
-    </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="116" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="117"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="84">
-        <f>SUM(D33:D34)</f>
-        <v>34</v>
-      </c>
-      <c r="E35" s="78">
-        <f t="shared" ref="E35:H35" si="16">SUM(E33:E34)</f>
-        <v>408</v>
-      </c>
-      <c r="F35" s="84">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="78">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="79">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="80">
-        <f>SUM(I33:I34)</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="84">
-        <f t="shared" ref="J35:O35" si="17">SUM(J33:J34)</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="78">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="84">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="78">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="84">
-        <f t="shared" si="17"/>
-        <v>34</v>
-      </c>
-      <c r="O35" s="78">
-        <f t="shared" si="17"/>
-        <v>408</v>
-      </c>
-      <c r="S35" s="19"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="34"/>
-      <c r="W35" s="29"/>
-    </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="119" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="120"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="87">
-        <f t="shared" ref="D36:O36" si="18">D21+D22+D24+D25+D26+D27+D29+D30+D31+D33+D34</f>
-        <v>427</v>
-      </c>
-      <c r="E36" s="87">
-        <f t="shared" si="18"/>
-        <v>10612</v>
-      </c>
-      <c r="F36" s="87">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="87">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="87">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="87">
-        <f>I21+I22+I24+I25+I26+I27+I29+I30+I31+I33+I34</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="87">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="87">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="87">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="87">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="87">
-        <f t="shared" si="18"/>
-        <v>427</v>
-      </c>
-      <c r="O36" s="87">
-        <f t="shared" si="18"/>
-        <v>10612</v>
-      </c>
-      <c r="S36" s="88">
-        <f>SUM(S21:S34)</f>
-        <v>8912</v>
-      </c>
-      <c r="T36" s="89">
-        <f>SUM(T21:T34)</f>
-        <v>1468</v>
-      </c>
-      <c r="U36" s="31">
-        <f>S36+T36-O36</f>
-        <v>-232</v>
-      </c>
-      <c r="W36" s="29"/>
-    </row>
-    <row r="37" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U37" s="32"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="V38" s="29"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="P40" s="75"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G41" s="29"/>
-    </row>
-    <row r="42" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="P42" s="90"/>
-    </row>
-  </sheetData>
-  <mergeCells count="91">
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A17:C20"/>
-    <mergeCell ref="D17:O17"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H5:J5"/>
-  </mergeCells>
-  <pageMargins left="0.16" right="0.16" top="0.25" bottom="0.23" header="0.23" footer="0.2"/>
-  <pageSetup orientation="landscape" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/D.K STATEMENT -2021-22.xlsx
+++ b/D.K STATEMENT -2021-22.xlsx
@@ -1265,6 +1265,203 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1278,9 +1475,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1316,15 +1510,6 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1335,191 +1520,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1650,7 +1650,7 @@
             <v>0</v>
           </cell>
           <cell r="D29">
-            <v>6270</v>
+            <v>10530</v>
           </cell>
           <cell r="E29">
             <v>0</v>
@@ -1659,7 +1659,7 @@
             <v>572</v>
           </cell>
           <cell r="G29">
-            <v>220</v>
+            <v>330</v>
           </cell>
           <cell r="H29">
             <v>3096</v>
@@ -1668,7 +1668,7 @@
             <v>2496</v>
           </cell>
           <cell r="J29">
-            <v>15384</v>
+            <v>18408</v>
           </cell>
           <cell r="K29">
             <v>2064</v>
@@ -1970,8 +1970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2001,257 +2001,257 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="178" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="178"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="179"/>
+      <c r="N2" s="179"/>
+      <c r="O2" s="179"/>
+      <c r="P2" s="179"/>
+      <c r="Q2" s="179"/>
+      <c r="R2" s="179"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="180" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="115"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="150"/>
       <c r="M3" s="55"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="116"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="120" t="s">
+      <c r="A4" s="182"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="186" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="121"/>
+      <c r="D4" s="187"/>
       <c r="E4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="122" t="s">
+      <c r="F4" s="188" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="116" t="s">
+      <c r="H4" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="124"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="120" t="s">
+      <c r="I4" s="190"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="121"/>
+      <c r="L4" s="187"/>
       <c r="M4" s="55"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A5" s="118"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="125" t="s">
+      <c r="A5" s="184"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="126"/>
+      <c r="D5" s="192"/>
       <c r="E5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="123"/>
+      <c r="F5" s="189"/>
       <c r="G5" s="95"/>
-      <c r="H5" s="127" t="s">
+      <c r="H5" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="128"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="125" t="s">
+      <c r="I5" s="166"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="191" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="126"/>
+      <c r="L5" s="192"/>
       <c r="M5" s="55"/>
       <c r="T5" s="29"/>
       <c r="U5" s="29"/>
     </row>
     <row r="6" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A6" s="130"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="132">
+      <c r="A6" s="193"/>
+      <c r="B6" s="194"/>
+      <c r="C6" s="195">
         <v>666070.9</v>
       </c>
-      <c r="D6" s="133"/>
+      <c r="D6" s="196"/>
       <c r="E6" s="54"/>
       <c r="F6" s="97"/>
       <c r="G6" s="91">
         <f>C6+E6+F6</f>
         <v>666070.9</v>
       </c>
-      <c r="H6" s="132">
+      <c r="H6" s="195">
         <f>G15</f>
         <v>160041.90000000002</v>
       </c>
-      <c r="I6" s="134"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="135">
+      <c r="I6" s="151"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="131">
         <f>G6-H6</f>
         <v>506029</v>
       </c>
-      <c r="L6" s="136"/>
+      <c r="L6" s="132"/>
       <c r="M6" s="55"/>
       <c r="O6" s="29"/>
       <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="177" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="110"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177"/>
+      <c r="Q7" s="177"/>
+      <c r="R7" s="177"/>
       <c r="U7" s="29"/>
     </row>
     <row r="8" spans="1:23" ht="22.5" customHeight="1">
-      <c r="A8" s="139" t="s">
+      <c r="A8" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="172" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="142"/>
-      <c r="D8" s="143" t="s">
+      <c r="C8" s="173"/>
+      <c r="D8" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="145" t="s">
+      <c r="E8" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="146"/>
-      <c r="G8" s="143" t="s">
+      <c r="F8" s="160"/>
+      <c r="G8" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="143" t="s">
+      <c r="H8" s="157" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="142" t="s">
+      <c r="J8" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="149"/>
-      <c r="L8" s="141" t="s">
+      <c r="K8" s="174"/>
+      <c r="L8" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="142"/>
-      <c r="N8" s="150" t="s">
+      <c r="M8" s="173"/>
+      <c r="N8" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="151"/>
-      <c r="P8" s="143" t="s">
+      <c r="O8" s="176"/>
+      <c r="P8" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="145" t="s">
+      <c r="Q8" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="146"/>
+      <c r="R8" s="160"/>
     </row>
     <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="140"/>
-      <c r="B9" s="127" t="s">
+      <c r="A9" s="171"/>
+      <c r="B9" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
       <c r="I9" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="128" t="s">
+      <c r="J9" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="129"/>
-      <c r="L9" s="127" t="s">
+      <c r="K9" s="167"/>
+      <c r="L9" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="128"/>
-      <c r="N9" s="137" t="s">
+      <c r="M9" s="166"/>
+      <c r="N9" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="138"/>
-      <c r="P9" s="144"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="148"/>
+      <c r="O9" s="169"/>
+      <c r="P9" s="158"/>
+      <c r="Q9" s="161"/>
+      <c r="R9" s="162"/>
     </row>
     <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="135">
+      <c r="B10" s="131">
         <v>2060.5</v>
       </c>
-      <c r="C10" s="134"/>
+      <c r="C10" s="151"/>
       <c r="D10" s="60">
         <v>0</v>
       </c>
-      <c r="E10" s="135">
+      <c r="E10" s="131">
         <f>B10-D10</f>
         <v>2060.5</v>
       </c>
-      <c r="F10" s="136"/>
+      <c r="F10" s="132"/>
       <c r="G10" s="92">
         <f>36127.6+36854+36195.2</f>
         <v>109176.8</v>
@@ -2261,211 +2261,211 @@
         <v>292.40999999999997</v>
       </c>
       <c r="I10" s="60"/>
-      <c r="J10" s="135">
+      <c r="J10" s="131">
         <f>B10+G10+H10+I10</f>
         <v>111529.71</v>
       </c>
-      <c r="K10" s="136"/>
-      <c r="L10" s="135">
+      <c r="K10" s="132"/>
+      <c r="L10" s="131">
         <f>G29+G30+G31</f>
         <v>74136</v>
       </c>
-      <c r="M10" s="153"/>
-      <c r="N10" s="135">
+      <c r="M10" s="152"/>
+      <c r="N10" s="131">
         <f>J10-L10</f>
         <v>37393.710000000006</v>
       </c>
-      <c r="O10" s="136"/>
+      <c r="O10" s="132"/>
       <c r="P10" s="60">
         <f>'[1]April 2021-22'!$K$41</f>
         <v>28956.159999999996</v>
       </c>
-      <c r="Q10" s="135">
+      <c r="Q10" s="131">
         <f>N10-P10</f>
         <v>8437.5500000000102</v>
       </c>
-      <c r="R10" s="152"/>
+      <c r="R10" s="156"/>
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:23" ht="15.75" thickBot="1">
       <c r="A11" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="135">
+      <c r="B11" s="131">
         <v>6061.85</v>
       </c>
-      <c r="C11" s="134"/>
+      <c r="C11" s="151"/>
       <c r="D11" s="60">
         <v>0</v>
       </c>
-      <c r="E11" s="135">
+      <c r="E11" s="131">
         <f t="shared" ref="E11:E13" si="0">B11-D11</f>
         <v>6061.85</v>
       </c>
-      <c r="F11" s="136"/>
+      <c r="F11" s="132"/>
       <c r="G11" s="92">
         <v>15212.8</v>
       </c>
       <c r="H11" s="60"/>
       <c r="I11" s="60"/>
-      <c r="J11" s="135">
+      <c r="J11" s="131">
         <f>B11+G11+H11+I11</f>
         <v>21274.65</v>
       </c>
-      <c r="K11" s="136"/>
-      <c r="L11" s="135">
+      <c r="K11" s="132"/>
+      <c r="L11" s="131">
         <f>SUM(G21:G22)</f>
         <v>8664</v>
       </c>
-      <c r="M11" s="153"/>
-      <c r="N11" s="154">
+      <c r="M11" s="152"/>
+      <c r="N11" s="163">
         <f>J11-L11</f>
         <v>12610.650000000001</v>
       </c>
-      <c r="O11" s="155"/>
+      <c r="O11" s="164"/>
       <c r="P11" s="61">
         <f>'[1]April 2021-22'!$K$65</f>
         <v>12170.24</v>
       </c>
-      <c r="Q11" s="135">
+      <c r="Q11" s="131">
         <f t="shared" ref="Q11:Q13" si="1">N11-P11</f>
         <v>440.41000000000167</v>
       </c>
-      <c r="R11" s="152"/>
+      <c r="R11" s="156"/>
       <c r="S11" s="32"/>
     </row>
     <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="135">
+      <c r="B12" s="131">
         <v>11800.7</v>
       </c>
-      <c r="C12" s="134"/>
+      <c r="C12" s="151"/>
       <c r="D12" s="60">
         <v>0</v>
       </c>
-      <c r="E12" s="135">
+      <c r="E12" s="131">
         <f t="shared" si="0"/>
         <v>11800.7</v>
       </c>
-      <c r="F12" s="136"/>
+      <c r="F12" s="132"/>
       <c r="G12" s="92"/>
       <c r="H12" s="60"/>
       <c r="I12" s="60"/>
-      <c r="J12" s="135">
+      <c r="J12" s="131">
         <f>B12+G12+H12+I12</f>
         <v>11800.7</v>
       </c>
-      <c r="K12" s="136"/>
-      <c r="L12" s="135">
+      <c r="K12" s="132"/>
+      <c r="L12" s="131">
         <f>SUM(G33:G34)</f>
         <v>7560</v>
       </c>
-      <c r="M12" s="152"/>
-      <c r="N12" s="135">
+      <c r="M12" s="156"/>
+      <c r="N12" s="131">
         <f>J12-L12</f>
         <v>4240.7000000000007</v>
       </c>
-      <c r="O12" s="136"/>
+      <c r="O12" s="132"/>
       <c r="P12" s="61">
         <f>'[1]April 2021-22'!$K$57</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="135">
+      <c r="Q12" s="131">
         <f t="shared" si="1"/>
         <v>4240.7000000000007</v>
       </c>
-      <c r="R12" s="152"/>
+      <c r="R12" s="156"/>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1">
       <c r="A13" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="135">
+      <c r="B13" s="131">
         <v>30749.88</v>
       </c>
-      <c r="C13" s="134"/>
+      <c r="C13" s="151"/>
       <c r="D13" s="60">
         <v>0</v>
       </c>
-      <c r="E13" s="135">
+      <c r="E13" s="131">
         <f t="shared" si="0"/>
         <v>30749.88</v>
       </c>
-      <c r="F13" s="136"/>
+      <c r="F13" s="132"/>
       <c r="G13" s="92">
         <f>35652.3</f>
         <v>35652.300000000003</v>
       </c>
       <c r="H13" s="60"/>
       <c r="I13" s="60"/>
-      <c r="J13" s="135">
+      <c r="J13" s="131">
         <f>B13+G13+H13+I13</f>
         <v>66402.180000000008</v>
       </c>
-      <c r="K13" s="136"/>
-      <c r="L13" s="135">
+      <c r="K13" s="132"/>
+      <c r="L13" s="131">
         <f>G24+G25+G26+G27</f>
         <v>38302</v>
       </c>
-      <c r="M13" s="152"/>
-      <c r="N13" s="135">
+      <c r="M13" s="156"/>
+      <c r="N13" s="131">
         <f>J13-L13</f>
         <v>28100.180000000008</v>
       </c>
-      <c r="O13" s="136"/>
+      <c r="O13" s="132"/>
       <c r="P13" s="61">
         <f>'[1]April 2021-22'!$K$49</f>
         <v>21391.380000000005</v>
       </c>
-      <c r="Q13" s="135">
+      <c r="Q13" s="131">
         <f t="shared" si="1"/>
         <v>6708.8000000000029</v>
       </c>
-      <c r="R13" s="152"/>
+      <c r="R13" s="156"/>
       <c r="U13" s="29"/>
       <c r="W13" s="29"/>
     </row>
     <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="58"/>
-      <c r="B14" s="156"/>
-      <c r="C14" s="157"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="154"/>
       <c r="D14" s="61"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="158"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="155"/>
       <c r="G14" s="92"/>
       <c r="H14" s="60"/>
       <c r="I14" s="60"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="136"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="132"/>
       <c r="N14" s="62"/>
       <c r="O14" s="63"/>
       <c r="P14" s="60"/>
-      <c r="Q14" s="135"/>
-      <c r="R14" s="152"/>
+      <c r="Q14" s="131"/>
+      <c r="R14" s="156"/>
       <c r="T14" s="64"/>
     </row>
     <row r="15" spans="1:23" ht="15.75" thickBot="1">
       <c r="A15" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="135">
+      <c r="B15" s="131">
         <f>SUM(B10:C14)</f>
         <v>50672.930000000008</v>
       </c>
-      <c r="C15" s="136"/>
+      <c r="C15" s="132"/>
       <c r="D15" s="60">
         <f>SUM(D10:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="135">
+      <c r="E15" s="131">
         <f>SUM(E10:F14)</f>
         <v>50672.930000000008</v>
       </c>
-      <c r="F15" s="115"/>
+      <c r="F15" s="150"/>
       <c r="G15" s="92">
         <f>SUM(G10:G14)</f>
         <v>160041.90000000002</v>
@@ -2478,30 +2478,30 @@
         <f>SUM(I10:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="134">
+      <c r="J15" s="151">
         <f>SUM(J10:K14)</f>
         <v>211007.24000000005</v>
       </c>
-      <c r="K15" s="136"/>
-      <c r="L15" s="135">
+      <c r="K15" s="132"/>
+      <c r="L15" s="131">
         <f>SUM(L10:M14)</f>
         <v>128662</v>
       </c>
-      <c r="M15" s="153"/>
-      <c r="N15" s="135">
+      <c r="M15" s="152"/>
+      <c r="N15" s="131">
         <f>SUM(N10:O14)</f>
         <v>82345.24000000002</v>
       </c>
-      <c r="O15" s="136"/>
+      <c r="O15" s="132"/>
       <c r="P15" s="60">
         <f>SUM(P10:P14)</f>
         <v>62517.78</v>
       </c>
-      <c r="Q15" s="135">
+      <c r="Q15" s="131">
         <f>SUM(Q10:R13)</f>
         <v>19827.460000000014</v>
       </c>
-      <c r="R15" s="136"/>
+      <c r="R15" s="132"/>
       <c r="S15" s="29"/>
     </row>
     <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1">
@@ -2520,82 +2520,82 @@
       <c r="M16" s="67"/>
     </row>
     <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="162" t="s">
+      <c r="A17" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="163"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="170" t="s">
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="171"/>
-      <c r="K17" s="171"/>
-      <c r="L17" s="171"/>
-      <c r="M17" s="171"/>
-      <c r="N17" s="171"/>
-      <c r="O17" s="172"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="142"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="142"/>
+      <c r="M17" s="142"/>
+      <c r="N17" s="142"/>
+      <c r="O17" s="143"/>
       <c r="P17" s="68"/>
       <c r="Q17" s="68"/>
       <c r="R17" s="68"/>
       <c r="S17" s="68"/>
     </row>
     <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="164"/>
-      <c r="B18" s="165"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="173" t="s">
+      <c r="A18" s="135"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="174"/>
-      <c r="F18" s="173" t="s">
+      <c r="E18" s="145"/>
+      <c r="F18" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="174"/>
-      <c r="H18" s="177" t="s">
+      <c r="G18" s="145"/>
+      <c r="H18" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="178"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="178"/>
-      <c r="L18" s="173" t="s">
+      <c r="I18" s="149"/>
+      <c r="J18" s="149"/>
+      <c r="K18" s="149"/>
+      <c r="L18" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="174"/>
-      <c r="N18" s="173" t="s">
+      <c r="M18" s="145"/>
+      <c r="N18" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="O18" s="174"/>
+      <c r="O18" s="145"/>
     </row>
     <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="164"/>
-      <c r="B19" s="165"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="173"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="170" t="s">
+      <c r="A19" s="135"/>
+      <c r="B19" s="136"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="171"/>
-      <c r="J19" s="170" t="s">
+      <c r="I19" s="142"/>
+      <c r="J19" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="171"/>
-      <c r="L19" s="175"/>
-      <c r="M19" s="176"/>
-      <c r="N19" s="175"/>
-      <c r="O19" s="176"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="146"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="146"/>
+      <c r="O19" s="147"/>
     </row>
     <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A20" s="167"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="169"/>
+      <c r="A20" s="138"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="140"/>
       <c r="D20" s="98" t="s">
         <v>26</v>
       </c>
@@ -2643,11 +2643,11 @@
       </c>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="179" t="s">
+      <c r="A21" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="180"/>
-      <c r="C21" s="181"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="112"/>
       <c r="D21" s="74">
         <f>E21/24</f>
         <v>4</v>
@@ -2709,11 +2709,11 @@
       <c r="W21" s="29"/>
     </row>
     <row r="22" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A22" s="182" t="s">
+      <c r="A22" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="183"/>
-      <c r="C22" s="184"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="76">
         <f>E22/24</f>
         <v>1</v>
@@ -2776,11 +2776,11 @@
       <c r="W22" s="29"/>
     </row>
     <row r="23" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A23" s="185" t="s">
+      <c r="A23" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="186"/>
-      <c r="C23" s="187"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="118"/>
       <c r="D23" s="77">
         <f>SUM(D21:D22)</f>
         <v>5</v>
@@ -2836,11 +2836,11 @@
       <c r="W23" s="29"/>
     </row>
     <row r="24" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A24" s="179" t="s">
+      <c r="A24" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="180"/>
-      <c r="C24" s="181"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="112"/>
       <c r="D24" s="74">
         <f>E24/30</f>
         <v>38</v>
@@ -2903,11 +2903,11 @@
       <c r="W24" s="29"/>
     </row>
     <row r="25" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A25" s="188" t="s">
+      <c r="A25" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="189"/>
-      <c r="C25" s="190"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="130"/>
       <c r="D25" s="81">
         <f>E25/24</f>
         <v>0</v>
@@ -2968,11 +2968,11 @@
       <c r="W25" s="29"/>
     </row>
     <row r="26" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A26" s="159" t="s">
+      <c r="A26" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="160"/>
-      <c r="C26" s="161"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="127"/>
       <c r="D26" s="82">
         <f>E26/22</f>
         <v>51</v>
@@ -3034,11 +3034,11 @@
       <c r="W26" s="29"/>
     </row>
     <row r="27" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A27" s="194" t="s">
+      <c r="A27" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="195"/>
-      <c r="C27" s="196"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="124"/>
       <c r="D27" s="83">
         <f>E27/22</f>
         <v>23</v>
@@ -3100,11 +3100,11 @@
       <c r="W27" s="29"/>
     </row>
     <row r="28" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A28" s="185" t="s">
+      <c r="A28" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="186"/>
-      <c r="C28" s="187"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="118"/>
       <c r="D28" s="79">
         <f t="shared" ref="D28:O28" si="8">SUM(D24:D27)</f>
         <v>112</v>
@@ -3160,11 +3160,11 @@
       <c r="W28" s="29"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="179" t="s">
+      <c r="A29" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="180"/>
-      <c r="C29" s="181"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="112"/>
       <c r="D29" s="74">
         <f>E29/24</f>
         <v>0</v>
@@ -3226,11 +3226,11 @@
       <c r="W29" s="29"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="159" t="s">
+      <c r="A30" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="160"/>
-      <c r="C30" s="161"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="127"/>
       <c r="D30" s="82">
         <f>E30/24</f>
         <v>49</v>
@@ -3292,11 +3292,11 @@
       <c r="W30" s="29"/>
     </row>
     <row r="31" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A31" s="159" t="s">
+      <c r="A31" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="160"/>
-      <c r="C31" s="161"/>
+      <c r="B31" s="126"/>
+      <c r="C31" s="127"/>
       <c r="D31" s="82">
         <f>E31/24</f>
         <v>18</v>
@@ -3359,11 +3359,11 @@
       <c r="W31" s="29"/>
     </row>
     <row r="32" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A32" s="185" t="s">
+      <c r="A32" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="186"/>
-      <c r="C32" s="187"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="118"/>
       <c r="D32" s="84">
         <f t="shared" ref="D32:O32" si="13">SUM(D29:D31)</f>
         <v>67</v>
@@ -3419,11 +3419,11 @@
       <c r="W32" s="29"/>
     </row>
     <row r="33" spans="1:23">
-      <c r="A33" s="179" t="s">
+      <c r="A33" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="180"/>
-      <c r="C33" s="181"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="112"/>
       <c r="D33" s="85">
         <f>E33/12</f>
         <v>35</v>
@@ -3486,11 +3486,11 @@
       <c r="W33" s="29"/>
     </row>
     <row r="34" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A34" s="182" t="s">
+      <c r="A34" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="183"/>
-      <c r="C34" s="184"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="115"/>
       <c r="D34" s="76">
         <f>E34/12</f>
         <v>0</v>
@@ -3550,11 +3550,11 @@
       <c r="W34" s="29"/>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A35" s="185" t="s">
+      <c r="A35" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="186"/>
-      <c r="C35" s="187"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="118"/>
       <c r="D35" s="84">
         <f>SUM(D33:D34)</f>
         <v>35</v>
@@ -3609,11 +3609,11 @@
       <c r="W35" s="29"/>
     </row>
     <row r="36" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A36" s="191" t="s">
+      <c r="A36" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="192"/>
-      <c r="C36" s="193"/>
+      <c r="B36" s="120"/>
+      <c r="C36" s="121"/>
       <c r="D36" s="87">
         <f t="shared" ref="D36:O36" si="18">D21+D22+D24+D25+D26+D27+D29+D30+D31+D33+D34</f>
         <v>219</v>
@@ -3673,6 +3673,1809 @@
       <c r="U36" s="31">
         <f>S36+T36-O36</f>
         <v>-232</v>
+      </c>
+      <c r="W36" s="29"/>
+    </row>
+    <row r="37" spans="1:23" ht="9" customHeight="1">
+      <c r="U37" s="32"/>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="V38" s="29"/>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="P40" s="75"/>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="G41" s="29"/>
+    </row>
+    <row r="42" spans="1:23" ht="18.75">
+      <c r="P42" s="90"/>
+    </row>
+  </sheetData>
+  <mergeCells count="91">
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="A17:C20"/>
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+  </mergeCells>
+  <pageMargins left="0.16" right="0.16" top="0.25" bottom="0.23" header="0.23" footer="0.2"/>
+  <pageSetup orientation="landscape" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6" style="2" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7" style="2" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" style="2" customWidth="1"/>
+    <col min="16" max="17" width="7.85546875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="6" style="2" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="2"/>
+    <col min="24" max="24" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="18.75">
+      <c r="A1" s="178" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="178"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A2" s="179"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="179"/>
+      <c r="N2" s="179"/>
+      <c r="O2" s="179"/>
+      <c r="P2" s="179"/>
+      <c r="Q2" s="179"/>
+      <c r="R2" s="179"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A3" s="180" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="55"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="182"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="186" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="187"/>
+      <c r="E4" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="188" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="182" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="190"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="186" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="187"/>
+      <c r="M4" s="55"/>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A5" s="184"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="191" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="192"/>
+      <c r="E5" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="189"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="165" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="166"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="191" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="192"/>
+      <c r="M5" s="55"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A6" s="193"/>
+      <c r="B6" s="194"/>
+      <c r="C6" s="195">
+        <v>506029</v>
+      </c>
+      <c r="D6" s="196"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="104">
+        <f>C6+E6+F6</f>
+        <v>506029</v>
+      </c>
+      <c r="H6" s="195">
+        <f>G15</f>
+        <v>16000.7</v>
+      </c>
+      <c r="I6" s="151"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="131">
+        <f>G6-H6</f>
+        <v>490028.3</v>
+      </c>
+      <c r="L6" s="132"/>
+      <c r="M6" s="55"/>
+      <c r="O6" s="29"/>
+      <c r="Q6" s="29"/>
+    </row>
+    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A7" s="177" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="177"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177"/>
+      <c r="Q7" s="177"/>
+      <c r="R7" s="177"/>
+      <c r="U7" s="29"/>
+    </row>
+    <row r="8" spans="1:23" ht="22.5" customHeight="1">
+      <c r="A8" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="172" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="173"/>
+      <c r="D8" s="157" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="159" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="160"/>
+      <c r="G8" s="157" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="157" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="173" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="174"/>
+      <c r="L8" s="172" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="173"/>
+      <c r="N8" s="175" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="176"/>
+      <c r="P8" s="157" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="159" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="160"/>
+    </row>
+    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A9" s="171"/>
+      <c r="B9" s="165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="166"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="102" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="166" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="167"/>
+      <c r="L9" s="165" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="166"/>
+      <c r="N9" s="168" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="169"/>
+      <c r="P9" s="158"/>
+      <c r="Q9" s="161"/>
+      <c r="R9" s="162"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A10" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="131">
+        <v>37393.71</v>
+      </c>
+      <c r="C10" s="151"/>
+      <c r="D10" s="60">
+        <v>28956.16</v>
+      </c>
+      <c r="E10" s="131">
+        <f>B10-D10</f>
+        <v>8437.5499999999993</v>
+      </c>
+      <c r="F10" s="132"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="60">
+        <v>144.78</v>
+      </c>
+      <c r="I10" s="60"/>
+      <c r="J10" s="131">
+        <f>B10+G10+H10+I10</f>
+        <v>37538.49</v>
+      </c>
+      <c r="K10" s="132"/>
+      <c r="L10" s="131">
+        <f>G29+G30+G31</f>
+        <v>24000</v>
+      </c>
+      <c r="M10" s="152"/>
+      <c r="N10" s="131">
+        <f>J10-L10</f>
+        <v>13538.489999999998</v>
+      </c>
+      <c r="O10" s="132"/>
+      <c r="P10" s="60">
+        <f>'[1]May 2021'!$K$15</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="131">
+        <f>N10-P10</f>
+        <v>13538.489999999998</v>
+      </c>
+      <c r="R10" s="156"/>
+      <c r="S10" s="32"/>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A11" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="131">
+        <v>12610.65</v>
+      </c>
+      <c r="C11" s="151"/>
+      <c r="D11" s="60">
+        <v>12170.24</v>
+      </c>
+      <c r="E11" s="131">
+        <f t="shared" ref="E11:E13" si="0">B11-D11</f>
+        <v>440.40999999999985</v>
+      </c>
+      <c r="F11" s="132"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="131">
+        <f>B11+G11+H11+I11</f>
+        <v>12610.65</v>
+      </c>
+      <c r="K11" s="132"/>
+      <c r="L11" s="131">
+        <f>SUM(G21:G22)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="152"/>
+      <c r="N11" s="163">
+        <f>J11-L11</f>
+        <v>12610.65</v>
+      </c>
+      <c r="O11" s="164"/>
+      <c r="P11" s="60">
+        <f>'[1]May 2021'!$K$25</f>
+        <v>9127.68</v>
+      </c>
+      <c r="Q11" s="131">
+        <f t="shared" ref="Q11:Q13" si="1">N11-P11</f>
+        <v>3482.9699999999993</v>
+      </c>
+      <c r="R11" s="156"/>
+      <c r="S11" s="32"/>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A12" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="131">
+        <v>4240.7</v>
+      </c>
+      <c r="C12" s="151"/>
+      <c r="D12" s="60">
+        <v>0</v>
+      </c>
+      <c r="E12" s="131">
+        <f t="shared" si="0"/>
+        <v>4240.7</v>
+      </c>
+      <c r="F12" s="132"/>
+      <c r="G12" s="105">
+        <v>16000.7</v>
+      </c>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="131">
+        <f>B12+G12+H12+I12</f>
+        <v>20241.400000000001</v>
+      </c>
+      <c r="K12" s="132"/>
+      <c r="L12" s="131">
+        <f>SUM(G33:G34)</f>
+        <v>5196</v>
+      </c>
+      <c r="M12" s="156"/>
+      <c r="N12" s="131">
+        <f>J12-L12</f>
+        <v>15045.400000000001</v>
+      </c>
+      <c r="O12" s="132"/>
+      <c r="P12" s="60">
+        <f>'[1]May 2021'!$K$35</f>
+        <v>12800.560000000001</v>
+      </c>
+      <c r="Q12" s="131">
+        <f t="shared" si="1"/>
+        <v>2244.84</v>
+      </c>
+      <c r="R12" s="156"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A13" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="131">
+        <v>28100.18</v>
+      </c>
+      <c r="C13" s="151"/>
+      <c r="D13" s="60">
+        <v>21391.38</v>
+      </c>
+      <c r="E13" s="131">
+        <f t="shared" si="0"/>
+        <v>6708.7999999999993</v>
+      </c>
+      <c r="F13" s="132"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="131">
+        <f>B13+G13+H13+I13</f>
+        <v>28100.18</v>
+      </c>
+      <c r="K13" s="132"/>
+      <c r="L13" s="131">
+        <f>G24+G25+G26+G27</f>
+        <v>11432</v>
+      </c>
+      <c r="M13" s="156"/>
+      <c r="N13" s="131">
+        <f>J13-L13</f>
+        <v>16668.18</v>
+      </c>
+      <c r="O13" s="132"/>
+      <c r="P13" s="60">
+        <f>'[1]May 2021'!$K$45</f>
+        <v>7130.4600000000009</v>
+      </c>
+      <c r="Q13" s="131">
+        <f t="shared" si="1"/>
+        <v>9537.7199999999993</v>
+      </c>
+      <c r="R13" s="156"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A14" s="58"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="131"/>
+      <c r="R14" s="156"/>
+      <c r="T14" s="64"/>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A15" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="131">
+        <f>SUM(B10:C14)</f>
+        <v>82345.239999999991</v>
+      </c>
+      <c r="C15" s="132"/>
+      <c r="D15" s="60">
+        <f>SUM(D10:D14)</f>
+        <v>62517.78</v>
+      </c>
+      <c r="E15" s="131">
+        <f>SUM(E10:F14)</f>
+        <v>19827.46</v>
+      </c>
+      <c r="F15" s="150"/>
+      <c r="G15" s="105">
+        <f>SUM(G10:G14)</f>
+        <v>16000.7</v>
+      </c>
+      <c r="H15" s="60">
+        <f>SUM(H10:H14)</f>
+        <v>144.78</v>
+      </c>
+      <c r="I15" s="60">
+        <f>SUM(I10:I14)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="151">
+        <f>SUM(J10:K14)</f>
+        <v>98490.72</v>
+      </c>
+      <c r="K15" s="132"/>
+      <c r="L15" s="131">
+        <f>SUM(L10:M14)</f>
+        <v>40628</v>
+      </c>
+      <c r="M15" s="152"/>
+      <c r="N15" s="131">
+        <f>SUM(N10:O14)</f>
+        <v>57862.720000000001</v>
+      </c>
+      <c r="O15" s="132"/>
+      <c r="P15" s="60">
+        <f>SUM(P10:P14)</f>
+        <v>29058.700000000004</v>
+      </c>
+      <c r="Q15" s="131">
+        <f>SUM(Q10:R13)</f>
+        <v>28804.019999999997</v>
+      </c>
+      <c r="R15" s="132"/>
+      <c r="S15" s="29"/>
+    </row>
+    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1">
+      <c r="A16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+    </row>
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A17" s="133" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="141" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="142"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="142"/>
+      <c r="M17" s="142"/>
+      <c r="N17" s="142"/>
+      <c r="O17" s="143"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A18" s="135"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="144" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="145"/>
+      <c r="F18" s="144" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="145"/>
+      <c r="H18" s="148" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="149"/>
+      <c r="J18" s="149"/>
+      <c r="K18" s="149"/>
+      <c r="L18" s="144" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="145"/>
+      <c r="N18" s="144" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="145"/>
+    </row>
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A19" s="135"/>
+      <c r="B19" s="136"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="141" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="142"/>
+      <c r="J19" s="141" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="142"/>
+      <c r="L19" s="146"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="146"/>
+      <c r="O19" s="147"/>
+    </row>
+    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A20" s="138"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="108" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="S20" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="T20" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="U20" s="37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="110" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="111"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="74">
+        <f>E21/24</f>
+        <v>14</v>
+      </c>
+      <c r="E21" s="10">
+        <v>336</v>
+      </c>
+      <c r="F21" s="74">
+        <f>G21/24</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
+        <f>'[2]May 2021'!$B$29</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="23">
+        <f>I21/24</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="26">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <f>K21/24</f>
+        <v>1</v>
+      </c>
+      <c r="K21" s="10">
+        <f>24</f>
+        <v>24</v>
+      </c>
+      <c r="L21" s="11">
+        <f>M21/24</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="10">
+        <v>0</v>
+      </c>
+      <c r="N21" s="23">
+        <f>O21/24</f>
+        <v>13</v>
+      </c>
+      <c r="O21" s="36">
+        <f>E21+G21-I21-K21-M21</f>
+        <v>312</v>
+      </c>
+      <c r="S21" s="5">
+        <v>288</v>
+      </c>
+      <c r="T21" s="7">
+        <f>2*24</f>
+        <v>48</v>
+      </c>
+      <c r="U21" s="30">
+        <f>S21+T21-O21</f>
+        <v>24</v>
+      </c>
+      <c r="V21" s="75"/>
+      <c r="W21" s="29"/>
+    </row>
+    <row r="22" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A22" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="114"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="76">
+        <f>E22/24</f>
+        <v>82</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1968</v>
+      </c>
+      <c r="F22" s="76">
+        <f>G22/24</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="12">
+        <f>'[2]May 2021'!$C$29</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="24">
+        <f>I22/24</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="33">
+        <v>0</v>
+      </c>
+      <c r="J22" s="13">
+        <f>K22/24</f>
+        <v>50</v>
+      </c>
+      <c r="K22" s="12">
+        <f>1200</f>
+        <v>1200</v>
+      </c>
+      <c r="L22" s="13">
+        <f>M22/24</f>
+        <v>2</v>
+      </c>
+      <c r="M22" s="12">
+        <v>48</v>
+      </c>
+      <c r="N22" s="24">
+        <f>O22/24</f>
+        <v>30</v>
+      </c>
+      <c r="O22" s="36">
+        <f>E22+G22-I22-K22-M22</f>
+        <v>720</v>
+      </c>
+      <c r="S22" s="6">
+        <v>216</v>
+      </c>
+      <c r="T22" s="9">
+        <f>20*24</f>
+        <v>480</v>
+      </c>
+      <c r="U22" s="34">
+        <f>S22+T22-O22</f>
+        <v>-24</v>
+      </c>
+      <c r="V22" s="75"/>
+      <c r="W22" s="29"/>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A23" s="116" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="117"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="77">
+        <f>SUM(D21:D22)</f>
+        <v>96</v>
+      </c>
+      <c r="E23" s="78">
+        <f t="shared" ref="E23:H23" si="2">SUM(E21:E22)</f>
+        <v>2304</v>
+      </c>
+      <c r="F23" s="77">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="79">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="80">
+        <f>SUM(I21:I22)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="77">
+        <f t="shared" ref="J23:O23" si="3">SUM(J21:J22)</f>
+        <v>51</v>
+      </c>
+      <c r="K23" s="78">
+        <f t="shared" si="3"/>
+        <v>1224</v>
+      </c>
+      <c r="L23" s="77">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M23" s="78">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="N23" s="77">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="O23" s="78">
+        <f t="shared" si="3"/>
+        <v>1032</v>
+      </c>
+      <c r="S23" s="45"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="29"/>
+    </row>
+    <row r="24" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A24" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="111"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="74">
+        <f>E24/30</f>
+        <v>138</v>
+      </c>
+      <c r="E24" s="10">
+        <v>4140</v>
+      </c>
+      <c r="F24" s="74">
+        <f>G24/30</f>
+        <v>351</v>
+      </c>
+      <c r="G24" s="10">
+        <f>'[2]May 2021'!$D$29</f>
+        <v>10530</v>
+      </c>
+      <c r="H24" s="23">
+        <f>I24/30</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0</v>
+      </c>
+      <c r="J24" s="23">
+        <f>K24/30</f>
+        <v>23</v>
+      </c>
+      <c r="K24" s="10">
+        <f>690</f>
+        <v>690</v>
+      </c>
+      <c r="L24" s="23">
+        <f>M24/30</f>
+        <v>258</v>
+      </c>
+      <c r="M24" s="10">
+        <f>7740</f>
+        <v>7740</v>
+      </c>
+      <c r="N24" s="23">
+        <f>O24/30</f>
+        <v>208</v>
+      </c>
+      <c r="O24" s="36">
+        <f>E24+G24-I24-K24-M24</f>
+        <v>6240</v>
+      </c>
+      <c r="S24" s="50">
+        <v>5220</v>
+      </c>
+      <c r="T24" s="51">
+        <f>34*30</f>
+        <v>1020</v>
+      </c>
+      <c r="U24" s="47">
+        <f>S24+T24-O24</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="75"/>
+      <c r="W24" s="29"/>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A25" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="129"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="81">
+        <f>E25/24</f>
+        <v>8</v>
+      </c>
+      <c r="E25" s="36">
+        <v>192</v>
+      </c>
+      <c r="F25" s="81">
+        <f>G25/24</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="27">
+        <f>'[2]May 2021'!$E$29</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="39">
+        <f>I25/24</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="27">
+        <v>0</v>
+      </c>
+      <c r="J25" s="40">
+        <f t="shared" ref="J25" si="4">K25/24</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="36">
+        <v>0</v>
+      </c>
+      <c r="L25" s="40">
+        <f t="shared" ref="L25" si="5">M25/24</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="36">
+        <v>0</v>
+      </c>
+      <c r="N25" s="39">
+        <f>O25/24</f>
+        <v>8</v>
+      </c>
+      <c r="O25" s="36">
+        <f t="shared" ref="O25:O27" si="6">E25+G25-I25-K25-M25</f>
+        <v>192</v>
+      </c>
+      <c r="S25" s="4">
+        <v>192</v>
+      </c>
+      <c r="T25" s="22">
+        <v>0</v>
+      </c>
+      <c r="U25" s="47">
+        <f t="shared" ref="U25:U27" si="7">S25+T25-O25</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="75"/>
+      <c r="W25" s="29"/>
+    </row>
+    <row r="26" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A26" s="125" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="126"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="82">
+        <f>E26/22</f>
+        <v>25</v>
+      </c>
+      <c r="E26" s="3">
+        <v>550</v>
+      </c>
+      <c r="F26" s="82">
+        <f>G26/22</f>
+        <v>26</v>
+      </c>
+      <c r="G26" s="3">
+        <f>'[2]May 2021'!$F$29</f>
+        <v>572</v>
+      </c>
+      <c r="H26" s="25">
+        <v>0</v>
+      </c>
+      <c r="I26" s="28">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <f>K26/22</f>
+        <v>10</v>
+      </c>
+      <c r="K26" s="3">
+        <f>220</f>
+        <v>220</v>
+      </c>
+      <c r="L26" s="1">
+        <f>M26/22</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="25">
+        <f>O26/22</f>
+        <v>41</v>
+      </c>
+      <c r="O26" s="36">
+        <f t="shared" si="6"/>
+        <v>902</v>
+      </c>
+      <c r="R26" s="29"/>
+      <c r="S26" s="4">
+        <v>792</v>
+      </c>
+      <c r="T26" s="22">
+        <f>5*22</f>
+        <v>110</v>
+      </c>
+      <c r="U26" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A27" s="122" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="123"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="83">
+        <f>E27/22</f>
+        <v>3</v>
+      </c>
+      <c r="E27" s="41">
+        <v>66</v>
+      </c>
+      <c r="F27" s="83">
+        <f>G27/22</f>
+        <v>15</v>
+      </c>
+      <c r="G27" s="41">
+        <f>'[2]May 2021'!$G$29</f>
+        <v>330</v>
+      </c>
+      <c r="H27" s="42">
+        <f>I27/22</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="43">
+        <v>0</v>
+      </c>
+      <c r="J27" s="44">
+        <f>K27/22</f>
+        <v>5</v>
+      </c>
+      <c r="K27" s="41">
+        <f>110</f>
+        <v>110</v>
+      </c>
+      <c r="L27" s="44">
+        <f>M27/22</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="41">
+        <v>0</v>
+      </c>
+      <c r="N27" s="42">
+        <f>O27/22</f>
+        <v>13</v>
+      </c>
+      <c r="O27" s="38">
+        <f t="shared" si="6"/>
+        <v>286</v>
+      </c>
+      <c r="S27" s="52">
+        <v>220</v>
+      </c>
+      <c r="T27" s="53">
+        <f>3*22</f>
+        <v>66</v>
+      </c>
+      <c r="U27" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="75"/>
+      <c r="W27" s="29"/>
+    </row>
+    <row r="28" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A28" s="116" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="117"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="79">
+        <f t="shared" ref="D28:O28" si="8">SUM(D24:D27)</f>
+        <v>174</v>
+      </c>
+      <c r="E28" s="21">
+        <f t="shared" si="8"/>
+        <v>4948</v>
+      </c>
+      <c r="F28" s="79">
+        <f t="shared" si="8"/>
+        <v>392</v>
+      </c>
+      <c r="G28" s="21">
+        <f t="shared" si="8"/>
+        <v>11432</v>
+      </c>
+      <c r="H28" s="79">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="79">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+      <c r="K28" s="21">
+        <f t="shared" si="8"/>
+        <v>1020</v>
+      </c>
+      <c r="L28" s="79">
+        <f t="shared" si="8"/>
+        <v>258</v>
+      </c>
+      <c r="M28" s="21">
+        <f t="shared" si="8"/>
+        <v>7740</v>
+      </c>
+      <c r="N28" s="79">
+        <f t="shared" si="8"/>
+        <v>270</v>
+      </c>
+      <c r="O28" s="21">
+        <f t="shared" si="8"/>
+        <v>7620</v>
+      </c>
+      <c r="S28" s="46"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="75"/>
+      <c r="W28" s="29"/>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="111"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="74">
+        <f>E29/24</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
+      <c r="F29" s="74">
+        <f>G29/24</f>
+        <v>129</v>
+      </c>
+      <c r="G29" s="10">
+        <f>'[2]May 2021'!$H$29</f>
+        <v>3096</v>
+      </c>
+      <c r="H29" s="23">
+        <f>I29/24</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="26">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <f t="shared" ref="J29:J31" si="9">K29/24</f>
+        <v>10</v>
+      </c>
+      <c r="K29" s="10">
+        <f>240</f>
+        <v>240</v>
+      </c>
+      <c r="L29" s="11">
+        <f t="shared" ref="L29:L31" si="10">M29/24</f>
+        <v>105</v>
+      </c>
+      <c r="M29" s="10">
+        <f>2520</f>
+        <v>2520</v>
+      </c>
+      <c r="N29" s="23">
+        <f>O29/24</f>
+        <v>14</v>
+      </c>
+      <c r="O29" s="36">
+        <f>E29+G29-I29-K29-M29</f>
+        <v>336</v>
+      </c>
+      <c r="S29" s="5">
+        <v>336</v>
+      </c>
+      <c r="T29" s="16">
+        <v>0</v>
+      </c>
+      <c r="U29" s="30">
+        <f t="shared" ref="U29:U30" si="11">S29+T29-O29</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="75"/>
+      <c r="W29" s="29"/>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="125" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="126"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="82">
+        <f>E30/24</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="82">
+        <f>G30/24</f>
+        <v>104</v>
+      </c>
+      <c r="G30" s="3">
+        <f>'[2]May 2021'!$I$29</f>
+        <v>2496</v>
+      </c>
+      <c r="H30" s="25">
+        <f>I30/24</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="28">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <f>M30/24</f>
+        <v>45</v>
+      </c>
+      <c r="M30" s="3">
+        <f>1080</f>
+        <v>1080</v>
+      </c>
+      <c r="N30" s="25">
+        <f>O30/24</f>
+        <v>59</v>
+      </c>
+      <c r="O30" s="36">
+        <f t="shared" ref="O30:O31" si="12">E30+G30-I30-K30-M30</f>
+        <v>1416</v>
+      </c>
+      <c r="S30" s="4">
+        <v>1416</v>
+      </c>
+      <c r="T30" s="8">
+        <v>0</v>
+      </c>
+      <c r="U30" s="35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="75"/>
+      <c r="W30" s="29"/>
+    </row>
+    <row r="31" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A31" s="125" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="126"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="82">
+        <f>E31/24</f>
+        <v>123</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2952</v>
+      </c>
+      <c r="F31" s="82">
+        <f>G31/24</f>
+        <v>767</v>
+      </c>
+      <c r="G31" s="3">
+        <f>'[2]May 2021'!$J$29</f>
+        <v>18408</v>
+      </c>
+      <c r="H31" s="25">
+        <f>I31/24</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="28">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="9"/>
+        <v>175</v>
+      </c>
+      <c r="K31" s="3">
+        <f>4200</f>
+        <v>4200</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="10"/>
+        <v>295</v>
+      </c>
+      <c r="M31" s="3">
+        <v>7080</v>
+      </c>
+      <c r="N31" s="25">
+        <f>O31/24</f>
+        <v>420</v>
+      </c>
+      <c r="O31" s="36">
+        <f t="shared" si="12"/>
+        <v>10080</v>
+      </c>
+      <c r="S31" s="4">
+        <v>8808</v>
+      </c>
+      <c r="T31" s="8">
+        <f>53*24</f>
+        <v>1272</v>
+      </c>
+      <c r="U31" s="35">
+        <f>S31+T31-O31</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="75"/>
+      <c r="W31" s="29"/>
+    </row>
+    <row r="32" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A32" s="116" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="117"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="84">
+        <f t="shared" ref="D32:O32" si="13">SUM(D29:D31)</f>
+        <v>123</v>
+      </c>
+      <c r="E32" s="78">
+        <f t="shared" si="13"/>
+        <v>2952</v>
+      </c>
+      <c r="F32" s="84">
+        <f t="shared" si="13"/>
+        <v>1000</v>
+      </c>
+      <c r="G32" s="78">
+        <f t="shared" si="13"/>
+        <v>24000</v>
+      </c>
+      <c r="H32" s="79">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="80">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="84">
+        <f t="shared" si="13"/>
+        <v>185</v>
+      </c>
+      <c r="K32" s="78">
+        <f t="shared" si="13"/>
+        <v>4440</v>
+      </c>
+      <c r="L32" s="84">
+        <f t="shared" si="13"/>
+        <v>445</v>
+      </c>
+      <c r="M32" s="78">
+        <f t="shared" si="13"/>
+        <v>10680</v>
+      </c>
+      <c r="N32" s="84">
+        <f t="shared" si="13"/>
+        <v>493</v>
+      </c>
+      <c r="O32" s="78">
+        <f t="shared" si="13"/>
+        <v>11832</v>
+      </c>
+      <c r="S32" s="17"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="75"/>
+      <c r="W32" s="29"/>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="111"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="85">
+        <f>E33/12</f>
+        <v>34</v>
+      </c>
+      <c r="E33" s="14">
+        <v>408</v>
+      </c>
+      <c r="F33" s="85">
+        <f>G33/12</f>
+        <v>172</v>
+      </c>
+      <c r="G33" s="14">
+        <f>'[2]May 2021'!$K$29</f>
+        <v>2064</v>
+      </c>
+      <c r="H33" s="23">
+        <f>I33/12</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="26">
+        <v>0</v>
+      </c>
+      <c r="J33" s="15">
+        <f t="shared" ref="J33:J34" si="14">K33/12</f>
+        <v>30</v>
+      </c>
+      <c r="K33" s="10">
+        <f>360</f>
+        <v>360</v>
+      </c>
+      <c r="L33" s="15">
+        <f t="shared" ref="L33:L34" si="15">M33/12</f>
+        <v>15</v>
+      </c>
+      <c r="M33" s="10">
+        <f>180</f>
+        <v>180</v>
+      </c>
+      <c r="N33" s="23">
+        <f>O33/12</f>
+        <v>161</v>
+      </c>
+      <c r="O33" s="36">
+        <f>E33+G33-I33-K33-M33</f>
+        <v>1932</v>
+      </c>
+      <c r="S33" s="5">
+        <v>1680</v>
+      </c>
+      <c r="T33" s="16">
+        <f>17*12</f>
+        <v>204</v>
+      </c>
+      <c r="U33" s="30">
+        <f>S33+T33-O33</f>
+        <v>-48</v>
+      </c>
+      <c r="V33" s="86"/>
+      <c r="W33" s="29"/>
+    </row>
+    <row r="34" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A34" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="114"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="76">
+        <f>E34/12</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0</v>
+      </c>
+      <c r="F34" s="76">
+        <f>G34/12</f>
+        <v>261</v>
+      </c>
+      <c r="G34" s="12">
+        <f>'[2]May 2021'!$L$29</f>
+        <v>3132</v>
+      </c>
+      <c r="H34" s="24">
+        <f>I34/12</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="33">
+        <v>0</v>
+      </c>
+      <c r="J34" s="13">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="12">
+        <v>0</v>
+      </c>
+      <c r="L34" s="13">
+        <f t="shared" si="15"/>
+        <v>261</v>
+      </c>
+      <c r="M34" s="12">
+        <f>3132</f>
+        <v>3132</v>
+      </c>
+      <c r="N34" s="24">
+        <f>O34/12</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="36">
+        <f>E34+G34-I34-K34-M34</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="4">
+        <v>0</v>
+      </c>
+      <c r="T34" s="22">
+        <v>0</v>
+      </c>
+      <c r="U34" s="35">
+        <f>S34+T34-O34</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="75"/>
+      <c r="W34" s="29"/>
+    </row>
+    <row r="35" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A35" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="117"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="84">
+        <f>SUM(D33:D34)</f>
+        <v>34</v>
+      </c>
+      <c r="E35" s="78">
+        <f t="shared" ref="E35:H35" si="16">SUM(E33:E34)</f>
+        <v>408</v>
+      </c>
+      <c r="F35" s="84">
+        <f t="shared" si="16"/>
+        <v>433</v>
+      </c>
+      <c r="G35" s="78">
+        <f t="shared" si="16"/>
+        <v>5196</v>
+      </c>
+      <c r="H35" s="79">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="80">
+        <f>SUM(I33:I34)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="84">
+        <f t="shared" ref="J35:O35" si="17">SUM(J33:J34)</f>
+        <v>30</v>
+      </c>
+      <c r="K35" s="78">
+        <f t="shared" si="17"/>
+        <v>360</v>
+      </c>
+      <c r="L35" s="84">
+        <f t="shared" si="17"/>
+        <v>276</v>
+      </c>
+      <c r="M35" s="78">
+        <f t="shared" si="17"/>
+        <v>3312</v>
+      </c>
+      <c r="N35" s="84">
+        <f t="shared" si="17"/>
+        <v>161</v>
+      </c>
+      <c r="O35" s="78">
+        <f t="shared" si="17"/>
+        <v>1932</v>
+      </c>
+      <c r="S35" s="19"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="34"/>
+      <c r="W35" s="29"/>
+    </row>
+    <row r="36" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A36" s="119" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="120"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="87">
+        <f t="shared" ref="D36:O36" si="18">D21+D22+D24+D25+D26+D27+D29+D30+D31+D33+D34</f>
+        <v>427</v>
+      </c>
+      <c r="E36" s="87">
+        <f t="shared" si="18"/>
+        <v>10612</v>
+      </c>
+      <c r="F36" s="87">
+        <f t="shared" si="18"/>
+        <v>1825</v>
+      </c>
+      <c r="G36" s="87">
+        <f t="shared" si="18"/>
+        <v>40628</v>
+      </c>
+      <c r="H36" s="87">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="87">
+        <f>I21+I22+I24+I25+I26+I27+I29+I30+I31+I33+I34</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="87">
+        <f t="shared" si="18"/>
+        <v>304</v>
+      </c>
+      <c r="K36" s="87">
+        <f t="shared" si="18"/>
+        <v>7044</v>
+      </c>
+      <c r="L36" s="87">
+        <f t="shared" si="18"/>
+        <v>981</v>
+      </c>
+      <c r="M36" s="87">
+        <f t="shared" si="18"/>
+        <v>21780</v>
+      </c>
+      <c r="N36" s="87">
+        <f t="shared" si="18"/>
+        <v>967</v>
+      </c>
+      <c r="O36" s="87">
+        <f t="shared" si="18"/>
+        <v>22416</v>
+      </c>
+      <c r="S36" s="88">
+        <f>SUM(S21:S34)</f>
+        <v>19168</v>
+      </c>
+      <c r="T36" s="89">
+        <f>SUM(T21:T34)</f>
+        <v>3200</v>
+      </c>
+      <c r="U36" s="31">
+        <f>S36+T36-O36</f>
+        <v>-48</v>
       </c>
       <c r="W36" s="29"/>
     </row>
@@ -3788,1801 +5591,4 @@
   <pageMargins left="0.16" right="0.16" top="0.25" bottom="0.23" header="0.23" footer="0.2"/>
   <pageSetup orientation="landscape" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W42"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6" style="2" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6" style="2" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7" style="2" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" style="2" customWidth="1"/>
-    <col min="16" max="17" width="7.85546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="6" style="2" customWidth="1"/>
-    <col min="19" max="19" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="2"/>
-    <col min="24" max="24" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="18.75">
-      <c r="A1" s="111" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-    </row>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A3" s="113" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="55"/>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="116"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="120" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="121"/>
-      <c r="E4" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="122" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="116" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="124"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="121"/>
-      <c r="M4" s="55"/>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A5" s="118"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="125" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="126"/>
-      <c r="E5" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="123"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="128"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="126"/>
-      <c r="M5" s="55"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-    </row>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A6" s="130"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="132">
-        <v>506029</v>
-      </c>
-      <c r="D6" s="133"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="104">
-        <f>C6+E6+F6</f>
-        <v>506029</v>
-      </c>
-      <c r="H6" s="132">
-        <f>G15</f>
-        <v>16000.7</v>
-      </c>
-      <c r="I6" s="134"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="135">
-        <f>G6-H6</f>
-        <v>490028.3</v>
-      </c>
-      <c r="L6" s="136"/>
-      <c r="M6" s="55"/>
-      <c r="O6" s="29"/>
-      <c r="Q6" s="29"/>
-    </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="110" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="110"/>
-      <c r="U7" s="29"/>
-    </row>
-    <row r="8" spans="1:23" ht="22.5" customHeight="1">
-      <c r="A8" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="141" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="142"/>
-      <c r="D8" s="143" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="145" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="146"/>
-      <c r="G8" s="143" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="143" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="106" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="142" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="149"/>
-      <c r="L8" s="141" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="142"/>
-      <c r="N8" s="150" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="151"/>
-      <c r="P8" s="143" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" s="145" t="s">
-        <v>35</v>
-      </c>
-      <c r="R8" s="146"/>
-    </row>
-    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="140"/>
-      <c r="B9" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="128" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="129"/>
-      <c r="L9" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="128"/>
-      <c r="N9" s="137" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="138"/>
-      <c r="P9" s="144"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="148"/>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="135">
-        <v>37393.71</v>
-      </c>
-      <c r="C10" s="134"/>
-      <c r="D10" s="60">
-        <v>28956.16</v>
-      </c>
-      <c r="E10" s="135">
-        <f>B10-D10</f>
-        <v>8437.5499999999993</v>
-      </c>
-      <c r="F10" s="136"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="60">
-        <v>144.78</v>
-      </c>
-      <c r="I10" s="60"/>
-      <c r="J10" s="135">
-        <f>B10+G10+H10+I10</f>
-        <v>37538.49</v>
-      </c>
-      <c r="K10" s="136"/>
-      <c r="L10" s="135">
-        <f>G29+G30+G31</f>
-        <v>20976</v>
-      </c>
-      <c r="M10" s="153"/>
-      <c r="N10" s="135">
-        <f>J10-L10</f>
-        <v>16562.489999999998</v>
-      </c>
-      <c r="O10" s="136"/>
-      <c r="P10" s="60">
-        <f>'[1]May 2021'!$K$15</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="135">
-        <f>N10-P10</f>
-        <v>16562.489999999998</v>
-      </c>
-      <c r="R10" s="152"/>
-      <c r="S10" s="32"/>
-    </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A11" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="135">
-        <v>12610.65</v>
-      </c>
-      <c r="C11" s="134"/>
-      <c r="D11" s="60">
-        <v>12170.24</v>
-      </c>
-      <c r="E11" s="135">
-        <f t="shared" ref="E11:E13" si="0">B11-D11</f>
-        <v>440.40999999999985</v>
-      </c>
-      <c r="F11" s="136"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="135">
-        <f>B11+G11+H11+I11</f>
-        <v>12610.65</v>
-      </c>
-      <c r="K11" s="136"/>
-      <c r="L11" s="135">
-        <f>SUM(G21:G22)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="153"/>
-      <c r="N11" s="154">
-        <f>J11-L11</f>
-        <v>12610.65</v>
-      </c>
-      <c r="O11" s="155"/>
-      <c r="P11" s="60">
-        <f>'[1]May 2021'!$K$25</f>
-        <v>9127.68</v>
-      </c>
-      <c r="Q11" s="135">
-        <f t="shared" ref="Q11:Q13" si="1">N11-P11</f>
-        <v>3482.9699999999993</v>
-      </c>
-      <c r="R11" s="152"/>
-      <c r="S11" s="32"/>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="135">
-        <v>4240.7</v>
-      </c>
-      <c r="C12" s="134"/>
-      <c r="D12" s="60">
-        <v>0</v>
-      </c>
-      <c r="E12" s="135">
-        <f t="shared" si="0"/>
-        <v>4240.7</v>
-      </c>
-      <c r="F12" s="136"/>
-      <c r="G12" s="105">
-        <v>16000.7</v>
-      </c>
-      <c r="H12" s="60">
-        <v>64.002799999999993</v>
-      </c>
-      <c r="I12" s="60"/>
-      <c r="J12" s="135">
-        <f>B12+G12+H12+I12</f>
-        <v>20305.4028</v>
-      </c>
-      <c r="K12" s="136"/>
-      <c r="L12" s="135">
-        <f>SUM(G33:G34)</f>
-        <v>5196</v>
-      </c>
-      <c r="M12" s="152"/>
-      <c r="N12" s="135">
-        <f>J12-L12</f>
-        <v>15109.4028</v>
-      </c>
-      <c r="O12" s="136"/>
-      <c r="P12" s="60">
-        <f>'[1]May 2021'!$K$35</f>
-        <v>12800.560000000001</v>
-      </c>
-      <c r="Q12" s="135">
-        <f t="shared" si="1"/>
-        <v>2308.8427999999985</v>
-      </c>
-      <c r="R12" s="152"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A13" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="135">
-        <v>28100.18</v>
-      </c>
-      <c r="C13" s="134"/>
-      <c r="D13" s="60">
-        <v>21391.38</v>
-      </c>
-      <c r="E13" s="135">
-        <f t="shared" si="0"/>
-        <v>6708.7999999999993</v>
-      </c>
-      <c r="F13" s="136"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="135">
-        <f>B13+G13+H13+I13</f>
-        <v>28100.18</v>
-      </c>
-      <c r="K13" s="136"/>
-      <c r="L13" s="135">
-        <f>G24+G25+G26+G27</f>
-        <v>7062</v>
-      </c>
-      <c r="M13" s="152"/>
-      <c r="N13" s="135">
-        <f>J13-L13</f>
-        <v>21038.18</v>
-      </c>
-      <c r="O13" s="136"/>
-      <c r="P13" s="60">
-        <f>'[1]May 2021'!$K$45</f>
-        <v>7130.4600000000009</v>
-      </c>
-      <c r="Q13" s="135">
-        <f t="shared" si="1"/>
-        <v>13907.72</v>
-      </c>
-      <c r="R13" s="152"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-    </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A14" s="58"/>
-      <c r="B14" s="156"/>
-      <c r="C14" s="157"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="135"/>
-      <c r="R14" s="152"/>
-      <c r="T14" s="64"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A15" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="135">
-        <f>SUM(B10:C14)</f>
-        <v>82345.239999999991</v>
-      </c>
-      <c r="C15" s="136"/>
-      <c r="D15" s="60">
-        <f>SUM(D10:D14)</f>
-        <v>62517.78</v>
-      </c>
-      <c r="E15" s="135">
-        <f>SUM(E10:F14)</f>
-        <v>19827.46</v>
-      </c>
-      <c r="F15" s="115"/>
-      <c r="G15" s="105">
-        <f>SUM(G10:G14)</f>
-        <v>16000.7</v>
-      </c>
-      <c r="H15" s="60">
-        <f>SUM(H10:H14)</f>
-        <v>208.78280000000001</v>
-      </c>
-      <c r="I15" s="60">
-        <f>SUM(I10:I14)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="134">
-        <f>SUM(J10:K14)</f>
-        <v>98554.722799999989</v>
-      </c>
-      <c r="K15" s="136"/>
-      <c r="L15" s="135">
-        <f>SUM(L10:M14)</f>
-        <v>33234</v>
-      </c>
-      <c r="M15" s="153"/>
-      <c r="N15" s="135">
-        <f>SUM(N10:O14)</f>
-        <v>65320.722799999996</v>
-      </c>
-      <c r="O15" s="136"/>
-      <c r="P15" s="60">
-        <f>SUM(P10:P14)</f>
-        <v>29058.700000000004</v>
-      </c>
-      <c r="Q15" s="135">
-        <f>SUM(Q10:R13)</f>
-        <v>36262.022799999999</v>
-      </c>
-      <c r="R15" s="136"/>
-      <c r="S15" s="29"/>
-    </row>
-    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1">
-      <c r="A16" s="65"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-    </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="162" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="163"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="170" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="171"/>
-      <c r="K17" s="171"/>
-      <c r="L17" s="171"/>
-      <c r="M17" s="171"/>
-      <c r="N17" s="171"/>
-      <c r="O17" s="172"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="68"/>
-    </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="164"/>
-      <c r="B18" s="165"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="173" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="174"/>
-      <c r="F18" s="173" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="174"/>
-      <c r="H18" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="178"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="178"/>
-      <c r="L18" s="173" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="174"/>
-      <c r="N18" s="173" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" s="174"/>
-    </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="164"/>
-      <c r="B19" s="165"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="173"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="170" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="171"/>
-      <c r="J19" s="170" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="171"/>
-      <c r="L19" s="175"/>
-      <c r="M19" s="176"/>
-      <c r="N19" s="175"/>
-      <c r="O19" s="176"/>
-    </row>
-    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A20" s="167"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="169"/>
-      <c r="D20" s="108" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="O20" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="S20" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="T20" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="U20" s="37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="A21" s="179" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="180"/>
-      <c r="C21" s="181"/>
-      <c r="D21" s="74">
-        <f>E21/24</f>
-        <v>14</v>
-      </c>
-      <c r="E21" s="10">
-        <v>336</v>
-      </c>
-      <c r="F21" s="74">
-        <f>G21/24</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="10">
-        <f>'[2]May 2021'!$B$29</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="23">
-        <f>I21/24</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="26">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
-        <f>K21/24</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="10">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11">
-        <f>M21/24</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="10">
-        <v>0</v>
-      </c>
-      <c r="N21" s="23">
-        <f>O21/24</f>
-        <v>14</v>
-      </c>
-      <c r="O21" s="36">
-        <f>E21+G21-I21-K21-M21</f>
-        <v>336</v>
-      </c>
-      <c r="S21" s="5">
-        <v>288</v>
-      </c>
-      <c r="T21" s="7">
-        <f>2*24</f>
-        <v>48</v>
-      </c>
-      <c r="U21" s="30">
-        <f>S21+T21-O21</f>
-        <v>0</v>
-      </c>
-      <c r="V21" s="75"/>
-      <c r="W21" s="29"/>
-    </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A22" s="182" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="183"/>
-      <c r="C22" s="184"/>
-      <c r="D22" s="76">
-        <f>E22/24</f>
-        <v>82</v>
-      </c>
-      <c r="E22" s="12">
-        <v>1968</v>
-      </c>
-      <c r="F22" s="76">
-        <f>G22/24</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="12">
-        <f>'[2]May 2021'!$C$29</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="24">
-        <f>I22/24</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="33">
-        <v>0</v>
-      </c>
-      <c r="J22" s="13">
-        <f>K22/24</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="12">
-        <v>0</v>
-      </c>
-      <c r="L22" s="13">
-        <f>M22/24</f>
-        <v>2</v>
-      </c>
-      <c r="M22" s="12">
-        <v>48</v>
-      </c>
-      <c r="N22" s="24">
-        <f>O22/24</f>
-        <v>80</v>
-      </c>
-      <c r="O22" s="36">
-        <f>E22+G22-I22-K22-M22</f>
-        <v>1920</v>
-      </c>
-      <c r="S22" s="6">
-        <v>1416</v>
-      </c>
-      <c r="T22" s="9">
-        <f>20*24</f>
-        <v>480</v>
-      </c>
-      <c r="U22" s="34">
-        <f>S22+T22-O22</f>
-        <v>-24</v>
-      </c>
-      <c r="V22" s="75"/>
-      <c r="W22" s="29"/>
-    </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A23" s="185" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="186"/>
-      <c r="C23" s="187"/>
-      <c r="D23" s="77">
-        <f>SUM(D21:D22)</f>
-        <v>96</v>
-      </c>
-      <c r="E23" s="78">
-        <f t="shared" ref="E23:H23" si="2">SUM(E21:E22)</f>
-        <v>2304</v>
-      </c>
-      <c r="F23" s="77">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="78">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="79">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="80">
-        <f>SUM(I21:I22)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="77">
-        <f t="shared" ref="J23:O23" si="3">SUM(J21:J22)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="78">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="77">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="M23" s="78">
-        <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="N23" s="77">
-        <f t="shared" si="3"/>
-        <v>94</v>
-      </c>
-      <c r="O23" s="78">
-        <f t="shared" si="3"/>
-        <v>2256</v>
-      </c>
-      <c r="S23" s="45"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="75"/>
-      <c r="W23" s="29"/>
-    </row>
-    <row r="24" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A24" s="179" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="180"/>
-      <c r="C24" s="181"/>
-      <c r="D24" s="74">
-        <f>E24/30</f>
-        <v>138</v>
-      </c>
-      <c r="E24" s="10">
-        <v>4140</v>
-      </c>
-      <c r="F24" s="74">
-        <f>G24/30</f>
-        <v>209</v>
-      </c>
-      <c r="G24" s="10">
-        <f>'[2]May 2021'!$D$29</f>
-        <v>6270</v>
-      </c>
-      <c r="H24" s="23">
-        <f>I24/30</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="10">
-        <v>0</v>
-      </c>
-      <c r="J24" s="23">
-        <f>K24/30</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="10">
-        <v>0</v>
-      </c>
-      <c r="L24" s="23">
-        <f>M24/30</f>
-        <v>258</v>
-      </c>
-      <c r="M24" s="10">
-        <f>7740</f>
-        <v>7740</v>
-      </c>
-      <c r="N24" s="23">
-        <f>O24/30</f>
-        <v>89</v>
-      </c>
-      <c r="O24" s="36">
-        <f>E24+G24-I24-K24-M24</f>
-        <v>2670</v>
-      </c>
-      <c r="S24" s="50">
-        <v>1560</v>
-      </c>
-      <c r="T24" s="51">
-        <f>34*30</f>
-        <v>1020</v>
-      </c>
-      <c r="U24" s="47">
-        <f>S24+T24-O24</f>
-        <v>-90</v>
-      </c>
-      <c r="V24" s="75"/>
-      <c r="W24" s="29"/>
-    </row>
-    <row r="25" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A25" s="188" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="189"/>
-      <c r="C25" s="190"/>
-      <c r="D25" s="81">
-        <f>E25/24</f>
-        <v>8</v>
-      </c>
-      <c r="E25" s="36">
-        <v>192</v>
-      </c>
-      <c r="F25" s="81">
-        <f>G25/24</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="27">
-        <f>'[2]May 2021'!$E$29</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="39">
-        <f>I25/24</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="27">
-        <v>0</v>
-      </c>
-      <c r="J25" s="40">
-        <f t="shared" ref="J25" si="4">K25/24</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="36">
-        <v>0</v>
-      </c>
-      <c r="L25" s="40">
-        <f t="shared" ref="L25" si="5">M25/24</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="36">
-        <v>0</v>
-      </c>
-      <c r="N25" s="39">
-        <f>O25/24</f>
-        <v>8</v>
-      </c>
-      <c r="O25" s="36">
-        <f t="shared" ref="O25:O27" si="6">E25+G25-I25-K25-M25</f>
-        <v>192</v>
-      </c>
-      <c r="S25" s="4">
-        <v>192</v>
-      </c>
-      <c r="T25" s="22">
-        <v>0</v>
-      </c>
-      <c r="U25" s="47">
-        <f t="shared" ref="U25:U27" si="7">S25+T25-O25</f>
-        <v>0</v>
-      </c>
-      <c r="V25" s="75"/>
-      <c r="W25" s="29"/>
-    </row>
-    <row r="26" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A26" s="159" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="160"/>
-      <c r="C26" s="161"/>
-      <c r="D26" s="82">
-        <f>E26/22</f>
-        <v>25</v>
-      </c>
-      <c r="E26" s="3">
-        <v>550</v>
-      </c>
-      <c r="F26" s="82">
-        <f>G26/22</f>
-        <v>26</v>
-      </c>
-      <c r="G26" s="3">
-        <f>'[2]May 2021'!$F$29</f>
-        <v>572</v>
-      </c>
-      <c r="H26" s="25">
-        <v>0</v>
-      </c>
-      <c r="I26" s="28">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1">
-        <f>K26/22</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="1">
-        <f>M26/22</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="25">
-        <f>O26/22</f>
-        <v>51</v>
-      </c>
-      <c r="O26" s="36">
-        <f t="shared" si="6"/>
-        <v>1122</v>
-      </c>
-      <c r="R26" s="29"/>
-      <c r="S26" s="4">
-        <v>1012</v>
-      </c>
-      <c r="T26" s="22">
-        <f>5*22</f>
-        <v>110</v>
-      </c>
-      <c r="U26" s="47">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-    </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A27" s="194" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="195"/>
-      <c r="C27" s="196"/>
-      <c r="D27" s="83">
-        <f>E27/22</f>
-        <v>3</v>
-      </c>
-      <c r="E27" s="41">
-        <v>66</v>
-      </c>
-      <c r="F27" s="83">
-        <f>G27/22</f>
-        <v>10</v>
-      </c>
-      <c r="G27" s="41">
-        <f>'[2]May 2021'!$G$29</f>
-        <v>220</v>
-      </c>
-      <c r="H27" s="42">
-        <f>I27/22</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="43">
-        <v>0</v>
-      </c>
-      <c r="J27" s="44">
-        <f>K27/22</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="41">
-        <v>0</v>
-      </c>
-      <c r="L27" s="44">
-        <f>M27/22</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="41">
-        <v>0</v>
-      </c>
-      <c r="N27" s="42">
-        <f>O27/22</f>
-        <v>13</v>
-      </c>
-      <c r="O27" s="38">
-        <f t="shared" si="6"/>
-        <v>286</v>
-      </c>
-      <c r="S27" s="52">
-        <v>220</v>
-      </c>
-      <c r="T27" s="53">
-        <f>3*22</f>
-        <v>66</v>
-      </c>
-      <c r="U27" s="47">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="75"/>
-      <c r="W27" s="29"/>
-    </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A28" s="185" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="186"/>
-      <c r="C28" s="187"/>
-      <c r="D28" s="79">
-        <f t="shared" ref="D28:O28" si="8">SUM(D24:D27)</f>
-        <v>174</v>
-      </c>
-      <c r="E28" s="21">
-        <f t="shared" si="8"/>
-        <v>4948</v>
-      </c>
-      <c r="F28" s="79">
-        <f t="shared" si="8"/>
-        <v>245</v>
-      </c>
-      <c r="G28" s="21">
-        <f t="shared" si="8"/>
-        <v>7062</v>
-      </c>
-      <c r="H28" s="79">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="21">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="79">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="21">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="79">
-        <f t="shared" si="8"/>
-        <v>258</v>
-      </c>
-      <c r="M28" s="21">
-        <f t="shared" si="8"/>
-        <v>7740</v>
-      </c>
-      <c r="N28" s="79">
-        <f t="shared" si="8"/>
-        <v>161</v>
-      </c>
-      <c r="O28" s="21">
-        <f t="shared" si="8"/>
-        <v>4270</v>
-      </c>
-      <c r="S28" s="46"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="75"/>
-      <c r="W28" s="29"/>
-    </row>
-    <row r="29" spans="1:23">
-      <c r="A29" s="179" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="180"/>
-      <c r="C29" s="181"/>
-      <c r="D29" s="74">
-        <f>E29/24</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="10">
-        <v>0</v>
-      </c>
-      <c r="F29" s="74">
-        <f>G29/24</f>
-        <v>129</v>
-      </c>
-      <c r="G29" s="10">
-        <f>'[2]May 2021'!$H$29</f>
-        <v>3096</v>
-      </c>
-      <c r="H29" s="23">
-        <f>I29/24</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="26">
-        <v>0</v>
-      </c>
-      <c r="J29" s="11">
-        <f t="shared" ref="J29:J31" si="9">K29/24</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="10">
-        <v>0</v>
-      </c>
-      <c r="L29" s="11">
-        <f t="shared" ref="L29:L31" si="10">M29/24</f>
-        <v>105</v>
-      </c>
-      <c r="M29" s="10">
-        <f>2520</f>
-        <v>2520</v>
-      </c>
-      <c r="N29" s="23">
-        <f>O29/24</f>
-        <v>24</v>
-      </c>
-      <c r="O29" s="36">
-        <f>E29+G29-I29-K29-M29</f>
-        <v>576</v>
-      </c>
-      <c r="S29" s="5">
-        <v>576</v>
-      </c>
-      <c r="T29" s="16">
-        <v>0</v>
-      </c>
-      <c r="U29" s="30">
-        <f t="shared" ref="U29:U30" si="11">S29+T29-O29</f>
-        <v>0</v>
-      </c>
-      <c r="V29" s="75"/>
-      <c r="W29" s="29"/>
-    </row>
-    <row r="30" spans="1:23">
-      <c r="A30" s="159" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="160"/>
-      <c r="C30" s="161"/>
-      <c r="D30" s="82">
-        <f>E30/24</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="82">
-        <f>G30/24</f>
-        <v>104</v>
-      </c>
-      <c r="G30" s="3">
-        <f>'[2]May 2021'!$I$29</f>
-        <v>2496</v>
-      </c>
-      <c r="H30" s="25">
-        <f>I30/24</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="28">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0</v>
-      </c>
-      <c r="L30" s="1">
-        <f>M30/24</f>
-        <v>45</v>
-      </c>
-      <c r="M30" s="3">
-        <f>1080</f>
-        <v>1080</v>
-      </c>
-      <c r="N30" s="25">
-        <f>O30/24</f>
-        <v>59</v>
-      </c>
-      <c r="O30" s="36">
-        <f t="shared" ref="O30:O31" si="12">E30+G30-I30-K30-M30</f>
-        <v>1416</v>
-      </c>
-      <c r="S30" s="4">
-        <v>1416</v>
-      </c>
-      <c r="T30" s="8">
-        <v>0</v>
-      </c>
-      <c r="U30" s="35">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="75"/>
-      <c r="W30" s="29"/>
-    </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A31" s="159" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="160"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="82">
-        <f>E31/24</f>
-        <v>123</v>
-      </c>
-      <c r="E31" s="3">
-        <v>2952</v>
-      </c>
-      <c r="F31" s="82">
-        <f>G31/24</f>
-        <v>641</v>
-      </c>
-      <c r="G31" s="3">
-        <f>'[2]May 2021'!$J$29</f>
-        <v>15384</v>
-      </c>
-      <c r="H31" s="25">
-        <f>I31/24</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="28">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0</v>
-      </c>
-      <c r="L31" s="1">
-        <f t="shared" si="10"/>
-        <v>295</v>
-      </c>
-      <c r="M31" s="3">
-        <v>7080</v>
-      </c>
-      <c r="N31" s="25">
-        <f>O31/24</f>
-        <v>469</v>
-      </c>
-      <c r="O31" s="36">
-        <f t="shared" si="12"/>
-        <v>11256</v>
-      </c>
-      <c r="S31" s="4">
-        <v>9984</v>
-      </c>
-      <c r="T31" s="8">
-        <f>53*24</f>
-        <v>1272</v>
-      </c>
-      <c r="U31" s="35">
-        <f>S31+T31-O31</f>
-        <v>0</v>
-      </c>
-      <c r="V31" s="75"/>
-      <c r="W31" s="29"/>
-    </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A32" s="185" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="186"/>
-      <c r="C32" s="187"/>
-      <c r="D32" s="84">
-        <f t="shared" ref="D32:O32" si="13">SUM(D29:D31)</f>
-        <v>123</v>
-      </c>
-      <c r="E32" s="78">
-        <f t="shared" si="13"/>
-        <v>2952</v>
-      </c>
-      <c r="F32" s="84">
-        <f t="shared" si="13"/>
-        <v>874</v>
-      </c>
-      <c r="G32" s="78">
-        <f t="shared" si="13"/>
-        <v>20976</v>
-      </c>
-      <c r="H32" s="79">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="80">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="84">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="78">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="84">
-        <f t="shared" si="13"/>
-        <v>445</v>
-      </c>
-      <c r="M32" s="78">
-        <f t="shared" si="13"/>
-        <v>10680</v>
-      </c>
-      <c r="N32" s="84">
-        <f t="shared" si="13"/>
-        <v>552</v>
-      </c>
-      <c r="O32" s="78">
-        <f t="shared" si="13"/>
-        <v>13248</v>
-      </c>
-      <c r="S32" s="17"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="75"/>
-      <c r="W32" s="29"/>
-    </row>
-    <row r="33" spans="1:23">
-      <c r="A33" s="179" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="180"/>
-      <c r="C33" s="181"/>
-      <c r="D33" s="85">
-        <f>E33/12</f>
-        <v>34</v>
-      </c>
-      <c r="E33" s="14">
-        <v>408</v>
-      </c>
-      <c r="F33" s="85">
-        <f>G33/12</f>
-        <v>172</v>
-      </c>
-      <c r="G33" s="14">
-        <f>'[2]May 2021'!$K$29</f>
-        <v>2064</v>
-      </c>
-      <c r="H33" s="23">
-        <f>I33/12</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="26">
-        <v>0</v>
-      </c>
-      <c r="J33" s="15">
-        <f t="shared" ref="J33:J34" si="14">K33/12</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="10">
-        <v>0</v>
-      </c>
-      <c r="L33" s="15">
-        <f t="shared" ref="L33:L34" si="15">M33/12</f>
-        <v>15</v>
-      </c>
-      <c r="M33" s="10">
-        <f>180</f>
-        <v>180</v>
-      </c>
-      <c r="N33" s="23">
-        <f>O33/12</f>
-        <v>191</v>
-      </c>
-      <c r="O33" s="36">
-        <f>E33+G33-I33-K33-M33</f>
-        <v>2292</v>
-      </c>
-      <c r="S33" s="5">
-        <v>2040</v>
-      </c>
-      <c r="T33" s="16">
-        <f>17*12</f>
-        <v>204</v>
-      </c>
-      <c r="U33" s="30">
-        <f>S33+T33-O33</f>
-        <v>-48</v>
-      </c>
-      <c r="V33" s="86"/>
-      <c r="W33" s="29"/>
-    </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A34" s="182" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="183"/>
-      <c r="C34" s="184"/>
-      <c r="D34" s="76">
-        <f>E34/12</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="12">
-        <v>0</v>
-      </c>
-      <c r="F34" s="76">
-        <f>G34/12</f>
-        <v>261</v>
-      </c>
-      <c r="G34" s="12">
-        <f>'[2]May 2021'!$L$29</f>
-        <v>3132</v>
-      </c>
-      <c r="H34" s="24">
-        <f>I34/12</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="33">
-        <v>0</v>
-      </c>
-      <c r="J34" s="13">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="12">
-        <v>0</v>
-      </c>
-      <c r="L34" s="13">
-        <f t="shared" si="15"/>
-        <v>261</v>
-      </c>
-      <c r="M34" s="12">
-        <f>3132</f>
-        <v>3132</v>
-      </c>
-      <c r="N34" s="24">
-        <f>O34/12</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="36">
-        <f>E34+G34-I34-K34-M34</f>
-        <v>0</v>
-      </c>
-      <c r="S34" s="4">
-        <v>0</v>
-      </c>
-      <c r="T34" s="22">
-        <v>0</v>
-      </c>
-      <c r="U34" s="35">
-        <f>S34+T34-O34</f>
-        <v>0</v>
-      </c>
-      <c r="V34" s="75"/>
-      <c r="W34" s="29"/>
-    </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A35" s="185" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="186"/>
-      <c r="C35" s="187"/>
-      <c r="D35" s="84">
-        <f>SUM(D33:D34)</f>
-        <v>34</v>
-      </c>
-      <c r="E35" s="78">
-        <f t="shared" ref="E35:H35" si="16">SUM(E33:E34)</f>
-        <v>408</v>
-      </c>
-      <c r="F35" s="84">
-        <f t="shared" si="16"/>
-        <v>433</v>
-      </c>
-      <c r="G35" s="78">
-        <f t="shared" si="16"/>
-        <v>5196</v>
-      </c>
-      <c r="H35" s="79">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="80">
-        <f>SUM(I33:I34)</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="84">
-        <f t="shared" ref="J35:O35" si="17">SUM(J33:J34)</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="78">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="84">
-        <f t="shared" si="17"/>
-        <v>276</v>
-      </c>
-      <c r="M35" s="78">
-        <f t="shared" si="17"/>
-        <v>3312</v>
-      </c>
-      <c r="N35" s="84">
-        <f t="shared" si="17"/>
-        <v>191</v>
-      </c>
-      <c r="O35" s="78">
-        <f t="shared" si="17"/>
-        <v>2292</v>
-      </c>
-      <c r="S35" s="19"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="34"/>
-      <c r="W35" s="29"/>
-    </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A36" s="191" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="192"/>
-      <c r="C36" s="193"/>
-      <c r="D36" s="87">
-        <f t="shared" ref="D36:O36" si="18">D21+D22+D24+D25+D26+D27+D29+D30+D31+D33+D34</f>
-        <v>427</v>
-      </c>
-      <c r="E36" s="87">
-        <f t="shared" si="18"/>
-        <v>10612</v>
-      </c>
-      <c r="F36" s="87">
-        <f t="shared" si="18"/>
-        <v>1552</v>
-      </c>
-      <c r="G36" s="87">
-        <f t="shared" si="18"/>
-        <v>33234</v>
-      </c>
-      <c r="H36" s="87">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="87">
-        <f>I21+I22+I24+I25+I26+I27+I29+I30+I31+I33+I34</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="87">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="87">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="87">
-        <f t="shared" si="18"/>
-        <v>981</v>
-      </c>
-      <c r="M36" s="87">
-        <f t="shared" si="18"/>
-        <v>21780</v>
-      </c>
-      <c r="N36" s="87">
-        <f t="shared" si="18"/>
-        <v>998</v>
-      </c>
-      <c r="O36" s="87">
-        <f t="shared" si="18"/>
-        <v>22066</v>
-      </c>
-      <c r="S36" s="88">
-        <f>SUM(S21:S34)</f>
-        <v>18704</v>
-      </c>
-      <c r="T36" s="89">
-        <f>SUM(T21:T34)</f>
-        <v>3200</v>
-      </c>
-      <c r="U36" s="31">
-        <f>S36+T36-O36</f>
-        <v>-162</v>
-      </c>
-      <c r="W36" s="29"/>
-    </row>
-    <row r="37" spans="1:23" ht="9" customHeight="1">
-      <c r="U37" s="32"/>
-    </row>
-    <row r="38" spans="1:23">
-      <c r="V38" s="29"/>
-    </row>
-    <row r="40" spans="1:23">
-      <c r="P40" s="75"/>
-    </row>
-    <row r="41" spans="1:23">
-      <c r="G41" s="29"/>
-    </row>
-    <row r="42" spans="1:23" ht="18.75">
-      <c r="P42" s="90"/>
-    </row>
-  </sheetData>
-  <mergeCells count="91">
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A17:C20"/>
-    <mergeCell ref="D17:O17"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-  </mergeCells>
-  <pageMargins left="0.16" right="0.16" top="0.25" bottom="0.23" header="0.23" footer="0.2"/>
-  <pageSetup orientation="landscape" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/D.K STATEMENT -2021-22.xlsx
+++ b/D.K STATEMENT -2021-22.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="58">
   <si>
     <t>Received</t>
   </si>
@@ -180,16 +180,19 @@
     <t>PACKED TEA  STATEMENT AS ON (01.04.2021 TO 30.04.2021)</t>
   </si>
   <si>
-    <t>Destination Wise Production , Despatch and Stock Report for the month of May 01.05.2021 to 15.05.2021</t>
-  </si>
-  <si>
-    <t>ORIGINAL/BLACK TEA  STATEMENT  AS ON  (01.05.2021 to 15.05.2021)</t>
-  </si>
-  <si>
-    <t>BLENDED TEA  STATEMENT AS ON (01.05.2021 TO 15.05.2021)</t>
-  </si>
-  <si>
-    <t>PACKED TEA  STATEMENT AS ON (01.05.2021 TO 15.05.2021)</t>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Destination Wise Production , Despatch and Stock Report for the month of May 01.05.2021 to 18.05.2021</t>
+  </si>
+  <si>
+    <t>ORIGINAL/BLACK TEA  STATEMENT  AS ON  (01.05.2021 to 18.05.2021)</t>
+  </si>
+  <si>
+    <t>BLENDED TEA  STATEMENT AS ON (01.05.2021 TO 18.05.2021)</t>
+  </si>
+  <si>
+    <t>PACKED TEA  STATEMENT AS ON (01.05.2021 TO 18.05.2021)</t>
   </si>
 </sst>
 </file>
@@ -1572,7 +1575,7 @@
       <sheetData sheetId="1">
         <row r="15">
           <cell r="K15">
-            <v>0</v>
+            <v>26418</v>
           </cell>
         </row>
         <row r="25">
@@ -1582,7 +1585,7 @@
         </row>
         <row r="35">
           <cell r="K35">
-            <v>12800.560000000001</v>
+            <v>9600.42</v>
           </cell>
         </row>
         <row r="45">
@@ -1644,13 +1647,13 @@
       <sheetData sheetId="1">
         <row r="29">
           <cell r="B29">
-            <v>0</v>
+            <v>672</v>
           </cell>
           <cell r="C29">
-            <v>0</v>
+            <v>2280</v>
           </cell>
           <cell r="D29">
-            <v>10530</v>
+            <v>13500</v>
           </cell>
           <cell r="E29">
             <v>0</v>
@@ -1662,16 +1665,16 @@
             <v>330</v>
           </cell>
           <cell r="H29">
-            <v>3096</v>
+            <v>4560</v>
           </cell>
           <cell r="I29">
             <v>2496</v>
           </cell>
           <cell r="J29">
-            <v>18408</v>
+            <v>21936</v>
           </cell>
           <cell r="K29">
-            <v>2064</v>
+            <v>2112</v>
           </cell>
           <cell r="L29">
             <v>3132</v>
@@ -3795,7 +3798,7 @@
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection sqref="A1:R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3826,7 +3829,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="18.75">
       <c r="A1" s="178" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" s="178"/>
       <c r="C1" s="178"/>
@@ -3868,7 +3871,7 @@
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1">
       <c r="A3" s="180" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" s="181"/>
       <c r="C3" s="181"/>
@@ -3950,13 +3953,13 @@
       </c>
       <c r="H6" s="195">
         <f>G15</f>
-        <v>16000.7</v>
+        <v>51224.7</v>
       </c>
       <c r="I6" s="151"/>
       <c r="J6" s="196"/>
       <c r="K6" s="131">
         <f>G6-H6</f>
-        <v>490028.3</v>
+        <v>454804.3</v>
       </c>
       <c r="L6" s="132"/>
       <c r="M6" s="55"/>
@@ -3965,7 +3968,7 @@
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A7" s="177" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" s="177"/>
       <c r="C7" s="177"/>
@@ -4076,36 +4079,41 @@
         <v>8437.5499999999993</v>
       </c>
       <c r="F10" s="132"/>
-      <c r="G10" s="105"/>
+      <c r="G10" s="105">
+        <v>35224</v>
+      </c>
       <c r="H10" s="60">
         <v>144.78</v>
       </c>
       <c r="I10" s="60"/>
       <c r="J10" s="131">
         <f>B10+G10+H10+I10</f>
-        <v>37538.49</v>
+        <v>72762.489999999991</v>
       </c>
       <c r="K10" s="132"/>
       <c r="L10" s="131">
         <f>G29+G30+G31</f>
-        <v>24000</v>
+        <v>28992</v>
       </c>
       <c r="M10" s="152"/>
       <c r="N10" s="131">
         <f>J10-L10</f>
-        <v>13538.489999999998</v>
+        <v>43770.489999999991</v>
       </c>
       <c r="O10" s="132"/>
       <c r="P10" s="60">
         <f>'[1]May 2021'!$K$15</f>
-        <v>0</v>
+        <v>26418</v>
       </c>
       <c r="Q10" s="131">
         <f>N10-P10</f>
-        <v>13538.489999999998</v>
+        <v>17352.489999999991</v>
       </c>
       <c r="R10" s="156"/>
       <c r="S10" s="32"/>
+      <c r="U10" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="1:23" ht="15.75" thickBot="1">
       <c r="A11" s="58" t="s">
@@ -4133,12 +4141,12 @@
       <c r="K11" s="132"/>
       <c r="L11" s="131">
         <f>SUM(G21:G22)</f>
-        <v>0</v>
+        <v>2952</v>
       </c>
       <c r="M11" s="152"/>
       <c r="N11" s="163">
         <f>J11-L11</f>
-        <v>12610.65</v>
+        <v>9658.65</v>
       </c>
       <c r="O11" s="164"/>
       <c r="P11" s="60">
@@ -4147,7 +4155,7 @@
       </c>
       <c r="Q11" s="131">
         <f t="shared" ref="Q11:Q13" si="1">N11-P11</f>
-        <v>3482.9699999999993</v>
+        <v>530.96999999999935</v>
       </c>
       <c r="R11" s="156"/>
       <c r="S11" s="32"/>
@@ -4180,21 +4188,21 @@
       <c r="K12" s="132"/>
       <c r="L12" s="131">
         <f>SUM(G33:G34)</f>
-        <v>5196</v>
+        <v>5244</v>
       </c>
       <c r="M12" s="156"/>
       <c r="N12" s="131">
         <f>J12-L12</f>
-        <v>15045.400000000001</v>
+        <v>14997.400000000001</v>
       </c>
       <c r="O12" s="132"/>
       <c r="P12" s="60">
         <f>'[1]May 2021'!$K$35</f>
-        <v>12800.560000000001</v>
+        <v>9600.42</v>
       </c>
       <c r="Q12" s="131">
         <f t="shared" si="1"/>
-        <v>2244.84</v>
+        <v>5396.9800000000014</v>
       </c>
       <c r="R12" s="156"/>
     </row>
@@ -4224,12 +4232,12 @@
       <c r="K13" s="132"/>
       <c r="L13" s="131">
         <f>G24+G25+G26+G27</f>
-        <v>11432</v>
+        <v>14402</v>
       </c>
       <c r="M13" s="156"/>
       <c r="N13" s="131">
         <f>J13-L13</f>
-        <v>16668.18</v>
+        <v>13698.18</v>
       </c>
       <c r="O13" s="132"/>
       <c r="P13" s="60">
@@ -4238,7 +4246,7 @@
       </c>
       <c r="Q13" s="131">
         <f t="shared" si="1"/>
-        <v>9537.7199999999993</v>
+        <v>6567.7199999999993</v>
       </c>
       <c r="R13" s="156"/>
       <c r="V13" s="29"/>
@@ -4285,7 +4293,7 @@
       <c r="F15" s="150"/>
       <c r="G15" s="105">
         <f>SUM(G10:G14)</f>
-        <v>16000.7</v>
+        <v>51224.7</v>
       </c>
       <c r="H15" s="60">
         <f>SUM(H10:H14)</f>
@@ -4297,26 +4305,26 @@
       </c>
       <c r="J15" s="151">
         <f>SUM(J10:K14)</f>
-        <v>98490.72</v>
+        <v>133714.71999999997</v>
       </c>
       <c r="K15" s="132"/>
       <c r="L15" s="131">
         <f>SUM(L10:M14)</f>
-        <v>40628</v>
+        <v>51590</v>
       </c>
       <c r="M15" s="152"/>
       <c r="N15" s="131">
         <f>SUM(N10:O14)</f>
-        <v>57862.720000000001</v>
+        <v>82124.72</v>
       </c>
       <c r="O15" s="132"/>
       <c r="P15" s="60">
         <f>SUM(P10:P14)</f>
-        <v>29058.700000000004</v>
+        <v>52276.56</v>
       </c>
       <c r="Q15" s="131">
         <f>SUM(Q10:R13)</f>
-        <v>28804.019999999997</v>
+        <v>29848.159999999996</v>
       </c>
       <c r="R15" s="132"/>
       <c r="S15" s="29"/>
@@ -4343,7 +4351,7 @@
       <c r="B17" s="134"/>
       <c r="C17" s="134"/>
       <c r="D17" s="141" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17" s="142"/>
       <c r="F17" s="142"/>
@@ -4474,18 +4482,19 @@
       </c>
       <c r="F21" s="74">
         <f>G21/24</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G21" s="10">
         <f>'[2]May 2021'!$B$29</f>
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="H21" s="23">
         <f>I21/24</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I21" s="26">
-        <v>0</v>
+        <f>600</f>
+        <v>600</v>
       </c>
       <c r="J21" s="11">
         <f>K21/24</f>
@@ -4497,21 +4506,22 @@
       </c>
       <c r="L21" s="11">
         <f>M21/24</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M21" s="10">
-        <v>0</v>
+        <f>120</f>
+        <v>120</v>
       </c>
       <c r="N21" s="23">
         <f>O21/24</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O21" s="36">
         <f>E21+G21-I21-K21-M21</f>
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="S21" s="5">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="T21" s="7">
         <f>2*24</f>
@@ -4539,18 +4549,19 @@
       </c>
       <c r="F22" s="76">
         <f>G22/24</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G22" s="12">
         <f>'[2]May 2021'!$C$29</f>
-        <v>0</v>
+        <v>2280</v>
       </c>
       <c r="H22" s="24">
         <f>I22/24</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I22" s="33">
-        <v>0</v>
+        <f>1200</f>
+        <v>1200</v>
       </c>
       <c r="J22" s="13">
         <f>K22/24</f>
@@ -4562,21 +4573,22 @@
       </c>
       <c r="L22" s="13">
         <f>M22/24</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M22" s="12">
-        <v>48</v>
+        <f>48+240</f>
+        <v>288</v>
       </c>
       <c r="N22" s="24">
         <f>O22/24</f>
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="O22" s="36">
         <f>E22+G22-I22-K22-M22</f>
-        <v>720</v>
+        <v>1560</v>
       </c>
       <c r="S22" s="6">
-        <v>216</v>
+        <v>1056</v>
       </c>
       <c r="T22" s="9">
         <f>20*24</f>
@@ -4605,19 +4617,19 @@
       </c>
       <c r="F23" s="77">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="G23" s="78">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2952</v>
       </c>
       <c r="H23" s="79">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I23" s="80">
         <f>SUM(I21:I22)</f>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="J23" s="77">
         <f t="shared" ref="J23:O23" si="3">SUM(J21:J22)</f>
@@ -4629,19 +4641,19 @@
       </c>
       <c r="L23" s="77">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="M23" s="78">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>408</v>
       </c>
       <c r="N23" s="77">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="O23" s="78">
         <f t="shared" si="3"/>
-        <v>1032</v>
+        <v>1824</v>
       </c>
       <c r="S23" s="45"/>
       <c r="T23" s="48"/>
@@ -4664,11 +4676,11 @@
       </c>
       <c r="F24" s="74">
         <f>G24/30</f>
-        <v>351</v>
+        <v>450</v>
       </c>
       <c r="G24" s="10">
         <f>'[2]May 2021'!$D$29</f>
-        <v>10530</v>
+        <v>13500</v>
       </c>
       <c r="H24" s="23">
         <f>I24/30</f>
@@ -4687,22 +4699,22 @@
       </c>
       <c r="L24" s="23">
         <f>M24/30</f>
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="M24" s="10">
-        <f>7740</f>
-        <v>7740</v>
+        <f>7740+300</f>
+        <v>8040</v>
       </c>
       <c r="N24" s="23">
         <f>O24/30</f>
-        <v>208</v>
+        <v>297</v>
       </c>
       <c r="O24" s="36">
         <f>E24+G24-I24-K24-M24</f>
-        <v>6240</v>
+        <v>8910</v>
       </c>
       <c r="S24" s="50">
-        <v>5220</v>
+        <v>8190</v>
       </c>
       <c r="T24" s="51">
         <f>34*30</f>
@@ -4710,7 +4722,7 @@
       </c>
       <c r="U24" s="47">
         <f>S24+T24-O24</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="V24" s="75"/>
       <c r="W24" s="29"/>
@@ -4803,7 +4815,8 @@
         <v>0</v>
       </c>
       <c r="I26" s="28">
-        <v>0</v>
+        <f>220</f>
+        <v>220</v>
       </c>
       <c r="J26" s="1">
         <f>K26/22</f>
@@ -4822,15 +4835,15 @@
       </c>
       <c r="N26" s="25">
         <f>O26/22</f>
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="O26" s="36">
         <f t="shared" si="6"/>
-        <v>902</v>
+        <v>682</v>
       </c>
       <c r="R26" s="29"/>
       <c r="S26" s="4">
-        <v>792</v>
+        <v>572</v>
       </c>
       <c r="T26" s="22">
         <f>5*22</f>
@@ -4924,11 +4937,11 @@
       </c>
       <c r="F28" s="79">
         <f t="shared" si="8"/>
-        <v>392</v>
+        <v>491</v>
       </c>
       <c r="G28" s="21">
         <f t="shared" si="8"/>
-        <v>11432</v>
+        <v>14402</v>
       </c>
       <c r="H28" s="79">
         <f t="shared" si="8"/>
@@ -4936,7 +4949,7 @@
       </c>
       <c r="I28" s="21">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="J28" s="79">
         <f t="shared" si="8"/>
@@ -4948,19 +4961,19 @@
       </c>
       <c r="L28" s="79">
         <f t="shared" si="8"/>
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="M28" s="21">
         <f t="shared" si="8"/>
-        <v>7740</v>
+        <v>8040</v>
       </c>
       <c r="N28" s="79">
         <f t="shared" si="8"/>
-        <v>270</v>
+        <v>349</v>
       </c>
       <c r="O28" s="21">
         <f t="shared" si="8"/>
-        <v>7620</v>
+        <v>10070</v>
       </c>
       <c r="S28" s="46"/>
       <c r="T28" s="49"/>
@@ -4983,18 +4996,19 @@
       </c>
       <c r="F29" s="74">
         <f>G29/24</f>
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="G29" s="10">
         <f>'[2]May 2021'!$H$29</f>
-        <v>3096</v>
+        <v>4560</v>
       </c>
       <c r="H29" s="23">
         <f>I29/24</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I29" s="26">
-        <v>0</v>
+        <f>480</f>
+        <v>480</v>
       </c>
       <c r="J29" s="11">
         <f t="shared" ref="J29:J31" si="9">K29/24</f>
@@ -5006,22 +5020,22 @@
       </c>
       <c r="L29" s="11">
         <f t="shared" ref="L29:L31" si="10">M29/24</f>
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="M29" s="10">
-        <f>2520</f>
-        <v>2520</v>
+        <f>2520+1200</f>
+        <v>3720</v>
       </c>
       <c r="N29" s="23">
         <f>O29/24</f>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="O29" s="36">
         <f>E29+G29-I29-K29-M29</f>
-        <v>336</v>
+        <v>120</v>
       </c>
       <c r="S29" s="5">
-        <v>336</v>
+        <v>120</v>
       </c>
       <c r="T29" s="16">
         <v>0</v>
@@ -5056,10 +5070,11 @@
       </c>
       <c r="H30" s="25">
         <f>I30/24</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I30" s="28">
-        <v>0</v>
+        <f>600</f>
+        <v>600</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="9"/>
@@ -5070,22 +5085,22 @@
       </c>
       <c r="L30" s="1">
         <f>M30/24</f>
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="M30" s="3">
-        <f>1080</f>
-        <v>1080</v>
+        <f>1080+720</f>
+        <v>1800</v>
       </c>
       <c r="N30" s="25">
         <f>O30/24</f>
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="O30" s="36">
         <f t="shared" ref="O30:O31" si="12">E30+G30-I30-K30-M30</f>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="S30" s="4">
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="T30" s="8">
         <v>0</v>
@@ -5112,18 +5127,19 @@
       </c>
       <c r="F31" s="82">
         <f>G31/24</f>
-        <v>767</v>
+        <v>914</v>
       </c>
       <c r="G31" s="3">
         <f>'[2]May 2021'!$J$29</f>
-        <v>18408</v>
+        <v>21936</v>
       </c>
       <c r="H31" s="25">
         <f>I31/24</f>
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="I31" s="28">
-        <v>0</v>
+        <f>5400</f>
+        <v>5400</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="9"/>
@@ -5142,14 +5158,14 @@
       </c>
       <c r="N31" s="25">
         <f>O31/24</f>
-        <v>420</v>
+        <v>342</v>
       </c>
       <c r="O31" s="36">
         <f t="shared" si="12"/>
-        <v>10080</v>
+        <v>8208</v>
       </c>
       <c r="S31" s="4">
-        <v>8808</v>
+        <v>6936</v>
       </c>
       <c r="T31" s="8">
         <f>53*24</f>
@@ -5178,19 +5194,19 @@
       </c>
       <c r="F32" s="84">
         <f t="shared" si="13"/>
-        <v>1000</v>
+        <v>1208</v>
       </c>
       <c r="G32" s="78">
         <f t="shared" si="13"/>
-        <v>24000</v>
+        <v>28992</v>
       </c>
       <c r="H32" s="79">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="I32" s="80">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6480</v>
       </c>
       <c r="J32" s="84">
         <f t="shared" si="13"/>
@@ -5202,19 +5218,19 @@
       </c>
       <c r="L32" s="84">
         <f t="shared" si="13"/>
-        <v>445</v>
+        <v>525</v>
       </c>
       <c r="M32" s="78">
         <f t="shared" si="13"/>
-        <v>10680</v>
+        <v>12600</v>
       </c>
       <c r="N32" s="84">
         <f t="shared" si="13"/>
-        <v>493</v>
+        <v>351</v>
       </c>
       <c r="O32" s="78">
         <f t="shared" si="13"/>
-        <v>11832</v>
+        <v>8424</v>
       </c>
       <c r="S32" s="17"/>
       <c r="T32" s="18"/>
@@ -5237,11 +5253,11 @@
       </c>
       <c r="F33" s="85">
         <f>G33/12</f>
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G33" s="14">
         <f>'[2]May 2021'!$K$29</f>
-        <v>2064</v>
+        <v>2112</v>
       </c>
       <c r="H33" s="23">
         <f>I33/12</f>
@@ -5260,22 +5276,22 @@
       </c>
       <c r="L33" s="15">
         <f t="shared" ref="L33:L34" si="15">M33/12</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M33" s="10">
-        <f>180</f>
-        <v>180</v>
+        <f>180+120</f>
+        <v>300</v>
       </c>
       <c r="N33" s="23">
         <f>O33/12</f>
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="O33" s="36">
         <f>E33+G33-I33-K33-M33</f>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="S33" s="5">
-        <v>1680</v>
+        <v>1608</v>
       </c>
       <c r="T33" s="16">
         <f>17*12</f>
@@ -5368,11 +5384,11 @@
       </c>
       <c r="F35" s="84">
         <f t="shared" si="16"/>
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="G35" s="78">
         <f t="shared" si="16"/>
-        <v>5196</v>
+        <v>5244</v>
       </c>
       <c r="H35" s="79">
         <f t="shared" si="16"/>
@@ -5392,19 +5408,19 @@
       </c>
       <c r="L35" s="84">
         <f t="shared" si="17"/>
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="M35" s="78">
         <f t="shared" si="17"/>
-        <v>3312</v>
+        <v>3432</v>
       </c>
       <c r="N35" s="84">
         <f t="shared" si="17"/>
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="O35" s="78">
         <f t="shared" si="17"/>
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="S35" s="19"/>
       <c r="T35" s="20"/>
@@ -5427,19 +5443,19 @@
       </c>
       <c r="F36" s="87">
         <f t="shared" si="18"/>
-        <v>1825</v>
+        <v>2259</v>
       </c>
       <c r="G36" s="87">
         <f t="shared" si="18"/>
-        <v>40628</v>
+        <v>51590</v>
       </c>
       <c r="H36" s="87">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="I36" s="87">
         <f>I21+I22+I24+I25+I26+I27+I29+I30+I31+I33+I34</f>
-        <v>0</v>
+        <v>8500</v>
       </c>
       <c r="J36" s="87">
         <f t="shared" si="18"/>
@@ -5451,23 +5467,23 @@
       </c>
       <c r="L36" s="87">
         <f t="shared" si="18"/>
-        <v>981</v>
+        <v>1096</v>
       </c>
       <c r="M36" s="87">
         <f t="shared" si="18"/>
-        <v>21780</v>
+        <v>24480</v>
       </c>
       <c r="N36" s="87">
         <f t="shared" si="18"/>
-        <v>967</v>
+        <v>931</v>
       </c>
       <c r="O36" s="87">
         <f t="shared" si="18"/>
-        <v>22416</v>
+        <v>22178</v>
       </c>
       <c r="S36" s="88">
         <f>SUM(S21:S34)</f>
-        <v>19168</v>
+        <v>19230</v>
       </c>
       <c r="T36" s="89">
         <f>SUM(T21:T34)</f>
@@ -5475,7 +5491,7 @@
       </c>
       <c r="U36" s="31">
         <f>S36+T36-O36</f>
-        <v>-48</v>
+        <v>252</v>
       </c>
       <c r="W36" s="29"/>
     </row>

--- a/D.K STATEMENT -2021-22.xlsx
+++ b/D.K STATEMENT -2021-22.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\excel-main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E48E25-9E3E-403F-A6D8-9D8F4C047BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021-22" sheetId="82" r:id="rId1"/>
@@ -14,7 +20,7 @@
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -183,26 +189,26 @@
     <t>`</t>
   </si>
   <si>
-    <t>Destination Wise Production , Despatch and Stock Report for the month of May 01.05.2021 to 18.05.2021</t>
-  </si>
-  <si>
-    <t>ORIGINAL/BLACK TEA  STATEMENT  AS ON  (01.05.2021 to 18.05.2021)</t>
-  </si>
-  <si>
-    <t>BLENDED TEA  STATEMENT AS ON (01.05.2021 TO 18.05.2021)</t>
-  </si>
-  <si>
-    <t>PACKED TEA  STATEMENT AS ON (01.05.2021 TO 18.05.2021)</t>
+    <t>Destination Wise Production , Despatch and Stock Report for the month of May 01.05.2021 to 31.05.2021</t>
+  </si>
+  <si>
+    <t>ORIGINAL/BLACK TEA  STATEMENT  AS ON  (01.05.2021 to 31.05.2021)</t>
+  </si>
+  <si>
+    <t>BLENDED TEA  STATEMENT AS ON (01.05.2021 TO 31.05.2021)</t>
+  </si>
+  <si>
+    <t>PACKED TEA  STATEMENT AS ON (01.05.2021 TO 31.05.2021)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1268,49 +1274,147 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1320,21 +1424,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1388,141 +1477,58 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1543,7 +1549,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="April 2021-22"/>
@@ -1575,12 +1581,12 @@
       <sheetData sheetId="1">
         <row r="15">
           <cell r="K15">
-            <v>26418</v>
+            <v>7044.7999999999993</v>
           </cell>
         </row>
         <row r="25">
           <cell r="K25">
-            <v>9127.68</v>
+            <v>6085.12</v>
           </cell>
         </row>
         <row r="35">
@@ -1590,7 +1596,7 @@
         </row>
         <row r="45">
           <cell r="K45">
-            <v>7130.4600000000009</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1600,7 +1606,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="April 2021-22"/>
@@ -1653,7 +1659,7 @@
             <v>2280</v>
           </cell>
           <cell r="D29">
-            <v>13500</v>
+            <v>14700</v>
           </cell>
           <cell r="E29">
             <v>0</v>
@@ -1662,19 +1668,19 @@
             <v>572</v>
           </cell>
           <cell r="G29">
-            <v>330</v>
+            <v>528</v>
           </cell>
           <cell r="H29">
-            <v>4560</v>
+            <v>7800</v>
           </cell>
           <cell r="I29">
-            <v>2496</v>
+            <v>4056</v>
           </cell>
           <cell r="J29">
-            <v>21936</v>
+            <v>32448</v>
           </cell>
           <cell r="K29">
-            <v>2112</v>
+            <v>3696</v>
           </cell>
           <cell r="L29">
             <v>3132</v>
@@ -1729,7 +1735,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1761,9 +1767,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1795,6 +1819,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1970,14 +2012,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
@@ -2003,258 +2045,258 @@
     <col min="25" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75">
-      <c r="A1" s="178" t="s">
+    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="178"/>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="178"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A2" s="179"/>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="179"/>
-      <c r="N2" s="179"/>
-      <c r="O2" s="179"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="179"/>
-      <c r="R2" s="179"/>
-    </row>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A3" s="180" t="s">
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="150"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="115"/>
       <c r="M3" s="55"/>
     </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="182"/>
-      <c r="B4" s="183"/>
-      <c r="C4" s="186" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="116"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="187"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="188" t="s">
+      <c r="F4" s="122" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="182" t="s">
+      <c r="H4" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="190"/>
-      <c r="J4" s="183"/>
-      <c r="K4" s="186" t="s">
+      <c r="I4" s="124"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="187"/>
+      <c r="L4" s="121"/>
       <c r="M4" s="55"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A5" s="184"/>
-      <c r="B5" s="185"/>
-      <c r="C5" s="191" t="s">
+    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="118"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="192"/>
+      <c r="D5" s="126"/>
       <c r="E5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="189"/>
+      <c r="F5" s="123"/>
       <c r="G5" s="95"/>
-      <c r="H5" s="165" t="s">
+      <c r="H5" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="166"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="191" t="s">
+      <c r="I5" s="128"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="192"/>
+      <c r="L5" s="126"/>
       <c r="M5" s="55"/>
       <c r="T5" s="29"/>
       <c r="U5" s="29"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A6" s="193"/>
-      <c r="B6" s="194"/>
-      <c r="C6" s="195">
+    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="130"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="132">
         <v>666070.9</v>
       </c>
-      <c r="D6" s="196"/>
+      <c r="D6" s="133"/>
       <c r="E6" s="54"/>
       <c r="F6" s="97"/>
       <c r="G6" s="91">
         <f>C6+E6+F6</f>
         <v>666070.9</v>
       </c>
-      <c r="H6" s="195">
+      <c r="H6" s="132">
         <f>G15</f>
         <v>160041.90000000002</v>
       </c>
-      <c r="I6" s="151"/>
-      <c r="J6" s="196"/>
-      <c r="K6" s="131">
+      <c r="I6" s="134"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="135">
         <f>G6-H6</f>
         <v>506029</v>
       </c>
-      <c r="L6" s="132"/>
+      <c r="L6" s="136"/>
       <c r="M6" s="55"/>
       <c r="O6" s="29"/>
       <c r="Q6" s="29"/>
     </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="177" t="s">
+    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="177"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="177"/>
-      <c r="J7" s="177"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177"/>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="177"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="110"/>
+      <c r="R7" s="110"/>
       <c r="U7" s="29"/>
     </row>
-    <row r="8" spans="1:23" ht="22.5" customHeight="1">
-      <c r="A8" s="170" t="s">
+    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="172" t="s">
+      <c r="B8" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="173"/>
-      <c r="D8" s="157" t="s">
+      <c r="C8" s="142"/>
+      <c r="D8" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="159" t="s">
+      <c r="E8" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="160"/>
-      <c r="G8" s="157" t="s">
+      <c r="F8" s="146"/>
+      <c r="G8" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="157" t="s">
+      <c r="H8" s="143" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="173" t="s">
+      <c r="J8" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="174"/>
-      <c r="L8" s="172" t="s">
+      <c r="K8" s="149"/>
+      <c r="L8" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="173"/>
-      <c r="N8" s="175" t="s">
+      <c r="M8" s="142"/>
+      <c r="N8" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="176"/>
-      <c r="P8" s="157" t="s">
+      <c r="O8" s="151"/>
+      <c r="P8" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="159" t="s">
+      <c r="Q8" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="160"/>
-    </row>
-    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="171"/>
-      <c r="B9" s="165" t="s">
+      <c r="R8" s="146"/>
+    </row>
+    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="140"/>
+      <c r="B9" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="166"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="144"/>
       <c r="I9" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="166" t="s">
+      <c r="J9" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="167"/>
-      <c r="L9" s="165" t="s">
+      <c r="K9" s="129"/>
+      <c r="L9" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="166"/>
-      <c r="N9" s="168" t="s">
+      <c r="M9" s="128"/>
+      <c r="N9" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="169"/>
-      <c r="P9" s="158"/>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="162"/>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="O9" s="138"/>
+      <c r="P9" s="144"/>
+      <c r="Q9" s="147"/>
+      <c r="R9" s="148"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="131">
+      <c r="B10" s="135">
         <v>2060.5</v>
       </c>
-      <c r="C10" s="151"/>
+      <c r="C10" s="134"/>
       <c r="D10" s="60">
         <v>0</v>
       </c>
-      <c r="E10" s="131">
+      <c r="E10" s="135">
         <f>B10-D10</f>
         <v>2060.5</v>
       </c>
-      <c r="F10" s="132"/>
+      <c r="F10" s="136"/>
       <c r="G10" s="92">
         <f>36127.6+36854+36195.2</f>
         <v>109176.8</v>
@@ -2264,211 +2306,211 @@
         <v>292.40999999999997</v>
       </c>
       <c r="I10" s="60"/>
-      <c r="J10" s="131">
+      <c r="J10" s="135">
         <f>B10+G10+H10+I10</f>
         <v>111529.71</v>
       </c>
-      <c r="K10" s="132"/>
-      <c r="L10" s="131">
+      <c r="K10" s="136"/>
+      <c r="L10" s="135">
         <f>G29+G30+G31</f>
         <v>74136</v>
       </c>
-      <c r="M10" s="152"/>
-      <c r="N10" s="131">
+      <c r="M10" s="153"/>
+      <c r="N10" s="135">
         <f>J10-L10</f>
         <v>37393.710000000006</v>
       </c>
-      <c r="O10" s="132"/>
+      <c r="O10" s="136"/>
       <c r="P10" s="60">
         <f>'[1]April 2021-22'!$K$41</f>
         <v>28956.159999999996</v>
       </c>
-      <c r="Q10" s="131">
+      <c r="Q10" s="135">
         <f>N10-P10</f>
         <v>8437.5500000000102</v>
       </c>
-      <c r="R10" s="156"/>
+      <c r="R10" s="152"/>
       <c r="S10" s="32"/>
     </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1">
+    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="131">
+      <c r="B11" s="135">
         <v>6061.85</v>
       </c>
-      <c r="C11" s="151"/>
+      <c r="C11" s="134"/>
       <c r="D11" s="60">
         <v>0</v>
       </c>
-      <c r="E11" s="131">
+      <c r="E11" s="135">
         <f t="shared" ref="E11:E13" si="0">B11-D11</f>
         <v>6061.85</v>
       </c>
-      <c r="F11" s="132"/>
+      <c r="F11" s="136"/>
       <c r="G11" s="92">
         <v>15212.8</v>
       </c>
       <c r="H11" s="60"/>
       <c r="I11" s="60"/>
-      <c r="J11" s="131">
+      <c r="J11" s="135">
         <f>B11+G11+H11+I11</f>
         <v>21274.65</v>
       </c>
-      <c r="K11" s="132"/>
-      <c r="L11" s="131">
+      <c r="K11" s="136"/>
+      <c r="L11" s="135">
         <f>SUM(G21:G22)</f>
         <v>8664</v>
       </c>
-      <c r="M11" s="152"/>
-      <c r="N11" s="163">
+      <c r="M11" s="153"/>
+      <c r="N11" s="154">
         <f>J11-L11</f>
         <v>12610.650000000001</v>
       </c>
-      <c r="O11" s="164"/>
+      <c r="O11" s="155"/>
       <c r="P11" s="61">
         <f>'[1]April 2021-22'!$K$65</f>
         <v>12170.24</v>
       </c>
-      <c r="Q11" s="131">
+      <c r="Q11" s="135">
         <f t="shared" ref="Q11:Q13" si="1">N11-P11</f>
         <v>440.41000000000167</v>
       </c>
-      <c r="R11" s="156"/>
+      <c r="R11" s="152"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="131">
+      <c r="B12" s="135">
         <v>11800.7</v>
       </c>
-      <c r="C12" s="151"/>
+      <c r="C12" s="134"/>
       <c r="D12" s="60">
         <v>0</v>
       </c>
-      <c r="E12" s="131">
+      <c r="E12" s="135">
         <f t="shared" si="0"/>
         <v>11800.7</v>
       </c>
-      <c r="F12" s="132"/>
+      <c r="F12" s="136"/>
       <c r="G12" s="92"/>
       <c r="H12" s="60"/>
       <c r="I12" s="60"/>
-      <c r="J12" s="131">
+      <c r="J12" s="135">
         <f>B12+G12+H12+I12</f>
         <v>11800.7</v>
       </c>
-      <c r="K12" s="132"/>
-      <c r="L12" s="131">
+      <c r="K12" s="136"/>
+      <c r="L12" s="135">
         <f>SUM(G33:G34)</f>
         <v>7560</v>
       </c>
-      <c r="M12" s="156"/>
-      <c r="N12" s="131">
+      <c r="M12" s="152"/>
+      <c r="N12" s="135">
         <f>J12-L12</f>
         <v>4240.7000000000007</v>
       </c>
-      <c r="O12" s="132"/>
+      <c r="O12" s="136"/>
       <c r="P12" s="61">
         <f>'[1]April 2021-22'!$K$57</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="131">
+      <c r="Q12" s="135">
         <f t="shared" si="1"/>
         <v>4240.7000000000007</v>
       </c>
-      <c r="R12" s="156"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1">
+      <c r="R12" s="152"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="131">
+      <c r="B13" s="135">
         <v>30749.88</v>
       </c>
-      <c r="C13" s="151"/>
+      <c r="C13" s="134"/>
       <c r="D13" s="60">
         <v>0</v>
       </c>
-      <c r="E13" s="131">
+      <c r="E13" s="135">
         <f t="shared" si="0"/>
         <v>30749.88</v>
       </c>
-      <c r="F13" s="132"/>
+      <c r="F13" s="136"/>
       <c r="G13" s="92">
         <f>35652.3</f>
         <v>35652.300000000003</v>
       </c>
       <c r="H13" s="60"/>
       <c r="I13" s="60"/>
-      <c r="J13" s="131">
+      <c r="J13" s="135">
         <f>B13+G13+H13+I13</f>
         <v>66402.180000000008</v>
       </c>
-      <c r="K13" s="132"/>
-      <c r="L13" s="131">
+      <c r="K13" s="136"/>
+      <c r="L13" s="135">
         <f>G24+G25+G26+G27</f>
         <v>38302</v>
       </c>
-      <c r="M13" s="156"/>
-      <c r="N13" s="131">
+      <c r="M13" s="152"/>
+      <c r="N13" s="135">
         <f>J13-L13</f>
         <v>28100.180000000008</v>
       </c>
-      <c r="O13" s="132"/>
+      <c r="O13" s="136"/>
       <c r="P13" s="61">
         <f>'[1]April 2021-22'!$K$49</f>
         <v>21391.380000000005</v>
       </c>
-      <c r="Q13" s="131">
+      <c r="Q13" s="135">
         <f t="shared" si="1"/>
         <v>6708.8000000000029</v>
       </c>
-      <c r="R13" s="156"/>
+      <c r="R13" s="152"/>
       <c r="U13" s="29"/>
       <c r="W13" s="29"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
-      <c r="B14" s="153"/>
-      <c r="C14" s="154"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="157"/>
       <c r="D14" s="61"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="155"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="158"/>
       <c r="G14" s="92"/>
       <c r="H14" s="60"/>
       <c r="I14" s="60"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="132"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="136"/>
       <c r="N14" s="62"/>
       <c r="O14" s="63"/>
       <c r="P14" s="60"/>
-      <c r="Q14" s="131"/>
-      <c r="R14" s="156"/>
+      <c r="Q14" s="135"/>
+      <c r="R14" s="152"/>
       <c r="T14" s="64"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1">
+    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="131">
+      <c r="B15" s="135">
         <f>SUM(B10:C14)</f>
         <v>50672.930000000008</v>
       </c>
-      <c r="C15" s="132"/>
+      <c r="C15" s="136"/>
       <c r="D15" s="60">
         <f>SUM(D10:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="131">
+      <c r="E15" s="135">
         <f>SUM(E10:F14)</f>
         <v>50672.930000000008</v>
       </c>
-      <c r="F15" s="150"/>
+      <c r="F15" s="115"/>
       <c r="G15" s="92">
         <f>SUM(G10:G14)</f>
         <v>160041.90000000002</v>
@@ -2481,33 +2523,33 @@
         <f>SUM(I10:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="151">
+      <c r="J15" s="134">
         <f>SUM(J10:K14)</f>
         <v>211007.24000000005</v>
       </c>
-      <c r="K15" s="132"/>
-      <c r="L15" s="131">
+      <c r="K15" s="136"/>
+      <c r="L15" s="135">
         <f>SUM(L10:M14)</f>
         <v>128662</v>
       </c>
-      <c r="M15" s="152"/>
-      <c r="N15" s="131">
+      <c r="M15" s="153"/>
+      <c r="N15" s="135">
         <f>SUM(N10:O14)</f>
         <v>82345.24000000002</v>
       </c>
-      <c r="O15" s="132"/>
+      <c r="O15" s="136"/>
       <c r="P15" s="60">
         <f>SUM(P10:P14)</f>
         <v>62517.78</v>
       </c>
-      <c r="Q15" s="131">
+      <c r="Q15" s="135">
         <f>SUM(Q10:R13)</f>
         <v>19827.460000000014</v>
       </c>
-      <c r="R15" s="132"/>
+      <c r="R15" s="136"/>
       <c r="S15" s="29"/>
     </row>
-    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="65"/>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -2522,83 +2564,83 @@
       <c r="L16" s="67"/>
       <c r="M16" s="67"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="133" t="s">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="134"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="141" t="s">
+      <c r="B17" s="163"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="170" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="142"/>
-      <c r="M17" s="142"/>
-      <c r="N17" s="142"/>
-      <c r="O17" s="143"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="171"/>
+      <c r="K17" s="171"/>
+      <c r="L17" s="171"/>
+      <c r="M17" s="171"/>
+      <c r="N17" s="171"/>
+      <c r="O17" s="172"/>
       <c r="P17" s="68"/>
       <c r="Q17" s="68"/>
       <c r="R17" s="68"/>
       <c r="S17" s="68"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="135"/>
-      <c r="B18" s="136"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="144" t="s">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="164"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="173" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="145"/>
-      <c r="F18" s="144" t="s">
+      <c r="E18" s="174"/>
+      <c r="F18" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="145"/>
-      <c r="H18" s="148" t="s">
+      <c r="G18" s="174"/>
+      <c r="H18" s="177" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="149"/>
-      <c r="J18" s="149"/>
-      <c r="K18" s="149"/>
-      <c r="L18" s="144" t="s">
+      <c r="I18" s="178"/>
+      <c r="J18" s="178"/>
+      <c r="K18" s="178"/>
+      <c r="L18" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="145"/>
-      <c r="N18" s="144" t="s">
+      <c r="M18" s="174"/>
+      <c r="N18" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="O18" s="145"/>
-    </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="135"/>
-      <c r="B19" s="136"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="141" t="s">
+      <c r="O18" s="174"/>
+    </row>
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="164"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="176"/>
+      <c r="F19" s="173"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="142"/>
-      <c r="J19" s="141" t="s">
+      <c r="I19" s="171"/>
+      <c r="J19" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="142"/>
-      <c r="L19" s="146"/>
-      <c r="M19" s="147"/>
-      <c r="N19" s="146"/>
-      <c r="O19" s="147"/>
-    </row>
-    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A20" s="138"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="140"/>
+      <c r="K19" s="171"/>
+      <c r="L19" s="175"/>
+      <c r="M19" s="176"/>
+      <c r="N19" s="175"/>
+      <c r="O19" s="176"/>
+    </row>
+    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="167"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="169"/>
       <c r="D20" s="98" t="s">
         <v>26</v>
       </c>
@@ -2645,12 +2687,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
-      <c r="A21" s="110" t="s">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="112"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="181"/>
       <c r="D21" s="74">
         <f>E21/24</f>
         <v>4</v>
@@ -2711,12 +2753,12 @@
       <c r="V21" s="75"/>
       <c r="W21" s="29"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A22" s="113" t="s">
+    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="115"/>
+      <c r="B22" s="183"/>
+      <c r="C22" s="184"/>
       <c r="D22" s="76">
         <f>E22/24</f>
         <v>1</v>
@@ -2778,12 +2820,12 @@
       <c r="V22" s="75"/>
       <c r="W22" s="29"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A23" s="116" t="s">
+    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="185" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="117"/>
-      <c r="C23" s="118"/>
+      <c r="B23" s="186"/>
+      <c r="C23" s="187"/>
       <c r="D23" s="77">
         <f>SUM(D21:D22)</f>
         <v>5</v>
@@ -2838,12 +2880,12 @@
       <c r="V23" s="75"/>
       <c r="W23" s="29"/>
     </row>
-    <row r="24" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A24" s="110" t="s">
+    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="111"/>
-      <c r="C24" s="112"/>
+      <c r="B24" s="180"/>
+      <c r="C24" s="181"/>
       <c r="D24" s="74">
         <f>E24/30</f>
         <v>38</v>
@@ -2905,12 +2947,12 @@
       <c r="V24" s="75"/>
       <c r="W24" s="29"/>
     </row>
-    <row r="25" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A25" s="128" t="s">
+    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="129"/>
-      <c r="C25" s="130"/>
+      <c r="B25" s="189"/>
+      <c r="C25" s="190"/>
       <c r="D25" s="81">
         <f>E25/24</f>
         <v>0</v>
@@ -2970,12 +3012,12 @@
       <c r="V25" s="75"/>
       <c r="W25" s="29"/>
     </row>
-    <row r="26" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A26" s="125" t="s">
+    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="126"/>
-      <c r="C26" s="127"/>
+      <c r="B26" s="160"/>
+      <c r="C26" s="161"/>
       <c r="D26" s="82">
         <f>E26/22</f>
         <v>51</v>
@@ -3036,12 +3078,12 @@
       <c r="V26" s="29"/>
       <c r="W26" s="29"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A27" s="122" t="s">
+    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="194" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="123"/>
-      <c r="C27" s="124"/>
+      <c r="B27" s="195"/>
+      <c r="C27" s="196"/>
       <c r="D27" s="83">
         <f>E27/22</f>
         <v>23</v>
@@ -3102,12 +3144,12 @@
       <c r="V27" s="75"/>
       <c r="W27" s="29"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A28" s="116" t="s">
+    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="185" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="117"/>
-      <c r="C28" s="118"/>
+      <c r="B28" s="186"/>
+      <c r="C28" s="187"/>
       <c r="D28" s="79">
         <f t="shared" ref="D28:O28" si="8">SUM(D24:D27)</f>
         <v>112</v>
@@ -3162,12 +3204,12 @@
       <c r="V28" s="75"/>
       <c r="W28" s="29"/>
     </row>
-    <row r="29" spans="1:23">
-      <c r="A29" s="110" t="s">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="111"/>
-      <c r="C29" s="112"/>
+      <c r="B29" s="180"/>
+      <c r="C29" s="181"/>
       <c r="D29" s="74">
         <f>E29/24</f>
         <v>0</v>
@@ -3228,12 +3270,12 @@
       <c r="V29" s="75"/>
       <c r="W29" s="29"/>
     </row>
-    <row r="30" spans="1:23">
-      <c r="A30" s="125" t="s">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="159" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="126"/>
-      <c r="C30" s="127"/>
+      <c r="B30" s="160"/>
+      <c r="C30" s="161"/>
       <c r="D30" s="82">
         <f>E30/24</f>
         <v>49</v>
@@ -3294,12 +3336,12 @@
       <c r="V30" s="75"/>
       <c r="W30" s="29"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A31" s="125" t="s">
+    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="126"/>
-      <c r="C31" s="127"/>
+      <c r="B31" s="160"/>
+      <c r="C31" s="161"/>
       <c r="D31" s="82">
         <f>E31/24</f>
         <v>18</v>
@@ -3361,12 +3403,12 @@
       <c r="V31" s="75"/>
       <c r="W31" s="29"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A32" s="116" t="s">
+    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="185" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="117"/>
-      <c r="C32" s="118"/>
+      <c r="B32" s="186"/>
+      <c r="C32" s="187"/>
       <c r="D32" s="84">
         <f t="shared" ref="D32:O32" si="13">SUM(D29:D31)</f>
         <v>67</v>
@@ -3421,12 +3463,12 @@
       <c r="V32" s="75"/>
       <c r="W32" s="29"/>
     </row>
-    <row r="33" spans="1:23">
-      <c r="A33" s="110" t="s">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="111"/>
-      <c r="C33" s="112"/>
+      <c r="B33" s="180"/>
+      <c r="C33" s="181"/>
       <c r="D33" s="85">
         <f>E33/12</f>
         <v>35</v>
@@ -3488,12 +3530,12 @@
       <c r="V33" s="86"/>
       <c r="W33" s="29"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A34" s="113" t="s">
+    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="114"/>
-      <c r="C34" s="115"/>
+      <c r="B34" s="183"/>
+      <c r="C34" s="184"/>
       <c r="D34" s="76">
         <f>E34/12</f>
         <v>0</v>
@@ -3552,12 +3594,12 @@
       <c r="V34" s="75"/>
       <c r="W34" s="29"/>
     </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A35" s="116" t="s">
+    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="185" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="117"/>
-      <c r="C35" s="118"/>
+      <c r="B35" s="186"/>
+      <c r="C35" s="187"/>
       <c r="D35" s="84">
         <f>SUM(D33:D34)</f>
         <v>35</v>
@@ -3611,12 +3653,12 @@
       <c r="U35" s="34"/>
       <c r="W35" s="29"/>
     </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A36" s="119" t="s">
+    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="191" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="120"/>
-      <c r="C36" s="121"/>
+      <c r="B36" s="192"/>
+      <c r="C36" s="193"/>
       <c r="D36" s="87">
         <f t="shared" ref="D36:O36" si="18">D21+D22+D24+D25+D26+D27+D29+D30+D31+D33+D34</f>
         <v>219</v>
@@ -3679,19 +3721,1837 @@
       </c>
       <c r="W36" s="29"/>
     </row>
-    <row r="37" spans="1:23" ht="9" customHeight="1">
+    <row r="37" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U37" s="32"/>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="V38" s="29"/>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="P40" s="75"/>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:23" ht="18.75">
+    <row r="42" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P42" s="90"/>
+    </row>
+  </sheetData>
+  <mergeCells count="91">
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="A17:C20"/>
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:L6"/>
+  </mergeCells>
+  <pageMargins left="0.16" right="0.16" top="0.25" bottom="0.23" header="0.23" footer="0.2"/>
+  <pageSetup orientation="landscape" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:W42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6" style="2" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7" style="2" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" style="2" customWidth="1"/>
+    <col min="16" max="17" width="7.85546875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="6" style="2" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="2"/>
+    <col min="24" max="24" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="111" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="113" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="55"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="116"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="120" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="121"/>
+      <c r="E4" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="122" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="124"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="121"/>
+      <c r="M4" s="55"/>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="118"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="125" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="126"/>
+      <c r="E5" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="123"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="128"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="125" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="126"/>
+      <c r="M5" s="55"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="130"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="132">
+        <v>506029</v>
+      </c>
+      <c r="D6" s="133"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="104">
+        <f>C6+E6+F6</f>
+        <v>506029</v>
+      </c>
+      <c r="H6" s="132">
+        <f>G15</f>
+        <v>51224.7</v>
+      </c>
+      <c r="I6" s="134"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="135">
+        <f>G6-H6</f>
+        <v>454804.3</v>
+      </c>
+      <c r="L6" s="136"/>
+      <c r="M6" s="55"/>
+      <c r="O6" s="29"/>
+      <c r="Q6" s="29"/>
+    </row>
+    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="110"/>
+      <c r="R7" s="110"/>
+      <c r="U7" s="29"/>
+    </row>
+    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="139" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="141" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="142"/>
+      <c r="D8" s="143" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="145" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="146"/>
+      <c r="G8" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="143" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="142" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="149"/>
+      <c r="L8" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="142"/>
+      <c r="N8" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="151"/>
+      <c r="P8" s="143" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="146"/>
+    </row>
+    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="140"/>
+      <c r="B9" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="128"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="102" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="128" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="129"/>
+      <c r="L9" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="128"/>
+      <c r="N9" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="138"/>
+      <c r="P9" s="144"/>
+      <c r="Q9" s="147"/>
+      <c r="R9" s="148"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="135">
+        <v>37393.71</v>
+      </c>
+      <c r="C10" s="134"/>
+      <c r="D10" s="60">
+        <v>28956.16</v>
+      </c>
+      <c r="E10" s="135">
+        <f>B10-D10</f>
+        <v>8437.5499999999993</v>
+      </c>
+      <c r="F10" s="136"/>
+      <c r="G10" s="105">
+        <v>35224</v>
+      </c>
+      <c r="H10" s="60">
+        <v>144.78</v>
+      </c>
+      <c r="I10" s="60"/>
+      <c r="J10" s="135">
+        <f>B10+G10+H10+I10</f>
+        <v>72762.489999999991</v>
+      </c>
+      <c r="K10" s="136"/>
+      <c r="L10" s="135">
+        <f>G29+G30+G31</f>
+        <v>44304</v>
+      </c>
+      <c r="M10" s="153"/>
+      <c r="N10" s="135">
+        <f>J10-L10</f>
+        <v>28458.489999999991</v>
+      </c>
+      <c r="O10" s="136"/>
+      <c r="P10" s="60">
+        <f>'[1]May 2021'!$K$15</f>
+        <v>7044.7999999999993</v>
+      </c>
+      <c r="Q10" s="135">
+        <f>N10-P10</f>
+        <v>21413.689999999991</v>
+      </c>
+      <c r="R10" s="152"/>
+      <c r="S10" s="32"/>
+      <c r="U10" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="135">
+        <v>12610.65</v>
+      </c>
+      <c r="C11" s="134"/>
+      <c r="D11" s="60">
+        <v>12170.24</v>
+      </c>
+      <c r="E11" s="135">
+        <f t="shared" ref="E11:E13" si="0">B11-D11</f>
+        <v>440.40999999999985</v>
+      </c>
+      <c r="F11" s="136"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="135">
+        <f>B11+G11+H11+I11</f>
+        <v>12610.65</v>
+      </c>
+      <c r="K11" s="136"/>
+      <c r="L11" s="135">
+        <f>SUM(G21:G22)</f>
+        <v>2952</v>
+      </c>
+      <c r="M11" s="153"/>
+      <c r="N11" s="154">
+        <f>J11-L11</f>
+        <v>9658.65</v>
+      </c>
+      <c r="O11" s="155"/>
+      <c r="P11" s="60">
+        <f>'[1]May 2021'!$K$25</f>
+        <v>6085.12</v>
+      </c>
+      <c r="Q11" s="135">
+        <f t="shared" ref="Q11:Q13" si="1">N11-P11</f>
+        <v>3573.5299999999997</v>
+      </c>
+      <c r="R11" s="152"/>
+      <c r="S11" s="32"/>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="135">
+        <v>4240.7</v>
+      </c>
+      <c r="C12" s="134"/>
+      <c r="D12" s="60">
+        <v>0</v>
+      </c>
+      <c r="E12" s="135">
+        <f t="shared" si="0"/>
+        <v>4240.7</v>
+      </c>
+      <c r="F12" s="136"/>
+      <c r="G12" s="105">
+        <v>16000.7</v>
+      </c>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="135">
+        <f>B12+G12+H12+I12</f>
+        <v>20241.400000000001</v>
+      </c>
+      <c r="K12" s="136"/>
+      <c r="L12" s="135">
+        <f>SUM(G33:G34)</f>
+        <v>6828</v>
+      </c>
+      <c r="M12" s="152"/>
+      <c r="N12" s="135">
+        <f>J12-L12</f>
+        <v>13413.400000000001</v>
+      </c>
+      <c r="O12" s="136"/>
+      <c r="P12" s="60">
+        <f>'[1]May 2021'!$K$35</f>
+        <v>9600.42</v>
+      </c>
+      <c r="Q12" s="135">
+        <f t="shared" si="1"/>
+        <v>3812.9800000000014</v>
+      </c>
+      <c r="R12" s="152"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="135">
+        <v>28100.18</v>
+      </c>
+      <c r="C13" s="134"/>
+      <c r="D13" s="60">
+        <v>21391.38</v>
+      </c>
+      <c r="E13" s="135">
+        <f t="shared" si="0"/>
+        <v>6708.7999999999993</v>
+      </c>
+      <c r="F13" s="136"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="60">
+        <v>142.61000000000001</v>
+      </c>
+      <c r="I13" s="60"/>
+      <c r="J13" s="135">
+        <f>B13+G13+H13+I13</f>
+        <v>28242.79</v>
+      </c>
+      <c r="K13" s="136"/>
+      <c r="L13" s="135">
+        <f>G24+G25+G26+G27</f>
+        <v>15800</v>
+      </c>
+      <c r="M13" s="152"/>
+      <c r="N13" s="135">
+        <f>J13-L13</f>
+        <v>12442.79</v>
+      </c>
+      <c r="O13" s="136"/>
+      <c r="P13" s="60">
+        <f>'[1]May 2021'!$K$45</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="135">
+        <f t="shared" si="1"/>
+        <v>12442.79</v>
+      </c>
+      <c r="R13" s="152"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="58"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="135"/>
+      <c r="R14" s="152"/>
+      <c r="T14" s="64"/>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="135">
+        <f>SUM(B10:C14)</f>
+        <v>82345.239999999991</v>
+      </c>
+      <c r="C15" s="136"/>
+      <c r="D15" s="60">
+        <f>SUM(D10:D14)</f>
+        <v>62517.78</v>
+      </c>
+      <c r="E15" s="135">
+        <f>SUM(E10:F14)</f>
+        <v>19827.46</v>
+      </c>
+      <c r="F15" s="115"/>
+      <c r="G15" s="105">
+        <f>SUM(G10:G14)</f>
+        <v>51224.7</v>
+      </c>
+      <c r="H15" s="60">
+        <f>SUM(H10:H14)</f>
+        <v>287.39</v>
+      </c>
+      <c r="I15" s="60">
+        <f>SUM(I10:I14)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="134">
+        <f>SUM(J10:K14)</f>
+        <v>133857.32999999999</v>
+      </c>
+      <c r="K15" s="136"/>
+      <c r="L15" s="135">
+        <f>SUM(L10:M14)</f>
+        <v>69884</v>
+      </c>
+      <c r="M15" s="153"/>
+      <c r="N15" s="135">
+        <f>SUM(N10:O14)</f>
+        <v>63973.329999999994</v>
+      </c>
+      <c r="O15" s="136"/>
+      <c r="P15" s="60">
+        <f>SUM(P10:P14)</f>
+        <v>22730.339999999997</v>
+      </c>
+      <c r="Q15" s="135">
+        <f>SUM(Q10:R13)</f>
+        <v>41242.989999999991</v>
+      </c>
+      <c r="R15" s="136"/>
+      <c r="S15" s="29"/>
+    </row>
+    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+    </row>
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="162" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="163"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="170" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="171"/>
+      <c r="K17" s="171"/>
+      <c r="L17" s="171"/>
+      <c r="M17" s="171"/>
+      <c r="N17" s="171"/>
+      <c r="O17" s="172"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="164"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="173" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="174"/>
+      <c r="F18" s="173" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="174"/>
+      <c r="H18" s="177" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="178"/>
+      <c r="J18" s="178"/>
+      <c r="K18" s="178"/>
+      <c r="L18" s="173" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="174"/>
+      <c r="N18" s="173" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="174"/>
+    </row>
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="164"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="176"/>
+      <c r="F19" s="173"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="170" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="171"/>
+      <c r="J19" s="170" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="171"/>
+      <c r="L19" s="175"/>
+      <c r="M19" s="176"/>
+      <c r="N19" s="175"/>
+      <c r="O19" s="176"/>
+    </row>
+    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="167"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="169"/>
+      <c r="D20" s="108" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="S20" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="T20" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="U20" s="37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="179" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="180"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="74">
+        <f>E21/24</f>
+        <v>14</v>
+      </c>
+      <c r="E21" s="10">
+        <v>336</v>
+      </c>
+      <c r="F21" s="74">
+        <f>G21/24</f>
+        <v>28</v>
+      </c>
+      <c r="G21" s="10">
+        <f>'[2]May 2021'!$B$29</f>
+        <v>672</v>
+      </c>
+      <c r="H21" s="23">
+        <f>I21/24</f>
+        <v>25</v>
+      </c>
+      <c r="I21" s="26">
+        <f>600</f>
+        <v>600</v>
+      </c>
+      <c r="J21" s="11">
+        <f>K21/24</f>
+        <v>1</v>
+      </c>
+      <c r="K21" s="10">
+        <f>24</f>
+        <v>24</v>
+      </c>
+      <c r="L21" s="11">
+        <f>M21/24</f>
+        <v>5</v>
+      </c>
+      <c r="M21" s="10">
+        <f>120</f>
+        <v>120</v>
+      </c>
+      <c r="N21" s="23">
+        <f>O21/24</f>
+        <v>11</v>
+      </c>
+      <c r="O21" s="36">
+        <f>E21+G21-I21-K21-M21</f>
+        <v>264</v>
+      </c>
+      <c r="S21" s="5">
+        <v>216</v>
+      </c>
+      <c r="T21" s="7">
+        <f>2*24</f>
+        <v>48</v>
+      </c>
+      <c r="U21" s="30">
+        <f>S21+T21-O21</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="75"/>
+      <c r="W21" s="29"/>
+    </row>
+    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="182" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="183"/>
+      <c r="C22" s="184"/>
+      <c r="D22" s="76">
+        <f>E22/24</f>
+        <v>82</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1968</v>
+      </c>
+      <c r="F22" s="76">
+        <f>G22/24</f>
+        <v>95</v>
+      </c>
+      <c r="G22" s="12">
+        <f>'[2]May 2021'!$C$29</f>
+        <v>2280</v>
+      </c>
+      <c r="H22" s="24">
+        <f>I22/24</f>
+        <v>50</v>
+      </c>
+      <c r="I22" s="33">
+        <f>1200</f>
+        <v>1200</v>
+      </c>
+      <c r="J22" s="13">
+        <f>K22/24</f>
+        <v>50</v>
+      </c>
+      <c r="K22" s="12">
+        <f>1200</f>
+        <v>1200</v>
+      </c>
+      <c r="L22" s="13">
+        <f>M22/24</f>
+        <v>12</v>
+      </c>
+      <c r="M22" s="12">
+        <f>48+240</f>
+        <v>288</v>
+      </c>
+      <c r="N22" s="24">
+        <f>O22/24</f>
+        <v>65</v>
+      </c>
+      <c r="O22" s="36">
+        <f>E22+G22-I22-K22-M22</f>
+        <v>1560</v>
+      </c>
+      <c r="S22" s="6">
+        <v>1056</v>
+      </c>
+      <c r="T22" s="9">
+        <f>20*24</f>
+        <v>480</v>
+      </c>
+      <c r="U22" s="34">
+        <f>S22+T22-O22</f>
+        <v>-24</v>
+      </c>
+      <c r="V22" s="75"/>
+      <c r="W22" s="29"/>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="185" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="186"/>
+      <c r="C23" s="187"/>
+      <c r="D23" s="77">
+        <f>SUM(D21:D22)</f>
+        <v>96</v>
+      </c>
+      <c r="E23" s="78">
+        <f t="shared" ref="E23:H23" si="2">SUM(E21:E22)</f>
+        <v>2304</v>
+      </c>
+      <c r="F23" s="77">
+        <f t="shared" si="2"/>
+        <v>123</v>
+      </c>
+      <c r="G23" s="78">
+        <f t="shared" si="2"/>
+        <v>2952</v>
+      </c>
+      <c r="H23" s="79">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="I23" s="80">
+        <f>SUM(I21:I22)</f>
+        <v>1800</v>
+      </c>
+      <c r="J23" s="77">
+        <f t="shared" ref="J23:O23" si="3">SUM(J21:J22)</f>
+        <v>51</v>
+      </c>
+      <c r="K23" s="78">
+        <f t="shared" si="3"/>
+        <v>1224</v>
+      </c>
+      <c r="L23" s="77">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="M23" s="78">
+        <f t="shared" si="3"/>
+        <v>408</v>
+      </c>
+      <c r="N23" s="77">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="O23" s="78">
+        <f t="shared" si="3"/>
+        <v>1824</v>
+      </c>
+      <c r="S23" s="45"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="29"/>
+    </row>
+    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="179" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="180"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="74">
+        <f>E24/30</f>
+        <v>138</v>
+      </c>
+      <c r="E24" s="10">
+        <v>4140</v>
+      </c>
+      <c r="F24" s="74">
+        <f>G24/30</f>
+        <v>490</v>
+      </c>
+      <c r="G24" s="10">
+        <f>'[2]May 2021'!$D$29</f>
+        <v>14700</v>
+      </c>
+      <c r="H24" s="23">
+        <f>I24/30</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0</v>
+      </c>
+      <c r="J24" s="23">
+        <f>K24/30</f>
+        <v>23</v>
+      </c>
+      <c r="K24" s="10">
+        <f>690</f>
+        <v>690</v>
+      </c>
+      <c r="L24" s="23">
+        <f>M24/30</f>
+        <v>268</v>
+      </c>
+      <c r="M24" s="10">
+        <f>7740+300</f>
+        <v>8040</v>
+      </c>
+      <c r="N24" s="23">
+        <f>O24/30</f>
+        <v>337</v>
+      </c>
+      <c r="O24" s="36">
+        <f>E24+G24-I24-K24-M24</f>
+        <v>10110</v>
+      </c>
+      <c r="S24" s="50">
+        <v>6390</v>
+      </c>
+      <c r="T24" s="51">
+        <f>34*30</f>
+        <v>1020</v>
+      </c>
+      <c r="U24" s="47">
+        <f>S24+T24-O24</f>
+        <v>-2700</v>
+      </c>
+      <c r="V24" s="75"/>
+      <c r="W24" s="29"/>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="188" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="189"/>
+      <c r="C25" s="190"/>
+      <c r="D25" s="81">
+        <f>E25/24</f>
+        <v>8</v>
+      </c>
+      <c r="E25" s="36">
+        <v>192</v>
+      </c>
+      <c r="F25" s="81">
+        <f>G25/24</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="27">
+        <f>'[2]May 2021'!$E$29</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="39">
+        <f>I25/24</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="27">
+        <v>0</v>
+      </c>
+      <c r="J25" s="40">
+        <f t="shared" ref="J25" si="4">K25/24</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="36">
+        <v>0</v>
+      </c>
+      <c r="L25" s="40">
+        <f t="shared" ref="L25" si="5">M25/24</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="36">
+        <v>0</v>
+      </c>
+      <c r="N25" s="39">
+        <f>O25/24</f>
+        <v>8</v>
+      </c>
+      <c r="O25" s="36">
+        <f t="shared" ref="O25:O27" si="6">E25+G25-I25-K25-M25</f>
+        <v>192</v>
+      </c>
+      <c r="S25" s="4">
+        <v>192</v>
+      </c>
+      <c r="T25" s="22">
+        <v>0</v>
+      </c>
+      <c r="U25" s="47">
+        <f t="shared" ref="U25:U27" si="7">S25+T25-O25</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="75"/>
+      <c r="W25" s="29"/>
+    </row>
+    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="159" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="160"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="82">
+        <f>E26/22</f>
+        <v>25</v>
+      </c>
+      <c r="E26" s="3">
+        <v>550</v>
+      </c>
+      <c r="F26" s="82">
+        <f>G26/22</f>
+        <v>26</v>
+      </c>
+      <c r="G26" s="3">
+        <f>'[2]May 2021'!$F$29</f>
+        <v>572</v>
+      </c>
+      <c r="H26" s="25">
+        <v>0</v>
+      </c>
+      <c r="I26" s="28">
+        <f>220</f>
+        <v>220</v>
+      </c>
+      <c r="J26" s="1">
+        <f>K26/22</f>
+        <v>10</v>
+      </c>
+      <c r="K26" s="3">
+        <f>220</f>
+        <v>220</v>
+      </c>
+      <c r="L26" s="1">
+        <f>M26/22</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="25">
+        <f>O26/22</f>
+        <v>31</v>
+      </c>
+      <c r="O26" s="36">
+        <f t="shared" si="6"/>
+        <v>682</v>
+      </c>
+      <c r="R26" s="29"/>
+      <c r="S26" s="4">
+        <v>242</v>
+      </c>
+      <c r="T26" s="22">
+        <f>5*22</f>
+        <v>110</v>
+      </c>
+      <c r="U26" s="47">
+        <f t="shared" si="7"/>
+        <v>-330</v>
+      </c>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="194" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="195"/>
+      <c r="C27" s="196"/>
+      <c r="D27" s="83">
+        <f>E27/22</f>
+        <v>3</v>
+      </c>
+      <c r="E27" s="41">
+        <v>66</v>
+      </c>
+      <c r="F27" s="83">
+        <f>G27/22</f>
+        <v>24</v>
+      </c>
+      <c r="G27" s="41">
+        <f>'[2]May 2021'!$G$29</f>
+        <v>528</v>
+      </c>
+      <c r="H27" s="42">
+        <f>I27/22</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="43">
+        <v>0</v>
+      </c>
+      <c r="J27" s="44">
+        <f>K27/22</f>
+        <v>5</v>
+      </c>
+      <c r="K27" s="41">
+        <f>110</f>
+        <v>110</v>
+      </c>
+      <c r="L27" s="44">
+        <f>M27/22</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="41">
+        <v>0</v>
+      </c>
+      <c r="N27" s="42">
+        <f>O27/22</f>
+        <v>22</v>
+      </c>
+      <c r="O27" s="38">
+        <f t="shared" si="6"/>
+        <v>484</v>
+      </c>
+      <c r="S27" s="52">
+        <v>308</v>
+      </c>
+      <c r="T27" s="53">
+        <f>3*22</f>
+        <v>66</v>
+      </c>
+      <c r="U27" s="47">
+        <f t="shared" si="7"/>
+        <v>-110</v>
+      </c>
+      <c r="V27" s="75"/>
+      <c r="W27" s="29"/>
+    </row>
+    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="185" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="186"/>
+      <c r="C28" s="187"/>
+      <c r="D28" s="79">
+        <f t="shared" ref="D28:O28" si="8">SUM(D24:D27)</f>
+        <v>174</v>
+      </c>
+      <c r="E28" s="21">
+        <f t="shared" si="8"/>
+        <v>4948</v>
+      </c>
+      <c r="F28" s="79">
+        <f t="shared" si="8"/>
+        <v>540</v>
+      </c>
+      <c r="G28" s="21">
+        <f t="shared" si="8"/>
+        <v>15800</v>
+      </c>
+      <c r="H28" s="79">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="21">
+        <f t="shared" si="8"/>
+        <v>220</v>
+      </c>
+      <c r="J28" s="79">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+      <c r="K28" s="21">
+        <f t="shared" si="8"/>
+        <v>1020</v>
+      </c>
+      <c r="L28" s="79">
+        <f t="shared" si="8"/>
+        <v>268</v>
+      </c>
+      <c r="M28" s="21">
+        <f t="shared" si="8"/>
+        <v>8040</v>
+      </c>
+      <c r="N28" s="79">
+        <f t="shared" si="8"/>
+        <v>398</v>
+      </c>
+      <c r="O28" s="21">
+        <f t="shared" si="8"/>
+        <v>11468</v>
+      </c>
+      <c r="S28" s="46"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="75"/>
+      <c r="W28" s="29"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="179" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="180"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="74">
+        <f>E29/24</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
+      <c r="F29" s="74">
+        <f>G29/24</f>
+        <v>325</v>
+      </c>
+      <c r="G29" s="10">
+        <f>'[2]May 2021'!$H$29</f>
+        <v>7800</v>
+      </c>
+      <c r="H29" s="23">
+        <f>I29/24</f>
+        <v>20</v>
+      </c>
+      <c r="I29" s="26">
+        <f>480</f>
+        <v>480</v>
+      </c>
+      <c r="J29" s="11">
+        <f t="shared" ref="J29:J31" si="9">K29/24</f>
+        <v>10</v>
+      </c>
+      <c r="K29" s="10">
+        <f>240</f>
+        <v>240</v>
+      </c>
+      <c r="L29" s="11">
+        <f t="shared" ref="L29:L31" si="10">M29/24</f>
+        <v>155</v>
+      </c>
+      <c r="M29" s="10">
+        <f>2520+1200</f>
+        <v>3720</v>
+      </c>
+      <c r="N29" s="23">
+        <f>O29/24</f>
+        <v>140</v>
+      </c>
+      <c r="O29" s="36">
+        <f>E29+G29-I29-K29-M29</f>
+        <v>3360</v>
+      </c>
+      <c r="S29" s="5">
+        <v>2928</v>
+      </c>
+      <c r="T29" s="16">
+        <v>0</v>
+      </c>
+      <c r="U29" s="30">
+        <f t="shared" ref="U29:U30" si="11">S29+T29-O29</f>
+        <v>-432</v>
+      </c>
+      <c r="V29" s="75"/>
+      <c r="W29" s="29"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="159" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="160"/>
+      <c r="C30" s="161"/>
+      <c r="D30" s="82">
+        <f>E30/24</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="82">
+        <f>G30/24</f>
+        <v>169</v>
+      </c>
+      <c r="G30" s="3">
+        <f>'[2]May 2021'!$I$29</f>
+        <v>4056</v>
+      </c>
+      <c r="H30" s="25">
+        <f>I30/24</f>
+        <v>25</v>
+      </c>
+      <c r="I30" s="28">
+        <f>600</f>
+        <v>600</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <f>M30/24</f>
+        <v>75</v>
+      </c>
+      <c r="M30" s="3">
+        <f>1080+720</f>
+        <v>1800</v>
+      </c>
+      <c r="N30" s="25">
+        <f>O30/24</f>
+        <v>69</v>
+      </c>
+      <c r="O30" s="36">
+        <f t="shared" ref="O30:O31" si="12">E30+G30-I30-K30-M30</f>
+        <v>1656</v>
+      </c>
+      <c r="S30" s="4">
+        <v>1608</v>
+      </c>
+      <c r="T30" s="8">
+        <v>0</v>
+      </c>
+      <c r="U30" s="35">
+        <f t="shared" si="11"/>
+        <v>-48</v>
+      </c>
+      <c r="V30" s="75"/>
+      <c r="W30" s="29"/>
+    </row>
+    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="159" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="160"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="82">
+        <f>E31/24</f>
+        <v>123</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2952</v>
+      </c>
+      <c r="F31" s="82">
+        <f>G31/24</f>
+        <v>1352</v>
+      </c>
+      <c r="G31" s="3">
+        <f>'[2]May 2021'!$J$29</f>
+        <v>32448</v>
+      </c>
+      <c r="H31" s="25">
+        <f>I31/24</f>
+        <v>225</v>
+      </c>
+      <c r="I31" s="28">
+        <f>5400</f>
+        <v>5400</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="9"/>
+        <v>175</v>
+      </c>
+      <c r="K31" s="3">
+        <f>4200</f>
+        <v>4200</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="10"/>
+        <v>295</v>
+      </c>
+      <c r="M31" s="3">
+        <v>7080</v>
+      </c>
+      <c r="N31" s="25">
+        <f>O31/24</f>
+        <v>780</v>
+      </c>
+      <c r="O31" s="36">
+        <f t="shared" si="12"/>
+        <v>18720</v>
+      </c>
+      <c r="S31" s="4">
+        <v>11616</v>
+      </c>
+      <c r="T31" s="8">
+        <f>53*24</f>
+        <v>1272</v>
+      </c>
+      <c r="U31" s="35">
+        <f>S31+T31-O31</f>
+        <v>-5832</v>
+      </c>
+      <c r="V31" s="75"/>
+      <c r="W31" s="29"/>
+    </row>
+    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="185" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="186"/>
+      <c r="C32" s="187"/>
+      <c r="D32" s="84">
+        <f t="shared" ref="D32:O32" si="13">SUM(D29:D31)</f>
+        <v>123</v>
+      </c>
+      <c r="E32" s="78">
+        <f t="shared" si="13"/>
+        <v>2952</v>
+      </c>
+      <c r="F32" s="84">
+        <f t="shared" si="13"/>
+        <v>1846</v>
+      </c>
+      <c r="G32" s="78">
+        <f t="shared" si="13"/>
+        <v>44304</v>
+      </c>
+      <c r="H32" s="79">
+        <f t="shared" si="13"/>
+        <v>270</v>
+      </c>
+      <c r="I32" s="80">
+        <f t="shared" si="13"/>
+        <v>6480</v>
+      </c>
+      <c r="J32" s="84">
+        <f t="shared" si="13"/>
+        <v>185</v>
+      </c>
+      <c r="K32" s="78">
+        <f t="shared" si="13"/>
+        <v>4440</v>
+      </c>
+      <c r="L32" s="84">
+        <f t="shared" si="13"/>
+        <v>525</v>
+      </c>
+      <c r="M32" s="78">
+        <f t="shared" si="13"/>
+        <v>12600</v>
+      </c>
+      <c r="N32" s="84">
+        <f t="shared" si="13"/>
+        <v>989</v>
+      </c>
+      <c r="O32" s="78">
+        <f t="shared" si="13"/>
+        <v>23736</v>
+      </c>
+      <c r="S32" s="17"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="75"/>
+      <c r="W32" s="29"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="179" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="180"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="85">
+        <f>E33/12</f>
+        <v>34</v>
+      </c>
+      <c r="E33" s="14">
+        <v>408</v>
+      </c>
+      <c r="F33" s="85">
+        <f>G33/12</f>
+        <v>308</v>
+      </c>
+      <c r="G33" s="14">
+        <f>'[2]May 2021'!$K$29</f>
+        <v>3696</v>
+      </c>
+      <c r="H33" s="23">
+        <f>I33/12</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="26">
+        <v>0</v>
+      </c>
+      <c r="J33" s="15">
+        <f t="shared" ref="J33:J34" si="14">K33/12</f>
+        <v>30</v>
+      </c>
+      <c r="K33" s="10">
+        <f>360</f>
+        <v>360</v>
+      </c>
+      <c r="L33" s="15">
+        <f t="shared" ref="L33:L34" si="15">M33/12</f>
+        <v>25</v>
+      </c>
+      <c r="M33" s="10">
+        <f>180+120</f>
+        <v>300</v>
+      </c>
+      <c r="N33" s="23">
+        <f>O33/12</f>
+        <v>287</v>
+      </c>
+      <c r="O33" s="36">
+        <f>E33+G33-I33-K33-M33</f>
+        <v>3444</v>
+      </c>
+      <c r="S33" s="5">
+        <v>1092</v>
+      </c>
+      <c r="T33" s="16">
+        <f>17*12</f>
+        <v>204</v>
+      </c>
+      <c r="U33" s="30">
+        <f>S33+T33-O33</f>
+        <v>-2148</v>
+      </c>
+      <c r="V33" s="86"/>
+      <c r="W33" s="29"/>
+    </row>
+    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="182" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="183"/>
+      <c r="C34" s="184"/>
+      <c r="D34" s="76">
+        <f>E34/12</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0</v>
+      </c>
+      <c r="F34" s="76">
+        <f>G34/12</f>
+        <v>261</v>
+      </c>
+      <c r="G34" s="12">
+        <f>'[2]May 2021'!$L$29</f>
+        <v>3132</v>
+      </c>
+      <c r="H34" s="24">
+        <f>I34/12</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="33">
+        <v>0</v>
+      </c>
+      <c r="J34" s="13">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="12">
+        <v>0</v>
+      </c>
+      <c r="L34" s="13">
+        <f t="shared" si="15"/>
+        <v>261</v>
+      </c>
+      <c r="M34" s="12">
+        <f>3132</f>
+        <v>3132</v>
+      </c>
+      <c r="N34" s="24">
+        <f>O34/12</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="36">
+        <f>E34+G34-I34-K34-M34</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="4">
+        <v>0</v>
+      </c>
+      <c r="T34" s="22">
+        <v>0</v>
+      </c>
+      <c r="U34" s="35">
+        <f>S34+T34-O34</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="75"/>
+      <c r="W34" s="29"/>
+    </row>
+    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="185" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="186"/>
+      <c r="C35" s="187"/>
+      <c r="D35" s="84">
+        <f>SUM(D33:D34)</f>
+        <v>34</v>
+      </c>
+      <c r="E35" s="78">
+        <f t="shared" ref="E35:H35" si="16">SUM(E33:E34)</f>
+        <v>408</v>
+      </c>
+      <c r="F35" s="84">
+        <f t="shared" si="16"/>
+        <v>569</v>
+      </c>
+      <c r="G35" s="78">
+        <f t="shared" si="16"/>
+        <v>6828</v>
+      </c>
+      <c r="H35" s="79">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="80">
+        <f>SUM(I33:I34)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="84">
+        <f t="shared" ref="J35:O35" si="17">SUM(J33:J34)</f>
+        <v>30</v>
+      </c>
+      <c r="K35" s="78">
+        <f t="shared" si="17"/>
+        <v>360</v>
+      </c>
+      <c r="L35" s="84">
+        <f t="shared" si="17"/>
+        <v>286</v>
+      </c>
+      <c r="M35" s="78">
+        <f t="shared" si="17"/>
+        <v>3432</v>
+      </c>
+      <c r="N35" s="84">
+        <f t="shared" si="17"/>
+        <v>287</v>
+      </c>
+      <c r="O35" s="78">
+        <f t="shared" si="17"/>
+        <v>3444</v>
+      </c>
+      <c r="S35" s="19"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="34"/>
+      <c r="W35" s="29"/>
+    </row>
+    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="191" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="192"/>
+      <c r="C36" s="193"/>
+      <c r="D36" s="87">
+        <f t="shared" ref="D36:O36" si="18">D21+D22+D24+D25+D26+D27+D29+D30+D31+D33+D34</f>
+        <v>427</v>
+      </c>
+      <c r="E36" s="87">
+        <f t="shared" si="18"/>
+        <v>10612</v>
+      </c>
+      <c r="F36" s="87">
+        <f t="shared" si="18"/>
+        <v>3078</v>
+      </c>
+      <c r="G36" s="87">
+        <f t="shared" si="18"/>
+        <v>69884</v>
+      </c>
+      <c r="H36" s="87">
+        <f t="shared" si="18"/>
+        <v>345</v>
+      </c>
+      <c r="I36" s="87">
+        <f>I21+I22+I24+I25+I26+I27+I29+I30+I31+I33+I34</f>
+        <v>8500</v>
+      </c>
+      <c r="J36" s="87">
+        <f t="shared" si="18"/>
+        <v>304</v>
+      </c>
+      <c r="K36" s="87">
+        <f t="shared" si="18"/>
+        <v>7044</v>
+      </c>
+      <c r="L36" s="87">
+        <f t="shared" si="18"/>
+        <v>1096</v>
+      </c>
+      <c r="M36" s="87">
+        <f t="shared" si="18"/>
+        <v>24480</v>
+      </c>
+      <c r="N36" s="87">
+        <f t="shared" si="18"/>
+        <v>1750</v>
+      </c>
+      <c r="O36" s="87">
+        <f t="shared" si="18"/>
+        <v>40472</v>
+      </c>
+      <c r="S36" s="88">
+        <f>SUM(S21:S34)</f>
+        <v>25648</v>
+      </c>
+      <c r="T36" s="89">
+        <f>SUM(T21:T34)</f>
+        <v>3200</v>
+      </c>
+      <c r="U36" s="31">
+        <f>S36+T36-O36</f>
+        <v>-11624</v>
+      </c>
+      <c r="W36" s="29"/>
+    </row>
+    <row r="37" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U37" s="32"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V38" s="29"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P40" s="75"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G41" s="29"/>
+    </row>
+    <row r="42" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="P42" s="90"/>
     </row>
   </sheetData>
@@ -3791,1820 +5651,4 @@
   <pageMargins left="0.16" right="0.16" top="0.25" bottom="0.23" header="0.23" footer="0.2"/>
   <pageSetup orientation="landscape" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W42"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:R36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6" style="2" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6" style="2" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7" style="2" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" style="2" customWidth="1"/>
-    <col min="16" max="17" width="7.85546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="6" style="2" customWidth="1"/>
-    <col min="19" max="19" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="2"/>
-    <col min="24" max="24" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="18.75">
-      <c r="A1" s="178" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="178"/>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="178"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A2" s="179"/>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="179"/>
-      <c r="N2" s="179"/>
-      <c r="O2" s="179"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="179"/>
-      <c r="R2" s="179"/>
-    </row>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A3" s="180" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="55"/>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="182"/>
-      <c r="B4" s="183"/>
-      <c r="C4" s="186" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="188" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="182" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="190"/>
-      <c r="J4" s="183"/>
-      <c r="K4" s="186" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="187"/>
-      <c r="M4" s="55"/>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A5" s="184"/>
-      <c r="B5" s="185"/>
-      <c r="C5" s="191" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="192"/>
-      <c r="E5" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="189"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="165" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="166"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="191" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="192"/>
-      <c r="M5" s="55"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-    </row>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A6" s="193"/>
-      <c r="B6" s="194"/>
-      <c r="C6" s="195">
-        <v>506029</v>
-      </c>
-      <c r="D6" s="196"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="104">
-        <f>C6+E6+F6</f>
-        <v>506029</v>
-      </c>
-      <c r="H6" s="195">
-        <f>G15</f>
-        <v>51224.7</v>
-      </c>
-      <c r="I6" s="151"/>
-      <c r="J6" s="196"/>
-      <c r="K6" s="131">
-        <f>G6-H6</f>
-        <v>454804.3</v>
-      </c>
-      <c r="L6" s="132"/>
-      <c r="M6" s="55"/>
-      <c r="O6" s="29"/>
-      <c r="Q6" s="29"/>
-    </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="177" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="177"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="177"/>
-      <c r="J7" s="177"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177"/>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="177"/>
-      <c r="U7" s="29"/>
-    </row>
-    <row r="8" spans="1:23" ht="22.5" customHeight="1">
-      <c r="A8" s="170" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="172" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="173"/>
-      <c r="D8" s="157" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="159" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="160"/>
-      <c r="G8" s="157" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="157" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="106" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="173" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="174"/>
-      <c r="L8" s="172" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="173"/>
-      <c r="N8" s="175" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="176"/>
-      <c r="P8" s="157" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" s="159" t="s">
-        <v>35</v>
-      </c>
-      <c r="R8" s="160"/>
-    </row>
-    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="171"/>
-      <c r="B9" s="165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="166"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="166" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="167"/>
-      <c r="L9" s="165" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="166"/>
-      <c r="N9" s="168" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="169"/>
-      <c r="P9" s="158"/>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="162"/>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="131">
-        <v>37393.71</v>
-      </c>
-      <c r="C10" s="151"/>
-      <c r="D10" s="60">
-        <v>28956.16</v>
-      </c>
-      <c r="E10" s="131">
-        <f>B10-D10</f>
-        <v>8437.5499999999993</v>
-      </c>
-      <c r="F10" s="132"/>
-      <c r="G10" s="105">
-        <v>35224</v>
-      </c>
-      <c r="H10" s="60">
-        <v>144.78</v>
-      </c>
-      <c r="I10" s="60"/>
-      <c r="J10" s="131">
-        <f>B10+G10+H10+I10</f>
-        <v>72762.489999999991</v>
-      </c>
-      <c r="K10" s="132"/>
-      <c r="L10" s="131">
-        <f>G29+G30+G31</f>
-        <v>28992</v>
-      </c>
-      <c r="M10" s="152"/>
-      <c r="N10" s="131">
-        <f>J10-L10</f>
-        <v>43770.489999999991</v>
-      </c>
-      <c r="O10" s="132"/>
-      <c r="P10" s="60">
-        <f>'[1]May 2021'!$K$15</f>
-        <v>26418</v>
-      </c>
-      <c r="Q10" s="131">
-        <f>N10-P10</f>
-        <v>17352.489999999991</v>
-      </c>
-      <c r="R10" s="156"/>
-      <c r="S10" s="32"/>
-      <c r="U10" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A11" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="131">
-        <v>12610.65</v>
-      </c>
-      <c r="C11" s="151"/>
-      <c r="D11" s="60">
-        <v>12170.24</v>
-      </c>
-      <c r="E11" s="131">
-        <f t="shared" ref="E11:E13" si="0">B11-D11</f>
-        <v>440.40999999999985</v>
-      </c>
-      <c r="F11" s="132"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="131">
-        <f>B11+G11+H11+I11</f>
-        <v>12610.65</v>
-      </c>
-      <c r="K11" s="132"/>
-      <c r="L11" s="131">
-        <f>SUM(G21:G22)</f>
-        <v>2952</v>
-      </c>
-      <c r="M11" s="152"/>
-      <c r="N11" s="163">
-        <f>J11-L11</f>
-        <v>9658.65</v>
-      </c>
-      <c r="O11" s="164"/>
-      <c r="P11" s="60">
-        <f>'[1]May 2021'!$K$25</f>
-        <v>9127.68</v>
-      </c>
-      <c r="Q11" s="131">
-        <f t="shared" ref="Q11:Q13" si="1">N11-P11</f>
-        <v>530.96999999999935</v>
-      </c>
-      <c r="R11" s="156"/>
-      <c r="S11" s="32"/>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="131">
-        <v>4240.7</v>
-      </c>
-      <c r="C12" s="151"/>
-      <c r="D12" s="60">
-        <v>0</v>
-      </c>
-      <c r="E12" s="131">
-        <f t="shared" si="0"/>
-        <v>4240.7</v>
-      </c>
-      <c r="F12" s="132"/>
-      <c r="G12" s="105">
-        <v>16000.7</v>
-      </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="131">
-        <f>B12+G12+H12+I12</f>
-        <v>20241.400000000001</v>
-      </c>
-      <c r="K12" s="132"/>
-      <c r="L12" s="131">
-        <f>SUM(G33:G34)</f>
-        <v>5244</v>
-      </c>
-      <c r="M12" s="156"/>
-      <c r="N12" s="131">
-        <f>J12-L12</f>
-        <v>14997.400000000001</v>
-      </c>
-      <c r="O12" s="132"/>
-      <c r="P12" s="60">
-        <f>'[1]May 2021'!$K$35</f>
-        <v>9600.42</v>
-      </c>
-      <c r="Q12" s="131">
-        <f t="shared" si="1"/>
-        <v>5396.9800000000014</v>
-      </c>
-      <c r="R12" s="156"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A13" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="131">
-        <v>28100.18</v>
-      </c>
-      <c r="C13" s="151"/>
-      <c r="D13" s="60">
-        <v>21391.38</v>
-      </c>
-      <c r="E13" s="131">
-        <f t="shared" si="0"/>
-        <v>6708.7999999999993</v>
-      </c>
-      <c r="F13" s="132"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="131">
-        <f>B13+G13+H13+I13</f>
-        <v>28100.18</v>
-      </c>
-      <c r="K13" s="132"/>
-      <c r="L13" s="131">
-        <f>G24+G25+G26+G27</f>
-        <v>14402</v>
-      </c>
-      <c r="M13" s="156"/>
-      <c r="N13" s="131">
-        <f>J13-L13</f>
-        <v>13698.18</v>
-      </c>
-      <c r="O13" s="132"/>
-      <c r="P13" s="60">
-        <f>'[1]May 2021'!$K$45</f>
-        <v>7130.4600000000009</v>
-      </c>
-      <c r="Q13" s="131">
-        <f t="shared" si="1"/>
-        <v>6567.7199999999993</v>
-      </c>
-      <c r="R13" s="156"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-    </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A14" s="58"/>
-      <c r="B14" s="153"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="131"/>
-      <c r="R14" s="156"/>
-      <c r="T14" s="64"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A15" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="131">
-        <f>SUM(B10:C14)</f>
-        <v>82345.239999999991</v>
-      </c>
-      <c r="C15" s="132"/>
-      <c r="D15" s="60">
-        <f>SUM(D10:D14)</f>
-        <v>62517.78</v>
-      </c>
-      <c r="E15" s="131">
-        <f>SUM(E10:F14)</f>
-        <v>19827.46</v>
-      </c>
-      <c r="F15" s="150"/>
-      <c r="G15" s="105">
-        <f>SUM(G10:G14)</f>
-        <v>51224.7</v>
-      </c>
-      <c r="H15" s="60">
-        <f>SUM(H10:H14)</f>
-        <v>144.78</v>
-      </c>
-      <c r="I15" s="60">
-        <f>SUM(I10:I14)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="151">
-        <f>SUM(J10:K14)</f>
-        <v>133714.71999999997</v>
-      </c>
-      <c r="K15" s="132"/>
-      <c r="L15" s="131">
-        <f>SUM(L10:M14)</f>
-        <v>51590</v>
-      </c>
-      <c r="M15" s="152"/>
-      <c r="N15" s="131">
-        <f>SUM(N10:O14)</f>
-        <v>82124.72</v>
-      </c>
-      <c r="O15" s="132"/>
-      <c r="P15" s="60">
-        <f>SUM(P10:P14)</f>
-        <v>52276.56</v>
-      </c>
-      <c r="Q15" s="131">
-        <f>SUM(Q10:R13)</f>
-        <v>29848.159999999996</v>
-      </c>
-      <c r="R15" s="132"/>
-      <c r="S15" s="29"/>
-    </row>
-    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1">
-      <c r="A16" s="65"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-    </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="133" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="134"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="141" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="142"/>
-      <c r="M17" s="142"/>
-      <c r="N17" s="142"/>
-      <c r="O17" s="143"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="68"/>
-    </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="135"/>
-      <c r="B18" s="136"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="144" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="145"/>
-      <c r="F18" s="144" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="145"/>
-      <c r="H18" s="148" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="149"/>
-      <c r="J18" s="149"/>
-      <c r="K18" s="149"/>
-      <c r="L18" s="144" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="145"/>
-      <c r="N18" s="144" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" s="145"/>
-    </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="135"/>
-      <c r="B19" s="136"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="141" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="142"/>
-      <c r="J19" s="141" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="142"/>
-      <c r="L19" s="146"/>
-      <c r="M19" s="147"/>
-      <c r="N19" s="146"/>
-      <c r="O19" s="147"/>
-    </row>
-    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A20" s="138"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="108" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="O20" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="S20" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="T20" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="U20" s="37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="A21" s="110" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="74">
-        <f>E21/24</f>
-        <v>14</v>
-      </c>
-      <c r="E21" s="10">
-        <v>336</v>
-      </c>
-      <c r="F21" s="74">
-        <f>G21/24</f>
-        <v>28</v>
-      </c>
-      <c r="G21" s="10">
-        <f>'[2]May 2021'!$B$29</f>
-        <v>672</v>
-      </c>
-      <c r="H21" s="23">
-        <f>I21/24</f>
-        <v>25</v>
-      </c>
-      <c r="I21" s="26">
-        <f>600</f>
-        <v>600</v>
-      </c>
-      <c r="J21" s="11">
-        <f>K21/24</f>
-        <v>1</v>
-      </c>
-      <c r="K21" s="10">
-        <f>24</f>
-        <v>24</v>
-      </c>
-      <c r="L21" s="11">
-        <f>M21/24</f>
-        <v>5</v>
-      </c>
-      <c r="M21" s="10">
-        <f>120</f>
-        <v>120</v>
-      </c>
-      <c r="N21" s="23">
-        <f>O21/24</f>
-        <v>11</v>
-      </c>
-      <c r="O21" s="36">
-        <f>E21+G21-I21-K21-M21</f>
-        <v>264</v>
-      </c>
-      <c r="S21" s="5">
-        <v>240</v>
-      </c>
-      <c r="T21" s="7">
-        <f>2*24</f>
-        <v>48</v>
-      </c>
-      <c r="U21" s="30">
-        <f>S21+T21-O21</f>
-        <v>24</v>
-      </c>
-      <c r="V21" s="75"/>
-      <c r="W21" s="29"/>
-    </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A22" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="76">
-        <f>E22/24</f>
-        <v>82</v>
-      </c>
-      <c r="E22" s="12">
-        <v>1968</v>
-      </c>
-      <c r="F22" s="76">
-        <f>G22/24</f>
-        <v>95</v>
-      </c>
-      <c r="G22" s="12">
-        <f>'[2]May 2021'!$C$29</f>
-        <v>2280</v>
-      </c>
-      <c r="H22" s="24">
-        <f>I22/24</f>
-        <v>50</v>
-      </c>
-      <c r="I22" s="33">
-        <f>1200</f>
-        <v>1200</v>
-      </c>
-      <c r="J22" s="13">
-        <f>K22/24</f>
-        <v>50</v>
-      </c>
-      <c r="K22" s="12">
-        <f>1200</f>
-        <v>1200</v>
-      </c>
-      <c r="L22" s="13">
-        <f>M22/24</f>
-        <v>12</v>
-      </c>
-      <c r="M22" s="12">
-        <f>48+240</f>
-        <v>288</v>
-      </c>
-      <c r="N22" s="24">
-        <f>O22/24</f>
-        <v>65</v>
-      </c>
-      <c r="O22" s="36">
-        <f>E22+G22-I22-K22-M22</f>
-        <v>1560</v>
-      </c>
-      <c r="S22" s="6">
-        <v>1056</v>
-      </c>
-      <c r="T22" s="9">
-        <f>20*24</f>
-        <v>480</v>
-      </c>
-      <c r="U22" s="34">
-        <f>S22+T22-O22</f>
-        <v>-24</v>
-      </c>
-      <c r="V22" s="75"/>
-      <c r="W22" s="29"/>
-    </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A23" s="116" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="117"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="77">
-        <f>SUM(D21:D22)</f>
-        <v>96</v>
-      </c>
-      <c r="E23" s="78">
-        <f t="shared" ref="E23:H23" si="2">SUM(E21:E22)</f>
-        <v>2304</v>
-      </c>
-      <c r="F23" s="77">
-        <f t="shared" si="2"/>
-        <v>123</v>
-      </c>
-      <c r="G23" s="78">
-        <f t="shared" si="2"/>
-        <v>2952</v>
-      </c>
-      <c r="H23" s="79">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="I23" s="80">
-        <f>SUM(I21:I22)</f>
-        <v>1800</v>
-      </c>
-      <c r="J23" s="77">
-        <f t="shared" ref="J23:O23" si="3">SUM(J21:J22)</f>
-        <v>51</v>
-      </c>
-      <c r="K23" s="78">
-        <f t="shared" si="3"/>
-        <v>1224</v>
-      </c>
-      <c r="L23" s="77">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="M23" s="78">
-        <f t="shared" si="3"/>
-        <v>408</v>
-      </c>
-      <c r="N23" s="77">
-        <f t="shared" si="3"/>
-        <v>76</v>
-      </c>
-      <c r="O23" s="78">
-        <f t="shared" si="3"/>
-        <v>1824</v>
-      </c>
-      <c r="S23" s="45"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="75"/>
-      <c r="W23" s="29"/>
-    </row>
-    <row r="24" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A24" s="110" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="111"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="74">
-        <f>E24/30</f>
-        <v>138</v>
-      </c>
-      <c r="E24" s="10">
-        <v>4140</v>
-      </c>
-      <c r="F24" s="74">
-        <f>G24/30</f>
-        <v>450</v>
-      </c>
-      <c r="G24" s="10">
-        <f>'[2]May 2021'!$D$29</f>
-        <v>13500</v>
-      </c>
-      <c r="H24" s="23">
-        <f>I24/30</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="10">
-        <v>0</v>
-      </c>
-      <c r="J24" s="23">
-        <f>K24/30</f>
-        <v>23</v>
-      </c>
-      <c r="K24" s="10">
-        <f>690</f>
-        <v>690</v>
-      </c>
-      <c r="L24" s="23">
-        <f>M24/30</f>
-        <v>268</v>
-      </c>
-      <c r="M24" s="10">
-        <f>7740+300</f>
-        <v>8040</v>
-      </c>
-      <c r="N24" s="23">
-        <f>O24/30</f>
-        <v>297</v>
-      </c>
-      <c r="O24" s="36">
-        <f>E24+G24-I24-K24-M24</f>
-        <v>8910</v>
-      </c>
-      <c r="S24" s="50">
-        <v>8190</v>
-      </c>
-      <c r="T24" s="51">
-        <f>34*30</f>
-        <v>1020</v>
-      </c>
-      <c r="U24" s="47">
-        <f>S24+T24-O24</f>
-        <v>300</v>
-      </c>
-      <c r="V24" s="75"/>
-      <c r="W24" s="29"/>
-    </row>
-    <row r="25" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A25" s="128" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="129"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="81">
-        <f>E25/24</f>
-        <v>8</v>
-      </c>
-      <c r="E25" s="36">
-        <v>192</v>
-      </c>
-      <c r="F25" s="81">
-        <f>G25/24</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="27">
-        <f>'[2]May 2021'!$E$29</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="39">
-        <f>I25/24</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="27">
-        <v>0</v>
-      </c>
-      <c r="J25" s="40">
-        <f t="shared" ref="J25" si="4">K25/24</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="36">
-        <v>0</v>
-      </c>
-      <c r="L25" s="40">
-        <f t="shared" ref="L25" si="5">M25/24</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="36">
-        <v>0</v>
-      </c>
-      <c r="N25" s="39">
-        <f>O25/24</f>
-        <v>8</v>
-      </c>
-      <c r="O25" s="36">
-        <f t="shared" ref="O25:O27" si="6">E25+G25-I25-K25-M25</f>
-        <v>192</v>
-      </c>
-      <c r="S25" s="4">
-        <v>192</v>
-      </c>
-      <c r="T25" s="22">
-        <v>0</v>
-      </c>
-      <c r="U25" s="47">
-        <f t="shared" ref="U25:U27" si="7">S25+T25-O25</f>
-        <v>0</v>
-      </c>
-      <c r="V25" s="75"/>
-      <c r="W25" s="29"/>
-    </row>
-    <row r="26" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A26" s="125" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="126"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="82">
-        <f>E26/22</f>
-        <v>25</v>
-      </c>
-      <c r="E26" s="3">
-        <v>550</v>
-      </c>
-      <c r="F26" s="82">
-        <f>G26/22</f>
-        <v>26</v>
-      </c>
-      <c r="G26" s="3">
-        <f>'[2]May 2021'!$F$29</f>
-        <v>572</v>
-      </c>
-      <c r="H26" s="25">
-        <v>0</v>
-      </c>
-      <c r="I26" s="28">
-        <f>220</f>
-        <v>220</v>
-      </c>
-      <c r="J26" s="1">
-        <f>K26/22</f>
-        <v>10</v>
-      </c>
-      <c r="K26" s="3">
-        <f>220</f>
-        <v>220</v>
-      </c>
-      <c r="L26" s="1">
-        <f>M26/22</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="25">
-        <f>O26/22</f>
-        <v>31</v>
-      </c>
-      <c r="O26" s="36">
-        <f t="shared" si="6"/>
-        <v>682</v>
-      </c>
-      <c r="R26" s="29"/>
-      <c r="S26" s="4">
-        <v>572</v>
-      </c>
-      <c r="T26" s="22">
-        <f>5*22</f>
-        <v>110</v>
-      </c>
-      <c r="U26" s="47">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-    </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A27" s="122" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="123"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="83">
-        <f>E27/22</f>
-        <v>3</v>
-      </c>
-      <c r="E27" s="41">
-        <v>66</v>
-      </c>
-      <c r="F27" s="83">
-        <f>G27/22</f>
-        <v>15</v>
-      </c>
-      <c r="G27" s="41">
-        <f>'[2]May 2021'!$G$29</f>
-        <v>330</v>
-      </c>
-      <c r="H27" s="42">
-        <f>I27/22</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="43">
-        <v>0</v>
-      </c>
-      <c r="J27" s="44">
-        <f>K27/22</f>
-        <v>5</v>
-      </c>
-      <c r="K27" s="41">
-        <f>110</f>
-        <v>110</v>
-      </c>
-      <c r="L27" s="44">
-        <f>M27/22</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="41">
-        <v>0</v>
-      </c>
-      <c r="N27" s="42">
-        <f>O27/22</f>
-        <v>13</v>
-      </c>
-      <c r="O27" s="38">
-        <f t="shared" si="6"/>
-        <v>286</v>
-      </c>
-      <c r="S27" s="52">
-        <v>220</v>
-      </c>
-      <c r="T27" s="53">
-        <f>3*22</f>
-        <v>66</v>
-      </c>
-      <c r="U27" s="47">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="75"/>
-      <c r="W27" s="29"/>
-    </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A28" s="116" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="117"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="79">
-        <f t="shared" ref="D28:O28" si="8">SUM(D24:D27)</f>
-        <v>174</v>
-      </c>
-      <c r="E28" s="21">
-        <f t="shared" si="8"/>
-        <v>4948</v>
-      </c>
-      <c r="F28" s="79">
-        <f t="shared" si="8"/>
-        <v>491</v>
-      </c>
-      <c r="G28" s="21">
-        <f t="shared" si="8"/>
-        <v>14402</v>
-      </c>
-      <c r="H28" s="79">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="21">
-        <f t="shared" si="8"/>
-        <v>220</v>
-      </c>
-      <c r="J28" s="79">
-        <f t="shared" si="8"/>
-        <v>38</v>
-      </c>
-      <c r="K28" s="21">
-        <f t="shared" si="8"/>
-        <v>1020</v>
-      </c>
-      <c r="L28" s="79">
-        <f t="shared" si="8"/>
-        <v>268</v>
-      </c>
-      <c r="M28" s="21">
-        <f t="shared" si="8"/>
-        <v>8040</v>
-      </c>
-      <c r="N28" s="79">
-        <f t="shared" si="8"/>
-        <v>349</v>
-      </c>
-      <c r="O28" s="21">
-        <f t="shared" si="8"/>
-        <v>10070</v>
-      </c>
-      <c r="S28" s="46"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="75"/>
-      <c r="W28" s="29"/>
-    </row>
-    <row r="29" spans="1:23">
-      <c r="A29" s="110" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="111"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="74">
-        <f>E29/24</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="10">
-        <v>0</v>
-      </c>
-      <c r="F29" s="74">
-        <f>G29/24</f>
-        <v>190</v>
-      </c>
-      <c r="G29" s="10">
-        <f>'[2]May 2021'!$H$29</f>
-        <v>4560</v>
-      </c>
-      <c r="H29" s="23">
-        <f>I29/24</f>
-        <v>20</v>
-      </c>
-      <c r="I29" s="26">
-        <f>480</f>
-        <v>480</v>
-      </c>
-      <c r="J29" s="11">
-        <f t="shared" ref="J29:J31" si="9">K29/24</f>
-        <v>10</v>
-      </c>
-      <c r="K29" s="10">
-        <f>240</f>
-        <v>240</v>
-      </c>
-      <c r="L29" s="11">
-        <f t="shared" ref="L29:L31" si="10">M29/24</f>
-        <v>155</v>
-      </c>
-      <c r="M29" s="10">
-        <f>2520+1200</f>
-        <v>3720</v>
-      </c>
-      <c r="N29" s="23">
-        <f>O29/24</f>
-        <v>5</v>
-      </c>
-      <c r="O29" s="36">
-        <f>E29+G29-I29-K29-M29</f>
-        <v>120</v>
-      </c>
-      <c r="S29" s="5">
-        <v>120</v>
-      </c>
-      <c r="T29" s="16">
-        <v>0</v>
-      </c>
-      <c r="U29" s="30">
-        <f t="shared" ref="U29:U30" si="11">S29+T29-O29</f>
-        <v>0</v>
-      </c>
-      <c r="V29" s="75"/>
-      <c r="W29" s="29"/>
-    </row>
-    <row r="30" spans="1:23">
-      <c r="A30" s="125" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="126"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="82">
-        <f>E30/24</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="82">
-        <f>G30/24</f>
-        <v>104</v>
-      </c>
-      <c r="G30" s="3">
-        <f>'[2]May 2021'!$I$29</f>
-        <v>2496</v>
-      </c>
-      <c r="H30" s="25">
-        <f>I30/24</f>
-        <v>25</v>
-      </c>
-      <c r="I30" s="28">
-        <f>600</f>
-        <v>600</v>
-      </c>
-      <c r="J30" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0</v>
-      </c>
-      <c r="L30" s="1">
-        <f>M30/24</f>
-        <v>75</v>
-      </c>
-      <c r="M30" s="3">
-        <f>1080+720</f>
-        <v>1800</v>
-      </c>
-      <c r="N30" s="25">
-        <f>O30/24</f>
-        <v>4</v>
-      </c>
-      <c r="O30" s="36">
-        <f t="shared" ref="O30:O31" si="12">E30+G30-I30-K30-M30</f>
-        <v>96</v>
-      </c>
-      <c r="S30" s="4">
-        <v>96</v>
-      </c>
-      <c r="T30" s="8">
-        <v>0</v>
-      </c>
-      <c r="U30" s="35">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="75"/>
-      <c r="W30" s="29"/>
-    </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A31" s="125" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="126"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="82">
-        <f>E31/24</f>
-        <v>123</v>
-      </c>
-      <c r="E31" s="3">
-        <v>2952</v>
-      </c>
-      <c r="F31" s="82">
-        <f>G31/24</f>
-        <v>914</v>
-      </c>
-      <c r="G31" s="3">
-        <f>'[2]May 2021'!$J$29</f>
-        <v>21936</v>
-      </c>
-      <c r="H31" s="25">
-        <f>I31/24</f>
-        <v>225</v>
-      </c>
-      <c r="I31" s="28">
-        <f>5400</f>
-        <v>5400</v>
-      </c>
-      <c r="J31" s="1">
-        <f t="shared" si="9"/>
-        <v>175</v>
-      </c>
-      <c r="K31" s="3">
-        <f>4200</f>
-        <v>4200</v>
-      </c>
-      <c r="L31" s="1">
-        <f t="shared" si="10"/>
-        <v>295</v>
-      </c>
-      <c r="M31" s="3">
-        <v>7080</v>
-      </c>
-      <c r="N31" s="25">
-        <f>O31/24</f>
-        <v>342</v>
-      </c>
-      <c r="O31" s="36">
-        <f t="shared" si="12"/>
-        <v>8208</v>
-      </c>
-      <c r="S31" s="4">
-        <v>6936</v>
-      </c>
-      <c r="T31" s="8">
-        <f>53*24</f>
-        <v>1272</v>
-      </c>
-      <c r="U31" s="35">
-        <f>S31+T31-O31</f>
-        <v>0</v>
-      </c>
-      <c r="V31" s="75"/>
-      <c r="W31" s="29"/>
-    </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A32" s="116" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="117"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="84">
-        <f t="shared" ref="D32:O32" si="13">SUM(D29:D31)</f>
-        <v>123</v>
-      </c>
-      <c r="E32" s="78">
-        <f t="shared" si="13"/>
-        <v>2952</v>
-      </c>
-      <c r="F32" s="84">
-        <f t="shared" si="13"/>
-        <v>1208</v>
-      </c>
-      <c r="G32" s="78">
-        <f t="shared" si="13"/>
-        <v>28992</v>
-      </c>
-      <c r="H32" s="79">
-        <f t="shared" si="13"/>
-        <v>270</v>
-      </c>
-      <c r="I32" s="80">
-        <f t="shared" si="13"/>
-        <v>6480</v>
-      </c>
-      <c r="J32" s="84">
-        <f t="shared" si="13"/>
-        <v>185</v>
-      </c>
-      <c r="K32" s="78">
-        <f t="shared" si="13"/>
-        <v>4440</v>
-      </c>
-      <c r="L32" s="84">
-        <f t="shared" si="13"/>
-        <v>525</v>
-      </c>
-      <c r="M32" s="78">
-        <f t="shared" si="13"/>
-        <v>12600</v>
-      </c>
-      <c r="N32" s="84">
-        <f t="shared" si="13"/>
-        <v>351</v>
-      </c>
-      <c r="O32" s="78">
-        <f t="shared" si="13"/>
-        <v>8424</v>
-      </c>
-      <c r="S32" s="17"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="75"/>
-      <c r="W32" s="29"/>
-    </row>
-    <row r="33" spans="1:23">
-      <c r="A33" s="110" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="111"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="85">
-        <f>E33/12</f>
-        <v>34</v>
-      </c>
-      <c r="E33" s="14">
-        <v>408</v>
-      </c>
-      <c r="F33" s="85">
-        <f>G33/12</f>
-        <v>176</v>
-      </c>
-      <c r="G33" s="14">
-        <f>'[2]May 2021'!$K$29</f>
-        <v>2112</v>
-      </c>
-      <c r="H33" s="23">
-        <f>I33/12</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="26">
-        <v>0</v>
-      </c>
-      <c r="J33" s="15">
-        <f t="shared" ref="J33:J34" si="14">K33/12</f>
-        <v>30</v>
-      </c>
-      <c r="K33" s="10">
-        <f>360</f>
-        <v>360</v>
-      </c>
-      <c r="L33" s="15">
-        <f t="shared" ref="L33:L34" si="15">M33/12</f>
-        <v>25</v>
-      </c>
-      <c r="M33" s="10">
-        <f>180+120</f>
-        <v>300</v>
-      </c>
-      <c r="N33" s="23">
-        <f>O33/12</f>
-        <v>155</v>
-      </c>
-      <c r="O33" s="36">
-        <f>E33+G33-I33-K33-M33</f>
-        <v>1860</v>
-      </c>
-      <c r="S33" s="5">
-        <v>1608</v>
-      </c>
-      <c r="T33" s="16">
-        <f>17*12</f>
-        <v>204</v>
-      </c>
-      <c r="U33" s="30">
-        <f>S33+T33-O33</f>
-        <v>-48</v>
-      </c>
-      <c r="V33" s="86"/>
-      <c r="W33" s="29"/>
-    </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A34" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="114"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="76">
-        <f>E34/12</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="12">
-        <v>0</v>
-      </c>
-      <c r="F34" s="76">
-        <f>G34/12</f>
-        <v>261</v>
-      </c>
-      <c r="G34" s="12">
-        <f>'[2]May 2021'!$L$29</f>
-        <v>3132</v>
-      </c>
-      <c r="H34" s="24">
-        <f>I34/12</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="33">
-        <v>0</v>
-      </c>
-      <c r="J34" s="13">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="12">
-        <v>0</v>
-      </c>
-      <c r="L34" s="13">
-        <f t="shared" si="15"/>
-        <v>261</v>
-      </c>
-      <c r="M34" s="12">
-        <f>3132</f>
-        <v>3132</v>
-      </c>
-      <c r="N34" s="24">
-        <f>O34/12</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="36">
-        <f>E34+G34-I34-K34-M34</f>
-        <v>0</v>
-      </c>
-      <c r="S34" s="4">
-        <v>0</v>
-      </c>
-      <c r="T34" s="22">
-        <v>0</v>
-      </c>
-      <c r="U34" s="35">
-        <f>S34+T34-O34</f>
-        <v>0</v>
-      </c>
-      <c r="V34" s="75"/>
-      <c r="W34" s="29"/>
-    </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A35" s="116" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="117"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="84">
-        <f>SUM(D33:D34)</f>
-        <v>34</v>
-      </c>
-      <c r="E35" s="78">
-        <f t="shared" ref="E35:H35" si="16">SUM(E33:E34)</f>
-        <v>408</v>
-      </c>
-      <c r="F35" s="84">
-        <f t="shared" si="16"/>
-        <v>437</v>
-      </c>
-      <c r="G35" s="78">
-        <f t="shared" si="16"/>
-        <v>5244</v>
-      </c>
-      <c r="H35" s="79">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="80">
-        <f>SUM(I33:I34)</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="84">
-        <f t="shared" ref="J35:O35" si="17">SUM(J33:J34)</f>
-        <v>30</v>
-      </c>
-      <c r="K35" s="78">
-        <f t="shared" si="17"/>
-        <v>360</v>
-      </c>
-      <c r="L35" s="84">
-        <f t="shared" si="17"/>
-        <v>286</v>
-      </c>
-      <c r="M35" s="78">
-        <f t="shared" si="17"/>
-        <v>3432</v>
-      </c>
-      <c r="N35" s="84">
-        <f t="shared" si="17"/>
-        <v>155</v>
-      </c>
-      <c r="O35" s="78">
-        <f t="shared" si="17"/>
-        <v>1860</v>
-      </c>
-      <c r="S35" s="19"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="34"/>
-      <c r="W35" s="29"/>
-    </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A36" s="119" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="120"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="87">
-        <f t="shared" ref="D36:O36" si="18">D21+D22+D24+D25+D26+D27+D29+D30+D31+D33+D34</f>
-        <v>427</v>
-      </c>
-      <c r="E36" s="87">
-        <f t="shared" si="18"/>
-        <v>10612</v>
-      </c>
-      <c r="F36" s="87">
-        <f t="shared" si="18"/>
-        <v>2259</v>
-      </c>
-      <c r="G36" s="87">
-        <f t="shared" si="18"/>
-        <v>51590</v>
-      </c>
-      <c r="H36" s="87">
-        <f t="shared" si="18"/>
-        <v>345</v>
-      </c>
-      <c r="I36" s="87">
-        <f>I21+I22+I24+I25+I26+I27+I29+I30+I31+I33+I34</f>
-        <v>8500</v>
-      </c>
-      <c r="J36" s="87">
-        <f t="shared" si="18"/>
-        <v>304</v>
-      </c>
-      <c r="K36" s="87">
-        <f t="shared" si="18"/>
-        <v>7044</v>
-      </c>
-      <c r="L36" s="87">
-        <f t="shared" si="18"/>
-        <v>1096</v>
-      </c>
-      <c r="M36" s="87">
-        <f t="shared" si="18"/>
-        <v>24480</v>
-      </c>
-      <c r="N36" s="87">
-        <f t="shared" si="18"/>
-        <v>931</v>
-      </c>
-      <c r="O36" s="87">
-        <f t="shared" si="18"/>
-        <v>22178</v>
-      </c>
-      <c r="S36" s="88">
-        <f>SUM(S21:S34)</f>
-        <v>19230</v>
-      </c>
-      <c r="T36" s="89">
-        <f>SUM(T21:T34)</f>
-        <v>3200</v>
-      </c>
-      <c r="U36" s="31">
-        <f>S36+T36-O36</f>
-        <v>252</v>
-      </c>
-      <c r="W36" s="29"/>
-    </row>
-    <row r="37" spans="1:23" ht="9" customHeight="1">
-      <c r="U37" s="32"/>
-    </row>
-    <row r="38" spans="1:23">
-      <c r="V38" s="29"/>
-    </row>
-    <row r="40" spans="1:23">
-      <c r="P40" s="75"/>
-    </row>
-    <row r="41" spans="1:23">
-      <c r="G41" s="29"/>
-    </row>
-    <row r="42" spans="1:23" ht="18.75">
-      <c r="P42" s="90"/>
-    </row>
-  </sheetData>
-  <mergeCells count="91">
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A17:C20"/>
-    <mergeCell ref="D17:O17"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:L6"/>
-  </mergeCells>
-  <pageMargins left="0.16" right="0.16" top="0.25" bottom="0.23" header="0.23" footer="0.2"/>
-  <pageSetup orientation="landscape" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/D.K STATEMENT -2021-22.xlsx
+++ b/D.K STATEMENT -2021-22.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\excel-main\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E48E25-9E3E-403F-A6D8-9D8F4C047BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021-22" sheetId="82" r:id="rId1"/>
@@ -20,7 +14,7 @@
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -204,11 +198,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1549,7 +1543,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="April 2021-22"/>
@@ -1606,7 +1600,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="April 2021-22"/>
@@ -1653,37 +1647,37 @@
       <sheetData sheetId="1">
         <row r="29">
           <cell r="B29">
-            <v>672</v>
+            <v>1032</v>
           </cell>
           <cell r="C29">
-            <v>2280</v>
+            <v>3312</v>
           </cell>
           <cell r="D29">
-            <v>14700</v>
+            <v>22650</v>
           </cell>
           <cell r="E29">
             <v>0</v>
           </cell>
           <cell r="F29">
-            <v>572</v>
+            <v>1166</v>
           </cell>
           <cell r="G29">
-            <v>528</v>
+            <v>638</v>
           </cell>
           <cell r="H29">
-            <v>7800</v>
+            <v>9576</v>
           </cell>
           <cell r="I29">
-            <v>4056</v>
+            <v>4968</v>
           </cell>
           <cell r="J29">
-            <v>32448</v>
+            <v>37992</v>
           </cell>
           <cell r="K29">
-            <v>3696</v>
+            <v>4560</v>
           </cell>
           <cell r="L29">
-            <v>3132</v>
+            <v>4932</v>
           </cell>
         </row>
       </sheetData>
@@ -1735,7 +1729,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1767,27 +1761,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1819,24 +1795,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2012,14 +1970,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
@@ -2045,7 +2003,7 @@
     <col min="25" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="18.75">
       <c r="A1" s="111" t="s">
         <v>49</v>
       </c>
@@ -2067,7 +2025,7 @@
       <c r="Q1" s="111"/>
       <c r="R1" s="111"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1">
       <c r="A2" s="112"/>
       <c r="B2" s="112"/>
       <c r="C2" s="112"/>
@@ -2087,7 +2045,7 @@
       <c r="Q2" s="112"/>
       <c r="R2" s="112"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="15.75" thickBot="1">
       <c r="A3" s="113" t="s">
         <v>50</v>
       </c>
@@ -2104,7 +2062,7 @@
       <c r="L3" s="115"/>
       <c r="M3" s="55"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23">
       <c r="A4" s="116"/>
       <c r="B4" s="117"/>
       <c r="C4" s="120" t="s">
@@ -2131,7 +2089,7 @@
       <c r="L4" s="121"/>
       <c r="M4" s="55"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="15.75" thickBot="1">
       <c r="A5" s="118"/>
       <c r="B5" s="119"/>
       <c r="C5" s="125" t="s">
@@ -2156,7 +2114,7 @@
       <c r="T5" s="29"/>
       <c r="U5" s="29"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="15.75" thickBot="1">
       <c r="A6" s="130"/>
       <c r="B6" s="131"/>
       <c r="C6" s="132">
@@ -2184,7 +2142,7 @@
       <c r="O6" s="29"/>
       <c r="Q6" s="29"/>
     </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A7" s="110" t="s">
         <v>51</v>
       </c>
@@ -2207,7 +2165,7 @@
       <c r="R7" s="110"/>
       <c r="U7" s="29"/>
     </row>
-    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="22.5" customHeight="1">
       <c r="A8" s="139" t="s">
         <v>6</v>
       </c>
@@ -2251,7 +2209,7 @@
       </c>
       <c r="R8" s="146"/>
     </row>
-    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1">
       <c r="A9" s="140"/>
       <c r="B9" s="127" t="s">
         <v>5</v>
@@ -2281,7 +2239,7 @@
       <c r="Q9" s="147"/>
       <c r="R9" s="148"/>
     </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
@@ -2332,7 +2290,7 @@
       <c r="R10" s="152"/>
       <c r="S10" s="32"/>
     </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="15.75" thickBot="1">
       <c r="A11" s="58" t="s">
         <v>9</v>
       </c>
@@ -2379,7 +2337,7 @@
       <c r="R11" s="152"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="58" t="s">
         <v>10</v>
       </c>
@@ -2423,7 +2381,7 @@
       </c>
       <c r="R12" s="152"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="15.75" thickBot="1">
       <c r="A13" s="58" t="s">
         <v>30</v>
       </c>
@@ -2472,7 +2430,7 @@
       <c r="U13" s="29"/>
       <c r="W13" s="29"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="58"/>
       <c r="B14" s="156"/>
       <c r="C14" s="157"/>
@@ -2493,7 +2451,7 @@
       <c r="R14" s="152"/>
       <c r="T14" s="64"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="15.75" thickBot="1">
       <c r="A15" s="59" t="s">
         <v>1</v>
       </c>
@@ -2549,7 +2507,7 @@
       <c r="R15" s="136"/>
       <c r="S15" s="29"/>
     </row>
-    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1">
       <c r="A16" s="65"/>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -2564,7 +2522,7 @@
       <c r="L16" s="67"/>
       <c r="M16" s="67"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A17" s="162" t="s">
         <v>11</v>
       </c>
@@ -2589,7 +2547,7 @@
       <c r="R17" s="68"/>
       <c r="S17" s="68"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A18" s="164"/>
       <c r="B18" s="165"/>
       <c r="C18" s="166"/>
@@ -2616,7 +2574,7 @@
       </c>
       <c r="O18" s="174"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="164"/>
       <c r="B19" s="165"/>
       <c r="C19" s="166"/>
@@ -2637,7 +2595,7 @@
       <c r="N19" s="175"/>
       <c r="O19" s="176"/>
     </row>
-    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1">
       <c r="A20" s="167"/>
       <c r="B20" s="168"/>
       <c r="C20" s="169"/>
@@ -2687,7 +2645,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23">
       <c r="A21" s="179" t="s">
         <v>13</v>
       </c>
@@ -2753,7 +2711,7 @@
       <c r="V21" s="75"/>
       <c r="W21" s="29"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="15.75" thickBot="1">
       <c r="A22" s="182" t="s">
         <v>14</v>
       </c>
@@ -2820,7 +2778,7 @@
       <c r="V22" s="75"/>
       <c r="W22" s="29"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="15.75" thickBot="1">
       <c r="A23" s="185" t="s">
         <v>36</v>
       </c>
@@ -2880,7 +2838,7 @@
       <c r="V23" s="75"/>
       <c r="W23" s="29"/>
     </row>
-    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="15.75" thickBot="1">
       <c r="A24" s="179" t="s">
         <v>15</v>
       </c>
@@ -2947,7 +2905,7 @@
       <c r="V24" s="75"/>
       <c r="W24" s="29"/>
     </row>
-    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="15.75" thickBot="1">
       <c r="A25" s="188" t="s">
         <v>18</v>
       </c>
@@ -3012,7 +2970,7 @@
       <c r="V25" s="75"/>
       <c r="W25" s="29"/>
     </row>
-    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="15.75" thickBot="1">
       <c r="A26" s="159" t="s">
         <v>47</v>
       </c>
@@ -3078,7 +3036,7 @@
       <c r="V26" s="29"/>
       <c r="W26" s="29"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="15.75" thickBot="1">
       <c r="A27" s="194" t="s">
         <v>48</v>
       </c>
@@ -3144,7 +3102,7 @@
       <c r="V27" s="75"/>
       <c r="W27" s="29"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="15.75" thickBot="1">
       <c r="A28" s="185" t="s">
         <v>37</v>
       </c>
@@ -3204,7 +3162,7 @@
       <c r="V28" s="75"/>
       <c r="W28" s="29"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23">
       <c r="A29" s="179" t="s">
         <v>16</v>
       </c>
@@ -3270,7 +3228,7 @@
       <c r="V29" s="75"/>
       <c r="W29" s="29"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23">
       <c r="A30" s="159" t="s">
         <v>43</v>
       </c>
@@ -3336,7 +3294,7 @@
       <c r="V30" s="75"/>
       <c r="W30" s="29"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="15.75" thickBot="1">
       <c r="A31" s="159" t="s">
         <v>17</v>
       </c>
@@ -3403,7 +3361,7 @@
       <c r="V31" s="75"/>
       <c r="W31" s="29"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="15.75" thickBot="1">
       <c r="A32" s="185" t="s">
         <v>38</v>
       </c>
@@ -3463,7 +3421,7 @@
       <c r="V32" s="75"/>
       <c r="W32" s="29"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23">
       <c r="A33" s="179" t="s">
         <v>19</v>
       </c>
@@ -3530,7 +3488,7 @@
       <c r="V33" s="86"/>
       <c r="W33" s="29"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="15.75" thickBot="1">
       <c r="A34" s="182" t="s">
         <v>20</v>
       </c>
@@ -3594,7 +3552,7 @@
       <c r="V34" s="75"/>
       <c r="W34" s="29"/>
     </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="15.75" thickBot="1">
       <c r="A35" s="185" t="s">
         <v>39</v>
       </c>
@@ -3653,7 +3611,7 @@
       <c r="U35" s="34"/>
       <c r="W35" s="29"/>
     </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="15.75" thickBot="1">
       <c r="A36" s="191" t="s">
         <v>21</v>
       </c>
@@ -3721,19 +3679,19 @@
       </c>
       <c r="W36" s="29"/>
     </row>
-    <row r="37" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="9" customHeight="1">
       <c r="U37" s="32"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23">
       <c r="V38" s="29"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23">
       <c r="P40" s="75"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23">
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="18.75">
       <c r="P42" s="90"/>
     </row>
   </sheetData>
@@ -3836,14 +3794,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
@@ -3869,7 +3827,7 @@
     <col min="25" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="18.75">
       <c r="A1" s="111" t="s">
         <v>54</v>
       </c>
@@ -3891,7 +3849,7 @@
       <c r="Q1" s="111"/>
       <c r="R1" s="111"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1">
       <c r="A2" s="112"/>
       <c r="B2" s="112"/>
       <c r="C2" s="112"/>
@@ -3911,7 +3869,7 @@
       <c r="Q2" s="112"/>
       <c r="R2" s="112"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="15.75" thickBot="1">
       <c r="A3" s="113" t="s">
         <v>55</v>
       </c>
@@ -3928,7 +3886,7 @@
       <c r="L3" s="115"/>
       <c r="M3" s="55"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23">
       <c r="A4" s="116"/>
       <c r="B4" s="117"/>
       <c r="C4" s="120" t="s">
@@ -3955,7 +3913,7 @@
       <c r="L4" s="121"/>
       <c r="M4" s="55"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="15.75" thickBot="1">
       <c r="A5" s="118"/>
       <c r="B5" s="119"/>
       <c r="C5" s="125" t="s">
@@ -3980,7 +3938,7 @@
       <c r="T5" s="29"/>
       <c r="U5" s="29"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="15.75" thickBot="1">
       <c r="A6" s="130"/>
       <c r="B6" s="131"/>
       <c r="C6" s="132">
@@ -4008,7 +3966,7 @@
       <c r="O6" s="29"/>
       <c r="Q6" s="29"/>
     </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A7" s="110" t="s">
         <v>56</v>
       </c>
@@ -4031,7 +3989,7 @@
       <c r="R7" s="110"/>
       <c r="U7" s="29"/>
     </row>
-    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="22.5" customHeight="1">
       <c r="A8" s="139" t="s">
         <v>6</v>
       </c>
@@ -4075,7 +4033,7 @@
       </c>
       <c r="R8" s="146"/>
     </row>
-    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1">
       <c r="A9" s="140"/>
       <c r="B9" s="127" t="s">
         <v>5</v>
@@ -4105,7 +4063,7 @@
       <c r="Q9" s="147"/>
       <c r="R9" s="148"/>
     </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
@@ -4135,12 +4093,12 @@
       <c r="K10" s="136"/>
       <c r="L10" s="135">
         <f>G29+G30+G31</f>
-        <v>44304</v>
+        <v>52536</v>
       </c>
       <c r="M10" s="153"/>
       <c r="N10" s="135">
         <f>J10-L10</f>
-        <v>28458.489999999991</v>
+        <v>20226.489999999991</v>
       </c>
       <c r="O10" s="136"/>
       <c r="P10" s="60">
@@ -4149,7 +4107,7 @@
       </c>
       <c r="Q10" s="135">
         <f>N10-P10</f>
-        <v>21413.689999999991</v>
+        <v>13181.689999999991</v>
       </c>
       <c r="R10" s="152"/>
       <c r="S10" s="32"/>
@@ -4157,7 +4115,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="15.75" thickBot="1">
       <c r="A11" s="58" t="s">
         <v>9</v>
       </c>
@@ -4183,12 +4141,12 @@
       <c r="K11" s="136"/>
       <c r="L11" s="135">
         <f>SUM(G21:G22)</f>
-        <v>2952</v>
+        <v>4344</v>
       </c>
       <c r="M11" s="153"/>
       <c r="N11" s="154">
         <f>J11-L11</f>
-        <v>9658.65</v>
+        <v>8266.65</v>
       </c>
       <c r="O11" s="155"/>
       <c r="P11" s="60">
@@ -4197,12 +4155,12 @@
       </c>
       <c r="Q11" s="135">
         <f t="shared" ref="Q11:Q13" si="1">N11-P11</f>
-        <v>3573.5299999999997</v>
+        <v>2181.5299999999997</v>
       </c>
       <c r="R11" s="152"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="58" t="s">
         <v>10</v>
       </c>
@@ -4230,12 +4188,12 @@
       <c r="K12" s="136"/>
       <c r="L12" s="135">
         <f>SUM(G33:G34)</f>
-        <v>6828</v>
+        <v>9492</v>
       </c>
       <c r="M12" s="152"/>
       <c r="N12" s="135">
         <f>J12-L12</f>
-        <v>13413.400000000001</v>
+        <v>10749.400000000001</v>
       </c>
       <c r="O12" s="136"/>
       <c r="P12" s="60">
@@ -4244,11 +4202,11 @@
       </c>
       <c r="Q12" s="135">
         <f t="shared" si="1"/>
-        <v>3812.9800000000014</v>
+        <v>1148.9800000000014</v>
       </c>
       <c r="R12" s="152"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="15.75" thickBot="1">
       <c r="A13" s="58" t="s">
         <v>30</v>
       </c>
@@ -4276,12 +4234,12 @@
       <c r="K13" s="136"/>
       <c r="L13" s="135">
         <f>G24+G25+G26+G27</f>
-        <v>15800</v>
+        <v>24454</v>
       </c>
       <c r="M13" s="152"/>
       <c r="N13" s="135">
         <f>J13-L13</f>
-        <v>12442.79</v>
+        <v>3788.7900000000009</v>
       </c>
       <c r="O13" s="136"/>
       <c r="P13" s="60">
@@ -4290,13 +4248,13 @@
       </c>
       <c r="Q13" s="135">
         <f t="shared" si="1"/>
-        <v>12442.79</v>
+        <v>3788.7900000000009</v>
       </c>
       <c r="R13" s="152"/>
       <c r="V13" s="29"/>
       <c r="W13" s="29"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="58"/>
       <c r="B14" s="156"/>
       <c r="C14" s="157"/>
@@ -4317,7 +4275,7 @@
       <c r="R14" s="152"/>
       <c r="T14" s="64"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="15.75" thickBot="1">
       <c r="A15" s="59" t="s">
         <v>1</v>
       </c>
@@ -4354,12 +4312,12 @@
       <c r="K15" s="136"/>
       <c r="L15" s="135">
         <f>SUM(L10:M14)</f>
-        <v>69884</v>
+        <v>90826</v>
       </c>
       <c r="M15" s="153"/>
       <c r="N15" s="135">
         <f>SUM(N10:O14)</f>
-        <v>63973.329999999994</v>
+        <v>43031.329999999994</v>
       </c>
       <c r="O15" s="136"/>
       <c r="P15" s="60">
@@ -4368,12 +4326,12 @@
       </c>
       <c r="Q15" s="135">
         <f>SUM(Q10:R13)</f>
-        <v>41242.989999999991</v>
+        <v>20300.989999999991</v>
       </c>
       <c r="R15" s="136"/>
       <c r="S15" s="29"/>
     </row>
-    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1">
       <c r="A16" s="65"/>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -4388,7 +4346,7 @@
       <c r="L16" s="67"/>
       <c r="M16" s="67"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A17" s="162" t="s">
         <v>11</v>
       </c>
@@ -4413,7 +4371,7 @@
       <c r="R17" s="68"/>
       <c r="S17" s="68"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A18" s="164"/>
       <c r="B18" s="165"/>
       <c r="C18" s="166"/>
@@ -4440,7 +4398,7 @@
       </c>
       <c r="O18" s="174"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="164"/>
       <c r="B19" s="165"/>
       <c r="C19" s="166"/>
@@ -4461,7 +4419,7 @@
       <c r="N19" s="175"/>
       <c r="O19" s="176"/>
     </row>
-    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1">
       <c r="A20" s="167"/>
       <c r="B20" s="168"/>
       <c r="C20" s="169"/>
@@ -4511,7 +4469,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23">
       <c r="A21" s="179" t="s">
         <v>13</v>
       </c>
@@ -4526,11 +4484,11 @@
       </c>
       <c r="F21" s="74">
         <f>G21/24</f>
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G21" s="10">
         <f>'[2]May 2021'!$B$29</f>
-        <v>672</v>
+        <v>1032</v>
       </c>
       <c r="H21" s="23">
         <f>I21/24</f>
@@ -4550,22 +4508,22 @@
       </c>
       <c r="L21" s="11">
         <f>M21/24</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M21" s="10">
-        <f>120</f>
-        <v>120</v>
+        <f>120+72</f>
+        <v>192</v>
       </c>
       <c r="N21" s="23">
         <f>O21/24</f>
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="O21" s="36">
         <f>E21+G21-I21-K21-M21</f>
-        <v>264</v>
+        <v>552</v>
       </c>
       <c r="S21" s="5">
-        <v>216</v>
+        <v>576</v>
       </c>
       <c r="T21" s="7">
         <f>2*24</f>
@@ -4573,12 +4531,12 @@
       </c>
       <c r="U21" s="30">
         <f>S21+T21-O21</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="V21" s="75"/>
       <c r="W21" s="29"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="15.75" thickBot="1">
       <c r="A22" s="182" t="s">
         <v>14</v>
       </c>
@@ -4593,11 +4551,11 @@
       </c>
       <c r="F22" s="76">
         <f>G22/24</f>
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="G22" s="12">
         <f>'[2]May 2021'!$C$29</f>
-        <v>2280</v>
+        <v>3312</v>
       </c>
       <c r="H22" s="24">
         <f>I22/24</f>
@@ -4617,35 +4575,35 @@
       </c>
       <c r="L22" s="13">
         <f>M22/24</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M22" s="12">
-        <f>48+240</f>
-        <v>288</v>
+        <f>48+240+72+48</f>
+        <v>408</v>
       </c>
       <c r="N22" s="24">
         <f>O22/24</f>
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="O22" s="36">
         <f>E22+G22-I22-K22-M22</f>
-        <v>1560</v>
+        <v>2472</v>
       </c>
       <c r="S22" s="6">
-        <v>1056</v>
+        <v>2088</v>
       </c>
       <c r="T22" s="9">
-        <f>20*24</f>
-        <v>480</v>
+        <f>14*24</f>
+        <v>336</v>
       </c>
       <c r="U22" s="34">
         <f>S22+T22-O22</f>
-        <v>-24</v>
+        <v>-48</v>
       </c>
       <c r="V22" s="75"/>
       <c r="W22" s="29"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="15.75" thickBot="1">
       <c r="A23" s="185" t="s">
         <v>36</v>
       </c>
@@ -4661,11 +4619,11 @@
       </c>
       <c r="F23" s="77">
         <f t="shared" si="2"/>
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="G23" s="78">
         <f t="shared" si="2"/>
-        <v>2952</v>
+        <v>4344</v>
       </c>
       <c r="H23" s="79">
         <f t="shared" si="2"/>
@@ -4685,19 +4643,19 @@
       </c>
       <c r="L23" s="77">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M23" s="78">
         <f t="shared" si="3"/>
-        <v>408</v>
+        <v>600</v>
       </c>
       <c r="N23" s="77">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="O23" s="78">
         <f t="shared" si="3"/>
-        <v>1824</v>
+        <v>3024</v>
       </c>
       <c r="S23" s="45"/>
       <c r="T23" s="48"/>
@@ -4705,7 +4663,7 @@
       <c r="V23" s="75"/>
       <c r="W23" s="29"/>
     </row>
-    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="15.75" thickBot="1">
       <c r="A24" s="179" t="s">
         <v>15</v>
       </c>
@@ -4720,11 +4678,11 @@
       </c>
       <c r="F24" s="74">
         <f>G24/30</f>
-        <v>490</v>
+        <v>755</v>
       </c>
       <c r="G24" s="10">
         <f>'[2]May 2021'!$D$29</f>
-        <v>14700</v>
+        <v>22650</v>
       </c>
       <c r="H24" s="23">
         <f>I24/30</f>
@@ -4743,35 +4701,35 @@
       </c>
       <c r="L24" s="23">
         <f>M24/30</f>
-        <v>268</v>
+        <v>448</v>
       </c>
       <c r="M24" s="10">
-        <f>7740+300</f>
-        <v>8040</v>
+        <f>7740+300+900+300+3600+150+450</f>
+        <v>13440</v>
       </c>
       <c r="N24" s="23">
         <f>O24/30</f>
-        <v>337</v>
+        <v>422</v>
       </c>
       <c r="O24" s="36">
         <f>E24+G24-I24-K24-M24</f>
-        <v>10110</v>
+        <v>12660</v>
       </c>
       <c r="S24" s="50">
-        <v>6390</v>
+        <v>12090</v>
       </c>
       <c r="T24" s="51">
-        <f>34*30</f>
-        <v>1020</v>
+        <f>18*30</f>
+        <v>540</v>
       </c>
       <c r="U24" s="47">
         <f>S24+T24-O24</f>
-        <v>-2700</v>
+        <v>-30</v>
       </c>
       <c r="V24" s="75"/>
       <c r="W24" s="29"/>
     </row>
-    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="15.75" thickBot="1">
       <c r="A25" s="188" t="s">
         <v>18</v>
       </c>
@@ -4834,7 +4792,7 @@
       <c r="V25" s="75"/>
       <c r="W25" s="29"/>
     </row>
-    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="15.75" thickBot="1">
       <c r="A26" s="159" t="s">
         <v>47</v>
       </c>
@@ -4849,11 +4807,11 @@
       </c>
       <c r="F26" s="82">
         <f>G26/22</f>
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="G26" s="3">
         <f>'[2]May 2021'!$F$29</f>
-        <v>572</v>
+        <v>1166</v>
       </c>
       <c r="H26" s="25">
         <v>0</v>
@@ -4872,22 +4830,23 @@
       </c>
       <c r="L26" s="1">
         <f>M26/22</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <f>330</f>
+        <v>330</v>
       </c>
       <c r="N26" s="25">
         <f>O26/22</f>
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="O26" s="36">
         <f t="shared" si="6"/>
-        <v>682</v>
+        <v>946</v>
       </c>
       <c r="R26" s="29"/>
       <c r="S26" s="4">
-        <v>242</v>
+        <v>836</v>
       </c>
       <c r="T26" s="22">
         <f>5*22</f>
@@ -4895,12 +4854,12 @@
       </c>
       <c r="U26" s="47">
         <f t="shared" si="7"/>
-        <v>-330</v>
+        <v>0</v>
       </c>
       <c r="V26" s="29"/>
       <c r="W26" s="29"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="15.75" thickBot="1">
       <c r="A27" s="194" t="s">
         <v>48</v>
       </c>
@@ -4915,11 +4874,11 @@
       </c>
       <c r="F27" s="83">
         <f>G27/22</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G27" s="41">
         <f>'[2]May 2021'!$G$29</f>
-        <v>528</v>
+        <v>638</v>
       </c>
       <c r="H27" s="42">
         <f>I27/22</f>
@@ -4938,10 +4897,11 @@
       </c>
       <c r="L27" s="44">
         <f>M27/22</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M27" s="41">
-        <v>0</v>
+        <f>110</f>
+        <v>110</v>
       </c>
       <c r="N27" s="42">
         <f>O27/22</f>
@@ -4952,7 +4912,7 @@
         <v>484</v>
       </c>
       <c r="S27" s="52">
-        <v>308</v>
+        <v>418</v>
       </c>
       <c r="T27" s="53">
         <f>3*22</f>
@@ -4960,12 +4920,12 @@
       </c>
       <c r="U27" s="47">
         <f t="shared" si="7"/>
-        <v>-110</v>
+        <v>0</v>
       </c>
       <c r="V27" s="75"/>
       <c r="W27" s="29"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="15.75" thickBot="1">
       <c r="A28" s="185" t="s">
         <v>37</v>
       </c>
@@ -4981,11 +4941,11 @@
       </c>
       <c r="F28" s="79">
         <f t="shared" si="8"/>
-        <v>540</v>
+        <v>837</v>
       </c>
       <c r="G28" s="21">
         <f t="shared" si="8"/>
-        <v>15800</v>
+        <v>24454</v>
       </c>
       <c r="H28" s="79">
         <f t="shared" si="8"/>
@@ -5005,19 +4965,19 @@
       </c>
       <c r="L28" s="79">
         <f t="shared" si="8"/>
-        <v>268</v>
+        <v>468</v>
       </c>
       <c r="M28" s="21">
         <f t="shared" si="8"/>
-        <v>8040</v>
+        <v>13880</v>
       </c>
       <c r="N28" s="79">
         <f t="shared" si="8"/>
-        <v>398</v>
+        <v>495</v>
       </c>
       <c r="O28" s="21">
         <f t="shared" si="8"/>
-        <v>11468</v>
+        <v>14282</v>
       </c>
       <c r="S28" s="46"/>
       <c r="T28" s="49"/>
@@ -5025,7 +4985,7 @@
       <c r="V28" s="75"/>
       <c r="W28" s="29"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23">
       <c r="A29" s="179" t="s">
         <v>16</v>
       </c>
@@ -5040,11 +5000,11 @@
       </c>
       <c r="F29" s="74">
         <f>G29/24</f>
-        <v>325</v>
+        <v>399</v>
       </c>
       <c r="G29" s="10">
         <f>'[2]May 2021'!$H$29</f>
-        <v>7800</v>
+        <v>9576</v>
       </c>
       <c r="H29" s="23">
         <f>I29/24</f>
@@ -5064,34 +5024,34 @@
       </c>
       <c r="L29" s="11">
         <f t="shared" ref="L29:L31" si="10">M29/24</f>
-        <v>155</v>
+        <v>315</v>
       </c>
       <c r="M29" s="10">
-        <f>2520+1200</f>
-        <v>3720</v>
+        <f>2520+1200+960+720+480+480+1200</f>
+        <v>7560</v>
       </c>
       <c r="N29" s="23">
         <f>O29/24</f>
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="O29" s="36">
         <f>E29+G29-I29-K29-M29</f>
-        <v>3360</v>
+        <v>1296</v>
       </c>
       <c r="S29" s="5">
-        <v>2928</v>
+        <v>1296</v>
       </c>
       <c r="T29" s="16">
         <v>0</v>
       </c>
       <c r="U29" s="30">
         <f t="shared" ref="U29:U30" si="11">S29+T29-O29</f>
-        <v>-432</v>
+        <v>0</v>
       </c>
       <c r="V29" s="75"/>
       <c r="W29" s="29"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23">
       <c r="A30" s="159" t="s">
         <v>43</v>
       </c>
@@ -5106,11 +5066,11 @@
       </c>
       <c r="F30" s="82">
         <f>G30/24</f>
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="G30" s="3">
         <f>'[2]May 2021'!$I$29</f>
-        <v>4056</v>
+        <v>4968</v>
       </c>
       <c r="H30" s="25">
         <f>I30/24</f>
@@ -5129,34 +5089,34 @@
       </c>
       <c r="L30" s="1">
         <f>M30/24</f>
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="M30" s="3">
-        <f>1080+720</f>
-        <v>1800</v>
+        <f>1080+720+240+360+360+120</f>
+        <v>2880</v>
       </c>
       <c r="N30" s="25">
         <f>O30/24</f>
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="O30" s="36">
         <f t="shared" ref="O30:O31" si="12">E30+G30-I30-K30-M30</f>
-        <v>1656</v>
+        <v>1488</v>
       </c>
       <c r="S30" s="4">
-        <v>1608</v>
+        <v>1488</v>
       </c>
       <c r="T30" s="8">
         <v>0</v>
       </c>
       <c r="U30" s="35">
         <f t="shared" si="11"/>
-        <v>-48</v>
+        <v>0</v>
       </c>
       <c r="V30" s="75"/>
       <c r="W30" s="29"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="15.75" thickBot="1">
       <c r="A31" s="159" t="s">
         <v>17</v>
       </c>
@@ -5171,11 +5131,11 @@
       </c>
       <c r="F31" s="82">
         <f>G31/24</f>
-        <v>1352</v>
+        <v>1583</v>
       </c>
       <c r="G31" s="3">
         <f>'[2]May 2021'!$J$29</f>
-        <v>32448</v>
+        <v>37992</v>
       </c>
       <c r="H31" s="25">
         <f>I31/24</f>
@@ -5195,34 +5155,35 @@
       </c>
       <c r="L31" s="1">
         <f t="shared" si="10"/>
-        <v>295</v>
+        <v>892</v>
       </c>
       <c r="M31" s="3">
-        <v>7080</v>
+        <f>7080+3600+1440+2400+1800+48+2400+1440+1200</f>
+        <v>21408</v>
       </c>
       <c r="N31" s="25">
         <f>O31/24</f>
-        <v>780</v>
+        <v>414</v>
       </c>
       <c r="O31" s="36">
         <f t="shared" si="12"/>
-        <v>18720</v>
+        <v>9936</v>
       </c>
       <c r="S31" s="4">
-        <v>11616</v>
+        <v>8712</v>
       </c>
       <c r="T31" s="8">
-        <f>53*24</f>
-        <v>1272</v>
+        <f>51*24</f>
+        <v>1224</v>
       </c>
       <c r="U31" s="35">
         <f>S31+T31-O31</f>
-        <v>-5832</v>
+        <v>0</v>
       </c>
       <c r="V31" s="75"/>
       <c r="W31" s="29"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="15.75" thickBot="1">
       <c r="A32" s="185" t="s">
         <v>38</v>
       </c>
@@ -5238,11 +5199,11 @@
       </c>
       <c r="F32" s="84">
         <f t="shared" si="13"/>
-        <v>1846</v>
+        <v>2189</v>
       </c>
       <c r="G32" s="78">
         <f t="shared" si="13"/>
-        <v>44304</v>
+        <v>52536</v>
       </c>
       <c r="H32" s="79">
         <f t="shared" si="13"/>
@@ -5262,19 +5223,19 @@
       </c>
       <c r="L32" s="84">
         <f t="shared" si="13"/>
-        <v>525</v>
+        <v>1327</v>
       </c>
       <c r="M32" s="78">
         <f t="shared" si="13"/>
-        <v>12600</v>
+        <v>31848</v>
       </c>
       <c r="N32" s="84">
         <f t="shared" si="13"/>
-        <v>989</v>
+        <v>530</v>
       </c>
       <c r="O32" s="78">
         <f t="shared" si="13"/>
-        <v>23736</v>
+        <v>12720</v>
       </c>
       <c r="S32" s="17"/>
       <c r="T32" s="18"/>
@@ -5282,7 +5243,7 @@
       <c r="V32" s="75"/>
       <c r="W32" s="29"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23">
       <c r="A33" s="179" t="s">
         <v>19</v>
       </c>
@@ -5297,11 +5258,11 @@
       </c>
       <c r="F33" s="85">
         <f>G33/12</f>
-        <v>308</v>
+        <v>380</v>
       </c>
       <c r="G33" s="14">
         <f>'[2]May 2021'!$K$29</f>
-        <v>3696</v>
+        <v>4560</v>
       </c>
       <c r="H33" s="23">
         <f>I33/12</f>
@@ -5320,35 +5281,35 @@
       </c>
       <c r="L33" s="15">
         <f t="shared" ref="L33:L34" si="15">M33/12</f>
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="M33" s="10">
-        <f>180+120</f>
-        <v>300</v>
+        <f>180+120+2100</f>
+        <v>2400</v>
       </c>
       <c r="N33" s="23">
         <f>O33/12</f>
-        <v>287</v>
+        <v>184</v>
       </c>
       <c r="O33" s="36">
         <f>E33+G33-I33-K33-M33</f>
-        <v>3444</v>
+        <v>2208</v>
       </c>
       <c r="S33" s="5">
-        <v>1092</v>
+        <v>1956</v>
       </c>
       <c r="T33" s="16">
-        <f>17*12</f>
-        <v>204</v>
+        <f>15*12</f>
+        <v>180</v>
       </c>
       <c r="U33" s="30">
         <f>S33+T33-O33</f>
-        <v>-2148</v>
+        <v>-72</v>
       </c>
       <c r="V33" s="86"/>
       <c r="W33" s="29"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="15.75" thickBot="1">
       <c r="A34" s="182" t="s">
         <v>20</v>
       </c>
@@ -5363,11 +5324,11 @@
       </c>
       <c r="F34" s="76">
         <f>G34/12</f>
-        <v>261</v>
+        <v>411</v>
       </c>
       <c r="G34" s="12">
         <f>'[2]May 2021'!$L$29</f>
-        <v>3132</v>
+        <v>4932</v>
       </c>
       <c r="H34" s="24">
         <f>I34/12</f>
@@ -5393,14 +5354,14 @@
       </c>
       <c r="N34" s="24">
         <f>O34/12</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="O34" s="36">
         <f>E34+G34-I34-K34-M34</f>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="S34" s="4">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="T34" s="22">
         <v>0</v>
@@ -5412,7 +5373,7 @@
       <c r="V34" s="75"/>
       <c r="W34" s="29"/>
     </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="15.75" thickBot="1">
       <c r="A35" s="185" t="s">
         <v>39</v>
       </c>
@@ -5428,11 +5389,11 @@
       </c>
       <c r="F35" s="84">
         <f t="shared" si="16"/>
-        <v>569</v>
+        <v>791</v>
       </c>
       <c r="G35" s="78">
         <f t="shared" si="16"/>
-        <v>6828</v>
+        <v>9492</v>
       </c>
       <c r="H35" s="79">
         <f t="shared" si="16"/>
@@ -5452,26 +5413,26 @@
       </c>
       <c r="L35" s="84">
         <f t="shared" si="17"/>
-        <v>286</v>
+        <v>461</v>
       </c>
       <c r="M35" s="78">
         <f t="shared" si="17"/>
-        <v>3432</v>
+        <v>5532</v>
       </c>
       <c r="N35" s="84">
         <f t="shared" si="17"/>
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="O35" s="78">
         <f t="shared" si="17"/>
-        <v>3444</v>
+        <v>4008</v>
       </c>
       <c r="S35" s="19"/>
       <c r="T35" s="20"/>
       <c r="U35" s="34"/>
       <c r="W35" s="29"/>
     </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="15.75" thickBot="1">
       <c r="A36" s="191" t="s">
         <v>21</v>
       </c>
@@ -5487,11 +5448,11 @@
       </c>
       <c r="F36" s="87">
         <f t="shared" si="18"/>
-        <v>3078</v>
+        <v>3998</v>
       </c>
       <c r="G36" s="87">
         <f t="shared" si="18"/>
-        <v>69884</v>
+        <v>90826</v>
       </c>
       <c r="H36" s="87">
         <f t="shared" si="18"/>
@@ -5511,47 +5472,47 @@
       </c>
       <c r="L36" s="87">
         <f t="shared" si="18"/>
-        <v>1096</v>
+        <v>2281</v>
       </c>
       <c r="M36" s="87">
         <f t="shared" si="18"/>
-        <v>24480</v>
+        <v>51860</v>
       </c>
       <c r="N36" s="87">
         <f t="shared" si="18"/>
-        <v>1750</v>
+        <v>1485</v>
       </c>
       <c r="O36" s="87">
         <f t="shared" si="18"/>
-        <v>40472</v>
+        <v>34034</v>
       </c>
       <c r="S36" s="88">
         <f>SUM(S21:S34)</f>
-        <v>25648</v>
+        <v>31452</v>
       </c>
       <c r="T36" s="89">
         <f>SUM(T21:T34)</f>
-        <v>3200</v>
+        <v>2504</v>
       </c>
       <c r="U36" s="31">
         <f>S36+T36-O36</f>
-        <v>-11624</v>
+        <v>-78</v>
       </c>
       <c r="W36" s="29"/>
     </row>
-    <row r="37" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="9" customHeight="1">
       <c r="U37" s="32"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23">
       <c r="V38" s="29"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23">
       <c r="P40" s="75"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23">
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="18.75">
       <c r="P42" s="90"/>
     </row>
   </sheetData>

--- a/D.K STATEMENT -2021-22.xlsx
+++ b/D.K STATEMENT -2021-22.xlsx
@@ -1268,6 +1268,203 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1281,9 +1478,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1319,15 +1513,6 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1338,191 +1523,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2004,257 +2004,257 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="178" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="178"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="179"/>
+      <c r="N2" s="179"/>
+      <c r="O2" s="179"/>
+      <c r="P2" s="179"/>
+      <c r="Q2" s="179"/>
+      <c r="R2" s="179"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="180" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="115"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="150"/>
       <c r="M3" s="55"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="116"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="120" t="s">
+      <c r="A4" s="182"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="186" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="121"/>
+      <c r="D4" s="187"/>
       <c r="E4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="122" t="s">
+      <c r="F4" s="188" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="116" t="s">
+      <c r="H4" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="124"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="120" t="s">
+      <c r="I4" s="190"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="121"/>
+      <c r="L4" s="187"/>
       <c r="M4" s="55"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A5" s="118"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="125" t="s">
+      <c r="A5" s="184"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="126"/>
+      <c r="D5" s="192"/>
       <c r="E5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="123"/>
+      <c r="F5" s="189"/>
       <c r="G5" s="95"/>
-      <c r="H5" s="127" t="s">
+      <c r="H5" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="128"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="125" t="s">
+      <c r="I5" s="166"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="191" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="126"/>
+      <c r="L5" s="192"/>
       <c r="M5" s="55"/>
       <c r="T5" s="29"/>
       <c r="U5" s="29"/>
     </row>
     <row r="6" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A6" s="130"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="132">
+      <c r="A6" s="193"/>
+      <c r="B6" s="194"/>
+      <c r="C6" s="195">
         <v>666070.9</v>
       </c>
-      <c r="D6" s="133"/>
+      <c r="D6" s="196"/>
       <c r="E6" s="54"/>
       <c r="F6" s="97"/>
       <c r="G6" s="91">
         <f>C6+E6+F6</f>
         <v>666070.9</v>
       </c>
-      <c r="H6" s="132">
+      <c r="H6" s="195">
         <f>G15</f>
         <v>160041.90000000002</v>
       </c>
-      <c r="I6" s="134"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="135">
+      <c r="I6" s="151"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="131">
         <f>G6-H6</f>
         <v>506029</v>
       </c>
-      <c r="L6" s="136"/>
+      <c r="L6" s="132"/>
       <c r="M6" s="55"/>
       <c r="O6" s="29"/>
       <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="177" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="110"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177"/>
+      <c r="Q7" s="177"/>
+      <c r="R7" s="177"/>
       <c r="U7" s="29"/>
     </row>
     <row r="8" spans="1:23" ht="22.5" customHeight="1">
-      <c r="A8" s="139" t="s">
+      <c r="A8" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="172" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="142"/>
-      <c r="D8" s="143" t="s">
+      <c r="C8" s="173"/>
+      <c r="D8" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="145" t="s">
+      <c r="E8" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="146"/>
-      <c r="G8" s="143" t="s">
+      <c r="F8" s="160"/>
+      <c r="G8" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="143" t="s">
+      <c r="H8" s="157" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="142" t="s">
+      <c r="J8" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="149"/>
-      <c r="L8" s="141" t="s">
+      <c r="K8" s="174"/>
+      <c r="L8" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="142"/>
-      <c r="N8" s="150" t="s">
+      <c r="M8" s="173"/>
+      <c r="N8" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="151"/>
-      <c r="P8" s="143" t="s">
+      <c r="O8" s="176"/>
+      <c r="P8" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="145" t="s">
+      <c r="Q8" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="146"/>
+      <c r="R8" s="160"/>
     </row>
     <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="140"/>
-      <c r="B9" s="127" t="s">
+      <c r="A9" s="171"/>
+      <c r="B9" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
       <c r="I9" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="128" t="s">
+      <c r="J9" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="129"/>
-      <c r="L9" s="127" t="s">
+      <c r="K9" s="167"/>
+      <c r="L9" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="128"/>
-      <c r="N9" s="137" t="s">
+      <c r="M9" s="166"/>
+      <c r="N9" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="138"/>
-      <c r="P9" s="144"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="148"/>
+      <c r="O9" s="169"/>
+      <c r="P9" s="158"/>
+      <c r="Q9" s="161"/>
+      <c r="R9" s="162"/>
     </row>
     <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="135">
+      <c r="B10" s="131">
         <v>2060.5</v>
       </c>
-      <c r="C10" s="134"/>
+      <c r="C10" s="151"/>
       <c r="D10" s="60">
         <v>0</v>
       </c>
-      <c r="E10" s="135">
+      <c r="E10" s="131">
         <f>B10-D10</f>
         <v>2060.5</v>
       </c>
-      <c r="F10" s="136"/>
+      <c r="F10" s="132"/>
       <c r="G10" s="92">
         <f>36127.6+36854+36195.2</f>
         <v>109176.8</v>
@@ -2264,211 +2264,211 @@
         <v>292.40999999999997</v>
       </c>
       <c r="I10" s="60"/>
-      <c r="J10" s="135">
+      <c r="J10" s="131">
         <f>B10+G10+H10+I10</f>
         <v>111529.71</v>
       </c>
-      <c r="K10" s="136"/>
-      <c r="L10" s="135">
+      <c r="K10" s="132"/>
+      <c r="L10" s="131">
         <f>G29+G30+G31</f>
         <v>74136</v>
       </c>
-      <c r="M10" s="153"/>
-      <c r="N10" s="135">
+      <c r="M10" s="152"/>
+      <c r="N10" s="131">
         <f>J10-L10</f>
         <v>37393.710000000006</v>
       </c>
-      <c r="O10" s="136"/>
+      <c r="O10" s="132"/>
       <c r="P10" s="60">
         <f>'[1]April 2021-22'!$K$41</f>
         <v>28956.159999999996</v>
       </c>
-      <c r="Q10" s="135">
+      <c r="Q10" s="131">
         <f>N10-P10</f>
         <v>8437.5500000000102</v>
       </c>
-      <c r="R10" s="152"/>
+      <c r="R10" s="156"/>
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:23" ht="15.75" thickBot="1">
       <c r="A11" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="135">
+      <c r="B11" s="131">
         <v>6061.85</v>
       </c>
-      <c r="C11" s="134"/>
+      <c r="C11" s="151"/>
       <c r="D11" s="60">
         <v>0</v>
       </c>
-      <c r="E11" s="135">
+      <c r="E11" s="131">
         <f t="shared" ref="E11:E13" si="0">B11-D11</f>
         <v>6061.85</v>
       </c>
-      <c r="F11" s="136"/>
+      <c r="F11" s="132"/>
       <c r="G11" s="92">
         <v>15212.8</v>
       </c>
       <c r="H11" s="60"/>
       <c r="I11" s="60"/>
-      <c r="J11" s="135">
+      <c r="J11" s="131">
         <f>B11+G11+H11+I11</f>
         <v>21274.65</v>
       </c>
-      <c r="K11" s="136"/>
-      <c r="L11" s="135">
+      <c r="K11" s="132"/>
+      <c r="L11" s="131">
         <f>SUM(G21:G22)</f>
         <v>8664</v>
       </c>
-      <c r="M11" s="153"/>
-      <c r="N11" s="154">
+      <c r="M11" s="152"/>
+      <c r="N11" s="163">
         <f>J11-L11</f>
         <v>12610.650000000001</v>
       </c>
-      <c r="O11" s="155"/>
+      <c r="O11" s="164"/>
       <c r="P11" s="61">
         <f>'[1]April 2021-22'!$K$65</f>
         <v>12170.24</v>
       </c>
-      <c r="Q11" s="135">
+      <c r="Q11" s="131">
         <f t="shared" ref="Q11:Q13" si="1">N11-P11</f>
         <v>440.41000000000167</v>
       </c>
-      <c r="R11" s="152"/>
+      <c r="R11" s="156"/>
       <c r="S11" s="32"/>
     </row>
     <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="135">
+      <c r="B12" s="131">
         <v>11800.7</v>
       </c>
-      <c r="C12" s="134"/>
+      <c r="C12" s="151"/>
       <c r="D12" s="60">
         <v>0</v>
       </c>
-      <c r="E12" s="135">
+      <c r="E12" s="131">
         <f t="shared" si="0"/>
         <v>11800.7</v>
       </c>
-      <c r="F12" s="136"/>
+      <c r="F12" s="132"/>
       <c r="G12" s="92"/>
       <c r="H12" s="60"/>
       <c r="I12" s="60"/>
-      <c r="J12" s="135">
+      <c r="J12" s="131">
         <f>B12+G12+H12+I12</f>
         <v>11800.7</v>
       </c>
-      <c r="K12" s="136"/>
-      <c r="L12" s="135">
+      <c r="K12" s="132"/>
+      <c r="L12" s="131">
         <f>SUM(G33:G34)</f>
         <v>7560</v>
       </c>
-      <c r="M12" s="152"/>
-      <c r="N12" s="135">
+      <c r="M12" s="156"/>
+      <c r="N12" s="131">
         <f>J12-L12</f>
         <v>4240.7000000000007</v>
       </c>
-      <c r="O12" s="136"/>
+      <c r="O12" s="132"/>
       <c r="P12" s="61">
         <f>'[1]April 2021-22'!$K$57</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="135">
+      <c r="Q12" s="131">
         <f t="shared" si="1"/>
         <v>4240.7000000000007</v>
       </c>
-      <c r="R12" s="152"/>
+      <c r="R12" s="156"/>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1">
       <c r="A13" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="135">
+      <c r="B13" s="131">
         <v>30749.88</v>
       </c>
-      <c r="C13" s="134"/>
+      <c r="C13" s="151"/>
       <c r="D13" s="60">
         <v>0</v>
       </c>
-      <c r="E13" s="135">
+      <c r="E13" s="131">
         <f t="shared" si="0"/>
         <v>30749.88</v>
       </c>
-      <c r="F13" s="136"/>
+      <c r="F13" s="132"/>
       <c r="G13" s="92">
         <f>35652.3</f>
         <v>35652.300000000003</v>
       </c>
       <c r="H13" s="60"/>
       <c r="I13" s="60"/>
-      <c r="J13" s="135">
+      <c r="J13" s="131">
         <f>B13+G13+H13+I13</f>
         <v>66402.180000000008</v>
       </c>
-      <c r="K13" s="136"/>
-      <c r="L13" s="135">
+      <c r="K13" s="132"/>
+      <c r="L13" s="131">
         <f>G24+G25+G26+G27</f>
         <v>38302</v>
       </c>
-      <c r="M13" s="152"/>
-      <c r="N13" s="135">
+      <c r="M13" s="156"/>
+      <c r="N13" s="131">
         <f>J13-L13</f>
         <v>28100.180000000008</v>
       </c>
-      <c r="O13" s="136"/>
+      <c r="O13" s="132"/>
       <c r="P13" s="61">
         <f>'[1]April 2021-22'!$K$49</f>
         <v>21391.380000000005</v>
       </c>
-      <c r="Q13" s="135">
+      <c r="Q13" s="131">
         <f t="shared" si="1"/>
         <v>6708.8000000000029</v>
       </c>
-      <c r="R13" s="152"/>
+      <c r="R13" s="156"/>
       <c r="U13" s="29"/>
       <c r="W13" s="29"/>
     </row>
     <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="58"/>
-      <c r="B14" s="156"/>
-      <c r="C14" s="157"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="154"/>
       <c r="D14" s="61"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="158"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="155"/>
       <c r="G14" s="92"/>
       <c r="H14" s="60"/>
       <c r="I14" s="60"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="136"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="132"/>
       <c r="N14" s="62"/>
       <c r="O14" s="63"/>
       <c r="P14" s="60"/>
-      <c r="Q14" s="135"/>
-      <c r="R14" s="152"/>
+      <c r="Q14" s="131"/>
+      <c r="R14" s="156"/>
       <c r="T14" s="64"/>
     </row>
     <row r="15" spans="1:23" ht="15.75" thickBot="1">
       <c r="A15" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="135">
+      <c r="B15" s="131">
         <f>SUM(B10:C14)</f>
         <v>50672.930000000008</v>
       </c>
-      <c r="C15" s="136"/>
+      <c r="C15" s="132"/>
       <c r="D15" s="60">
         <f>SUM(D10:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="135">
+      <c r="E15" s="131">
         <f>SUM(E10:F14)</f>
         <v>50672.930000000008</v>
       </c>
-      <c r="F15" s="115"/>
+      <c r="F15" s="150"/>
       <c r="G15" s="92">
         <f>SUM(G10:G14)</f>
         <v>160041.90000000002</v>
@@ -2481,30 +2481,30 @@
         <f>SUM(I10:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="134">
+      <c r="J15" s="151">
         <f>SUM(J10:K14)</f>
         <v>211007.24000000005</v>
       </c>
-      <c r="K15" s="136"/>
-      <c r="L15" s="135">
+      <c r="K15" s="132"/>
+      <c r="L15" s="131">
         <f>SUM(L10:M14)</f>
         <v>128662</v>
       </c>
-      <c r="M15" s="153"/>
-      <c r="N15" s="135">
+      <c r="M15" s="152"/>
+      <c r="N15" s="131">
         <f>SUM(N10:O14)</f>
         <v>82345.24000000002</v>
       </c>
-      <c r="O15" s="136"/>
+      <c r="O15" s="132"/>
       <c r="P15" s="60">
         <f>SUM(P10:P14)</f>
         <v>62517.78</v>
       </c>
-      <c r="Q15" s="135">
+      <c r="Q15" s="131">
         <f>SUM(Q10:R13)</f>
         <v>19827.460000000014</v>
       </c>
-      <c r="R15" s="136"/>
+      <c r="R15" s="132"/>
       <c r="S15" s="29"/>
     </row>
     <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1">
@@ -2523,82 +2523,82 @@
       <c r="M16" s="67"/>
     </row>
     <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="162" t="s">
+      <c r="A17" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="163"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="170" t="s">
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="171"/>
-      <c r="K17" s="171"/>
-      <c r="L17" s="171"/>
-      <c r="M17" s="171"/>
-      <c r="N17" s="171"/>
-      <c r="O17" s="172"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="142"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="142"/>
+      <c r="M17" s="142"/>
+      <c r="N17" s="142"/>
+      <c r="O17" s="143"/>
       <c r="P17" s="68"/>
       <c r="Q17" s="68"/>
       <c r="R17" s="68"/>
       <c r="S17" s="68"/>
     </row>
     <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="164"/>
-      <c r="B18" s="165"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="173" t="s">
+      <c r="A18" s="135"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="174"/>
-      <c r="F18" s="173" t="s">
+      <c r="E18" s="145"/>
+      <c r="F18" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="174"/>
-      <c r="H18" s="177" t="s">
+      <c r="G18" s="145"/>
+      <c r="H18" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="178"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="178"/>
-      <c r="L18" s="173" t="s">
+      <c r="I18" s="149"/>
+      <c r="J18" s="149"/>
+      <c r="K18" s="149"/>
+      <c r="L18" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="174"/>
-      <c r="N18" s="173" t="s">
+      <c r="M18" s="145"/>
+      <c r="N18" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="O18" s="174"/>
+      <c r="O18" s="145"/>
     </row>
     <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="164"/>
-      <c r="B19" s="165"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="173"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="170" t="s">
+      <c r="A19" s="135"/>
+      <c r="B19" s="136"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="171"/>
-      <c r="J19" s="170" t="s">
+      <c r="I19" s="142"/>
+      <c r="J19" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="171"/>
-      <c r="L19" s="175"/>
-      <c r="M19" s="176"/>
-      <c r="N19" s="175"/>
-      <c r="O19" s="176"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="146"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="146"/>
+      <c r="O19" s="147"/>
     </row>
     <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A20" s="167"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="169"/>
+      <c r="A20" s="138"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="140"/>
       <c r="D20" s="98" t="s">
         <v>26</v>
       </c>
@@ -2646,11 +2646,11 @@
       </c>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="179" t="s">
+      <c r="A21" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="180"/>
-      <c r="C21" s="181"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="112"/>
       <c r="D21" s="74">
         <f>E21/24</f>
         <v>4</v>
@@ -2712,11 +2712,11 @@
       <c r="W21" s="29"/>
     </row>
     <row r="22" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A22" s="182" t="s">
+      <c r="A22" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="183"/>
-      <c r="C22" s="184"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="76">
         <f>E22/24</f>
         <v>1</v>
@@ -2779,11 +2779,11 @@
       <c r="W22" s="29"/>
     </row>
     <row r="23" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A23" s="185" t="s">
+      <c r="A23" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="186"/>
-      <c r="C23" s="187"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="118"/>
       <c r="D23" s="77">
         <f>SUM(D21:D22)</f>
         <v>5</v>
@@ -2839,11 +2839,11 @@
       <c r="W23" s="29"/>
     </row>
     <row r="24" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A24" s="179" t="s">
+      <c r="A24" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="180"/>
-      <c r="C24" s="181"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="112"/>
       <c r="D24" s="74">
         <f>E24/30</f>
         <v>38</v>
@@ -2906,11 +2906,11 @@
       <c r="W24" s="29"/>
     </row>
     <row r="25" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A25" s="188" t="s">
+      <c r="A25" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="189"/>
-      <c r="C25" s="190"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="130"/>
       <c r="D25" s="81">
         <f>E25/24</f>
         <v>0</v>
@@ -2971,11 +2971,11 @@
       <c r="W25" s="29"/>
     </row>
     <row r="26" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A26" s="159" t="s">
+      <c r="A26" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="160"/>
-      <c r="C26" s="161"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="127"/>
       <c r="D26" s="82">
         <f>E26/22</f>
         <v>51</v>
@@ -3037,11 +3037,11 @@
       <c r="W26" s="29"/>
     </row>
     <row r="27" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A27" s="194" t="s">
+      <c r="A27" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="195"/>
-      <c r="C27" s="196"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="124"/>
       <c r="D27" s="83">
         <f>E27/22</f>
         <v>23</v>
@@ -3103,11 +3103,11 @@
       <c r="W27" s="29"/>
     </row>
     <row r="28" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A28" s="185" t="s">
+      <c r="A28" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="186"/>
-      <c r="C28" s="187"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="118"/>
       <c r="D28" s="79">
         <f t="shared" ref="D28:O28" si="8">SUM(D24:D27)</f>
         <v>112</v>
@@ -3163,11 +3163,11 @@
       <c r="W28" s="29"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="179" t="s">
+      <c r="A29" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="180"/>
-      <c r="C29" s="181"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="112"/>
       <c r="D29" s="74">
         <f>E29/24</f>
         <v>0</v>
@@ -3229,11 +3229,11 @@
       <c r="W29" s="29"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="159" t="s">
+      <c r="A30" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="160"/>
-      <c r="C30" s="161"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="127"/>
       <c r="D30" s="82">
         <f>E30/24</f>
         <v>49</v>
@@ -3295,11 +3295,11 @@
       <c r="W30" s="29"/>
     </row>
     <row r="31" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A31" s="159" t="s">
+      <c r="A31" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="160"/>
-      <c r="C31" s="161"/>
+      <c r="B31" s="126"/>
+      <c r="C31" s="127"/>
       <c r="D31" s="82">
         <f>E31/24</f>
         <v>18</v>
@@ -3362,11 +3362,11 @@
       <c r="W31" s="29"/>
     </row>
     <row r="32" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A32" s="185" t="s">
+      <c r="A32" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="186"/>
-      <c r="C32" s="187"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="118"/>
       <c r="D32" s="84">
         <f t="shared" ref="D32:O32" si="13">SUM(D29:D31)</f>
         <v>67</v>
@@ -3422,11 +3422,11 @@
       <c r="W32" s="29"/>
     </row>
     <row r="33" spans="1:23">
-      <c r="A33" s="179" t="s">
+      <c r="A33" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="180"/>
-      <c r="C33" s="181"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="112"/>
       <c r="D33" s="85">
         <f>E33/12</f>
         <v>35</v>
@@ -3489,11 +3489,11 @@
       <c r="W33" s="29"/>
     </row>
     <row r="34" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A34" s="182" t="s">
+      <c r="A34" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="183"/>
-      <c r="C34" s="184"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="115"/>
       <c r="D34" s="76">
         <f>E34/12</f>
         <v>0</v>
@@ -3553,11 +3553,11 @@
       <c r="W34" s="29"/>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A35" s="185" t="s">
+      <c r="A35" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="186"/>
-      <c r="C35" s="187"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="118"/>
       <c r="D35" s="84">
         <f>SUM(D33:D34)</f>
         <v>35</v>
@@ -3612,11 +3612,11 @@
       <c r="W35" s="29"/>
     </row>
     <row r="36" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A36" s="191" t="s">
+      <c r="A36" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="192"/>
-      <c r="C36" s="193"/>
+      <c r="B36" s="120"/>
+      <c r="C36" s="121"/>
       <c r="D36" s="87">
         <f t="shared" ref="D36:O36" si="18">D21+D22+D24+D25+D26+D27+D29+D30+D31+D33+D34</f>
         <v>219</v>
@@ -3676,6 +3676,1827 @@
       <c r="U36" s="31">
         <f>S36+T36-O36</f>
         <v>-232</v>
+      </c>
+      <c r="W36" s="29"/>
+    </row>
+    <row r="37" spans="1:23" ht="9" customHeight="1">
+      <c r="U37" s="32"/>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="V38" s="29"/>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="P40" s="75"/>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="G41" s="29"/>
+    </row>
+    <row r="42" spans="1:23" ht="18.75">
+      <c r="P42" s="90"/>
+    </row>
+  </sheetData>
+  <mergeCells count="91">
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="A17:C20"/>
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+  </mergeCells>
+  <pageMargins left="0.16" right="0.16" top="0.25" bottom="0.23" header="0.23" footer="0.2"/>
+  <pageSetup orientation="landscape" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6" style="2" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7" style="2" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" style="2" customWidth="1"/>
+    <col min="16" max="17" width="7.85546875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="6" style="2" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="2"/>
+    <col min="24" max="24" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="18.75">
+      <c r="A1" s="178" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="178"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A2" s="179"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="179"/>
+      <c r="N2" s="179"/>
+      <c r="O2" s="179"/>
+      <c r="P2" s="179"/>
+      <c r="Q2" s="179"/>
+      <c r="R2" s="179"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A3" s="180" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="55"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="182"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="186" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="187"/>
+      <c r="E4" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="188" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="182" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="190"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="186" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="187"/>
+      <c r="M4" s="55"/>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A5" s="184"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="191" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="192"/>
+      <c r="E5" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="189"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="165" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="166"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="191" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="192"/>
+      <c r="M5" s="55"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A6" s="193"/>
+      <c r="B6" s="194"/>
+      <c r="C6" s="195">
+        <v>506029</v>
+      </c>
+      <c r="D6" s="196"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="104">
+        <f>C6+E6+F6</f>
+        <v>506029</v>
+      </c>
+      <c r="H6" s="195">
+        <f>G15</f>
+        <v>51224.7</v>
+      </c>
+      <c r="I6" s="151"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="131">
+        <f>G6-H6</f>
+        <v>454804.3</v>
+      </c>
+      <c r="L6" s="132"/>
+      <c r="M6" s="55"/>
+      <c r="O6" s="29"/>
+      <c r="Q6" s="29"/>
+    </row>
+    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A7" s="177" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="177"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177"/>
+      <c r="Q7" s="177"/>
+      <c r="R7" s="177"/>
+      <c r="U7" s="29"/>
+    </row>
+    <row r="8" spans="1:23" ht="22.5" customHeight="1">
+      <c r="A8" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="172" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="173"/>
+      <c r="D8" s="157" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="159" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="160"/>
+      <c r="G8" s="157" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="157" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="173" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="174"/>
+      <c r="L8" s="172" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="173"/>
+      <c r="N8" s="175" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="176"/>
+      <c r="P8" s="157" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="159" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="160"/>
+    </row>
+    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A9" s="171"/>
+      <c r="B9" s="165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="166"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="102" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="166" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="167"/>
+      <c r="L9" s="165" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="166"/>
+      <c r="N9" s="168" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="169"/>
+      <c r="P9" s="158"/>
+      <c r="Q9" s="161"/>
+      <c r="R9" s="162"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A10" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="131">
+        <v>37393.71</v>
+      </c>
+      <c r="C10" s="151"/>
+      <c r="D10" s="60">
+        <v>28956.16</v>
+      </c>
+      <c r="E10" s="131">
+        <f>B10-D10</f>
+        <v>8437.5499999999993</v>
+      </c>
+      <c r="F10" s="132"/>
+      <c r="G10" s="105">
+        <v>35224</v>
+      </c>
+      <c r="H10" s="60">
+        <v>144.78</v>
+      </c>
+      <c r="I10" s="60"/>
+      <c r="J10" s="131">
+        <f>B10+G10+H10+I10</f>
+        <v>72762.489999999991</v>
+      </c>
+      <c r="K10" s="132"/>
+      <c r="L10" s="131">
+        <f>G29+G30+G31</f>
+        <v>52536</v>
+      </c>
+      <c r="M10" s="152"/>
+      <c r="N10" s="131">
+        <f>J10-L10</f>
+        <v>20226.489999999991</v>
+      </c>
+      <c r="O10" s="132"/>
+      <c r="P10" s="60">
+        <f>'[1]May 2021'!$K$15</f>
+        <v>7044.7999999999993</v>
+      </c>
+      <c r="Q10" s="131">
+        <f>N10-P10</f>
+        <v>13181.689999999991</v>
+      </c>
+      <c r="R10" s="156"/>
+      <c r="S10" s="32"/>
+      <c r="U10" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A11" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="131">
+        <v>12610.65</v>
+      </c>
+      <c r="C11" s="151"/>
+      <c r="D11" s="60">
+        <v>12170.24</v>
+      </c>
+      <c r="E11" s="131">
+        <f t="shared" ref="E11:E13" si="0">B11-D11</f>
+        <v>440.40999999999985</v>
+      </c>
+      <c r="F11" s="132"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="131">
+        <f>B11+G11+H11+I11</f>
+        <v>12610.65</v>
+      </c>
+      <c r="K11" s="132"/>
+      <c r="L11" s="131">
+        <f>SUM(G21:G22)</f>
+        <v>4344</v>
+      </c>
+      <c r="M11" s="152"/>
+      <c r="N11" s="163">
+        <f>J11-L11</f>
+        <v>8266.65</v>
+      </c>
+      <c r="O11" s="164"/>
+      <c r="P11" s="60">
+        <f>'[1]May 2021'!$K$25</f>
+        <v>6085.12</v>
+      </c>
+      <c r="Q11" s="131">
+        <f t="shared" ref="Q11:Q13" si="1">N11-P11</f>
+        <v>2181.5299999999997</v>
+      </c>
+      <c r="R11" s="156"/>
+      <c r="S11" s="32"/>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A12" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="131">
+        <v>4240.7</v>
+      </c>
+      <c r="C12" s="151"/>
+      <c r="D12" s="60">
+        <v>0</v>
+      </c>
+      <c r="E12" s="131">
+        <f t="shared" si="0"/>
+        <v>4240.7</v>
+      </c>
+      <c r="F12" s="132"/>
+      <c r="G12" s="105">
+        <v>16000.7</v>
+      </c>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="131">
+        <f>B12+G12+H12+I12</f>
+        <v>20241.400000000001</v>
+      </c>
+      <c r="K12" s="132"/>
+      <c r="L12" s="131">
+        <f>SUM(G33:G34)</f>
+        <v>9492</v>
+      </c>
+      <c r="M12" s="156"/>
+      <c r="N12" s="131">
+        <f>J12-L12</f>
+        <v>10749.400000000001</v>
+      </c>
+      <c r="O12" s="132"/>
+      <c r="P12" s="60">
+        <f>'[1]May 2021'!$K$35</f>
+        <v>9600.42</v>
+      </c>
+      <c r="Q12" s="131">
+        <f t="shared" si="1"/>
+        <v>1148.9800000000014</v>
+      </c>
+      <c r="R12" s="156"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A13" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="131">
+        <v>28100.18</v>
+      </c>
+      <c r="C13" s="151"/>
+      <c r="D13" s="60">
+        <v>21391.38</v>
+      </c>
+      <c r="E13" s="131">
+        <f t="shared" si="0"/>
+        <v>6708.7999999999993</v>
+      </c>
+      <c r="F13" s="132"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="60">
+        <v>142.61000000000001</v>
+      </c>
+      <c r="I13" s="60"/>
+      <c r="J13" s="131">
+        <f>B13+G13+H13+I13</f>
+        <v>28242.79</v>
+      </c>
+      <c r="K13" s="132"/>
+      <c r="L13" s="131">
+        <f>G24+G25+G26+G27</f>
+        <v>24454</v>
+      </c>
+      <c r="M13" s="156"/>
+      <c r="N13" s="131">
+        <f>J13-L13</f>
+        <v>3788.7900000000009</v>
+      </c>
+      <c r="O13" s="132"/>
+      <c r="P13" s="60">
+        <f>'[1]May 2021'!$K$45</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="131">
+        <f t="shared" si="1"/>
+        <v>3788.7900000000009</v>
+      </c>
+      <c r="R13" s="156"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A14" s="58"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="131"/>
+      <c r="R14" s="156"/>
+      <c r="T14" s="64"/>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A15" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="131">
+        <f>SUM(B10:C14)</f>
+        <v>82345.239999999991</v>
+      </c>
+      <c r="C15" s="132"/>
+      <c r="D15" s="60">
+        <f>SUM(D10:D14)</f>
+        <v>62517.78</v>
+      </c>
+      <c r="E15" s="131">
+        <f>SUM(E10:F14)</f>
+        <v>19827.46</v>
+      </c>
+      <c r="F15" s="150"/>
+      <c r="G15" s="105">
+        <f>SUM(G10:G14)</f>
+        <v>51224.7</v>
+      </c>
+      <c r="H15" s="60">
+        <f>SUM(H10:H14)</f>
+        <v>287.39</v>
+      </c>
+      <c r="I15" s="60">
+        <f>SUM(I10:I14)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="151">
+        <f>SUM(J10:K14)</f>
+        <v>133857.32999999999</v>
+      </c>
+      <c r="K15" s="132"/>
+      <c r="L15" s="131">
+        <f>SUM(L10:M14)</f>
+        <v>90826</v>
+      </c>
+      <c r="M15" s="152"/>
+      <c r="N15" s="131">
+        <f>SUM(N10:O14)</f>
+        <v>43031.329999999994</v>
+      </c>
+      <c r="O15" s="132"/>
+      <c r="P15" s="60">
+        <f>SUM(P10:P14)</f>
+        <v>22730.339999999997</v>
+      </c>
+      <c r="Q15" s="131">
+        <f>SUM(Q10:R13)</f>
+        <v>20300.989999999991</v>
+      </c>
+      <c r="R15" s="132"/>
+      <c r="S15" s="29"/>
+    </row>
+    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1">
+      <c r="A16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+    </row>
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A17" s="133" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="141" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="142"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="142"/>
+      <c r="M17" s="142"/>
+      <c r="N17" s="142"/>
+      <c r="O17" s="143"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A18" s="135"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="144" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="145"/>
+      <c r="F18" s="144" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="145"/>
+      <c r="H18" s="148" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="149"/>
+      <c r="J18" s="149"/>
+      <c r="K18" s="149"/>
+      <c r="L18" s="144" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="145"/>
+      <c r="N18" s="144" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="145"/>
+    </row>
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A19" s="135"/>
+      <c r="B19" s="136"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="141" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="142"/>
+      <c r="J19" s="141" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="142"/>
+      <c r="L19" s="146"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="146"/>
+      <c r="O19" s="147"/>
+    </row>
+    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A20" s="138"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="108" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="S20" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="T20" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="U20" s="37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="110" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="111"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="74">
+        <f>E21/24</f>
+        <v>14</v>
+      </c>
+      <c r="E21" s="10">
+        <v>336</v>
+      </c>
+      <c r="F21" s="74">
+        <f>G21/24</f>
+        <v>43</v>
+      </c>
+      <c r="G21" s="10">
+        <f>'[2]May 2021'!$B$29</f>
+        <v>1032</v>
+      </c>
+      <c r="H21" s="23">
+        <f>I21/24</f>
+        <v>25</v>
+      </c>
+      <c r="I21" s="26">
+        <f>600</f>
+        <v>600</v>
+      </c>
+      <c r="J21" s="11">
+        <f>K21/24</f>
+        <v>1</v>
+      </c>
+      <c r="K21" s="10">
+        <f>24</f>
+        <v>24</v>
+      </c>
+      <c r="L21" s="11">
+        <f>M21/24</f>
+        <v>8</v>
+      </c>
+      <c r="M21" s="10">
+        <f>120+72</f>
+        <v>192</v>
+      </c>
+      <c r="N21" s="23">
+        <f>O21/24</f>
+        <v>23</v>
+      </c>
+      <c r="O21" s="36">
+        <f>E21+G21-I21-K21-M21</f>
+        <v>552</v>
+      </c>
+      <c r="S21" s="5">
+        <v>576</v>
+      </c>
+      <c r="T21" s="7">
+        <f>2*24</f>
+        <v>48</v>
+      </c>
+      <c r="U21" s="30">
+        <f>S21+T21-O21</f>
+        <v>72</v>
+      </c>
+      <c r="V21" s="75"/>
+      <c r="W21" s="29"/>
+    </row>
+    <row r="22" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A22" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="114"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="76">
+        <f>E22/24</f>
+        <v>82</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1968</v>
+      </c>
+      <c r="F22" s="76">
+        <f>G22/24</f>
+        <v>138</v>
+      </c>
+      <c r="G22" s="12">
+        <f>'[2]May 2021'!$C$29</f>
+        <v>3312</v>
+      </c>
+      <c r="H22" s="24">
+        <f>I22/24</f>
+        <v>50</v>
+      </c>
+      <c r="I22" s="33">
+        <f>1200</f>
+        <v>1200</v>
+      </c>
+      <c r="J22" s="13">
+        <f>K22/24</f>
+        <v>50</v>
+      </c>
+      <c r="K22" s="12">
+        <f>1200</f>
+        <v>1200</v>
+      </c>
+      <c r="L22" s="13">
+        <f>M22/24</f>
+        <v>17</v>
+      </c>
+      <c r="M22" s="12">
+        <f>48+240+72+48</f>
+        <v>408</v>
+      </c>
+      <c r="N22" s="24">
+        <f>O22/24</f>
+        <v>103</v>
+      </c>
+      <c r="O22" s="36">
+        <f>E22+G22-I22-K22-M22</f>
+        <v>2472</v>
+      </c>
+      <c r="S22" s="6">
+        <v>2088</v>
+      </c>
+      <c r="T22" s="9">
+        <f>14*24</f>
+        <v>336</v>
+      </c>
+      <c r="U22" s="34">
+        <f>S22+T22-O22</f>
+        <v>-48</v>
+      </c>
+      <c r="V22" s="75"/>
+      <c r="W22" s="29"/>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A23" s="116" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="117"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="77">
+        <f>SUM(D21:D22)</f>
+        <v>96</v>
+      </c>
+      <c r="E23" s="78">
+        <f t="shared" ref="E23:H23" si="2">SUM(E21:E22)</f>
+        <v>2304</v>
+      </c>
+      <c r="F23" s="77">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="G23" s="78">
+        <f t="shared" si="2"/>
+        <v>4344</v>
+      </c>
+      <c r="H23" s="79">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="I23" s="80">
+        <f>SUM(I21:I22)</f>
+        <v>1800</v>
+      </c>
+      <c r="J23" s="77">
+        <f t="shared" ref="J23:O23" si="3">SUM(J21:J22)</f>
+        <v>51</v>
+      </c>
+      <c r="K23" s="78">
+        <f t="shared" si="3"/>
+        <v>1224</v>
+      </c>
+      <c r="L23" s="77">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="M23" s="78">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="N23" s="77">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="O23" s="78">
+        <f t="shared" si="3"/>
+        <v>3024</v>
+      </c>
+      <c r="S23" s="45"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="29"/>
+    </row>
+    <row r="24" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A24" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="111"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="74">
+        <f>E24/30</f>
+        <v>138</v>
+      </c>
+      <c r="E24" s="10">
+        <v>4140</v>
+      </c>
+      <c r="F24" s="74">
+        <f>G24/30</f>
+        <v>755</v>
+      </c>
+      <c r="G24" s="10">
+        <f>'[2]May 2021'!$D$29</f>
+        <v>22650</v>
+      </c>
+      <c r="H24" s="23">
+        <f>I24/30</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0</v>
+      </c>
+      <c r="J24" s="23">
+        <f>K24/30</f>
+        <v>23</v>
+      </c>
+      <c r="K24" s="10">
+        <f>690</f>
+        <v>690</v>
+      </c>
+      <c r="L24" s="23">
+        <f>M24/30</f>
+        <v>448</v>
+      </c>
+      <c r="M24" s="10">
+        <f>7740+300+900+300+3600+150+450</f>
+        <v>13440</v>
+      </c>
+      <c r="N24" s="23">
+        <f>O24/30</f>
+        <v>422</v>
+      </c>
+      <c r="O24" s="36">
+        <f>E24+G24-I24-K24-M24</f>
+        <v>12660</v>
+      </c>
+      <c r="S24" s="50">
+        <v>12090</v>
+      </c>
+      <c r="T24" s="51">
+        <f>18*30</f>
+        <v>540</v>
+      </c>
+      <c r="U24" s="47">
+        <f>S24+T24-O24</f>
+        <v>-30</v>
+      </c>
+      <c r="V24" s="75"/>
+      <c r="W24" s="29"/>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A25" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="129"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="81">
+        <f>E25/24</f>
+        <v>8</v>
+      </c>
+      <c r="E25" s="36">
+        <v>192</v>
+      </c>
+      <c r="F25" s="81">
+        <f>G25/24</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="27">
+        <f>'[2]May 2021'!$E$29</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="39">
+        <f>I25/24</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="27">
+        <v>0</v>
+      </c>
+      <c r="J25" s="40">
+        <f t="shared" ref="J25" si="4">K25/24</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="36">
+        <v>0</v>
+      </c>
+      <c r="L25" s="40">
+        <f t="shared" ref="L25" si="5">M25/24</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="36">
+        <v>0</v>
+      </c>
+      <c r="N25" s="39">
+        <f>O25/24</f>
+        <v>8</v>
+      </c>
+      <c r="O25" s="36">
+        <f t="shared" ref="O25:O27" si="6">E25+G25-I25-K25-M25</f>
+        <v>192</v>
+      </c>
+      <c r="S25" s="4">
+        <v>192</v>
+      </c>
+      <c r="T25" s="22">
+        <v>0</v>
+      </c>
+      <c r="U25" s="47">
+        <f t="shared" ref="U25:U27" si="7">S25+T25-O25</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="75"/>
+      <c r="W25" s="29"/>
+    </row>
+    <row r="26" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A26" s="125" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="126"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="82">
+        <f>E26/22</f>
+        <v>25</v>
+      </c>
+      <c r="E26" s="3">
+        <v>550</v>
+      </c>
+      <c r="F26" s="82">
+        <f>G26/22</f>
+        <v>53</v>
+      </c>
+      <c r="G26" s="3">
+        <f>'[2]May 2021'!$F$29</f>
+        <v>1166</v>
+      </c>
+      <c r="H26" s="25">
+        <v>0</v>
+      </c>
+      <c r="I26" s="28">
+        <f>220</f>
+        <v>220</v>
+      </c>
+      <c r="J26" s="1">
+        <f>K26/22</f>
+        <v>10</v>
+      </c>
+      <c r="K26" s="3">
+        <f>220</f>
+        <v>220</v>
+      </c>
+      <c r="L26" s="1">
+        <f>M26/22</f>
+        <v>15</v>
+      </c>
+      <c r="M26" s="3">
+        <f>330</f>
+        <v>330</v>
+      </c>
+      <c r="N26" s="25">
+        <f>O26/22</f>
+        <v>43</v>
+      </c>
+      <c r="O26" s="36">
+        <f t="shared" si="6"/>
+        <v>946</v>
+      </c>
+      <c r="R26" s="29"/>
+      <c r="S26" s="4">
+        <v>836</v>
+      </c>
+      <c r="T26" s="22">
+        <f>5*22</f>
+        <v>110</v>
+      </c>
+      <c r="U26" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A27" s="122" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="123"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="83">
+        <f>E27/22</f>
+        <v>3</v>
+      </c>
+      <c r="E27" s="41">
+        <v>66</v>
+      </c>
+      <c r="F27" s="83">
+        <f>G27/22</f>
+        <v>29</v>
+      </c>
+      <c r="G27" s="41">
+        <f>'[2]May 2021'!$G$29</f>
+        <v>638</v>
+      </c>
+      <c r="H27" s="42">
+        <f>I27/22</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="43">
+        <v>0</v>
+      </c>
+      <c r="J27" s="44">
+        <f>K27/22</f>
+        <v>5</v>
+      </c>
+      <c r="K27" s="41">
+        <f>110</f>
+        <v>110</v>
+      </c>
+      <c r="L27" s="44">
+        <f>M27/22</f>
+        <v>5</v>
+      </c>
+      <c r="M27" s="41">
+        <f>110</f>
+        <v>110</v>
+      </c>
+      <c r="N27" s="42">
+        <f>O27/22</f>
+        <v>22</v>
+      </c>
+      <c r="O27" s="38">
+        <f t="shared" si="6"/>
+        <v>484</v>
+      </c>
+      <c r="S27" s="52">
+        <v>418</v>
+      </c>
+      <c r="T27" s="53">
+        <f>3*22</f>
+        <v>66</v>
+      </c>
+      <c r="U27" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="75"/>
+      <c r="W27" s="29"/>
+    </row>
+    <row r="28" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A28" s="116" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="117"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="79">
+        <f t="shared" ref="D28:O28" si="8">SUM(D24:D27)</f>
+        <v>174</v>
+      </c>
+      <c r="E28" s="21">
+        <f t="shared" si="8"/>
+        <v>4948</v>
+      </c>
+      <c r="F28" s="79">
+        <f t="shared" si="8"/>
+        <v>837</v>
+      </c>
+      <c r="G28" s="21">
+        <f t="shared" si="8"/>
+        <v>24454</v>
+      </c>
+      <c r="H28" s="79">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="21">
+        <f t="shared" si="8"/>
+        <v>220</v>
+      </c>
+      <c r="J28" s="79">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+      <c r="K28" s="21">
+        <f t="shared" si="8"/>
+        <v>1020</v>
+      </c>
+      <c r="L28" s="79">
+        <f t="shared" si="8"/>
+        <v>468</v>
+      </c>
+      <c r="M28" s="21">
+        <f t="shared" si="8"/>
+        <v>13880</v>
+      </c>
+      <c r="N28" s="79">
+        <f t="shared" si="8"/>
+        <v>495</v>
+      </c>
+      <c r="O28" s="21">
+        <f t="shared" si="8"/>
+        <v>14282</v>
+      </c>
+      <c r="S28" s="46"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="75"/>
+      <c r="W28" s="29"/>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="111"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="74">
+        <f>E29/24</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
+      <c r="F29" s="74">
+        <f>G29/24</f>
+        <v>399</v>
+      </c>
+      <c r="G29" s="10">
+        <f>'[2]May 2021'!$H$29</f>
+        <v>9576</v>
+      </c>
+      <c r="H29" s="23">
+        <f>I29/24</f>
+        <v>20</v>
+      </c>
+      <c r="I29" s="26">
+        <f>480</f>
+        <v>480</v>
+      </c>
+      <c r="J29" s="11">
+        <f t="shared" ref="J29:J31" si="9">K29/24</f>
+        <v>10</v>
+      </c>
+      <c r="K29" s="10">
+        <f>240</f>
+        <v>240</v>
+      </c>
+      <c r="L29" s="11">
+        <f t="shared" ref="L29:L31" si="10">M29/24</f>
+        <v>315</v>
+      </c>
+      <c r="M29" s="10">
+        <f>2520+1200+960+720+480+480+1200</f>
+        <v>7560</v>
+      </c>
+      <c r="N29" s="23">
+        <f>O29/24</f>
+        <v>54</v>
+      </c>
+      <c r="O29" s="36">
+        <f>E29+G29-I29-K29-M29</f>
+        <v>1296</v>
+      </c>
+      <c r="S29" s="5">
+        <v>1296</v>
+      </c>
+      <c r="T29" s="16">
+        <v>0</v>
+      </c>
+      <c r="U29" s="30">
+        <f t="shared" ref="U29:U30" si="11">S29+T29-O29</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="75"/>
+      <c r="W29" s="29"/>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="125" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="126"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="82">
+        <f>E30/24</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="82">
+        <f>G30/24</f>
+        <v>207</v>
+      </c>
+      <c r="G30" s="3">
+        <f>'[2]May 2021'!$I$29</f>
+        <v>4968</v>
+      </c>
+      <c r="H30" s="25">
+        <f>I30/24</f>
+        <v>25</v>
+      </c>
+      <c r="I30" s="28">
+        <f>600</f>
+        <v>600</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <f>M30/24</f>
+        <v>120</v>
+      </c>
+      <c r="M30" s="3">
+        <f>1080+720+240+360+360+120</f>
+        <v>2880</v>
+      </c>
+      <c r="N30" s="25">
+        <f>O30/24</f>
+        <v>62</v>
+      </c>
+      <c r="O30" s="36">
+        <f t="shared" ref="O30:O31" si="12">E30+G30-I30-K30-M30</f>
+        <v>1488</v>
+      </c>
+      <c r="S30" s="4">
+        <v>1488</v>
+      </c>
+      <c r="T30" s="8">
+        <v>0</v>
+      </c>
+      <c r="U30" s="35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="75"/>
+      <c r="W30" s="29"/>
+    </row>
+    <row r="31" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A31" s="125" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="126"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="82">
+        <f>E31/24</f>
+        <v>123</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2952</v>
+      </c>
+      <c r="F31" s="82">
+        <f>G31/24</f>
+        <v>1583</v>
+      </c>
+      <c r="G31" s="3">
+        <f>'[2]May 2021'!$J$29</f>
+        <v>37992</v>
+      </c>
+      <c r="H31" s="25">
+        <f>I31/24</f>
+        <v>225</v>
+      </c>
+      <c r="I31" s="28">
+        <f>5400</f>
+        <v>5400</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="9"/>
+        <v>175</v>
+      </c>
+      <c r="K31" s="3">
+        <f>4200</f>
+        <v>4200</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="10"/>
+        <v>892</v>
+      </c>
+      <c r="M31" s="3">
+        <f>7080+3600+1440+2400+1800+48+2400+1440+1200</f>
+        <v>21408</v>
+      </c>
+      <c r="N31" s="25">
+        <f>O31/24</f>
+        <v>414</v>
+      </c>
+      <c r="O31" s="36">
+        <f t="shared" si="12"/>
+        <v>9936</v>
+      </c>
+      <c r="S31" s="4">
+        <v>8712</v>
+      </c>
+      <c r="T31" s="8">
+        <f>51*24</f>
+        <v>1224</v>
+      </c>
+      <c r="U31" s="35">
+        <f>S31+T31-O31</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="75"/>
+      <c r="W31" s="29"/>
+    </row>
+    <row r="32" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A32" s="116" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="117"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="84">
+        <f t="shared" ref="D32:O32" si="13">SUM(D29:D31)</f>
+        <v>123</v>
+      </c>
+      <c r="E32" s="78">
+        <f t="shared" si="13"/>
+        <v>2952</v>
+      </c>
+      <c r="F32" s="84">
+        <f t="shared" si="13"/>
+        <v>2189</v>
+      </c>
+      <c r="G32" s="78">
+        <f t="shared" si="13"/>
+        <v>52536</v>
+      </c>
+      <c r="H32" s="79">
+        <f t="shared" si="13"/>
+        <v>270</v>
+      </c>
+      <c r="I32" s="80">
+        <f t="shared" si="13"/>
+        <v>6480</v>
+      </c>
+      <c r="J32" s="84">
+        <f t="shared" si="13"/>
+        <v>185</v>
+      </c>
+      <c r="K32" s="78">
+        <f t="shared" si="13"/>
+        <v>4440</v>
+      </c>
+      <c r="L32" s="84">
+        <f t="shared" si="13"/>
+        <v>1327</v>
+      </c>
+      <c r="M32" s="78">
+        <f t="shared" si="13"/>
+        <v>31848</v>
+      </c>
+      <c r="N32" s="84">
+        <f t="shared" si="13"/>
+        <v>530</v>
+      </c>
+      <c r="O32" s="78">
+        <f t="shared" si="13"/>
+        <v>12720</v>
+      </c>
+      <c r="S32" s="17"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="75"/>
+      <c r="W32" s="29"/>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="111"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="85">
+        <f>E33/12</f>
+        <v>34</v>
+      </c>
+      <c r="E33" s="14">
+        <v>408</v>
+      </c>
+      <c r="F33" s="85">
+        <f>G33/12</f>
+        <v>380</v>
+      </c>
+      <c r="G33" s="14">
+        <f>'[2]May 2021'!$K$29</f>
+        <v>4560</v>
+      </c>
+      <c r="H33" s="23">
+        <f>I33/12</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="26">
+        <v>0</v>
+      </c>
+      <c r="J33" s="15">
+        <f t="shared" ref="J33:J34" si="14">K33/12</f>
+        <v>30</v>
+      </c>
+      <c r="K33" s="10">
+        <f>360</f>
+        <v>360</v>
+      </c>
+      <c r="L33" s="15">
+        <f t="shared" ref="L33:L34" si="15">M33/12</f>
+        <v>200</v>
+      </c>
+      <c r="M33" s="10">
+        <f>180+120+2100</f>
+        <v>2400</v>
+      </c>
+      <c r="N33" s="23">
+        <f>O33/12</f>
+        <v>184</v>
+      </c>
+      <c r="O33" s="36">
+        <f>E33+G33-I33-K33-M33</f>
+        <v>2208</v>
+      </c>
+      <c r="S33" s="5">
+        <v>1956</v>
+      </c>
+      <c r="T33" s="16">
+        <f>15*12</f>
+        <v>180</v>
+      </c>
+      <c r="U33" s="30">
+        <f>S33+T33-O33</f>
+        <v>-72</v>
+      </c>
+      <c r="V33" s="86"/>
+      <c r="W33" s="29"/>
+    </row>
+    <row r="34" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A34" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="114"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="76">
+        <f>E34/12</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0</v>
+      </c>
+      <c r="F34" s="76">
+        <f>G34/12</f>
+        <v>411</v>
+      </c>
+      <c r="G34" s="12">
+        <f>'[2]May 2021'!$L$29</f>
+        <v>4932</v>
+      </c>
+      <c r="H34" s="24">
+        <f>I34/12</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="33">
+        <v>0</v>
+      </c>
+      <c r="J34" s="13">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="12">
+        <v>0</v>
+      </c>
+      <c r="L34" s="13">
+        <f t="shared" si="15"/>
+        <v>261</v>
+      </c>
+      <c r="M34" s="12">
+        <f>3132</f>
+        <v>3132</v>
+      </c>
+      <c r="N34" s="24">
+        <f>O34/12</f>
+        <v>150</v>
+      </c>
+      <c r="O34" s="36">
+        <f>E34+G34-I34-K34-M34</f>
+        <v>1800</v>
+      </c>
+      <c r="S34" s="4">
+        <v>1800</v>
+      </c>
+      <c r="T34" s="22">
+        <v>0</v>
+      </c>
+      <c r="U34" s="35">
+        <f>S34+T34-O34</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="75"/>
+      <c r="W34" s="29"/>
+    </row>
+    <row r="35" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A35" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="117"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="84">
+        <f>SUM(D33:D34)</f>
+        <v>34</v>
+      </c>
+      <c r="E35" s="78">
+        <f t="shared" ref="E35:H35" si="16">SUM(E33:E34)</f>
+        <v>408</v>
+      </c>
+      <c r="F35" s="84">
+        <f t="shared" si="16"/>
+        <v>791</v>
+      </c>
+      <c r="G35" s="78">
+        <f t="shared" si="16"/>
+        <v>9492</v>
+      </c>
+      <c r="H35" s="79">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="80">
+        <f>SUM(I33:I34)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="84">
+        <f t="shared" ref="J35:O35" si="17">SUM(J33:J34)</f>
+        <v>30</v>
+      </c>
+      <c r="K35" s="78">
+        <f t="shared" si="17"/>
+        <v>360</v>
+      </c>
+      <c r="L35" s="84">
+        <f t="shared" si="17"/>
+        <v>461</v>
+      </c>
+      <c r="M35" s="78">
+        <f t="shared" si="17"/>
+        <v>5532</v>
+      </c>
+      <c r="N35" s="84">
+        <f t="shared" si="17"/>
+        <v>334</v>
+      </c>
+      <c r="O35" s="78">
+        <f t="shared" si="17"/>
+        <v>4008</v>
+      </c>
+      <c r="S35" s="19"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="34"/>
+      <c r="W35" s="29"/>
+    </row>
+    <row r="36" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A36" s="119" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="120"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="87">
+        <f t="shared" ref="D36:O36" si="18">D21+D22+D24+D25+D26+D27+D29+D30+D31+D33+D34</f>
+        <v>427</v>
+      </c>
+      <c r="E36" s="87">
+        <f t="shared" si="18"/>
+        <v>10612</v>
+      </c>
+      <c r="F36" s="87">
+        <f t="shared" si="18"/>
+        <v>3998</v>
+      </c>
+      <c r="G36" s="87">
+        <f t="shared" si="18"/>
+        <v>90826</v>
+      </c>
+      <c r="H36" s="87">
+        <f t="shared" si="18"/>
+        <v>345</v>
+      </c>
+      <c r="I36" s="87">
+        <f>I21+I22+I24+I25+I26+I27+I29+I30+I31+I33+I34</f>
+        <v>8500</v>
+      </c>
+      <c r="J36" s="87">
+        <f t="shared" si="18"/>
+        <v>304</v>
+      </c>
+      <c r="K36" s="87">
+        <f t="shared" si="18"/>
+        <v>7044</v>
+      </c>
+      <c r="L36" s="87">
+        <f t="shared" si="18"/>
+        <v>2281</v>
+      </c>
+      <c r="M36" s="87">
+        <f t="shared" si="18"/>
+        <v>51860</v>
+      </c>
+      <c r="N36" s="87">
+        <f t="shared" si="18"/>
+        <v>1485</v>
+      </c>
+      <c r="O36" s="87">
+        <f t="shared" si="18"/>
+        <v>34034</v>
+      </c>
+      <c r="S36" s="88">
+        <f>SUM(S21:S34)</f>
+        <v>31452</v>
+      </c>
+      <c r="T36" s="89">
+        <f>SUM(T21:T34)</f>
+        <v>2504</v>
+      </c>
+      <c r="U36" s="31">
+        <f>S36+T36-O36</f>
+        <v>-78</v>
       </c>
       <c r="W36" s="29"/>
     </row>
@@ -3791,1825 +5612,4 @@
   <pageMargins left="0.16" right="0.16" top="0.25" bottom="0.23" header="0.23" footer="0.2"/>
   <pageSetup orientation="landscape" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W42"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6" style="2" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6" style="2" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7" style="2" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" style="2" customWidth="1"/>
-    <col min="16" max="17" width="7.85546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="6" style="2" customWidth="1"/>
-    <col min="19" max="19" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="2"/>
-    <col min="24" max="24" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="18.75">
-      <c r="A1" s="111" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-    </row>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A3" s="113" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="55"/>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="116"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="120" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="121"/>
-      <c r="E4" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="122" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="116" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="124"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="121"/>
-      <c r="M4" s="55"/>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A5" s="118"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="125" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="126"/>
-      <c r="E5" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="123"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="128"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="126"/>
-      <c r="M5" s="55"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-    </row>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A6" s="130"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="132">
-        <v>506029</v>
-      </c>
-      <c r="D6" s="133"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="104">
-        <f>C6+E6+F6</f>
-        <v>506029</v>
-      </c>
-      <c r="H6" s="132">
-        <f>G15</f>
-        <v>51224.7</v>
-      </c>
-      <c r="I6" s="134"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="135">
-        <f>G6-H6</f>
-        <v>454804.3</v>
-      </c>
-      <c r="L6" s="136"/>
-      <c r="M6" s="55"/>
-      <c r="O6" s="29"/>
-      <c r="Q6" s="29"/>
-    </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="110"/>
-      <c r="U7" s="29"/>
-    </row>
-    <row r="8" spans="1:23" ht="22.5" customHeight="1">
-      <c r="A8" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="141" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="142"/>
-      <c r="D8" s="143" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="145" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="146"/>
-      <c r="G8" s="143" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="143" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="106" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="142" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="149"/>
-      <c r="L8" s="141" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="142"/>
-      <c r="N8" s="150" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="151"/>
-      <c r="P8" s="143" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" s="145" t="s">
-        <v>35</v>
-      </c>
-      <c r="R8" s="146"/>
-    </row>
-    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="140"/>
-      <c r="B9" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="128" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="129"/>
-      <c r="L9" s="127" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="128"/>
-      <c r="N9" s="137" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="138"/>
-      <c r="P9" s="144"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="148"/>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="135">
-        <v>37393.71</v>
-      </c>
-      <c r="C10" s="134"/>
-      <c r="D10" s="60">
-        <v>28956.16</v>
-      </c>
-      <c r="E10" s="135">
-        <f>B10-D10</f>
-        <v>8437.5499999999993</v>
-      </c>
-      <c r="F10" s="136"/>
-      <c r="G10" s="105">
-        <v>35224</v>
-      </c>
-      <c r="H10" s="60">
-        <v>144.78</v>
-      </c>
-      <c r="I10" s="60"/>
-      <c r="J10" s="135">
-        <f>B10+G10+H10+I10</f>
-        <v>72762.489999999991</v>
-      </c>
-      <c r="K10" s="136"/>
-      <c r="L10" s="135">
-        <f>G29+G30+G31</f>
-        <v>52536</v>
-      </c>
-      <c r="M10" s="153"/>
-      <c r="N10" s="135">
-        <f>J10-L10</f>
-        <v>20226.489999999991</v>
-      </c>
-      <c r="O10" s="136"/>
-      <c r="P10" s="60">
-        <f>'[1]May 2021'!$K$15</f>
-        <v>7044.7999999999993</v>
-      </c>
-      <c r="Q10" s="135">
-        <f>N10-P10</f>
-        <v>13181.689999999991</v>
-      </c>
-      <c r="R10" s="152"/>
-      <c r="S10" s="32"/>
-      <c r="U10" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A11" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="135">
-        <v>12610.65</v>
-      </c>
-      <c r="C11" s="134"/>
-      <c r="D11" s="60">
-        <v>12170.24</v>
-      </c>
-      <c r="E11" s="135">
-        <f t="shared" ref="E11:E13" si="0">B11-D11</f>
-        <v>440.40999999999985</v>
-      </c>
-      <c r="F11" s="136"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="135">
-        <f>B11+G11+H11+I11</f>
-        <v>12610.65</v>
-      </c>
-      <c r="K11" s="136"/>
-      <c r="L11" s="135">
-        <f>SUM(G21:G22)</f>
-        <v>4344</v>
-      </c>
-      <c r="M11" s="153"/>
-      <c r="N11" s="154">
-        <f>J11-L11</f>
-        <v>8266.65</v>
-      </c>
-      <c r="O11" s="155"/>
-      <c r="P11" s="60">
-        <f>'[1]May 2021'!$K$25</f>
-        <v>6085.12</v>
-      </c>
-      <c r="Q11" s="135">
-        <f t="shared" ref="Q11:Q13" si="1">N11-P11</f>
-        <v>2181.5299999999997</v>
-      </c>
-      <c r="R11" s="152"/>
-      <c r="S11" s="32"/>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="135">
-        <v>4240.7</v>
-      </c>
-      <c r="C12" s="134"/>
-      <c r="D12" s="60">
-        <v>0</v>
-      </c>
-      <c r="E12" s="135">
-        <f t="shared" si="0"/>
-        <v>4240.7</v>
-      </c>
-      <c r="F12" s="136"/>
-      <c r="G12" s="105">
-        <v>16000.7</v>
-      </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="135">
-        <f>B12+G12+H12+I12</f>
-        <v>20241.400000000001</v>
-      </c>
-      <c r="K12" s="136"/>
-      <c r="L12" s="135">
-        <f>SUM(G33:G34)</f>
-        <v>9492</v>
-      </c>
-      <c r="M12" s="152"/>
-      <c r="N12" s="135">
-        <f>J12-L12</f>
-        <v>10749.400000000001</v>
-      </c>
-      <c r="O12" s="136"/>
-      <c r="P12" s="60">
-        <f>'[1]May 2021'!$K$35</f>
-        <v>9600.42</v>
-      </c>
-      <c r="Q12" s="135">
-        <f t="shared" si="1"/>
-        <v>1148.9800000000014</v>
-      </c>
-      <c r="R12" s="152"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A13" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="135">
-        <v>28100.18</v>
-      </c>
-      <c r="C13" s="134"/>
-      <c r="D13" s="60">
-        <v>21391.38</v>
-      </c>
-      <c r="E13" s="135">
-        <f t="shared" si="0"/>
-        <v>6708.7999999999993</v>
-      </c>
-      <c r="F13" s="136"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="60">
-        <v>142.61000000000001</v>
-      </c>
-      <c r="I13" s="60"/>
-      <c r="J13" s="135">
-        <f>B13+G13+H13+I13</f>
-        <v>28242.79</v>
-      </c>
-      <c r="K13" s="136"/>
-      <c r="L13" s="135">
-        <f>G24+G25+G26+G27</f>
-        <v>24454</v>
-      </c>
-      <c r="M13" s="152"/>
-      <c r="N13" s="135">
-        <f>J13-L13</f>
-        <v>3788.7900000000009</v>
-      </c>
-      <c r="O13" s="136"/>
-      <c r="P13" s="60">
-        <f>'[1]May 2021'!$K$45</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="135">
-        <f t="shared" si="1"/>
-        <v>3788.7900000000009</v>
-      </c>
-      <c r="R13" s="152"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-    </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A14" s="58"/>
-      <c r="B14" s="156"/>
-      <c r="C14" s="157"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="135"/>
-      <c r="R14" s="152"/>
-      <c r="T14" s="64"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A15" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="135">
-        <f>SUM(B10:C14)</f>
-        <v>82345.239999999991</v>
-      </c>
-      <c r="C15" s="136"/>
-      <c r="D15" s="60">
-        <f>SUM(D10:D14)</f>
-        <v>62517.78</v>
-      </c>
-      <c r="E15" s="135">
-        <f>SUM(E10:F14)</f>
-        <v>19827.46</v>
-      </c>
-      <c r="F15" s="115"/>
-      <c r="G15" s="105">
-        <f>SUM(G10:G14)</f>
-        <v>51224.7</v>
-      </c>
-      <c r="H15" s="60">
-        <f>SUM(H10:H14)</f>
-        <v>287.39</v>
-      </c>
-      <c r="I15" s="60">
-        <f>SUM(I10:I14)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="134">
-        <f>SUM(J10:K14)</f>
-        <v>133857.32999999999</v>
-      </c>
-      <c r="K15" s="136"/>
-      <c r="L15" s="135">
-        <f>SUM(L10:M14)</f>
-        <v>90826</v>
-      </c>
-      <c r="M15" s="153"/>
-      <c r="N15" s="135">
-        <f>SUM(N10:O14)</f>
-        <v>43031.329999999994</v>
-      </c>
-      <c r="O15" s="136"/>
-      <c r="P15" s="60">
-        <f>SUM(P10:P14)</f>
-        <v>22730.339999999997</v>
-      </c>
-      <c r="Q15" s="135">
-        <f>SUM(Q10:R13)</f>
-        <v>20300.989999999991</v>
-      </c>
-      <c r="R15" s="136"/>
-      <c r="S15" s="29"/>
-    </row>
-    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1">
-      <c r="A16" s="65"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-    </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="162" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="163"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="170" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="171"/>
-      <c r="K17" s="171"/>
-      <c r="L17" s="171"/>
-      <c r="M17" s="171"/>
-      <c r="N17" s="171"/>
-      <c r="O17" s="172"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="68"/>
-    </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="164"/>
-      <c r="B18" s="165"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="173" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="174"/>
-      <c r="F18" s="173" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="174"/>
-      <c r="H18" s="177" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="178"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="178"/>
-      <c r="L18" s="173" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="174"/>
-      <c r="N18" s="173" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" s="174"/>
-    </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="164"/>
-      <c r="B19" s="165"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="173"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="170" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="171"/>
-      <c r="J19" s="170" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="171"/>
-      <c r="L19" s="175"/>
-      <c r="M19" s="176"/>
-      <c r="N19" s="175"/>
-      <c r="O19" s="176"/>
-    </row>
-    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A20" s="167"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="169"/>
-      <c r="D20" s="108" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="O20" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="S20" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="T20" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="U20" s="37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="A21" s="179" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="180"/>
-      <c r="C21" s="181"/>
-      <c r="D21" s="74">
-        <f>E21/24</f>
-        <v>14</v>
-      </c>
-      <c r="E21" s="10">
-        <v>336</v>
-      </c>
-      <c r="F21" s="74">
-        <f>G21/24</f>
-        <v>43</v>
-      </c>
-      <c r="G21" s="10">
-        <f>'[2]May 2021'!$B$29</f>
-        <v>1032</v>
-      </c>
-      <c r="H21" s="23">
-        <f>I21/24</f>
-        <v>25</v>
-      </c>
-      <c r="I21" s="26">
-        <f>600</f>
-        <v>600</v>
-      </c>
-      <c r="J21" s="11">
-        <f>K21/24</f>
-        <v>1</v>
-      </c>
-      <c r="K21" s="10">
-        <f>24</f>
-        <v>24</v>
-      </c>
-      <c r="L21" s="11">
-        <f>M21/24</f>
-        <v>8</v>
-      </c>
-      <c r="M21" s="10">
-        <f>120+72</f>
-        <v>192</v>
-      </c>
-      <c r="N21" s="23">
-        <f>O21/24</f>
-        <v>23</v>
-      </c>
-      <c r="O21" s="36">
-        <f>E21+G21-I21-K21-M21</f>
-        <v>552</v>
-      </c>
-      <c r="S21" s="5">
-        <v>576</v>
-      </c>
-      <c r="T21" s="7">
-        <f>2*24</f>
-        <v>48</v>
-      </c>
-      <c r="U21" s="30">
-        <f>S21+T21-O21</f>
-        <v>72</v>
-      </c>
-      <c r="V21" s="75"/>
-      <c r="W21" s="29"/>
-    </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A22" s="182" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="183"/>
-      <c r="C22" s="184"/>
-      <c r="D22" s="76">
-        <f>E22/24</f>
-        <v>82</v>
-      </c>
-      <c r="E22" s="12">
-        <v>1968</v>
-      </c>
-      <c r="F22" s="76">
-        <f>G22/24</f>
-        <v>138</v>
-      </c>
-      <c r="G22" s="12">
-        <f>'[2]May 2021'!$C$29</f>
-        <v>3312</v>
-      </c>
-      <c r="H22" s="24">
-        <f>I22/24</f>
-        <v>50</v>
-      </c>
-      <c r="I22" s="33">
-        <f>1200</f>
-        <v>1200</v>
-      </c>
-      <c r="J22" s="13">
-        <f>K22/24</f>
-        <v>50</v>
-      </c>
-      <c r="K22" s="12">
-        <f>1200</f>
-        <v>1200</v>
-      </c>
-      <c r="L22" s="13">
-        <f>M22/24</f>
-        <v>17</v>
-      </c>
-      <c r="M22" s="12">
-        <f>48+240+72+48</f>
-        <v>408</v>
-      </c>
-      <c r="N22" s="24">
-        <f>O22/24</f>
-        <v>103</v>
-      </c>
-      <c r="O22" s="36">
-        <f>E22+G22-I22-K22-M22</f>
-        <v>2472</v>
-      </c>
-      <c r="S22" s="6">
-        <v>2088</v>
-      </c>
-      <c r="T22" s="9">
-        <f>14*24</f>
-        <v>336</v>
-      </c>
-      <c r="U22" s="34">
-        <f>S22+T22-O22</f>
-        <v>-48</v>
-      </c>
-      <c r="V22" s="75"/>
-      <c r="W22" s="29"/>
-    </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A23" s="185" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="186"/>
-      <c r="C23" s="187"/>
-      <c r="D23" s="77">
-        <f>SUM(D21:D22)</f>
-        <v>96</v>
-      </c>
-      <c r="E23" s="78">
-        <f t="shared" ref="E23:H23" si="2">SUM(E21:E22)</f>
-        <v>2304</v>
-      </c>
-      <c r="F23" s="77">
-        <f t="shared" si="2"/>
-        <v>181</v>
-      </c>
-      <c r="G23" s="78">
-        <f t="shared" si="2"/>
-        <v>4344</v>
-      </c>
-      <c r="H23" s="79">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="I23" s="80">
-        <f>SUM(I21:I22)</f>
-        <v>1800</v>
-      </c>
-      <c r="J23" s="77">
-        <f t="shared" ref="J23:O23" si="3">SUM(J21:J22)</f>
-        <v>51</v>
-      </c>
-      <c r="K23" s="78">
-        <f t="shared" si="3"/>
-        <v>1224</v>
-      </c>
-      <c r="L23" s="77">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="M23" s="78">
-        <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-      <c r="N23" s="77">
-        <f t="shared" si="3"/>
-        <v>126</v>
-      </c>
-      <c r="O23" s="78">
-        <f t="shared" si="3"/>
-        <v>3024</v>
-      </c>
-      <c r="S23" s="45"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="75"/>
-      <c r="W23" s="29"/>
-    </row>
-    <row r="24" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A24" s="179" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="180"/>
-      <c r="C24" s="181"/>
-      <c r="D24" s="74">
-        <f>E24/30</f>
-        <v>138</v>
-      </c>
-      <c r="E24" s="10">
-        <v>4140</v>
-      </c>
-      <c r="F24" s="74">
-        <f>G24/30</f>
-        <v>755</v>
-      </c>
-      <c r="G24" s="10">
-        <f>'[2]May 2021'!$D$29</f>
-        <v>22650</v>
-      </c>
-      <c r="H24" s="23">
-        <f>I24/30</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="10">
-        <v>0</v>
-      </c>
-      <c r="J24" s="23">
-        <f>K24/30</f>
-        <v>23</v>
-      </c>
-      <c r="K24" s="10">
-        <f>690</f>
-        <v>690</v>
-      </c>
-      <c r="L24" s="23">
-        <f>M24/30</f>
-        <v>448</v>
-      </c>
-      <c r="M24" s="10">
-        <f>7740+300+900+300+3600+150+450</f>
-        <v>13440</v>
-      </c>
-      <c r="N24" s="23">
-        <f>O24/30</f>
-        <v>422</v>
-      </c>
-      <c r="O24" s="36">
-        <f>E24+G24-I24-K24-M24</f>
-        <v>12660</v>
-      </c>
-      <c r="S24" s="50">
-        <v>12090</v>
-      </c>
-      <c r="T24" s="51">
-        <f>18*30</f>
-        <v>540</v>
-      </c>
-      <c r="U24" s="47">
-        <f>S24+T24-O24</f>
-        <v>-30</v>
-      </c>
-      <c r="V24" s="75"/>
-      <c r="W24" s="29"/>
-    </row>
-    <row r="25" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A25" s="188" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="189"/>
-      <c r="C25" s="190"/>
-      <c r="D25" s="81">
-        <f>E25/24</f>
-        <v>8</v>
-      </c>
-      <c r="E25" s="36">
-        <v>192</v>
-      </c>
-      <c r="F25" s="81">
-        <f>G25/24</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="27">
-        <f>'[2]May 2021'!$E$29</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="39">
-        <f>I25/24</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="27">
-        <v>0</v>
-      </c>
-      <c r="J25" s="40">
-        <f t="shared" ref="J25" si="4">K25/24</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="36">
-        <v>0</v>
-      </c>
-      <c r="L25" s="40">
-        <f t="shared" ref="L25" si="5">M25/24</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="36">
-        <v>0</v>
-      </c>
-      <c r="N25" s="39">
-        <f>O25/24</f>
-        <v>8</v>
-      </c>
-      <c r="O25" s="36">
-        <f t="shared" ref="O25:O27" si="6">E25+G25-I25-K25-M25</f>
-        <v>192</v>
-      </c>
-      <c r="S25" s="4">
-        <v>192</v>
-      </c>
-      <c r="T25" s="22">
-        <v>0</v>
-      </c>
-      <c r="U25" s="47">
-        <f t="shared" ref="U25:U27" si="7">S25+T25-O25</f>
-        <v>0</v>
-      </c>
-      <c r="V25" s="75"/>
-      <c r="W25" s="29"/>
-    </row>
-    <row r="26" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A26" s="159" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="160"/>
-      <c r="C26" s="161"/>
-      <c r="D26" s="82">
-        <f>E26/22</f>
-        <v>25</v>
-      </c>
-      <c r="E26" s="3">
-        <v>550</v>
-      </c>
-      <c r="F26" s="82">
-        <f>G26/22</f>
-        <v>53</v>
-      </c>
-      <c r="G26" s="3">
-        <f>'[2]May 2021'!$F$29</f>
-        <v>1166</v>
-      </c>
-      <c r="H26" s="25">
-        <v>0</v>
-      </c>
-      <c r="I26" s="28">
-        <f>220</f>
-        <v>220</v>
-      </c>
-      <c r="J26" s="1">
-        <f>K26/22</f>
-        <v>10</v>
-      </c>
-      <c r="K26" s="3">
-        <f>220</f>
-        <v>220</v>
-      </c>
-      <c r="L26" s="1">
-        <f>M26/22</f>
-        <v>15</v>
-      </c>
-      <c r="M26" s="3">
-        <f>330</f>
-        <v>330</v>
-      </c>
-      <c r="N26" s="25">
-        <f>O26/22</f>
-        <v>43</v>
-      </c>
-      <c r="O26" s="36">
-        <f t="shared" si="6"/>
-        <v>946</v>
-      </c>
-      <c r="R26" s="29"/>
-      <c r="S26" s="4">
-        <v>836</v>
-      </c>
-      <c r="T26" s="22">
-        <f>5*22</f>
-        <v>110</v>
-      </c>
-      <c r="U26" s="47">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-    </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A27" s="194" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="195"/>
-      <c r="C27" s="196"/>
-      <c r="D27" s="83">
-        <f>E27/22</f>
-        <v>3</v>
-      </c>
-      <c r="E27" s="41">
-        <v>66</v>
-      </c>
-      <c r="F27" s="83">
-        <f>G27/22</f>
-        <v>29</v>
-      </c>
-      <c r="G27" s="41">
-        <f>'[2]May 2021'!$G$29</f>
-        <v>638</v>
-      </c>
-      <c r="H27" s="42">
-        <f>I27/22</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="43">
-        <v>0</v>
-      </c>
-      <c r="J27" s="44">
-        <f>K27/22</f>
-        <v>5</v>
-      </c>
-      <c r="K27" s="41">
-        <f>110</f>
-        <v>110</v>
-      </c>
-      <c r="L27" s="44">
-        <f>M27/22</f>
-        <v>5</v>
-      </c>
-      <c r="M27" s="41">
-        <f>110</f>
-        <v>110</v>
-      </c>
-      <c r="N27" s="42">
-        <f>O27/22</f>
-        <v>22</v>
-      </c>
-      <c r="O27" s="38">
-        <f t="shared" si="6"/>
-        <v>484</v>
-      </c>
-      <c r="S27" s="52">
-        <v>418</v>
-      </c>
-      <c r="T27" s="53">
-        <f>3*22</f>
-        <v>66</v>
-      </c>
-      <c r="U27" s="47">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="75"/>
-      <c r="W27" s="29"/>
-    </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A28" s="185" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="186"/>
-      <c r="C28" s="187"/>
-      <c r="D28" s="79">
-        <f t="shared" ref="D28:O28" si="8">SUM(D24:D27)</f>
-        <v>174</v>
-      </c>
-      <c r="E28" s="21">
-        <f t="shared" si="8"/>
-        <v>4948</v>
-      </c>
-      <c r="F28" s="79">
-        <f t="shared" si="8"/>
-        <v>837</v>
-      </c>
-      <c r="G28" s="21">
-        <f t="shared" si="8"/>
-        <v>24454</v>
-      </c>
-      <c r="H28" s="79">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="21">
-        <f t="shared" si="8"/>
-        <v>220</v>
-      </c>
-      <c r="J28" s="79">
-        <f t="shared" si="8"/>
-        <v>38</v>
-      </c>
-      <c r="K28" s="21">
-        <f t="shared" si="8"/>
-        <v>1020</v>
-      </c>
-      <c r="L28" s="79">
-        <f t="shared" si="8"/>
-        <v>468</v>
-      </c>
-      <c r="M28" s="21">
-        <f t="shared" si="8"/>
-        <v>13880</v>
-      </c>
-      <c r="N28" s="79">
-        <f t="shared" si="8"/>
-        <v>495</v>
-      </c>
-      <c r="O28" s="21">
-        <f t="shared" si="8"/>
-        <v>14282</v>
-      </c>
-      <c r="S28" s="46"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="75"/>
-      <c r="W28" s="29"/>
-    </row>
-    <row r="29" spans="1:23">
-      <c r="A29" s="179" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="180"/>
-      <c r="C29" s="181"/>
-      <c r="D29" s="74">
-        <f>E29/24</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="10">
-        <v>0</v>
-      </c>
-      <c r="F29" s="74">
-        <f>G29/24</f>
-        <v>399</v>
-      </c>
-      <c r="G29" s="10">
-        <f>'[2]May 2021'!$H$29</f>
-        <v>9576</v>
-      </c>
-      <c r="H29" s="23">
-        <f>I29/24</f>
-        <v>20</v>
-      </c>
-      <c r="I29" s="26">
-        <f>480</f>
-        <v>480</v>
-      </c>
-      <c r="J29" s="11">
-        <f t="shared" ref="J29:J31" si="9">K29/24</f>
-        <v>10</v>
-      </c>
-      <c r="K29" s="10">
-        <f>240</f>
-        <v>240</v>
-      </c>
-      <c r="L29" s="11">
-        <f t="shared" ref="L29:L31" si="10">M29/24</f>
-        <v>315</v>
-      </c>
-      <c r="M29" s="10">
-        <f>2520+1200+960+720+480+480+1200</f>
-        <v>7560</v>
-      </c>
-      <c r="N29" s="23">
-        <f>O29/24</f>
-        <v>54</v>
-      </c>
-      <c r="O29" s="36">
-        <f>E29+G29-I29-K29-M29</f>
-        <v>1296</v>
-      </c>
-      <c r="S29" s="5">
-        <v>1296</v>
-      </c>
-      <c r="T29" s="16">
-        <v>0</v>
-      </c>
-      <c r="U29" s="30">
-        <f t="shared" ref="U29:U30" si="11">S29+T29-O29</f>
-        <v>0</v>
-      </c>
-      <c r="V29" s="75"/>
-      <c r="W29" s="29"/>
-    </row>
-    <row r="30" spans="1:23">
-      <c r="A30" s="159" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="160"/>
-      <c r="C30" s="161"/>
-      <c r="D30" s="82">
-        <f>E30/24</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="82">
-        <f>G30/24</f>
-        <v>207</v>
-      </c>
-      <c r="G30" s="3">
-        <f>'[2]May 2021'!$I$29</f>
-        <v>4968</v>
-      </c>
-      <c r="H30" s="25">
-        <f>I30/24</f>
-        <v>25</v>
-      </c>
-      <c r="I30" s="28">
-        <f>600</f>
-        <v>600</v>
-      </c>
-      <c r="J30" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0</v>
-      </c>
-      <c r="L30" s="1">
-        <f>M30/24</f>
-        <v>120</v>
-      </c>
-      <c r="M30" s="3">
-        <f>1080+720+240+360+360+120</f>
-        <v>2880</v>
-      </c>
-      <c r="N30" s="25">
-        <f>O30/24</f>
-        <v>62</v>
-      </c>
-      <c r="O30" s="36">
-        <f t="shared" ref="O30:O31" si="12">E30+G30-I30-K30-M30</f>
-        <v>1488</v>
-      </c>
-      <c r="S30" s="4">
-        <v>1488</v>
-      </c>
-      <c r="T30" s="8">
-        <v>0</v>
-      </c>
-      <c r="U30" s="35">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="75"/>
-      <c r="W30" s="29"/>
-    </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A31" s="159" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="160"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="82">
-        <f>E31/24</f>
-        <v>123</v>
-      </c>
-      <c r="E31" s="3">
-        <v>2952</v>
-      </c>
-      <c r="F31" s="82">
-        <f>G31/24</f>
-        <v>1583</v>
-      </c>
-      <c r="G31" s="3">
-        <f>'[2]May 2021'!$J$29</f>
-        <v>37992</v>
-      </c>
-      <c r="H31" s="25">
-        <f>I31/24</f>
-        <v>225</v>
-      </c>
-      <c r="I31" s="28">
-        <f>5400</f>
-        <v>5400</v>
-      </c>
-      <c r="J31" s="1">
-        <f t="shared" si="9"/>
-        <v>175</v>
-      </c>
-      <c r="K31" s="3">
-        <f>4200</f>
-        <v>4200</v>
-      </c>
-      <c r="L31" s="1">
-        <f t="shared" si="10"/>
-        <v>892</v>
-      </c>
-      <c r="M31" s="3">
-        <f>7080+3600+1440+2400+1800+48+2400+1440+1200</f>
-        <v>21408</v>
-      </c>
-      <c r="N31" s="25">
-        <f>O31/24</f>
-        <v>414</v>
-      </c>
-      <c r="O31" s="36">
-        <f t="shared" si="12"/>
-        <v>9936</v>
-      </c>
-      <c r="S31" s="4">
-        <v>8712</v>
-      </c>
-      <c r="T31" s="8">
-        <f>51*24</f>
-        <v>1224</v>
-      </c>
-      <c r="U31" s="35">
-        <f>S31+T31-O31</f>
-        <v>0</v>
-      </c>
-      <c r="V31" s="75"/>
-      <c r="W31" s="29"/>
-    </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A32" s="185" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="186"/>
-      <c r="C32" s="187"/>
-      <c r="D32" s="84">
-        <f t="shared" ref="D32:O32" si="13">SUM(D29:D31)</f>
-        <v>123</v>
-      </c>
-      <c r="E32" s="78">
-        <f t="shared" si="13"/>
-        <v>2952</v>
-      </c>
-      <c r="F32" s="84">
-        <f t="shared" si="13"/>
-        <v>2189</v>
-      </c>
-      <c r="G32" s="78">
-        <f t="shared" si="13"/>
-        <v>52536</v>
-      </c>
-      <c r="H32" s="79">
-        <f t="shared" si="13"/>
-        <v>270</v>
-      </c>
-      <c r="I32" s="80">
-        <f t="shared" si="13"/>
-        <v>6480</v>
-      </c>
-      <c r="J32" s="84">
-        <f t="shared" si="13"/>
-        <v>185</v>
-      </c>
-      <c r="K32" s="78">
-        <f t="shared" si="13"/>
-        <v>4440</v>
-      </c>
-      <c r="L32" s="84">
-        <f t="shared" si="13"/>
-        <v>1327</v>
-      </c>
-      <c r="M32" s="78">
-        <f t="shared" si="13"/>
-        <v>31848</v>
-      </c>
-      <c r="N32" s="84">
-        <f t="shared" si="13"/>
-        <v>530</v>
-      </c>
-      <c r="O32" s="78">
-        <f t="shared" si="13"/>
-        <v>12720</v>
-      </c>
-      <c r="S32" s="17"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="75"/>
-      <c r="W32" s="29"/>
-    </row>
-    <row r="33" spans="1:23">
-      <c r="A33" s="179" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="180"/>
-      <c r="C33" s="181"/>
-      <c r="D33" s="85">
-        <f>E33/12</f>
-        <v>34</v>
-      </c>
-      <c r="E33" s="14">
-        <v>408</v>
-      </c>
-      <c r="F33" s="85">
-        <f>G33/12</f>
-        <v>380</v>
-      </c>
-      <c r="G33" s="14">
-        <f>'[2]May 2021'!$K$29</f>
-        <v>4560</v>
-      </c>
-      <c r="H33" s="23">
-        <f>I33/12</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="26">
-        <v>0</v>
-      </c>
-      <c r="J33" s="15">
-        <f t="shared" ref="J33:J34" si="14">K33/12</f>
-        <v>30</v>
-      </c>
-      <c r="K33" s="10">
-        <f>360</f>
-        <v>360</v>
-      </c>
-      <c r="L33" s="15">
-        <f t="shared" ref="L33:L34" si="15">M33/12</f>
-        <v>200</v>
-      </c>
-      <c r="M33" s="10">
-        <f>180+120+2100</f>
-        <v>2400</v>
-      </c>
-      <c r="N33" s="23">
-        <f>O33/12</f>
-        <v>184</v>
-      </c>
-      <c r="O33" s="36">
-        <f>E33+G33-I33-K33-M33</f>
-        <v>2208</v>
-      </c>
-      <c r="S33" s="5">
-        <v>1956</v>
-      </c>
-      <c r="T33" s="16">
-        <f>15*12</f>
-        <v>180</v>
-      </c>
-      <c r="U33" s="30">
-        <f>S33+T33-O33</f>
-        <v>-72</v>
-      </c>
-      <c r="V33" s="86"/>
-      <c r="W33" s="29"/>
-    </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A34" s="182" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="183"/>
-      <c r="C34" s="184"/>
-      <c r="D34" s="76">
-        <f>E34/12</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="12">
-        <v>0</v>
-      </c>
-      <c r="F34" s="76">
-        <f>G34/12</f>
-        <v>411</v>
-      </c>
-      <c r="G34" s="12">
-        <f>'[2]May 2021'!$L$29</f>
-        <v>4932</v>
-      </c>
-      <c r="H34" s="24">
-        <f>I34/12</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="33">
-        <v>0</v>
-      </c>
-      <c r="J34" s="13">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="12">
-        <v>0</v>
-      </c>
-      <c r="L34" s="13">
-        <f t="shared" si="15"/>
-        <v>261</v>
-      </c>
-      <c r="M34" s="12">
-        <f>3132</f>
-        <v>3132</v>
-      </c>
-      <c r="N34" s="24">
-        <f>O34/12</f>
-        <v>150</v>
-      </c>
-      <c r="O34" s="36">
-        <f>E34+G34-I34-K34-M34</f>
-        <v>1800</v>
-      </c>
-      <c r="S34" s="4">
-        <v>1800</v>
-      </c>
-      <c r="T34" s="22">
-        <v>0</v>
-      </c>
-      <c r="U34" s="35">
-        <f>S34+T34-O34</f>
-        <v>0</v>
-      </c>
-      <c r="V34" s="75"/>
-      <c r="W34" s="29"/>
-    </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A35" s="185" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="186"/>
-      <c r="C35" s="187"/>
-      <c r="D35" s="84">
-        <f>SUM(D33:D34)</f>
-        <v>34</v>
-      </c>
-      <c r="E35" s="78">
-        <f t="shared" ref="E35:H35" si="16">SUM(E33:E34)</f>
-        <v>408</v>
-      </c>
-      <c r="F35" s="84">
-        <f t="shared" si="16"/>
-        <v>791</v>
-      </c>
-      <c r="G35" s="78">
-        <f t="shared" si="16"/>
-        <v>9492</v>
-      </c>
-      <c r="H35" s="79">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="80">
-        <f>SUM(I33:I34)</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="84">
-        <f t="shared" ref="J35:O35" si="17">SUM(J33:J34)</f>
-        <v>30</v>
-      </c>
-      <c r="K35" s="78">
-        <f t="shared" si="17"/>
-        <v>360</v>
-      </c>
-      <c r="L35" s="84">
-        <f t="shared" si="17"/>
-        <v>461</v>
-      </c>
-      <c r="M35" s="78">
-        <f t="shared" si="17"/>
-        <v>5532</v>
-      </c>
-      <c r="N35" s="84">
-        <f t="shared" si="17"/>
-        <v>334</v>
-      </c>
-      <c r="O35" s="78">
-        <f t="shared" si="17"/>
-        <v>4008</v>
-      </c>
-      <c r="S35" s="19"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="34"/>
-      <c r="W35" s="29"/>
-    </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A36" s="191" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="192"/>
-      <c r="C36" s="193"/>
-      <c r="D36" s="87">
-        <f t="shared" ref="D36:O36" si="18">D21+D22+D24+D25+D26+D27+D29+D30+D31+D33+D34</f>
-        <v>427</v>
-      </c>
-      <c r="E36" s="87">
-        <f t="shared" si="18"/>
-        <v>10612</v>
-      </c>
-      <c r="F36" s="87">
-        <f t="shared" si="18"/>
-        <v>3998</v>
-      </c>
-      <c r="G36" s="87">
-        <f t="shared" si="18"/>
-        <v>90826</v>
-      </c>
-      <c r="H36" s="87">
-        <f t="shared" si="18"/>
-        <v>345</v>
-      </c>
-      <c r="I36" s="87">
-        <f>I21+I22+I24+I25+I26+I27+I29+I30+I31+I33+I34</f>
-        <v>8500</v>
-      </c>
-      <c r="J36" s="87">
-        <f t="shared" si="18"/>
-        <v>304</v>
-      </c>
-      <c r="K36" s="87">
-        <f t="shared" si="18"/>
-        <v>7044</v>
-      </c>
-      <c r="L36" s="87">
-        <f t="shared" si="18"/>
-        <v>2281</v>
-      </c>
-      <c r="M36" s="87">
-        <f t="shared" si="18"/>
-        <v>51860</v>
-      </c>
-      <c r="N36" s="87">
-        <f t="shared" si="18"/>
-        <v>1485</v>
-      </c>
-      <c r="O36" s="87">
-        <f t="shared" si="18"/>
-        <v>34034</v>
-      </c>
-      <c r="S36" s="88">
-        <f>SUM(S21:S34)</f>
-        <v>31452</v>
-      </c>
-      <c r="T36" s="89">
-        <f>SUM(T21:T34)</f>
-        <v>2504</v>
-      </c>
-      <c r="U36" s="31">
-        <f>S36+T36-O36</f>
-        <v>-78</v>
-      </c>
-      <c r="W36" s="29"/>
-    </row>
-    <row r="37" spans="1:23" ht="9" customHeight="1">
-      <c r="U37" s="32"/>
-    </row>
-    <row r="38" spans="1:23">
-      <c r="V38" s="29"/>
-    </row>
-    <row r="40" spans="1:23">
-      <c r="P40" s="75"/>
-    </row>
-    <row r="41" spans="1:23">
-      <c r="G41" s="29"/>
-    </row>
-    <row r="42" spans="1:23" ht="18.75">
-      <c r="P42" s="90"/>
-    </row>
-  </sheetData>
-  <mergeCells count="91">
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A17:C20"/>
-    <mergeCell ref="D17:O17"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-  </mergeCells>
-  <pageMargins left="0.16" right="0.16" top="0.25" bottom="0.23" header="0.23" footer="0.2"/>
-  <pageSetup orientation="landscape" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/D.K STATEMENT -2021-22.xlsx
+++ b/D.K STATEMENT -2021-22.xlsx
@@ -1,25 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riya\Desktop\excel-main\excel-main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D231CCC-832C-4FC3-8599-4E4DDA2FE6E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021-22" sheetId="82" r:id="rId1"/>
     <sheet name="May 2021" sheetId="83" r:id="rId2"/>
+    <sheet name="June 2021" sheetId="85" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="62">
   <si>
     <t>Received</t>
   </si>
@@ -194,15 +209,27 @@
   <si>
     <t>PACKED TEA  STATEMENT AS ON (01.05.2021 TO 31.05.2021)</t>
   </si>
+  <si>
+    <t>Destination Wise Production , Despatch and Stock Report for the month of June 01.06.2021 to 15.06.2021</t>
+  </si>
+  <si>
+    <t>BLENDED TEA  STATEMENT AS ON (01.06.2021 TO 15.06.2021)</t>
+  </si>
+  <si>
+    <t>PACKED TEA  STATEMENT AS ON (01.06.2021 TO 15.06.2021)</t>
+  </si>
+  <si>
+    <t>ORIGINAL/BLACK TEA  STATEMENT  AS ON  (01.06.2021 to 15.06.2021)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1015,7 +1042,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1267,6 +1294,33 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1543,11 +1597,12 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="April 2021-22"/>
       <sheetName val="May 2021"/>
+      <sheetName val="June 2021"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1594,17 +1649,40 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2">
+        <row r="15">
+          <cell r="K15">
+            <v>22373.7</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="K25">
+            <v>6085.12</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="K35">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="K45">
+            <v>21192</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="April 2021-22"/>
       <sheetName val="May 2021"/>
+      <sheetName val="June 2021"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1645,39 +1723,76 @@
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="29">
-          <cell r="B29">
+        <row r="30">
+          <cell r="B30">
             <v>1032</v>
           </cell>
-          <cell r="C29">
+          <cell r="C30">
             <v>3312</v>
           </cell>
-          <cell r="D29">
+          <cell r="D30">
             <v>22650</v>
           </cell>
-          <cell r="E29">
+          <cell r="E30">
             <v>0</v>
           </cell>
-          <cell r="F29">
+          <cell r="F30">
             <v>1166</v>
           </cell>
-          <cell r="G29">
+          <cell r="G30">
             <v>638</v>
           </cell>
-          <cell r="H29">
+          <cell r="H30">
             <v>9576</v>
           </cell>
-          <cell r="I29">
+          <cell r="I30">
             <v>4968</v>
           </cell>
-          <cell r="J29">
+          <cell r="J30">
             <v>37992</v>
           </cell>
-          <cell r="K29">
+          <cell r="K30">
             <v>4560</v>
           </cell>
-          <cell r="L29">
+          <cell r="L30">
             <v>4932</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="30">
+          <cell r="B30">
+            <v>0</v>
+          </cell>
+          <cell r="C30">
+            <v>1224</v>
+          </cell>
+          <cell r="D30">
+            <v>10500</v>
+          </cell>
+          <cell r="E30">
+            <v>552</v>
+          </cell>
+          <cell r="F30">
+            <v>22</v>
+          </cell>
+          <cell r="G30">
+            <v>0</v>
+          </cell>
+          <cell r="H30">
+            <v>4296</v>
+          </cell>
+          <cell r="I30">
+            <v>1488</v>
+          </cell>
+          <cell r="J30">
+            <v>18480</v>
+          </cell>
+          <cell r="K30">
+            <v>7716</v>
+          </cell>
+          <cell r="L30">
+            <v>612</v>
           </cell>
         </row>
       </sheetData>
@@ -1729,7 +1844,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1761,9 +1876,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1795,6 +1928,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1970,14 +2121,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
@@ -2003,258 +2154,258 @@
     <col min="25" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75">
-      <c r="A1" s="178" t="s">
+    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="178"/>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="178"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A2" s="179"/>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="179"/>
-      <c r="N2" s="179"/>
-      <c r="O2" s="179"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="179"/>
-      <c r="R2" s="179"/>
-    </row>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A3" s="180" t="s">
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="187"/>
+      <c r="O1" s="187"/>
+      <c r="P1" s="187"/>
+      <c r="Q1" s="187"/>
+      <c r="R1" s="187"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="188"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="188"/>
+      <c r="M2" s="188"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="188"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="189" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="150"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="159"/>
       <c r="M3" s="55"/>
     </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="182"/>
-      <c r="B4" s="183"/>
-      <c r="C4" s="186" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="191"/>
+      <c r="B4" s="192"/>
+      <c r="C4" s="195" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="187"/>
+      <c r="D4" s="196"/>
       <c r="E4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="188" t="s">
+      <c r="F4" s="197" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="182" t="s">
+      <c r="H4" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="190"/>
-      <c r="J4" s="183"/>
-      <c r="K4" s="186" t="s">
+      <c r="I4" s="199"/>
+      <c r="J4" s="192"/>
+      <c r="K4" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="187"/>
+      <c r="L4" s="196"/>
       <c r="M4" s="55"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A5" s="184"/>
-      <c r="B5" s="185"/>
-      <c r="C5" s="191" t="s">
+    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="193"/>
+      <c r="B5" s="194"/>
+      <c r="C5" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="192"/>
+      <c r="D5" s="201"/>
       <c r="E5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="189"/>
+      <c r="F5" s="198"/>
       <c r="G5" s="95"/>
-      <c r="H5" s="165" t="s">
+      <c r="H5" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="166"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="191" t="s">
+      <c r="I5" s="175"/>
+      <c r="J5" s="176"/>
+      <c r="K5" s="200" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="192"/>
+      <c r="L5" s="201"/>
       <c r="M5" s="55"/>
       <c r="T5" s="29"/>
       <c r="U5" s="29"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A6" s="193"/>
-      <c r="B6" s="194"/>
-      <c r="C6" s="195">
+    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="202"/>
+      <c r="B6" s="203"/>
+      <c r="C6" s="204">
         <v>666070.9</v>
       </c>
-      <c r="D6" s="196"/>
+      <c r="D6" s="205"/>
       <c r="E6" s="54"/>
       <c r="F6" s="97"/>
       <c r="G6" s="91">
         <f>C6+E6+F6</f>
         <v>666070.9</v>
       </c>
-      <c r="H6" s="195">
+      <c r="H6" s="204">
         <f>G15</f>
         <v>160041.90000000002</v>
       </c>
-      <c r="I6" s="151"/>
-      <c r="J6" s="196"/>
-      <c r="K6" s="131">
+      <c r="I6" s="160"/>
+      <c r="J6" s="205"/>
+      <c r="K6" s="140">
         <f>G6-H6</f>
         <v>506029</v>
       </c>
-      <c r="L6" s="132"/>
+      <c r="L6" s="141"/>
       <c r="M6" s="55"/>
       <c r="O6" s="29"/>
       <c r="Q6" s="29"/>
     </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="177" t="s">
+    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="186" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="177"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="177"/>
-      <c r="J7" s="177"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177"/>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="177"/>
+      <c r="B7" s="186"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="186"/>
+      <c r="K7" s="186"/>
+      <c r="L7" s="186"/>
+      <c r="M7" s="186"/>
+      <c r="N7" s="186"/>
+      <c r="O7" s="186"/>
+      <c r="P7" s="186"/>
+      <c r="Q7" s="186"/>
+      <c r="R7" s="186"/>
       <c r="U7" s="29"/>
     </row>
-    <row r="8" spans="1:23" ht="22.5" customHeight="1">
-      <c r="A8" s="170" t="s">
+    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="172" t="s">
+      <c r="B8" s="181" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="173"/>
-      <c r="D8" s="157" t="s">
+      <c r="C8" s="182"/>
+      <c r="D8" s="166" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="159" t="s">
+      <c r="E8" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="160"/>
-      <c r="G8" s="157" t="s">
+      <c r="F8" s="169"/>
+      <c r="G8" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="157" t="s">
+      <c r="H8" s="166" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="173" t="s">
+      <c r="J8" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="174"/>
-      <c r="L8" s="172" t="s">
+      <c r="K8" s="183"/>
+      <c r="L8" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="173"/>
-      <c r="N8" s="175" t="s">
+      <c r="M8" s="182"/>
+      <c r="N8" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="176"/>
-      <c r="P8" s="157" t="s">
+      <c r="O8" s="185"/>
+      <c r="P8" s="166" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="159" t="s">
+      <c r="Q8" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="160"/>
-    </row>
-    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="171"/>
-      <c r="B9" s="165" t="s">
+      <c r="R8" s="169"/>
+    </row>
+    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="180"/>
+      <c r="B9" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="166"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
       <c r="I9" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="166" t="s">
+      <c r="J9" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="167"/>
-      <c r="L9" s="165" t="s">
+      <c r="K9" s="176"/>
+      <c r="L9" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="166"/>
-      <c r="N9" s="168" t="s">
+      <c r="M9" s="175"/>
+      <c r="N9" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="169"/>
-      <c r="P9" s="158"/>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="162"/>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="O9" s="178"/>
+      <c r="P9" s="167"/>
+      <c r="Q9" s="170"/>
+      <c r="R9" s="171"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="131">
+      <c r="B10" s="140">
         <v>2060.5</v>
       </c>
-      <c r="C10" s="151"/>
+      <c r="C10" s="160"/>
       <c r="D10" s="60">
         <v>0</v>
       </c>
-      <c r="E10" s="131">
+      <c r="E10" s="140">
         <f>B10-D10</f>
         <v>2060.5</v>
       </c>
-      <c r="F10" s="132"/>
+      <c r="F10" s="141"/>
       <c r="G10" s="92">
         <f>36127.6+36854+36195.2</f>
         <v>109176.8</v>
@@ -2264,211 +2415,211 @@
         <v>292.40999999999997</v>
       </c>
       <c r="I10" s="60"/>
-      <c r="J10" s="131">
+      <c r="J10" s="140">
         <f>B10+G10+H10+I10</f>
         <v>111529.71</v>
       </c>
-      <c r="K10" s="132"/>
-      <c r="L10" s="131">
+      <c r="K10" s="141"/>
+      <c r="L10" s="140">
         <f>G29+G30+G31</f>
         <v>74136</v>
       </c>
-      <c r="M10" s="152"/>
-      <c r="N10" s="131">
+      <c r="M10" s="161"/>
+      <c r="N10" s="140">
         <f>J10-L10</f>
         <v>37393.710000000006</v>
       </c>
-      <c r="O10" s="132"/>
+      <c r="O10" s="141"/>
       <c r="P10" s="60">
         <f>'[1]April 2021-22'!$K$41</f>
         <v>28956.159999999996</v>
       </c>
-      <c r="Q10" s="131">
+      <c r="Q10" s="140">
         <f>N10-P10</f>
         <v>8437.5500000000102</v>
       </c>
-      <c r="R10" s="156"/>
+      <c r="R10" s="165"/>
       <c r="S10" s="32"/>
     </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1">
+    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="131">
+      <c r="B11" s="140">
         <v>6061.85</v>
       </c>
-      <c r="C11" s="151"/>
+      <c r="C11" s="160"/>
       <c r="D11" s="60">
         <v>0</v>
       </c>
-      <c r="E11" s="131">
+      <c r="E11" s="140">
         <f t="shared" ref="E11:E13" si="0">B11-D11</f>
         <v>6061.85</v>
       </c>
-      <c r="F11" s="132"/>
+      <c r="F11" s="141"/>
       <c r="G11" s="92">
         <v>15212.8</v>
       </c>
       <c r="H11" s="60"/>
       <c r="I11" s="60"/>
-      <c r="J11" s="131">
+      <c r="J11" s="140">
         <f>B11+G11+H11+I11</f>
         <v>21274.65</v>
       </c>
-      <c r="K11" s="132"/>
-      <c r="L11" s="131">
+      <c r="K11" s="141"/>
+      <c r="L11" s="140">
         <f>SUM(G21:G22)</f>
         <v>8664</v>
       </c>
-      <c r="M11" s="152"/>
-      <c r="N11" s="163">
+      <c r="M11" s="161"/>
+      <c r="N11" s="172">
         <f>J11-L11</f>
         <v>12610.650000000001</v>
       </c>
-      <c r="O11" s="164"/>
+      <c r="O11" s="173"/>
       <c r="P11" s="61">
         <f>'[1]April 2021-22'!$K$65</f>
         <v>12170.24</v>
       </c>
-      <c r="Q11" s="131">
+      <c r="Q11" s="140">
         <f t="shared" ref="Q11:Q13" si="1">N11-P11</f>
         <v>440.41000000000167</v>
       </c>
-      <c r="R11" s="156"/>
+      <c r="R11" s="165"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="131">
+      <c r="B12" s="140">
         <v>11800.7</v>
       </c>
-      <c r="C12" s="151"/>
+      <c r="C12" s="160"/>
       <c r="D12" s="60">
         <v>0</v>
       </c>
-      <c r="E12" s="131">
+      <c r="E12" s="140">
         <f t="shared" si="0"/>
         <v>11800.7</v>
       </c>
-      <c r="F12" s="132"/>
+      <c r="F12" s="141"/>
       <c r="G12" s="92"/>
       <c r="H12" s="60"/>
       <c r="I12" s="60"/>
-      <c r="J12" s="131">
+      <c r="J12" s="140">
         <f>B12+G12+H12+I12</f>
         <v>11800.7</v>
       </c>
-      <c r="K12" s="132"/>
-      <c r="L12" s="131">
+      <c r="K12" s="141"/>
+      <c r="L12" s="140">
         <f>SUM(G33:G34)</f>
         <v>7560</v>
       </c>
-      <c r="M12" s="156"/>
-      <c r="N12" s="131">
+      <c r="M12" s="165"/>
+      <c r="N12" s="140">
         <f>J12-L12</f>
         <v>4240.7000000000007</v>
       </c>
-      <c r="O12" s="132"/>
+      <c r="O12" s="141"/>
       <c r="P12" s="61">
         <f>'[1]April 2021-22'!$K$57</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="131">
+      <c r="Q12" s="140">
         <f t="shared" si="1"/>
         <v>4240.7000000000007</v>
       </c>
-      <c r="R12" s="156"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1">
+      <c r="R12" s="165"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="131">
+      <c r="B13" s="140">
         <v>30749.88</v>
       </c>
-      <c r="C13" s="151"/>
+      <c r="C13" s="160"/>
       <c r="D13" s="60">
         <v>0</v>
       </c>
-      <c r="E13" s="131">
+      <c r="E13" s="140">
         <f t="shared" si="0"/>
         <v>30749.88</v>
       </c>
-      <c r="F13" s="132"/>
+      <c r="F13" s="141"/>
       <c r="G13" s="92">
         <f>35652.3</f>
         <v>35652.300000000003</v>
       </c>
       <c r="H13" s="60"/>
       <c r="I13" s="60"/>
-      <c r="J13" s="131">
+      <c r="J13" s="140">
         <f>B13+G13+H13+I13</f>
         <v>66402.180000000008</v>
       </c>
-      <c r="K13" s="132"/>
-      <c r="L13" s="131">
+      <c r="K13" s="141"/>
+      <c r="L13" s="140">
         <f>G24+G25+G26+G27</f>
         <v>38302</v>
       </c>
-      <c r="M13" s="156"/>
-      <c r="N13" s="131">
+      <c r="M13" s="165"/>
+      <c r="N13" s="140">
         <f>J13-L13</f>
         <v>28100.180000000008</v>
       </c>
-      <c r="O13" s="132"/>
+      <c r="O13" s="141"/>
       <c r="P13" s="61">
         <f>'[1]April 2021-22'!$K$49</f>
         <v>21391.380000000005</v>
       </c>
-      <c r="Q13" s="131">
+      <c r="Q13" s="140">
         <f t="shared" si="1"/>
         <v>6708.8000000000029</v>
       </c>
-      <c r="R13" s="156"/>
+      <c r="R13" s="165"/>
       <c r="U13" s="29"/>
       <c r="W13" s="29"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
-      <c r="B14" s="153"/>
-      <c r="C14" s="154"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="163"/>
       <c r="D14" s="61"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="155"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="164"/>
       <c r="G14" s="92"/>
       <c r="H14" s="60"/>
       <c r="I14" s="60"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="132"/>
+      <c r="J14" s="160"/>
+      <c r="K14" s="141"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="141"/>
       <c r="N14" s="62"/>
       <c r="O14" s="63"/>
       <c r="P14" s="60"/>
-      <c r="Q14" s="131"/>
-      <c r="R14" s="156"/>
+      <c r="Q14" s="140"/>
+      <c r="R14" s="165"/>
       <c r="T14" s="64"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1">
+    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="131">
+      <c r="B15" s="140">
         <f>SUM(B10:C14)</f>
         <v>50672.930000000008</v>
       </c>
-      <c r="C15" s="132"/>
+      <c r="C15" s="141"/>
       <c r="D15" s="60">
         <f>SUM(D10:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="131">
+      <c r="E15" s="140">
         <f>SUM(E10:F14)</f>
         <v>50672.930000000008</v>
       </c>
-      <c r="F15" s="150"/>
+      <c r="F15" s="159"/>
       <c r="G15" s="92">
         <f>SUM(G10:G14)</f>
         <v>160041.90000000002</v>
@@ -2481,33 +2632,33 @@
         <f>SUM(I10:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="151">
+      <c r="J15" s="160">
         <f>SUM(J10:K14)</f>
         <v>211007.24000000005</v>
       </c>
-      <c r="K15" s="132"/>
-      <c r="L15" s="131">
+      <c r="K15" s="141"/>
+      <c r="L15" s="140">
         <f>SUM(L10:M14)</f>
         <v>128662</v>
       </c>
-      <c r="M15" s="152"/>
-      <c r="N15" s="131">
+      <c r="M15" s="161"/>
+      <c r="N15" s="140">
         <f>SUM(N10:O14)</f>
         <v>82345.24000000002</v>
       </c>
-      <c r="O15" s="132"/>
+      <c r="O15" s="141"/>
       <c r="P15" s="60">
         <f>SUM(P10:P14)</f>
         <v>62517.78</v>
       </c>
-      <c r="Q15" s="131">
+      <c r="Q15" s="140">
         <f>SUM(Q10:R13)</f>
         <v>19827.460000000014</v>
       </c>
-      <c r="R15" s="132"/>
+      <c r="R15" s="141"/>
       <c r="S15" s="29"/>
     </row>
-    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="65"/>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -2522,83 +2673,83 @@
       <c r="L16" s="67"/>
       <c r="M16" s="67"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="133" t="s">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="134"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="141" t="s">
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="150" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="142"/>
-      <c r="M17" s="142"/>
-      <c r="N17" s="142"/>
-      <c r="O17" s="143"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="151"/>
+      <c r="M17" s="151"/>
+      <c r="N17" s="151"/>
+      <c r="O17" s="152"/>
       <c r="P17" s="68"/>
       <c r="Q17" s="68"/>
       <c r="R17" s="68"/>
       <c r="S17" s="68"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="135"/>
-      <c r="B18" s="136"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="144" t="s">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="144"/>
+      <c r="B18" s="145"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="145"/>
-      <c r="F18" s="144" t="s">
+      <c r="E18" s="154"/>
+      <c r="F18" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="145"/>
-      <c r="H18" s="148" t="s">
+      <c r="G18" s="154"/>
+      <c r="H18" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="149"/>
-      <c r="J18" s="149"/>
-      <c r="K18" s="149"/>
-      <c r="L18" s="144" t="s">
+      <c r="I18" s="158"/>
+      <c r="J18" s="158"/>
+      <c r="K18" s="158"/>
+      <c r="L18" s="153" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="145"/>
-      <c r="N18" s="144" t="s">
+      <c r="M18" s="154"/>
+      <c r="N18" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="O18" s="145"/>
-    </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="135"/>
-      <c r="B19" s="136"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="141" t="s">
+      <c r="O18" s="154"/>
+    </row>
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="144"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="150" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="142"/>
-      <c r="J19" s="141" t="s">
+      <c r="I19" s="151"/>
+      <c r="J19" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="142"/>
-      <c r="L19" s="146"/>
-      <c r="M19" s="147"/>
-      <c r="N19" s="146"/>
-      <c r="O19" s="147"/>
-    </row>
-    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A20" s="138"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="140"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="156"/>
+      <c r="N19" s="155"/>
+      <c r="O19" s="156"/>
+    </row>
+    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="147"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="149"/>
       <c r="D20" s="98" t="s">
         <v>26</v>
       </c>
@@ -2645,12 +2796,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
-      <c r="A21" s="110" t="s">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="112"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="121"/>
       <c r="D21" s="74">
         <f>E21/24</f>
         <v>4</v>
@@ -2711,12 +2862,12 @@
       <c r="V21" s="75"/>
       <c r="W21" s="29"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A22" s="113" t="s">
+    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="115"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="124"/>
       <c r="D22" s="76">
         <f>E22/24</f>
         <v>1</v>
@@ -2778,12 +2929,12 @@
       <c r="V22" s="75"/>
       <c r="W22" s="29"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A23" s="116" t="s">
+    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="117"/>
-      <c r="C23" s="118"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="127"/>
       <c r="D23" s="77">
         <f>SUM(D21:D22)</f>
         <v>5</v>
@@ -2838,12 +2989,12 @@
       <c r="V23" s="75"/>
       <c r="W23" s="29"/>
     </row>
-    <row r="24" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A24" s="110" t="s">
+    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="111"/>
-      <c r="C24" s="112"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="121"/>
       <c r="D24" s="74">
         <f>E24/30</f>
         <v>38</v>
@@ -2905,12 +3056,12 @@
       <c r="V24" s="75"/>
       <c r="W24" s="29"/>
     </row>
-    <row r="25" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A25" s="128" t="s">
+    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="129"/>
-      <c r="C25" s="130"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="139"/>
       <c r="D25" s="81">
         <f>E25/24</f>
         <v>0</v>
@@ -2970,12 +3121,12 @@
       <c r="V25" s="75"/>
       <c r="W25" s="29"/>
     </row>
-    <row r="26" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A26" s="125" t="s">
+    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="126"/>
-      <c r="C26" s="127"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="136"/>
       <c r="D26" s="82">
         <f>E26/22</f>
         <v>51</v>
@@ -3036,12 +3187,12 @@
       <c r="V26" s="29"/>
       <c r="W26" s="29"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A27" s="122" t="s">
+    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="123"/>
-      <c r="C27" s="124"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="133"/>
       <c r="D27" s="83">
         <f>E27/22</f>
         <v>23</v>
@@ -3102,12 +3253,12 @@
       <c r="V27" s="75"/>
       <c r="W27" s="29"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A28" s="116" t="s">
+    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="117"/>
-      <c r="C28" s="118"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="127"/>
       <c r="D28" s="79">
         <f t="shared" ref="D28:O28" si="8">SUM(D24:D27)</f>
         <v>112</v>
@@ -3162,12 +3313,12 @@
       <c r="V28" s="75"/>
       <c r="W28" s="29"/>
     </row>
-    <row r="29" spans="1:23">
-      <c r="A29" s="110" t="s">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="111"/>
-      <c r="C29" s="112"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="121"/>
       <c r="D29" s="74">
         <f>E29/24</f>
         <v>0</v>
@@ -3228,12 +3379,12 @@
       <c r="V29" s="75"/>
       <c r="W29" s="29"/>
     </row>
-    <row r="30" spans="1:23">
-      <c r="A30" s="125" t="s">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="126"/>
-      <c r="C30" s="127"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="136"/>
       <c r="D30" s="82">
         <f>E30/24</f>
         <v>49</v>
@@ -3294,12 +3445,12 @@
       <c r="V30" s="75"/>
       <c r="W30" s="29"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A31" s="125" t="s">
+    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="126"/>
-      <c r="C31" s="127"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="136"/>
       <c r="D31" s="82">
         <f>E31/24</f>
         <v>18</v>
@@ -3361,12 +3512,12 @@
       <c r="V31" s="75"/>
       <c r="W31" s="29"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A32" s="116" t="s">
+    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="117"/>
-      <c r="C32" s="118"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="127"/>
       <c r="D32" s="84">
         <f t="shared" ref="D32:O32" si="13">SUM(D29:D31)</f>
         <v>67</v>
@@ -3421,12 +3572,12 @@
       <c r="V32" s="75"/>
       <c r="W32" s="29"/>
     </row>
-    <row r="33" spans="1:23">
-      <c r="A33" s="110" t="s">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="111"/>
-      <c r="C33" s="112"/>
+      <c r="B33" s="120"/>
+      <c r="C33" s="121"/>
       <c r="D33" s="85">
         <f>E33/12</f>
         <v>35</v>
@@ -3488,12 +3639,12 @@
       <c r="V33" s="86"/>
       <c r="W33" s="29"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A34" s="113" t="s">
+    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="114"/>
-      <c r="C34" s="115"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="124"/>
       <c r="D34" s="76">
         <f>E34/12</f>
         <v>0</v>
@@ -3552,12 +3703,12 @@
       <c r="V34" s="75"/>
       <c r="W34" s="29"/>
     </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A35" s="116" t="s">
+    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="117"/>
-      <c r="C35" s="118"/>
+      <c r="B35" s="126"/>
+      <c r="C35" s="127"/>
       <c r="D35" s="84">
         <f>SUM(D33:D34)</f>
         <v>35</v>
@@ -3611,12 +3762,12 @@
       <c r="U35" s="34"/>
       <c r="W35" s="29"/>
     </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A36" s="119" t="s">
+    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="120"/>
-      <c r="C36" s="121"/>
+      <c r="B36" s="129"/>
+      <c r="C36" s="130"/>
       <c r="D36" s="87">
         <f t="shared" ref="D36:O36" si="18">D21+D22+D24+D25+D26+D27+D29+D30+D31+D33+D34</f>
         <v>219</v>
@@ -3679,19 +3830,19 @@
       </c>
       <c r="W36" s="29"/>
     </row>
-    <row r="37" spans="1:23" ht="9" customHeight="1">
+    <row r="37" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U37" s="32"/>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="V38" s="29"/>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="P40" s="75"/>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:23" ht="18.75">
+    <row r="42" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="P42" s="90"/>
     </row>
   </sheetData>
@@ -3794,14 +3945,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
@@ -3827,258 +3978,258 @@
     <col min="25" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75">
-      <c r="A1" s="178" t="s">
+    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="187" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="178"/>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="178"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A2" s="179"/>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="179"/>
-      <c r="N2" s="179"/>
-      <c r="O2" s="179"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="179"/>
-      <c r="R2" s="179"/>
-    </row>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A3" s="180" t="s">
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="187"/>
+      <c r="O1" s="187"/>
+      <c r="P1" s="187"/>
+      <c r="Q1" s="187"/>
+      <c r="R1" s="187"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="188"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="188"/>
+      <c r="M2" s="188"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="188"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="189" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="150"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="159"/>
       <c r="M3" s="55"/>
     </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="182"/>
-      <c r="B4" s="183"/>
-      <c r="C4" s="186" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="191"/>
+      <c r="B4" s="192"/>
+      <c r="C4" s="195" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="187"/>
+      <c r="D4" s="196"/>
       <c r="E4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="188" t="s">
+      <c r="F4" s="197" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="182" t="s">
+      <c r="H4" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="190"/>
-      <c r="J4" s="183"/>
-      <c r="K4" s="186" t="s">
+      <c r="I4" s="199"/>
+      <c r="J4" s="192"/>
+      <c r="K4" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="187"/>
+      <c r="L4" s="196"/>
       <c r="M4" s="55"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A5" s="184"/>
-      <c r="B5" s="185"/>
-      <c r="C5" s="191" t="s">
+    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="193"/>
+      <c r="B5" s="194"/>
+      <c r="C5" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="192"/>
+      <c r="D5" s="201"/>
       <c r="E5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="189"/>
+      <c r="F5" s="198"/>
       <c r="G5" s="103"/>
-      <c r="H5" s="165" t="s">
+      <c r="H5" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="166"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="191" t="s">
+      <c r="I5" s="175"/>
+      <c r="J5" s="176"/>
+      <c r="K5" s="200" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="192"/>
+      <c r="L5" s="201"/>
       <c r="M5" s="55"/>
       <c r="T5" s="29"/>
       <c r="U5" s="29"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A6" s="193"/>
-      <c r="B6" s="194"/>
-      <c r="C6" s="195">
+    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="202"/>
+      <c r="B6" s="203"/>
+      <c r="C6" s="204">
         <v>506029</v>
       </c>
-      <c r="D6" s="196"/>
+      <c r="D6" s="205"/>
       <c r="E6" s="54"/>
       <c r="F6" s="107"/>
       <c r="G6" s="104">
         <f>C6+E6+F6</f>
         <v>506029</v>
       </c>
-      <c r="H6" s="195">
+      <c r="H6" s="204">
         <f>G15</f>
         <v>51224.7</v>
       </c>
-      <c r="I6" s="151"/>
-      <c r="J6" s="196"/>
-      <c r="K6" s="131">
+      <c r="I6" s="160"/>
+      <c r="J6" s="205"/>
+      <c r="K6" s="140">
         <f>G6-H6</f>
         <v>454804.3</v>
       </c>
-      <c r="L6" s="132"/>
+      <c r="L6" s="141"/>
       <c r="M6" s="55"/>
       <c r="O6" s="29"/>
       <c r="Q6" s="29"/>
     </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="177" t="s">
+    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="186" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="177"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="177"/>
-      <c r="J7" s="177"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177"/>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="177"/>
+      <c r="B7" s="186"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="186"/>
+      <c r="K7" s="186"/>
+      <c r="L7" s="186"/>
+      <c r="M7" s="186"/>
+      <c r="N7" s="186"/>
+      <c r="O7" s="186"/>
+      <c r="P7" s="186"/>
+      <c r="Q7" s="186"/>
+      <c r="R7" s="186"/>
       <c r="U7" s="29"/>
     </row>
-    <row r="8" spans="1:23" ht="22.5" customHeight="1">
-      <c r="A8" s="170" t="s">
+    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="172" t="s">
+      <c r="B8" s="181" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="173"/>
-      <c r="D8" s="157" t="s">
+      <c r="C8" s="182"/>
+      <c r="D8" s="166" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="159" t="s">
+      <c r="E8" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="160"/>
-      <c r="G8" s="157" t="s">
+      <c r="F8" s="169"/>
+      <c r="G8" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="157" t="s">
+      <c r="H8" s="166" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="173" t="s">
+      <c r="J8" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="174"/>
-      <c r="L8" s="172" t="s">
+      <c r="K8" s="183"/>
+      <c r="L8" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="173"/>
-      <c r="N8" s="175" t="s">
+      <c r="M8" s="182"/>
+      <c r="N8" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="176"/>
-      <c r="P8" s="157" t="s">
+      <c r="O8" s="185"/>
+      <c r="P8" s="166" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="159" t="s">
+      <c r="Q8" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="160"/>
-    </row>
-    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="171"/>
-      <c r="B9" s="165" t="s">
+      <c r="R8" s="169"/>
+    </row>
+    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="180"/>
+      <c r="B9" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="166"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
       <c r="I9" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="166" t="s">
+      <c r="J9" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="167"/>
-      <c r="L9" s="165" t="s">
+      <c r="K9" s="176"/>
+      <c r="L9" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="166"/>
-      <c r="N9" s="168" t="s">
+      <c r="M9" s="175"/>
+      <c r="N9" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="169"/>
-      <c r="P9" s="158"/>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="162"/>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="O9" s="178"/>
+      <c r="P9" s="167"/>
+      <c r="Q9" s="170"/>
+      <c r="R9" s="171"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="131">
+      <c r="B10" s="140">
         <v>37393.71</v>
       </c>
-      <c r="C10" s="151"/>
+      <c r="C10" s="160"/>
       <c r="D10" s="60">
         <v>28956.16</v>
       </c>
-      <c r="E10" s="131">
+      <c r="E10" s="140">
         <f>B10-D10</f>
         <v>8437.5499999999993</v>
       </c>
-      <c r="F10" s="132"/>
+      <c r="F10" s="141"/>
       <c r="G10" s="105">
         <v>35224</v>
       </c>
@@ -4086,213 +4237,213 @@
         <v>144.78</v>
       </c>
       <c r="I10" s="60"/>
-      <c r="J10" s="131">
+      <c r="J10" s="140">
         <f>B10+G10+H10+I10</f>
         <v>72762.489999999991</v>
       </c>
-      <c r="K10" s="132"/>
-      <c r="L10" s="131">
+      <c r="K10" s="141"/>
+      <c r="L10" s="140">
         <f>G29+G30+G31</f>
         <v>52536</v>
       </c>
-      <c r="M10" s="152"/>
-      <c r="N10" s="131">
+      <c r="M10" s="161"/>
+      <c r="N10" s="140">
         <f>J10-L10</f>
         <v>20226.489999999991</v>
       </c>
-      <c r="O10" s="132"/>
+      <c r="O10" s="141"/>
       <c r="P10" s="60">
         <f>'[1]May 2021'!$K$15</f>
         <v>7044.7999999999993</v>
       </c>
-      <c r="Q10" s="131">
+      <c r="Q10" s="140">
         <f>N10-P10</f>
         <v>13181.689999999991</v>
       </c>
-      <c r="R10" s="156"/>
+      <c r="R10" s="165"/>
       <c r="S10" s="32"/>
       <c r="U10" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1">
+    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="131">
+      <c r="B11" s="140">
         <v>12610.65</v>
       </c>
-      <c r="C11" s="151"/>
+      <c r="C11" s="160"/>
       <c r="D11" s="60">
         <v>12170.24</v>
       </c>
-      <c r="E11" s="131">
+      <c r="E11" s="140">
         <f t="shared" ref="E11:E13" si="0">B11-D11</f>
         <v>440.40999999999985</v>
       </c>
-      <c r="F11" s="132"/>
+      <c r="F11" s="141"/>
       <c r="G11" s="105"/>
       <c r="H11" s="60"/>
       <c r="I11" s="60"/>
-      <c r="J11" s="131">
+      <c r="J11" s="140">
         <f>B11+G11+H11+I11</f>
         <v>12610.65</v>
       </c>
-      <c r="K11" s="132"/>
-      <c r="L11" s="131">
+      <c r="K11" s="141"/>
+      <c r="L11" s="140">
         <f>SUM(G21:G22)</f>
         <v>4344</v>
       </c>
-      <c r="M11" s="152"/>
-      <c r="N11" s="163">
+      <c r="M11" s="161"/>
+      <c r="N11" s="172">
         <f>J11-L11</f>
         <v>8266.65</v>
       </c>
-      <c r="O11" s="164"/>
+      <c r="O11" s="173"/>
       <c r="P11" s="60">
         <f>'[1]May 2021'!$K$25</f>
         <v>6085.12</v>
       </c>
-      <c r="Q11" s="131">
+      <c r="Q11" s="140">
         <f t="shared" ref="Q11:Q13" si="1">N11-P11</f>
         <v>2181.5299999999997</v>
       </c>
-      <c r="R11" s="156"/>
+      <c r="R11" s="165"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="131">
+      <c r="B12" s="140">
         <v>4240.7</v>
       </c>
-      <c r="C12" s="151"/>
+      <c r="C12" s="160"/>
       <c r="D12" s="60">
         <v>0</v>
       </c>
-      <c r="E12" s="131">
+      <c r="E12" s="140">
         <f t="shared" si="0"/>
         <v>4240.7</v>
       </c>
-      <c r="F12" s="132"/>
+      <c r="F12" s="141"/>
       <c r="G12" s="105">
         <v>16000.7</v>
       </c>
       <c r="H12" s="60"/>
       <c r="I12" s="60"/>
-      <c r="J12" s="131">
+      <c r="J12" s="140">
         <f>B12+G12+H12+I12</f>
         <v>20241.400000000001</v>
       </c>
-      <c r="K12" s="132"/>
-      <c r="L12" s="131">
+      <c r="K12" s="141"/>
+      <c r="L12" s="140">
         <f>SUM(G33:G34)</f>
         <v>9492</v>
       </c>
-      <c r="M12" s="156"/>
-      <c r="N12" s="131">
+      <c r="M12" s="165"/>
+      <c r="N12" s="140">
         <f>J12-L12</f>
         <v>10749.400000000001</v>
       </c>
-      <c r="O12" s="132"/>
+      <c r="O12" s="141"/>
       <c r="P12" s="60">
         <f>'[1]May 2021'!$K$35</f>
         <v>9600.42</v>
       </c>
-      <c r="Q12" s="131">
+      <c r="Q12" s="140">
         <f t="shared" si="1"/>
         <v>1148.9800000000014</v>
       </c>
-      <c r="R12" s="156"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1">
+      <c r="R12" s="165"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="131">
+      <c r="B13" s="140">
         <v>28100.18</v>
       </c>
-      <c r="C13" s="151"/>
+      <c r="C13" s="160"/>
       <c r="D13" s="60">
         <v>21391.38</v>
       </c>
-      <c r="E13" s="131">
+      <c r="E13" s="140">
         <f t="shared" si="0"/>
         <v>6708.7999999999993</v>
       </c>
-      <c r="F13" s="132"/>
+      <c r="F13" s="141"/>
       <c r="G13" s="105"/>
       <c r="H13" s="60">
         <v>142.61000000000001</v>
       </c>
       <c r="I13" s="60"/>
-      <c r="J13" s="131">
+      <c r="J13" s="140">
         <f>B13+G13+H13+I13</f>
         <v>28242.79</v>
       </c>
-      <c r="K13" s="132"/>
-      <c r="L13" s="131">
+      <c r="K13" s="141"/>
+      <c r="L13" s="140">
         <f>G24+G25+G26+G27</f>
         <v>24454</v>
       </c>
-      <c r="M13" s="156"/>
-      <c r="N13" s="131">
+      <c r="M13" s="165"/>
+      <c r="N13" s="140">
         <f>J13-L13</f>
         <v>3788.7900000000009</v>
       </c>
-      <c r="O13" s="132"/>
+      <c r="O13" s="141"/>
       <c r="P13" s="60">
         <f>'[1]May 2021'!$K$45</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="131">
+      <c r="Q13" s="140">
         <f t="shared" si="1"/>
         <v>3788.7900000000009</v>
       </c>
-      <c r="R13" s="156"/>
+      <c r="R13" s="165"/>
       <c r="V13" s="29"/>
       <c r="W13" s="29"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
-      <c r="B14" s="153"/>
-      <c r="C14" s="154"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="163"/>
       <c r="D14" s="61"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="155"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="164"/>
       <c r="G14" s="105"/>
       <c r="H14" s="60"/>
       <c r="I14" s="60"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="132"/>
+      <c r="J14" s="160"/>
+      <c r="K14" s="141"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="141"/>
       <c r="N14" s="62"/>
       <c r="O14" s="63"/>
       <c r="P14" s="60"/>
-      <c r="Q14" s="131"/>
-      <c r="R14" s="156"/>
+      <c r="Q14" s="140"/>
+      <c r="R14" s="165"/>
       <c r="T14" s="64"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1">
+    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="131">
+      <c r="B15" s="140">
         <f>SUM(B10:C14)</f>
         <v>82345.239999999991</v>
       </c>
-      <c r="C15" s="132"/>
+      <c r="C15" s="141"/>
       <c r="D15" s="60">
         <f>SUM(D10:D14)</f>
         <v>62517.78</v>
       </c>
-      <c r="E15" s="131">
+      <c r="E15" s="140">
         <f>SUM(E10:F14)</f>
         <v>19827.46</v>
       </c>
-      <c r="F15" s="150"/>
+      <c r="F15" s="159"/>
       <c r="G15" s="105">
         <f>SUM(G10:G14)</f>
         <v>51224.7</v>
@@ -4305,33 +4456,33 @@
         <f>SUM(I10:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="151">
+      <c r="J15" s="160">
         <f>SUM(J10:K14)</f>
         <v>133857.32999999999</v>
       </c>
-      <c r="K15" s="132"/>
-      <c r="L15" s="131">
+      <c r="K15" s="141"/>
+      <c r="L15" s="140">
         <f>SUM(L10:M14)</f>
         <v>90826</v>
       </c>
-      <c r="M15" s="152"/>
-      <c r="N15" s="131">
+      <c r="M15" s="161"/>
+      <c r="N15" s="140">
         <f>SUM(N10:O14)</f>
         <v>43031.329999999994</v>
       </c>
-      <c r="O15" s="132"/>
+      <c r="O15" s="141"/>
       <c r="P15" s="60">
         <f>SUM(P10:P14)</f>
         <v>22730.339999999997</v>
       </c>
-      <c r="Q15" s="131">
+      <c r="Q15" s="140">
         <f>SUM(Q10:R13)</f>
         <v>20300.989999999991</v>
       </c>
-      <c r="R15" s="132"/>
+      <c r="R15" s="141"/>
       <c r="S15" s="29"/>
     </row>
-    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="65"/>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -4346,83 +4497,83 @@
       <c r="L16" s="67"/>
       <c r="M16" s="67"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="133" t="s">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="134"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="141" t="s">
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="150" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="142"/>
-      <c r="M17" s="142"/>
-      <c r="N17" s="142"/>
-      <c r="O17" s="143"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="151"/>
+      <c r="M17" s="151"/>
+      <c r="N17" s="151"/>
+      <c r="O17" s="152"/>
       <c r="P17" s="68"/>
       <c r="Q17" s="68"/>
       <c r="R17" s="68"/>
       <c r="S17" s="68"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="135"/>
-      <c r="B18" s="136"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="144" t="s">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="144"/>
+      <c r="B18" s="145"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="145"/>
-      <c r="F18" s="144" t="s">
+      <c r="E18" s="154"/>
+      <c r="F18" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="145"/>
-      <c r="H18" s="148" t="s">
+      <c r="G18" s="154"/>
+      <c r="H18" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="149"/>
-      <c r="J18" s="149"/>
-      <c r="K18" s="149"/>
-      <c r="L18" s="144" t="s">
+      <c r="I18" s="158"/>
+      <c r="J18" s="158"/>
+      <c r="K18" s="158"/>
+      <c r="L18" s="153" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="145"/>
-      <c r="N18" s="144" t="s">
+      <c r="M18" s="154"/>
+      <c r="N18" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="O18" s="145"/>
-    </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="135"/>
-      <c r="B19" s="136"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="141" t="s">
+      <c r="O18" s="154"/>
+    </row>
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="144"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="150" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="142"/>
-      <c r="J19" s="141" t="s">
+      <c r="I19" s="151"/>
+      <c r="J19" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="142"/>
-      <c r="L19" s="146"/>
-      <c r="M19" s="147"/>
-      <c r="N19" s="146"/>
-      <c r="O19" s="147"/>
-    </row>
-    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A20" s="138"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="140"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="156"/>
+      <c r="N19" s="155"/>
+      <c r="O19" s="156"/>
+    </row>
+    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="147"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="149"/>
       <c r="D20" s="108" t="s">
         <v>26</v>
       </c>
@@ -4469,12 +4620,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
-      <c r="A21" s="110" t="s">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="112"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="121"/>
       <c r="D21" s="74">
         <f>E21/24</f>
         <v>14</v>
@@ -4487,7 +4638,7 @@
         <v>43</v>
       </c>
       <c r="G21" s="10">
-        <f>'[2]May 2021'!$B$29</f>
+        <f>'[2]May 2021'!$B$30</f>
         <v>1032</v>
       </c>
       <c r="H21" s="23">
@@ -4536,12 +4687,12 @@
       <c r="V21" s="75"/>
       <c r="W21" s="29"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A22" s="113" t="s">
+    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="115"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="124"/>
       <c r="D22" s="76">
         <f>E22/24</f>
         <v>82</v>
@@ -4554,7 +4705,7 @@
         <v>138</v>
       </c>
       <c r="G22" s="12">
-        <f>'[2]May 2021'!$C$29</f>
+        <f>'[2]May 2021'!$C$30</f>
         <v>3312</v>
       </c>
       <c r="H22" s="24">
@@ -4603,12 +4754,12 @@
       <c r="V22" s="75"/>
       <c r="W22" s="29"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A23" s="116" t="s">
+    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="117"/>
-      <c r="C23" s="118"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="127"/>
       <c r="D23" s="77">
         <f>SUM(D21:D22)</f>
         <v>96</v>
@@ -4663,12 +4814,12 @@
       <c r="V23" s="75"/>
       <c r="W23" s="29"/>
     </row>
-    <row r="24" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A24" s="110" t="s">
+    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="111"/>
-      <c r="C24" s="112"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="121"/>
       <c r="D24" s="74">
         <f>E24/30</f>
         <v>138</v>
@@ -4681,7 +4832,7 @@
         <v>755</v>
       </c>
       <c r="G24" s="10">
-        <f>'[2]May 2021'!$D$29</f>
+        <f>'[2]May 2021'!$D$30</f>
         <v>22650</v>
       </c>
       <c r="H24" s="23">
@@ -4729,12 +4880,12 @@
       <c r="V24" s="75"/>
       <c r="W24" s="29"/>
     </row>
-    <row r="25" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A25" s="128" t="s">
+    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="129"/>
-      <c r="C25" s="130"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="139"/>
       <c r="D25" s="81">
         <f>E25/24</f>
         <v>8</v>
@@ -4747,7 +4898,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="27">
-        <f>'[2]May 2021'!$E$29</f>
+        <f>'[2]May 2021'!$E$30</f>
         <v>0</v>
       </c>
       <c r="H25" s="39">
@@ -4792,12 +4943,12 @@
       <c r="V25" s="75"/>
       <c r="W25" s="29"/>
     </row>
-    <row r="26" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A26" s="125" t="s">
+    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="126"/>
-      <c r="C26" s="127"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="136"/>
       <c r="D26" s="82">
         <f>E26/22</f>
         <v>25</v>
@@ -4810,7 +4961,7 @@
         <v>53</v>
       </c>
       <c r="G26" s="3">
-        <f>'[2]May 2021'!$F$29</f>
+        <f>'[2]May 2021'!$F$30</f>
         <v>1166</v>
       </c>
       <c r="H26" s="25">
@@ -4859,12 +5010,12 @@
       <c r="V26" s="29"/>
       <c r="W26" s="29"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A27" s="122" t="s">
+    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="123"/>
-      <c r="C27" s="124"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="133"/>
       <c r="D27" s="83">
         <f>E27/22</f>
         <v>3</v>
@@ -4877,7 +5028,7 @@
         <v>29</v>
       </c>
       <c r="G27" s="41">
-        <f>'[2]May 2021'!$G$29</f>
+        <f>'[2]May 2021'!$G$30</f>
         <v>638</v>
       </c>
       <c r="H27" s="42">
@@ -4925,12 +5076,12 @@
       <c r="V27" s="75"/>
       <c r="W27" s="29"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A28" s="116" t="s">
+    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="117"/>
-      <c r="C28" s="118"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="127"/>
       <c r="D28" s="79">
         <f t="shared" ref="D28:O28" si="8">SUM(D24:D27)</f>
         <v>174</v>
@@ -4985,12 +5136,12 @@
       <c r="V28" s="75"/>
       <c r="W28" s="29"/>
     </row>
-    <row r="29" spans="1:23">
-      <c r="A29" s="110" t="s">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="111"/>
-      <c r="C29" s="112"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="121"/>
       <c r="D29" s="74">
         <f>E29/24</f>
         <v>0</v>
@@ -5003,7 +5154,7 @@
         <v>399</v>
       </c>
       <c r="G29" s="10">
-        <f>'[2]May 2021'!$H$29</f>
+        <f>'[2]May 2021'!$H$30</f>
         <v>9576</v>
       </c>
       <c r="H29" s="23">
@@ -5051,12 +5202,12 @@
       <c r="V29" s="75"/>
       <c r="W29" s="29"/>
     </row>
-    <row r="30" spans="1:23">
-      <c r="A30" s="125" t="s">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="126"/>
-      <c r="C30" s="127"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="136"/>
       <c r="D30" s="82">
         <f>E30/24</f>
         <v>0</v>
@@ -5069,7 +5220,7 @@
         <v>207</v>
       </c>
       <c r="G30" s="3">
-        <f>'[2]May 2021'!$I$29</f>
+        <f>'[2]May 2021'!$I$30</f>
         <v>4968</v>
       </c>
       <c r="H30" s="25">
@@ -5116,12 +5267,12 @@
       <c r="V30" s="75"/>
       <c r="W30" s="29"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A31" s="125" t="s">
+    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="126"/>
-      <c r="C31" s="127"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="136"/>
       <c r="D31" s="82">
         <f>E31/24</f>
         <v>123</v>
@@ -5134,7 +5285,7 @@
         <v>1583</v>
       </c>
       <c r="G31" s="3">
-        <f>'[2]May 2021'!$J$29</f>
+        <f>'[2]May 2021'!$J$30</f>
         <v>37992</v>
       </c>
       <c r="H31" s="25">
@@ -5183,12 +5334,12 @@
       <c r="V31" s="75"/>
       <c r="W31" s="29"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A32" s="116" t="s">
+    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="117"/>
-      <c r="C32" s="118"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="127"/>
       <c r="D32" s="84">
         <f t="shared" ref="D32:O32" si="13">SUM(D29:D31)</f>
         <v>123</v>
@@ -5243,12 +5394,12 @@
       <c r="V32" s="75"/>
       <c r="W32" s="29"/>
     </row>
-    <row r="33" spans="1:23">
-      <c r="A33" s="110" t="s">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="111"/>
-      <c r="C33" s="112"/>
+      <c r="B33" s="120"/>
+      <c r="C33" s="121"/>
       <c r="D33" s="85">
         <f>E33/12</f>
         <v>34</v>
@@ -5261,7 +5412,7 @@
         <v>380</v>
       </c>
       <c r="G33" s="14">
-        <f>'[2]May 2021'!$K$29</f>
+        <f>'[2]May 2021'!$K$30</f>
         <v>4560</v>
       </c>
       <c r="H33" s="23">
@@ -5309,12 +5460,12 @@
       <c r="V33" s="86"/>
       <c r="W33" s="29"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A34" s="113" t="s">
+    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="114"/>
-      <c r="C34" s="115"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="124"/>
       <c r="D34" s="76">
         <f>E34/12</f>
         <v>0</v>
@@ -5327,7 +5478,7 @@
         <v>411</v>
       </c>
       <c r="G34" s="12">
-        <f>'[2]May 2021'!$L$29</f>
+        <f>'[2]May 2021'!$L$30</f>
         <v>4932</v>
       </c>
       <c r="H34" s="24">
@@ -5373,12 +5524,12 @@
       <c r="V34" s="75"/>
       <c r="W34" s="29"/>
     </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A35" s="116" t="s">
+    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="117"/>
-      <c r="C35" s="118"/>
+      <c r="B35" s="126"/>
+      <c r="C35" s="127"/>
       <c r="D35" s="84">
         <f>SUM(D33:D34)</f>
         <v>34</v>
@@ -5432,12 +5583,12 @@
       <c r="U35" s="34"/>
       <c r="W35" s="29"/>
     </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A36" s="119" t="s">
+    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="120"/>
-      <c r="C36" s="121"/>
+      <c r="B36" s="129"/>
+      <c r="C36" s="130"/>
       <c r="D36" s="87">
         <f t="shared" ref="D36:O36" si="18">D21+D22+D24+D25+D26+D27+D29+D30+D31+D33+D34</f>
         <v>427</v>
@@ -5500,19 +5651,19 @@
       </c>
       <c r="W36" s="29"/>
     </row>
-    <row r="37" spans="1:23" ht="9" customHeight="1">
+    <row r="37" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U37" s="32"/>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="V38" s="29"/>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="P40" s="75"/>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:23" ht="18.75">
+    <row r="42" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="P42" s="90"/>
     </row>
   </sheetData>
@@ -5612,4 +5763,1821 @@
   <pageMargins left="0.16" right="0.16" top="0.25" bottom="0.23" header="0.23" footer="0.2"/>
   <pageSetup orientation="landscape" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05346F3-F030-4011-A525-83F8ADE27F81}">
+  <dimension ref="A1:W42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6" style="2" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7" style="2" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" style="2" customWidth="1"/>
+    <col min="16" max="17" width="7.85546875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="6" style="2" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="2"/>
+    <col min="24" max="24" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="187" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="187"/>
+      <c r="O1" s="187"/>
+      <c r="P1" s="187"/>
+      <c r="Q1" s="187"/>
+      <c r="R1" s="187"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="188"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="188"/>
+      <c r="M2" s="188"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="188"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="189" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="55"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="191"/>
+      <c r="B4" s="192"/>
+      <c r="C4" s="195" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="196"/>
+      <c r="E4" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="197" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="116" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="191" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="199"/>
+      <c r="J4" s="192"/>
+      <c r="K4" s="195" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="196"/>
+      <c r="M4" s="55"/>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="193"/>
+      <c r="B5" s="194"/>
+      <c r="C5" s="200" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="201"/>
+      <c r="E5" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="198"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="174" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="175"/>
+      <c r="J5" s="176"/>
+      <c r="K5" s="200" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="201"/>
+      <c r="M5" s="55"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="202"/>
+      <c r="B6" s="203"/>
+      <c r="C6" s="204">
+        <v>454804.3</v>
+      </c>
+      <c r="D6" s="205"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="118">
+        <f>C6+E6+F6</f>
+        <v>454804.3</v>
+      </c>
+      <c r="H6" s="204">
+        <f>G15</f>
+        <v>72609.5</v>
+      </c>
+      <c r="I6" s="160"/>
+      <c r="J6" s="205"/>
+      <c r="K6" s="140">
+        <f>G6-H6</f>
+        <v>382194.8</v>
+      </c>
+      <c r="L6" s="141"/>
+      <c r="M6" s="55"/>
+      <c r="O6" s="29"/>
+      <c r="Q6" s="29"/>
+    </row>
+    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="186" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="186"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="186"/>
+      <c r="K7" s="186"/>
+      <c r="L7" s="186"/>
+      <c r="M7" s="186"/>
+      <c r="N7" s="186"/>
+      <c r="O7" s="186"/>
+      <c r="P7" s="186"/>
+      <c r="Q7" s="186"/>
+      <c r="R7" s="186"/>
+      <c r="U7" s="29"/>
+    </row>
+    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="179" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="181" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="182"/>
+      <c r="D8" s="166" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="168" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="169"/>
+      <c r="G8" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="166" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="113" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="182" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="183"/>
+      <c r="L8" s="181" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="182"/>
+      <c r="N8" s="184" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="185"/>
+      <c r="P8" s="166" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="168" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="169"/>
+    </row>
+    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="180"/>
+      <c r="B9" s="174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="175"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="117" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="175" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="176"/>
+      <c r="L9" s="174" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="175"/>
+      <c r="N9" s="177" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="178"/>
+      <c r="P9" s="167"/>
+      <c r="Q9" s="170"/>
+      <c r="R9" s="171"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="140">
+        <v>20226.490000000002</v>
+      </c>
+      <c r="C10" s="160"/>
+      <c r="D10" s="60">
+        <v>7044.8</v>
+      </c>
+      <c r="E10" s="140">
+        <f>B10-D10</f>
+        <v>13181.690000000002</v>
+      </c>
+      <c r="F10" s="141"/>
+      <c r="G10" s="110">
+        <v>37289.5</v>
+      </c>
+      <c r="H10" s="60">
+        <v>140.9</v>
+      </c>
+      <c r="I10" s="60"/>
+      <c r="J10" s="140">
+        <f>B10+G10+H10+I10</f>
+        <v>57656.890000000007</v>
+      </c>
+      <c r="K10" s="141"/>
+      <c r="L10" s="140">
+        <f>G29+G30+G31</f>
+        <v>24264</v>
+      </c>
+      <c r="M10" s="161"/>
+      <c r="N10" s="140">
+        <f>J10-L10</f>
+        <v>33392.890000000007</v>
+      </c>
+      <c r="O10" s="141"/>
+      <c r="P10" s="60">
+        <f>'[1]June 2021'!$K$15</f>
+        <v>22373.7</v>
+      </c>
+      <c r="Q10" s="140">
+        <f>N10-P10</f>
+        <v>11019.190000000006</v>
+      </c>
+      <c r="R10" s="165"/>
+      <c r="S10" s="32"/>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="140">
+        <v>8266.65</v>
+      </c>
+      <c r="C11" s="160"/>
+      <c r="D11" s="60">
+        <v>6085.12</v>
+      </c>
+      <c r="E11" s="140">
+        <f t="shared" ref="E11:E13" si="0">B11-D11</f>
+        <v>2181.5299999999997</v>
+      </c>
+      <c r="F11" s="141"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="140">
+        <f>B11+G11+H11+I11</f>
+        <v>8266.65</v>
+      </c>
+      <c r="K11" s="141"/>
+      <c r="L11" s="140">
+        <f>SUM(G21:G22)</f>
+        <v>1224</v>
+      </c>
+      <c r="M11" s="161"/>
+      <c r="N11" s="172">
+        <f>J11-L11</f>
+        <v>7042.65</v>
+      </c>
+      <c r="O11" s="173"/>
+      <c r="P11" s="60">
+        <f>'[1]June 2021'!$K$25</f>
+        <v>6085.12</v>
+      </c>
+      <c r="Q11" s="140">
+        <f t="shared" ref="Q11:Q13" si="1">N11-P11</f>
+        <v>957.52999999999975</v>
+      </c>
+      <c r="R11" s="165"/>
+      <c r="S11" s="32"/>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="140">
+        <v>10749.4</v>
+      </c>
+      <c r="C12" s="160"/>
+      <c r="D12" s="60">
+        <v>9600.42</v>
+      </c>
+      <c r="E12" s="140">
+        <f t="shared" si="0"/>
+        <v>1148.9799999999996</v>
+      </c>
+      <c r="F12" s="141"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="60">
+        <v>64</v>
+      </c>
+      <c r="I12" s="60"/>
+      <c r="J12" s="140">
+        <f>B12+G12+H12+I12</f>
+        <v>10813.4</v>
+      </c>
+      <c r="K12" s="141"/>
+      <c r="L12" s="140">
+        <f>SUM(G33:G34)</f>
+        <v>8328</v>
+      </c>
+      <c r="M12" s="165"/>
+      <c r="N12" s="140">
+        <f>J12-L12</f>
+        <v>2485.3999999999996</v>
+      </c>
+      <c r="O12" s="141"/>
+      <c r="P12" s="60">
+        <f>'[1]June 2021'!$K$35</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="140">
+        <f t="shared" si="1"/>
+        <v>2485.3999999999996</v>
+      </c>
+      <c r="R12" s="165"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="140">
+        <v>3788.79</v>
+      </c>
+      <c r="C13" s="160"/>
+      <c r="D13" s="60">
+        <v>0</v>
+      </c>
+      <c r="E13" s="140">
+        <f t="shared" si="0"/>
+        <v>3788.79</v>
+      </c>
+      <c r="F13" s="141"/>
+      <c r="G13" s="110">
+        <v>35320</v>
+      </c>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="140">
+        <f>B13+G13+H13+I13</f>
+        <v>39108.79</v>
+      </c>
+      <c r="K13" s="141"/>
+      <c r="L13" s="140">
+        <f>G24+G25+G26+G27</f>
+        <v>11074</v>
+      </c>
+      <c r="M13" s="165"/>
+      <c r="N13" s="140">
+        <f>J13-L13</f>
+        <v>28034.79</v>
+      </c>
+      <c r="O13" s="141"/>
+      <c r="P13" s="60">
+        <f>'[1]June 2021'!$K$45</f>
+        <v>21192</v>
+      </c>
+      <c r="Q13" s="140">
+        <f t="shared" si="1"/>
+        <v>6842.7900000000009</v>
+      </c>
+      <c r="R13" s="165"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="58"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="160"/>
+      <c r="K14" s="141"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="141"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="140"/>
+      <c r="R14" s="165"/>
+      <c r="T14" s="64"/>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="140">
+        <f>SUM(B10:C14)</f>
+        <v>43031.33</v>
+      </c>
+      <c r="C15" s="141"/>
+      <c r="D15" s="60">
+        <f>SUM(D10:D14)</f>
+        <v>22730.34</v>
+      </c>
+      <c r="E15" s="140">
+        <f>SUM(E10:F14)</f>
+        <v>20300.990000000002</v>
+      </c>
+      <c r="F15" s="159"/>
+      <c r="G15" s="110">
+        <f>SUM(G10:G14)</f>
+        <v>72609.5</v>
+      </c>
+      <c r="H15" s="60">
+        <f>SUM(H10:H14)</f>
+        <v>204.9</v>
+      </c>
+      <c r="I15" s="60">
+        <f>SUM(I10:I14)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="160">
+        <f>SUM(J10:K14)</f>
+        <v>115845.73000000001</v>
+      </c>
+      <c r="K15" s="141"/>
+      <c r="L15" s="140">
+        <f>SUM(L10:M14)</f>
+        <v>44890</v>
+      </c>
+      <c r="M15" s="161"/>
+      <c r="N15" s="140">
+        <f>SUM(N10:O14)</f>
+        <v>70955.73000000001</v>
+      </c>
+      <c r="O15" s="141"/>
+      <c r="P15" s="60">
+        <f>SUM(P10:P14)</f>
+        <v>49650.82</v>
+      </c>
+      <c r="Q15" s="140">
+        <f>SUM(Q10:R13)</f>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="R15" s="141"/>
+      <c r="S15" s="29"/>
+    </row>
+    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+    </row>
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="142" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="150" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="151"/>
+      <c r="M17" s="151"/>
+      <c r="N17" s="151"/>
+      <c r="O17" s="152"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="144"/>
+      <c r="B18" s="145"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="153" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="154"/>
+      <c r="F18" s="153" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="154"/>
+      <c r="H18" s="157" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="158"/>
+      <c r="J18" s="158"/>
+      <c r="K18" s="158"/>
+      <c r="L18" s="153" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="154"/>
+      <c r="N18" s="153" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="154"/>
+    </row>
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="144"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="150" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="151"/>
+      <c r="J19" s="150" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="151"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="156"/>
+      <c r="N19" s="155"/>
+      <c r="O19" s="156"/>
+    </row>
+    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="147"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="111" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="112" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="112" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="S20" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="T20" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="U20" s="37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="119" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="120"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="74">
+        <f>E21/24</f>
+        <v>23</v>
+      </c>
+      <c r="E21" s="10">
+        <v>552</v>
+      </c>
+      <c r="F21" s="74">
+        <f>G21/24</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
+        <f>'[2]June 2021'!$B$30</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="23">
+        <f>I21/24</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="26">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <f>K21/24</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="10">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <f>M21/24</f>
+        <v>13</v>
+      </c>
+      <c r="M21" s="10">
+        <f>240+72</f>
+        <v>312</v>
+      </c>
+      <c r="N21" s="23">
+        <f>O21/24</f>
+        <v>10</v>
+      </c>
+      <c r="O21" s="36">
+        <f>E21+G21-I21-K21-M21</f>
+        <v>240</v>
+      </c>
+      <c r="S21" s="5">
+        <v>264</v>
+      </c>
+      <c r="T21" s="7">
+        <f>2*24</f>
+        <v>48</v>
+      </c>
+      <c r="U21" s="30">
+        <f>S21+T21-O21</f>
+        <v>72</v>
+      </c>
+      <c r="V21" s="75"/>
+      <c r="W21" s="29"/>
+    </row>
+    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="122" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="123"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="76">
+        <f>E22/24</f>
+        <v>103</v>
+      </c>
+      <c r="E22" s="12">
+        <v>2472</v>
+      </c>
+      <c r="F22" s="76">
+        <f>G22/24</f>
+        <v>51</v>
+      </c>
+      <c r="G22" s="12">
+        <f>'[2]June 2021'!$C$30</f>
+        <v>1224</v>
+      </c>
+      <c r="H22" s="24">
+        <f>I22/24</f>
+        <v>60</v>
+      </c>
+      <c r="I22" s="33">
+        <f>1440</f>
+        <v>1440</v>
+      </c>
+      <c r="J22" s="13">
+        <f>K22/24</f>
+        <v>75</v>
+      </c>
+      <c r="K22" s="12">
+        <f>1800</f>
+        <v>1800</v>
+      </c>
+      <c r="L22" s="13">
+        <f>M22/24</f>
+        <v>13</v>
+      </c>
+      <c r="M22" s="12">
+        <f>120+72+120</f>
+        <v>312</v>
+      </c>
+      <c r="N22" s="24">
+        <f>O22/24</f>
+        <v>6</v>
+      </c>
+      <c r="O22" s="36">
+        <f>E22+G22-I22-K22-M22</f>
+        <v>144</v>
+      </c>
+      <c r="S22" s="6">
+        <v>72</v>
+      </c>
+      <c r="T22" s="9">
+        <f>14*24</f>
+        <v>336</v>
+      </c>
+      <c r="U22" s="34">
+        <f>S22+T22-O22</f>
+        <v>264</v>
+      </c>
+      <c r="V22" s="75"/>
+      <c r="W22" s="29"/>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="125" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="126"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="77">
+        <f>SUM(D21:D22)</f>
+        <v>126</v>
+      </c>
+      <c r="E23" s="78">
+        <f t="shared" ref="E23:H23" si="2">SUM(E21:E22)</f>
+        <v>3024</v>
+      </c>
+      <c r="F23" s="77">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="G23" s="78">
+        <f t="shared" si="2"/>
+        <v>1224</v>
+      </c>
+      <c r="H23" s="79">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="I23" s="80">
+        <f>SUM(I21:I22)</f>
+        <v>1440</v>
+      </c>
+      <c r="J23" s="77">
+        <f t="shared" ref="J23:O23" si="3">SUM(J21:J22)</f>
+        <v>75</v>
+      </c>
+      <c r="K23" s="78">
+        <f t="shared" si="3"/>
+        <v>1800</v>
+      </c>
+      <c r="L23" s="77">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="M23" s="78">
+        <f t="shared" si="3"/>
+        <v>624</v>
+      </c>
+      <c r="N23" s="77">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="O23" s="78">
+        <f t="shared" si="3"/>
+        <v>384</v>
+      </c>
+      <c r="S23" s="45"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="29"/>
+    </row>
+    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="119" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="120"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="74">
+        <f>E24/30</f>
+        <v>422</v>
+      </c>
+      <c r="E24" s="10">
+        <v>12660</v>
+      </c>
+      <c r="F24" s="74">
+        <f>G24/30</f>
+        <v>350</v>
+      </c>
+      <c r="G24" s="10">
+        <f>'[2]June 2021'!$D$30</f>
+        <v>10500</v>
+      </c>
+      <c r="H24" s="23">
+        <f>I24/30</f>
+        <v>20</v>
+      </c>
+      <c r="I24" s="10">
+        <f>600</f>
+        <v>600</v>
+      </c>
+      <c r="J24" s="23">
+        <f>K24/30</f>
+        <v>30</v>
+      </c>
+      <c r="K24" s="10">
+        <f>900</f>
+        <v>900</v>
+      </c>
+      <c r="L24" s="23">
+        <f>M24/30</f>
+        <v>662</v>
+      </c>
+      <c r="M24" s="10">
+        <f>8100+60+150+6000+750+4800</f>
+        <v>19860</v>
+      </c>
+      <c r="N24" s="23">
+        <f>O24/30</f>
+        <v>60</v>
+      </c>
+      <c r="O24" s="36">
+        <f>E24+G24-I24-K24-M24</f>
+        <v>1800</v>
+      </c>
+      <c r="S24" s="50">
+        <v>1770</v>
+      </c>
+      <c r="T24" s="51">
+        <f>18*30</f>
+        <v>540</v>
+      </c>
+      <c r="U24" s="47">
+        <f>S24+T24-O24</f>
+        <v>510</v>
+      </c>
+      <c r="V24" s="75"/>
+      <c r="W24" s="29"/>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="137" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="138"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="81">
+        <f>E25/24</f>
+        <v>8</v>
+      </c>
+      <c r="E25" s="36">
+        <v>192</v>
+      </c>
+      <c r="F25" s="81">
+        <f>G25/24</f>
+        <v>23</v>
+      </c>
+      <c r="G25" s="27">
+        <f>'[2]June 2021'!$E$30</f>
+        <v>552</v>
+      </c>
+      <c r="H25" s="39">
+        <f>I25/24</f>
+        <v>20</v>
+      </c>
+      <c r="I25" s="27">
+        <f>480</f>
+        <v>480</v>
+      </c>
+      <c r="J25" s="40">
+        <f t="shared" ref="J25" si="4">K25/24</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="36">
+        <v>0</v>
+      </c>
+      <c r="L25" s="40">
+        <f t="shared" ref="L25" si="5">M25/24</f>
+        <v>5</v>
+      </c>
+      <c r="M25" s="36">
+        <f>120</f>
+        <v>120</v>
+      </c>
+      <c r="N25" s="39">
+        <f>O25/24</f>
+        <v>6</v>
+      </c>
+      <c r="O25" s="36">
+        <f t="shared" ref="O25:O27" si="6">E25+G25-I25-K25-M25</f>
+        <v>144</v>
+      </c>
+      <c r="S25" s="4">
+        <v>144</v>
+      </c>
+      <c r="T25" s="22">
+        <v>0</v>
+      </c>
+      <c r="U25" s="47">
+        <f t="shared" ref="U25:U27" si="7">S25+T25-O25</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="75"/>
+      <c r="W25" s="29"/>
+    </row>
+    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="134" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="135"/>
+      <c r="C26" s="136"/>
+      <c r="D26" s="82">
+        <f>E26/22</f>
+        <v>43</v>
+      </c>
+      <c r="E26" s="3">
+        <v>946</v>
+      </c>
+      <c r="F26" s="82">
+        <f>G26/22</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <f>'[2]June 2021'!$F$30</f>
+        <v>22</v>
+      </c>
+      <c r="H26" s="25">
+        <v>0</v>
+      </c>
+      <c r="I26" s="28">
+        <f>220</f>
+        <v>220</v>
+      </c>
+      <c r="J26" s="1">
+        <f>K26/22</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <f>M26/22</f>
+        <v>33</v>
+      </c>
+      <c r="M26" s="3">
+        <f>330+220+176</f>
+        <v>726</v>
+      </c>
+      <c r="N26" s="25">
+        <f>O26/22</f>
+        <v>1</v>
+      </c>
+      <c r="O26" s="36">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="R26" s="29"/>
+      <c r="S26" s="4">
+        <v>22</v>
+      </c>
+      <c r="T26" s="22">
+        <f>5*22</f>
+        <v>110</v>
+      </c>
+      <c r="U26" s="47">
+        <f t="shared" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="131" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="132"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="83">
+        <f>E27/22</f>
+        <v>22</v>
+      </c>
+      <c r="E27" s="41">
+        <v>484</v>
+      </c>
+      <c r="F27" s="83">
+        <f>G27/22</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="41">
+        <f>'[2]June 2021'!$G$30</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="42">
+        <f>I27/22</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="43">
+        <v>0</v>
+      </c>
+      <c r="J27" s="44">
+        <f>K27/22</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="41">
+        <v>0</v>
+      </c>
+      <c r="L27" s="44">
+        <f>M27/22</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="41">
+        <v>0</v>
+      </c>
+      <c r="N27" s="42">
+        <f>O27/22</f>
+        <v>22</v>
+      </c>
+      <c r="O27" s="38">
+        <f t="shared" si="6"/>
+        <v>484</v>
+      </c>
+      <c r="S27" s="52">
+        <v>418</v>
+      </c>
+      <c r="T27" s="53">
+        <f>3*22</f>
+        <v>66</v>
+      </c>
+      <c r="U27" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="75"/>
+      <c r="W27" s="29"/>
+    </row>
+    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="125" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="126"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="79">
+        <f t="shared" ref="D28:O28" si="8">SUM(D24:D27)</f>
+        <v>495</v>
+      </c>
+      <c r="E28" s="21">
+        <f t="shared" si="8"/>
+        <v>14282</v>
+      </c>
+      <c r="F28" s="79">
+        <f t="shared" si="8"/>
+        <v>374</v>
+      </c>
+      <c r="G28" s="21">
+        <f t="shared" si="8"/>
+        <v>11074</v>
+      </c>
+      <c r="H28" s="79">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="I28" s="21">
+        <f t="shared" si="8"/>
+        <v>1300</v>
+      </c>
+      <c r="J28" s="79">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="K28" s="21">
+        <f t="shared" si="8"/>
+        <v>900</v>
+      </c>
+      <c r="L28" s="79">
+        <f t="shared" si="8"/>
+        <v>700</v>
+      </c>
+      <c r="M28" s="21">
+        <f t="shared" si="8"/>
+        <v>20706</v>
+      </c>
+      <c r="N28" s="79">
+        <f t="shared" si="8"/>
+        <v>89</v>
+      </c>
+      <c r="O28" s="21">
+        <f t="shared" si="8"/>
+        <v>2450</v>
+      </c>
+      <c r="S28" s="46"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="75"/>
+      <c r="W28" s="29"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="120"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="74">
+        <f>E29/24</f>
+        <v>54</v>
+      </c>
+      <c r="E29" s="10">
+        <v>1296</v>
+      </c>
+      <c r="F29" s="74">
+        <f>G29/24</f>
+        <v>179</v>
+      </c>
+      <c r="G29" s="10">
+        <f>'[2]June 2021'!$H$30</f>
+        <v>4296</v>
+      </c>
+      <c r="H29" s="23">
+        <f>I29/24</f>
+        <v>20</v>
+      </c>
+      <c r="I29" s="26">
+        <f>480</f>
+        <v>480</v>
+      </c>
+      <c r="J29" s="11">
+        <f t="shared" ref="J29:J31" si="9">K29/24</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="10">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <f t="shared" ref="L29:L31" si="10">M29/24</f>
+        <v>130</v>
+      </c>
+      <c r="M29" s="10">
+        <f>240+1200+1080+600</f>
+        <v>3120</v>
+      </c>
+      <c r="N29" s="23">
+        <f>O29/24</f>
+        <v>83</v>
+      </c>
+      <c r="O29" s="36">
+        <f>E29+G29-I29-K29-M29</f>
+        <v>1992</v>
+      </c>
+      <c r="S29" s="5">
+        <v>1992</v>
+      </c>
+      <c r="T29" s="16">
+        <v>0</v>
+      </c>
+      <c r="U29" s="30">
+        <f t="shared" ref="U29:U30" si="11">S29+T29-O29</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="75"/>
+      <c r="W29" s="29"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="134" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="135"/>
+      <c r="C30" s="136"/>
+      <c r="D30" s="82">
+        <f>E30/24</f>
+        <v>62</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1488</v>
+      </c>
+      <c r="F30" s="82">
+        <f>G30/24</f>
+        <v>62</v>
+      </c>
+      <c r="G30" s="3">
+        <f>'[2]June 2021'!$I$30</f>
+        <v>1488</v>
+      </c>
+      <c r="H30" s="25">
+        <f>I30/24</f>
+        <v>20</v>
+      </c>
+      <c r="I30" s="28">
+        <f>480</f>
+        <v>480</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="K30" s="3">
+        <f>120</f>
+        <v>120</v>
+      </c>
+      <c r="L30" s="1">
+        <f>M30/24</f>
+        <v>88</v>
+      </c>
+      <c r="M30" s="3">
+        <f>240+240+912+120+600</f>
+        <v>2112</v>
+      </c>
+      <c r="N30" s="25">
+        <f>O30/24</f>
+        <v>11</v>
+      </c>
+      <c r="O30" s="36">
+        <f t="shared" ref="O30:O31" si="12">E30+G30-I30-K30-M30</f>
+        <v>264</v>
+      </c>
+      <c r="S30" s="4">
+        <v>264</v>
+      </c>
+      <c r="T30" s="8">
+        <v>0</v>
+      </c>
+      <c r="U30" s="35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="75"/>
+      <c r="W30" s="29"/>
+    </row>
+    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="134" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="135"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="82">
+        <f>E31/24</f>
+        <v>414</v>
+      </c>
+      <c r="E31" s="3">
+        <v>9936</v>
+      </c>
+      <c r="F31" s="82">
+        <f>G31/24</f>
+        <v>770</v>
+      </c>
+      <c r="G31" s="3">
+        <f>'[2]June 2021'!$J$30</f>
+        <v>18480</v>
+      </c>
+      <c r="H31" s="25">
+        <f>I31/24</f>
+        <v>150</v>
+      </c>
+      <c r="I31" s="28">
+        <f>3600</f>
+        <v>3600</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="9"/>
+        <v>160</v>
+      </c>
+      <c r="K31" s="3">
+        <f>3840</f>
+        <v>3840</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="10"/>
+        <v>590</v>
+      </c>
+      <c r="M31" s="3">
+        <f>1200+120+120+360+3840+3600+120+3600+1200</f>
+        <v>14160</v>
+      </c>
+      <c r="N31" s="25">
+        <f>O31/24</f>
+        <v>284</v>
+      </c>
+      <c r="O31" s="36">
+        <f t="shared" si="12"/>
+        <v>6816</v>
+      </c>
+      <c r="S31" s="4">
+        <v>6312</v>
+      </c>
+      <c r="T31" s="8">
+        <f>51*24</f>
+        <v>1224</v>
+      </c>
+      <c r="U31" s="35">
+        <f>S31+T31-O31</f>
+        <v>720</v>
+      </c>
+      <c r="V31" s="75"/>
+      <c r="W31" s="29"/>
+    </row>
+    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="125" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="126"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="84">
+        <f t="shared" ref="D32:O32" si="13">SUM(D29:D31)</f>
+        <v>530</v>
+      </c>
+      <c r="E32" s="78">
+        <f t="shared" si="13"/>
+        <v>12720</v>
+      </c>
+      <c r="F32" s="84">
+        <f t="shared" si="13"/>
+        <v>1011</v>
+      </c>
+      <c r="G32" s="78">
+        <f t="shared" si="13"/>
+        <v>24264</v>
+      </c>
+      <c r="H32" s="79">
+        <f t="shared" si="13"/>
+        <v>190</v>
+      </c>
+      <c r="I32" s="80">
+        <f t="shared" si="13"/>
+        <v>4560</v>
+      </c>
+      <c r="J32" s="84">
+        <f t="shared" si="13"/>
+        <v>165</v>
+      </c>
+      <c r="K32" s="78">
+        <f t="shared" si="13"/>
+        <v>3960</v>
+      </c>
+      <c r="L32" s="84">
+        <f t="shared" si="13"/>
+        <v>808</v>
+      </c>
+      <c r="M32" s="78">
+        <f t="shared" si="13"/>
+        <v>19392</v>
+      </c>
+      <c r="N32" s="84">
+        <f t="shared" si="13"/>
+        <v>378</v>
+      </c>
+      <c r="O32" s="78">
+        <f t="shared" si="13"/>
+        <v>9072</v>
+      </c>
+      <c r="S32" s="17"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="75"/>
+      <c r="W32" s="29"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="119" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="120"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="85">
+        <f>E33/12</f>
+        <v>184</v>
+      </c>
+      <c r="E33" s="14">
+        <v>2208</v>
+      </c>
+      <c r="F33" s="85">
+        <f>G33/12</f>
+        <v>643</v>
+      </c>
+      <c r="G33" s="14">
+        <f>'[2]June 2021'!$K$30</f>
+        <v>7716</v>
+      </c>
+      <c r="H33" s="23">
+        <f>I33/12</f>
+        <v>15</v>
+      </c>
+      <c r="I33" s="26">
+        <f>180</f>
+        <v>180</v>
+      </c>
+      <c r="J33" s="15">
+        <f t="shared" ref="J33:J34" si="14">K33/12</f>
+        <v>20</v>
+      </c>
+      <c r="K33" s="10">
+        <f>240</f>
+        <v>240</v>
+      </c>
+      <c r="L33" s="15">
+        <f t="shared" ref="L33:L34" si="15">M33/12</f>
+        <v>760</v>
+      </c>
+      <c r="M33" s="10">
+        <f>2400+60+24+3000+24+12+3600</f>
+        <v>9120</v>
+      </c>
+      <c r="N33" s="23">
+        <f>O33/12</f>
+        <v>32</v>
+      </c>
+      <c r="O33" s="36">
+        <f>E33+G33-I33-K33-M33</f>
+        <v>384</v>
+      </c>
+      <c r="S33" s="5">
+        <v>252</v>
+      </c>
+      <c r="T33" s="16">
+        <f>15*12</f>
+        <v>180</v>
+      </c>
+      <c r="U33" s="30">
+        <f>S33+T33-O33</f>
+        <v>48</v>
+      </c>
+      <c r="V33" s="86"/>
+      <c r="W33" s="29"/>
+    </row>
+    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="123"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="76">
+        <f>E34/12</f>
+        <v>150</v>
+      </c>
+      <c r="E34" s="12">
+        <v>1800</v>
+      </c>
+      <c r="F34" s="76">
+        <f>G34/12</f>
+        <v>51</v>
+      </c>
+      <c r="G34" s="12">
+        <f>'[2]June 2021'!$L$30</f>
+        <v>612</v>
+      </c>
+      <c r="H34" s="24">
+        <f>I34/12</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="33">
+        <v>0</v>
+      </c>
+      <c r="J34" s="13">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="12">
+        <v>0</v>
+      </c>
+      <c r="L34" s="13">
+        <f t="shared" si="15"/>
+        <v>201</v>
+      </c>
+      <c r="M34" s="12">
+        <f>1800+612</f>
+        <v>2412</v>
+      </c>
+      <c r="N34" s="24">
+        <f>O34/12</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="36">
+        <f>E34+G34-I34-K34-M34</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="4">
+        <v>0</v>
+      </c>
+      <c r="T34" s="22">
+        <v>0</v>
+      </c>
+      <c r="U34" s="35">
+        <f>S34+T34-O34</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="75"/>
+      <c r="W34" s="29"/>
+    </row>
+    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="125" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="126"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="84">
+        <f>SUM(D33:D34)</f>
+        <v>334</v>
+      </c>
+      <c r="E35" s="78">
+        <f t="shared" ref="E35:H35" si="16">SUM(E33:E34)</f>
+        <v>4008</v>
+      </c>
+      <c r="F35" s="84">
+        <f t="shared" si="16"/>
+        <v>694</v>
+      </c>
+      <c r="G35" s="78">
+        <f t="shared" si="16"/>
+        <v>8328</v>
+      </c>
+      <c r="H35" s="79">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="I35" s="80">
+        <f>SUM(I33:I34)</f>
+        <v>180</v>
+      </c>
+      <c r="J35" s="84">
+        <f t="shared" ref="J35:O35" si="17">SUM(J33:J34)</f>
+        <v>20</v>
+      </c>
+      <c r="K35" s="78">
+        <f t="shared" si="17"/>
+        <v>240</v>
+      </c>
+      <c r="L35" s="84">
+        <f t="shared" si="17"/>
+        <v>961</v>
+      </c>
+      <c r="M35" s="78">
+        <f t="shared" si="17"/>
+        <v>11532</v>
+      </c>
+      <c r="N35" s="84">
+        <f t="shared" si="17"/>
+        <v>32</v>
+      </c>
+      <c r="O35" s="78">
+        <f t="shared" si="17"/>
+        <v>384</v>
+      </c>
+      <c r="S35" s="19"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="34"/>
+      <c r="W35" s="29"/>
+    </row>
+    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="129"/>
+      <c r="C36" s="130"/>
+      <c r="D36" s="87">
+        <f t="shared" ref="D36:O36" si="18">D21+D22+D24+D25+D26+D27+D29+D30+D31+D33+D34</f>
+        <v>1485</v>
+      </c>
+      <c r="E36" s="87">
+        <f t="shared" si="18"/>
+        <v>34034</v>
+      </c>
+      <c r="F36" s="87">
+        <f t="shared" si="18"/>
+        <v>2130</v>
+      </c>
+      <c r="G36" s="87">
+        <f t="shared" si="18"/>
+        <v>44890</v>
+      </c>
+      <c r="H36" s="87">
+        <f t="shared" si="18"/>
+        <v>305</v>
+      </c>
+      <c r="I36" s="87">
+        <f>I21+I22+I24+I25+I26+I27+I29+I30+I31+I33+I34</f>
+        <v>7480</v>
+      </c>
+      <c r="J36" s="87">
+        <f t="shared" si="18"/>
+        <v>290</v>
+      </c>
+      <c r="K36" s="87">
+        <f t="shared" si="18"/>
+        <v>6900</v>
+      </c>
+      <c r="L36" s="87">
+        <f t="shared" si="18"/>
+        <v>2495</v>
+      </c>
+      <c r="M36" s="87">
+        <f t="shared" si="18"/>
+        <v>52254</v>
+      </c>
+      <c r="N36" s="87">
+        <f t="shared" si="18"/>
+        <v>515</v>
+      </c>
+      <c r="O36" s="87">
+        <f t="shared" si="18"/>
+        <v>12290</v>
+      </c>
+      <c r="S36" s="88">
+        <f>SUM(S21:S34)</f>
+        <v>11510</v>
+      </c>
+      <c r="T36" s="89">
+        <f>SUM(T21:T34)</f>
+        <v>2504</v>
+      </c>
+      <c r="U36" s="31">
+        <f>S36+T36-O36</f>
+        <v>1724</v>
+      </c>
+      <c r="W36" s="29"/>
+    </row>
+    <row r="37" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U37" s="32"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V38" s="29"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P40" s="75"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G41" s="29"/>
+    </row>
+    <row r="42" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P42" s="90"/>
+    </row>
+  </sheetData>
+  <mergeCells count="91">
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="A17:C20"/>
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+  </mergeCells>
+  <pageMargins left="0.41" right="0.25" top="0" bottom="0" header="0.23" footer="0.2"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/D.K STATEMENT -2021-22.xlsx
+++ b/D.K STATEMENT -2021-22.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riya\Desktop\excel-main\excel-main\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D231CCC-832C-4FC3-8599-4E4DDA2FE6E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021-22" sheetId="82" r:id="rId1"/>
@@ -21,7 +15,7 @@
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -210,26 +204,26 @@
     <t>PACKED TEA  STATEMENT AS ON (01.05.2021 TO 31.05.2021)</t>
   </si>
   <si>
-    <t>Destination Wise Production , Despatch and Stock Report for the month of June 01.06.2021 to 15.06.2021</t>
+    <t>Destination Wise Production , Despatch and Stock Report for the month of June 01.06.2021 to 30.06.2021</t>
   </si>
   <si>
-    <t>BLENDED TEA  STATEMENT AS ON (01.06.2021 TO 15.06.2021)</t>
+    <t>ORIGINAL/BLACK TEA  STATEMENT  AS ON  (01.06.2021 to 30.06.2021)</t>
   </si>
   <si>
-    <t>PACKED TEA  STATEMENT AS ON (01.06.2021 TO 15.06.2021)</t>
+    <t>BLENDED TEA  STATEMENT AS ON (01.06.2021 TO 30.06.2021)</t>
   </si>
   <si>
-    <t>ORIGINAL/BLACK TEA  STATEMENT  AS ON  (01.06.2021 to 15.06.2021)</t>
+    <t>PACKED TEA  STATEMENT AS ON (01.06.2021 TO 30.06.2021)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1322,49 +1316,147 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1374,21 +1466,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1442,141 +1519,58 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1597,7 +1591,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="April 2021-22"/>
@@ -1662,7 +1656,7 @@
         </row>
         <row r="35">
           <cell r="K35">
-            <v>0</v>
+            <v>18585</v>
           </cell>
         </row>
         <row r="45">
@@ -1677,7 +1671,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="April 2021-22"/>
@@ -1768,7 +1762,7 @@
             <v>1224</v>
           </cell>
           <cell r="D30">
-            <v>10500</v>
+            <v>18000</v>
           </cell>
           <cell r="E30">
             <v>552</v>
@@ -1783,10 +1777,10 @@
             <v>4296</v>
           </cell>
           <cell r="I30">
-            <v>1488</v>
+            <v>2016</v>
           </cell>
           <cell r="J30">
-            <v>18480</v>
+            <v>23112</v>
           </cell>
           <cell r="K30">
             <v>7716</v>
@@ -1844,7 +1838,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1876,27 +1870,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1928,24 +1904,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2121,14 +2079,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
@@ -2154,258 +2112,258 @@
     <col min="25" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="187" t="s">
+    <row r="1" spans="1:23" ht="18.75">
+      <c r="A1" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="187"/>
-      <c r="P1" s="187"/>
-      <c r="Q1" s="187"/>
-      <c r="R1" s="187"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="188"/>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="188"/>
-      <c r="M2" s="188"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="188"/>
-    </row>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="189" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A2" s="121"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A3" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="159"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="124"/>
       <c r="M3" s="55"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="191"/>
-      <c r="B4" s="192"/>
-      <c r="C4" s="195" t="s">
+    <row r="4" spans="1:23">
+      <c r="A4" s="125"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="196"/>
+      <c r="D4" s="130"/>
       <c r="E4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="197" t="s">
+      <c r="F4" s="131" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="191" t="s">
+      <c r="H4" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="199"/>
-      <c r="J4" s="192"/>
-      <c r="K4" s="195" t="s">
+      <c r="I4" s="133"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="196"/>
+      <c r="L4" s="130"/>
       <c r="M4" s="55"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="193"/>
-      <c r="B5" s="194"/>
-      <c r="C5" s="200" t="s">
+    <row r="5" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A5" s="127"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="201"/>
+      <c r="D5" s="135"/>
       <c r="E5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="198"/>
+      <c r="F5" s="132"/>
       <c r="G5" s="95"/>
-      <c r="H5" s="174" t="s">
+      <c r="H5" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="175"/>
-      <c r="J5" s="176"/>
-      <c r="K5" s="200" t="s">
+      <c r="I5" s="137"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="201"/>
+      <c r="L5" s="135"/>
       <c r="M5" s="55"/>
       <c r="T5" s="29"/>
       <c r="U5" s="29"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="202"/>
-      <c r="B6" s="203"/>
-      <c r="C6" s="204">
+    <row r="6" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A6" s="139"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="141">
         <v>666070.9</v>
       </c>
-      <c r="D6" s="205"/>
+      <c r="D6" s="142"/>
       <c r="E6" s="54"/>
       <c r="F6" s="97"/>
       <c r="G6" s="91">
         <f>C6+E6+F6</f>
         <v>666070.9</v>
       </c>
-      <c r="H6" s="204">
+      <c r="H6" s="141">
         <f>G15</f>
         <v>160041.90000000002</v>
       </c>
-      <c r="I6" s="160"/>
-      <c r="J6" s="205"/>
-      <c r="K6" s="140">
+      <c r="I6" s="143"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="144">
         <f>G6-H6</f>
         <v>506029</v>
       </c>
-      <c r="L6" s="141"/>
+      <c r="L6" s="145"/>
       <c r="M6" s="55"/>
       <c r="O6" s="29"/>
       <c r="Q6" s="29"/>
     </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="186" t="s">
+    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A7" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="186"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="186"/>
-      <c r="J7" s="186"/>
-      <c r="K7" s="186"/>
-      <c r="L7" s="186"/>
-      <c r="M7" s="186"/>
-      <c r="N7" s="186"/>
-      <c r="O7" s="186"/>
-      <c r="P7" s="186"/>
-      <c r="Q7" s="186"/>
-      <c r="R7" s="186"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
       <c r="U7" s="29"/>
     </row>
-    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="179" t="s">
+    <row r="8" spans="1:23" ht="22.5" customHeight="1">
+      <c r="A8" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="181" t="s">
+      <c r="B8" s="150" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="182"/>
-      <c r="D8" s="166" t="s">
+      <c r="C8" s="151"/>
+      <c r="D8" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="168" t="s">
+      <c r="E8" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="169"/>
-      <c r="G8" s="166" t="s">
+      <c r="F8" s="155"/>
+      <c r="G8" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="166" t="s">
+      <c r="H8" s="152" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="182" t="s">
+      <c r="J8" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="183"/>
-      <c r="L8" s="181" t="s">
+      <c r="K8" s="158"/>
+      <c r="L8" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="182"/>
-      <c r="N8" s="184" t="s">
+      <c r="M8" s="151"/>
+      <c r="N8" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="185"/>
-      <c r="P8" s="166" t="s">
+      <c r="O8" s="160"/>
+      <c r="P8" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="168" t="s">
+      <c r="Q8" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="169"/>
-    </row>
-    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="180"/>
-      <c r="B9" s="174" t="s">
+      <c r="R8" s="155"/>
+    </row>
+    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A9" s="149"/>
+      <c r="B9" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="175"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
       <c r="I9" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="175" t="s">
+      <c r="J9" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="176"/>
-      <c r="L9" s="174" t="s">
+      <c r="K9" s="138"/>
+      <c r="L9" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="175"/>
-      <c r="N9" s="177" t="s">
+      <c r="M9" s="137"/>
+      <c r="N9" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="178"/>
-      <c r="P9" s="167"/>
-      <c r="Q9" s="170"/>
-      <c r="R9" s="171"/>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O9" s="147"/>
+      <c r="P9" s="153"/>
+      <c r="Q9" s="156"/>
+      <c r="R9" s="157"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="140">
+      <c r="B10" s="144">
         <v>2060.5</v>
       </c>
-      <c r="C10" s="160"/>
+      <c r="C10" s="143"/>
       <c r="D10" s="60">
         <v>0</v>
       </c>
-      <c r="E10" s="140">
+      <c r="E10" s="144">
         <f>B10-D10</f>
         <v>2060.5</v>
       </c>
-      <c r="F10" s="141"/>
+      <c r="F10" s="145"/>
       <c r="G10" s="92">
         <f>36127.6+36854+36195.2</f>
         <v>109176.8</v>
@@ -2415,211 +2373,211 @@
         <v>292.40999999999997</v>
       </c>
       <c r="I10" s="60"/>
-      <c r="J10" s="140">
+      <c r="J10" s="144">
         <f>B10+G10+H10+I10</f>
         <v>111529.71</v>
       </c>
-      <c r="K10" s="141"/>
-      <c r="L10" s="140">
+      <c r="K10" s="145"/>
+      <c r="L10" s="144">
         <f>G29+G30+G31</f>
         <v>74136</v>
       </c>
-      <c r="M10" s="161"/>
-      <c r="N10" s="140">
+      <c r="M10" s="162"/>
+      <c r="N10" s="144">
         <f>J10-L10</f>
         <v>37393.710000000006</v>
       </c>
-      <c r="O10" s="141"/>
+      <c r="O10" s="145"/>
       <c r="P10" s="60">
         <f>'[1]April 2021-22'!$K$41</f>
         <v>28956.159999999996</v>
       </c>
-      <c r="Q10" s="140">
+      <c r="Q10" s="144">
         <f>N10-P10</f>
         <v>8437.5500000000102</v>
       </c>
-      <c r="R10" s="165"/>
+      <c r="R10" s="161"/>
       <c r="S10" s="32"/>
     </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="15.75" thickBot="1">
       <c r="A11" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="140">
+      <c r="B11" s="144">
         <v>6061.85</v>
       </c>
-      <c r="C11" s="160"/>
+      <c r="C11" s="143"/>
       <c r="D11" s="60">
         <v>0</v>
       </c>
-      <c r="E11" s="140">
+      <c r="E11" s="144">
         <f t="shared" ref="E11:E13" si="0">B11-D11</f>
         <v>6061.85</v>
       </c>
-      <c r="F11" s="141"/>
+      <c r="F11" s="145"/>
       <c r="G11" s="92">
         <v>15212.8</v>
       </c>
       <c r="H11" s="60"/>
       <c r="I11" s="60"/>
-      <c r="J11" s="140">
+      <c r="J11" s="144">
         <f>B11+G11+H11+I11</f>
         <v>21274.65</v>
       </c>
-      <c r="K11" s="141"/>
-      <c r="L11" s="140">
+      <c r="K11" s="145"/>
+      <c r="L11" s="144">
         <f>SUM(G21:G22)</f>
         <v>8664</v>
       </c>
-      <c r="M11" s="161"/>
-      <c r="N11" s="172">
+      <c r="M11" s="162"/>
+      <c r="N11" s="163">
         <f>J11-L11</f>
         <v>12610.650000000001</v>
       </c>
-      <c r="O11" s="173"/>
+      <c r="O11" s="164"/>
       <c r="P11" s="61">
         <f>'[1]April 2021-22'!$K$65</f>
         <v>12170.24</v>
       </c>
-      <c r="Q11" s="140">
+      <c r="Q11" s="144">
         <f t="shared" ref="Q11:Q13" si="1">N11-P11</f>
         <v>440.41000000000167</v>
       </c>
-      <c r="R11" s="165"/>
+      <c r="R11" s="161"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="140">
+      <c r="B12" s="144">
         <v>11800.7</v>
       </c>
-      <c r="C12" s="160"/>
+      <c r="C12" s="143"/>
       <c r="D12" s="60">
         <v>0</v>
       </c>
-      <c r="E12" s="140">
+      <c r="E12" s="144">
         <f t="shared" si="0"/>
         <v>11800.7</v>
       </c>
-      <c r="F12" s="141"/>
+      <c r="F12" s="145"/>
       <c r="G12" s="92"/>
       <c r="H12" s="60"/>
       <c r="I12" s="60"/>
-      <c r="J12" s="140">
+      <c r="J12" s="144">
         <f>B12+G12+H12+I12</f>
         <v>11800.7</v>
       </c>
-      <c r="K12" s="141"/>
-      <c r="L12" s="140">
+      <c r="K12" s="145"/>
+      <c r="L12" s="144">
         <f>SUM(G33:G34)</f>
         <v>7560</v>
       </c>
-      <c r="M12" s="165"/>
-      <c r="N12" s="140">
+      <c r="M12" s="161"/>
+      <c r="N12" s="144">
         <f>J12-L12</f>
         <v>4240.7000000000007</v>
       </c>
-      <c r="O12" s="141"/>
+      <c r="O12" s="145"/>
       <c r="P12" s="61">
         <f>'[1]April 2021-22'!$K$57</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="140">
+      <c r="Q12" s="144">
         <f t="shared" si="1"/>
         <v>4240.7000000000007</v>
       </c>
-      <c r="R12" s="165"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R12" s="161"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1">
       <c r="A13" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="140">
+      <c r="B13" s="144">
         <v>30749.88</v>
       </c>
-      <c r="C13" s="160"/>
+      <c r="C13" s="143"/>
       <c r="D13" s="60">
         <v>0</v>
       </c>
-      <c r="E13" s="140">
+      <c r="E13" s="144">
         <f t="shared" si="0"/>
         <v>30749.88</v>
       </c>
-      <c r="F13" s="141"/>
+      <c r="F13" s="145"/>
       <c r="G13" s="92">
         <f>35652.3</f>
         <v>35652.300000000003</v>
       </c>
       <c r="H13" s="60"/>
       <c r="I13" s="60"/>
-      <c r="J13" s="140">
+      <c r="J13" s="144">
         <f>B13+G13+H13+I13</f>
         <v>66402.180000000008</v>
       </c>
-      <c r="K13" s="141"/>
-      <c r="L13" s="140">
+      <c r="K13" s="145"/>
+      <c r="L13" s="144">
         <f>G24+G25+G26+G27</f>
         <v>38302</v>
       </c>
-      <c r="M13" s="165"/>
-      <c r="N13" s="140">
+      <c r="M13" s="161"/>
+      <c r="N13" s="144">
         <f>J13-L13</f>
         <v>28100.180000000008</v>
       </c>
-      <c r="O13" s="141"/>
+      <c r="O13" s="145"/>
       <c r="P13" s="61">
         <f>'[1]April 2021-22'!$K$49</f>
         <v>21391.380000000005</v>
       </c>
-      <c r="Q13" s="140">
+      <c r="Q13" s="144">
         <f t="shared" si="1"/>
         <v>6708.8000000000029</v>
       </c>
-      <c r="R13" s="165"/>
+      <c r="R13" s="161"/>
       <c r="U13" s="29"/>
       <c r="W13" s="29"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="58"/>
-      <c r="B14" s="162"/>
-      <c r="C14" s="163"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="166"/>
       <c r="D14" s="61"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="164"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="167"/>
       <c r="G14" s="92"/>
       <c r="H14" s="60"/>
       <c r="I14" s="60"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="140"/>
-      <c r="M14" s="141"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="145"/>
       <c r="N14" s="62"/>
       <c r="O14" s="63"/>
       <c r="P14" s="60"/>
-      <c r="Q14" s="140"/>
-      <c r="R14" s="165"/>
+      <c r="Q14" s="144"/>
+      <c r="R14" s="161"/>
       <c r="T14" s="64"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="15.75" thickBot="1">
       <c r="A15" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="140">
+      <c r="B15" s="144">
         <f>SUM(B10:C14)</f>
         <v>50672.930000000008</v>
       </c>
-      <c r="C15" s="141"/>
+      <c r="C15" s="145"/>
       <c r="D15" s="60">
         <f>SUM(D10:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="140">
+      <c r="E15" s="144">
         <f>SUM(E10:F14)</f>
         <v>50672.930000000008</v>
       </c>
-      <c r="F15" s="159"/>
+      <c r="F15" s="124"/>
       <c r="G15" s="92">
         <f>SUM(G10:G14)</f>
         <v>160041.90000000002</v>
@@ -2632,33 +2590,33 @@
         <f>SUM(I10:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="160">
+      <c r="J15" s="143">
         <f>SUM(J10:K14)</f>
         <v>211007.24000000005</v>
       </c>
-      <c r="K15" s="141"/>
-      <c r="L15" s="140">
+      <c r="K15" s="145"/>
+      <c r="L15" s="144">
         <f>SUM(L10:M14)</f>
         <v>128662</v>
       </c>
-      <c r="M15" s="161"/>
-      <c r="N15" s="140">
+      <c r="M15" s="162"/>
+      <c r="N15" s="144">
         <f>SUM(N10:O14)</f>
         <v>82345.24000000002</v>
       </c>
-      <c r="O15" s="141"/>
+      <c r="O15" s="145"/>
       <c r="P15" s="60">
         <f>SUM(P10:P14)</f>
         <v>62517.78</v>
       </c>
-      <c r="Q15" s="140">
+      <c r="Q15" s="144">
         <f>SUM(Q10:R13)</f>
         <v>19827.460000000014</v>
       </c>
-      <c r="R15" s="141"/>
+      <c r="R15" s="145"/>
       <c r="S15" s="29"/>
     </row>
-    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1">
       <c r="A16" s="65"/>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -2673,83 +2631,83 @@
       <c r="L16" s="67"/>
       <c r="M16" s="67"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="142" t="s">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A17" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="143"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="150" t="s">
+      <c r="B17" s="172"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="179" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="151"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="151"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="151"/>
-      <c r="O17" s="152"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="180"/>
+      <c r="J17" s="180"/>
+      <c r="K17" s="180"/>
+      <c r="L17" s="180"/>
+      <c r="M17" s="180"/>
+      <c r="N17" s="180"/>
+      <c r="O17" s="181"/>
       <c r="P17" s="68"/>
       <c r="Q17" s="68"/>
       <c r="R17" s="68"/>
       <c r="S17" s="68"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="144"/>
-      <c r="B18" s="145"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="153" t="s">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A18" s="173"/>
+      <c r="B18" s="174"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="154"/>
-      <c r="F18" s="153" t="s">
+      <c r="E18" s="183"/>
+      <c r="F18" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="154"/>
-      <c r="H18" s="157" t="s">
+      <c r="G18" s="183"/>
+      <c r="H18" s="186" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="153" t="s">
+      <c r="I18" s="187"/>
+      <c r="J18" s="187"/>
+      <c r="K18" s="187"/>
+      <c r="L18" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="154"/>
-      <c r="N18" s="153" t="s">
+      <c r="M18" s="183"/>
+      <c r="N18" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="O18" s="154"/>
-    </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="144"/>
-      <c r="B19" s="145"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="150" t="s">
+      <c r="O18" s="183"/>
+    </row>
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A19" s="173"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="179" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="151"/>
-      <c r="J19" s="150" t="s">
+      <c r="I19" s="180"/>
+      <c r="J19" s="179" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="151"/>
-      <c r="L19" s="155"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="155"/>
-      <c r="O19" s="156"/>
-    </row>
-    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="147"/>
-      <c r="B20" s="148"/>
-      <c r="C20" s="149"/>
+      <c r="K19" s="180"/>
+      <c r="L19" s="184"/>
+      <c r="M19" s="185"/>
+      <c r="N19" s="184"/>
+      <c r="O19" s="185"/>
+    </row>
+    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A20" s="176"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="178"/>
       <c r="D20" s="98" t="s">
         <v>26</v>
       </c>
@@ -2796,12 +2754,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="119" t="s">
+    <row r="21" spans="1:23">
+      <c r="A21" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="120"/>
-      <c r="C21" s="121"/>
+      <c r="B21" s="189"/>
+      <c r="C21" s="190"/>
       <c r="D21" s="74">
         <f>E21/24</f>
         <v>4</v>
@@ -2862,12 +2820,12 @@
       <c r="V21" s="75"/>
       <c r="W21" s="29"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="122" t="s">
+    <row r="22" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A22" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="123"/>
-      <c r="C22" s="124"/>
+      <c r="B22" s="192"/>
+      <c r="C22" s="193"/>
       <c r="D22" s="76">
         <f>E22/24</f>
         <v>1</v>
@@ -2929,12 +2887,12 @@
       <c r="V22" s="75"/>
       <c r="W22" s="29"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="125" t="s">
+    <row r="23" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A23" s="194" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="126"/>
-      <c r="C23" s="127"/>
+      <c r="B23" s="195"/>
+      <c r="C23" s="196"/>
       <c r="D23" s="77">
         <f>SUM(D21:D22)</f>
         <v>5</v>
@@ -2989,12 +2947,12 @@
       <c r="V23" s="75"/>
       <c r="W23" s="29"/>
     </row>
-    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="119" t="s">
+    <row r="24" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A24" s="188" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="120"/>
-      <c r="C24" s="121"/>
+      <c r="B24" s="189"/>
+      <c r="C24" s="190"/>
       <c r="D24" s="74">
         <f>E24/30</f>
         <v>38</v>
@@ -3056,12 +3014,12 @@
       <c r="V24" s="75"/>
       <c r="W24" s="29"/>
     </row>
-    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="137" t="s">
+    <row r="25" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A25" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="138"/>
-      <c r="C25" s="139"/>
+      <c r="B25" s="198"/>
+      <c r="C25" s="199"/>
       <c r="D25" s="81">
         <f>E25/24</f>
         <v>0</v>
@@ -3121,12 +3079,12 @@
       <c r="V25" s="75"/>
       <c r="W25" s="29"/>
     </row>
-    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="134" t="s">
+    <row r="26" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A26" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="135"/>
-      <c r="C26" s="136"/>
+      <c r="B26" s="169"/>
+      <c r="C26" s="170"/>
       <c r="D26" s="82">
         <f>E26/22</f>
         <v>51</v>
@@ -3187,12 +3145,12 @@
       <c r="V26" s="29"/>
       <c r="W26" s="29"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="131" t="s">
+    <row r="27" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A27" s="203" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="132"/>
-      <c r="C27" s="133"/>
+      <c r="B27" s="204"/>
+      <c r="C27" s="205"/>
       <c r="D27" s="83">
         <f>E27/22</f>
         <v>23</v>
@@ -3253,12 +3211,12 @@
       <c r="V27" s="75"/>
       <c r="W27" s="29"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="125" t="s">
+    <row r="28" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A28" s="194" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="126"/>
-      <c r="C28" s="127"/>
+      <c r="B28" s="195"/>
+      <c r="C28" s="196"/>
       <c r="D28" s="79">
         <f t="shared" ref="D28:O28" si="8">SUM(D24:D27)</f>
         <v>112</v>
@@ -3313,12 +3271,12 @@
       <c r="V28" s="75"/>
       <c r="W28" s="29"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="119" t="s">
+    <row r="29" spans="1:23">
+      <c r="A29" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="120"/>
-      <c r="C29" s="121"/>
+      <c r="B29" s="189"/>
+      <c r="C29" s="190"/>
       <c r="D29" s="74">
         <f>E29/24</f>
         <v>0</v>
@@ -3379,12 +3337,12 @@
       <c r="V29" s="75"/>
       <c r="W29" s="29"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="134" t="s">
+    <row r="30" spans="1:23">
+      <c r="A30" s="168" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="135"/>
-      <c r="C30" s="136"/>
+      <c r="B30" s="169"/>
+      <c r="C30" s="170"/>
       <c r="D30" s="82">
         <f>E30/24</f>
         <v>49</v>
@@ -3445,12 +3403,12 @@
       <c r="V30" s="75"/>
       <c r="W30" s="29"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="134" t="s">
+    <row r="31" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A31" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="135"/>
-      <c r="C31" s="136"/>
+      <c r="B31" s="169"/>
+      <c r="C31" s="170"/>
       <c r="D31" s="82">
         <f>E31/24</f>
         <v>18</v>
@@ -3512,12 +3470,12 @@
       <c r="V31" s="75"/>
       <c r="W31" s="29"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="125" t="s">
+    <row r="32" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A32" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="126"/>
-      <c r="C32" s="127"/>
+      <c r="B32" s="195"/>
+      <c r="C32" s="196"/>
       <c r="D32" s="84">
         <f t="shared" ref="D32:O32" si="13">SUM(D29:D31)</f>
         <v>67</v>
@@ -3572,12 +3530,12 @@
       <c r="V32" s="75"/>
       <c r="W32" s="29"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="119" t="s">
+    <row r="33" spans="1:23">
+      <c r="A33" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="120"/>
-      <c r="C33" s="121"/>
+      <c r="B33" s="189"/>
+      <c r="C33" s="190"/>
       <c r="D33" s="85">
         <f>E33/12</f>
         <v>35</v>
@@ -3639,12 +3597,12 @@
       <c r="V33" s="86"/>
       <c r="W33" s="29"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="122" t="s">
+    <row r="34" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A34" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="123"/>
-      <c r="C34" s="124"/>
+      <c r="B34" s="192"/>
+      <c r="C34" s="193"/>
       <c r="D34" s="76">
         <f>E34/12</f>
         <v>0</v>
@@ -3703,12 +3661,12 @@
       <c r="V34" s="75"/>
       <c r="W34" s="29"/>
     </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="125" t="s">
+    <row r="35" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A35" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="126"/>
-      <c r="C35" s="127"/>
+      <c r="B35" s="195"/>
+      <c r="C35" s="196"/>
       <c r="D35" s="84">
         <f>SUM(D33:D34)</f>
         <v>35</v>
@@ -3762,12 +3720,12 @@
       <c r="U35" s="34"/>
       <c r="W35" s="29"/>
     </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="128" t="s">
+    <row r="36" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A36" s="200" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="129"/>
-      <c r="C36" s="130"/>
+      <c r="B36" s="201"/>
+      <c r="C36" s="202"/>
       <c r="D36" s="87">
         <f t="shared" ref="D36:O36" si="18">D21+D22+D24+D25+D26+D27+D29+D30+D31+D33+D34</f>
         <v>219</v>
@@ -3830,19 +3788,1840 @@
       </c>
       <c r="W36" s="29"/>
     </row>
-    <row r="37" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="9" customHeight="1">
       <c r="U37" s="32"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23">
       <c r="V38" s="29"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23">
       <c r="P40" s="75"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23">
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="18.75">
+      <c r="P42" s="90"/>
+    </row>
+  </sheetData>
+  <mergeCells count="91">
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="A17:C20"/>
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:L6"/>
+  </mergeCells>
+  <pageMargins left="0.16" right="0.16" top="0.25" bottom="0.23" header="0.23" footer="0.2"/>
+  <pageSetup orientation="landscape" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W42"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6" style="2" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7" style="2" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" style="2" customWidth="1"/>
+    <col min="16" max="17" width="7.85546875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="6" style="2" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="2"/>
+    <col min="24" max="24" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="18.75">
+      <c r="A1" s="120" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A2" s="121"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A3" s="122" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="55"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="125"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="129" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="130"/>
+      <c r="E4" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="133"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="129" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="130"/>
+      <c r="M4" s="55"/>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A5" s="127"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="134" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="135"/>
+      <c r="E5" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="132"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="136" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="137"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="134" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="135"/>
+      <c r="M5" s="55"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A6" s="139"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="141">
+        <v>506029</v>
+      </c>
+      <c r="D6" s="142"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="104">
+        <f>C6+E6+F6</f>
+        <v>506029</v>
+      </c>
+      <c r="H6" s="141">
+        <f>G15</f>
+        <v>51224.7</v>
+      </c>
+      <c r="I6" s="143"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="144">
+        <f>G6-H6</f>
+        <v>454804.3</v>
+      </c>
+      <c r="L6" s="145"/>
+      <c r="M6" s="55"/>
+      <c r="O6" s="29"/>
+      <c r="Q6" s="29"/>
+    </row>
+    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A7" s="119" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="U7" s="29"/>
+    </row>
+    <row r="8" spans="1:23" ht="22.5" customHeight="1">
+      <c r="A8" s="148" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="150" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="151"/>
+      <c r="D8" s="152" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="154" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="155"/>
+      <c r="G8" s="152" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="152" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="151" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="158"/>
+      <c r="L8" s="150" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="151"/>
+      <c r="N8" s="159" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="160"/>
+      <c r="P8" s="152" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="154" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="155"/>
+    </row>
+    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A9" s="149"/>
+      <c r="B9" s="136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="137"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="102" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="138"/>
+      <c r="L9" s="136" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="137"/>
+      <c r="N9" s="146" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="147"/>
+      <c r="P9" s="153"/>
+      <c r="Q9" s="156"/>
+      <c r="R9" s="157"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A10" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="144">
+        <v>37393.71</v>
+      </c>
+      <c r="C10" s="143"/>
+      <c r="D10" s="60">
+        <v>28956.16</v>
+      </c>
+      <c r="E10" s="144">
+        <f>B10-D10</f>
+        <v>8437.5499999999993</v>
+      </c>
+      <c r="F10" s="145"/>
+      <c r="G10" s="105">
+        <v>35224</v>
+      </c>
+      <c r="H10" s="60">
+        <v>144.78</v>
+      </c>
+      <c r="I10" s="60"/>
+      <c r="J10" s="144">
+        <f>B10+G10+H10+I10</f>
+        <v>72762.489999999991</v>
+      </c>
+      <c r="K10" s="145"/>
+      <c r="L10" s="144">
+        <f>G29+G30+G31</f>
+        <v>52536</v>
+      </c>
+      <c r="M10" s="162"/>
+      <c r="N10" s="144">
+        <f>J10-L10</f>
+        <v>20226.489999999991</v>
+      </c>
+      <c r="O10" s="145"/>
+      <c r="P10" s="60">
+        <f>'[1]May 2021'!$K$15</f>
+        <v>7044.7999999999993</v>
+      </c>
+      <c r="Q10" s="144">
+        <f>N10-P10</f>
+        <v>13181.689999999991</v>
+      </c>
+      <c r="R10" s="161"/>
+      <c r="S10" s="32"/>
+      <c r="U10" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A11" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="144">
+        <v>12610.65</v>
+      </c>
+      <c r="C11" s="143"/>
+      <c r="D11" s="60">
+        <v>12170.24</v>
+      </c>
+      <c r="E11" s="144">
+        <f t="shared" ref="E11:E13" si="0">B11-D11</f>
+        <v>440.40999999999985</v>
+      </c>
+      <c r="F11" s="145"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="144">
+        <f>B11+G11+H11+I11</f>
+        <v>12610.65</v>
+      </c>
+      <c r="K11" s="145"/>
+      <c r="L11" s="144">
+        <f>SUM(G21:G22)</f>
+        <v>4344</v>
+      </c>
+      <c r="M11" s="162"/>
+      <c r="N11" s="163">
+        <f>J11-L11</f>
+        <v>8266.65</v>
+      </c>
+      <c r="O11" s="164"/>
+      <c r="P11" s="60">
+        <f>'[1]May 2021'!$K$25</f>
+        <v>6085.12</v>
+      </c>
+      <c r="Q11" s="144">
+        <f t="shared" ref="Q11:Q13" si="1">N11-P11</f>
+        <v>2181.5299999999997</v>
+      </c>
+      <c r="R11" s="161"/>
+      <c r="S11" s="32"/>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A12" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="144">
+        <v>4240.7</v>
+      </c>
+      <c r="C12" s="143"/>
+      <c r="D12" s="60">
+        <v>0</v>
+      </c>
+      <c r="E12" s="144">
+        <f t="shared" si="0"/>
+        <v>4240.7</v>
+      </c>
+      <c r="F12" s="145"/>
+      <c r="G12" s="105">
+        <v>16000.7</v>
+      </c>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="144">
+        <f>B12+G12+H12+I12</f>
+        <v>20241.400000000001</v>
+      </c>
+      <c r="K12" s="145"/>
+      <c r="L12" s="144">
+        <f>SUM(G33:G34)</f>
+        <v>9492</v>
+      </c>
+      <c r="M12" s="161"/>
+      <c r="N12" s="144">
+        <f>J12-L12</f>
+        <v>10749.400000000001</v>
+      </c>
+      <c r="O12" s="145"/>
+      <c r="P12" s="60">
+        <f>'[1]May 2021'!$K$35</f>
+        <v>9600.42</v>
+      </c>
+      <c r="Q12" s="144">
+        <f t="shared" si="1"/>
+        <v>1148.9800000000014</v>
+      </c>
+      <c r="R12" s="161"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A13" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="144">
+        <v>28100.18</v>
+      </c>
+      <c r="C13" s="143"/>
+      <c r="D13" s="60">
+        <v>21391.38</v>
+      </c>
+      <c r="E13" s="144">
+        <f t="shared" si="0"/>
+        <v>6708.7999999999993</v>
+      </c>
+      <c r="F13" s="145"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="60">
+        <v>142.61000000000001</v>
+      </c>
+      <c r="I13" s="60"/>
+      <c r="J13" s="144">
+        <f>B13+G13+H13+I13</f>
+        <v>28242.79</v>
+      </c>
+      <c r="K13" s="145"/>
+      <c r="L13" s="144">
+        <f>G24+G25+G26+G27</f>
+        <v>24454</v>
+      </c>
+      <c r="M13" s="161"/>
+      <c r="N13" s="144">
+        <f>J13-L13</f>
+        <v>3788.7900000000009</v>
+      </c>
+      <c r="O13" s="145"/>
+      <c r="P13" s="60">
+        <f>'[1]May 2021'!$K$45</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="144">
+        <f t="shared" si="1"/>
+        <v>3788.7900000000009</v>
+      </c>
+      <c r="R13" s="161"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A14" s="58"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="145"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="144"/>
+      <c r="R14" s="161"/>
+      <c r="T14" s="64"/>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A15" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="144">
+        <f>SUM(B10:C14)</f>
+        <v>82345.239999999991</v>
+      </c>
+      <c r="C15" s="145"/>
+      <c r="D15" s="60">
+        <f>SUM(D10:D14)</f>
+        <v>62517.78</v>
+      </c>
+      <c r="E15" s="144">
+        <f>SUM(E10:F14)</f>
+        <v>19827.46</v>
+      </c>
+      <c r="F15" s="124"/>
+      <c r="G15" s="105">
+        <f>SUM(G10:G14)</f>
+        <v>51224.7</v>
+      </c>
+      <c r="H15" s="60">
+        <f>SUM(H10:H14)</f>
+        <v>287.39</v>
+      </c>
+      <c r="I15" s="60">
+        <f>SUM(I10:I14)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="143">
+        <f>SUM(J10:K14)</f>
+        <v>133857.32999999999</v>
+      </c>
+      <c r="K15" s="145"/>
+      <c r="L15" s="144">
+        <f>SUM(L10:M14)</f>
+        <v>90826</v>
+      </c>
+      <c r="M15" s="162"/>
+      <c r="N15" s="144">
+        <f>SUM(N10:O14)</f>
+        <v>43031.329999999994</v>
+      </c>
+      <c r="O15" s="145"/>
+      <c r="P15" s="60">
+        <f>SUM(P10:P14)</f>
+        <v>22730.339999999997</v>
+      </c>
+      <c r="Q15" s="144">
+        <f>SUM(Q10:R13)</f>
+        <v>20300.989999999991</v>
+      </c>
+      <c r="R15" s="145"/>
+      <c r="S15" s="29"/>
+    </row>
+    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1">
+      <c r="A16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+    </row>
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A17" s="171" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="172"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="179" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="180"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="180"/>
+      <c r="J17" s="180"/>
+      <c r="K17" s="180"/>
+      <c r="L17" s="180"/>
+      <c r="M17" s="180"/>
+      <c r="N17" s="180"/>
+      <c r="O17" s="181"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A18" s="173"/>
+      <c r="B18" s="174"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="182" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="183"/>
+      <c r="F18" s="182" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="183"/>
+      <c r="H18" s="186" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="187"/>
+      <c r="J18" s="187"/>
+      <c r="K18" s="187"/>
+      <c r="L18" s="182" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="183"/>
+      <c r="N18" s="182" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="183"/>
+    </row>
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A19" s="173"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="179" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="180"/>
+      <c r="J19" s="179" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="180"/>
+      <c r="L19" s="184"/>
+      <c r="M19" s="185"/>
+      <c r="N19" s="184"/>
+      <c r="O19" s="185"/>
+    </row>
+    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A20" s="176"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="178"/>
+      <c r="D20" s="108" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="S20" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="T20" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="U20" s="37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="188" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="189"/>
+      <c r="C21" s="190"/>
+      <c r="D21" s="74">
+        <f>E21/24</f>
+        <v>14</v>
+      </c>
+      <c r="E21" s="10">
+        <v>336</v>
+      </c>
+      <c r="F21" s="74">
+        <f>G21/24</f>
+        <v>43</v>
+      </c>
+      <c r="G21" s="10">
+        <f>'[2]May 2021'!$B$30</f>
+        <v>1032</v>
+      </c>
+      <c r="H21" s="23">
+        <f>I21/24</f>
+        <v>25</v>
+      </c>
+      <c r="I21" s="26">
+        <f>600</f>
+        <v>600</v>
+      </c>
+      <c r="J21" s="11">
+        <f>K21/24</f>
+        <v>1</v>
+      </c>
+      <c r="K21" s="10">
+        <f>24</f>
+        <v>24</v>
+      </c>
+      <c r="L21" s="11">
+        <f>M21/24</f>
+        <v>8</v>
+      </c>
+      <c r="M21" s="10">
+        <f>120+72</f>
+        <v>192</v>
+      </c>
+      <c r="N21" s="23">
+        <f>O21/24</f>
+        <v>23</v>
+      </c>
+      <c r="O21" s="36">
+        <f>E21+G21-I21-K21-M21</f>
+        <v>552</v>
+      </c>
+      <c r="S21" s="5">
+        <v>576</v>
+      </c>
+      <c r="T21" s="7">
+        <f>2*24</f>
+        <v>48</v>
+      </c>
+      <c r="U21" s="30">
+        <f>S21+T21-O21</f>
+        <v>72</v>
+      </c>
+      <c r="V21" s="75"/>
+      <c r="W21" s="29"/>
+    </row>
+    <row r="22" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A22" s="191" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="192"/>
+      <c r="C22" s="193"/>
+      <c r="D22" s="76">
+        <f>E22/24</f>
+        <v>82</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1968</v>
+      </c>
+      <c r="F22" s="76">
+        <f>G22/24</f>
+        <v>138</v>
+      </c>
+      <c r="G22" s="12">
+        <f>'[2]May 2021'!$C$30</f>
+        <v>3312</v>
+      </c>
+      <c r="H22" s="24">
+        <f>I22/24</f>
+        <v>50</v>
+      </c>
+      <c r="I22" s="33">
+        <f>1200</f>
+        <v>1200</v>
+      </c>
+      <c r="J22" s="13">
+        <f>K22/24</f>
+        <v>50</v>
+      </c>
+      <c r="K22" s="12">
+        <f>1200</f>
+        <v>1200</v>
+      </c>
+      <c r="L22" s="13">
+        <f>M22/24</f>
+        <v>17</v>
+      </c>
+      <c r="M22" s="12">
+        <f>48+240+72+48</f>
+        <v>408</v>
+      </c>
+      <c r="N22" s="24">
+        <f>O22/24</f>
+        <v>103</v>
+      </c>
+      <c r="O22" s="36">
+        <f>E22+G22-I22-K22-M22</f>
+        <v>2472</v>
+      </c>
+      <c r="S22" s="6">
+        <v>2088</v>
+      </c>
+      <c r="T22" s="9">
+        <f>14*24</f>
+        <v>336</v>
+      </c>
+      <c r="U22" s="34">
+        <f>S22+T22-O22</f>
+        <v>-48</v>
+      </c>
+      <c r="V22" s="75"/>
+      <c r="W22" s="29"/>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A23" s="194" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="195"/>
+      <c r="C23" s="196"/>
+      <c r="D23" s="77">
+        <f>SUM(D21:D22)</f>
+        <v>96</v>
+      </c>
+      <c r="E23" s="78">
+        <f t="shared" ref="E23:H23" si="2">SUM(E21:E22)</f>
+        <v>2304</v>
+      </c>
+      <c r="F23" s="77">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="G23" s="78">
+        <f t="shared" si="2"/>
+        <v>4344</v>
+      </c>
+      <c r="H23" s="79">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="I23" s="80">
+        <f>SUM(I21:I22)</f>
+        <v>1800</v>
+      </c>
+      <c r="J23" s="77">
+        <f t="shared" ref="J23:O23" si="3">SUM(J21:J22)</f>
+        <v>51</v>
+      </c>
+      <c r="K23" s="78">
+        <f t="shared" si="3"/>
+        <v>1224</v>
+      </c>
+      <c r="L23" s="77">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="M23" s="78">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="N23" s="77">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="O23" s="78">
+        <f t="shared" si="3"/>
+        <v>3024</v>
+      </c>
+      <c r="S23" s="45"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="29"/>
+    </row>
+    <row r="24" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A24" s="188" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="189"/>
+      <c r="C24" s="190"/>
+      <c r="D24" s="74">
+        <f>E24/30</f>
+        <v>138</v>
+      </c>
+      <c r="E24" s="10">
+        <v>4140</v>
+      </c>
+      <c r="F24" s="74">
+        <f>G24/30</f>
+        <v>755</v>
+      </c>
+      <c r="G24" s="10">
+        <f>'[2]May 2021'!$D$30</f>
+        <v>22650</v>
+      </c>
+      <c r="H24" s="23">
+        <f>I24/30</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0</v>
+      </c>
+      <c r="J24" s="23">
+        <f>K24/30</f>
+        <v>23</v>
+      </c>
+      <c r="K24" s="10">
+        <f>690</f>
+        <v>690</v>
+      </c>
+      <c r="L24" s="23">
+        <f>M24/30</f>
+        <v>448</v>
+      </c>
+      <c r="M24" s="10">
+        <f>7740+300+900+300+3600+150+450</f>
+        <v>13440</v>
+      </c>
+      <c r="N24" s="23">
+        <f>O24/30</f>
+        <v>422</v>
+      </c>
+      <c r="O24" s="36">
+        <f>E24+G24-I24-K24-M24</f>
+        <v>12660</v>
+      </c>
+      <c r="S24" s="50">
+        <v>12090</v>
+      </c>
+      <c r="T24" s="51">
+        <f>18*30</f>
+        <v>540</v>
+      </c>
+      <c r="U24" s="47">
+        <f>S24+T24-O24</f>
+        <v>-30</v>
+      </c>
+      <c r="V24" s="75"/>
+      <c r="W24" s="29"/>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A25" s="197" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="198"/>
+      <c r="C25" s="199"/>
+      <c r="D25" s="81">
+        <f>E25/24</f>
+        <v>8</v>
+      </c>
+      <c r="E25" s="36">
+        <v>192</v>
+      </c>
+      <c r="F25" s="81">
+        <f>G25/24</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="27">
+        <f>'[2]May 2021'!$E$30</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="39">
+        <f>I25/24</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="27">
+        <v>0</v>
+      </c>
+      <c r="J25" s="40">
+        <f t="shared" ref="J25" si="4">K25/24</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="36">
+        <v>0</v>
+      </c>
+      <c r="L25" s="40">
+        <f t="shared" ref="L25" si="5">M25/24</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="36">
+        <v>0</v>
+      </c>
+      <c r="N25" s="39">
+        <f>O25/24</f>
+        <v>8</v>
+      </c>
+      <c r="O25" s="36">
+        <f t="shared" ref="O25:O27" si="6">E25+G25-I25-K25-M25</f>
+        <v>192</v>
+      </c>
+      <c r="S25" s="4">
+        <v>192</v>
+      </c>
+      <c r="T25" s="22">
+        <v>0</v>
+      </c>
+      <c r="U25" s="47">
+        <f t="shared" ref="U25:U27" si="7">S25+T25-O25</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="75"/>
+      <c r="W25" s="29"/>
+    </row>
+    <row r="26" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A26" s="168" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="169"/>
+      <c r="C26" s="170"/>
+      <c r="D26" s="82">
+        <f>E26/22</f>
+        <v>25</v>
+      </c>
+      <c r="E26" s="3">
+        <v>550</v>
+      </c>
+      <c r="F26" s="82">
+        <f>G26/22</f>
+        <v>53</v>
+      </c>
+      <c r="G26" s="3">
+        <f>'[2]May 2021'!$F$30</f>
+        <v>1166</v>
+      </c>
+      <c r="H26" s="25">
+        <v>0</v>
+      </c>
+      <c r="I26" s="28">
+        <f>220</f>
+        <v>220</v>
+      </c>
+      <c r="J26" s="1">
+        <f>K26/22</f>
+        <v>10</v>
+      </c>
+      <c r="K26" s="3">
+        <f>220</f>
+        <v>220</v>
+      </c>
+      <c r="L26" s="1">
+        <f>M26/22</f>
+        <v>15</v>
+      </c>
+      <c r="M26" s="3">
+        <f>330</f>
+        <v>330</v>
+      </c>
+      <c r="N26" s="25">
+        <f>O26/22</f>
+        <v>43</v>
+      </c>
+      <c r="O26" s="36">
+        <f t="shared" si="6"/>
+        <v>946</v>
+      </c>
+      <c r="R26" s="29"/>
+      <c r="S26" s="4">
+        <v>836</v>
+      </c>
+      <c r="T26" s="22">
+        <f>5*22</f>
+        <v>110</v>
+      </c>
+      <c r="U26" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A27" s="203" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="204"/>
+      <c r="C27" s="205"/>
+      <c r="D27" s="83">
+        <f>E27/22</f>
+        <v>3</v>
+      </c>
+      <c r="E27" s="41">
+        <v>66</v>
+      </c>
+      <c r="F27" s="83">
+        <f>G27/22</f>
+        <v>29</v>
+      </c>
+      <c r="G27" s="41">
+        <f>'[2]May 2021'!$G$30</f>
+        <v>638</v>
+      </c>
+      <c r="H27" s="42">
+        <f>I27/22</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="43">
+        <v>0</v>
+      </c>
+      <c r="J27" s="44">
+        <f>K27/22</f>
+        <v>5</v>
+      </c>
+      <c r="K27" s="41">
+        <f>110</f>
+        <v>110</v>
+      </c>
+      <c r="L27" s="44">
+        <f>M27/22</f>
+        <v>5</v>
+      </c>
+      <c r="M27" s="41">
+        <f>110</f>
+        <v>110</v>
+      </c>
+      <c r="N27" s="42">
+        <f>O27/22</f>
+        <v>22</v>
+      </c>
+      <c r="O27" s="38">
+        <f t="shared" si="6"/>
+        <v>484</v>
+      </c>
+      <c r="S27" s="52">
+        <v>418</v>
+      </c>
+      <c r="T27" s="53">
+        <f>3*22</f>
+        <v>66</v>
+      </c>
+      <c r="U27" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="75"/>
+      <c r="W27" s="29"/>
+    </row>
+    <row r="28" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A28" s="194" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="195"/>
+      <c r="C28" s="196"/>
+      <c r="D28" s="79">
+        <f t="shared" ref="D28:O28" si="8">SUM(D24:D27)</f>
+        <v>174</v>
+      </c>
+      <c r="E28" s="21">
+        <f t="shared" si="8"/>
+        <v>4948</v>
+      </c>
+      <c r="F28" s="79">
+        <f t="shared" si="8"/>
+        <v>837</v>
+      </c>
+      <c r="G28" s="21">
+        <f t="shared" si="8"/>
+        <v>24454</v>
+      </c>
+      <c r="H28" s="79">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="21">
+        <f t="shared" si="8"/>
+        <v>220</v>
+      </c>
+      <c r="J28" s="79">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+      <c r="K28" s="21">
+        <f t="shared" si="8"/>
+        <v>1020</v>
+      </c>
+      <c r="L28" s="79">
+        <f t="shared" si="8"/>
+        <v>468</v>
+      </c>
+      <c r="M28" s="21">
+        <f t="shared" si="8"/>
+        <v>13880</v>
+      </c>
+      <c r="N28" s="79">
+        <f t="shared" si="8"/>
+        <v>495</v>
+      </c>
+      <c r="O28" s="21">
+        <f t="shared" si="8"/>
+        <v>14282</v>
+      </c>
+      <c r="S28" s="46"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="75"/>
+      <c r="W28" s="29"/>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="189"/>
+      <c r="C29" s="190"/>
+      <c r="D29" s="74">
+        <f>E29/24</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
+      <c r="F29" s="74">
+        <f>G29/24</f>
+        <v>399</v>
+      </c>
+      <c r="G29" s="10">
+        <f>'[2]May 2021'!$H$30</f>
+        <v>9576</v>
+      </c>
+      <c r="H29" s="23">
+        <f>I29/24</f>
+        <v>20</v>
+      </c>
+      <c r="I29" s="26">
+        <f>480</f>
+        <v>480</v>
+      </c>
+      <c r="J29" s="11">
+        <f t="shared" ref="J29:J31" si="9">K29/24</f>
+        <v>10</v>
+      </c>
+      <c r="K29" s="10">
+        <f>240</f>
+        <v>240</v>
+      </c>
+      <c r="L29" s="11">
+        <f t="shared" ref="L29:L31" si="10">M29/24</f>
+        <v>315</v>
+      </c>
+      <c r="M29" s="10">
+        <f>2520+1200+960+720+480+480+1200</f>
+        <v>7560</v>
+      </c>
+      <c r="N29" s="23">
+        <f>O29/24</f>
+        <v>54</v>
+      </c>
+      <c r="O29" s="36">
+        <f>E29+G29-I29-K29-M29</f>
+        <v>1296</v>
+      </c>
+      <c r="S29" s="5">
+        <v>1296</v>
+      </c>
+      <c r="T29" s="16">
+        <v>0</v>
+      </c>
+      <c r="U29" s="30">
+        <f t="shared" ref="U29:U30" si="11">S29+T29-O29</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="75"/>
+      <c r="W29" s="29"/>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="168" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="169"/>
+      <c r="C30" s="170"/>
+      <c r="D30" s="82">
+        <f>E30/24</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="82">
+        <f>G30/24</f>
+        <v>207</v>
+      </c>
+      <c r="G30" s="3">
+        <f>'[2]May 2021'!$I$30</f>
+        <v>4968</v>
+      </c>
+      <c r="H30" s="25">
+        <f>I30/24</f>
+        <v>25</v>
+      </c>
+      <c r="I30" s="28">
+        <f>600</f>
+        <v>600</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <f>M30/24</f>
+        <v>120</v>
+      </c>
+      <c r="M30" s="3">
+        <f>1080+720+240+360+360+120</f>
+        <v>2880</v>
+      </c>
+      <c r="N30" s="25">
+        <f>O30/24</f>
+        <v>62</v>
+      </c>
+      <c r="O30" s="36">
+        <f t="shared" ref="O30:O31" si="12">E30+G30-I30-K30-M30</f>
+        <v>1488</v>
+      </c>
+      <c r="S30" s="4">
+        <v>1488</v>
+      </c>
+      <c r="T30" s="8">
+        <v>0</v>
+      </c>
+      <c r="U30" s="35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="75"/>
+      <c r="W30" s="29"/>
+    </row>
+    <row r="31" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A31" s="168" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="169"/>
+      <c r="C31" s="170"/>
+      <c r="D31" s="82">
+        <f>E31/24</f>
+        <v>123</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2952</v>
+      </c>
+      <c r="F31" s="82">
+        <f>G31/24</f>
+        <v>1583</v>
+      </c>
+      <c r="G31" s="3">
+        <f>'[2]May 2021'!$J$30</f>
+        <v>37992</v>
+      </c>
+      <c r="H31" s="25">
+        <f>I31/24</f>
+        <v>225</v>
+      </c>
+      <c r="I31" s="28">
+        <f>5400</f>
+        <v>5400</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="9"/>
+        <v>175</v>
+      </c>
+      <c r="K31" s="3">
+        <f>4200</f>
+        <v>4200</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="10"/>
+        <v>892</v>
+      </c>
+      <c r="M31" s="3">
+        <f>7080+3600+1440+2400+1800+48+2400+1440+1200</f>
+        <v>21408</v>
+      </c>
+      <c r="N31" s="25">
+        <f>O31/24</f>
+        <v>414</v>
+      </c>
+      <c r="O31" s="36">
+        <f t="shared" si="12"/>
+        <v>9936</v>
+      </c>
+      <c r="S31" s="4">
+        <v>8712</v>
+      </c>
+      <c r="T31" s="8">
+        <f>51*24</f>
+        <v>1224</v>
+      </c>
+      <c r="U31" s="35">
+        <f>S31+T31-O31</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="75"/>
+      <c r="W31" s="29"/>
+    </row>
+    <row r="32" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A32" s="194" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="195"/>
+      <c r="C32" s="196"/>
+      <c r="D32" s="84">
+        <f t="shared" ref="D32:O32" si="13">SUM(D29:D31)</f>
+        <v>123</v>
+      </c>
+      <c r="E32" s="78">
+        <f t="shared" si="13"/>
+        <v>2952</v>
+      </c>
+      <c r="F32" s="84">
+        <f t="shared" si="13"/>
+        <v>2189</v>
+      </c>
+      <c r="G32" s="78">
+        <f t="shared" si="13"/>
+        <v>52536</v>
+      </c>
+      <c r="H32" s="79">
+        <f t="shared" si="13"/>
+        <v>270</v>
+      </c>
+      <c r="I32" s="80">
+        <f t="shared" si="13"/>
+        <v>6480</v>
+      </c>
+      <c r="J32" s="84">
+        <f t="shared" si="13"/>
+        <v>185</v>
+      </c>
+      <c r="K32" s="78">
+        <f t="shared" si="13"/>
+        <v>4440</v>
+      </c>
+      <c r="L32" s="84">
+        <f t="shared" si="13"/>
+        <v>1327</v>
+      </c>
+      <c r="M32" s="78">
+        <f t="shared" si="13"/>
+        <v>31848</v>
+      </c>
+      <c r="N32" s="84">
+        <f t="shared" si="13"/>
+        <v>530</v>
+      </c>
+      <c r="O32" s="78">
+        <f t="shared" si="13"/>
+        <v>12720</v>
+      </c>
+      <c r="S32" s="17"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="75"/>
+      <c r="W32" s="29"/>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="188" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="189"/>
+      <c r="C33" s="190"/>
+      <c r="D33" s="85">
+        <f>E33/12</f>
+        <v>34</v>
+      </c>
+      <c r="E33" s="14">
+        <v>408</v>
+      </c>
+      <c r="F33" s="85">
+        <f>G33/12</f>
+        <v>380</v>
+      </c>
+      <c r="G33" s="14">
+        <f>'[2]May 2021'!$K$30</f>
+        <v>4560</v>
+      </c>
+      <c r="H33" s="23">
+        <f>I33/12</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="26">
+        <v>0</v>
+      </c>
+      <c r="J33" s="15">
+        <f t="shared" ref="J33:J34" si="14">K33/12</f>
+        <v>30</v>
+      </c>
+      <c r="K33" s="10">
+        <f>360</f>
+        <v>360</v>
+      </c>
+      <c r="L33" s="15">
+        <f t="shared" ref="L33:L34" si="15">M33/12</f>
+        <v>200</v>
+      </c>
+      <c r="M33" s="10">
+        <f>180+120+2100</f>
+        <v>2400</v>
+      </c>
+      <c r="N33" s="23">
+        <f>O33/12</f>
+        <v>184</v>
+      </c>
+      <c r="O33" s="36">
+        <f>E33+G33-I33-K33-M33</f>
+        <v>2208</v>
+      </c>
+      <c r="S33" s="5">
+        <v>1956</v>
+      </c>
+      <c r="T33" s="16">
+        <f>15*12</f>
+        <v>180</v>
+      </c>
+      <c r="U33" s="30">
+        <f>S33+T33-O33</f>
+        <v>-72</v>
+      </c>
+      <c r="V33" s="86"/>
+      <c r="W33" s="29"/>
+    </row>
+    <row r="34" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A34" s="191" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="192"/>
+      <c r="C34" s="193"/>
+      <c r="D34" s="76">
+        <f>E34/12</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0</v>
+      </c>
+      <c r="F34" s="76">
+        <f>G34/12</f>
+        <v>411</v>
+      </c>
+      <c r="G34" s="12">
+        <f>'[2]May 2021'!$L$30</f>
+        <v>4932</v>
+      </c>
+      <c r="H34" s="24">
+        <f>I34/12</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="33">
+        <v>0</v>
+      </c>
+      <c r="J34" s="13">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="12">
+        <v>0</v>
+      </c>
+      <c r="L34" s="13">
+        <f t="shared" si="15"/>
+        <v>261</v>
+      </c>
+      <c r="M34" s="12">
+        <f>3132</f>
+        <v>3132</v>
+      </c>
+      <c r="N34" s="24">
+        <f>O34/12</f>
+        <v>150</v>
+      </c>
+      <c r="O34" s="36">
+        <f>E34+G34-I34-K34-M34</f>
+        <v>1800</v>
+      </c>
+      <c r="S34" s="4">
+        <v>1800</v>
+      </c>
+      <c r="T34" s="22">
+        <v>0</v>
+      </c>
+      <c r="U34" s="35">
+        <f>S34+T34-O34</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="75"/>
+      <c r="W34" s="29"/>
+    </row>
+    <row r="35" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A35" s="194" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="195"/>
+      <c r="C35" s="196"/>
+      <c r="D35" s="84">
+        <f>SUM(D33:D34)</f>
+        <v>34</v>
+      </c>
+      <c r="E35" s="78">
+        <f t="shared" ref="E35:H35" si="16">SUM(E33:E34)</f>
+        <v>408</v>
+      </c>
+      <c r="F35" s="84">
+        <f t="shared" si="16"/>
+        <v>791</v>
+      </c>
+      <c r="G35" s="78">
+        <f t="shared" si="16"/>
+        <v>9492</v>
+      </c>
+      <c r="H35" s="79">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="80">
+        <f>SUM(I33:I34)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="84">
+        <f t="shared" ref="J35:O35" si="17">SUM(J33:J34)</f>
+        <v>30</v>
+      </c>
+      <c r="K35" s="78">
+        <f t="shared" si="17"/>
+        <v>360</v>
+      </c>
+      <c r="L35" s="84">
+        <f t="shared" si="17"/>
+        <v>461</v>
+      </c>
+      <c r="M35" s="78">
+        <f t="shared" si="17"/>
+        <v>5532</v>
+      </c>
+      <c r="N35" s="84">
+        <f t="shared" si="17"/>
+        <v>334</v>
+      </c>
+      <c r="O35" s="78">
+        <f t="shared" si="17"/>
+        <v>4008</v>
+      </c>
+      <c r="S35" s="19"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="34"/>
+      <c r="W35" s="29"/>
+    </row>
+    <row r="36" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A36" s="200" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="201"/>
+      <c r="C36" s="202"/>
+      <c r="D36" s="87">
+        <f t="shared" ref="D36:O36" si="18">D21+D22+D24+D25+D26+D27+D29+D30+D31+D33+D34</f>
+        <v>427</v>
+      </c>
+      <c r="E36" s="87">
+        <f t="shared" si="18"/>
+        <v>10612</v>
+      </c>
+      <c r="F36" s="87">
+        <f t="shared" si="18"/>
+        <v>3998</v>
+      </c>
+      <c r="G36" s="87">
+        <f t="shared" si="18"/>
+        <v>90826</v>
+      </c>
+      <c r="H36" s="87">
+        <f t="shared" si="18"/>
+        <v>345</v>
+      </c>
+      <c r="I36" s="87">
+        <f>I21+I22+I24+I25+I26+I27+I29+I30+I31+I33+I34</f>
+        <v>8500</v>
+      </c>
+      <c r="J36" s="87">
+        <f t="shared" si="18"/>
+        <v>304</v>
+      </c>
+      <c r="K36" s="87">
+        <f t="shared" si="18"/>
+        <v>7044</v>
+      </c>
+      <c r="L36" s="87">
+        <f t="shared" si="18"/>
+        <v>2281</v>
+      </c>
+      <c r="M36" s="87">
+        <f t="shared" si="18"/>
+        <v>51860</v>
+      </c>
+      <c r="N36" s="87">
+        <f t="shared" si="18"/>
+        <v>1485</v>
+      </c>
+      <c r="O36" s="87">
+        <f t="shared" si="18"/>
+        <v>34034</v>
+      </c>
+      <c r="S36" s="88">
+        <f>SUM(S21:S34)</f>
+        <v>31452</v>
+      </c>
+      <c r="T36" s="89">
+        <f>SUM(T21:T34)</f>
+        <v>2504</v>
+      </c>
+      <c r="U36" s="31">
+        <f>S36+T36-O36</f>
+        <v>-78</v>
+      </c>
+      <c r="W36" s="29"/>
+    </row>
+    <row r="37" spans="1:23" ht="9" customHeight="1">
+      <c r="U37" s="32"/>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="V38" s="29"/>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="P40" s="75"/>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="G41" s="29"/>
+    </row>
+    <row r="42" spans="1:23" ht="18.75">
       <c r="P42" s="90"/>
     </row>
   </sheetData>
@@ -3944,15 +5723,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
@@ -3978,511 +5757,510 @@
     <col min="25" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="187" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="187"/>
-      <c r="P1" s="187"/>
-      <c r="Q1" s="187"/>
-      <c r="R1" s="187"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="188"/>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="188"/>
-      <c r="M2" s="188"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="188"/>
-    </row>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="189" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="159"/>
+    <row r="1" spans="1:23" ht="18.75">
+      <c r="A1" s="120" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A2" s="121"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A3" s="122" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="124"/>
       <c r="M3" s="55"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="191"/>
-      <c r="B4" s="192"/>
-      <c r="C4" s="195" t="s">
+    <row r="4" spans="1:23">
+      <c r="A4" s="125"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="196"/>
+      <c r="D4" s="130"/>
       <c r="E4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="197" t="s">
+      <c r="F4" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="101" t="s">
+      <c r="G4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="191" t="s">
+      <c r="H4" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="199"/>
-      <c r="J4" s="192"/>
-      <c r="K4" s="195" t="s">
+      <c r="I4" s="133"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="196"/>
+      <c r="L4" s="130"/>
       <c r="M4" s="55"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="193"/>
-      <c r="B5" s="194"/>
-      <c r="C5" s="200" t="s">
+    <row r="5" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A5" s="127"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="201"/>
+      <c r="D5" s="135"/>
       <c r="E5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="198"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="174" t="s">
+      <c r="F5" s="132"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="175"/>
-      <c r="J5" s="176"/>
-      <c r="K5" s="200" t="s">
+      <c r="I5" s="137"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="201"/>
+      <c r="L5" s="135"/>
       <c r="M5" s="55"/>
       <c r="T5" s="29"/>
       <c r="U5" s="29"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="202"/>
-      <c r="B6" s="203"/>
-      <c r="C6" s="204">
-        <v>506029</v>
-      </c>
-      <c r="D6" s="205"/>
+    <row r="6" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A6" s="139"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="141">
+        <v>454804.3</v>
+      </c>
+      <c r="D6" s="142"/>
       <c r="E6" s="54"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="104">
+      <c r="F6" s="114"/>
+      <c r="G6" s="118">
         <f>C6+E6+F6</f>
-        <v>506029</v>
-      </c>
-      <c r="H6" s="204">
+        <v>454804.3</v>
+      </c>
+      <c r="H6" s="141">
         <f>G15</f>
-        <v>51224.7</v>
-      </c>
-      <c r="I6" s="160"/>
-      <c r="J6" s="205"/>
-      <c r="K6" s="140">
+        <v>91194.5</v>
+      </c>
+      <c r="I6" s="143"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="144">
         <f>G6-H6</f>
-        <v>454804.3</v>
-      </c>
-      <c r="L6" s="141"/>
+        <v>363609.8</v>
+      </c>
+      <c r="L6" s="145"/>
       <c r="M6" s="55"/>
       <c r="O6" s="29"/>
       <c r="Q6" s="29"/>
     </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="186" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="186"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="186"/>
-      <c r="J7" s="186"/>
-      <c r="K7" s="186"/>
-      <c r="L7" s="186"/>
-      <c r="M7" s="186"/>
-      <c r="N7" s="186"/>
-      <c r="O7" s="186"/>
-      <c r="P7" s="186"/>
-      <c r="Q7" s="186"/>
-      <c r="R7" s="186"/>
+    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A7" s="119" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
       <c r="U7" s="29"/>
     </row>
-    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="179" t="s">
+    <row r="8" spans="1:23" ht="22.5" customHeight="1">
+      <c r="A8" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="181" t="s">
+      <c r="B8" s="150" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="182"/>
-      <c r="D8" s="166" t="s">
+      <c r="C8" s="151"/>
+      <c r="D8" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="168" t="s">
+      <c r="E8" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="169"/>
-      <c r="G8" s="166" t="s">
+      <c r="F8" s="155"/>
+      <c r="G8" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="166" t="s">
+      <c r="H8" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="106" t="s">
+      <c r="I8" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="182" t="s">
+      <c r="J8" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="183"/>
-      <c r="L8" s="181" t="s">
+      <c r="K8" s="158"/>
+      <c r="L8" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="182"/>
-      <c r="N8" s="184" t="s">
+      <c r="M8" s="151"/>
+      <c r="N8" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="185"/>
-      <c r="P8" s="166" t="s">
+      <c r="O8" s="160"/>
+      <c r="P8" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="168" t="s">
+      <c r="Q8" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="169"/>
-    </row>
-    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="180"/>
-      <c r="B9" s="174" t="s">
+      <c r="R8" s="155"/>
+    </row>
+    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A9" s="149"/>
+      <c r="B9" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="175"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="102" t="s">
+      <c r="C9" s="137"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="175" t="s">
+      <c r="J9" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="176"/>
-      <c r="L9" s="174" t="s">
+      <c r="K9" s="138"/>
+      <c r="L9" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="175"/>
-      <c r="N9" s="177" t="s">
+      <c r="M9" s="137"/>
+      <c r="N9" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="178"/>
-      <c r="P9" s="167"/>
-      <c r="Q9" s="170"/>
-      <c r="R9" s="171"/>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O9" s="147"/>
+      <c r="P9" s="153"/>
+      <c r="Q9" s="156"/>
+      <c r="R9" s="157"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="140">
-        <v>37393.71</v>
-      </c>
-      <c r="C10" s="160"/>
+      <c r="B10" s="144">
+        <v>20226.490000000002</v>
+      </c>
+      <c r="C10" s="143"/>
       <c r="D10" s="60">
-        <v>28956.16</v>
-      </c>
-      <c r="E10" s="140">
+        <v>7044.8</v>
+      </c>
+      <c r="E10" s="144">
         <f>B10-D10</f>
-        <v>8437.5499999999993</v>
-      </c>
-      <c r="F10" s="141"/>
-      <c r="G10" s="105">
-        <v>35224</v>
+        <v>13181.690000000002</v>
+      </c>
+      <c r="F10" s="145"/>
+      <c r="G10" s="110">
+        <v>37289.5</v>
       </c>
       <c r="H10" s="60">
-        <v>144.78</v>
+        <v>140.9</v>
       </c>
       <c r="I10" s="60"/>
-      <c r="J10" s="140">
+      <c r="J10" s="144">
         <f>B10+G10+H10+I10</f>
-        <v>72762.489999999991</v>
-      </c>
-      <c r="K10" s="141"/>
-      <c r="L10" s="140">
+        <v>57656.890000000007</v>
+      </c>
+      <c r="K10" s="145"/>
+      <c r="L10" s="144">
         <f>G29+G30+G31</f>
-        <v>52536</v>
-      </c>
-      <c r="M10" s="161"/>
-      <c r="N10" s="140">
+        <v>29424</v>
+      </c>
+      <c r="M10" s="162"/>
+      <c r="N10" s="144">
         <f>J10-L10</f>
-        <v>20226.489999999991</v>
-      </c>
-      <c r="O10" s="141"/>
+        <v>28232.890000000007</v>
+      </c>
+      <c r="O10" s="145"/>
       <c r="P10" s="60">
-        <f>'[1]May 2021'!$K$15</f>
-        <v>7044.7999999999993</v>
-      </c>
-      <c r="Q10" s="140">
+        <f>'[1]June 2021'!$K$15</f>
+        <v>22373.7</v>
+      </c>
+      <c r="Q10" s="144">
         <f>N10-P10</f>
-        <v>13181.689999999991</v>
-      </c>
-      <c r="R10" s="165"/>
+        <v>5859.190000000006</v>
+      </c>
+      <c r="R10" s="161"/>
       <c r="S10" s="32"/>
-      <c r="U10" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:23" ht="15.75" thickBot="1">
       <c r="A11" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="140">
-        <v>12610.65</v>
-      </c>
-      <c r="C11" s="160"/>
+      <c r="B11" s="144">
+        <v>8266.65</v>
+      </c>
+      <c r="C11" s="143"/>
       <c r="D11" s="60">
-        <v>12170.24</v>
-      </c>
-      <c r="E11" s="140">
+        <v>6085.12</v>
+      </c>
+      <c r="E11" s="144">
         <f t="shared" ref="E11:E13" si="0">B11-D11</f>
-        <v>440.40999999999985</v>
-      </c>
-      <c r="F11" s="141"/>
-      <c r="G11" s="105"/>
+        <v>2181.5299999999997</v>
+      </c>
+      <c r="F11" s="145"/>
+      <c r="G11" s="110"/>
       <c r="H11" s="60"/>
       <c r="I11" s="60"/>
-      <c r="J11" s="140">
+      <c r="J11" s="144">
         <f>B11+G11+H11+I11</f>
-        <v>12610.65</v>
-      </c>
-      <c r="K11" s="141"/>
-      <c r="L11" s="140">
+        <v>8266.65</v>
+      </c>
+      <c r="K11" s="145"/>
+      <c r="L11" s="144">
         <f>SUM(G21:G22)</f>
-        <v>4344</v>
-      </c>
-      <c r="M11" s="161"/>
-      <c r="N11" s="172">
+        <v>1224</v>
+      </c>
+      <c r="M11" s="162"/>
+      <c r="N11" s="163">
         <f>J11-L11</f>
-        <v>8266.65</v>
-      </c>
-      <c r="O11" s="173"/>
+        <v>7042.65</v>
+      </c>
+      <c r="O11" s="164"/>
       <c r="P11" s="60">
-        <f>'[1]May 2021'!$K$25</f>
+        <f>'[1]June 2021'!$K$25</f>
         <v>6085.12</v>
       </c>
-      <c r="Q11" s="140">
+      <c r="Q11" s="144">
         <f t="shared" ref="Q11:Q13" si="1">N11-P11</f>
-        <v>2181.5299999999997</v>
-      </c>
-      <c r="R11" s="165"/>
+        <v>957.52999999999975</v>
+      </c>
+      <c r="R11" s="161"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="140">
-        <v>4240.7</v>
-      </c>
-      <c r="C12" s="160"/>
+      <c r="B12" s="144">
+        <v>10749.4</v>
+      </c>
+      <c r="C12" s="143"/>
       <c r="D12" s="60">
-        <v>0</v>
-      </c>
-      <c r="E12" s="140">
+        <v>9600.42</v>
+      </c>
+      <c r="E12" s="144">
         <f t="shared" si="0"/>
-        <v>4240.7</v>
-      </c>
-      <c r="F12" s="141"/>
-      <c r="G12" s="105">
-        <v>16000.7</v>
-      </c>
-      <c r="H12" s="60"/>
+        <v>1148.9799999999996</v>
+      </c>
+      <c r="F12" s="145"/>
+      <c r="G12" s="110">
+        <v>18585</v>
+      </c>
+      <c r="H12" s="60">
+        <v>64</v>
+      </c>
       <c r="I12" s="60"/>
-      <c r="J12" s="140">
+      <c r="J12" s="144">
         <f>B12+G12+H12+I12</f>
-        <v>20241.400000000001</v>
-      </c>
-      <c r="K12" s="141"/>
-      <c r="L12" s="140">
+        <v>29398.400000000001</v>
+      </c>
+      <c r="K12" s="145"/>
+      <c r="L12" s="144">
         <f>SUM(G33:G34)</f>
-        <v>9492</v>
-      </c>
-      <c r="M12" s="165"/>
-      <c r="N12" s="140">
+        <v>8328</v>
+      </c>
+      <c r="M12" s="161"/>
+      <c r="N12" s="144">
         <f>J12-L12</f>
-        <v>10749.400000000001</v>
-      </c>
-      <c r="O12" s="141"/>
+        <v>21070.400000000001</v>
+      </c>
+      <c r="O12" s="145"/>
       <c r="P12" s="60">
-        <f>'[1]May 2021'!$K$35</f>
-        <v>9600.42</v>
-      </c>
-      <c r="Q12" s="140">
+        <f>'[1]June 2021'!$K$35</f>
+        <v>18585</v>
+      </c>
+      <c r="Q12" s="144">
         <f t="shared" si="1"/>
-        <v>1148.9800000000014</v>
-      </c>
-      <c r="R12" s="165"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2485.4000000000015</v>
+      </c>
+      <c r="R12" s="161"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1">
       <c r="A13" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="140">
-        <v>28100.18</v>
-      </c>
-      <c r="C13" s="160"/>
+      <c r="B13" s="144">
+        <v>3788.79</v>
+      </c>
+      <c r="C13" s="143"/>
       <c r="D13" s="60">
-        <v>21391.38</v>
-      </c>
-      <c r="E13" s="140">
+        <v>0</v>
+      </c>
+      <c r="E13" s="144">
         <f t="shared" si="0"/>
-        <v>6708.7999999999993</v>
-      </c>
-      <c r="F13" s="141"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="60">
-        <v>142.61000000000001</v>
-      </c>
+        <v>3788.79</v>
+      </c>
+      <c r="F13" s="145"/>
+      <c r="G13" s="110">
+        <v>35320</v>
+      </c>
+      <c r="H13" s="60"/>
       <c r="I13" s="60"/>
-      <c r="J13" s="140">
+      <c r="J13" s="144">
         <f>B13+G13+H13+I13</f>
-        <v>28242.79</v>
-      </c>
-      <c r="K13" s="141"/>
-      <c r="L13" s="140">
+        <v>39108.79</v>
+      </c>
+      <c r="K13" s="145"/>
+      <c r="L13" s="144">
         <f>G24+G25+G26+G27</f>
-        <v>24454</v>
-      </c>
-      <c r="M13" s="165"/>
-      <c r="N13" s="140">
+        <v>18574</v>
+      </c>
+      <c r="M13" s="161"/>
+      <c r="N13" s="144">
         <f>J13-L13</f>
-        <v>3788.7900000000009</v>
-      </c>
-      <c r="O13" s="141"/>
+        <v>20534.79</v>
+      </c>
+      <c r="O13" s="145"/>
       <c r="P13" s="60">
-        <f>'[1]May 2021'!$K$45</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="140">
+        <f>'[1]June 2021'!$K$45</f>
+        <v>21192</v>
+      </c>
+      <c r="Q13" s="144">
         <f t="shared" si="1"/>
-        <v>3788.7900000000009</v>
-      </c>
-      <c r="R13" s="165"/>
+        <v>-657.20999999999913</v>
+      </c>
+      <c r="R13" s="161"/>
       <c r="V13" s="29"/>
       <c r="W13" s="29"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="58"/>
-      <c r="B14" s="162"/>
-      <c r="C14" s="163"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="166"/>
       <c r="D14" s="61"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="105"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="110"/>
       <c r="H14" s="60"/>
       <c r="I14" s="60"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="140"/>
-      <c r="M14" s="141"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="145"/>
       <c r="N14" s="62"/>
       <c r="O14" s="63"/>
       <c r="P14" s="60"/>
-      <c r="Q14" s="140"/>
-      <c r="R14" s="165"/>
+      <c r="Q14" s="144"/>
+      <c r="R14" s="161"/>
       <c r="T14" s="64"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="15.75" thickBot="1">
       <c r="A15" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="140">
+      <c r="B15" s="144">
         <f>SUM(B10:C14)</f>
-        <v>82345.239999999991</v>
-      </c>
-      <c r="C15" s="141"/>
+        <v>43031.33</v>
+      </c>
+      <c r="C15" s="145"/>
       <c r="D15" s="60">
         <f>SUM(D10:D14)</f>
-        <v>62517.78</v>
-      </c>
-      <c r="E15" s="140">
+        <v>22730.34</v>
+      </c>
+      <c r="E15" s="144">
         <f>SUM(E10:F14)</f>
-        <v>19827.46</v>
-      </c>
-      <c r="F15" s="159"/>
-      <c r="G15" s="105">
+        <v>20300.990000000002</v>
+      </c>
+      <c r="F15" s="124"/>
+      <c r="G15" s="110">
         <f>SUM(G10:G14)</f>
-        <v>51224.7</v>
+        <v>91194.5</v>
       </c>
       <c r="H15" s="60">
         <f>SUM(H10:H14)</f>
-        <v>287.39</v>
+        <v>204.9</v>
       </c>
       <c r="I15" s="60">
         <f>SUM(I10:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="160">
+      <c r="J15" s="143">
         <f>SUM(J10:K14)</f>
-        <v>133857.32999999999</v>
-      </c>
-      <c r="K15" s="141"/>
-      <c r="L15" s="140">
+        <v>134430.73000000001</v>
+      </c>
+      <c r="K15" s="145"/>
+      <c r="L15" s="144">
         <f>SUM(L10:M14)</f>
-        <v>90826</v>
-      </c>
-      <c r="M15" s="161"/>
-      <c r="N15" s="140">
+        <v>57550</v>
+      </c>
+      <c r="M15" s="162"/>
+      <c r="N15" s="144">
         <f>SUM(N10:O14)</f>
-        <v>43031.329999999994</v>
-      </c>
-      <c r="O15" s="141"/>
+        <v>76880.73000000001</v>
+      </c>
+      <c r="O15" s="145"/>
       <c r="P15" s="60">
         <f>SUM(P10:P14)</f>
-        <v>22730.339999999997</v>
-      </c>
-      <c r="Q15" s="140">
+        <v>68235.820000000007</v>
+      </c>
+      <c r="Q15" s="144">
         <f>SUM(Q10:R13)</f>
-        <v>20300.989999999991</v>
-      </c>
-      <c r="R15" s="141"/>
+        <v>8644.9100000000071</v>
+      </c>
+      <c r="R15" s="145"/>
       <c r="S15" s="29"/>
     </row>
-    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1">
       <c r="A16" s="65"/>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -4497,84 +6275,84 @@
       <c r="L16" s="67"/>
       <c r="M16" s="67"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="142" t="s">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A17" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="143"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="150" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="151"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="151"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="151"/>
-      <c r="O17" s="152"/>
+      <c r="B17" s="172"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="179" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="180"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="180"/>
+      <c r="J17" s="180"/>
+      <c r="K17" s="180"/>
+      <c r="L17" s="180"/>
+      <c r="M17" s="180"/>
+      <c r="N17" s="180"/>
+      <c r="O17" s="181"/>
       <c r="P17" s="68"/>
       <c r="Q17" s="68"/>
       <c r="R17" s="68"/>
       <c r="S17" s="68"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="144"/>
-      <c r="B18" s="145"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="153" t="s">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A18" s="173"/>
+      <c r="B18" s="174"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="154"/>
-      <c r="F18" s="153" t="s">
+      <c r="E18" s="183"/>
+      <c r="F18" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="154"/>
-      <c r="H18" s="157" t="s">
+      <c r="G18" s="183"/>
+      <c r="H18" s="186" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="153" t="s">
+      <c r="I18" s="187"/>
+      <c r="J18" s="187"/>
+      <c r="K18" s="187"/>
+      <c r="L18" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="154"/>
-      <c r="N18" s="153" t="s">
+      <c r="M18" s="183"/>
+      <c r="N18" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="O18" s="154"/>
-    </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="144"/>
-      <c r="B19" s="145"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="150" t="s">
+      <c r="O18" s="183"/>
+    </row>
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A19" s="173"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="179" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="151"/>
-      <c r="J19" s="150" t="s">
+      <c r="I19" s="180"/>
+      <c r="J19" s="179" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="151"/>
-      <c r="L19" s="155"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="155"/>
-      <c r="O19" s="156"/>
-    </row>
-    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="147"/>
-      <c r="B20" s="148"/>
-      <c r="C20" s="149"/>
-      <c r="D20" s="108" t="s">
+      <c r="K19" s="180"/>
+      <c r="L19" s="184"/>
+      <c r="M19" s="185"/>
+      <c r="N19" s="184"/>
+      <c r="O19" s="185"/>
+    </row>
+    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A20" s="176"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="178"/>
+      <c r="D20" s="111" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="37" t="s">
@@ -4586,13 +6364,13 @@
       <c r="G20" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="109" t="s">
+      <c r="H20" s="112" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="109" t="s">
+      <c r="J20" s="112" t="s">
         <v>26</v>
       </c>
       <c r="K20" s="37" t="s">
@@ -4620,61 +6398,59 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="119" t="s">
+    <row r="21" spans="1:23">
+      <c r="A21" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="120"/>
-      <c r="C21" s="121"/>
+      <c r="B21" s="189"/>
+      <c r="C21" s="190"/>
       <c r="D21" s="74">
         <f>E21/24</f>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E21" s="10">
-        <v>336</v>
+        <v>552</v>
       </c>
       <c r="F21" s="74">
         <f>G21/24</f>
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G21" s="10">
-        <f>'[2]May 2021'!$B$30</f>
-        <v>1032</v>
+        <f>'[2]June 2021'!$B$30</f>
+        <v>0</v>
       </c>
       <c r="H21" s="23">
         <f>I21/24</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I21" s="26">
-        <f>600</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="J21" s="11">
         <f>K21/24</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="10">
-        <f>24</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L21" s="11">
         <f>M21/24</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10">
-        <f>120+72</f>
-        <v>192</v>
+        <f>240+72</f>
+        <v>312</v>
       </c>
       <c r="N21" s="23">
         <f>O21/24</f>
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="O21" s="36">
         <f>E21+G21-I21-K21-M21</f>
-        <v>552</v>
+        <v>240</v>
       </c>
       <c r="S21" s="5">
-        <v>576</v>
+        <v>240</v>
       </c>
       <c r="T21" s="7">
         <f>2*24</f>
@@ -4682,66 +6458,66 @@
       </c>
       <c r="U21" s="30">
         <f>S21+T21-O21</f>
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="V21" s="75"/>
       <c r="W21" s="29"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="122" t="s">
+    <row r="22" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A22" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="123"/>
-      <c r="C22" s="124"/>
+      <c r="B22" s="192"/>
+      <c r="C22" s="193"/>
       <c r="D22" s="76">
         <f>E22/24</f>
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="E22" s="12">
-        <v>1968</v>
+        <v>2472</v>
       </c>
       <c r="F22" s="76">
         <f>G22/24</f>
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="G22" s="12">
-        <f>'[2]May 2021'!$C$30</f>
-        <v>3312</v>
+        <f>'[2]June 2021'!$C$30</f>
+        <v>1224</v>
       </c>
       <c r="H22" s="24">
         <f>I22/24</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I22" s="33">
-        <f>1200</f>
-        <v>1200</v>
+        <f>1440</f>
+        <v>1440</v>
       </c>
       <c r="J22" s="13">
         <f>K22/24</f>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K22" s="12">
-        <f>1200</f>
-        <v>1200</v>
+        <f>1800</f>
+        <v>1800</v>
       </c>
       <c r="L22" s="13">
         <f>M22/24</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M22" s="12">
-        <f>48+240+72+48</f>
-        <v>408</v>
+        <f>120+72+120+24+24</f>
+        <v>360</v>
       </c>
       <c r="N22" s="24">
         <f>O22/24</f>
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="O22" s="36">
         <f>E22+G22-I22-K22-M22</f>
-        <v>2472</v>
+        <v>96</v>
       </c>
       <c r="S22" s="6">
-        <v>2088</v>
+        <v>72</v>
       </c>
       <c r="T22" s="9">
         <f>14*24</f>
@@ -4749,64 +6525,64 @@
       </c>
       <c r="U22" s="34">
         <f>S22+T22-O22</f>
-        <v>-48</v>
+        <v>312</v>
       </c>
       <c r="V22" s="75"/>
       <c r="W22" s="29"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="125" t="s">
+    <row r="23" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A23" s="194" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="126"/>
-      <c r="C23" s="127"/>
+      <c r="B23" s="195"/>
+      <c r="C23" s="196"/>
       <c r="D23" s="77">
         <f>SUM(D21:D22)</f>
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="E23" s="78">
         <f t="shared" ref="E23:H23" si="2">SUM(E21:E22)</f>
-        <v>2304</v>
+        <v>3024</v>
       </c>
       <c r="F23" s="77">
         <f t="shared" si="2"/>
-        <v>181</v>
+        <v>51</v>
       </c>
       <c r="G23" s="78">
         <f t="shared" si="2"/>
-        <v>4344</v>
+        <v>1224</v>
       </c>
       <c r="H23" s="79">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="I23" s="80">
         <f>SUM(I21:I22)</f>
-        <v>1800</v>
+        <v>1440</v>
       </c>
       <c r="J23" s="77">
         <f t="shared" ref="J23:O23" si="3">SUM(J21:J22)</f>
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="K23" s="78">
         <f t="shared" si="3"/>
-        <v>1224</v>
+        <v>1800</v>
       </c>
       <c r="L23" s="77">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M23" s="78">
         <f t="shared" si="3"/>
-        <v>600</v>
+        <v>672</v>
       </c>
       <c r="N23" s="77">
         <f t="shared" si="3"/>
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="O23" s="78">
         <f t="shared" si="3"/>
-        <v>3024</v>
+        <v>336</v>
       </c>
       <c r="S23" s="45"/>
       <c r="T23" s="48"/>
@@ -4814,60 +6590,61 @@
       <c r="V23" s="75"/>
       <c r="W23" s="29"/>
     </row>
-    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="119" t="s">
+    <row r="24" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A24" s="188" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="120"/>
-      <c r="C24" s="121"/>
+      <c r="B24" s="189"/>
+      <c r="C24" s="190"/>
       <c r="D24" s="74">
         <f>E24/30</f>
-        <v>138</v>
+        <v>422</v>
       </c>
       <c r="E24" s="10">
-        <v>4140</v>
+        <v>12660</v>
       </c>
       <c r="F24" s="74">
         <f>G24/30</f>
-        <v>755</v>
+        <v>600</v>
       </c>
       <c r="G24" s="10">
-        <f>'[2]May 2021'!$D$30</f>
-        <v>22650</v>
+        <f>'[2]June 2021'!$D$30</f>
+        <v>18000</v>
       </c>
       <c r="H24" s="23">
         <f>I24/30</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I24" s="10">
-        <v>0</v>
+        <f>600</f>
+        <v>600</v>
       </c>
       <c r="J24" s="23">
         <f>K24/30</f>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K24" s="10">
-        <f>690</f>
-        <v>690</v>
+        <f>900</f>
+        <v>900</v>
       </c>
       <c r="L24" s="23">
         <f>M24/30</f>
-        <v>448</v>
+        <v>688</v>
       </c>
       <c r="M24" s="10">
-        <f>7740+300+900+300+3600+150+450</f>
-        <v>13440</v>
+        <f>8100+60+150+6000+750+4800+300+450+30</f>
+        <v>20640</v>
       </c>
       <c r="N24" s="23">
         <f>O24/30</f>
-        <v>422</v>
+        <v>284</v>
       </c>
       <c r="O24" s="36">
         <f>E24+G24-I24-K24-M24</f>
-        <v>12660</v>
+        <v>8520</v>
       </c>
       <c r="S24" s="50">
-        <v>12090</v>
+        <v>8460</v>
       </c>
       <c r="T24" s="51">
         <f>18*30</f>
@@ -4875,17 +6652,17 @@
       </c>
       <c r="U24" s="47">
         <f>S24+T24-O24</f>
-        <v>-30</v>
+        <v>480</v>
       </c>
       <c r="V24" s="75"/>
       <c r="W24" s="29"/>
     </row>
-    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="137" t="s">
+    <row r="25" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A25" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="138"/>
-      <c r="C25" s="139"/>
+      <c r="B25" s="198"/>
+      <c r="C25" s="199"/>
       <c r="D25" s="81">
         <f>E25/24</f>
         <v>8</v>
@@ -4895,18 +6672,19 @@
       </c>
       <c r="F25" s="81">
         <f>G25/24</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G25" s="27">
-        <f>'[2]May 2021'!$E$30</f>
-        <v>0</v>
+        <f>'[2]June 2021'!$E$30</f>
+        <v>552</v>
       </c>
       <c r="H25" s="39">
         <f>I25/24</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I25" s="27">
-        <v>0</v>
+        <f>480</f>
+        <v>480</v>
       </c>
       <c r="J25" s="40">
         <f t="shared" ref="J25" si="4">K25/24</f>
@@ -4917,21 +6695,22 @@
       </c>
       <c r="L25" s="40">
         <f t="shared" ref="L25" si="5">M25/24</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M25" s="36">
-        <v>0</v>
+        <f>120</f>
+        <v>120</v>
       </c>
       <c r="N25" s="39">
         <f>O25/24</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O25" s="36">
         <f t="shared" ref="O25:O27" si="6">E25+G25-I25-K25-M25</f>
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="S25" s="4">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="T25" s="22">
         <v>0</v>
@@ -4943,26 +6722,26 @@
       <c r="V25" s="75"/>
       <c r="W25" s="29"/>
     </row>
-    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="134" t="s">
+    <row r="26" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A26" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="135"/>
-      <c r="C26" s="136"/>
+      <c r="B26" s="169"/>
+      <c r="C26" s="170"/>
       <c r="D26" s="82">
         <f>E26/22</f>
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E26" s="3">
-        <v>550</v>
+        <v>946</v>
       </c>
       <c r="F26" s="82">
         <f>G26/22</f>
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="G26" s="3">
-        <f>'[2]May 2021'!$F$30</f>
-        <v>1166</v>
+        <f>'[2]June 2021'!$F$30</f>
+        <v>22</v>
       </c>
       <c r="H26" s="25">
         <v>0</v>
@@ -4973,31 +6752,30 @@
       </c>
       <c r="J26" s="1">
         <f>K26/22</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
-        <f>220</f>
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1">
         <f>M26/22</f>
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M26" s="3">
-        <f>330</f>
-        <v>330</v>
+        <f>330+220+176</f>
+        <v>726</v>
       </c>
       <c r="N26" s="25">
         <f>O26/22</f>
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="O26" s="36">
         <f t="shared" si="6"/>
-        <v>946</v>
+        <v>22</v>
       </c>
       <c r="R26" s="29"/>
       <c r="S26" s="4">
-        <v>836</v>
+        <v>22</v>
       </c>
       <c r="T26" s="22">
         <f>5*22</f>
@@ -5005,31 +6783,31 @@
       </c>
       <c r="U26" s="47">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="V26" s="29"/>
       <c r="W26" s="29"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="131" t="s">
+    <row r="27" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A27" s="203" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="132"/>
-      <c r="C27" s="133"/>
+      <c r="B27" s="204"/>
+      <c r="C27" s="205"/>
       <c r="D27" s="83">
         <f>E27/22</f>
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E27" s="41">
-        <v>66</v>
+        <v>484</v>
       </c>
       <c r="F27" s="83">
         <f>G27/22</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G27" s="41">
-        <f>'[2]May 2021'!$G$30</f>
-        <v>638</v>
+        <f>'[2]June 2021'!$G$30</f>
+        <v>0</v>
       </c>
       <c r="H27" s="42">
         <f>I27/22</f>
@@ -5040,19 +6818,17 @@
       </c>
       <c r="J27" s="44">
         <f>K27/22</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K27" s="41">
-        <f>110</f>
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="L27" s="44">
         <f>M27/22</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M27" s="41">
-        <f>110</f>
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="N27" s="42">
         <f>O27/22</f>
@@ -5076,59 +6852,59 @@
       <c r="V27" s="75"/>
       <c r="W27" s="29"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="125" t="s">
+    <row r="28" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A28" s="194" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="126"/>
-      <c r="C28" s="127"/>
+      <c r="B28" s="195"/>
+      <c r="C28" s="196"/>
       <c r="D28" s="79">
         <f t="shared" ref="D28:O28" si="8">SUM(D24:D27)</f>
-        <v>174</v>
+        <v>495</v>
       </c>
       <c r="E28" s="21">
         <f t="shared" si="8"/>
-        <v>4948</v>
+        <v>14282</v>
       </c>
       <c r="F28" s="79">
         <f t="shared" si="8"/>
-        <v>837</v>
+        <v>624</v>
       </c>
       <c r="G28" s="21">
         <f t="shared" si="8"/>
-        <v>24454</v>
+        <v>18574</v>
       </c>
       <c r="H28" s="79">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I28" s="21">
         <f t="shared" si="8"/>
-        <v>220</v>
+        <v>1300</v>
       </c>
       <c r="J28" s="79">
         <f t="shared" si="8"/>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K28" s="21">
         <f t="shared" si="8"/>
-        <v>1020</v>
+        <v>900</v>
       </c>
       <c r="L28" s="79">
         <f t="shared" si="8"/>
-        <v>468</v>
+        <v>726</v>
       </c>
       <c r="M28" s="21">
         <f t="shared" si="8"/>
-        <v>13880</v>
+        <v>21486</v>
       </c>
       <c r="N28" s="79">
         <f t="shared" si="8"/>
-        <v>495</v>
+        <v>313</v>
       </c>
       <c r="O28" s="21">
         <f t="shared" si="8"/>
-        <v>14282</v>
+        <v>9170</v>
       </c>
       <c r="S28" s="46"/>
       <c r="T28" s="49"/>
@@ -5136,26 +6912,26 @@
       <c r="V28" s="75"/>
       <c r="W28" s="29"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="119" t="s">
+    <row r="29" spans="1:23">
+      <c r="A29" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="120"/>
-      <c r="C29" s="121"/>
+      <c r="B29" s="189"/>
+      <c r="C29" s="190"/>
       <c r="D29" s="74">
         <f>E29/24</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E29" s="10">
-        <v>0</v>
+        <v>1296</v>
       </c>
       <c r="F29" s="74">
         <f>G29/24</f>
-        <v>399</v>
+        <v>179</v>
       </c>
       <c r="G29" s="10">
-        <f>'[2]May 2021'!$H$30</f>
-        <v>9576</v>
+        <f>'[2]June 2021'!$H$30</f>
+        <v>4296</v>
       </c>
       <c r="H29" s="23">
         <f>I29/24</f>
@@ -5167,30 +6943,29 @@
       </c>
       <c r="J29" s="11">
         <f t="shared" ref="J29:J31" si="9">K29/24</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K29" s="10">
-        <f>240</f>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="L29" s="11">
         <f t="shared" ref="L29:L31" si="10">M29/24</f>
-        <v>315</v>
+        <v>170</v>
       </c>
       <c r="M29" s="10">
-        <f>2520+1200+960+720+480+480+1200</f>
-        <v>7560</v>
+        <f>240+1200+1080+600+960</f>
+        <v>4080</v>
       </c>
       <c r="N29" s="23">
         <f>O29/24</f>
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="O29" s="36">
         <f>E29+G29-I29-K29-M29</f>
-        <v>1296</v>
+        <v>1032</v>
       </c>
       <c r="S29" s="5">
-        <v>1296</v>
+        <v>1032</v>
       </c>
       <c r="T29" s="16">
         <v>0</v>
@@ -5202,60 +6977,61 @@
       <c r="V29" s="75"/>
       <c r="W29" s="29"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="134" t="s">
+    <row r="30" spans="1:23">
+      <c r="A30" s="168" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="135"/>
-      <c r="C30" s="136"/>
+      <c r="B30" s="169"/>
+      <c r="C30" s="170"/>
       <c r="D30" s="82">
         <f>E30/24</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E30" s="3">
-        <v>0</v>
+        <v>1488</v>
       </c>
       <c r="F30" s="82">
         <f>G30/24</f>
-        <v>207</v>
+        <v>84</v>
       </c>
       <c r="G30" s="3">
-        <f>'[2]May 2021'!$I$30</f>
-        <v>4968</v>
+        <f>'[2]June 2021'!$I$30</f>
+        <v>2016</v>
       </c>
       <c r="H30" s="25">
         <f>I30/24</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I30" s="28">
-        <f>600</f>
-        <v>600</v>
+        <f>480</f>
+        <v>480</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K30" s="3">
-        <v>0</v>
+        <f>120</f>
+        <v>120</v>
       </c>
       <c r="L30" s="1">
         <f>M30/24</f>
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M30" s="3">
-        <f>1080+720+240+360+360+120</f>
-        <v>2880</v>
+        <f>240+240+912+120+600+480+240</f>
+        <v>2832</v>
       </c>
       <c r="N30" s="25">
         <f>O30/24</f>
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="O30" s="36">
         <f t="shared" ref="O30:O31" si="12">E30+G30-I30-K30-M30</f>
-        <v>1488</v>
+        <v>72</v>
       </c>
       <c r="S30" s="4">
-        <v>1488</v>
+        <v>72</v>
       </c>
       <c r="T30" s="8">
         <v>0</v>
@@ -5267,61 +7043,61 @@
       <c r="V30" s="75"/>
       <c r="W30" s="29"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="134" t="s">
+    <row r="31" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A31" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="135"/>
-      <c r="C31" s="136"/>
+      <c r="B31" s="169"/>
+      <c r="C31" s="170"/>
       <c r="D31" s="82">
         <f>E31/24</f>
-        <v>123</v>
+        <v>414</v>
       </c>
       <c r="E31" s="3">
-        <v>2952</v>
+        <v>9936</v>
       </c>
       <c r="F31" s="82">
         <f>G31/24</f>
-        <v>1583</v>
+        <v>963</v>
       </c>
       <c r="G31" s="3">
-        <f>'[2]May 2021'!$J$30</f>
-        <v>37992</v>
+        <f>'[2]June 2021'!$J$30</f>
+        <v>23112</v>
       </c>
       <c r="H31" s="25">
         <f>I31/24</f>
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="I31" s="28">
-        <f>5400</f>
-        <v>5400</v>
+        <f>3600</f>
+        <v>3600</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="9"/>
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="K31" s="3">
-        <f>4200</f>
-        <v>4200</v>
+        <f>3840</f>
+        <v>3840</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="10"/>
-        <v>892</v>
+        <v>681</v>
       </c>
       <c r="M31" s="3">
-        <f>7080+3600+1440+2400+1800+48+2400+1440+1200</f>
-        <v>21408</v>
+        <f>1200+120+120+360+3840+3600+120+3600+1200+24+960+1200</f>
+        <v>16344</v>
       </c>
       <c r="N31" s="25">
         <f>O31/24</f>
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="O31" s="36">
         <f t="shared" si="12"/>
-        <v>9936</v>
+        <v>9264</v>
       </c>
       <c r="S31" s="4">
-        <v>8712</v>
+        <v>8784</v>
       </c>
       <c r="T31" s="8">
         <f>51*24</f>
@@ -5329,64 +7105,64 @@
       </c>
       <c r="U31" s="35">
         <f>S31+T31-O31</f>
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="V31" s="75"/>
       <c r="W31" s="29"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="125" t="s">
+    <row r="32" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A32" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="126"/>
-      <c r="C32" s="127"/>
+      <c r="B32" s="195"/>
+      <c r="C32" s="196"/>
       <c r="D32" s="84">
         <f t="shared" ref="D32:O32" si="13">SUM(D29:D31)</f>
-        <v>123</v>
+        <v>530</v>
       </c>
       <c r="E32" s="78">
         <f t="shared" si="13"/>
-        <v>2952</v>
+        <v>12720</v>
       </c>
       <c r="F32" s="84">
         <f t="shared" si="13"/>
-        <v>2189</v>
+        <v>1226</v>
       </c>
       <c r="G32" s="78">
         <f t="shared" si="13"/>
-        <v>52536</v>
+        <v>29424</v>
       </c>
       <c r="H32" s="79">
         <f t="shared" si="13"/>
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="I32" s="80">
         <f t="shared" si="13"/>
-        <v>6480</v>
+        <v>4560</v>
       </c>
       <c r="J32" s="84">
         <f t="shared" si="13"/>
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="K32" s="78">
         <f t="shared" si="13"/>
-        <v>4440</v>
+        <v>3960</v>
       </c>
       <c r="L32" s="84">
         <f t="shared" si="13"/>
-        <v>1327</v>
+        <v>969</v>
       </c>
       <c r="M32" s="78">
         <f t="shared" si="13"/>
-        <v>31848</v>
+        <v>23256</v>
       </c>
       <c r="N32" s="84">
         <f t="shared" si="13"/>
-        <v>530</v>
+        <v>432</v>
       </c>
       <c r="O32" s="78">
         <f t="shared" si="13"/>
-        <v>12720</v>
+        <v>10368</v>
       </c>
       <c r="S32" s="17"/>
       <c r="T32" s="18"/>
@@ -5394,60 +7170,61 @@
       <c r="V32" s="75"/>
       <c r="W32" s="29"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="119" t="s">
+    <row r="33" spans="1:23">
+      <c r="A33" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="120"/>
-      <c r="C33" s="121"/>
+      <c r="B33" s="189"/>
+      <c r="C33" s="190"/>
       <c r="D33" s="85">
         <f>E33/12</f>
-        <v>34</v>
+        <v>184</v>
       </c>
       <c r="E33" s="14">
-        <v>408</v>
+        <v>2208</v>
       </c>
       <c r="F33" s="85">
         <f>G33/12</f>
-        <v>380</v>
+        <v>643</v>
       </c>
       <c r="G33" s="14">
-        <f>'[2]May 2021'!$K$30</f>
-        <v>4560</v>
+        <f>'[2]June 2021'!$K$30</f>
+        <v>7716</v>
       </c>
       <c r="H33" s="23">
         <f>I33/12</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I33" s="26">
-        <v>0</v>
+        <f>180</f>
+        <v>180</v>
       </c>
       <c r="J33" s="15">
         <f t="shared" ref="J33:J34" si="14">K33/12</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K33" s="10">
-        <f>360</f>
-        <v>360</v>
+        <f>240</f>
+        <v>240</v>
       </c>
       <c r="L33" s="15">
         <f t="shared" ref="L33:L34" si="15">M33/12</f>
-        <v>200</v>
+        <v>762</v>
       </c>
       <c r="M33" s="10">
-        <f>180+120+2100</f>
-        <v>2400</v>
+        <f>2400+60+24+3000+24+12+3600+24</f>
+        <v>9144</v>
       </c>
       <c r="N33" s="23">
         <f>O33/12</f>
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="O33" s="36">
         <f>E33+G33-I33-K33-M33</f>
-        <v>2208</v>
+        <v>360</v>
       </c>
       <c r="S33" s="5">
-        <v>1956</v>
+        <v>252</v>
       </c>
       <c r="T33" s="16">
         <f>15*12</f>
@@ -5455,31 +7232,31 @@
       </c>
       <c r="U33" s="30">
         <f>S33+T33-O33</f>
-        <v>-72</v>
+        <v>72</v>
       </c>
       <c r="V33" s="86"/>
       <c r="W33" s="29"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="122" t="s">
+    <row r="34" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A34" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="123"/>
-      <c r="C34" s="124"/>
+      <c r="B34" s="192"/>
+      <c r="C34" s="193"/>
       <c r="D34" s="76">
         <f>E34/12</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E34" s="12">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="F34" s="76">
         <f>G34/12</f>
-        <v>411</v>
+        <v>51</v>
       </c>
       <c r="G34" s="12">
-        <f>'[2]May 2021'!$L$30</f>
-        <v>4932</v>
+        <f>'[2]June 2021'!$L$30</f>
+        <v>612</v>
       </c>
       <c r="H34" s="24">
         <f>I34/12</f>
@@ -5497,22 +7274,22 @@
       </c>
       <c r="L34" s="13">
         <f t="shared" si="15"/>
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="M34" s="12">
-        <f>3132</f>
-        <v>3132</v>
+        <f>1800+612</f>
+        <v>2412</v>
       </c>
       <c r="N34" s="24">
         <f>O34/12</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="O34" s="36">
         <f>E34+G34-I34-K34-M34</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="S34" s="4">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="T34" s="22">
         <v>0</v>
@@ -5524,122 +7301,122 @@
       <c r="V34" s="75"/>
       <c r="W34" s="29"/>
     </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="125" t="s">
+    <row r="35" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A35" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="126"/>
-      <c r="C35" s="127"/>
+      <c r="B35" s="195"/>
+      <c r="C35" s="196"/>
       <c r="D35" s="84">
         <f>SUM(D33:D34)</f>
-        <v>34</v>
+        <v>334</v>
       </c>
       <c r="E35" s="78">
         <f t="shared" ref="E35:H35" si="16">SUM(E33:E34)</f>
-        <v>408</v>
+        <v>4008</v>
       </c>
       <c r="F35" s="84">
         <f t="shared" si="16"/>
-        <v>791</v>
+        <v>694</v>
       </c>
       <c r="G35" s="78">
         <f t="shared" si="16"/>
-        <v>9492</v>
+        <v>8328</v>
       </c>
       <c r="H35" s="79">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I35" s="80">
         <f>SUM(I33:I34)</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="J35" s="84">
         <f t="shared" ref="J35:O35" si="17">SUM(J33:J34)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K35" s="78">
         <f t="shared" si="17"/>
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="L35" s="84">
         <f t="shared" si="17"/>
-        <v>461</v>
+        <v>963</v>
       </c>
       <c r="M35" s="78">
         <f t="shared" si="17"/>
-        <v>5532</v>
+        <v>11556</v>
       </c>
       <c r="N35" s="84">
         <f t="shared" si="17"/>
-        <v>334</v>
+        <v>30</v>
       </c>
       <c r="O35" s="78">
         <f t="shared" si="17"/>
-        <v>4008</v>
+        <v>360</v>
       </c>
       <c r="S35" s="19"/>
       <c r="T35" s="20"/>
       <c r="U35" s="34"/>
       <c r="W35" s="29"/>
     </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="128" t="s">
+    <row r="36" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A36" s="200" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="129"/>
-      <c r="C36" s="130"/>
+      <c r="B36" s="201"/>
+      <c r="C36" s="202"/>
       <c r="D36" s="87">
         <f t="shared" ref="D36:O36" si="18">D21+D22+D24+D25+D26+D27+D29+D30+D31+D33+D34</f>
-        <v>427</v>
+        <v>1485</v>
       </c>
       <c r="E36" s="87">
         <f t="shared" si="18"/>
-        <v>10612</v>
+        <v>34034</v>
       </c>
       <c r="F36" s="87">
         <f t="shared" si="18"/>
-        <v>3998</v>
+        <v>2595</v>
       </c>
       <c r="G36" s="87">
         <f t="shared" si="18"/>
-        <v>90826</v>
+        <v>57550</v>
       </c>
       <c r="H36" s="87">
         <f t="shared" si="18"/>
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="I36" s="87">
         <f>I21+I22+I24+I25+I26+I27+I29+I30+I31+I33+I34</f>
-        <v>8500</v>
+        <v>7480</v>
       </c>
       <c r="J36" s="87">
         <f t="shared" si="18"/>
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="K36" s="87">
         <f t="shared" si="18"/>
-        <v>7044</v>
+        <v>6900</v>
       </c>
       <c r="L36" s="87">
         <f t="shared" si="18"/>
-        <v>2281</v>
+        <v>2686</v>
       </c>
       <c r="M36" s="87">
         <f t="shared" si="18"/>
-        <v>51860</v>
+        <v>56970</v>
       </c>
       <c r="N36" s="87">
         <f t="shared" si="18"/>
-        <v>1485</v>
+        <v>789</v>
       </c>
       <c r="O36" s="87">
         <f t="shared" si="18"/>
-        <v>34034</v>
+        <v>20234</v>
       </c>
       <c r="S36" s="88">
         <f>SUM(S21:S34)</f>
-        <v>31452</v>
+        <v>19496</v>
       </c>
       <c r="T36" s="89">
         <f>SUM(T21:T34)</f>
@@ -5647,23 +7424,23 @@
       </c>
       <c r="U36" s="31">
         <f>S36+T36-O36</f>
-        <v>-78</v>
+        <v>1766</v>
       </c>
       <c r="W36" s="29"/>
     </row>
-    <row r="37" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="9" customHeight="1">
       <c r="U37" s="32"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23">
       <c r="V38" s="29"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23">
       <c r="P40" s="75"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23">
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="18.75">
       <c r="P42" s="90"/>
     </row>
   </sheetData>
@@ -5760,1823 +7537,6 @@
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="K6:L6"/>
   </mergeCells>
-  <pageMargins left="0.16" right="0.16" top="0.25" bottom="0.23" header="0.23" footer="0.2"/>
-  <pageSetup orientation="landscape" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05346F3-F030-4011-A525-83F8ADE27F81}">
-  <dimension ref="A1:W42"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:L6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6" style="2" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6" style="2" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7" style="2" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" style="2" customWidth="1"/>
-    <col min="16" max="17" width="7.85546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="6" style="2" customWidth="1"/>
-    <col min="19" max="19" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="2"/>
-    <col min="24" max="24" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="187" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="187"/>
-      <c r="P1" s="187"/>
-      <c r="Q1" s="187"/>
-      <c r="R1" s="187"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="188"/>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="188"/>
-      <c r="M2" s="188"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="188"/>
-    </row>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="189" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="55"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="191"/>
-      <c r="B4" s="192"/>
-      <c r="C4" s="195" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="196"/>
-      <c r="E4" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="197" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="116" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="191" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="199"/>
-      <c r="J4" s="192"/>
-      <c r="K4" s="195" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="196"/>
-      <c r="M4" s="55"/>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="193"/>
-      <c r="B5" s="194"/>
-      <c r="C5" s="200" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="201"/>
-      <c r="E5" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="198"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="174" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="175"/>
-      <c r="J5" s="176"/>
-      <c r="K5" s="200" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="201"/>
-      <c r="M5" s="55"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-    </row>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="202"/>
-      <c r="B6" s="203"/>
-      <c r="C6" s="204">
-        <v>454804.3</v>
-      </c>
-      <c r="D6" s="205"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="118">
-        <f>C6+E6+F6</f>
-        <v>454804.3</v>
-      </c>
-      <c r="H6" s="204">
-        <f>G15</f>
-        <v>72609.5</v>
-      </c>
-      <c r="I6" s="160"/>
-      <c r="J6" s="205"/>
-      <c r="K6" s="140">
-        <f>G6-H6</f>
-        <v>382194.8</v>
-      </c>
-      <c r="L6" s="141"/>
-      <c r="M6" s="55"/>
-      <c r="O6" s="29"/>
-      <c r="Q6" s="29"/>
-    </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="186" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="186"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="186"/>
-      <c r="J7" s="186"/>
-      <c r="K7" s="186"/>
-      <c r="L7" s="186"/>
-      <c r="M7" s="186"/>
-      <c r="N7" s="186"/>
-      <c r="O7" s="186"/>
-      <c r="P7" s="186"/>
-      <c r="Q7" s="186"/>
-      <c r="R7" s="186"/>
-      <c r="U7" s="29"/>
-    </row>
-    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="179" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="181" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="182"/>
-      <c r="D8" s="166" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="168" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="169"/>
-      <c r="G8" s="166" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="166" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="113" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="182" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="183"/>
-      <c r="L8" s="181" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="182"/>
-      <c r="N8" s="184" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="185"/>
-      <c r="P8" s="166" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" s="168" t="s">
-        <v>35</v>
-      </c>
-      <c r="R8" s="169"/>
-    </row>
-    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="180"/>
-      <c r="B9" s="174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="175"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="117" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="175" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="176"/>
-      <c r="L9" s="174" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="175"/>
-      <c r="N9" s="177" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="178"/>
-      <c r="P9" s="167"/>
-      <c r="Q9" s="170"/>
-      <c r="R9" s="171"/>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="140">
-        <v>20226.490000000002</v>
-      </c>
-      <c r="C10" s="160"/>
-      <c r="D10" s="60">
-        <v>7044.8</v>
-      </c>
-      <c r="E10" s="140">
-        <f>B10-D10</f>
-        <v>13181.690000000002</v>
-      </c>
-      <c r="F10" s="141"/>
-      <c r="G10" s="110">
-        <v>37289.5</v>
-      </c>
-      <c r="H10" s="60">
-        <v>140.9</v>
-      </c>
-      <c r="I10" s="60"/>
-      <c r="J10" s="140">
-        <f>B10+G10+H10+I10</f>
-        <v>57656.890000000007</v>
-      </c>
-      <c r="K10" s="141"/>
-      <c r="L10" s="140">
-        <f>G29+G30+G31</f>
-        <v>24264</v>
-      </c>
-      <c r="M10" s="161"/>
-      <c r="N10" s="140">
-        <f>J10-L10</f>
-        <v>33392.890000000007</v>
-      </c>
-      <c r="O10" s="141"/>
-      <c r="P10" s="60">
-        <f>'[1]June 2021'!$K$15</f>
-        <v>22373.7</v>
-      </c>
-      <c r="Q10" s="140">
-        <f>N10-P10</f>
-        <v>11019.190000000006</v>
-      </c>
-      <c r="R10" s="165"/>
-      <c r="S10" s="32"/>
-    </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="140">
-        <v>8266.65</v>
-      </c>
-      <c r="C11" s="160"/>
-      <c r="D11" s="60">
-        <v>6085.12</v>
-      </c>
-      <c r="E11" s="140">
-        <f t="shared" ref="E11:E13" si="0">B11-D11</f>
-        <v>2181.5299999999997</v>
-      </c>
-      <c r="F11" s="141"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="140">
-        <f>B11+G11+H11+I11</f>
-        <v>8266.65</v>
-      </c>
-      <c r="K11" s="141"/>
-      <c r="L11" s="140">
-        <f>SUM(G21:G22)</f>
-        <v>1224</v>
-      </c>
-      <c r="M11" s="161"/>
-      <c r="N11" s="172">
-        <f>J11-L11</f>
-        <v>7042.65</v>
-      </c>
-      <c r="O11" s="173"/>
-      <c r="P11" s="60">
-        <f>'[1]June 2021'!$K$25</f>
-        <v>6085.12</v>
-      </c>
-      <c r="Q11" s="140">
-        <f t="shared" ref="Q11:Q13" si="1">N11-P11</f>
-        <v>957.52999999999975</v>
-      </c>
-      <c r="R11" s="165"/>
-      <c r="S11" s="32"/>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="140">
-        <v>10749.4</v>
-      </c>
-      <c r="C12" s="160"/>
-      <c r="D12" s="60">
-        <v>9600.42</v>
-      </c>
-      <c r="E12" s="140">
-        <f t="shared" si="0"/>
-        <v>1148.9799999999996</v>
-      </c>
-      <c r="F12" s="141"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="60">
-        <v>64</v>
-      </c>
-      <c r="I12" s="60"/>
-      <c r="J12" s="140">
-        <f>B12+G12+H12+I12</f>
-        <v>10813.4</v>
-      </c>
-      <c r="K12" s="141"/>
-      <c r="L12" s="140">
-        <f>SUM(G33:G34)</f>
-        <v>8328</v>
-      </c>
-      <c r="M12" s="165"/>
-      <c r="N12" s="140">
-        <f>J12-L12</f>
-        <v>2485.3999999999996</v>
-      </c>
-      <c r="O12" s="141"/>
-      <c r="P12" s="60">
-        <f>'[1]June 2021'!$K$35</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="140">
-        <f t="shared" si="1"/>
-        <v>2485.3999999999996</v>
-      </c>
-      <c r="R12" s="165"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="140">
-        <v>3788.79</v>
-      </c>
-      <c r="C13" s="160"/>
-      <c r="D13" s="60">
-        <v>0</v>
-      </c>
-      <c r="E13" s="140">
-        <f t="shared" si="0"/>
-        <v>3788.79</v>
-      </c>
-      <c r="F13" s="141"/>
-      <c r="G13" s="110">
-        <v>35320</v>
-      </c>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="140">
-        <f>B13+G13+H13+I13</f>
-        <v>39108.79</v>
-      </c>
-      <c r="K13" s="141"/>
-      <c r="L13" s="140">
-        <f>G24+G25+G26+G27</f>
-        <v>11074</v>
-      </c>
-      <c r="M13" s="165"/>
-      <c r="N13" s="140">
-        <f>J13-L13</f>
-        <v>28034.79</v>
-      </c>
-      <c r="O13" s="141"/>
-      <c r="P13" s="60">
-        <f>'[1]June 2021'!$K$45</f>
-        <v>21192</v>
-      </c>
-      <c r="Q13" s="140">
-        <f t="shared" si="1"/>
-        <v>6842.7900000000009</v>
-      </c>
-      <c r="R13" s="165"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-    </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="162"/>
-      <c r="C14" s="163"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="140"/>
-      <c r="M14" s="141"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="140"/>
-      <c r="R14" s="165"/>
-      <c r="T14" s="64"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="140">
-        <f>SUM(B10:C14)</f>
-        <v>43031.33</v>
-      </c>
-      <c r="C15" s="141"/>
-      <c r="D15" s="60">
-        <f>SUM(D10:D14)</f>
-        <v>22730.34</v>
-      </c>
-      <c r="E15" s="140">
-        <f>SUM(E10:F14)</f>
-        <v>20300.990000000002</v>
-      </c>
-      <c r="F15" s="159"/>
-      <c r="G15" s="110">
-        <f>SUM(G10:G14)</f>
-        <v>72609.5</v>
-      </c>
-      <c r="H15" s="60">
-        <f>SUM(H10:H14)</f>
-        <v>204.9</v>
-      </c>
-      <c r="I15" s="60">
-        <f>SUM(I10:I14)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="160">
-        <f>SUM(J10:K14)</f>
-        <v>115845.73000000001</v>
-      </c>
-      <c r="K15" s="141"/>
-      <c r="L15" s="140">
-        <f>SUM(L10:M14)</f>
-        <v>44890</v>
-      </c>
-      <c r="M15" s="161"/>
-      <c r="N15" s="140">
-        <f>SUM(N10:O14)</f>
-        <v>70955.73000000001</v>
-      </c>
-      <c r="O15" s="141"/>
-      <c r="P15" s="60">
-        <f>SUM(P10:P14)</f>
-        <v>49650.82</v>
-      </c>
-      <c r="Q15" s="140">
-        <f>SUM(Q10:R13)</f>
-        <v>21304.910000000003</v>
-      </c>
-      <c r="R15" s="141"/>
-      <c r="S15" s="29"/>
-    </row>
-    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-    </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="142" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="143"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="150" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="151"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="151"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="151"/>
-      <c r="O17" s="152"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="68"/>
-    </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="144"/>
-      <c r="B18" s="145"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="153" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="154"/>
-      <c r="F18" s="153" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="154"/>
-      <c r="H18" s="157" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="153" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="154"/>
-      <c r="N18" s="153" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" s="154"/>
-    </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="144"/>
-      <c r="B19" s="145"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="150" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="151"/>
-      <c r="J19" s="150" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="151"/>
-      <c r="L19" s="155"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="155"/>
-      <c r="O19" s="156"/>
-    </row>
-    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="147"/>
-      <c r="B20" s="148"/>
-      <c r="C20" s="149"/>
-      <c r="D20" s="111" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="112" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="112" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="O20" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="S20" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="T20" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="U20" s="37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="119" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="120"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="74">
-        <f>E21/24</f>
-        <v>23</v>
-      </c>
-      <c r="E21" s="10">
-        <v>552</v>
-      </c>
-      <c r="F21" s="74">
-        <f>G21/24</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="10">
-        <f>'[2]June 2021'!$B$30</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="23">
-        <f>I21/24</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="26">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
-        <f>K21/24</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="10">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11">
-        <f>M21/24</f>
-        <v>13</v>
-      </c>
-      <c r="M21" s="10">
-        <f>240+72</f>
-        <v>312</v>
-      </c>
-      <c r="N21" s="23">
-        <f>O21/24</f>
-        <v>10</v>
-      </c>
-      <c r="O21" s="36">
-        <f>E21+G21-I21-K21-M21</f>
-        <v>240</v>
-      </c>
-      <c r="S21" s="5">
-        <v>264</v>
-      </c>
-      <c r="T21" s="7">
-        <f>2*24</f>
-        <v>48</v>
-      </c>
-      <c r="U21" s="30">
-        <f>S21+T21-O21</f>
-        <v>72</v>
-      </c>
-      <c r="V21" s="75"/>
-      <c r="W21" s="29"/>
-    </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="122" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="123"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="76">
-        <f>E22/24</f>
-        <v>103</v>
-      </c>
-      <c r="E22" s="12">
-        <v>2472</v>
-      </c>
-      <c r="F22" s="76">
-        <f>G22/24</f>
-        <v>51</v>
-      </c>
-      <c r="G22" s="12">
-        <f>'[2]June 2021'!$C$30</f>
-        <v>1224</v>
-      </c>
-      <c r="H22" s="24">
-        <f>I22/24</f>
-        <v>60</v>
-      </c>
-      <c r="I22" s="33">
-        <f>1440</f>
-        <v>1440</v>
-      </c>
-      <c r="J22" s="13">
-        <f>K22/24</f>
-        <v>75</v>
-      </c>
-      <c r="K22" s="12">
-        <f>1800</f>
-        <v>1800</v>
-      </c>
-      <c r="L22" s="13">
-        <f>M22/24</f>
-        <v>13</v>
-      </c>
-      <c r="M22" s="12">
-        <f>120+72+120</f>
-        <v>312</v>
-      </c>
-      <c r="N22" s="24">
-        <f>O22/24</f>
-        <v>6</v>
-      </c>
-      <c r="O22" s="36">
-        <f>E22+G22-I22-K22-M22</f>
-        <v>144</v>
-      </c>
-      <c r="S22" s="6">
-        <v>72</v>
-      </c>
-      <c r="T22" s="9">
-        <f>14*24</f>
-        <v>336</v>
-      </c>
-      <c r="U22" s="34">
-        <f>S22+T22-O22</f>
-        <v>264</v>
-      </c>
-      <c r="V22" s="75"/>
-      <c r="W22" s="29"/>
-    </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="125" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="126"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="77">
-        <f>SUM(D21:D22)</f>
-        <v>126</v>
-      </c>
-      <c r="E23" s="78">
-        <f t="shared" ref="E23:H23" si="2">SUM(E21:E22)</f>
-        <v>3024</v>
-      </c>
-      <c r="F23" s="77">
-        <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="G23" s="78">
-        <f t="shared" si="2"/>
-        <v>1224</v>
-      </c>
-      <c r="H23" s="79">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="I23" s="80">
-        <f>SUM(I21:I22)</f>
-        <v>1440</v>
-      </c>
-      <c r="J23" s="77">
-        <f t="shared" ref="J23:O23" si="3">SUM(J21:J22)</f>
-        <v>75</v>
-      </c>
-      <c r="K23" s="78">
-        <f t="shared" si="3"/>
-        <v>1800</v>
-      </c>
-      <c r="L23" s="77">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="M23" s="78">
-        <f t="shared" si="3"/>
-        <v>624</v>
-      </c>
-      <c r="N23" s="77">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="O23" s="78">
-        <f t="shared" si="3"/>
-        <v>384</v>
-      </c>
-      <c r="S23" s="45"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="75"/>
-      <c r="W23" s="29"/>
-    </row>
-    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="119" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="120"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="74">
-        <f>E24/30</f>
-        <v>422</v>
-      </c>
-      <c r="E24" s="10">
-        <v>12660</v>
-      </c>
-      <c r="F24" s="74">
-        <f>G24/30</f>
-        <v>350</v>
-      </c>
-      <c r="G24" s="10">
-        <f>'[2]June 2021'!$D$30</f>
-        <v>10500</v>
-      </c>
-      <c r="H24" s="23">
-        <f>I24/30</f>
-        <v>20</v>
-      </c>
-      <c r="I24" s="10">
-        <f>600</f>
-        <v>600</v>
-      </c>
-      <c r="J24" s="23">
-        <f>K24/30</f>
-        <v>30</v>
-      </c>
-      <c r="K24" s="10">
-        <f>900</f>
-        <v>900</v>
-      </c>
-      <c r="L24" s="23">
-        <f>M24/30</f>
-        <v>662</v>
-      </c>
-      <c r="M24" s="10">
-        <f>8100+60+150+6000+750+4800</f>
-        <v>19860</v>
-      </c>
-      <c r="N24" s="23">
-        <f>O24/30</f>
-        <v>60</v>
-      </c>
-      <c r="O24" s="36">
-        <f>E24+G24-I24-K24-M24</f>
-        <v>1800</v>
-      </c>
-      <c r="S24" s="50">
-        <v>1770</v>
-      </c>
-      <c r="T24" s="51">
-        <f>18*30</f>
-        <v>540</v>
-      </c>
-      <c r="U24" s="47">
-        <f>S24+T24-O24</f>
-        <v>510</v>
-      </c>
-      <c r="V24" s="75"/>
-      <c r="W24" s="29"/>
-    </row>
-    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="137" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="138"/>
-      <c r="C25" s="139"/>
-      <c r="D25" s="81">
-        <f>E25/24</f>
-        <v>8</v>
-      </c>
-      <c r="E25" s="36">
-        <v>192</v>
-      </c>
-      <c r="F25" s="81">
-        <f>G25/24</f>
-        <v>23</v>
-      </c>
-      <c r="G25" s="27">
-        <f>'[2]June 2021'!$E$30</f>
-        <v>552</v>
-      </c>
-      <c r="H25" s="39">
-        <f>I25/24</f>
-        <v>20</v>
-      </c>
-      <c r="I25" s="27">
-        <f>480</f>
-        <v>480</v>
-      </c>
-      <c r="J25" s="40">
-        <f t="shared" ref="J25" si="4">K25/24</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="36">
-        <v>0</v>
-      </c>
-      <c r="L25" s="40">
-        <f t="shared" ref="L25" si="5">M25/24</f>
-        <v>5</v>
-      </c>
-      <c r="M25" s="36">
-        <f>120</f>
-        <v>120</v>
-      </c>
-      <c r="N25" s="39">
-        <f>O25/24</f>
-        <v>6</v>
-      </c>
-      <c r="O25" s="36">
-        <f t="shared" ref="O25:O27" si="6">E25+G25-I25-K25-M25</f>
-        <v>144</v>
-      </c>
-      <c r="S25" s="4">
-        <v>144</v>
-      </c>
-      <c r="T25" s="22">
-        <v>0</v>
-      </c>
-      <c r="U25" s="47">
-        <f t="shared" ref="U25:U27" si="7">S25+T25-O25</f>
-        <v>0</v>
-      </c>
-      <c r="V25" s="75"/>
-      <c r="W25" s="29"/>
-    </row>
-    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="134" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="135"/>
-      <c r="C26" s="136"/>
-      <c r="D26" s="82">
-        <f>E26/22</f>
-        <v>43</v>
-      </c>
-      <c r="E26" s="3">
-        <v>946</v>
-      </c>
-      <c r="F26" s="82">
-        <f>G26/22</f>
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
-        <f>'[2]June 2021'!$F$30</f>
-        <v>22</v>
-      </c>
-      <c r="H26" s="25">
-        <v>0</v>
-      </c>
-      <c r="I26" s="28">
-        <f>220</f>
-        <v>220</v>
-      </c>
-      <c r="J26" s="1">
-        <f>K26/22</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="1">
-        <f>M26/22</f>
-        <v>33</v>
-      </c>
-      <c r="M26" s="3">
-        <f>330+220+176</f>
-        <v>726</v>
-      </c>
-      <c r="N26" s="25">
-        <f>O26/22</f>
-        <v>1</v>
-      </c>
-      <c r="O26" s="36">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="R26" s="29"/>
-      <c r="S26" s="4">
-        <v>22</v>
-      </c>
-      <c r="T26" s="22">
-        <f>5*22</f>
-        <v>110</v>
-      </c>
-      <c r="U26" s="47">
-        <f t="shared" si="7"/>
-        <v>110</v>
-      </c>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-    </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="131" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="132"/>
-      <c r="C27" s="133"/>
-      <c r="D27" s="83">
-        <f>E27/22</f>
-        <v>22</v>
-      </c>
-      <c r="E27" s="41">
-        <v>484</v>
-      </c>
-      <c r="F27" s="83">
-        <f>G27/22</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="41">
-        <f>'[2]June 2021'!$G$30</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="42">
-        <f>I27/22</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="43">
-        <v>0</v>
-      </c>
-      <c r="J27" s="44">
-        <f>K27/22</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="41">
-        <v>0</v>
-      </c>
-      <c r="L27" s="44">
-        <f>M27/22</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="41">
-        <v>0</v>
-      </c>
-      <c r="N27" s="42">
-        <f>O27/22</f>
-        <v>22</v>
-      </c>
-      <c r="O27" s="38">
-        <f t="shared" si="6"/>
-        <v>484</v>
-      </c>
-      <c r="S27" s="52">
-        <v>418</v>
-      </c>
-      <c r="T27" s="53">
-        <f>3*22</f>
-        <v>66</v>
-      </c>
-      <c r="U27" s="47">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="75"/>
-      <c r="W27" s="29"/>
-    </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="125" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="126"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="79">
-        <f t="shared" ref="D28:O28" si="8">SUM(D24:D27)</f>
-        <v>495</v>
-      </c>
-      <c r="E28" s="21">
-        <f t="shared" si="8"/>
-        <v>14282</v>
-      </c>
-      <c r="F28" s="79">
-        <f t="shared" si="8"/>
-        <v>374</v>
-      </c>
-      <c r="G28" s="21">
-        <f t="shared" si="8"/>
-        <v>11074</v>
-      </c>
-      <c r="H28" s="79">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="I28" s="21">
-        <f t="shared" si="8"/>
-        <v>1300</v>
-      </c>
-      <c r="J28" s="79">
-        <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="K28" s="21">
-        <f t="shared" si="8"/>
-        <v>900</v>
-      </c>
-      <c r="L28" s="79">
-        <f t="shared" si="8"/>
-        <v>700</v>
-      </c>
-      <c r="M28" s="21">
-        <f t="shared" si="8"/>
-        <v>20706</v>
-      </c>
-      <c r="N28" s="79">
-        <f t="shared" si="8"/>
-        <v>89</v>
-      </c>
-      <c r="O28" s="21">
-        <f t="shared" si="8"/>
-        <v>2450</v>
-      </c>
-      <c r="S28" s="46"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="75"/>
-      <c r="W28" s="29"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="119" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="120"/>
-      <c r="C29" s="121"/>
-      <c r="D29" s="74">
-        <f>E29/24</f>
-        <v>54</v>
-      </c>
-      <c r="E29" s="10">
-        <v>1296</v>
-      </c>
-      <c r="F29" s="74">
-        <f>G29/24</f>
-        <v>179</v>
-      </c>
-      <c r="G29" s="10">
-        <f>'[2]June 2021'!$H$30</f>
-        <v>4296</v>
-      </c>
-      <c r="H29" s="23">
-        <f>I29/24</f>
-        <v>20</v>
-      </c>
-      <c r="I29" s="26">
-        <f>480</f>
-        <v>480</v>
-      </c>
-      <c r="J29" s="11">
-        <f t="shared" ref="J29:J31" si="9">K29/24</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="10">
-        <v>0</v>
-      </c>
-      <c r="L29" s="11">
-        <f t="shared" ref="L29:L31" si="10">M29/24</f>
-        <v>130</v>
-      </c>
-      <c r="M29" s="10">
-        <f>240+1200+1080+600</f>
-        <v>3120</v>
-      </c>
-      <c r="N29" s="23">
-        <f>O29/24</f>
-        <v>83</v>
-      </c>
-      <c r="O29" s="36">
-        <f>E29+G29-I29-K29-M29</f>
-        <v>1992</v>
-      </c>
-      <c r="S29" s="5">
-        <v>1992</v>
-      </c>
-      <c r="T29" s="16">
-        <v>0</v>
-      </c>
-      <c r="U29" s="30">
-        <f t="shared" ref="U29:U30" si="11">S29+T29-O29</f>
-        <v>0</v>
-      </c>
-      <c r="V29" s="75"/>
-      <c r="W29" s="29"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="134" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="135"/>
-      <c r="C30" s="136"/>
-      <c r="D30" s="82">
-        <f>E30/24</f>
-        <v>62</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1488</v>
-      </c>
-      <c r="F30" s="82">
-        <f>G30/24</f>
-        <v>62</v>
-      </c>
-      <c r="G30" s="3">
-        <f>'[2]June 2021'!$I$30</f>
-        <v>1488</v>
-      </c>
-      <c r="H30" s="25">
-        <f>I30/24</f>
-        <v>20</v>
-      </c>
-      <c r="I30" s="28">
-        <f>480</f>
-        <v>480</v>
-      </c>
-      <c r="J30" s="1">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="K30" s="3">
-        <f>120</f>
-        <v>120</v>
-      </c>
-      <c r="L30" s="1">
-        <f>M30/24</f>
-        <v>88</v>
-      </c>
-      <c r="M30" s="3">
-        <f>240+240+912+120+600</f>
-        <v>2112</v>
-      </c>
-      <c r="N30" s="25">
-        <f>O30/24</f>
-        <v>11</v>
-      </c>
-      <c r="O30" s="36">
-        <f t="shared" ref="O30:O31" si="12">E30+G30-I30-K30-M30</f>
-        <v>264</v>
-      </c>
-      <c r="S30" s="4">
-        <v>264</v>
-      </c>
-      <c r="T30" s="8">
-        <v>0</v>
-      </c>
-      <c r="U30" s="35">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="75"/>
-      <c r="W30" s="29"/>
-    </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="134" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="135"/>
-      <c r="C31" s="136"/>
-      <c r="D31" s="82">
-        <f>E31/24</f>
-        <v>414</v>
-      </c>
-      <c r="E31" s="3">
-        <v>9936</v>
-      </c>
-      <c r="F31" s="82">
-        <f>G31/24</f>
-        <v>770</v>
-      </c>
-      <c r="G31" s="3">
-        <f>'[2]June 2021'!$J$30</f>
-        <v>18480</v>
-      </c>
-      <c r="H31" s="25">
-        <f>I31/24</f>
-        <v>150</v>
-      </c>
-      <c r="I31" s="28">
-        <f>3600</f>
-        <v>3600</v>
-      </c>
-      <c r="J31" s="1">
-        <f t="shared" si="9"/>
-        <v>160</v>
-      </c>
-      <c r="K31" s="3">
-        <f>3840</f>
-        <v>3840</v>
-      </c>
-      <c r="L31" s="1">
-        <f t="shared" si="10"/>
-        <v>590</v>
-      </c>
-      <c r="M31" s="3">
-        <f>1200+120+120+360+3840+3600+120+3600+1200</f>
-        <v>14160</v>
-      </c>
-      <c r="N31" s="25">
-        <f>O31/24</f>
-        <v>284</v>
-      </c>
-      <c r="O31" s="36">
-        <f t="shared" si="12"/>
-        <v>6816</v>
-      </c>
-      <c r="S31" s="4">
-        <v>6312</v>
-      </c>
-      <c r="T31" s="8">
-        <f>51*24</f>
-        <v>1224</v>
-      </c>
-      <c r="U31" s="35">
-        <f>S31+T31-O31</f>
-        <v>720</v>
-      </c>
-      <c r="V31" s="75"/>
-      <c r="W31" s="29"/>
-    </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="125" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="126"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="84">
-        <f t="shared" ref="D32:O32" si="13">SUM(D29:D31)</f>
-        <v>530</v>
-      </c>
-      <c r="E32" s="78">
-        <f t="shared" si="13"/>
-        <v>12720</v>
-      </c>
-      <c r="F32" s="84">
-        <f t="shared" si="13"/>
-        <v>1011</v>
-      </c>
-      <c r="G32" s="78">
-        <f t="shared" si="13"/>
-        <v>24264</v>
-      </c>
-      <c r="H32" s="79">
-        <f t="shared" si="13"/>
-        <v>190</v>
-      </c>
-      <c r="I32" s="80">
-        <f t="shared" si="13"/>
-        <v>4560</v>
-      </c>
-      <c r="J32" s="84">
-        <f t="shared" si="13"/>
-        <v>165</v>
-      </c>
-      <c r="K32" s="78">
-        <f t="shared" si="13"/>
-        <v>3960</v>
-      </c>
-      <c r="L32" s="84">
-        <f t="shared" si="13"/>
-        <v>808</v>
-      </c>
-      <c r="M32" s="78">
-        <f t="shared" si="13"/>
-        <v>19392</v>
-      </c>
-      <c r="N32" s="84">
-        <f t="shared" si="13"/>
-        <v>378</v>
-      </c>
-      <c r="O32" s="78">
-        <f t="shared" si="13"/>
-        <v>9072</v>
-      </c>
-      <c r="S32" s="17"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="75"/>
-      <c r="W32" s="29"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="119" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="120"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="85">
-        <f>E33/12</f>
-        <v>184</v>
-      </c>
-      <c r="E33" s="14">
-        <v>2208</v>
-      </c>
-      <c r="F33" s="85">
-        <f>G33/12</f>
-        <v>643</v>
-      </c>
-      <c r="G33" s="14">
-        <f>'[2]June 2021'!$K$30</f>
-        <v>7716</v>
-      </c>
-      <c r="H33" s="23">
-        <f>I33/12</f>
-        <v>15</v>
-      </c>
-      <c r="I33" s="26">
-        <f>180</f>
-        <v>180</v>
-      </c>
-      <c r="J33" s="15">
-        <f t="shared" ref="J33:J34" si="14">K33/12</f>
-        <v>20</v>
-      </c>
-      <c r="K33" s="10">
-        <f>240</f>
-        <v>240</v>
-      </c>
-      <c r="L33" s="15">
-        <f t="shared" ref="L33:L34" si="15">M33/12</f>
-        <v>760</v>
-      </c>
-      <c r="M33" s="10">
-        <f>2400+60+24+3000+24+12+3600</f>
-        <v>9120</v>
-      </c>
-      <c r="N33" s="23">
-        <f>O33/12</f>
-        <v>32</v>
-      </c>
-      <c r="O33" s="36">
-        <f>E33+G33-I33-K33-M33</f>
-        <v>384</v>
-      </c>
-      <c r="S33" s="5">
-        <v>252</v>
-      </c>
-      <c r="T33" s="16">
-        <f>15*12</f>
-        <v>180</v>
-      </c>
-      <c r="U33" s="30">
-        <f>S33+T33-O33</f>
-        <v>48</v>
-      </c>
-      <c r="V33" s="86"/>
-      <c r="W33" s="29"/>
-    </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="122" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="123"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="76">
-        <f>E34/12</f>
-        <v>150</v>
-      </c>
-      <c r="E34" s="12">
-        <v>1800</v>
-      </c>
-      <c r="F34" s="76">
-        <f>G34/12</f>
-        <v>51</v>
-      </c>
-      <c r="G34" s="12">
-        <f>'[2]June 2021'!$L$30</f>
-        <v>612</v>
-      </c>
-      <c r="H34" s="24">
-        <f>I34/12</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="33">
-        <v>0</v>
-      </c>
-      <c r="J34" s="13">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="12">
-        <v>0</v>
-      </c>
-      <c r="L34" s="13">
-        <f t="shared" si="15"/>
-        <v>201</v>
-      </c>
-      <c r="M34" s="12">
-        <f>1800+612</f>
-        <v>2412</v>
-      </c>
-      <c r="N34" s="24">
-        <f>O34/12</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="36">
-        <f>E34+G34-I34-K34-M34</f>
-        <v>0</v>
-      </c>
-      <c r="S34" s="4">
-        <v>0</v>
-      </c>
-      <c r="T34" s="22">
-        <v>0</v>
-      </c>
-      <c r="U34" s="35">
-        <f>S34+T34-O34</f>
-        <v>0</v>
-      </c>
-      <c r="V34" s="75"/>
-      <c r="W34" s="29"/>
-    </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="125" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="126"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="84">
-        <f>SUM(D33:D34)</f>
-        <v>334</v>
-      </c>
-      <c r="E35" s="78">
-        <f t="shared" ref="E35:H35" si="16">SUM(E33:E34)</f>
-        <v>4008</v>
-      </c>
-      <c r="F35" s="84">
-        <f t="shared" si="16"/>
-        <v>694</v>
-      </c>
-      <c r="G35" s="78">
-        <f t="shared" si="16"/>
-        <v>8328</v>
-      </c>
-      <c r="H35" s="79">
-        <f t="shared" si="16"/>
-        <v>15</v>
-      </c>
-      <c r="I35" s="80">
-        <f>SUM(I33:I34)</f>
-        <v>180</v>
-      </c>
-      <c r="J35" s="84">
-        <f t="shared" ref="J35:O35" si="17">SUM(J33:J34)</f>
-        <v>20</v>
-      </c>
-      <c r="K35" s="78">
-        <f t="shared" si="17"/>
-        <v>240</v>
-      </c>
-      <c r="L35" s="84">
-        <f t="shared" si="17"/>
-        <v>961</v>
-      </c>
-      <c r="M35" s="78">
-        <f t="shared" si="17"/>
-        <v>11532</v>
-      </c>
-      <c r="N35" s="84">
-        <f t="shared" si="17"/>
-        <v>32</v>
-      </c>
-      <c r="O35" s="78">
-        <f t="shared" si="17"/>
-        <v>384</v>
-      </c>
-      <c r="S35" s="19"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="34"/>
-      <c r="W35" s="29"/>
-    </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="128" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="129"/>
-      <c r="C36" s="130"/>
-      <c r="D36" s="87">
-        <f t="shared" ref="D36:O36" si="18">D21+D22+D24+D25+D26+D27+D29+D30+D31+D33+D34</f>
-        <v>1485</v>
-      </c>
-      <c r="E36" s="87">
-        <f t="shared" si="18"/>
-        <v>34034</v>
-      </c>
-      <c r="F36" s="87">
-        <f t="shared" si="18"/>
-        <v>2130</v>
-      </c>
-      <c r="G36" s="87">
-        <f t="shared" si="18"/>
-        <v>44890</v>
-      </c>
-      <c r="H36" s="87">
-        <f t="shared" si="18"/>
-        <v>305</v>
-      </c>
-      <c r="I36" s="87">
-        <f>I21+I22+I24+I25+I26+I27+I29+I30+I31+I33+I34</f>
-        <v>7480</v>
-      </c>
-      <c r="J36" s="87">
-        <f t="shared" si="18"/>
-        <v>290</v>
-      </c>
-      <c r="K36" s="87">
-        <f t="shared" si="18"/>
-        <v>6900</v>
-      </c>
-      <c r="L36" s="87">
-        <f t="shared" si="18"/>
-        <v>2495</v>
-      </c>
-      <c r="M36" s="87">
-        <f t="shared" si="18"/>
-        <v>52254</v>
-      </c>
-      <c r="N36" s="87">
-        <f t="shared" si="18"/>
-        <v>515</v>
-      </c>
-      <c r="O36" s="87">
-        <f t="shared" si="18"/>
-        <v>12290</v>
-      </c>
-      <c r="S36" s="88">
-        <f>SUM(S21:S34)</f>
-        <v>11510</v>
-      </c>
-      <c r="T36" s="89">
-        <f>SUM(T21:T34)</f>
-        <v>2504</v>
-      </c>
-      <c r="U36" s="31">
-        <f>S36+T36-O36</f>
-        <v>1724</v>
-      </c>
-      <c r="W36" s="29"/>
-    </row>
-    <row r="37" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U37" s="32"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="V38" s="29"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="P40" s="75"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G41" s="29"/>
-    </row>
-    <row r="42" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="P42" s="90"/>
-    </row>
-  </sheetData>
-  <mergeCells count="91">
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A17:C20"/>
-    <mergeCell ref="D17:O17"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-  </mergeCells>
   <pageMargins left="0.41" right="0.25" top="0" bottom="0" header="0.23" footer="0.2"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/D.K STATEMENT -2021-22.xlsx
+++ b/D.K STATEMENT -2021-22.xlsx
@@ -1036,7 +1036,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1316,6 +1316,12 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1573,6 +1579,13 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1646,22 +1659,22 @@
       <sheetData sheetId="2">
         <row r="15">
           <cell r="K15">
-            <v>22373.7</v>
+            <v>30026.959999999999</v>
           </cell>
         </row>
         <row r="25">
           <cell r="K25">
-            <v>6085.12</v>
+            <v>3042.56</v>
           </cell>
         </row>
         <row r="35">
           <cell r="K35">
-            <v>18585</v>
+            <v>14868</v>
           </cell>
         </row>
         <row r="45">
           <cell r="K45">
-            <v>21192</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1756,34 +1769,34 @@
       <sheetData sheetId="2">
         <row r="30">
           <cell r="B30">
-            <v>0</v>
+            <v>576</v>
           </cell>
           <cell r="C30">
-            <v>1224</v>
+            <v>4464</v>
           </cell>
           <cell r="D30">
-            <v>18000</v>
+            <v>31050</v>
           </cell>
           <cell r="E30">
             <v>552</v>
           </cell>
           <cell r="F30">
-            <v>22</v>
+            <v>1452</v>
           </cell>
           <cell r="G30">
             <v>0</v>
           </cell>
           <cell r="H30">
-            <v>4296</v>
+            <v>10656</v>
           </cell>
           <cell r="I30">
-            <v>2016</v>
+            <v>4944</v>
           </cell>
           <cell r="J30">
-            <v>23112</v>
+            <v>41568</v>
           </cell>
           <cell r="K30">
-            <v>7716</v>
+            <v>10944</v>
           </cell>
           <cell r="L30">
             <v>612</v>
@@ -2113,257 +2126,257 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A2" s="121"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="126"/>
       <c r="M3" s="55"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="125"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="129" t="s">
+      <c r="A4" s="127"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="130"/>
+      <c r="D4" s="132"/>
       <c r="E4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="131" t="s">
+      <c r="F4" s="133" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="125" t="s">
+      <c r="H4" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="133"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="129" t="s">
+      <c r="I4" s="135"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="130"/>
+      <c r="L4" s="132"/>
       <c r="M4" s="55"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A5" s="127"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="134" t="s">
+      <c r="A5" s="129"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="135"/>
+      <c r="D5" s="137"/>
       <c r="E5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="132"/>
+      <c r="F5" s="134"/>
       <c r="G5" s="95"/>
-      <c r="H5" s="136" t="s">
+      <c r="H5" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="137"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="134" t="s">
+      <c r="I5" s="139"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="135"/>
+      <c r="L5" s="137"/>
       <c r="M5" s="55"/>
       <c r="T5" s="29"/>
       <c r="U5" s="29"/>
     </row>
     <row r="6" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A6" s="139"/>
-      <c r="B6" s="140"/>
-      <c r="C6" s="141">
+      <c r="A6" s="141"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="143">
         <v>666070.9</v>
       </c>
-      <c r="D6" s="142"/>
+      <c r="D6" s="144"/>
       <c r="E6" s="54"/>
       <c r="F6" s="97"/>
       <c r="G6" s="91">
         <f>C6+E6+F6</f>
         <v>666070.9</v>
       </c>
-      <c r="H6" s="141">
+      <c r="H6" s="143">
         <f>G15</f>
         <v>160041.90000000002</v>
       </c>
-      <c r="I6" s="143"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="144">
+      <c r="I6" s="145"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="146">
         <f>G6-H6</f>
         <v>506029</v>
       </c>
-      <c r="L6" s="145"/>
+      <c r="L6" s="147"/>
       <c r="M6" s="55"/>
       <c r="O6" s="29"/>
       <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
       <c r="U7" s="29"/>
     </row>
     <row r="8" spans="1:23" ht="22.5" customHeight="1">
-      <c r="A8" s="148" t="s">
+      <c r="A8" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="150" t="s">
+      <c r="B8" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="151"/>
-      <c r="D8" s="152" t="s">
+      <c r="C8" s="153"/>
+      <c r="D8" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="154" t="s">
+      <c r="E8" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="155"/>
-      <c r="G8" s="152" t="s">
+      <c r="F8" s="157"/>
+      <c r="G8" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="152" t="s">
+      <c r="H8" s="154" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="151" t="s">
+      <c r="J8" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="158"/>
-      <c r="L8" s="150" t="s">
+      <c r="K8" s="160"/>
+      <c r="L8" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="151"/>
-      <c r="N8" s="159" t="s">
+      <c r="M8" s="153"/>
+      <c r="N8" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="160"/>
-      <c r="P8" s="152" t="s">
+      <c r="O8" s="162"/>
+      <c r="P8" s="154" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="154" t="s">
+      <c r="Q8" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="155"/>
+      <c r="R8" s="157"/>
     </row>
     <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="149"/>
-      <c r="B9" s="136" t="s">
+      <c r="A9" s="151"/>
+      <c r="B9" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="153"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
       <c r="I9" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="137" t="s">
+      <c r="J9" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="138"/>
-      <c r="L9" s="136" t="s">
+      <c r="K9" s="140"/>
+      <c r="L9" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="137"/>
-      <c r="N9" s="146" t="s">
+      <c r="M9" s="139"/>
+      <c r="N9" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="147"/>
-      <c r="P9" s="153"/>
-      <c r="Q9" s="156"/>
-      <c r="R9" s="157"/>
+      <c r="O9" s="149"/>
+      <c r="P9" s="155"/>
+      <c r="Q9" s="158"/>
+      <c r="R9" s="159"/>
     </row>
     <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="144">
+      <c r="B10" s="146">
         <v>2060.5</v>
       </c>
-      <c r="C10" s="143"/>
+      <c r="C10" s="145"/>
       <c r="D10" s="60">
         <v>0</v>
       </c>
-      <c r="E10" s="144">
+      <c r="E10" s="146">
         <f>B10-D10</f>
         <v>2060.5</v>
       </c>
-      <c r="F10" s="145"/>
+      <c r="F10" s="147"/>
       <c r="G10" s="92">
         <f>36127.6+36854+36195.2</f>
         <v>109176.8</v>
@@ -2373,211 +2386,211 @@
         <v>292.40999999999997</v>
       </c>
       <c r="I10" s="60"/>
-      <c r="J10" s="144">
+      <c r="J10" s="146">
         <f>B10+G10+H10+I10</f>
         <v>111529.71</v>
       </c>
-      <c r="K10" s="145"/>
-      <c r="L10" s="144">
+      <c r="K10" s="147"/>
+      <c r="L10" s="146">
         <f>G29+G30+G31</f>
         <v>74136</v>
       </c>
-      <c r="M10" s="162"/>
-      <c r="N10" s="144">
+      <c r="M10" s="164"/>
+      <c r="N10" s="146">
         <f>J10-L10</f>
         <v>37393.710000000006</v>
       </c>
-      <c r="O10" s="145"/>
+      <c r="O10" s="147"/>
       <c r="P10" s="60">
         <f>'[1]April 2021-22'!$K$41</f>
         <v>28956.159999999996</v>
       </c>
-      <c r="Q10" s="144">
+      <c r="Q10" s="146">
         <f>N10-P10</f>
         <v>8437.5500000000102</v>
       </c>
-      <c r="R10" s="161"/>
+      <c r="R10" s="163"/>
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:23" ht="15.75" thickBot="1">
       <c r="A11" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="144">
+      <c r="B11" s="146">
         <v>6061.85</v>
       </c>
-      <c r="C11" s="143"/>
+      <c r="C11" s="145"/>
       <c r="D11" s="60">
         <v>0</v>
       </c>
-      <c r="E11" s="144">
+      <c r="E11" s="146">
         <f t="shared" ref="E11:E13" si="0">B11-D11</f>
         <v>6061.85</v>
       </c>
-      <c r="F11" s="145"/>
+      <c r="F11" s="147"/>
       <c r="G11" s="92">
         <v>15212.8</v>
       </c>
       <c r="H11" s="60"/>
       <c r="I11" s="60"/>
-      <c r="J11" s="144">
+      <c r="J11" s="146">
         <f>B11+G11+H11+I11</f>
         <v>21274.65</v>
       </c>
-      <c r="K11" s="145"/>
-      <c r="L11" s="144">
+      <c r="K11" s="147"/>
+      <c r="L11" s="146">
         <f>SUM(G21:G22)</f>
         <v>8664</v>
       </c>
-      <c r="M11" s="162"/>
-      <c r="N11" s="163">
+      <c r="M11" s="164"/>
+      <c r="N11" s="165">
         <f>J11-L11</f>
         <v>12610.650000000001</v>
       </c>
-      <c r="O11" s="164"/>
+      <c r="O11" s="166"/>
       <c r="P11" s="61">
         <f>'[1]April 2021-22'!$K$65</f>
         <v>12170.24</v>
       </c>
-      <c r="Q11" s="144">
+      <c r="Q11" s="146">
         <f t="shared" ref="Q11:Q13" si="1">N11-P11</f>
         <v>440.41000000000167</v>
       </c>
-      <c r="R11" s="161"/>
+      <c r="R11" s="163"/>
       <c r="S11" s="32"/>
     </row>
     <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="144">
+      <c r="B12" s="146">
         <v>11800.7</v>
       </c>
-      <c r="C12" s="143"/>
+      <c r="C12" s="145"/>
       <c r="D12" s="60">
         <v>0</v>
       </c>
-      <c r="E12" s="144">
+      <c r="E12" s="146">
         <f t="shared" si="0"/>
         <v>11800.7</v>
       </c>
-      <c r="F12" s="145"/>
+      <c r="F12" s="147"/>
       <c r="G12" s="92"/>
       <c r="H12" s="60"/>
       <c r="I12" s="60"/>
-      <c r="J12" s="144">
+      <c r="J12" s="146">
         <f>B12+G12+H12+I12</f>
         <v>11800.7</v>
       </c>
-      <c r="K12" s="145"/>
-      <c r="L12" s="144">
+      <c r="K12" s="147"/>
+      <c r="L12" s="146">
         <f>SUM(G33:G34)</f>
         <v>7560</v>
       </c>
-      <c r="M12" s="161"/>
-      <c r="N12" s="144">
+      <c r="M12" s="163"/>
+      <c r="N12" s="146">
         <f>J12-L12</f>
         <v>4240.7000000000007</v>
       </c>
-      <c r="O12" s="145"/>
+      <c r="O12" s="147"/>
       <c r="P12" s="61">
         <f>'[1]April 2021-22'!$K$57</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="144">
+      <c r="Q12" s="146">
         <f t="shared" si="1"/>
         <v>4240.7000000000007</v>
       </c>
-      <c r="R12" s="161"/>
+      <c r="R12" s="163"/>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1">
       <c r="A13" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="144">
+      <c r="B13" s="146">
         <v>30749.88</v>
       </c>
-      <c r="C13" s="143"/>
+      <c r="C13" s="145"/>
       <c r="D13" s="60">
         <v>0</v>
       </c>
-      <c r="E13" s="144">
+      <c r="E13" s="146">
         <f t="shared" si="0"/>
         <v>30749.88</v>
       </c>
-      <c r="F13" s="145"/>
+      <c r="F13" s="147"/>
       <c r="G13" s="92">
         <f>35652.3</f>
         <v>35652.300000000003</v>
       </c>
       <c r="H13" s="60"/>
       <c r="I13" s="60"/>
-      <c r="J13" s="144">
+      <c r="J13" s="146">
         <f>B13+G13+H13+I13</f>
         <v>66402.180000000008</v>
       </c>
-      <c r="K13" s="145"/>
-      <c r="L13" s="144">
+      <c r="K13" s="147"/>
+      <c r="L13" s="146">
         <f>G24+G25+G26+G27</f>
         <v>38302</v>
       </c>
-      <c r="M13" s="161"/>
-      <c r="N13" s="144">
+      <c r="M13" s="163"/>
+      <c r="N13" s="146">
         <f>J13-L13</f>
         <v>28100.180000000008</v>
       </c>
-      <c r="O13" s="145"/>
+      <c r="O13" s="147"/>
       <c r="P13" s="61">
         <f>'[1]April 2021-22'!$K$49</f>
         <v>21391.380000000005</v>
       </c>
-      <c r="Q13" s="144">
+      <c r="Q13" s="146">
         <f t="shared" si="1"/>
         <v>6708.8000000000029</v>
       </c>
-      <c r="R13" s="161"/>
+      <c r="R13" s="163"/>
       <c r="U13" s="29"/>
       <c r="W13" s="29"/>
     </row>
     <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="58"/>
-      <c r="B14" s="165"/>
-      <c r="C14" s="166"/>
+      <c r="B14" s="167"/>
+      <c r="C14" s="168"/>
       <c r="D14" s="61"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="167"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="169"/>
       <c r="G14" s="92"/>
       <c r="H14" s="60"/>
       <c r="I14" s="60"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="145"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="147"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="147"/>
       <c r="N14" s="62"/>
       <c r="O14" s="63"/>
       <c r="P14" s="60"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="161"/>
+      <c r="Q14" s="146"/>
+      <c r="R14" s="163"/>
       <c r="T14" s="64"/>
     </row>
     <row r="15" spans="1:23" ht="15.75" thickBot="1">
       <c r="A15" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="144">
+      <c r="B15" s="146">
         <f>SUM(B10:C14)</f>
         <v>50672.930000000008</v>
       </c>
-      <c r="C15" s="145"/>
+      <c r="C15" s="147"/>
       <c r="D15" s="60">
         <f>SUM(D10:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="144">
+      <c r="E15" s="146">
         <f>SUM(E10:F14)</f>
         <v>50672.930000000008</v>
       </c>
-      <c r="F15" s="124"/>
+      <c r="F15" s="126"/>
       <c r="G15" s="92">
         <f>SUM(G10:G14)</f>
         <v>160041.90000000002</v>
@@ -2590,30 +2603,30 @@
         <f>SUM(I10:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="143">
+      <c r="J15" s="145">
         <f>SUM(J10:K14)</f>
         <v>211007.24000000005</v>
       </c>
-      <c r="K15" s="145"/>
-      <c r="L15" s="144">
+      <c r="K15" s="147"/>
+      <c r="L15" s="146">
         <f>SUM(L10:M14)</f>
         <v>128662</v>
       </c>
-      <c r="M15" s="162"/>
-      <c r="N15" s="144">
+      <c r="M15" s="164"/>
+      <c r="N15" s="146">
         <f>SUM(N10:O14)</f>
         <v>82345.24000000002</v>
       </c>
-      <c r="O15" s="145"/>
+      <c r="O15" s="147"/>
       <c r="P15" s="60">
         <f>SUM(P10:P14)</f>
         <v>62517.78</v>
       </c>
-      <c r="Q15" s="144">
+      <c r="Q15" s="146">
         <f>SUM(Q10:R13)</f>
         <v>19827.460000000014</v>
       </c>
-      <c r="R15" s="145"/>
+      <c r="R15" s="147"/>
       <c r="S15" s="29"/>
     </row>
     <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1">
@@ -2632,82 +2645,82 @@
       <c r="M16" s="67"/>
     </row>
     <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="171" t="s">
+      <c r="A17" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="172"/>
-      <c r="C17" s="172"/>
-      <c r="D17" s="179" t="s">
+      <c r="B17" s="174"/>
+      <c r="C17" s="174"/>
+      <c r="D17" s="181" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="180"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="180"/>
-      <c r="L17" s="180"/>
-      <c r="M17" s="180"/>
-      <c r="N17" s="180"/>
-      <c r="O17" s="181"/>
+      <c r="E17" s="182"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="182"/>
+      <c r="H17" s="182"/>
+      <c r="I17" s="182"/>
+      <c r="J17" s="182"/>
+      <c r="K17" s="182"/>
+      <c r="L17" s="182"/>
+      <c r="M17" s="182"/>
+      <c r="N17" s="182"/>
+      <c r="O17" s="183"/>
       <c r="P17" s="68"/>
       <c r="Q17" s="68"/>
       <c r="R17" s="68"/>
       <c r="S17" s="68"/>
     </row>
     <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="173"/>
-      <c r="B18" s="174"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="182" t="s">
+      <c r="A18" s="175"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="183"/>
-      <c r="F18" s="182" t="s">
+      <c r="E18" s="185"/>
+      <c r="F18" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="183"/>
-      <c r="H18" s="186" t="s">
+      <c r="G18" s="185"/>
+      <c r="H18" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="187"/>
-      <c r="J18" s="187"/>
-      <c r="K18" s="187"/>
-      <c r="L18" s="182" t="s">
+      <c r="I18" s="189"/>
+      <c r="J18" s="189"/>
+      <c r="K18" s="189"/>
+      <c r="L18" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="183"/>
-      <c r="N18" s="182" t="s">
+      <c r="M18" s="185"/>
+      <c r="N18" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="O18" s="183"/>
+      <c r="O18" s="185"/>
     </row>
     <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="173"/>
-      <c r="B19" s="174"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="185"/>
-      <c r="F19" s="182"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="179" t="s">
+      <c r="A19" s="175"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="186"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="185"/>
+      <c r="H19" s="181" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="180"/>
-      <c r="J19" s="179" t="s">
+      <c r="I19" s="182"/>
+      <c r="J19" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="180"/>
-      <c r="L19" s="184"/>
-      <c r="M19" s="185"/>
-      <c r="N19" s="184"/>
-      <c r="O19" s="185"/>
+      <c r="K19" s="182"/>
+      <c r="L19" s="186"/>
+      <c r="M19" s="187"/>
+      <c r="N19" s="186"/>
+      <c r="O19" s="187"/>
     </row>
     <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A20" s="176"/>
-      <c r="B20" s="177"/>
-      <c r="C20" s="178"/>
+      <c r="A20" s="178"/>
+      <c r="B20" s="179"/>
+      <c r="C20" s="180"/>
       <c r="D20" s="98" t="s">
         <v>26</v>
       </c>
@@ -2755,11 +2768,11 @@
       </c>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="188" t="s">
+      <c r="A21" s="190" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="189"/>
-      <c r="C21" s="190"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="192"/>
       <c r="D21" s="74">
         <f>E21/24</f>
         <v>4</v>
@@ -2821,11 +2834,11 @@
       <c r="W21" s="29"/>
     </row>
     <row r="22" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A22" s="191" t="s">
+      <c r="A22" s="193" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="192"/>
-      <c r="C22" s="193"/>
+      <c r="B22" s="194"/>
+      <c r="C22" s="195"/>
       <c r="D22" s="76">
         <f>E22/24</f>
         <v>1</v>
@@ -2888,11 +2901,11 @@
       <c r="W22" s="29"/>
     </row>
     <row r="23" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A23" s="194" t="s">
+      <c r="A23" s="196" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="195"/>
-      <c r="C23" s="196"/>
+      <c r="B23" s="197"/>
+      <c r="C23" s="198"/>
       <c r="D23" s="77">
         <f>SUM(D21:D22)</f>
         <v>5</v>
@@ -2948,11 +2961,11 @@
       <c r="W23" s="29"/>
     </row>
     <row r="24" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A24" s="188" t="s">
+      <c r="A24" s="190" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="189"/>
-      <c r="C24" s="190"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="192"/>
       <c r="D24" s="74">
         <f>E24/30</f>
         <v>38</v>
@@ -3015,11 +3028,11 @@
       <c r="W24" s="29"/>
     </row>
     <row r="25" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A25" s="197" t="s">
+      <c r="A25" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="198"/>
-      <c r="C25" s="199"/>
+      <c r="B25" s="200"/>
+      <c r="C25" s="201"/>
       <c r="D25" s="81">
         <f>E25/24</f>
         <v>0</v>
@@ -3080,11 +3093,11 @@
       <c r="W25" s="29"/>
     </row>
     <row r="26" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A26" s="168" t="s">
+      <c r="A26" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="169"/>
-      <c r="C26" s="170"/>
+      <c r="B26" s="171"/>
+      <c r="C26" s="172"/>
       <c r="D26" s="82">
         <f>E26/22</f>
         <v>51</v>
@@ -3146,11 +3159,11 @@
       <c r="W26" s="29"/>
     </row>
     <row r="27" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A27" s="203" t="s">
+      <c r="A27" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="204"/>
-      <c r="C27" s="205"/>
+      <c r="B27" s="206"/>
+      <c r="C27" s="207"/>
       <c r="D27" s="83">
         <f>E27/22</f>
         <v>23</v>
@@ -3212,11 +3225,11 @@
       <c r="W27" s="29"/>
     </row>
     <row r="28" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A28" s="194" t="s">
+      <c r="A28" s="196" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="195"/>
-      <c r="C28" s="196"/>
+      <c r="B28" s="197"/>
+      <c r="C28" s="198"/>
       <c r="D28" s="79">
         <f t="shared" ref="D28:O28" si="8">SUM(D24:D27)</f>
         <v>112</v>
@@ -3272,11 +3285,11 @@
       <c r="W28" s="29"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="188" t="s">
+      <c r="A29" s="190" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="189"/>
-      <c r="C29" s="190"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="192"/>
       <c r="D29" s="74">
         <f>E29/24</f>
         <v>0</v>
@@ -3338,11 +3351,11 @@
       <c r="W29" s="29"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="168" t="s">
+      <c r="A30" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="169"/>
-      <c r="C30" s="170"/>
+      <c r="B30" s="171"/>
+      <c r="C30" s="172"/>
       <c r="D30" s="82">
         <f>E30/24</f>
         <v>49</v>
@@ -3404,11 +3417,11 @@
       <c r="W30" s="29"/>
     </row>
     <row r="31" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A31" s="168" t="s">
+      <c r="A31" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="169"/>
-      <c r="C31" s="170"/>
+      <c r="B31" s="171"/>
+      <c r="C31" s="172"/>
       <c r="D31" s="82">
         <f>E31/24</f>
         <v>18</v>
@@ -3471,11 +3484,11 @@
       <c r="W31" s="29"/>
     </row>
     <row r="32" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A32" s="194" t="s">
+      <c r="A32" s="196" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="195"/>
-      <c r="C32" s="196"/>
+      <c r="B32" s="197"/>
+      <c r="C32" s="198"/>
       <c r="D32" s="84">
         <f t="shared" ref="D32:O32" si="13">SUM(D29:D31)</f>
         <v>67</v>
@@ -3531,11 +3544,11 @@
       <c r="W32" s="29"/>
     </row>
     <row r="33" spans="1:23">
-      <c r="A33" s="188" t="s">
+      <c r="A33" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="189"/>
-      <c r="C33" s="190"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="192"/>
       <c r="D33" s="85">
         <f>E33/12</f>
         <v>35</v>
@@ -3598,11 +3611,11 @@
       <c r="W33" s="29"/>
     </row>
     <row r="34" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A34" s="191" t="s">
+      <c r="A34" s="193" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="192"/>
-      <c r="C34" s="193"/>
+      <c r="B34" s="194"/>
+      <c r="C34" s="195"/>
       <c r="D34" s="76">
         <f>E34/12</f>
         <v>0</v>
@@ -3662,11 +3675,11 @@
       <c r="W34" s="29"/>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A35" s="194" t="s">
+      <c r="A35" s="196" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="195"/>
-      <c r="C35" s="196"/>
+      <c r="B35" s="197"/>
+      <c r="C35" s="198"/>
       <c r="D35" s="84">
         <f>SUM(D33:D34)</f>
         <v>35</v>
@@ -3721,11 +3734,11 @@
       <c r="W35" s="29"/>
     </row>
     <row r="36" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A36" s="200" t="s">
+      <c r="A36" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="201"/>
-      <c r="C36" s="202"/>
+      <c r="B36" s="203"/>
+      <c r="C36" s="204"/>
       <c r="D36" s="87">
         <f t="shared" ref="D36:O36" si="18">D21+D22+D24+D25+D26+D27+D29+D30+D31+D33+D34</f>
         <v>219</v>
@@ -3937,257 +3950,257 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A2" s="121"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="126"/>
       <c r="M3" s="55"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="125"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="129" t="s">
+      <c r="A4" s="127"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="130"/>
+      <c r="D4" s="132"/>
       <c r="E4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="131" t="s">
+      <c r="F4" s="133" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="125" t="s">
+      <c r="H4" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="133"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="129" t="s">
+      <c r="I4" s="135"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="130"/>
+      <c r="L4" s="132"/>
       <c r="M4" s="55"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A5" s="127"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="134" t="s">
+      <c r="A5" s="129"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="135"/>
+      <c r="D5" s="137"/>
       <c r="E5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="132"/>
+      <c r="F5" s="134"/>
       <c r="G5" s="103"/>
-      <c r="H5" s="136" t="s">
+      <c r="H5" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="137"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="134" t="s">
+      <c r="I5" s="139"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="135"/>
+      <c r="L5" s="137"/>
       <c r="M5" s="55"/>
       <c r="T5" s="29"/>
       <c r="U5" s="29"/>
     </row>
     <row r="6" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A6" s="139"/>
-      <c r="B6" s="140"/>
-      <c r="C6" s="141">
+      <c r="A6" s="141"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="143">
         <v>506029</v>
       </c>
-      <c r="D6" s="142"/>
+      <c r="D6" s="144"/>
       <c r="E6" s="54"/>
       <c r="F6" s="107"/>
       <c r="G6" s="104">
         <f>C6+E6+F6</f>
         <v>506029</v>
       </c>
-      <c r="H6" s="141">
+      <c r="H6" s="143">
         <f>G15</f>
         <v>51224.7</v>
       </c>
-      <c r="I6" s="143"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="144">
+      <c r="I6" s="145"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="146">
         <f>G6-H6</f>
         <v>454804.3</v>
       </c>
-      <c r="L6" s="145"/>
+      <c r="L6" s="147"/>
       <c r="M6" s="55"/>
       <c r="O6" s="29"/>
       <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
       <c r="U7" s="29"/>
     </row>
     <row r="8" spans="1:23" ht="22.5" customHeight="1">
-      <c r="A8" s="148" t="s">
+      <c r="A8" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="150" t="s">
+      <c r="B8" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="151"/>
-      <c r="D8" s="152" t="s">
+      <c r="C8" s="153"/>
+      <c r="D8" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="154" t="s">
+      <c r="E8" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="155"/>
-      <c r="G8" s="152" t="s">
+      <c r="F8" s="157"/>
+      <c r="G8" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="152" t="s">
+      <c r="H8" s="154" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="151" t="s">
+      <c r="J8" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="158"/>
-      <c r="L8" s="150" t="s">
+      <c r="K8" s="160"/>
+      <c r="L8" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="151"/>
-      <c r="N8" s="159" t="s">
+      <c r="M8" s="153"/>
+      <c r="N8" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="160"/>
-      <c r="P8" s="152" t="s">
+      <c r="O8" s="162"/>
+      <c r="P8" s="154" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="154" t="s">
+      <c r="Q8" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="155"/>
+      <c r="R8" s="157"/>
     </row>
     <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="149"/>
-      <c r="B9" s="136" t="s">
+      <c r="A9" s="151"/>
+      <c r="B9" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="153"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
       <c r="I9" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="137" t="s">
+      <c r="J9" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="138"/>
-      <c r="L9" s="136" t="s">
+      <c r="K9" s="140"/>
+      <c r="L9" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="137"/>
-      <c r="N9" s="146" t="s">
+      <c r="M9" s="139"/>
+      <c r="N9" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="147"/>
-      <c r="P9" s="153"/>
-      <c r="Q9" s="156"/>
-      <c r="R9" s="157"/>
+      <c r="O9" s="149"/>
+      <c r="P9" s="155"/>
+      <c r="Q9" s="158"/>
+      <c r="R9" s="159"/>
     </row>
     <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="144">
+      <c r="B10" s="146">
         <v>37393.71</v>
       </c>
-      <c r="C10" s="143"/>
+      <c r="C10" s="145"/>
       <c r="D10" s="60">
         <v>28956.16</v>
       </c>
-      <c r="E10" s="144">
+      <c r="E10" s="146">
         <f>B10-D10</f>
         <v>8437.5499999999993</v>
       </c>
-      <c r="F10" s="145"/>
+      <c r="F10" s="147"/>
       <c r="G10" s="105">
         <v>35224</v>
       </c>
@@ -4195,30 +4208,30 @@
         <v>144.78</v>
       </c>
       <c r="I10" s="60"/>
-      <c r="J10" s="144">
+      <c r="J10" s="146">
         <f>B10+G10+H10+I10</f>
         <v>72762.489999999991</v>
       </c>
-      <c r="K10" s="145"/>
-      <c r="L10" s="144">
+      <c r="K10" s="147"/>
+      <c r="L10" s="146">
         <f>G29+G30+G31</f>
         <v>52536</v>
       </c>
-      <c r="M10" s="162"/>
-      <c r="N10" s="144">
+      <c r="M10" s="164"/>
+      <c r="N10" s="146">
         <f>J10-L10</f>
         <v>20226.489999999991</v>
       </c>
-      <c r="O10" s="145"/>
+      <c r="O10" s="147"/>
       <c r="P10" s="60">
         <f>'[1]May 2021'!$K$15</f>
         <v>7044.7999999999993</v>
       </c>
-      <c r="Q10" s="144">
+      <c r="Q10" s="146">
         <f>N10-P10</f>
         <v>13181.689999999991</v>
       </c>
-      <c r="R10" s="161"/>
+      <c r="R10" s="163"/>
       <c r="S10" s="32"/>
       <c r="U10" s="2" t="s">
         <v>53</v>
@@ -4228,180 +4241,180 @@
       <c r="A11" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="144">
+      <c r="B11" s="146">
         <v>12610.65</v>
       </c>
-      <c r="C11" s="143"/>
+      <c r="C11" s="145"/>
       <c r="D11" s="60">
         <v>12170.24</v>
       </c>
-      <c r="E11" s="144">
+      <c r="E11" s="146">
         <f t="shared" ref="E11:E13" si="0">B11-D11</f>
         <v>440.40999999999985</v>
       </c>
-      <c r="F11" s="145"/>
+      <c r="F11" s="147"/>
       <c r="G11" s="105"/>
       <c r="H11" s="60"/>
       <c r="I11" s="60"/>
-      <c r="J11" s="144">
+      <c r="J11" s="146">
         <f>B11+G11+H11+I11</f>
         <v>12610.65</v>
       </c>
-      <c r="K11" s="145"/>
-      <c r="L11" s="144">
+      <c r="K11" s="147"/>
+      <c r="L11" s="146">
         <f>SUM(G21:G22)</f>
         <v>4344</v>
       </c>
-      <c r="M11" s="162"/>
-      <c r="N11" s="163">
+      <c r="M11" s="164"/>
+      <c r="N11" s="165">
         <f>J11-L11</f>
         <v>8266.65</v>
       </c>
-      <c r="O11" s="164"/>
+      <c r="O11" s="166"/>
       <c r="P11" s="60">
         <f>'[1]May 2021'!$K$25</f>
         <v>6085.12</v>
       </c>
-      <c r="Q11" s="144">
+      <c r="Q11" s="146">
         <f t="shared" ref="Q11:Q13" si="1">N11-P11</f>
         <v>2181.5299999999997</v>
       </c>
-      <c r="R11" s="161"/>
+      <c r="R11" s="163"/>
       <c r="S11" s="32"/>
     </row>
     <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="144">
+      <c r="B12" s="146">
         <v>4240.7</v>
       </c>
-      <c r="C12" s="143"/>
+      <c r="C12" s="145"/>
       <c r="D12" s="60">
         <v>0</v>
       </c>
-      <c r="E12" s="144">
+      <c r="E12" s="146">
         <f t="shared" si="0"/>
         <v>4240.7</v>
       </c>
-      <c r="F12" s="145"/>
+      <c r="F12" s="147"/>
       <c r="G12" s="105">
         <v>16000.7</v>
       </c>
       <c r="H12" s="60"/>
       <c r="I12" s="60"/>
-      <c r="J12" s="144">
+      <c r="J12" s="146">
         <f>B12+G12+H12+I12</f>
         <v>20241.400000000001</v>
       </c>
-      <c r="K12" s="145"/>
-      <c r="L12" s="144">
+      <c r="K12" s="147"/>
+      <c r="L12" s="146">
         <f>SUM(G33:G34)</f>
         <v>9492</v>
       </c>
-      <c r="M12" s="161"/>
-      <c r="N12" s="144">
+      <c r="M12" s="163"/>
+      <c r="N12" s="146">
         <f>J12-L12</f>
         <v>10749.400000000001</v>
       </c>
-      <c r="O12" s="145"/>
+      <c r="O12" s="147"/>
       <c r="P12" s="60">
         <f>'[1]May 2021'!$K$35</f>
         <v>9600.42</v>
       </c>
-      <c r="Q12" s="144">
+      <c r="Q12" s="146">
         <f t="shared" si="1"/>
         <v>1148.9800000000014</v>
       </c>
-      <c r="R12" s="161"/>
+      <c r="R12" s="163"/>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1">
       <c r="A13" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="144">
+      <c r="B13" s="146">
         <v>28100.18</v>
       </c>
-      <c r="C13" s="143"/>
+      <c r="C13" s="145"/>
       <c r="D13" s="60">
         <v>21391.38</v>
       </c>
-      <c r="E13" s="144">
+      <c r="E13" s="146">
         <f t="shared" si="0"/>
         <v>6708.7999999999993</v>
       </c>
-      <c r="F13" s="145"/>
+      <c r="F13" s="147"/>
       <c r="G13" s="105"/>
       <c r="H13" s="60">
         <v>142.61000000000001</v>
       </c>
       <c r="I13" s="60"/>
-      <c r="J13" s="144">
+      <c r="J13" s="146">
         <f>B13+G13+H13+I13</f>
         <v>28242.79</v>
       </c>
-      <c r="K13" s="145"/>
-      <c r="L13" s="144">
+      <c r="K13" s="147"/>
+      <c r="L13" s="146">
         <f>G24+G25+G26+G27</f>
         <v>24454</v>
       </c>
-      <c r="M13" s="161"/>
-      <c r="N13" s="144">
+      <c r="M13" s="163"/>
+      <c r="N13" s="146">
         <f>J13-L13</f>
         <v>3788.7900000000009</v>
       </c>
-      <c r="O13" s="145"/>
+      <c r="O13" s="147"/>
       <c r="P13" s="60">
         <f>'[1]May 2021'!$K$45</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="144">
+      <c r="Q13" s="146">
         <f t="shared" si="1"/>
         <v>3788.7900000000009</v>
       </c>
-      <c r="R13" s="161"/>
+      <c r="R13" s="163"/>
       <c r="V13" s="29"/>
       <c r="W13" s="29"/>
     </row>
     <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="58"/>
-      <c r="B14" s="165"/>
-      <c r="C14" s="166"/>
+      <c r="B14" s="167"/>
+      <c r="C14" s="168"/>
       <c r="D14" s="61"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="167"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="169"/>
       <c r="G14" s="105"/>
       <c r="H14" s="60"/>
       <c r="I14" s="60"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="145"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="147"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="147"/>
       <c r="N14" s="62"/>
       <c r="O14" s="63"/>
       <c r="P14" s="60"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="161"/>
+      <c r="Q14" s="146"/>
+      <c r="R14" s="163"/>
       <c r="T14" s="64"/>
     </row>
     <row r="15" spans="1:23" ht="15.75" thickBot="1">
       <c r="A15" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="144">
+      <c r="B15" s="146">
         <f>SUM(B10:C14)</f>
         <v>82345.239999999991</v>
       </c>
-      <c r="C15" s="145"/>
+      <c r="C15" s="147"/>
       <c r="D15" s="60">
         <f>SUM(D10:D14)</f>
         <v>62517.78</v>
       </c>
-      <c r="E15" s="144">
+      <c r="E15" s="146">
         <f>SUM(E10:F14)</f>
         <v>19827.46</v>
       </c>
-      <c r="F15" s="124"/>
+      <c r="F15" s="126"/>
       <c r="G15" s="105">
         <f>SUM(G10:G14)</f>
         <v>51224.7</v>
@@ -4414,30 +4427,30 @@
         <f>SUM(I10:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="143">
+      <c r="J15" s="145">
         <f>SUM(J10:K14)</f>
         <v>133857.32999999999</v>
       </c>
-      <c r="K15" s="145"/>
-      <c r="L15" s="144">
+      <c r="K15" s="147"/>
+      <c r="L15" s="146">
         <f>SUM(L10:M14)</f>
         <v>90826</v>
       </c>
-      <c r="M15" s="162"/>
-      <c r="N15" s="144">
+      <c r="M15" s="164"/>
+      <c r="N15" s="146">
         <f>SUM(N10:O14)</f>
         <v>43031.329999999994</v>
       </c>
-      <c r="O15" s="145"/>
+      <c r="O15" s="147"/>
       <c r="P15" s="60">
         <f>SUM(P10:P14)</f>
         <v>22730.339999999997</v>
       </c>
-      <c r="Q15" s="144">
+      <c r="Q15" s="146">
         <f>SUM(Q10:R13)</f>
         <v>20300.989999999991</v>
       </c>
-      <c r="R15" s="145"/>
+      <c r="R15" s="147"/>
       <c r="S15" s="29"/>
     </row>
     <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1">
@@ -4456,82 +4469,82 @@
       <c r="M16" s="67"/>
     </row>
     <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="171" t="s">
+      <c r="A17" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="172"/>
-      <c r="C17" s="172"/>
-      <c r="D17" s="179" t="s">
+      <c r="B17" s="174"/>
+      <c r="C17" s="174"/>
+      <c r="D17" s="181" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="180"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="180"/>
-      <c r="L17" s="180"/>
-      <c r="M17" s="180"/>
-      <c r="N17" s="180"/>
-      <c r="O17" s="181"/>
+      <c r="E17" s="182"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="182"/>
+      <c r="H17" s="182"/>
+      <c r="I17" s="182"/>
+      <c r="J17" s="182"/>
+      <c r="K17" s="182"/>
+      <c r="L17" s="182"/>
+      <c r="M17" s="182"/>
+      <c r="N17" s="182"/>
+      <c r="O17" s="183"/>
       <c r="P17" s="68"/>
       <c r="Q17" s="68"/>
       <c r="R17" s="68"/>
       <c r="S17" s="68"/>
     </row>
     <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="173"/>
-      <c r="B18" s="174"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="182" t="s">
+      <c r="A18" s="175"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="183"/>
-      <c r="F18" s="182" t="s">
+      <c r="E18" s="185"/>
+      <c r="F18" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="183"/>
-      <c r="H18" s="186" t="s">
+      <c r="G18" s="185"/>
+      <c r="H18" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="187"/>
-      <c r="J18" s="187"/>
-      <c r="K18" s="187"/>
-      <c r="L18" s="182" t="s">
+      <c r="I18" s="189"/>
+      <c r="J18" s="189"/>
+      <c r="K18" s="189"/>
+      <c r="L18" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="183"/>
-      <c r="N18" s="182" t="s">
+      <c r="M18" s="185"/>
+      <c r="N18" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="O18" s="183"/>
+      <c r="O18" s="185"/>
     </row>
     <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="173"/>
-      <c r="B19" s="174"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="185"/>
-      <c r="F19" s="182"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="179" t="s">
+      <c r="A19" s="175"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="186"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="185"/>
+      <c r="H19" s="181" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="180"/>
-      <c r="J19" s="179" t="s">
+      <c r="I19" s="182"/>
+      <c r="J19" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="180"/>
-      <c r="L19" s="184"/>
-      <c r="M19" s="185"/>
-      <c r="N19" s="184"/>
-      <c r="O19" s="185"/>
+      <c r="K19" s="182"/>
+      <c r="L19" s="186"/>
+      <c r="M19" s="187"/>
+      <c r="N19" s="186"/>
+      <c r="O19" s="187"/>
     </row>
     <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A20" s="176"/>
-      <c r="B20" s="177"/>
-      <c r="C20" s="178"/>
+      <c r="A20" s="178"/>
+      <c r="B20" s="179"/>
+      <c r="C20" s="180"/>
       <c r="D20" s="108" t="s">
         <v>26</v>
       </c>
@@ -4579,11 +4592,11 @@
       </c>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="188" t="s">
+      <c r="A21" s="190" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="189"/>
-      <c r="C21" s="190"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="192"/>
       <c r="D21" s="74">
         <f>E21/24</f>
         <v>14</v>
@@ -4646,11 +4659,11 @@
       <c r="W21" s="29"/>
     </row>
     <row r="22" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A22" s="191" t="s">
+      <c r="A22" s="193" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="192"/>
-      <c r="C22" s="193"/>
+      <c r="B22" s="194"/>
+      <c r="C22" s="195"/>
       <c r="D22" s="76">
         <f>E22/24</f>
         <v>82</v>
@@ -4713,11 +4726,11 @@
       <c r="W22" s="29"/>
     </row>
     <row r="23" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A23" s="194" t="s">
+      <c r="A23" s="196" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="195"/>
-      <c r="C23" s="196"/>
+      <c r="B23" s="197"/>
+      <c r="C23" s="198"/>
       <c r="D23" s="77">
         <f>SUM(D21:D22)</f>
         <v>96</v>
@@ -4773,11 +4786,11 @@
       <c r="W23" s="29"/>
     </row>
     <row r="24" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A24" s="188" t="s">
+      <c r="A24" s="190" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="189"/>
-      <c r="C24" s="190"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="192"/>
       <c r="D24" s="74">
         <f>E24/30</f>
         <v>138</v>
@@ -4839,11 +4852,11 @@
       <c r="W24" s="29"/>
     </row>
     <row r="25" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A25" s="197" t="s">
+      <c r="A25" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="198"/>
-      <c r="C25" s="199"/>
+      <c r="B25" s="200"/>
+      <c r="C25" s="201"/>
       <c r="D25" s="81">
         <f>E25/24</f>
         <v>8</v>
@@ -4902,11 +4915,11 @@
       <c r="W25" s="29"/>
     </row>
     <row r="26" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A26" s="168" t="s">
+      <c r="A26" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="169"/>
-      <c r="C26" s="170"/>
+      <c r="B26" s="171"/>
+      <c r="C26" s="172"/>
       <c r="D26" s="82">
         <f>E26/22</f>
         <v>25</v>
@@ -4969,11 +4982,11 @@
       <c r="W26" s="29"/>
     </row>
     <row r="27" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A27" s="203" t="s">
+      <c r="A27" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="204"/>
-      <c r="C27" s="205"/>
+      <c r="B27" s="206"/>
+      <c r="C27" s="207"/>
       <c r="D27" s="83">
         <f>E27/22</f>
         <v>3</v>
@@ -5035,11 +5048,11 @@
       <c r="W27" s="29"/>
     </row>
     <row r="28" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A28" s="194" t="s">
+      <c r="A28" s="196" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="195"/>
-      <c r="C28" s="196"/>
+      <c r="B28" s="197"/>
+      <c r="C28" s="198"/>
       <c r="D28" s="79">
         <f t="shared" ref="D28:O28" si="8">SUM(D24:D27)</f>
         <v>174</v>
@@ -5095,11 +5108,11 @@
       <c r="W28" s="29"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="188" t="s">
+      <c r="A29" s="190" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="189"/>
-      <c r="C29" s="190"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="192"/>
       <c r="D29" s="74">
         <f>E29/24</f>
         <v>0</v>
@@ -5161,11 +5174,11 @@
       <c r="W29" s="29"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="168" t="s">
+      <c r="A30" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="169"/>
-      <c r="C30" s="170"/>
+      <c r="B30" s="171"/>
+      <c r="C30" s="172"/>
       <c r="D30" s="82">
         <f>E30/24</f>
         <v>0</v>
@@ -5226,11 +5239,11 @@
       <c r="W30" s="29"/>
     </row>
     <row r="31" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A31" s="168" t="s">
+      <c r="A31" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="169"/>
-      <c r="C31" s="170"/>
+      <c r="B31" s="171"/>
+      <c r="C31" s="172"/>
       <c r="D31" s="82">
         <f>E31/24</f>
         <v>123</v>
@@ -5293,11 +5306,11 @@
       <c r="W31" s="29"/>
     </row>
     <row r="32" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A32" s="194" t="s">
+      <c r="A32" s="196" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="195"/>
-      <c r="C32" s="196"/>
+      <c r="B32" s="197"/>
+      <c r="C32" s="198"/>
       <c r="D32" s="84">
         <f t="shared" ref="D32:O32" si="13">SUM(D29:D31)</f>
         <v>123</v>
@@ -5353,11 +5366,11 @@
       <c r="W32" s="29"/>
     </row>
     <row r="33" spans="1:23">
-      <c r="A33" s="188" t="s">
+      <c r="A33" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="189"/>
-      <c r="C33" s="190"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="192"/>
       <c r="D33" s="85">
         <f>E33/12</f>
         <v>34</v>
@@ -5419,11 +5432,11 @@
       <c r="W33" s="29"/>
     </row>
     <row r="34" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A34" s="191" t="s">
+      <c r="A34" s="193" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="192"/>
-      <c r="C34" s="193"/>
+      <c r="B34" s="194"/>
+      <c r="C34" s="195"/>
       <c r="D34" s="76">
         <f>E34/12</f>
         <v>0</v>
@@ -5483,11 +5496,11 @@
       <c r="W34" s="29"/>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A35" s="194" t="s">
+      <c r="A35" s="196" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="195"/>
-      <c r="C35" s="196"/>
+      <c r="B35" s="197"/>
+      <c r="C35" s="198"/>
       <c r="D35" s="84">
         <f>SUM(D33:D34)</f>
         <v>34</v>
@@ -5542,11 +5555,11 @@
       <c r="W35" s="29"/>
     </row>
     <row r="36" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A36" s="200" t="s">
+      <c r="A36" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="201"/>
-      <c r="C36" s="202"/>
+      <c r="B36" s="203"/>
+      <c r="C36" s="204"/>
       <c r="D36" s="87">
         <f t="shared" ref="D36:O36" si="18">D21+D22+D24+D25+D26+D27+D29+D30+D31+D33+D34</f>
         <v>427</v>
@@ -5725,10 +5738,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W42"/>
+  <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5749,360 +5762,369 @@
     <col min="14" max="14" width="6.42578125" style="2" customWidth="1"/>
     <col min="15" max="15" width="7.28515625" style="2" customWidth="1"/>
     <col min="16" max="17" width="7.85546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="6" style="2" customWidth="1"/>
-    <col min="19" max="19" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="2"/>
-    <col min="24" max="24" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="2"/>
+    <col min="18" max="19" width="6" style="2" customWidth="1"/>
+    <col min="20" max="20" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="2"/>
+    <col min="25" max="25" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75">
-      <c r="A1" s="120" t="s">
+    <row r="1" spans="1:24" ht="18.75">
+      <c r="A1" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A2" s="121"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-    </row>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A3" s="122" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="119"/>
+    </row>
+    <row r="2" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="120"/>
+    </row>
+    <row r="3" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A3" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="126"/>
       <c r="M3" s="55"/>
     </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="125"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="129" t="s">
+    <row r="4" spans="1:24">
+      <c r="A4" s="127"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="130"/>
+      <c r="D4" s="132"/>
       <c r="E4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="131" t="s">
+      <c r="F4" s="133" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="125" t="s">
+      <c r="H4" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="133"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="129" t="s">
+      <c r="I4" s="135"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="130"/>
+      <c r="L4" s="132"/>
       <c r="M4" s="55"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A5" s="127"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="134" t="s">
+    <row r="5" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A5" s="129"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="135"/>
+      <c r="D5" s="137"/>
       <c r="E5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="132"/>
+      <c r="F5" s="134"/>
       <c r="G5" s="115"/>
-      <c r="H5" s="136" t="s">
+      <c r="H5" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="137"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="134" t="s">
+      <c r="I5" s="139"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="135"/>
+      <c r="L5" s="137"/>
       <c r="M5" s="55"/>
-      <c r="T5" s="29"/>
       <c r="U5" s="29"/>
-    </row>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A6" s="139"/>
-      <c r="B6" s="140"/>
-      <c r="C6" s="141">
+      <c r="V5" s="29"/>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A6" s="141"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="143">
         <v>454804.3</v>
       </c>
-      <c r="D6" s="142"/>
+      <c r="D6" s="144"/>
       <c r="E6" s="54"/>
       <c r="F6" s="114"/>
       <c r="G6" s="118">
         <f>C6+E6+F6</f>
         <v>454804.3</v>
       </c>
-      <c r="H6" s="141">
+      <c r="H6" s="143">
         <f>G15</f>
-        <v>91194.5</v>
-      </c>
-      <c r="I6" s="143"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="144">
+        <v>128728.2</v>
+      </c>
+      <c r="I6" s="145"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="146">
         <f>G6-H6</f>
-        <v>363609.8</v>
-      </c>
-      <c r="L6" s="145"/>
+        <v>326076.09999999998</v>
+      </c>
+      <c r="L6" s="147"/>
       <c r="M6" s="55"/>
       <c r="O6" s="29"/>
       <c r="Q6" s="29"/>
     </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="119" t="s">
+    <row r="7" spans="1:24" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A7" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="U7" s="29"/>
-    </row>
-    <row r="8" spans="1:23" ht="22.5" customHeight="1">
-      <c r="A8" s="148" t="s">
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="208"/>
+      <c r="V7" s="29"/>
+    </row>
+    <row r="8" spans="1:24" ht="22.5" customHeight="1">
+      <c r="A8" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="150" t="s">
+      <c r="B8" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="151"/>
-      <c r="D8" s="152" t="s">
+      <c r="C8" s="153"/>
+      <c r="D8" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="154" t="s">
+      <c r="E8" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="155"/>
-      <c r="G8" s="152" t="s">
+      <c r="F8" s="157"/>
+      <c r="G8" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="152" t="s">
+      <c r="H8" s="154" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="151" t="s">
+      <c r="J8" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="158"/>
-      <c r="L8" s="150" t="s">
+      <c r="K8" s="160"/>
+      <c r="L8" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="151"/>
-      <c r="N8" s="159" t="s">
+      <c r="M8" s="153"/>
+      <c r="N8" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="160"/>
-      <c r="P8" s="152" t="s">
+      <c r="O8" s="162"/>
+      <c r="P8" s="154" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="154" t="s">
+      <c r="Q8" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="155"/>
-    </row>
-    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="149"/>
-      <c r="B9" s="136" t="s">
+      <c r="R8" s="157"/>
+      <c r="S8" s="209"/>
+    </row>
+    <row r="9" spans="1:24" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A9" s="151"/>
+      <c r="B9" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="153"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
       <c r="I9" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="137" t="s">
+      <c r="J9" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="138"/>
-      <c r="L9" s="136" t="s">
+      <c r="K9" s="140"/>
+      <c r="L9" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="137"/>
-      <c r="N9" s="146" t="s">
+      <c r="M9" s="139"/>
+      <c r="N9" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="147"/>
-      <c r="P9" s="153"/>
-      <c r="Q9" s="156"/>
-      <c r="R9" s="157"/>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="O9" s="149"/>
+      <c r="P9" s="155"/>
+      <c r="Q9" s="158"/>
+      <c r="R9" s="159"/>
+      <c r="S9" s="209"/>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="144">
+      <c r="B10" s="146">
         <v>20226.490000000002</v>
       </c>
-      <c r="C10" s="143"/>
+      <c r="C10" s="145"/>
       <c r="D10" s="60">
         <v>7044.8</v>
       </c>
-      <c r="E10" s="144">
+      <c r="E10" s="146">
         <f>B10-D10</f>
         <v>13181.690000000002</v>
       </c>
-      <c r="F10" s="145"/>
+      <c r="F10" s="147"/>
       <c r="G10" s="110">
-        <v>37289.5</v>
+        <f>37289.5+37533.7</f>
+        <v>74823.199999999997</v>
       </c>
       <c r="H10" s="60">
-        <v>140.9</v>
+        <f>140.9+149.16</f>
+        <v>290.06</v>
       </c>
       <c r="I10" s="60"/>
-      <c r="J10" s="144">
+      <c r="J10" s="146">
         <f>B10+G10+H10+I10</f>
-        <v>57656.890000000007</v>
-      </c>
-      <c r="K10" s="145"/>
-      <c r="L10" s="144">
+        <v>95339.75</v>
+      </c>
+      <c r="K10" s="147"/>
+      <c r="L10" s="146">
         <f>G29+G30+G31</f>
-        <v>29424</v>
-      </c>
-      <c r="M10" s="162"/>
-      <c r="N10" s="144">
+        <v>57168</v>
+      </c>
+      <c r="M10" s="164"/>
+      <c r="N10" s="146">
         <f>J10-L10</f>
-        <v>28232.890000000007</v>
-      </c>
-      <c r="O10" s="145"/>
+        <v>38171.75</v>
+      </c>
+      <c r="O10" s="147"/>
       <c r="P10" s="60">
         <f>'[1]June 2021'!$K$15</f>
-        <v>22373.7</v>
-      </c>
-      <c r="Q10" s="144">
+        <v>30026.959999999999</v>
+      </c>
+      <c r="Q10" s="146">
         <f>N10-P10</f>
-        <v>5859.190000000006</v>
-      </c>
-      <c r="R10" s="161"/>
-      <c r="S10" s="32"/>
-    </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1">
+        <v>8144.7900000000009</v>
+      </c>
+      <c r="R10" s="163"/>
+      <c r="S10" s="210"/>
+      <c r="T10" s="32"/>
+    </row>
+    <row r="11" spans="1:24" ht="15.75" thickBot="1">
       <c r="A11" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="144">
+      <c r="B11" s="146">
         <v>8266.65</v>
       </c>
-      <c r="C11" s="143"/>
+      <c r="C11" s="145"/>
       <c r="D11" s="60">
         <v>6085.12</v>
       </c>
-      <c r="E11" s="144">
+      <c r="E11" s="146">
         <f t="shared" ref="E11:E13" si="0">B11-D11</f>
         <v>2181.5299999999997</v>
       </c>
-      <c r="F11" s="145"/>
+      <c r="F11" s="147"/>
       <c r="G11" s="110"/>
       <c r="H11" s="60"/>
       <c r="I11" s="60"/>
-      <c r="J11" s="144">
+      <c r="J11" s="146">
         <f>B11+G11+H11+I11</f>
         <v>8266.65</v>
       </c>
-      <c r="K11" s="145"/>
-      <c r="L11" s="144">
+      <c r="K11" s="147"/>
+      <c r="L11" s="146">
         <f>SUM(G21:G22)</f>
-        <v>1224</v>
-      </c>
-      <c r="M11" s="162"/>
-      <c r="N11" s="163">
+        <v>5040</v>
+      </c>
+      <c r="M11" s="164"/>
+      <c r="N11" s="165">
         <f>J11-L11</f>
-        <v>7042.65</v>
-      </c>
-      <c r="O11" s="164"/>
+        <v>3226.6499999999996</v>
+      </c>
+      <c r="O11" s="166"/>
       <c r="P11" s="60">
         <f>'[1]June 2021'!$K$25</f>
-        <v>6085.12</v>
-      </c>
-      <c r="Q11" s="144">
+        <v>3042.56</v>
+      </c>
+      <c r="Q11" s="146">
         <f t="shared" ref="Q11:Q13" si="1">N11-P11</f>
-        <v>957.52999999999975</v>
-      </c>
-      <c r="R11" s="161"/>
-      <c r="S11" s="32"/>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+        <v>184.08999999999969</v>
+      </c>
+      <c r="R11" s="163"/>
+      <c r="S11" s="210"/>
+      <c r="T11" s="32"/>
+    </row>
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="144">
+      <c r="B12" s="146">
         <v>10749.4</v>
       </c>
-      <c r="C12" s="143"/>
+      <c r="C12" s="145"/>
       <c r="D12" s="60">
         <v>9600.42</v>
       </c>
-      <c r="E12" s="144">
+      <c r="E12" s="146">
         <f t="shared" si="0"/>
         <v>1148.9799999999996</v>
       </c>
-      <c r="F12" s="145"/>
+      <c r="F12" s="147"/>
       <c r="G12" s="110">
         <v>18585</v>
       </c>
@@ -6110,157 +6132,163 @@
         <v>64</v>
       </c>
       <c r="I12" s="60"/>
-      <c r="J12" s="144">
+      <c r="J12" s="146">
         <f>B12+G12+H12+I12</f>
         <v>29398.400000000001</v>
       </c>
-      <c r="K12" s="145"/>
-      <c r="L12" s="144">
+      <c r="K12" s="147"/>
+      <c r="L12" s="146">
         <f>SUM(G33:G34)</f>
-        <v>8328</v>
-      </c>
-      <c r="M12" s="161"/>
-      <c r="N12" s="144">
+        <v>11556</v>
+      </c>
+      <c r="M12" s="163"/>
+      <c r="N12" s="146">
         <f>J12-L12</f>
-        <v>21070.400000000001</v>
-      </c>
-      <c r="O12" s="145"/>
+        <v>17842.400000000001</v>
+      </c>
+      <c r="O12" s="147"/>
       <c r="P12" s="60">
         <f>'[1]June 2021'!$K$35</f>
-        <v>18585</v>
-      </c>
-      <c r="Q12" s="144">
+        <v>14868</v>
+      </c>
+      <c r="Q12" s="146">
         <f t="shared" si="1"/>
-        <v>2485.4000000000015</v>
-      </c>
-      <c r="R12" s="161"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1">
+        <v>2974.4000000000015</v>
+      </c>
+      <c r="R12" s="163"/>
+      <c r="S12" s="210"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" thickBot="1">
       <c r="A13" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="144">
+      <c r="B13" s="146">
         <v>3788.79</v>
       </c>
-      <c r="C13" s="143"/>
+      <c r="C13" s="145"/>
       <c r="D13" s="60">
         <v>0</v>
       </c>
-      <c r="E13" s="144">
+      <c r="E13" s="146">
         <f t="shared" si="0"/>
         <v>3788.79</v>
       </c>
-      <c r="F13" s="145"/>
+      <c r="F13" s="147"/>
       <c r="G13" s="110">
         <v>35320</v>
       </c>
-      <c r="H13" s="60"/>
+      <c r="H13" s="60">
+        <v>141.28</v>
+      </c>
       <c r="I13" s="60"/>
-      <c r="J13" s="144">
+      <c r="J13" s="146">
         <f>B13+G13+H13+I13</f>
-        <v>39108.79</v>
-      </c>
-      <c r="K13" s="145"/>
-      <c r="L13" s="144">
+        <v>39250.07</v>
+      </c>
+      <c r="K13" s="147"/>
+      <c r="L13" s="146">
         <f>G24+G25+G26+G27</f>
-        <v>18574</v>
-      </c>
-      <c r="M13" s="161"/>
-      <c r="N13" s="144">
+        <v>33054</v>
+      </c>
+      <c r="M13" s="163"/>
+      <c r="N13" s="146">
         <f>J13-L13</f>
-        <v>20534.79</v>
-      </c>
-      <c r="O13" s="145"/>
+        <v>6196.07</v>
+      </c>
+      <c r="O13" s="147"/>
       <c r="P13" s="60">
         <f>'[1]June 2021'!$K$45</f>
-        <v>21192</v>
-      </c>
-      <c r="Q13" s="144">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="146">
         <f t="shared" si="1"/>
-        <v>-657.20999999999913</v>
-      </c>
-      <c r="R13" s="161"/>
-      <c r="V13" s="29"/>
+        <v>6196.07</v>
+      </c>
+      <c r="R13" s="163"/>
+      <c r="S13" s="210"/>
       <c r="W13" s="29"/>
-    </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="X13" s="29"/>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="58"/>
-      <c r="B14" s="165"/>
-      <c r="C14" s="166"/>
+      <c r="B14" s="167"/>
+      <c r="C14" s="168"/>
       <c r="D14" s="61"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="167"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="169"/>
       <c r="G14" s="110"/>
       <c r="H14" s="60"/>
       <c r="I14" s="60"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="145"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="147"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="147"/>
       <c r="N14" s="62"/>
       <c r="O14" s="63"/>
       <c r="P14" s="60"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="161"/>
-      <c r="T14" s="64"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1">
+      <c r="Q14" s="146"/>
+      <c r="R14" s="163"/>
+      <c r="S14" s="210"/>
+      <c r="U14" s="64"/>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" thickBot="1">
       <c r="A15" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="144">
+      <c r="B15" s="146">
         <f>SUM(B10:C14)</f>
         <v>43031.33</v>
       </c>
-      <c r="C15" s="145"/>
+      <c r="C15" s="147"/>
       <c r="D15" s="60">
         <f>SUM(D10:D14)</f>
         <v>22730.34</v>
       </c>
-      <c r="E15" s="144">
+      <c r="E15" s="146">
         <f>SUM(E10:F14)</f>
         <v>20300.990000000002</v>
       </c>
-      <c r="F15" s="124"/>
+      <c r="F15" s="126"/>
       <c r="G15" s="110">
         <f>SUM(G10:G14)</f>
-        <v>91194.5</v>
+        <v>128728.2</v>
       </c>
       <c r="H15" s="60">
         <f>SUM(H10:H14)</f>
-        <v>204.9</v>
+        <v>495.34000000000003</v>
       </c>
       <c r="I15" s="60">
         <f>SUM(I10:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="143">
+      <c r="J15" s="145">
         <f>SUM(J10:K14)</f>
-        <v>134430.73000000001</v>
-      </c>
-      <c r="K15" s="145"/>
-      <c r="L15" s="144">
+        <v>172254.87</v>
+      </c>
+      <c r="K15" s="147"/>
+      <c r="L15" s="146">
         <f>SUM(L10:M14)</f>
-        <v>57550</v>
-      </c>
-      <c r="M15" s="162"/>
-      <c r="N15" s="144">
+        <v>106818</v>
+      </c>
+      <c r="M15" s="164"/>
+      <c r="N15" s="146">
         <f>SUM(N10:O14)</f>
-        <v>76880.73000000001</v>
-      </c>
-      <c r="O15" s="145"/>
+        <v>65436.87</v>
+      </c>
+      <c r="O15" s="147"/>
       <c r="P15" s="60">
         <f>SUM(P10:P14)</f>
-        <v>68235.820000000007</v>
-      </c>
-      <c r="Q15" s="144">
+        <v>47937.52</v>
+      </c>
+      <c r="Q15" s="146">
         <f>SUM(Q10:R13)</f>
-        <v>8644.9100000000071</v>
-      </c>
-      <c r="R15" s="145"/>
-      <c r="S15" s="29"/>
-    </row>
-    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1">
+        <v>17499.350000000002</v>
+      </c>
+      <c r="R15" s="147"/>
+      <c r="S15" s="208"/>
+      <c r="T15" s="29"/>
+    </row>
+    <row r="16" spans="1:24" ht="6.75" customHeight="1" thickBot="1">
       <c r="A16" s="65"/>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -6275,83 +6303,84 @@
       <c r="L16" s="67"/>
       <c r="M16" s="67"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="171" t="s">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A17" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="172"/>
-      <c r="C17" s="172"/>
-      <c r="D17" s="179" t="s">
+      <c r="B17" s="174"/>
+      <c r="C17" s="174"/>
+      <c r="D17" s="181" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="180"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="180"/>
-      <c r="L17" s="180"/>
-      <c r="M17" s="180"/>
-      <c r="N17" s="180"/>
-      <c r="O17" s="181"/>
+      <c r="E17" s="182"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="182"/>
+      <c r="H17" s="182"/>
+      <c r="I17" s="182"/>
+      <c r="J17" s="182"/>
+      <c r="K17" s="182"/>
+      <c r="L17" s="182"/>
+      <c r="M17" s="182"/>
+      <c r="N17" s="182"/>
+      <c r="O17" s="183"/>
       <c r="P17" s="68"/>
       <c r="Q17" s="68"/>
       <c r="R17" s="68"/>
       <c r="S17" s="68"/>
-    </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="173"/>
-      <c r="B18" s="174"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="182" t="s">
+      <c r="T17" s="68"/>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A18" s="175"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="183"/>
-      <c r="F18" s="182" t="s">
+      <c r="E18" s="185"/>
+      <c r="F18" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="183"/>
-      <c r="H18" s="186" t="s">
+      <c r="G18" s="185"/>
+      <c r="H18" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="187"/>
-      <c r="J18" s="187"/>
-      <c r="K18" s="187"/>
-      <c r="L18" s="182" t="s">
+      <c r="I18" s="189"/>
+      <c r="J18" s="189"/>
+      <c r="K18" s="189"/>
+      <c r="L18" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="183"/>
-      <c r="N18" s="182" t="s">
+      <c r="M18" s="185"/>
+      <c r="N18" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="O18" s="183"/>
-    </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="173"/>
-      <c r="B19" s="174"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="185"/>
-      <c r="F19" s="182"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="179" t="s">
+      <c r="O18" s="185"/>
+    </row>
+    <row r="19" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A19" s="175"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="186"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="185"/>
+      <c r="H19" s="181" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="180"/>
-      <c r="J19" s="179" t="s">
+      <c r="I19" s="182"/>
+      <c r="J19" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="180"/>
-      <c r="L19" s="184"/>
-      <c r="M19" s="185"/>
-      <c r="N19" s="184"/>
-      <c r="O19" s="185"/>
-    </row>
-    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A20" s="176"/>
-      <c r="B20" s="177"/>
-      <c r="C20" s="178"/>
+      <c r="K19" s="182"/>
+      <c r="L19" s="186"/>
+      <c r="M19" s="187"/>
+      <c r="N19" s="186"/>
+      <c r="O19" s="187"/>
+    </row>
+    <row r="20" spans="1:24" s="71" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A20" s="178"/>
+      <c r="B20" s="179"/>
+      <c r="C20" s="180"/>
       <c r="D20" s="111" t="s">
         <v>26</v>
       </c>
@@ -6388,22 +6417,22 @@
       <c r="O20" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="S20" s="72" t="s">
+      <c r="T20" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="T20" s="73" t="s">
+      <c r="U20" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="U20" s="37" t="s">
+      <c r="V20" s="37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
-      <c r="A21" s="188" t="s">
+    <row r="21" spans="1:24">
+      <c r="A21" s="190" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="189"/>
-      <c r="C21" s="190"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="192"/>
       <c r="D21" s="74">
         <f>E21/24</f>
         <v>23</v>
@@ -6413,18 +6442,19 @@
       </c>
       <c r="F21" s="74">
         <f>G21/24</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G21" s="10">
         <f>'[2]June 2021'!$B$30</f>
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="H21" s="23">
         <f>I21/24</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I21" s="26">
-        <v>0</v>
+        <f>600</f>
+        <v>600</v>
       </c>
       <c r="J21" s="11">
         <f>K21/24</f>
@@ -6443,32 +6473,32 @@
       </c>
       <c r="N21" s="23">
         <f>O21/24</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O21" s="36">
         <f>E21+G21-I21-K21-M21</f>
-        <v>240</v>
-      </c>
-      <c r="S21" s="5">
-        <v>240</v>
-      </c>
-      <c r="T21" s="7">
-        <f>2*24</f>
-        <v>48</v>
-      </c>
-      <c r="U21" s="30">
-        <f>S21+T21-O21</f>
-        <v>48</v>
-      </c>
-      <c r="V21" s="75"/>
-      <c r="W21" s="29"/>
-    </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A22" s="191" t="s">
+        <v>216</v>
+      </c>
+      <c r="T21" s="5">
+        <v>216</v>
+      </c>
+      <c r="U21" s="7">
+        <f>6*24</f>
+        <v>144</v>
+      </c>
+      <c r="V21" s="30">
+        <f>T21+U21-O21</f>
+        <v>144</v>
+      </c>
+      <c r="W21" s="75"/>
+      <c r="X21" s="29"/>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A22" s="193" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="192"/>
-      <c r="C22" s="193"/>
+      <c r="B22" s="194"/>
+      <c r="C22" s="195"/>
       <c r="D22" s="76">
         <f>E22/24</f>
         <v>103</v>
@@ -6478,64 +6508,63 @@
       </c>
       <c r="F22" s="76">
         <f>G22/24</f>
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="G22" s="12">
         <f>'[2]June 2021'!$C$30</f>
-        <v>1224</v>
+        <v>4464</v>
       </c>
       <c r="H22" s="24">
         <f>I22/24</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I22" s="33">
-        <f>1440</f>
-        <v>1440</v>
+        <f>2880</f>
+        <v>2880</v>
       </c>
       <c r="J22" s="13">
         <f>K22/24</f>
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="K22" s="12">
-        <f>1800</f>
-        <v>1800</v>
+        <f>3120</f>
+        <v>3120</v>
       </c>
       <c r="L22" s="13">
         <f>M22/24</f>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M22" s="12">
-        <f>120+72+120+24+24</f>
-        <v>360</v>
+        <v>552</v>
       </c>
       <c r="N22" s="24">
         <f>O22/24</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="O22" s="36">
         <f>E22+G22-I22-K22-M22</f>
-        <v>96</v>
-      </c>
-      <c r="S22" s="6">
-        <v>72</v>
-      </c>
-      <c r="T22" s="9">
-        <f>14*24</f>
-        <v>336</v>
-      </c>
-      <c r="U22" s="34">
-        <f>S22+T22-O22</f>
-        <v>312</v>
-      </c>
-      <c r="V22" s="75"/>
-      <c r="W22" s="29"/>
-    </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A23" s="194" t="s">
+        <v>384</v>
+      </c>
+      <c r="T22" s="6">
+        <v>360</v>
+      </c>
+      <c r="U22" s="9">
+        <f>0*24</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="34">
+        <f>T22+U22-O22</f>
+        <v>-24</v>
+      </c>
+      <c r="W22" s="75"/>
+      <c r="X22" s="29"/>
+    </row>
+    <row r="23" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A23" s="196" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="195"/>
-      <c r="C23" s="196"/>
+      <c r="B23" s="197"/>
+      <c r="C23" s="198"/>
       <c r="D23" s="77">
         <f>SUM(D21:D22)</f>
         <v>126</v>
@@ -6546,56 +6575,56 @@
       </c>
       <c r="F23" s="77">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>210</v>
       </c>
       <c r="G23" s="78">
         <f t="shared" si="2"/>
-        <v>1224</v>
+        <v>5040</v>
       </c>
       <c r="H23" s="79">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="I23" s="80">
         <f>SUM(I21:I22)</f>
-        <v>1440</v>
+        <v>3480</v>
       </c>
       <c r="J23" s="77">
         <f t="shared" ref="J23:O23" si="3">SUM(J21:J22)</f>
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="K23" s="78">
         <f t="shared" si="3"/>
-        <v>1800</v>
+        <v>3120</v>
       </c>
       <c r="L23" s="77">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M23" s="78">
         <f t="shared" si="3"/>
-        <v>672</v>
+        <v>864</v>
       </c>
       <c r="N23" s="77">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="O23" s="78">
         <f t="shared" si="3"/>
-        <v>336</v>
-      </c>
-      <c r="S23" s="45"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="75"/>
-      <c r="W23" s="29"/>
-    </row>
-    <row r="24" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A24" s="188" t="s">
+        <v>600</v>
+      </c>
+      <c r="T23" s="45"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="75"/>
+      <c r="X23" s="29"/>
+    </row>
+    <row r="24" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A24" s="190" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="189"/>
-      <c r="C24" s="190"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="192"/>
       <c r="D24" s="74">
         <f>E24/30</f>
         <v>422</v>
@@ -6605,64 +6634,63 @@
       </c>
       <c r="F24" s="74">
         <f>G24/30</f>
-        <v>600</v>
+        <v>1035</v>
       </c>
       <c r="G24" s="10">
         <f>'[2]June 2021'!$D$30</f>
-        <v>18000</v>
+        <v>31050</v>
       </c>
       <c r="H24" s="23">
         <f>I24/30</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I24" s="10">
-        <f>600</f>
-        <v>600</v>
+        <f>1200</f>
+        <v>1200</v>
       </c>
       <c r="J24" s="23">
         <f>K24/30</f>
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K24" s="10">
-        <f>900</f>
-        <v>900</v>
+        <f>3000</f>
+        <v>3000</v>
       </c>
       <c r="L24" s="23">
         <f>M24/30</f>
-        <v>688</v>
+        <v>1259</v>
       </c>
       <c r="M24" s="10">
-        <f>8100+60+150+6000+750+4800+300+450+30</f>
-        <v>20640</v>
+        <v>37770</v>
       </c>
       <c r="N24" s="23">
         <f>O24/30</f>
-        <v>284</v>
+        <v>58</v>
       </c>
       <c r="O24" s="36">
         <f>E24+G24-I24-K24-M24</f>
-        <v>8520</v>
-      </c>
-      <c r="S24" s="50">
-        <v>8460</v>
-      </c>
-      <c r="T24" s="51">
-        <f>18*30</f>
-        <v>540</v>
-      </c>
-      <c r="U24" s="47">
-        <f>S24+T24-O24</f>
-        <v>480</v>
-      </c>
-      <c r="V24" s="75"/>
-      <c r="W24" s="29"/>
-    </row>
-    <row r="25" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A25" s="197" t="s">
+        <v>1740</v>
+      </c>
+      <c r="T24" s="50">
+        <v>1680</v>
+      </c>
+      <c r="U24" s="51">
+        <f>3*30</f>
+        <v>90</v>
+      </c>
+      <c r="V24" s="47">
+        <f>T24+U24-O24</f>
+        <v>30</v>
+      </c>
+      <c r="W24" s="75"/>
+      <c r="X24" s="29"/>
+    </row>
+    <row r="25" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A25" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="198"/>
-      <c r="C25" s="199"/>
+      <c r="B25" s="200"/>
+      <c r="C25" s="201"/>
       <c r="D25" s="81">
         <f>E25/24</f>
         <v>8</v>
@@ -6695,39 +6723,38 @@
       </c>
       <c r="L25" s="40">
         <f t="shared" ref="L25" si="5">M25/24</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M25" s="36">
-        <f>120</f>
-        <v>120</v>
+        <v>264</v>
       </c>
       <c r="N25" s="39">
         <f>O25/24</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O25" s="36">
         <f t="shared" ref="O25:O27" si="6">E25+G25-I25-K25-M25</f>
-        <v>144</v>
-      </c>
-      <c r="S25" s="4">
-        <v>144</v>
-      </c>
-      <c r="T25" s="22">
-        <v>0</v>
-      </c>
-      <c r="U25" s="47">
-        <f t="shared" ref="U25:U27" si="7">S25+T25-O25</f>
-        <v>0</v>
-      </c>
-      <c r="V25" s="75"/>
-      <c r="W25" s="29"/>
-    </row>
-    <row r="26" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A26" s="168" t="s">
+        <v>0</v>
+      </c>
+      <c r="T25" s="4">
+        <v>0</v>
+      </c>
+      <c r="U25" s="22">
+        <v>0</v>
+      </c>
+      <c r="V25" s="47">
+        <f>T25+U25-O25</f>
+        <v>0</v>
+      </c>
+      <c r="W25" s="75"/>
+      <c r="X25" s="29"/>
+    </row>
+    <row r="26" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A26" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="169"/>
-      <c r="C26" s="170"/>
+      <c r="B26" s="171"/>
+      <c r="C26" s="172"/>
       <c r="D26" s="82">
         <f>E26/22</f>
         <v>43</v>
@@ -6737,63 +6764,63 @@
       </c>
       <c r="F26" s="82">
         <f>G26/22</f>
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="G26" s="3">
         <f>'[2]June 2021'!$F$30</f>
-        <v>22</v>
+        <v>1452</v>
       </c>
       <c r="H26" s="25">
         <v>0</v>
       </c>
       <c r="I26" s="28">
-        <f>220</f>
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="J26" s="1">
         <f>K26/22</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <f>660</f>
+        <v>660</v>
       </c>
       <c r="L26" s="1">
         <f>M26/22</f>
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="M26" s="3">
-        <f>330+220+176</f>
-        <v>726</v>
+        <v>1408</v>
       </c>
       <c r="N26" s="25">
         <f>O26/22</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="36">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R26" s="29"/>
-      <c r="S26" s="4">
-        <v>22</v>
-      </c>
-      <c r="T26" s="22">
-        <f>5*22</f>
-        <v>110</v>
-      </c>
-      <c r="U26" s="47">
-        <f t="shared" si="7"/>
-        <v>110</v>
-      </c>
-      <c r="V26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="4">
+        <v>0</v>
+      </c>
+      <c r="U26" s="22">
+        <f>0*22</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="47">
+        <f>T26+U26-O26</f>
+        <v>0</v>
+      </c>
       <c r="W26" s="29"/>
-    </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A27" s="203" t="s">
+      <c r="X26" s="29"/>
+    </row>
+    <row r="27" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A27" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="204"/>
-      <c r="C27" s="205"/>
+      <c r="B27" s="206"/>
+      <c r="C27" s="207"/>
       <c r="D27" s="83">
         <f>E27/22</f>
         <v>22</v>
@@ -6818,10 +6845,11 @@
       </c>
       <c r="J27" s="44">
         <f>K27/22</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K27" s="41">
-        <v>0</v>
+        <f>440</f>
+        <v>440</v>
       </c>
       <c r="L27" s="44">
         <f>M27/22</f>
@@ -6832,92 +6860,92 @@
       </c>
       <c r="N27" s="42">
         <f>O27/22</f>
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="O27" s="38">
         <f t="shared" si="6"/>
-        <v>484</v>
-      </c>
-      <c r="S27" s="52">
-        <v>418</v>
-      </c>
-      <c r="T27" s="53">
-        <f>3*22</f>
-        <v>66</v>
-      </c>
-      <c r="U27" s="47">
+        <v>44</v>
+      </c>
+      <c r="T27" s="52">
+        <v>44</v>
+      </c>
+      <c r="U27" s="53">
+        <f>0*22</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="47">
+        <f>T27+U27-O27</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="75"/>
+      <c r="X27" s="29"/>
+    </row>
+    <row r="28" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A28" s="196" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="197"/>
+      <c r="C28" s="198"/>
+      <c r="D28" s="79">
+        <f t="shared" ref="D28:O28" si="7">SUM(D24:D27)</f>
+        <v>495</v>
+      </c>
+      <c r="E28" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="75"/>
-      <c r="W27" s="29"/>
-    </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A28" s="194" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="195"/>
-      <c r="C28" s="196"/>
-      <c r="D28" s="79">
-        <f t="shared" ref="D28:O28" si="8">SUM(D24:D27)</f>
-        <v>495</v>
-      </c>
-      <c r="E28" s="21">
-        <f t="shared" si="8"/>
         <v>14282</v>
       </c>
       <c r="F28" s="79">
-        <f t="shared" si="8"/>
-        <v>624</v>
+        <f t="shared" si="7"/>
+        <v>1124</v>
       </c>
       <c r="G28" s="21">
-        <f t="shared" si="8"/>
-        <v>18574</v>
+        <f t="shared" si="7"/>
+        <v>33054</v>
       </c>
       <c r="H28" s="79">
-        <f t="shared" si="8"/>
-        <v>40</v>
+        <f t="shared" si="7"/>
+        <v>60</v>
       </c>
       <c r="I28" s="21">
-        <f t="shared" si="8"/>
-        <v>1300</v>
+        <f t="shared" si="7"/>
+        <v>2010</v>
       </c>
       <c r="J28" s="79">
-        <f t="shared" si="8"/>
-        <v>30</v>
+        <f t="shared" si="7"/>
+        <v>150</v>
       </c>
       <c r="K28" s="21">
-        <f t="shared" si="8"/>
-        <v>900</v>
+        <f t="shared" si="7"/>
+        <v>4100</v>
       </c>
       <c r="L28" s="79">
-        <f t="shared" si="8"/>
-        <v>726</v>
+        <f t="shared" si="7"/>
+        <v>1334</v>
       </c>
       <c r="M28" s="21">
-        <f t="shared" si="8"/>
-        <v>21486</v>
+        <f t="shared" si="7"/>
+        <v>39442</v>
       </c>
       <c r="N28" s="79">
-        <f t="shared" si="8"/>
-        <v>313</v>
+        <f t="shared" si="7"/>
+        <v>60</v>
       </c>
       <c r="O28" s="21">
-        <f t="shared" si="8"/>
-        <v>9170</v>
-      </c>
-      <c r="S28" s="46"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="75"/>
-      <c r="W28" s="29"/>
-    </row>
-    <row r="29" spans="1:23">
-      <c r="A29" s="188" t="s">
+        <f t="shared" si="7"/>
+        <v>1784</v>
+      </c>
+      <c r="T28" s="46"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="75"/>
+      <c r="X28" s="29"/>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" s="190" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="189"/>
-      <c r="C29" s="190"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="192"/>
       <c r="D29" s="74">
         <f>E29/24</f>
         <v>54</v>
@@ -6927,62 +6955,61 @@
       </c>
       <c r="F29" s="74">
         <f>G29/24</f>
-        <v>179</v>
+        <v>444</v>
       </c>
       <c r="G29" s="10">
         <f>'[2]June 2021'!$H$30</f>
-        <v>4296</v>
+        <v>10656</v>
       </c>
       <c r="H29" s="23">
         <f>I29/24</f>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I29" s="26">
-        <f>480</f>
-        <v>480</v>
+        <v>1680</v>
       </c>
       <c r="J29" s="11">
-        <f t="shared" ref="J29:J31" si="9">K29/24</f>
-        <v>0</v>
+        <f t="shared" ref="J29:J31" si="8">K29/24</f>
+        <v>30</v>
       </c>
       <c r="K29" s="10">
-        <v>0</v>
+        <f>720</f>
+        <v>720</v>
       </c>
       <c r="L29" s="11">
-        <f t="shared" ref="L29:L31" si="10">M29/24</f>
-        <v>170</v>
+        <f t="shared" ref="L29:L31" si="9">M29/24</f>
+        <v>375</v>
       </c>
       <c r="M29" s="10">
-        <f>240+1200+1080+600+960</f>
-        <v>4080</v>
+        <v>9000</v>
       </c>
       <c r="N29" s="23">
         <f>O29/24</f>
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="O29" s="36">
         <f>E29+G29-I29-K29-M29</f>
-        <v>1032</v>
-      </c>
-      <c r="S29" s="5">
-        <v>1032</v>
-      </c>
-      <c r="T29" s="16">
-        <v>0</v>
-      </c>
-      <c r="U29" s="30">
-        <f t="shared" ref="U29:U30" si="11">S29+T29-O29</f>
-        <v>0</v>
-      </c>
-      <c r="V29" s="75"/>
-      <c r="W29" s="29"/>
-    </row>
-    <row r="30" spans="1:23">
-      <c r="A30" s="168" t="s">
+        <v>552</v>
+      </c>
+      <c r="T29" s="5">
+        <v>552</v>
+      </c>
+      <c r="U29" s="16">
+        <v>0</v>
+      </c>
+      <c r="V29" s="30">
+        <f>T29+U29-O29</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="75"/>
+      <c r="X29" s="29"/>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="169"/>
-      <c r="C30" s="170"/>
+      <c r="B30" s="171"/>
+      <c r="C30" s="172"/>
       <c r="D30" s="82">
         <f>E30/24</f>
         <v>62</v>
@@ -6992,63 +7019,61 @@
       </c>
       <c r="F30" s="82">
         <f>G30/24</f>
-        <v>84</v>
+        <v>206</v>
       </c>
       <c r="G30" s="3">
         <f>'[2]June 2021'!$I$30</f>
-        <v>2016</v>
+        <v>4944</v>
       </c>
       <c r="H30" s="25">
         <f>I30/24</f>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I30" s="28">
-        <f>480</f>
-        <v>480</v>
+        <v>1080</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="K30" s="3">
-        <f>120</f>
-        <v>120</v>
+        <f>120+120</f>
+        <v>240</v>
       </c>
       <c r="L30" s="1">
         <f>M30/24</f>
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="M30" s="3">
-        <f>240+240+912+120+600+480+240</f>
-        <v>2832</v>
+        <v>5112</v>
       </c>
       <c r="N30" s="25">
         <f>O30/24</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O30" s="36">
-        <f t="shared" ref="O30:O31" si="12">E30+G30-I30-K30-M30</f>
-        <v>72</v>
-      </c>
-      <c r="S30" s="4">
-        <v>72</v>
-      </c>
-      <c r="T30" s="8">
-        <v>0</v>
-      </c>
-      <c r="U30" s="35">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="75"/>
-      <c r="W30" s="29"/>
-    </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A31" s="168" t="s">
+        <f t="shared" ref="O30:O31" si="10">E30+G30-I30-K30-M30</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="4">
+        <v>0</v>
+      </c>
+      <c r="U30" s="8">
+        <v>0</v>
+      </c>
+      <c r="V30" s="35">
+        <f>T30+U30-O30</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="75"/>
+      <c r="X30" s="29"/>
+    </row>
+    <row r="31" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A31" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="169"/>
-      <c r="C31" s="170"/>
+      <c r="B31" s="171"/>
+      <c r="C31" s="172"/>
       <c r="D31" s="82">
         <f>E31/24</f>
         <v>414</v>
@@ -7058,124 +7083,122 @@
       </c>
       <c r="F31" s="82">
         <f>G31/24</f>
-        <v>963</v>
+        <v>1732</v>
       </c>
       <c r="G31" s="3">
         <f>'[2]June 2021'!$J$30</f>
-        <v>23112</v>
+        <v>41568</v>
       </c>
       <c r="H31" s="25">
         <f>I31/24</f>
-        <v>150</v>
+        <v>375</v>
       </c>
       <c r="I31" s="28">
-        <f>3600</f>
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="J31" s="1">
+        <f t="shared" si="8"/>
+        <v>330</v>
+      </c>
+      <c r="K31" s="3">
+        <f>7920</f>
+        <v>7920</v>
+      </c>
+      <c r="L31" s="1">
         <f t="shared" si="9"/>
-        <v>160</v>
-      </c>
-      <c r="K31" s="3">
-        <f>3840</f>
-        <v>3840</v>
-      </c>
-      <c r="L31" s="1">
-        <f t="shared" si="10"/>
-        <v>681</v>
+        <v>1410</v>
       </c>
       <c r="M31" s="3">
-        <f>1200+120+120+360+3840+3600+120+3600+1200+24+960+1200</f>
-        <v>16344</v>
+        <v>33840</v>
       </c>
       <c r="N31" s="25">
         <f>O31/24</f>
-        <v>386</v>
+        <v>31</v>
       </c>
       <c r="O31" s="36">
-        <f t="shared" si="12"/>
-        <v>9264</v>
-      </c>
-      <c r="S31" s="4">
-        <v>8784</v>
-      </c>
-      <c r="T31" s="8">
-        <f>51*24</f>
-        <v>1224</v>
-      </c>
-      <c r="U31" s="35">
-        <f>S31+T31-O31</f>
+        <f t="shared" si="10"/>
         <v>744</v>
       </c>
-      <c r="V31" s="75"/>
-      <c r="W31" s="29"/>
-    </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A32" s="194" t="s">
+      <c r="T31" s="4">
+        <v>744</v>
+      </c>
+      <c r="U31" s="8">
+        <f>0*24</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="35">
+        <f>T31+U31-O31</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="75"/>
+      <c r="X31" s="29"/>
+    </row>
+    <row r="32" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A32" s="196" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="195"/>
-      <c r="C32" s="196"/>
+      <c r="B32" s="197"/>
+      <c r="C32" s="198"/>
       <c r="D32" s="84">
-        <f t="shared" ref="D32:O32" si="13">SUM(D29:D31)</f>
+        <f t="shared" ref="D32:O32" si="11">SUM(D29:D31)</f>
         <v>530</v>
       </c>
       <c r="E32" s="78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>12720</v>
       </c>
       <c r="F32" s="84">
-        <f t="shared" si="13"/>
-        <v>1226</v>
+        <f t="shared" si="11"/>
+        <v>2382</v>
       </c>
       <c r="G32" s="78">
-        <f t="shared" si="13"/>
-        <v>29424</v>
+        <f t="shared" si="11"/>
+        <v>57168</v>
       </c>
       <c r="H32" s="79">
-        <f t="shared" si="13"/>
-        <v>190</v>
+        <f t="shared" si="11"/>
+        <v>490</v>
       </c>
       <c r="I32" s="80">
-        <f t="shared" si="13"/>
-        <v>4560</v>
+        <f t="shared" si="11"/>
+        <v>11760</v>
       </c>
       <c r="J32" s="84">
-        <f t="shared" si="13"/>
-        <v>165</v>
+        <f t="shared" si="11"/>
+        <v>370</v>
       </c>
       <c r="K32" s="78">
-        <f t="shared" si="13"/>
-        <v>3960</v>
+        <f t="shared" si="11"/>
+        <v>8880</v>
       </c>
       <c r="L32" s="84">
-        <f t="shared" si="13"/>
-        <v>969</v>
+        <f t="shared" si="11"/>
+        <v>1998</v>
       </c>
       <c r="M32" s="78">
-        <f t="shared" si="13"/>
-        <v>23256</v>
+        <f t="shared" si="11"/>
+        <v>47952</v>
       </c>
       <c r="N32" s="84">
-        <f t="shared" si="13"/>
-        <v>432</v>
+        <f t="shared" si="11"/>
+        <v>54</v>
       </c>
       <c r="O32" s="78">
-        <f t="shared" si="13"/>
-        <v>10368</v>
-      </c>
-      <c r="S32" s="17"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="75"/>
-      <c r="W32" s="29"/>
-    </row>
-    <row r="33" spans="1:23">
-      <c r="A33" s="188" t="s">
+        <f t="shared" si="11"/>
+        <v>1296</v>
+      </c>
+      <c r="T32" s="17"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="75"/>
+      <c r="X32" s="29"/>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="189"/>
-      <c r="C33" s="190"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="192"/>
       <c r="D33" s="85">
         <f>E33/12</f>
         <v>184</v>
@@ -7185,64 +7208,62 @@
       </c>
       <c r="F33" s="85">
         <f>G33/12</f>
-        <v>643</v>
+        <v>912</v>
       </c>
       <c r="G33" s="14">
         <f>'[2]June 2021'!$K$30</f>
-        <v>7716</v>
+        <v>10944</v>
       </c>
       <c r="H33" s="23">
         <f>I33/12</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I33" s="26">
-        <f>180</f>
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="J33" s="15">
-        <f t="shared" ref="J33:J34" si="14">K33/12</f>
-        <v>20</v>
+        <f t="shared" ref="J33:J34" si="12">K33/12</f>
+        <v>70</v>
       </c>
       <c r="K33" s="10">
-        <f>240</f>
-        <v>240</v>
+        <f>840</f>
+        <v>840</v>
       </c>
       <c r="L33" s="15">
-        <f t="shared" ref="L33:L34" si="15">M33/12</f>
-        <v>762</v>
+        <f t="shared" ref="L33:L34" si="13">M33/12</f>
+        <v>987</v>
       </c>
       <c r="M33" s="10">
-        <f>2400+60+24+3000+24+12+3600+24</f>
-        <v>9144</v>
+        <v>11844</v>
       </c>
       <c r="N33" s="23">
         <f>O33/12</f>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="O33" s="36">
         <f>E33+G33-I33-K33-M33</f>
-        <v>360</v>
-      </c>
-      <c r="S33" s="5">
-        <v>252</v>
-      </c>
-      <c r="T33" s="16">
-        <f>15*12</f>
-        <v>180</v>
-      </c>
-      <c r="U33" s="30">
-        <f>S33+T33-O33</f>
-        <v>72</v>
-      </c>
-      <c r="V33" s="86"/>
-      <c r="W33" s="29"/>
-    </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A34" s="191" t="s">
+        <v>108</v>
+      </c>
+      <c r="T33" s="5">
+        <v>12</v>
+      </c>
+      <c r="U33" s="16">
+        <f>0*12</f>
+        <v>0</v>
+      </c>
+      <c r="V33" s="30">
+        <f>T33+U33-O33</f>
+        <v>-96</v>
+      </c>
+      <c r="W33" s="86"/>
+      <c r="X33" s="29"/>
+    </row>
+    <row r="34" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A34" s="193" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="192"/>
-      <c r="C34" s="193"/>
+      <c r="B34" s="194"/>
+      <c r="C34" s="195"/>
       <c r="D34" s="76">
         <f>E34/12</f>
         <v>150</v>
@@ -7266,14 +7287,14 @@
         <v>0</v>
       </c>
       <c r="J34" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K34" s="12">
         <v>0</v>
       </c>
       <c r="L34" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>201</v>
       </c>
       <c r="M34" s="12">
@@ -7288,159 +7309,159 @@
         <f>E34+G34-I34-K34-M34</f>
         <v>0</v>
       </c>
-      <c r="S34" s="4">
-        <v>0</v>
-      </c>
-      <c r="T34" s="22">
-        <v>0</v>
-      </c>
-      <c r="U34" s="35">
-        <f>S34+T34-O34</f>
-        <v>0</v>
-      </c>
-      <c r="V34" s="75"/>
-      <c r="W34" s="29"/>
-    </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A35" s="194" t="s">
+      <c r="T34" s="4">
+        <v>0</v>
+      </c>
+      <c r="U34" s="22">
+        <v>0</v>
+      </c>
+      <c r="V34" s="35">
+        <f>T34+U34-O34</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="75"/>
+      <c r="X34" s="29"/>
+    </row>
+    <row r="35" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A35" s="196" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="195"/>
-      <c r="C35" s="196"/>
+      <c r="B35" s="197"/>
+      <c r="C35" s="198"/>
       <c r="D35" s="84">
         <f>SUM(D33:D34)</f>
         <v>334</v>
       </c>
       <c r="E35" s="78">
-        <f t="shared" ref="E35:H35" si="16">SUM(E33:E34)</f>
+        <f t="shared" ref="E35:H35" si="14">SUM(E33:E34)</f>
         <v>4008</v>
       </c>
       <c r="F35" s="84">
-        <f t="shared" si="16"/>
-        <v>694</v>
+        <f t="shared" si="14"/>
+        <v>963</v>
       </c>
       <c r="G35" s="78">
-        <f t="shared" si="16"/>
-        <v>8328</v>
+        <f t="shared" si="14"/>
+        <v>11556</v>
       </c>
       <c r="H35" s="79">
-        <f t="shared" si="16"/>
-        <v>15</v>
+        <f t="shared" si="14"/>
+        <v>30</v>
       </c>
       <c r="I35" s="80">
         <f>SUM(I33:I34)</f>
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="J35" s="84">
-        <f t="shared" ref="J35:O35" si="17">SUM(J33:J34)</f>
-        <v>20</v>
+        <f t="shared" ref="J35:O35" si="15">SUM(J33:J34)</f>
+        <v>70</v>
       </c>
       <c r="K35" s="78">
-        <f t="shared" si="17"/>
-        <v>240</v>
+        <f t="shared" si="15"/>
+        <v>840</v>
       </c>
       <c r="L35" s="84">
-        <f t="shared" si="17"/>
-        <v>963</v>
+        <f t="shared" si="15"/>
+        <v>1188</v>
       </c>
       <c r="M35" s="78">
-        <f t="shared" si="17"/>
-        <v>11556</v>
+        <f t="shared" si="15"/>
+        <v>14256</v>
       </c>
       <c r="N35" s="84">
-        <f t="shared" si="17"/>
-        <v>30</v>
+        <f t="shared" si="15"/>
+        <v>9</v>
       </c>
       <c r="O35" s="78">
-        <f t="shared" si="17"/>
-        <v>360</v>
-      </c>
-      <c r="S35" s="19"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="34"/>
-      <c r="W35" s="29"/>
-    </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A36" s="200" t="s">
+        <f t="shared" si="15"/>
+        <v>108</v>
+      </c>
+      <c r="T35" s="19"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="34"/>
+      <c r="X35" s="29"/>
+    </row>
+    <row r="36" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A36" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="201"/>
-      <c r="C36" s="202"/>
+      <c r="B36" s="203"/>
+      <c r="C36" s="204"/>
       <c r="D36" s="87">
-        <f t="shared" ref="D36:O36" si="18">D21+D22+D24+D25+D26+D27+D29+D30+D31+D33+D34</f>
+        <f t="shared" ref="D36:O36" si="16">D21+D22+D24+D25+D26+D27+D29+D30+D31+D33+D34</f>
         <v>1485</v>
       </c>
       <c r="E36" s="87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>34034</v>
       </c>
       <c r="F36" s="87">
-        <f t="shared" si="18"/>
-        <v>2595</v>
+        <f t="shared" si="16"/>
+        <v>4679</v>
       </c>
       <c r="G36" s="87">
-        <f t="shared" si="18"/>
-        <v>57550</v>
+        <f t="shared" si="16"/>
+        <v>106818</v>
       </c>
       <c r="H36" s="87">
-        <f t="shared" si="18"/>
-        <v>305</v>
+        <f t="shared" si="16"/>
+        <v>725</v>
       </c>
       <c r="I36" s="87">
         <f>I21+I22+I24+I25+I26+I27+I29+I30+I31+I33+I34</f>
-        <v>7480</v>
+        <v>17610</v>
       </c>
       <c r="J36" s="87">
-        <f t="shared" si="18"/>
-        <v>290</v>
+        <f t="shared" si="16"/>
+        <v>720</v>
       </c>
       <c r="K36" s="87">
-        <f t="shared" si="18"/>
-        <v>6900</v>
+        <f t="shared" si="16"/>
+        <v>16940</v>
       </c>
       <c r="L36" s="87">
-        <f t="shared" si="18"/>
-        <v>2686</v>
+        <f t="shared" si="16"/>
+        <v>4556</v>
       </c>
       <c r="M36" s="87">
-        <f t="shared" si="18"/>
-        <v>56970</v>
+        <f t="shared" si="16"/>
+        <v>102514</v>
       </c>
       <c r="N36" s="87">
-        <f t="shared" si="18"/>
-        <v>789</v>
+        <f t="shared" si="16"/>
+        <v>148</v>
       </c>
       <c r="O36" s="87">
-        <f t="shared" si="18"/>
-        <v>20234</v>
-      </c>
-      <c r="S36" s="88">
-        <f>SUM(S21:S34)</f>
-        <v>19496</v>
-      </c>
-      <c r="T36" s="89">
+        <f t="shared" si="16"/>
+        <v>3788</v>
+      </c>
+      <c r="T36" s="88">
         <f>SUM(T21:T34)</f>
-        <v>2504</v>
-      </c>
-      <c r="U36" s="31">
-        <f>S36+T36-O36</f>
-        <v>1766</v>
-      </c>
-      <c r="W36" s="29"/>
-    </row>
-    <row r="37" spans="1:23" ht="9" customHeight="1">
-      <c r="U37" s="32"/>
-    </row>
-    <row r="38" spans="1:23">
-      <c r="V38" s="29"/>
-    </row>
-    <row r="40" spans="1:23">
+        <v>3608</v>
+      </c>
+      <c r="U36" s="89">
+        <f>SUM(U21:U34)</f>
+        <v>234</v>
+      </c>
+      <c r="V36" s="31">
+        <f>T36+U36-O36</f>
+        <v>54</v>
+      </c>
+      <c r="X36" s="29"/>
+    </row>
+    <row r="37" spans="1:24" ht="9" customHeight="1">
+      <c r="V37" s="32"/>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="W38" s="29"/>
+    </row>
+    <row r="40" spans="1:24">
       <c r="P40" s="75"/>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:24">
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:23" ht="18.75">
+    <row r="42" spans="1:24" ht="18.75">
       <c r="P42" s="90"/>
     </row>
   </sheetData>
@@ -7537,7 +7558,7 @@
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="K6:L6"/>
   </mergeCells>
-  <pageMargins left="0.41" right="0.25" top="0" bottom="0" header="0.23" footer="0.2"/>
+  <pageMargins left="0.41" right="0.25" top="0" bottom="0" header="0.23" footer="0.15"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/D.K STATEMENT -2021-22.xlsx
+++ b/D.K STATEMENT -2021-22.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="74">
   <si>
     <t>Received</t>
   </si>
@@ -242,6 +242,18 @@
   <si>
     <t>PACKED TEA  STATEMENT AS ON (01.08.2021 TO 31.08.2021)</t>
   </si>
+  <si>
+    <t>PACKED TEA  STATEMENT AS ON (01.09.2021 TO 15.09.2021)</t>
+  </si>
+  <si>
+    <t>Destination Wise Production , Despatch and Stock Report for the month of August 01.09.2021 to 15.09.2021</t>
+  </si>
+  <si>
+    <t>ORIGINAL/BLACK TEA  STATEMENT  AS ON  (01.09.2021 to 15.09.2021)</t>
+  </si>
+  <si>
+    <t>BLENDED TEA  STATEMENT AS ON (01.09.2021 TO 15.09.2021)</t>
+  </si>
 </sst>
 </file>
 
@@ -1862,7 +1874,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1876,8 +1888,8 @@
       <sheetName val="May 2021"/>
       <sheetName val="June 2021"/>
       <sheetName val="July 2020"/>
-      <sheetName val="AUGUST 2021 "/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="August 2021"/>
+      <sheetName val="September 2021"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -2065,7 +2077,43 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="5">
+        <row r="30">
+          <cell r="B30">
+            <v>1248</v>
+          </cell>
+          <cell r="C30">
+            <v>2184</v>
+          </cell>
+          <cell r="D30">
+            <v>16380</v>
+          </cell>
+          <cell r="E30">
+            <v>0</v>
+          </cell>
+          <cell r="F30">
+            <v>660</v>
+          </cell>
+          <cell r="G30">
+            <v>616</v>
+          </cell>
+          <cell r="H30">
+            <v>4608</v>
+          </cell>
+          <cell r="I30">
+            <v>2808</v>
+          </cell>
+          <cell r="J30">
+            <v>23736</v>
+          </cell>
+          <cell r="K30">
+            <v>2148</v>
+          </cell>
+          <cell r="L30">
+            <v>3852</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2358,8 +2406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4182,8 +4230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:C22"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6003,8 +6051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7830,8 +7878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:O36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9674,8 +9722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:R36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10375,7 +10423,7 @@
         <v>32</v>
       </c>
       <c r="G21" s="10">
-        <f>'[2]AUGUST 2021 '!$B$30</f>
+        <f>'[2]August 2021'!$B$30</f>
         <v>768</v>
       </c>
       <c r="H21" s="23">
@@ -10444,7 +10492,7 @@
         <v>322</v>
       </c>
       <c r="G22" s="12">
-        <f>'[2]AUGUST 2021 '!$C$30</f>
+        <f>'[2]August 2021'!$C$30</f>
         <v>7728</v>
       </c>
       <c r="H22" s="24">
@@ -10576,7 +10624,7 @@
         <v>1330</v>
       </c>
       <c r="G24" s="10">
-        <f>'[2]AUGUST 2021 '!$D$30</f>
+        <f>'[2]August 2021'!$D$30</f>
         <v>39900</v>
       </c>
       <c r="H24" s="23">
@@ -10645,7 +10693,7 @@
         <v>29</v>
       </c>
       <c r="G25" s="27">
-        <f>'[2]AUGUST 2021 '!$E$30</f>
+        <f>'[2]August 2021'!$E$30</f>
         <v>696</v>
       </c>
       <c r="H25" s="39">
@@ -10713,7 +10761,7 @@
         <v>101</v>
       </c>
       <c r="G26" s="3">
-        <f>'[2]AUGUST 2021 '!$F$30</f>
+        <f>'[2]August 2021'!$F$30</f>
         <v>2222</v>
       </c>
       <c r="H26" s="42">
@@ -10782,7 +10830,7 @@
         <v>15</v>
       </c>
       <c r="G27" s="41">
-        <f>'[2]AUGUST 2021 '!$G$30</f>
+        <f>'[2]August 2021'!$G$30</f>
         <v>330</v>
       </c>
       <c r="H27" s="42">
@@ -10913,7 +10961,7 @@
         <v>290</v>
       </c>
       <c r="G29" s="10">
-        <f>'[2]AUGUST 2021 '!$H$30</f>
+        <f>'[2]August 2021'!$H$30</f>
         <v>6960</v>
       </c>
       <c r="H29" s="23">
@@ -10981,7 +11029,7 @@
         <v>151</v>
       </c>
       <c r="G30" s="3">
-        <f>'[2]AUGUST 2021 '!$I$30</f>
+        <f>'[2]August 2021'!$I$30</f>
         <v>3624</v>
       </c>
       <c r="H30" s="25">
@@ -11049,7 +11097,7 @@
         <v>1960</v>
       </c>
       <c r="G31" s="3">
-        <f>'[2]AUGUST 2021 '!$J$30</f>
+        <f>'[2]August 2021'!$J$30</f>
         <v>47040</v>
       </c>
       <c r="H31" s="25">
@@ -11182,7 +11230,7 @@
         <v>746</v>
       </c>
       <c r="G33" s="14">
-        <f>'[2]AUGUST 2021 '!$K$30</f>
+        <f>'[2]August 2021'!$K$30</f>
         <v>8952</v>
       </c>
       <c r="H33" s="23">
@@ -11252,7 +11300,7 @@
         <v>50</v>
       </c>
       <c r="G34" s="12">
-        <f>'[2]AUGUST 2021 '!$L$30</f>
+        <f>'[2]August 2021'!$L$30</f>
         <v>600</v>
       </c>
       <c r="H34" s="24">
@@ -11554,8 +11602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11587,7 +11635,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="18.75">
       <c r="A1" s="167" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B1" s="167"/>
       <c r="C1" s="167"/>
@@ -11631,7 +11679,7 @@
     </row>
     <row r="3" spans="1:24" ht="15.75" thickBot="1">
       <c r="A3" s="169" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B3" s="170"/>
       <c r="C3" s="170"/>
@@ -11702,27 +11750,27 @@
       <c r="A6" s="186"/>
       <c r="B6" s="187"/>
       <c r="C6" s="188">
-        <v>40151.800000000003</v>
+        <v>169998.1</v>
       </c>
       <c r="D6" s="189"/>
       <c r="E6" s="54">
-        <f>3800+2280+5320+14922.8+13715+3040+1560+2135+3780+2400+1650+1456+6855+17900.6+7039+1140+6840+18313+4844.7+10855.2</f>
-        <v>129846.29999999999</v>
+        <f>17782.4+7181.3+4896.1+6430</f>
+        <v>36289.800000000003</v>
       </c>
       <c r="F6" s="159"/>
       <c r="G6" s="165">
         <f>C6+E6+F6</f>
-        <v>169998.09999999998</v>
+        <v>206287.90000000002</v>
       </c>
       <c r="H6" s="188">
         <f>G15</f>
-        <v>0</v>
+        <v>54148.2</v>
       </c>
       <c r="I6" s="190"/>
       <c r="J6" s="189"/>
       <c r="K6" s="191">
         <f>G6-H6</f>
-        <v>169998.09999999998</v>
+        <v>152139.70000000001</v>
       </c>
       <c r="L6" s="192"/>
       <c r="M6" s="55"/>
@@ -11731,7 +11779,7 @@
     </row>
     <row r="7" spans="1:24" ht="13.5" customHeight="1" thickBot="1">
       <c r="A7" s="166" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B7" s="166"/>
       <c r="C7" s="166"/>
@@ -11834,42 +11882,47 @@
         <v>8</v>
       </c>
       <c r="B10" s="191">
-        <v>83393.399999999994</v>
+        <v>25769.4</v>
       </c>
       <c r="C10" s="190"/>
       <c r="D10" s="60">
-        <v>75587.600000000006</v>
+        <v>19382.3</v>
       </c>
       <c r="E10" s="191">
         <f>B10-D10</f>
-        <v>7805.7999999999884</v>
+        <v>6387.1000000000022</v>
       </c>
       <c r="F10" s="192"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="60"/>
+      <c r="G10" s="155">
+        <v>37635.599999999999</v>
+      </c>
+      <c r="H10" s="60">
+        <f>G10*0.4%</f>
+        <v>150.54239999999999</v>
+      </c>
       <c r="I10" s="60"/>
       <c r="J10" s="191">
         <f>B10+G10+H10+I10</f>
-        <v>83393.399999999994</v>
+        <v>63555.542399999998</v>
       </c>
       <c r="K10" s="192"/>
       <c r="L10" s="191">
         <f>G29+G30+G31</f>
-        <v>57624</v>
+        <v>31152</v>
       </c>
       <c r="M10" s="209"/>
       <c r="N10" s="191">
         <f>J10-L10</f>
-        <v>25769.399999999994</v>
+        <v>32403.542399999998</v>
       </c>
       <c r="O10" s="192"/>
       <c r="P10" s="60">
-        <f>37658.3-18276</f>
-        <v>19382.300000000003</v>
+        <f>37635.6-(7527*2)</f>
+        <v>22581.599999999999</v>
       </c>
       <c r="Q10" s="191">
         <f>N10-P10</f>
-        <v>6387.0999999999913</v>
+        <v>9821.9423999999999</v>
       </c>
       <c r="R10" s="208"/>
       <c r="S10" s="123"/>
@@ -11880,15 +11933,15 @@
         <v>9</v>
       </c>
       <c r="B11" s="191">
-        <v>16500.84</v>
+        <v>8004.84</v>
       </c>
       <c r="C11" s="190"/>
       <c r="D11" s="60">
-        <v>15115</v>
+        <v>6046</v>
       </c>
       <c r="E11" s="191">
         <f t="shared" ref="E11:E13" si="0">B11-D11</f>
-        <v>1385.8400000000001</v>
+        <v>1958.8400000000001</v>
       </c>
       <c r="F11" s="192"/>
       <c r="G11" s="155"/>
@@ -11896,26 +11949,26 @@
       <c r="I11" s="60"/>
       <c r="J11" s="191">
         <f>B11+G11+H11+I11</f>
-        <v>16500.84</v>
+        <v>8004.84</v>
       </c>
       <c r="K11" s="192"/>
       <c r="L11" s="191">
         <f>SUM(G21:G22)</f>
-        <v>8496</v>
+        <v>3432</v>
       </c>
       <c r="M11" s="209"/>
       <c r="N11" s="210">
         <f>J11-L11</f>
-        <v>8004.84</v>
+        <v>4572.84</v>
       </c>
       <c r="O11" s="211"/>
       <c r="P11" s="60">
-        <f>3023*2</f>
-        <v>6046</v>
+        <f>18143.8-(4*3628.76)</f>
+        <v>3628.7599999999984</v>
       </c>
       <c r="Q11" s="191">
         <f>N11-P11</f>
-        <v>1958.8400000000001</v>
+        <v>944.08000000000175</v>
       </c>
       <c r="R11" s="208"/>
       <c r="S11" s="123"/>
@@ -11926,42 +11979,47 @@
         <v>10</v>
       </c>
       <c r="B12" s="191">
-        <v>16449.2</v>
+        <v>6897.2</v>
       </c>
       <c r="C12" s="190"/>
       <c r="D12" s="60">
-        <v>15216</v>
+        <v>5530.8</v>
       </c>
       <c r="E12" s="191">
         <f t="shared" si="0"/>
-        <v>1233.2000000000007</v>
+        <v>1366.3999999999996</v>
       </c>
       <c r="F12" s="192"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="60"/>
+      <c r="G12" s="155">
+        <v>16512.599999999999</v>
+      </c>
+      <c r="H12" s="60">
+        <f>G12*0.4%</f>
+        <v>66.050399999999996</v>
+      </c>
       <c r="I12" s="60"/>
       <c r="J12" s="191">
         <f>B12+G12+H12+I12</f>
-        <v>16449.2</v>
+        <v>23475.850399999999</v>
       </c>
       <c r="K12" s="192"/>
       <c r="L12" s="191">
         <f>SUM(G33:G34)</f>
-        <v>9552</v>
+        <v>6000</v>
       </c>
       <c r="M12" s="208"/>
       <c r="N12" s="191">
         <f>J12-L12</f>
-        <v>6897.2000000000007</v>
+        <v>17475.850399999999</v>
       </c>
       <c r="O12" s="192"/>
       <c r="P12" s="60">
-        <f>9214.8-3684</f>
-        <v>5530.7999999999993</v>
+        <f>16512.6-3302.52</f>
+        <v>13210.079999999998</v>
       </c>
       <c r="Q12" s="191">
         <f>N12-P12</f>
-        <v>1366.4000000000015</v>
+        <v>4265.7704000000012</v>
       </c>
       <c r="R12" s="208"/>
       <c r="S12" s="123"/>
@@ -11971,15 +12029,15 @@
         <v>30</v>
       </c>
       <c r="B13" s="191">
-        <v>107160.24</v>
+        <v>64012.24</v>
       </c>
       <c r="C13" s="190"/>
       <c r="D13" s="60">
-        <v>98881.3</v>
+        <v>59897.3</v>
       </c>
       <c r="E13" s="191">
         <f t="shared" si="0"/>
-        <v>8278.9400000000023</v>
+        <v>4114.9399999999951</v>
       </c>
       <c r="F13" s="192"/>
       <c r="G13" s="165"/>
@@ -11987,26 +12045,25 @@
       <c r="I13" s="60"/>
       <c r="J13" s="191">
         <f>B13+G13+H13+I13</f>
-        <v>107160.24</v>
+        <v>64012.24</v>
       </c>
       <c r="K13" s="192"/>
       <c r="L13" s="191">
         <f>G24+G25+G26+G27</f>
-        <v>43148</v>
+        <v>17656</v>
       </c>
       <c r="M13" s="208"/>
       <c r="N13" s="191">
         <f>J13-L13</f>
-        <v>64012.240000000005</v>
+        <v>46356.24</v>
       </c>
       <c r="O13" s="192"/>
       <c r="P13" s="60">
-        <f>71881.3-11984</f>
-        <v>59897.3</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="191">
         <f>N13-P13</f>
-        <v>4114.9400000000023</v>
+        <v>46356.24</v>
       </c>
       <c r="R13" s="208"/>
       <c r="S13" s="123"/>
@@ -12041,25 +12098,25 @@
       </c>
       <c r="B15" s="191">
         <f>SUM(B10:C14)</f>
-        <v>223503.68</v>
+        <v>104683.68</v>
       </c>
       <c r="C15" s="192"/>
       <c r="D15" s="60">
         <f>SUM(D10:D14)</f>
-        <v>204799.90000000002</v>
+        <v>90856.4</v>
       </c>
       <c r="E15" s="191">
         <f>SUM(E10:F14)</f>
-        <v>18703.779999999992</v>
+        <v>13827.279999999997</v>
       </c>
       <c r="F15" s="171"/>
       <c r="G15" s="155">
         <f>SUM(G10:G14)</f>
-        <v>0</v>
+        <v>54148.2</v>
       </c>
       <c r="H15" s="60">
         <f>SUM(H10:H14)</f>
-        <v>0</v>
+        <v>216.59279999999998</v>
       </c>
       <c r="I15" s="60">
         <f>SUM(I10:I14)</f>
@@ -12067,26 +12124,26 @@
       </c>
       <c r="J15" s="190">
         <f>SUM(J10:K14)</f>
-        <v>223503.68</v>
+        <v>159048.47279999999</v>
       </c>
       <c r="K15" s="192"/>
       <c r="L15" s="191">
         <f>SUM(L10:M14)</f>
-        <v>118820</v>
+        <v>58240</v>
       </c>
       <c r="M15" s="209"/>
       <c r="N15" s="191">
         <f>SUM(N10:O14)</f>
-        <v>104683.68</v>
+        <v>100808.47279999999</v>
       </c>
       <c r="O15" s="192"/>
       <c r="P15" s="60">
         <f>SUM(P10:P14)</f>
-        <v>90856.400000000009</v>
+        <v>39420.439999999995</v>
       </c>
       <c r="Q15" s="191">
         <f>SUM(Q10:R13)</f>
-        <v>13827.279999999995</v>
+        <v>61388.032800000001</v>
       </c>
       <c r="R15" s="192"/>
       <c r="S15" s="121"/>
@@ -12114,7 +12171,7 @@
       <c r="B17" s="219"/>
       <c r="C17" s="219"/>
       <c r="D17" s="226" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E17" s="227"/>
       <c r="F17" s="227"/>
@@ -12237,7 +12294,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" ht="15.75" thickBot="1">
       <c r="A21" s="235" t="s">
         <v>13</v>
       </c>
@@ -12245,18 +12302,18 @@
       <c r="C21" s="237"/>
       <c r="D21" s="74">
         <f>E21/24</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E21" s="10">
-        <v>144</v>
+        <v>312</v>
       </c>
       <c r="F21" s="74">
         <f>G21/24</f>
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G21" s="10">
-        <f>'[2]AUGUST 2021 '!$B$30</f>
-        <v>768</v>
+        <f>'[2]September 2021'!$B$30</f>
+        <v>1248</v>
       </c>
       <c r="H21" s="23">
         <f>I21/24</f>
@@ -12268,40 +12325,39 @@
       </c>
       <c r="J21" s="11">
         <f>K21/24</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K21" s="10">
-        <f>24</f>
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="L21" s="11">
         <f>M21/24</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M21" s="10">
-        <f>48+48</f>
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="N21" s="23">
         <f>O21/24</f>
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="O21" s="36">
         <f>E21+G21-I21-K21-M21</f>
-        <v>312</v>
+        <v>696</v>
       </c>
       <c r="P21" s="150"/>
       <c r="Q21" s="150"/>
       <c r="R21" s="150"/>
       <c r="S21" s="5">
-        <v>312</v>
+        <v>672</v>
       </c>
       <c r="T21" s="7">
-        <v>0</v>
+        <f>4*24</f>
+        <v>96</v>
       </c>
       <c r="U21" s="30">
         <f>S21+T21-O21</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="V21" s="75"/>
       <c r="W21" s="29"/>
@@ -12314,18 +12370,18 @@
       <c r="C22" s="240"/>
       <c r="D22" s="76">
         <f>E22/24</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="E22" s="12">
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="F22" s="76">
         <f>G22/24</f>
-        <v>322</v>
+        <v>91</v>
       </c>
       <c r="G22" s="12">
-        <f>'[2]AUGUST 2021 '!$C$30</f>
-        <v>7728</v>
+        <f>'[2]September 2021'!$C$30</f>
+        <v>2184</v>
       </c>
       <c r="H22" s="24">
         <f>I22/24</f>
@@ -12337,40 +12393,40 @@
       </c>
       <c r="J22" s="13">
         <f>K22/24</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K22" s="12">
-        <f>720+1680</f>
-        <v>2400</v>
+        <v>2160</v>
       </c>
       <c r="L22" s="13">
         <f>M22/24</f>
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="M22" s="12">
-        <f>48+72+120+48+72+48+48+240+48+120+48+24+24+48</f>
-        <v>1008</v>
+        <f>408</f>
+        <v>408</v>
       </c>
       <c r="N22" s="24">
         <f>O22/24</f>
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="O22" s="36">
         <f>E22+G22-I22-K22-M22</f>
-        <v>3120</v>
+        <v>1536</v>
       </c>
       <c r="P22" s="149"/>
       <c r="Q22" s="149"/>
       <c r="R22" s="150"/>
       <c r="S22" s="6">
-        <v>3120</v>
+        <v>1536</v>
       </c>
       <c r="T22" s="9">
-        <v>0</v>
-      </c>
-      <c r="U22" s="34">
-        <f>S22-O22</f>
-        <v>0</v>
+        <f>28*24</f>
+        <v>672</v>
+      </c>
+      <c r="U22" s="30">
+        <f>S22+T22-O22</f>
+        <v>672</v>
       </c>
       <c r="V22" s="75"/>
       <c r="W22" s="29"/>
@@ -12383,19 +12439,19 @@
       <c r="C23" s="243"/>
       <c r="D23" s="77">
         <f>SUM(D21:D22)</f>
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="E23" s="78">
         <f t="shared" ref="E23:H23" si="1">SUM(E21:E22)</f>
-        <v>144</v>
+        <v>3432</v>
       </c>
       <c r="F23" s="77">
         <f t="shared" si="1"/>
-        <v>354</v>
+        <v>143</v>
       </c>
       <c r="G23" s="78">
         <f t="shared" si="1"/>
-        <v>8496</v>
+        <v>3432</v>
       </c>
       <c r="H23" s="79">
         <f t="shared" si="1"/>
@@ -12407,27 +12463,27 @@
       </c>
       <c r="J23" s="77">
         <f t="shared" ref="J23:O23" si="2">SUM(J21:J22)</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K23" s="78">
         <f t="shared" si="2"/>
-        <v>2424</v>
+        <v>2520</v>
       </c>
       <c r="L23" s="77">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="M23" s="78">
         <f t="shared" si="2"/>
-        <v>1104</v>
+        <v>432</v>
       </c>
       <c r="N23" s="77">
         <f t="shared" si="2"/>
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="O23" s="78">
         <f t="shared" si="2"/>
-        <v>3432</v>
+        <v>2232</v>
       </c>
       <c r="P23" s="154"/>
       <c r="Q23" s="154"/>
@@ -12446,63 +12502,62 @@
       <c r="C24" s="237"/>
       <c r="D24" s="74">
         <f>E24/30</f>
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="E24" s="10">
-        <v>540</v>
+        <v>4410</v>
       </c>
       <c r="F24" s="74">
         <f>G24/30</f>
-        <v>1330</v>
+        <v>546</v>
       </c>
       <c r="G24" s="10">
-        <f>'[2]AUGUST 2021 '!$D$30</f>
-        <v>39900</v>
+        <f>'[2]September 2021'!$D$30</f>
+        <v>16380</v>
       </c>
       <c r="H24" s="23">
         <f>I24/30</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I24" s="10">
-        <f>600</f>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="J24" s="23">
         <f>K24/30</f>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K24" s="10">
-        <f>60+600</f>
-        <v>660</v>
+        <v>900</v>
       </c>
       <c r="L24" s="23">
         <f>M24/30</f>
-        <v>1159</v>
+        <v>513</v>
       </c>
       <c r="M24" s="10">
-        <f>60+7500+150+870+9300+150+7200+7800+30+150+60+1050+300+150</f>
-        <v>34770</v>
+        <f>15390</f>
+        <v>15390</v>
       </c>
       <c r="N24" s="23">
         <f>O24/30</f>
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="O24" s="36">
         <f>E24+G24-I24-K24-M24</f>
-        <v>4410</v>
+        <v>3600</v>
       </c>
       <c r="P24" s="150"/>
       <c r="Q24" s="150"/>
       <c r="R24" s="150"/>
       <c r="S24" s="50">
-        <v>4410</v>
+        <v>3510</v>
       </c>
       <c r="T24" s="51">
-        <v>0</v>
+        <f>4*30</f>
+        <v>120</v>
       </c>
       <c r="U24" s="30">
         <f>S24+T24-O24</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="V24" s="75"/>
       <c r="W24" s="29"/>
@@ -12515,26 +12570,25 @@
       <c r="C25" s="246"/>
       <c r="D25" s="81">
         <f>E25/24</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E25" s="36">
-        <v>480</v>
+        <v>384</v>
       </c>
       <c r="F25" s="81">
         <f>G25/24</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G25" s="27">
-        <f>'[2]AUGUST 2021 '!$E$30</f>
-        <v>696</v>
+        <f>'[2]September 2021'!$E$30</f>
+        <v>0</v>
       </c>
       <c r="H25" s="39">
         <f>I25/24</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I25" s="27">
-        <f>480</f>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="J25" s="40">
         <f t="shared" ref="J25" si="3">K25/24</f>
@@ -12545,25 +12599,25 @@
       </c>
       <c r="L25" s="40">
         <f t="shared" ref="L25" si="4">M25/24</f>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="M25" s="36">
-        <f>120+72+120</f>
-        <v>312</v>
+        <f>96</f>
+        <v>96</v>
       </c>
       <c r="N25" s="39">
         <f>O25/24</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O25" s="36">
         <f t="shared" ref="O25:O27" si="5">E25+G25-I25-K25-M25</f>
-        <v>384</v>
+        <v>288</v>
       </c>
       <c r="P25" s="150"/>
       <c r="Q25" s="150"/>
       <c r="R25" s="150"/>
       <c r="S25" s="4">
-        <v>384</v>
+        <v>288</v>
       </c>
       <c r="T25" s="22">
         <v>0</v>
@@ -12583,55 +12637,54 @@
       <c r="C26" s="217"/>
       <c r="D26" s="82">
         <f>E26/22</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="F26" s="82">
         <f>G26/22</f>
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="G26" s="3">
-        <f>'[2]AUGUST 2021 '!$F$30</f>
-        <v>2222</v>
+        <f>'[2]September 2021'!$F$30</f>
+        <v>660</v>
       </c>
       <c r="H26" s="42">
         <f>I26/22</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I26" s="28">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="J26" s="1">
         <f>K26/22</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K26" s="3">
-        <f>110+396</f>
-        <v>506</v>
+        <v>550</v>
       </c>
       <c r="L26" s="1">
         <f>M26/22</f>
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="M26" s="3">
-        <f>550+22+22+110+330</f>
-        <v>1034</v>
+        <f>22</f>
+        <v>22</v>
       </c>
       <c r="N26" s="25">
         <f>O26/22</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O26" s="36">
         <f t="shared" si="5"/>
-        <v>462</v>
+        <v>550</v>
       </c>
       <c r="P26" s="150"/>
       <c r="Q26" s="150"/>
       <c r="R26" s="150"/>
       <c r="S26" s="4">
-        <v>462</v>
+        <v>550</v>
       </c>
       <c r="T26" s="22">
         <f>0*22</f>
@@ -12659,11 +12712,11 @@
       </c>
       <c r="F27" s="83">
         <f>G27/22</f>
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G27" s="41">
-        <f>'[2]AUGUST 2021 '!$G$30</f>
-        <v>330</v>
+        <f>'[2]September 2021'!$G$30</f>
+        <v>616</v>
       </c>
       <c r="H27" s="42">
         <f>I27/22</f>
@@ -12682,32 +12735,33 @@
       </c>
       <c r="L27" s="44">
         <f>M27/22</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M27" s="41">
-        <v>110</v>
+        <f>22</f>
+        <v>22</v>
       </c>
       <c r="N27" s="42">
         <f>O27/22</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O27" s="38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="P27" s="150"/>
       <c r="Q27" s="150"/>
       <c r="R27" s="150"/>
       <c r="S27" s="52">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="T27" s="53">
-        <f>0*22</f>
-        <v>0</v>
+        <f>4*30</f>
+        <v>120</v>
       </c>
       <c r="U27" s="148">
         <f>S27+T27-O27</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="V27" s="75"/>
       <c r="W27" s="29"/>
@@ -12720,51 +12774,51 @@
       <c r="C28" s="243"/>
       <c r="D28" s="79">
         <f t="shared" ref="D28:O28" si="6">SUM(D24:D27)</f>
-        <v>38</v>
+        <v>184</v>
       </c>
       <c r="E28" s="21">
         <f t="shared" si="6"/>
-        <v>1020</v>
+        <v>5256</v>
       </c>
       <c r="F28" s="79">
         <f t="shared" si="6"/>
-        <v>1475</v>
+        <v>604</v>
       </c>
       <c r="G28" s="21">
         <f t="shared" si="6"/>
-        <v>43148</v>
+        <v>17656</v>
       </c>
       <c r="H28" s="79">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I28" s="21">
         <f t="shared" si="6"/>
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="J28" s="79">
         <f t="shared" si="6"/>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K28" s="21">
         <f t="shared" si="6"/>
-        <v>1386</v>
+        <v>1670</v>
       </c>
       <c r="L28" s="79">
         <f t="shared" si="6"/>
-        <v>1224</v>
+        <v>519</v>
       </c>
       <c r="M28" s="21">
         <f t="shared" si="6"/>
-        <v>36226</v>
+        <v>15530</v>
       </c>
       <c r="N28" s="79">
         <f t="shared" si="6"/>
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="O28" s="21">
         <f t="shared" si="6"/>
-        <v>5256</v>
+        <v>4812</v>
       </c>
       <c r="P28" s="150"/>
       <c r="Q28" s="150"/>
@@ -12783,18 +12837,18 @@
       <c r="C29" s="237"/>
       <c r="D29" s="74">
         <f>E29/24</f>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E29" s="10">
-        <v>24</v>
+        <v>336</v>
       </c>
       <c r="F29" s="74">
         <f>G29/24</f>
-        <v>290</v>
+        <v>192</v>
       </c>
       <c r="G29" s="10">
-        <f>'[2]AUGUST 2021 '!$H$30</f>
-        <v>6960</v>
+        <f>'[2]September 2021'!$H$30</f>
+        <v>4608</v>
       </c>
       <c r="H29" s="23">
         <f>I29/24</f>
@@ -12806,32 +12860,32 @@
       </c>
       <c r="J29" s="11">
         <f t="shared" ref="J29:J31" si="7">K29/24</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K29" s="10">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="L29" s="11">
         <f t="shared" ref="L29:L31" si="8">M29/24</f>
-        <v>237</v>
+        <v>107</v>
       </c>
       <c r="M29" s="10">
-        <f>360+1200+720+240+1200+600+360+48+360+600</f>
-        <v>5688</v>
+        <f>2568</f>
+        <v>2568</v>
       </c>
       <c r="N29" s="23">
         <f>O29/24</f>
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="O29" s="36">
         <f>E29+G29-I29-K29-M29</f>
-        <v>336</v>
+        <v>1296</v>
       </c>
       <c r="P29" s="150"/>
       <c r="Q29" s="150"/>
       <c r="R29" s="150"/>
       <c r="S29" s="5">
-        <v>336</v>
+        <v>1296</v>
       </c>
       <c r="T29" s="16">
         <v>0</v>
@@ -12851,55 +12905,54 @@
       <c r="C30" s="217"/>
       <c r="D30" s="82">
         <f>E30/24</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E30" s="3">
-        <v>24</v>
+        <v>264</v>
       </c>
       <c r="F30" s="82">
         <f>G30/24</f>
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="G30" s="3">
-        <f>'[2]AUGUST 2021 '!$I$30</f>
-        <v>3624</v>
+        <f>'[2]September 2021'!$I$30</f>
+        <v>2808</v>
       </c>
       <c r="H30" s="25">
         <f>I30/24</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I30" s="28">
-        <f>480</f>
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K30" s="3">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="L30" s="1">
         <f>M30/24</f>
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="M30" s="3">
-        <f>240+240+240+1200+360+240+24+240</f>
-        <v>2784</v>
+        <f>1968</f>
+        <v>1968</v>
       </c>
       <c r="N30" s="25">
         <f>O30/24</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="O30" s="36">
         <f t="shared" ref="O30:O31" si="9">E30+G30-I30-K30-M30</f>
-        <v>264</v>
+        <v>504</v>
       </c>
       <c r="P30" s="150"/>
       <c r="Q30" s="150"/>
       <c r="R30" s="150"/>
       <c r="S30" s="4">
-        <v>264</v>
+        <v>504</v>
       </c>
       <c r="T30" s="8">
         <v>0</v>
@@ -12919,56 +12972,54 @@
       <c r="C31" s="217"/>
       <c r="D31" s="82">
         <f>E31/24</f>
-        <v>11</v>
+        <v>209</v>
       </c>
       <c r="E31" s="3">
-        <v>264</v>
+        <v>5016</v>
       </c>
       <c r="F31" s="82">
         <f>G31/24</f>
-        <v>1960</v>
+        <v>989</v>
       </c>
       <c r="G31" s="3">
-        <f>'[2]AUGUST 2021 '!$J$30</f>
-        <v>47040</v>
+        <f>'[2]September 2021'!$J$30</f>
+        <v>23736</v>
       </c>
       <c r="H31" s="25">
         <f>I31/24</f>
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="I31" s="28">
-        <f>2400+3600</f>
-        <v>6000</v>
+        <v>4200</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="7"/>
-        <v>225</v>
+        <v>310</v>
       </c>
       <c r="K31" s="3">
-        <f>1200+4200</f>
-        <v>5400</v>
+        <v>7440</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="8"/>
-        <v>1287</v>
+        <v>355</v>
       </c>
       <c r="M31" s="3">
-        <f>240+120+48+3840+240+168+72+168+2640+480+1800+1800+240+3600+3600+3120+48+240+24+360+240+2400+360+3000+600+1440</f>
-        <v>30888</v>
+        <f>8520</f>
+        <v>8520</v>
       </c>
       <c r="N31" s="25">
         <f>O31/24</f>
-        <v>209</v>
+        <v>358</v>
       </c>
       <c r="O31" s="36">
         <f t="shared" si="9"/>
-        <v>5016</v>
+        <v>8592</v>
       </c>
       <c r="P31" s="150"/>
       <c r="Q31" s="253"/>
       <c r="R31" s="254"/>
       <c r="S31" s="4">
-        <v>5016</v>
+        <v>8568</v>
       </c>
       <c r="T31" s="8">
         <f>0*24</f>
@@ -12976,7 +13027,7 @@
       </c>
       <c r="U31" s="35">
         <f>S31+T31-O31</f>
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="V31" s="75"/>
       <c r="W31" s="29"/>
@@ -12989,51 +13040,51 @@
       <c r="C32" s="243"/>
       <c r="D32" s="84">
         <f t="shared" ref="D32:O32" si="10">SUM(D29:D31)</f>
-        <v>13</v>
+        <v>234</v>
       </c>
       <c r="E32" s="78">
         <f t="shared" si="10"/>
-        <v>312</v>
+        <v>5616</v>
       </c>
       <c r="F32" s="84">
         <f t="shared" si="10"/>
-        <v>2401</v>
+        <v>1298</v>
       </c>
       <c r="G32" s="78">
         <f t="shared" si="10"/>
-        <v>57624</v>
+        <v>31152</v>
       </c>
       <c r="H32" s="79">
         <f t="shared" si="10"/>
-        <v>305</v>
+        <v>225</v>
       </c>
       <c r="I32" s="80">
         <f t="shared" si="10"/>
-        <v>7320</v>
+        <v>5400</v>
       </c>
       <c r="J32" s="84">
         <f t="shared" si="10"/>
-        <v>235</v>
+        <v>330</v>
       </c>
       <c r="K32" s="78">
         <f t="shared" si="10"/>
-        <v>5640</v>
+        <v>7920</v>
       </c>
       <c r="L32" s="84">
         <f t="shared" si="10"/>
-        <v>1640</v>
+        <v>544</v>
       </c>
       <c r="M32" s="78">
         <f t="shared" si="10"/>
-        <v>39360</v>
+        <v>13056</v>
       </c>
       <c r="N32" s="84">
         <f t="shared" si="10"/>
-        <v>234</v>
+        <v>433</v>
       </c>
       <c r="O32" s="78">
         <f t="shared" si="10"/>
-        <v>5616</v>
+        <v>10392</v>
       </c>
       <c r="P32" s="151"/>
       <c r="Q32" s="151"/>
@@ -13052,56 +13103,54 @@
       <c r="C33" s="237"/>
       <c r="D33" s="85">
         <f>E33/12</f>
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="E33" s="14">
-        <v>60</v>
+        <v>624</v>
       </c>
       <c r="F33" s="85">
         <f>G33/12</f>
-        <v>746</v>
+        <v>179</v>
       </c>
       <c r="G33" s="14">
-        <f>'[2]AUGUST 2021 '!$K$30</f>
-        <v>8952</v>
+        <f>'[2]September 2021'!$K$30</f>
+        <v>2148</v>
       </c>
       <c r="H33" s="23">
         <f>I33/12</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I33" s="26">
-        <f>120+120</f>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="J33" s="15">
         <f t="shared" ref="J33:J34" si="11">K33/12</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K33" s="10">
-        <f>180+120</f>
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="L33" s="15">
         <f t="shared" ref="L33:L34" si="12">M33/12</f>
-        <v>654</v>
+        <v>193</v>
       </c>
       <c r="M33" s="10">
-        <f>24+2520+24+120+1800+12+24+1200+24+1800+60+24+60+48+48+60</f>
-        <v>7848</v>
+        <f>2316</f>
+        <v>2316</v>
       </c>
       <c r="N33" s="23">
         <f>O33/12</f>
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="O33" s="36">
         <f>E33+G33-I33-K33-M33</f>
-        <v>624</v>
+        <v>96</v>
       </c>
       <c r="P33" s="150"/>
       <c r="Q33" s="150"/>
       <c r="R33" s="150"/>
       <c r="S33" s="5">
-        <v>648</v>
+        <v>96</v>
       </c>
       <c r="T33" s="16">
         <f>0*12</f>
@@ -13109,7 +13158,7 @@
       </c>
       <c r="U33" s="30">
         <f>S33+T33-O33</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="V33" s="86"/>
       <c r="W33" s="29"/>
@@ -13129,11 +13178,11 @@
       </c>
       <c r="F34" s="76">
         <f>G34/12</f>
-        <v>50</v>
+        <v>321</v>
       </c>
       <c r="G34" s="12">
-        <f>'[2]AUGUST 2021 '!$L$30</f>
-        <v>600</v>
+        <f>'[2]September 2021'!$L$30</f>
+        <v>3852</v>
       </c>
       <c r="H34" s="24">
         <f>I34/12</f>
@@ -13146,14 +13195,16 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K34" s="12"/>
+      <c r="K34" s="12">
+        <v>0</v>
+      </c>
       <c r="L34" s="13">
         <f t="shared" si="12"/>
-        <v>50</v>
+        <v>321</v>
       </c>
       <c r="M34" s="12">
-        <f>600</f>
-        <v>600</v>
+        <f>3852</f>
+        <v>3852</v>
       </c>
       <c r="N34" s="24">
         <f>O34/12</f>
@@ -13187,51 +13238,51 @@
       <c r="C35" s="243"/>
       <c r="D35" s="84">
         <f>SUM(D33:D34)</f>
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="E35" s="78">
         <f t="shared" ref="E35:H35" si="13">SUM(E33:E34)</f>
-        <v>60</v>
+        <v>624</v>
       </c>
       <c r="F35" s="84">
         <f t="shared" si="13"/>
-        <v>796</v>
+        <v>500</v>
       </c>
       <c r="G35" s="78">
         <f t="shared" si="13"/>
-        <v>9552</v>
+        <v>6000</v>
       </c>
       <c r="H35" s="79">
         <f t="shared" si="13"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I35" s="80">
         <f>SUM(I33:I34)</f>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="J35" s="84">
         <f t="shared" ref="J35:O35" si="14">SUM(J33:J34)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K35" s="78">
         <f t="shared" si="14"/>
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="L35" s="84">
         <f t="shared" si="14"/>
-        <v>704</v>
+        <v>514</v>
       </c>
       <c r="M35" s="78">
         <f t="shared" si="14"/>
-        <v>8448</v>
+        <v>6168</v>
       </c>
       <c r="N35" s="84">
         <f t="shared" si="14"/>
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="O35" s="78">
         <f t="shared" si="14"/>
-        <v>624</v>
+        <v>96</v>
       </c>
       <c r="P35" s="151"/>
       <c r="Q35" s="151"/>
@@ -13249,66 +13300,66 @@
       <c r="C36" s="249"/>
       <c r="D36" s="87">
         <f t="shared" ref="D36:O36" si="15">D21+D22+D24+D25+D26+D27+D29+D30+D31+D33+D34</f>
-        <v>62</v>
+        <v>613</v>
       </c>
       <c r="E36" s="87">
         <f t="shared" si="15"/>
-        <v>1536</v>
+        <v>14928</v>
       </c>
       <c r="F36" s="87">
         <f t="shared" si="15"/>
-        <v>5026</v>
+        <v>2545</v>
       </c>
       <c r="G36" s="87">
         <f t="shared" si="15"/>
-        <v>118820</v>
+        <v>58240</v>
       </c>
       <c r="H36" s="87">
         <f t="shared" si="15"/>
-        <v>445</v>
+        <v>325</v>
       </c>
       <c r="I36" s="87">
         <f>I21+I22+I24+I25+I26+I27+I29+I30+I31+I33+I34</f>
-        <v>10540</v>
+        <v>7980</v>
       </c>
       <c r="J36" s="87">
         <f t="shared" si="15"/>
-        <v>416</v>
+        <v>530</v>
       </c>
       <c r="K36" s="87">
         <f t="shared" si="15"/>
-        <v>9750</v>
+        <v>12470</v>
       </c>
       <c r="L36" s="87">
         <f t="shared" si="15"/>
-        <v>3614</v>
+        <v>1595</v>
       </c>
       <c r="M36" s="87">
         <f t="shared" si="15"/>
-        <v>85138</v>
+        <v>35186</v>
       </c>
       <c r="N36" s="87">
         <f t="shared" si="15"/>
-        <v>613</v>
+        <v>708</v>
       </c>
       <c r="O36" s="87">
         <f t="shared" si="15"/>
-        <v>14928</v>
+        <v>17532</v>
       </c>
       <c r="P36" s="151"/>
       <c r="Q36" s="151"/>
       <c r="R36" s="151"/>
       <c r="S36" s="88">
         <f>SUM(S21:S34)</f>
-        <v>14952</v>
+        <v>17394</v>
       </c>
       <c r="T36" s="89">
         <f>SUM(T21:T34)</f>
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="U36" s="147">
         <f>S36+T36-O36</f>
-        <v>24</v>
+        <v>870</v>
       </c>
       <c r="W36" s="29"/>
     </row>
@@ -13334,11 +13385,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
     <mergeCell ref="Q31:R31"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A22:C22"/>
@@ -13346,6 +13392,11 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="A17:C20"/>
     <mergeCell ref="D17:O17"/>
@@ -13356,21 +13407,16 @@
     <mergeCell ref="N18:O19"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="E12:F12"/>
@@ -13378,11 +13424,13 @@
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:R9"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="E10:F10"/>
@@ -13390,11 +13438,11 @@
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
@@ -13405,11 +13453,9 @@
     <mergeCell ref="E8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
     <mergeCell ref="A7:R7"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
@@ -13421,6 +13467,11 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:L6"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.25" top="0.28000000000000003" bottom="0.22" header="0.22" footer="0.15"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>

--- a/D.K STATEMENT -2021-22.xlsx
+++ b/D.K STATEMENT -2021-22.xlsx
@@ -256,16 +256,16 @@
     <t>Destination Wise Production , Despatch and Stock Report for the month of September 01.09.2021 to 30.09.2021</t>
   </si>
   <si>
-    <t>Destination Wise Production , Despatch and Stock Report for the month of October 01.10.2021 to 31.10.2021</t>
+    <t>Destination Wise Production , Despatch and Stock Report for the month of October 01.10.2021 to 09.10.2021</t>
   </si>
   <si>
-    <t>ORIGINAL/BLACK TEA  STATEMENT  AS ON  (01.10.2021 to 31.10.2021)</t>
+    <t>ORIGINAL/BLACK TEA  STATEMENT  AS ON  (01.10.2021 to 09.10.2021)</t>
   </si>
   <si>
-    <t>PACKED TEA  STATEMENT AS ON (01.10.2021 TO 31.10.2021)</t>
+    <t>BLENDED TEA  STATEMENT AS ON (01.10.2021 TO 09.10.2021)</t>
   </si>
   <si>
-    <t>BLENDED TEA  STATEMENT AS ON (01.10.2021 TO 30.10.2021)</t>
+    <t>PACKED TEA  STATEMENT AS ON (01.10.2021 TO 09.10.2021)</t>
   </si>
 </sst>
 </file>
@@ -2177,7 +2177,7 @@
             <v>2736</v>
           </cell>
           <cell r="D30">
-            <v>10140</v>
+            <v>11670</v>
           </cell>
           <cell r="E30">
             <v>576</v>
@@ -2189,13 +2189,13 @@
             <v>0</v>
           </cell>
           <cell r="H30">
-            <v>1152</v>
+            <v>2592</v>
           </cell>
           <cell r="I30">
-            <v>744</v>
+            <v>1584</v>
           </cell>
           <cell r="J30">
-            <v>13776</v>
+            <v>15456</v>
           </cell>
           <cell r="K30">
             <v>2856</v>
@@ -11697,7 +11697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K6" sqref="K6:L6"/>
     </sheetView>
   </sheetViews>
@@ -13567,8 +13567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13742,7 +13742,7 @@
     </row>
     <row r="7" spans="1:24" ht="13.5" customHeight="1" thickBot="1">
       <c r="A7" s="245" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="245"/>
       <c r="C7" s="245"/>
@@ -13839,7 +13839,7 @@
       <c r="Q9" s="229"/>
       <c r="R9" s="230"/>
       <c r="S9" s="122"/>
-      <c r="U9" s="64">
+      <c r="W9" s="64">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -13871,12 +13871,12 @@
       <c r="K10" s="200"/>
       <c r="L10" s="199">
         <f>G29+G30+G31</f>
-        <v>15672</v>
+        <v>19632</v>
       </c>
       <c r="M10" s="220"/>
       <c r="N10" s="199">
         <f>J10-L10</f>
-        <v>19785.680000000008</v>
+        <v>15825.680000000008</v>
       </c>
       <c r="O10" s="200"/>
       <c r="P10" s="60">
@@ -13885,7 +13885,7 @@
       </c>
       <c r="Q10" s="199">
         <f>N10-P10</f>
-        <v>-10119.919999999991</v>
+        <v>-14079.919999999991</v>
       </c>
       <c r="R10" s="224"/>
       <c r="S10" s="123"/>
@@ -14010,12 +14010,12 @@
       <c r="K13" s="200"/>
       <c r="L13" s="199">
         <f>G24+G25+G26+G27</f>
-        <v>10716</v>
+        <v>12246</v>
       </c>
       <c r="M13" s="224"/>
       <c r="N13" s="199">
         <f>J13-L13</f>
-        <v>11138.239999999998</v>
+        <v>9608.239999999998</v>
       </c>
       <c r="O13" s="200"/>
       <c r="P13" s="60">
@@ -14023,7 +14023,7 @@
       </c>
       <c r="Q13" s="199">
         <f>N13-P13</f>
-        <v>11138.239999999998</v>
+        <v>9608.239999999998</v>
       </c>
       <c r="R13" s="224"/>
       <c r="S13" s="123"/>
@@ -14089,12 +14089,12 @@
       <c r="K15" s="200"/>
       <c r="L15" s="199">
         <f>SUM(L10:M14)</f>
-        <v>33144</v>
+        <v>38634</v>
       </c>
       <c r="M15" s="220"/>
       <c r="N15" s="199">
         <f>SUM(N10:O14)</f>
-        <v>35932.610400000005</v>
+        <v>30442.610400000005</v>
       </c>
       <c r="O15" s="200"/>
       <c r="P15" s="60">
@@ -14103,7 +14103,7 @@
       </c>
       <c r="Q15" s="199">
         <f>SUM(Q10:R13)</f>
-        <v>6027.0104000000065</v>
+        <v>537.01040000000648</v>
       </c>
       <c r="R15" s="200"/>
       <c r="S15" s="121"/>
@@ -14131,7 +14131,7 @@
       <c r="B17" s="202"/>
       <c r="C17" s="202"/>
       <c r="D17" s="209" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E17" s="210"/>
       <c r="F17" s="210"/>
@@ -14277,10 +14277,10 @@
       </c>
       <c r="H21" s="23">
         <f>I21/24</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I21" s="26">
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="J21" s="11">
         <f>K21/24</f>
@@ -14298,11 +14298,11 @@
       </c>
       <c r="N21" s="23">
         <f>O21/24</f>
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="O21" s="36">
         <f t="shared" ref="O21:O22" si="1">E21+G21-I21-K21-M21</f>
-        <v>1200</v>
+        <v>192</v>
       </c>
       <c r="P21" s="150"/>
       <c r="Q21" s="150"/>
@@ -14316,7 +14316,7 @@
       </c>
       <c r="U21" s="30">
         <f>S21+T21-O21</f>
-        <v>-936</v>
+        <v>72</v>
       </c>
       <c r="V21" s="75"/>
       <c r="W21" s="29"/>
@@ -14344,32 +14344,32 @@
       </c>
       <c r="H22" s="24">
         <f>I22/24</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I22" s="33">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="J22" s="13">
         <f>K22/24</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K22" s="12">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="L22" s="13">
         <f>M22/24</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M22" s="12">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="N22" s="24">
         <f>O22/24</f>
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="O22" s="36">
         <f t="shared" si="1"/>
-        <v>2976</v>
+        <v>1608</v>
       </c>
       <c r="P22" s="150"/>
       <c r="Q22" s="149"/>
@@ -14383,7 +14383,7 @@
       </c>
       <c r="U22" s="30">
         <f>S22+T22-O22</f>
-        <v>-2064</v>
+        <v>-696</v>
       </c>
       <c r="V22" s="75"/>
       <c r="W22" s="29"/>
@@ -14412,35 +14412,35 @@
       </c>
       <c r="H23" s="79">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I23" s="80">
         <f>SUM(I21:I22)</f>
-        <v>0</v>
+        <v>1728</v>
       </c>
       <c r="J23" s="77">
         <f t="shared" ref="J23:O23" si="3">SUM(J21:J22)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K23" s="78">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="L23" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M23" s="78">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="N23" s="77">
         <f t="shared" si="3"/>
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="O23" s="78">
         <f t="shared" si="3"/>
-        <v>4176</v>
+        <v>1800</v>
       </c>
       <c r="P23" s="154"/>
       <c r="Q23" s="154"/>
@@ -14466,11 +14466,11 @@
       </c>
       <c r="F24" s="74">
         <f>G24/30</f>
-        <v>338</v>
+        <v>389</v>
       </c>
       <c r="G24" s="10">
         <f>'[2]October 2021'!$D$30</f>
-        <v>10140</v>
+        <v>11670</v>
       </c>
       <c r="H24" s="23">
         <f>I24/30</f>
@@ -14481,25 +14481,25 @@
       </c>
       <c r="J24" s="23">
         <f>K24/30</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K24" s="10">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L24" s="23">
         <f>M24/30</f>
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="M24" s="10">
-        <v>0</v>
+        <v>6900</v>
       </c>
       <c r="N24" s="23">
         <f>O24/30</f>
-        <v>381</v>
+        <v>192</v>
       </c>
       <c r="O24" s="36">
         <f t="shared" ref="O24:O36" si="4">E24+G24-I24-K24-M24</f>
-        <v>11430</v>
+        <v>5760</v>
       </c>
       <c r="P24" s="150"/>
       <c r="Q24" s="150"/>
@@ -14513,7 +14513,7 @@
       </c>
       <c r="U24" s="30">
         <f>S24+T24-O24</f>
-        <v>-10020</v>
+        <v>-4350</v>
       </c>
       <c r="V24" s="75"/>
       <c r="W24" s="29"/>
@@ -14541,10 +14541,10 @@
       </c>
       <c r="H25" s="39">
         <f>I25/24</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I25" s="27">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="J25" s="40">
         <f t="shared" ref="J25" si="5">K25/24</f>
@@ -14555,18 +14555,18 @@
       </c>
       <c r="L25" s="40">
         <f t="shared" ref="L25" si="6">M25/24</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M25" s="36">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="N25" s="39">
         <f>O25/24</f>
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="O25" s="36">
         <f t="shared" si="4"/>
-        <v>576</v>
+        <v>96</v>
       </c>
       <c r="P25" s="150"/>
       <c r="Q25" s="150"/>
@@ -14579,7 +14579,7 @@
       </c>
       <c r="U25" s="35">
         <f>S25+T25-O25</f>
-        <v>-576</v>
+        <v>-96</v>
       </c>
       <c r="V25" s="75"/>
       <c r="W25" s="29"/>
@@ -14614,10 +14614,10 @@
       </c>
       <c r="J26" s="1">
         <f>K26/22</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="L26" s="1">
         <f>M26/22</f>
@@ -14628,11 +14628,11 @@
       </c>
       <c r="N26" s="25">
         <f>O26/22</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O26" s="36">
         <f t="shared" si="4"/>
-        <v>220</v>
+        <v>66</v>
       </c>
       <c r="P26" s="150"/>
       <c r="Q26" s="150"/>
@@ -14646,7 +14646,7 @@
       </c>
       <c r="U26" s="35">
         <f>S26+T26-O26</f>
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="V26" s="29"/>
       <c r="W26" s="29"/>
@@ -14681,10 +14681,10 @@
       </c>
       <c r="J27" s="44">
         <f>K27/22</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K27" s="41">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="L27" s="44">
         <f>M27/22</f>
@@ -14695,11 +14695,11 @@
       </c>
       <c r="N27" s="42">
         <f>O27/22</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="O27" s="36">
         <f t="shared" si="4"/>
-        <v>264</v>
+        <v>44</v>
       </c>
       <c r="P27" s="150"/>
       <c r="Q27" s="150"/>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="U27" s="148">
         <f>S27+T27-O27</f>
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="V27" s="75"/>
       <c r="W27" s="29"/>
@@ -14734,43 +14734,43 @@
       </c>
       <c r="F28" s="79">
         <f t="shared" si="7"/>
-        <v>362</v>
+        <v>413</v>
       </c>
       <c r="G28" s="21">
         <f t="shared" si="7"/>
-        <v>10716</v>
+        <v>12246</v>
       </c>
       <c r="H28" s="79">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I28" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="J28" s="79">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="K28" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>674</v>
       </c>
       <c r="L28" s="79">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="M28" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>7140</v>
       </c>
       <c r="N28" s="79">
         <f t="shared" si="7"/>
-        <v>427</v>
+        <v>201</v>
       </c>
       <c r="O28" s="21">
         <f t="shared" si="7"/>
-        <v>12490</v>
+        <v>5966</v>
       </c>
       <c r="P28" s="150"/>
       <c r="Q28" s="150"/>
@@ -14796,40 +14796,41 @@
       </c>
       <c r="F29" s="74">
         <f>G29/24</f>
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="G29" s="27">
         <f>'[2]October 2021'!$H$30</f>
-        <v>1152</v>
+        <v>2592</v>
       </c>
       <c r="H29" s="23">
         <f>I29/24</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I29" s="26">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J29" s="11">
         <f t="shared" ref="J29:J31" si="8">K29/24</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K29" s="10">
-        <v>0</v>
+        <f>240+1440</f>
+        <v>1680</v>
       </c>
       <c r="L29" s="11">
         <f t="shared" ref="L29:L31" si="9">M29/24</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M29" s="10">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="N29" s="23">
         <f>O29/24</f>
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="O29" s="36">
         <f t="shared" si="4"/>
-        <v>1416</v>
+        <v>96</v>
       </c>
       <c r="P29" s="150"/>
       <c r="Q29" s="150"/>
@@ -14842,7 +14843,7 @@
       </c>
       <c r="U29" s="30">
         <f>S29+T29-O29</f>
-        <v>-1152</v>
+        <v>168</v>
       </c>
       <c r="V29" s="75"/>
       <c r="W29" s="29"/>
@@ -14862,40 +14863,40 @@
       </c>
       <c r="F30" s="82">
         <f>G30/24</f>
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="G30" s="27">
         <f>'[2]October 2021'!$I$30</f>
-        <v>744</v>
+        <v>1584</v>
       </c>
       <c r="H30" s="25">
         <f>I30/24</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I30" s="28">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K30" s="3">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="L30" s="1">
         <f>M30/24</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M30" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="N30" s="25">
         <f>O30/24</f>
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="O30" s="36">
         <f t="shared" si="4"/>
-        <v>1344</v>
+        <v>24</v>
       </c>
       <c r="P30" s="150"/>
       <c r="Q30" s="150"/>
@@ -14908,7 +14909,7 @@
       </c>
       <c r="U30" s="35">
         <f>S30+T30-O30</f>
-        <v>-744</v>
+        <v>576</v>
       </c>
       <c r="V30" s="75"/>
       <c r="W30" s="29"/>
@@ -14928,40 +14929,41 @@
       </c>
       <c r="F31" s="82">
         <f>G31/24</f>
-        <v>574</v>
+        <v>644</v>
       </c>
       <c r="G31" s="27">
         <f>'[2]October 2021'!$J$30</f>
-        <v>13776</v>
+        <v>15456</v>
       </c>
       <c r="H31" s="25">
         <f>I31/24</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I31" s="28">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="K31" s="3">
-        <v>0</v>
+        <f>3360+3000</f>
+        <v>6360</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="M31" s="3">
-        <v>0</v>
+        <v>4080</v>
       </c>
       <c r="N31" s="25">
         <f>O31/24</f>
-        <v>623</v>
+        <v>158</v>
       </c>
       <c r="O31" s="36">
         <f t="shared" si="4"/>
-        <v>14952</v>
+        <v>3792</v>
       </c>
       <c r="P31" s="150"/>
       <c r="Q31" s="267"/>
@@ -14975,7 +14977,7 @@
       </c>
       <c r="U31" s="35">
         <f>S31+T31-O31</f>
-        <v>-13776</v>
+        <v>-2616</v>
       </c>
       <c r="V31" s="75"/>
       <c r="W31" s="29"/>
@@ -14996,43 +14998,43 @@
       </c>
       <c r="F32" s="84">
         <f t="shared" si="10"/>
-        <v>653</v>
+        <v>818</v>
       </c>
       <c r="G32" s="78">
         <f t="shared" si="10"/>
-        <v>15672</v>
+        <v>19632</v>
       </c>
       <c r="H32" s="79">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I32" s="80">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="J32" s="84">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="K32" s="78">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="L32" s="84">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="M32" s="78">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5160</v>
       </c>
       <c r="N32" s="84">
         <f t="shared" si="10"/>
-        <v>738</v>
+        <v>163</v>
       </c>
       <c r="O32" s="78">
         <f t="shared" si="10"/>
-        <v>17712</v>
+        <v>3912</v>
       </c>
       <c r="P32" s="151"/>
       <c r="Q32" s="151"/>
@@ -15073,25 +15075,25 @@
       </c>
       <c r="J33" s="15">
         <f t="shared" ref="J33:J34" si="11">K33/12</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K33" s="10">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="L33" s="15">
         <f t="shared" ref="L33:L34" si="12">M33/12</f>
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="M33" s="10">
-        <v>0</v>
+        <v>2460</v>
       </c>
       <c r="N33" s="23">
         <f>O33/12</f>
-        <v>295</v>
+        <v>70</v>
       </c>
       <c r="O33" s="36">
         <f t="shared" si="4"/>
-        <v>3540</v>
+        <v>840</v>
       </c>
       <c r="P33" s="150"/>
       <c r="Q33" s="150"/>
@@ -15105,7 +15107,7 @@
       </c>
       <c r="U33" s="30">
         <f>S33+T33-O33</f>
-        <v>-2856</v>
+        <v>-156</v>
       </c>
       <c r="V33" s="86"/>
       <c r="W33" s="29"/>
@@ -15147,18 +15149,18 @@
       </c>
       <c r="L34" s="13">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M34" s="12">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="N34" s="24">
         <f>O34/12</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O34" s="36">
         <f t="shared" si="4"/>
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="P34" s="150"/>
       <c r="Q34" s="150"/>
@@ -15171,7 +15173,7 @@
       </c>
       <c r="U34" s="35">
         <f>S34+T34-O34</f>
-        <v>-132</v>
+        <v>0</v>
       </c>
       <c r="V34" s="75"/>
       <c r="W34" s="29"/>
@@ -15208,27 +15210,27 @@
       </c>
       <c r="J35" s="84">
         <f t="shared" ref="J35:O35" si="14">SUM(J33:J34)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K35" s="78">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="L35" s="84">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="M35" s="78">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2592</v>
       </c>
       <c r="N35" s="84">
         <f t="shared" si="14"/>
-        <v>306</v>
+        <v>70</v>
       </c>
       <c r="O35" s="78">
         <f t="shared" si="14"/>
-        <v>3672</v>
+        <v>840</v>
       </c>
       <c r="P35" s="151"/>
       <c r="Q35" s="151"/>
@@ -15254,42 +15256,43 @@
       </c>
       <c r="F36" s="87">
         <f t="shared" si="15"/>
-        <v>1421</v>
+        <v>1637</v>
       </c>
       <c r="G36" s="87">
         <f t="shared" si="15"/>
-        <v>33144</v>
+        <v>38634</v>
       </c>
       <c r="H36" s="87">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="I36" s="87">
         <f>I21+I22+I24+I25+I26+I27+I29+I30+I31+I33+I34</f>
-        <v>0</v>
+        <v>5568</v>
       </c>
       <c r="J36" s="87">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>447</v>
       </c>
       <c r="K36" s="87">
-        <v>0</v>
+        <f>SUM(K23,K28,K32,K35)</f>
+        <v>10514</v>
       </c>
       <c r="L36" s="87">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="M36" s="87">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>14940</v>
       </c>
       <c r="N36" s="87">
         <f t="shared" si="15"/>
-        <v>1645</v>
+        <v>509</v>
       </c>
       <c r="O36" s="36">
         <f t="shared" si="4"/>
-        <v>38050</v>
+        <v>12518</v>
       </c>
       <c r="P36" s="151"/>
       <c r="Q36" s="151"/>
@@ -15304,7 +15307,7 @@
       </c>
       <c r="U36" s="147">
         <f>S36+T36-O36</f>
-        <v>-32136</v>
+        <v>-6604</v>
       </c>
       <c r="W36" s="29"/>
     </row>
@@ -15419,6 +15422,6 @@
     <mergeCell ref="K6:L6"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.25" top="0.28000000000000003" bottom="0.22" header="0.22" footer="0.15"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/D.K STATEMENT -2021-22.xlsx
+++ b/D.K STATEMENT -2021-22.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tusharpanja\Documents\GitHub\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB9796E-E4B1-4A1A-B0D3-33E5AC9B82A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021-22" sheetId="82" r:id="rId1"/>
@@ -19,12 +25,15 @@
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
   </externalReferences>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -256,26 +265,26 @@
     <t>Destination Wise Production , Despatch and Stock Report for the month of September 01.09.2021 to 30.09.2021</t>
   </si>
   <si>
-    <t>Destination Wise Production , Despatch and Stock Report for the month of October 01.10.2021 to 09.10.2021</t>
+    <t>Destination Wise Production , Despatch and Stock Report for the month of October 01.10.2021 to 15.10.2021</t>
   </si>
   <si>
-    <t>ORIGINAL/BLACK TEA  STATEMENT  AS ON  (01.10.2021 to 09.10.2021)</t>
+    <t>ORIGINAL/BLACK TEA  STATEMENT  AS ON  (01.10.2021 to 15.10.2021)</t>
   </si>
   <si>
-    <t>BLENDED TEA  STATEMENT AS ON (01.10.2021 TO 09.10.2021)</t>
+    <t>BLENDED TEA  STATEMENT AS ON (01.10.2021 TO 15.10.2021)</t>
   </si>
   <si>
-    <t>PACKED TEA  STATEMENT AS ON (01.10.2021 TO 09.10.2021)</t>
+    <t>PACKED TEA  STATEMENT AS ON (01.10.2021 TO 15.10.2021)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1856,14 +1865,15 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="April 2021-22"/>
       <sheetName val="May 2021"/>
       <sheetName val="June 2021"/>
+      <sheetName val="July"/>
+      <sheetName val="October 2021"/>
       <sheetName val="July 2021"/>
-      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1932,15 +1942,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="April 2021-22"/>
@@ -2065,6 +2076,12 @@
       </sheetData>
       <sheetData sheetId="3">
         <row r="30">
+          <cell r="B30">
+            <v>1008</v>
+          </cell>
+          <cell r="C30">
+            <v>3936</v>
+          </cell>
           <cell r="D30">
             <v>41880</v>
           </cell>
@@ -2177,28 +2194,28 @@
             <v>2736</v>
           </cell>
           <cell r="D30">
-            <v>11670</v>
+            <v>18930</v>
           </cell>
           <cell r="E30">
             <v>576</v>
           </cell>
           <cell r="F30">
-            <v>0</v>
+            <v>506</v>
           </cell>
           <cell r="G30">
             <v>0</v>
           </cell>
           <cell r="H30">
-            <v>2592</v>
+            <v>5688</v>
           </cell>
           <cell r="I30">
-            <v>1584</v>
+            <v>3168</v>
           </cell>
           <cell r="J30">
-            <v>15456</v>
+            <v>24624</v>
           </cell>
           <cell r="K30">
-            <v>2856</v>
+            <v>4512</v>
           </cell>
           <cell r="L30">
             <v>132</v>
@@ -2253,7 +2270,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2285,9 +2302,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2319,6 +2354,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2494,14 +2547,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
@@ -2527,7 +2580,7 @@
     <col min="25" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75">
+    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="246" t="s">
         <v>49</v>
       </c>
@@ -2549,7 +2602,7 @@
       <c r="Q1" s="246"/>
       <c r="R1" s="246"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="247"/>
       <c r="B2" s="247"/>
       <c r="C2" s="247"/>
@@ -2569,7 +2622,7 @@
       <c r="Q2" s="247"/>
       <c r="R2" s="247"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1">
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="248" t="s">
         <v>50</v>
       </c>
@@ -2586,7 +2639,7 @@
       <c r="L3" s="218"/>
       <c r="M3" s="55"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="250"/>
       <c r="B4" s="251"/>
       <c r="C4" s="254" t="s">
@@ -2613,7 +2666,7 @@
       <c r="L4" s="255"/>
       <c r="M4" s="55"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1">
+    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="252"/>
       <c r="B5" s="253"/>
       <c r="C5" s="259" t="s">
@@ -2638,7 +2691,7 @@
       <c r="T5" s="29"/>
       <c r="U5" s="29"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1">
+    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="261"/>
       <c r="B6" s="262"/>
       <c r="C6" s="263">
@@ -2666,7 +2719,7 @@
       <c r="O6" s="29"/>
       <c r="Q6" s="29"/>
     </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="245" t="s">
         <v>51</v>
       </c>
@@ -2689,7 +2742,7 @@
       <c r="R7" s="245"/>
       <c r="U7" s="29"/>
     </row>
-    <row r="8" spans="1:23" ht="22.5" customHeight="1">
+    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="238" t="s">
         <v>6</v>
       </c>
@@ -2733,7 +2786,7 @@
       </c>
       <c r="R8" s="228"/>
     </row>
-    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1">
+    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="239"/>
       <c r="B9" s="233" t="s">
         <v>5</v>
@@ -2763,7 +2816,7 @@
       <c r="Q9" s="229"/>
       <c r="R9" s="230"/>
     </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
@@ -2814,7 +2867,7 @@
       <c r="R10" s="224"/>
       <c r="S10" s="32"/>
     </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1">
+    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58" t="s">
         <v>9</v>
       </c>
@@ -2861,7 +2914,7 @@
       <c r="R11" s="224"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58" t="s">
         <v>10</v>
       </c>
@@ -2905,7 +2958,7 @@
       </c>
       <c r="R12" s="224"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1">
+    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58" t="s">
         <v>30</v>
       </c>
@@ -2954,7 +3007,7 @@
       <c r="U13" s="29"/>
       <c r="W13" s="29"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="221"/>
       <c r="C14" s="222"/>
@@ -2975,7 +3028,7 @@
       <c r="R14" s="224"/>
       <c r="T14" s="64"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1">
+    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59" t="s">
         <v>1</v>
       </c>
@@ -3031,7 +3084,7 @@
       <c r="R15" s="200"/>
       <c r="S15" s="29"/>
     </row>
-    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="65"/>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -3046,7 +3099,7 @@
       <c r="L16" s="67"/>
       <c r="M16" s="67"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="201" t="s">
         <v>11</v>
       </c>
@@ -3071,7 +3124,7 @@
       <c r="R17" s="68"/>
       <c r="S17" s="68"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="203"/>
       <c r="B18" s="204"/>
       <c r="C18" s="205"/>
@@ -3098,7 +3151,7 @@
       </c>
       <c r="O18" s="213"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="203"/>
       <c r="B19" s="204"/>
       <c r="C19" s="205"/>
@@ -3119,7 +3172,7 @@
       <c r="N19" s="214"/>
       <c r="O19" s="215"/>
     </row>
-    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1">
+    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="206"/>
       <c r="B20" s="207"/>
       <c r="C20" s="208"/>
@@ -3169,7 +3222,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="178" t="s">
         <v>13</v>
       </c>
@@ -3235,7 +3288,7 @@
       <c r="V21" s="75"/>
       <c r="W21" s="29"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1">
+    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="181" t="s">
         <v>14</v>
       </c>
@@ -3302,7 +3355,7 @@
       <c r="V22" s="75"/>
       <c r="W22" s="29"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1">
+    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="184" t="s">
         <v>36</v>
       </c>
@@ -3362,7 +3415,7 @@
       <c r="V23" s="75"/>
       <c r="W23" s="29"/>
     </row>
-    <row r="24" spans="1:23" ht="15.75" thickBot="1">
+    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="178" t="s">
         <v>15</v>
       </c>
@@ -3429,7 +3482,7 @@
       <c r="V24" s="75"/>
       <c r="W24" s="29"/>
     </row>
-    <row r="25" spans="1:23" ht="15.75" thickBot="1">
+    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="196" t="s">
         <v>18</v>
       </c>
@@ -3494,7 +3547,7 @@
       <c r="V25" s="75"/>
       <c r="W25" s="29"/>
     </row>
-    <row r="26" spans="1:23" ht="15.75" thickBot="1">
+    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="193" t="s">
         <v>47</v>
       </c>
@@ -3560,7 +3613,7 @@
       <c r="V26" s="29"/>
       <c r="W26" s="29"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1">
+    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="190" t="s">
         <v>48</v>
       </c>
@@ -3626,7 +3679,7 @@
       <c r="V27" s="75"/>
       <c r="W27" s="29"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1">
+    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="184" t="s">
         <v>37</v>
       </c>
@@ -3686,7 +3739,7 @@
       <c r="V28" s="75"/>
       <c r="W28" s="29"/>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="178" t="s">
         <v>16</v>
       </c>
@@ -3752,7 +3805,7 @@
       <c r="V29" s="75"/>
       <c r="W29" s="29"/>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="193" t="s">
         <v>43</v>
       </c>
@@ -3818,7 +3871,7 @@
       <c r="V30" s="75"/>
       <c r="W30" s="29"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1">
+    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="193" t="s">
         <v>17</v>
       </c>
@@ -3885,7 +3938,7 @@
       <c r="V31" s="75"/>
       <c r="W31" s="29"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1">
+    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="184" t="s">
         <v>38</v>
       </c>
@@ -3945,7 +3998,7 @@
       <c r="V32" s="75"/>
       <c r="W32" s="29"/>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="178" t="s">
         <v>19</v>
       </c>
@@ -4012,7 +4065,7 @@
       <c r="V33" s="86"/>
       <c r="W33" s="29"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1">
+    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="181" t="s">
         <v>20</v>
       </c>
@@ -4076,7 +4129,7 @@
       <c r="V34" s="75"/>
       <c r="W34" s="29"/>
     </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1">
+    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="184" t="s">
         <v>39</v>
       </c>
@@ -4135,7 +4188,7 @@
       <c r="U35" s="34"/>
       <c r="W35" s="29"/>
     </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1">
+    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="187" t="s">
         <v>21</v>
       </c>
@@ -4203,19 +4256,19 @@
       </c>
       <c r="W36" s="29"/>
     </row>
-    <row r="37" spans="1:23" ht="9" customHeight="1">
+    <row r="37" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U37" s="32"/>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="V38" s="29"/>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="P40" s="75"/>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:23" ht="18.75">
+    <row r="42" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="P42" s="90"/>
     </row>
   </sheetData>
@@ -4318,14 +4371,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
@@ -4351,7 +4404,7 @@
     <col min="25" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75">
+    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="246" t="s">
         <v>54</v>
       </c>
@@ -4373,7 +4426,7 @@
       <c r="Q1" s="246"/>
       <c r="R1" s="246"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="247"/>
       <c r="B2" s="247"/>
       <c r="C2" s="247"/>
@@ -4393,7 +4446,7 @@
       <c r="Q2" s="247"/>
       <c r="R2" s="247"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1">
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="248" t="s">
         <v>55</v>
       </c>
@@ -4410,7 +4463,7 @@
       <c r="L3" s="218"/>
       <c r="M3" s="55"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="250"/>
       <c r="B4" s="251"/>
       <c r="C4" s="254" t="s">
@@ -4437,7 +4490,7 @@
       <c r="L4" s="255"/>
       <c r="M4" s="55"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1">
+    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="252"/>
       <c r="B5" s="253"/>
       <c r="C5" s="259" t="s">
@@ -4462,7 +4515,7 @@
       <c r="T5" s="29"/>
       <c r="U5" s="29"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1">
+    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="261"/>
       <c r="B6" s="262"/>
       <c r="C6" s="263">
@@ -4490,7 +4543,7 @@
       <c r="O6" s="29"/>
       <c r="Q6" s="29"/>
     </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="245" t="s">
         <v>56</v>
       </c>
@@ -4513,7 +4566,7 @@
       <c r="R7" s="245"/>
       <c r="U7" s="29"/>
     </row>
-    <row r="8" spans="1:23" ht="22.5" customHeight="1">
+    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="238" t="s">
         <v>6</v>
       </c>
@@ -4557,7 +4610,7 @@
       </c>
       <c r="R8" s="228"/>
     </row>
-    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1">
+    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="239"/>
       <c r="B9" s="233" t="s">
         <v>5</v>
@@ -4587,7 +4640,7 @@
       <c r="Q9" s="229"/>
       <c r="R9" s="230"/>
     </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
@@ -4639,7 +4692,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1">
+    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58" t="s">
         <v>9</v>
       </c>
@@ -4684,7 +4737,7 @@
       <c r="R11" s="224"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58" t="s">
         <v>10</v>
       </c>
@@ -4730,7 +4783,7 @@
       </c>
       <c r="R12" s="224"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1">
+    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58" t="s">
         <v>30</v>
       </c>
@@ -4778,7 +4831,7 @@
       <c r="V13" s="29"/>
       <c r="W13" s="29"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="221"/>
       <c r="C14" s="222"/>
@@ -4799,7 +4852,7 @@
       <c r="R14" s="224"/>
       <c r="T14" s="64"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1">
+    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59" t="s">
         <v>1</v>
       </c>
@@ -4855,7 +4908,7 @@
       <c r="R15" s="200"/>
       <c r="S15" s="29"/>
     </row>
-    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="65"/>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -4870,7 +4923,7 @@
       <c r="L16" s="67"/>
       <c r="M16" s="67"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="201" t="s">
         <v>11</v>
       </c>
@@ -4895,7 +4948,7 @@
       <c r="R17" s="68"/>
       <c r="S17" s="68"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="203"/>
       <c r="B18" s="204"/>
       <c r="C18" s="205"/>
@@ -4922,7 +4975,7 @@
       </c>
       <c r="O18" s="213"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="203"/>
       <c r="B19" s="204"/>
       <c r="C19" s="205"/>
@@ -4943,7 +4996,7 @@
       <c r="N19" s="214"/>
       <c r="O19" s="215"/>
     </row>
-    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1">
+    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="206"/>
       <c r="B20" s="207"/>
       <c r="C20" s="208"/>
@@ -4993,7 +5046,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="178" t="s">
         <v>13</v>
       </c>
@@ -5060,7 +5113,7 @@
       <c r="V21" s="75"/>
       <c r="W21" s="29"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1">
+    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="181" t="s">
         <v>14</v>
       </c>
@@ -5127,7 +5180,7 @@
       <c r="V22" s="75"/>
       <c r="W22" s="29"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1">
+    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="184" t="s">
         <v>36</v>
       </c>
@@ -5187,7 +5240,7 @@
       <c r="V23" s="75"/>
       <c r="W23" s="29"/>
     </row>
-    <row r="24" spans="1:23" ht="15.75" thickBot="1">
+    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="178" t="s">
         <v>15</v>
       </c>
@@ -5253,7 +5306,7 @@
       <c r="V24" s="75"/>
       <c r="W24" s="29"/>
     </row>
-    <row r="25" spans="1:23" ht="15.75" thickBot="1">
+    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="196" t="s">
         <v>18</v>
       </c>
@@ -5316,7 +5369,7 @@
       <c r="V25" s="75"/>
       <c r="W25" s="29"/>
     </row>
-    <row r="26" spans="1:23" ht="15.75" thickBot="1">
+    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="193" t="s">
         <v>47</v>
       </c>
@@ -5383,7 +5436,7 @@
       <c r="V26" s="29"/>
       <c r="W26" s="29"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1">
+    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="190" t="s">
         <v>48</v>
       </c>
@@ -5449,7 +5502,7 @@
       <c r="V27" s="75"/>
       <c r="W27" s="29"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1">
+    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="184" t="s">
         <v>37</v>
       </c>
@@ -5509,7 +5562,7 @@
       <c r="V28" s="75"/>
       <c r="W28" s="29"/>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="178" t="s">
         <v>16</v>
       </c>
@@ -5575,7 +5628,7 @@
       <c r="V29" s="75"/>
       <c r="W29" s="29"/>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="193" t="s">
         <v>43</v>
       </c>
@@ -5640,7 +5693,7 @@
       <c r="V30" s="75"/>
       <c r="W30" s="29"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1">
+    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="193" t="s">
         <v>17</v>
       </c>
@@ -5707,7 +5760,7 @@
       <c r="V31" s="75"/>
       <c r="W31" s="29"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1">
+    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="184" t="s">
         <v>38</v>
       </c>
@@ -5767,7 +5820,7 @@
       <c r="V32" s="75"/>
       <c r="W32" s="29"/>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="178" t="s">
         <v>19</v>
       </c>
@@ -5833,7 +5886,7 @@
       <c r="V33" s="86"/>
       <c r="W33" s="29"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1">
+    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="181" t="s">
         <v>20</v>
       </c>
@@ -5897,7 +5950,7 @@
       <c r="V34" s="75"/>
       <c r="W34" s="29"/>
     </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1">
+    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="184" t="s">
         <v>39</v>
       </c>
@@ -5956,7 +6009,7 @@
       <c r="U35" s="34"/>
       <c r="W35" s="29"/>
     </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1">
+    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="187" t="s">
         <v>21</v>
       </c>
@@ -6024,19 +6077,19 @@
       </c>
       <c r="W36" s="29"/>
     </row>
-    <row r="37" spans="1:23" ht="9" customHeight="1">
+    <row r="37" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U37" s="32"/>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="V38" s="29"/>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="P40" s="75"/>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:23" ht="18.75">
+    <row r="42" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="P42" s="90"/>
     </row>
   </sheetData>
@@ -6139,14 +6192,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
@@ -6172,7 +6225,7 @@
     <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.75">
+    <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="246" t="s">
         <v>58</v>
       </c>
@@ -6195,7 +6248,7 @@
       <c r="R1" s="246"/>
       <c r="S1" s="119"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="247"/>
       <c r="B2" s="247"/>
       <c r="C2" s="247"/>
@@ -6216,7 +6269,7 @@
       <c r="R2" s="247"/>
       <c r="S2" s="120"/>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1">
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="248" t="s">
         <v>59</v>
       </c>
@@ -6233,7 +6286,7 @@
       <c r="L3" s="218"/>
       <c r="M3" s="55"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="250"/>
       <c r="B4" s="251"/>
       <c r="C4" s="254" t="s">
@@ -6260,7 +6313,7 @@
       <c r="L4" s="255"/>
       <c r="M4" s="55"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1">
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="252"/>
       <c r="B5" s="253"/>
       <c r="C5" s="259" t="s">
@@ -6285,7 +6338,7 @@
       <c r="U5" s="29"/>
       <c r="V5" s="29"/>
     </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1">
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="261"/>
       <c r="B6" s="262"/>
       <c r="C6" s="263">
@@ -6313,7 +6366,7 @@
       <c r="O6" s="29"/>
       <c r="Q6" s="29"/>
     </row>
-    <row r="7" spans="1:24" ht="13.5" customHeight="1" thickBot="1">
+    <row r="7" spans="1:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="245" t="s">
         <v>60</v>
       </c>
@@ -6337,7 +6390,7 @@
       <c r="S7" s="121"/>
       <c r="V7" s="29"/>
     </row>
-    <row r="8" spans="1:24" ht="22.5" customHeight="1">
+    <row r="8" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="238" t="s">
         <v>6</v>
       </c>
@@ -6382,7 +6435,7 @@
       <c r="R8" s="228"/>
       <c r="S8" s="122"/>
     </row>
-    <row r="9" spans="1:24" ht="19.5" customHeight="1" thickBot="1">
+    <row r="9" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="239"/>
       <c r="B9" s="233" t="s">
         <v>5</v>
@@ -6413,7 +6466,7 @@
       <c r="R9" s="230"/>
       <c r="S9" s="122"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
@@ -6465,7 +6518,7 @@
       <c r="S10" s="123"/>
       <c r="T10" s="32"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1">
+    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58" t="s">
         <v>9</v>
       </c>
@@ -6511,7 +6564,7 @@
       <c r="S11" s="123"/>
       <c r="T11" s="32"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58" t="s">
         <v>10</v>
       </c>
@@ -6560,7 +6613,7 @@
       <c r="R12" s="224"/>
       <c r="S12" s="123"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1">
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58" t="s">
         <v>30</v>
       </c>
@@ -6611,7 +6664,7 @@
       <c r="W13" s="29"/>
       <c r="X13" s="29"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="221"/>
       <c r="C14" s="222"/>
@@ -6633,7 +6686,7 @@
       <c r="S14" s="123"/>
       <c r="U14" s="64"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" thickBot="1">
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59" t="s">
         <v>1</v>
       </c>
@@ -6690,7 +6743,7 @@
       <c r="S15" s="121"/>
       <c r="T15" s="29"/>
     </row>
-    <row r="16" spans="1:24" ht="6.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:24" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="65"/>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -6705,7 +6758,7 @@
       <c r="L16" s="67"/>
       <c r="M16" s="67"/>
     </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="201" t="s">
         <v>11</v>
       </c>
@@ -6731,7 +6784,7 @@
       <c r="S17" s="68"/>
       <c r="T17" s="68"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="203"/>
       <c r="B18" s="204"/>
       <c r="C18" s="205"/>
@@ -6758,7 +6811,7 @@
       </c>
       <c r="O18" s="213"/>
     </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+    <row r="19" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="203"/>
       <c r="B19" s="204"/>
       <c r="C19" s="205"/>
@@ -6779,7 +6832,7 @@
       <c r="N19" s="214"/>
       <c r="O19" s="215"/>
     </row>
-    <row r="20" spans="1:24" s="71" customFormat="1" ht="15.75" thickBot="1">
+    <row r="20" spans="1:24" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="206"/>
       <c r="B20" s="207"/>
       <c r="C20" s="208"/>
@@ -6829,7 +6882,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="178" t="s">
         <v>13</v>
       </c>
@@ -6895,7 +6948,7 @@
       <c r="W21" s="75"/>
       <c r="X21" s="29"/>
     </row>
-    <row r="22" spans="1:24" ht="15.75" thickBot="1">
+    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="181" t="s">
         <v>14</v>
       </c>
@@ -6961,7 +7014,7 @@
       <c r="W22" s="75"/>
       <c r="X22" s="29"/>
     </row>
-    <row r="23" spans="1:24" ht="15.75" thickBot="1">
+    <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="184" t="s">
         <v>36</v>
       </c>
@@ -7021,7 +7074,7 @@
       <c r="W23" s="75"/>
       <c r="X23" s="29"/>
     </row>
-    <row r="24" spans="1:24" ht="15.75" thickBot="1">
+    <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="178" t="s">
         <v>15</v>
       </c>
@@ -7087,7 +7140,7 @@
       <c r="W24" s="75"/>
       <c r="X24" s="29"/>
     </row>
-    <row r="25" spans="1:24" ht="15.75" thickBot="1">
+    <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="196" t="s">
         <v>18</v>
       </c>
@@ -7151,7 +7204,7 @@
       <c r="W25" s="75"/>
       <c r="X25" s="29"/>
     </row>
-    <row r="26" spans="1:24" ht="15.75" thickBot="1">
+    <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="193" t="s">
         <v>47</v>
       </c>
@@ -7217,7 +7270,7 @@
       <c r="W26" s="29"/>
       <c r="X26" s="29"/>
     </row>
-    <row r="27" spans="1:24" ht="15.75" thickBot="1">
+    <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="190" t="s">
         <v>48</v>
       </c>
@@ -7282,7 +7335,7 @@
       <c r="W27" s="75"/>
       <c r="X27" s="29"/>
     </row>
-    <row r="28" spans="1:24" ht="15.75" thickBot="1">
+    <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="184" t="s">
         <v>37</v>
       </c>
@@ -7342,7 +7395,7 @@
       <c r="W28" s="75"/>
       <c r="X28" s="29"/>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="178" t="s">
         <v>16</v>
       </c>
@@ -7406,7 +7459,7 @@
       <c r="W29" s="75"/>
       <c r="X29" s="29"/>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="193" t="s">
         <v>43</v>
       </c>
@@ -7470,7 +7523,7 @@
       <c r="W30" s="75"/>
       <c r="X30" s="29"/>
     </row>
-    <row r="31" spans="1:24" ht="15.75" thickBot="1">
+    <row r="31" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="193" t="s">
         <v>17</v>
       </c>
@@ -7535,7 +7588,7 @@
       <c r="W31" s="75"/>
       <c r="X31" s="29"/>
     </row>
-    <row r="32" spans="1:24" ht="15.75" thickBot="1">
+    <row r="32" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="184" t="s">
         <v>38</v>
       </c>
@@ -7595,7 +7648,7 @@
       <c r="W32" s="75"/>
       <c r="X32" s="29"/>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="178" t="s">
         <v>19</v>
       </c>
@@ -7660,7 +7713,7 @@
       <c r="W33" s="86"/>
       <c r="X33" s="29"/>
     </row>
-    <row r="34" spans="1:24" ht="15.75" thickBot="1">
+    <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="181" t="s">
         <v>20</v>
       </c>
@@ -7724,7 +7777,7 @@
       <c r="W34" s="75"/>
       <c r="X34" s="29"/>
     </row>
-    <row r="35" spans="1:24" ht="15.75" thickBot="1">
+    <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="184" t="s">
         <v>39</v>
       </c>
@@ -7783,7 +7836,7 @@
       <c r="V35" s="34"/>
       <c r="X35" s="29"/>
     </row>
-    <row r="36" spans="1:24" ht="15.75" thickBot="1">
+    <row r="36" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="187" t="s">
         <v>21</v>
       </c>
@@ -7851,19 +7904,19 @@
       </c>
       <c r="X36" s="29"/>
     </row>
-    <row r="37" spans="1:24" ht="9" customHeight="1">
+    <row r="37" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V37" s="32"/>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="W38" s="29"/>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="P40" s="75"/>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:24" ht="18.75">
+    <row r="42" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="P42" s="90"/>
     </row>
   </sheetData>
@@ -7966,14 +8019,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
@@ -8000,7 +8053,7 @@
     <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.75">
+    <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="246" t="s">
         <v>64</v>
       </c>
@@ -8023,7 +8076,7 @@
       <c r="R1" s="246"/>
       <c r="S1" s="124"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="247"/>
       <c r="B2" s="247"/>
       <c r="C2" s="247"/>
@@ -8044,7 +8097,7 @@
       <c r="R2" s="247"/>
       <c r="S2" s="125"/>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1">
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="248" t="s">
         <v>65</v>
       </c>
@@ -8061,7 +8114,7 @@
       <c r="L3" s="218"/>
       <c r="M3" s="55"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="250"/>
       <c r="B4" s="251"/>
       <c r="C4" s="254" t="s">
@@ -8088,7 +8141,7 @@
       <c r="L4" s="255"/>
       <c r="M4" s="55"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1">
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="252"/>
       <c r="B5" s="253"/>
       <c r="C5" s="259" t="s">
@@ -8113,7 +8166,7 @@
       <c r="U5" s="29"/>
       <c r="V5" s="29"/>
     </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1">
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="261"/>
       <c r="B6" s="262"/>
       <c r="C6" s="263">
@@ -8141,7 +8194,7 @@
       <c r="O6" s="29"/>
       <c r="Q6" s="29"/>
     </row>
-    <row r="7" spans="1:24" ht="13.5" customHeight="1" thickBot="1">
+    <row r="7" spans="1:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="245" t="s">
         <v>63</v>
       </c>
@@ -8165,7 +8218,7 @@
       <c r="S7" s="121"/>
       <c r="V7" s="29"/>
     </row>
-    <row r="8" spans="1:24" ht="22.5" customHeight="1">
+    <row r="8" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="238" t="s">
         <v>6</v>
       </c>
@@ -8210,7 +8263,7 @@
       <c r="R8" s="228"/>
       <c r="S8" s="122"/>
     </row>
-    <row r="9" spans="1:24" ht="19.5" customHeight="1" thickBot="1">
+    <row r="9" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="239"/>
       <c r="B9" s="233" t="s">
         <v>5</v>
@@ -8241,7 +8294,7 @@
       <c r="R9" s="230"/>
       <c r="S9" s="122"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
@@ -8262,12 +8315,13 @@
         <v>113109.9</v>
       </c>
       <c r="H10" s="60">
-        <v>463.75</v>
+        <f>G10*0.4%</f>
+        <v>452.43959999999998</v>
       </c>
       <c r="I10" s="60"/>
       <c r="J10" s="199">
         <f>B10+G10+H10+I10</f>
-        <v>151745.4</v>
+        <v>151734.08960000001</v>
       </c>
       <c r="K10" s="200"/>
       <c r="L10" s="199">
@@ -8277,7 +8331,7 @@
       <c r="M10" s="220"/>
       <c r="N10" s="199">
         <f>J10-L10</f>
-        <v>83393.399999999994</v>
+        <v>83382.089600000007</v>
       </c>
       <c r="O10" s="200"/>
       <c r="P10" s="60">
@@ -8285,13 +8339,13 @@
       </c>
       <c r="Q10" s="199">
         <f>N10-P10</f>
-        <v>7805.7999999999884</v>
+        <v>7794.4896000000008</v>
       </c>
       <c r="R10" s="224"/>
       <c r="S10" s="123"/>
       <c r="T10" s="32"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1">
+    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58" t="s">
         <v>9</v>
       </c>
@@ -8312,22 +8366,23 @@
         <v>18143.8</v>
       </c>
       <c r="H11" s="60">
-        <v>74.39</v>
+        <f>G11*0.4%</f>
+        <v>72.575199999999995</v>
       </c>
       <c r="I11" s="60"/>
       <c r="J11" s="199">
         <f>B11+G11+H11+I11</f>
-        <v>21444.84</v>
+        <v>21443.0252</v>
       </c>
       <c r="K11" s="200"/>
       <c r="L11" s="199">
         <f>SUM(G21:G22)</f>
-        <v>0</v>
+        <v>4944</v>
       </c>
       <c r="M11" s="220"/>
       <c r="N11" s="231">
         <f>J11-L11</f>
-        <v>21444.84</v>
+        <v>16499.0252</v>
       </c>
       <c r="O11" s="232"/>
       <c r="P11" s="60">
@@ -8336,13 +8391,13 @@
       </c>
       <c r="Q11" s="199">
         <f>N11-P11</f>
-        <v>6329.84</v>
+        <v>1384.0252</v>
       </c>
       <c r="R11" s="224"/>
       <c r="S11" s="123"/>
       <c r="T11" s="32"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58" t="s">
         <v>10</v>
       </c>
@@ -8389,7 +8444,7 @@
       <c r="R12" s="224"/>
       <c r="S12" s="123"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1">
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58" t="s">
         <v>30</v>
       </c>
@@ -8410,12 +8465,13 @@
         <v>145455.79999999999</v>
       </c>
       <c r="H13" s="60">
-        <v>596.37</v>
+        <f>G13*0.4%</f>
+        <v>581.82319999999993</v>
       </c>
       <c r="I13" s="60"/>
       <c r="J13" s="199">
         <f>B13+G13+H13+I13</f>
-        <v>152248.24</v>
+        <v>152233.69320000001</v>
       </c>
       <c r="K13" s="200"/>
       <c r="L13" s="199">
@@ -8425,7 +8481,7 @@
       <c r="M13" s="224"/>
       <c r="N13" s="199">
         <f>J13-L13</f>
-        <v>107160.23999999999</v>
+        <v>107145.69320000001</v>
       </c>
       <c r="O13" s="200"/>
       <c r="P13" s="60">
@@ -8434,14 +8490,14 @@
       </c>
       <c r="Q13" s="199">
         <f>N13-P13</f>
-        <v>8278.9399999999878</v>
+        <v>8264.3932000000059</v>
       </c>
       <c r="R13" s="224"/>
       <c r="S13" s="123"/>
       <c r="W13" s="29"/>
       <c r="X13" s="29"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="221"/>
       <c r="C14" s="222"/>
@@ -8463,7 +8519,7 @@
       <c r="S14" s="123"/>
       <c r="U14" s="64"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" thickBot="1">
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59" t="s">
         <v>1</v>
       </c>
@@ -8487,7 +8543,7 @@
       </c>
       <c r="H15" s="60">
         <f>SUM(H10:H14)</f>
-        <v>1134.51</v>
+        <v>1106.8379999999997</v>
       </c>
       <c r="I15" s="60">
         <f>SUM(I10:I14)</f>
@@ -8495,17 +8551,17 @@
       </c>
       <c r="J15" s="219">
         <f>SUM(J10:K14)</f>
-        <v>352495.68</v>
+        <v>352468.00800000003</v>
       </c>
       <c r="K15" s="200"/>
       <c r="L15" s="199">
         <f>SUM(L10:M14)</f>
-        <v>124048</v>
+        <v>128992</v>
       </c>
       <c r="M15" s="220"/>
       <c r="N15" s="199">
         <f>SUM(N10:O14)</f>
-        <v>228447.68</v>
+        <v>223476.00800000003</v>
       </c>
       <c r="O15" s="200"/>
       <c r="P15" s="60">
@@ -8514,13 +8570,13 @@
       </c>
       <c r="Q15" s="199">
         <f>SUM(Q10:R13)</f>
-        <v>23647.779999999977</v>
+        <v>18676.108000000007</v>
       </c>
       <c r="R15" s="200"/>
       <c r="S15" s="121"/>
       <c r="T15" s="29"/>
     </row>
-    <row r="16" spans="1:24" ht="6.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:24" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="65"/>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -8535,7 +8591,7 @@
       <c r="L16" s="67"/>
       <c r="M16" s="67"/>
     </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="201" t="s">
         <v>11</v>
       </c>
@@ -8561,7 +8617,7 @@
       <c r="S17" s="68"/>
       <c r="T17" s="68"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="203"/>
       <c r="B18" s="204"/>
       <c r="C18" s="205"/>
@@ -8588,7 +8644,7 @@
       </c>
       <c r="O18" s="213"/>
     </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+    <row r="19" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="203"/>
       <c r="B19" s="204"/>
       <c r="C19" s="205"/>
@@ -8609,7 +8665,7 @@
       <c r="N19" s="214"/>
       <c r="O19" s="215"/>
     </row>
-    <row r="20" spans="1:24" s="71" customFormat="1" ht="15.75" thickBot="1">
+    <row r="20" spans="1:24" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="206"/>
       <c r="B20" s="207"/>
       <c r="C20" s="208"/>
@@ -8659,7 +8715,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="178" t="s">
         <v>13</v>
       </c>
@@ -8674,9 +8730,12 @@
       </c>
       <c r="F21" s="74">
         <f>G21/24</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="74"/>
+        <v>42</v>
+      </c>
+      <c r="G21" s="74">
+        <f>'[2]July 2020'!$B$30</f>
+        <v>1008</v>
+      </c>
       <c r="H21" s="23">
         <f>I21/24</f>
         <v>30</v>
@@ -8703,11 +8762,11 @@
       </c>
       <c r="N21" s="23">
         <f>O21/24</f>
-        <v>-36</v>
+        <v>6</v>
       </c>
       <c r="O21" s="36">
         <f>E21+G21-I21-K21-M21</f>
-        <v>-864</v>
+        <v>144</v>
       </c>
       <c r="T21" s="5">
         <v>168</v>
@@ -8717,12 +8776,12 @@
       </c>
       <c r="V21" s="30">
         <f>T21+U21-O21</f>
-        <v>1032</v>
+        <v>24</v>
       </c>
       <c r="W21" s="75"/>
       <c r="X21" s="29"/>
     </row>
-    <row r="22" spans="1:24" ht="15.75" thickBot="1">
+    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="181" t="s">
         <v>14</v>
       </c>
@@ -8737,9 +8796,12 @@
       </c>
       <c r="F22" s="76">
         <f>G22/24</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="12"/>
+        <v>164</v>
+      </c>
+      <c r="G22" s="12">
+        <f>'[2]July 2020'!$C$30</f>
+        <v>3936</v>
+      </c>
       <c r="H22" s="24">
         <f>I22/24</f>
         <v>85</v>
@@ -8766,11 +8828,11 @@
       </c>
       <c r="N22" s="24">
         <f>O22/24</f>
-        <v>-164</v>
+        <v>0</v>
       </c>
       <c r="O22" s="36">
         <f>E22+G22-I22-K22-M22</f>
-        <v>-3936</v>
+        <v>0</v>
       </c>
       <c r="T22" s="6">
         <v>24</v>
@@ -8780,12 +8842,12 @@
       </c>
       <c r="V22" s="34">
         <f>T22-O22</f>
-        <v>3960</v>
+        <v>24</v>
       </c>
       <c r="W22" s="75"/>
       <c r="X22" s="29"/>
     </row>
-    <row r="23" spans="1:24" ht="15.75" thickBot="1">
+    <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="184" t="s">
         <v>36</v>
       </c>
@@ -8801,11 +8863,11 @@
       </c>
       <c r="F23" s="77">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="G23" s="78">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4944</v>
       </c>
       <c r="H23" s="79">
         <f t="shared" si="1"/>
@@ -8833,11 +8895,11 @@
       </c>
       <c r="N23" s="77">
         <f t="shared" si="2"/>
-        <v>-200</v>
+        <v>6</v>
       </c>
       <c r="O23" s="78">
         <f t="shared" si="2"/>
-        <v>-4800</v>
+        <v>144</v>
       </c>
       <c r="T23" s="45"/>
       <c r="U23" s="48"/>
@@ -8845,7 +8907,7 @@
       <c r="W23" s="75"/>
       <c r="X23" s="29"/>
     </row>
-    <row r="24" spans="1:24" ht="15.75" thickBot="1">
+    <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="178" t="s">
         <v>15</v>
       </c>
@@ -8911,7 +8973,7 @@
       <c r="W24" s="75"/>
       <c r="X24" s="29"/>
     </row>
-    <row r="25" spans="1:24" ht="15.75" thickBot="1">
+    <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="196" t="s">
         <v>18</v>
       </c>
@@ -8976,7 +9038,7 @@
       <c r="W25" s="75"/>
       <c r="X25" s="29"/>
     </row>
-    <row r="26" spans="1:24" ht="15.75" thickBot="1">
+    <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="193" t="s">
         <v>47</v>
       </c>
@@ -9046,7 +9108,7 @@
       <c r="W26" s="29"/>
       <c r="X26" s="29"/>
     </row>
-    <row r="27" spans="1:24" ht="15.75" thickBot="1">
+    <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="190" t="s">
         <v>48</v>
       </c>
@@ -9112,7 +9174,7 @@
       <c r="W27" s="75"/>
       <c r="X27" s="29"/>
     </row>
-    <row r="28" spans="1:24" ht="15.75" thickBot="1">
+    <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="184" t="s">
         <v>37</v>
       </c>
@@ -9172,7 +9234,7 @@
       <c r="W28" s="75"/>
       <c r="X28" s="29"/>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="178" t="s">
         <v>16</v>
       </c>
@@ -9238,7 +9300,7 @@
       <c r="W29" s="75"/>
       <c r="X29" s="29"/>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="193" t="s">
         <v>43</v>
       </c>
@@ -9304,7 +9366,7 @@
       <c r="W30" s="75"/>
       <c r="X30" s="29"/>
     </row>
-    <row r="31" spans="1:24" ht="15.75" thickBot="1">
+    <row r="31" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="193" t="s">
         <v>17</v>
       </c>
@@ -9374,7 +9436,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="15.75" thickBot="1">
+    <row r="32" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="184" t="s">
         <v>38</v>
       </c>
@@ -9434,7 +9496,7 @@
       <c r="W32" s="75"/>
       <c r="X32" s="29"/>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="178" t="s">
         <v>19</v>
       </c>
@@ -9503,7 +9565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="15.75" thickBot="1">
+    <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="181" t="s">
         <v>20</v>
       </c>
@@ -9566,7 +9628,7 @@
       <c r="W34" s="75"/>
       <c r="X34" s="29"/>
     </row>
-    <row r="35" spans="1:24" ht="15.75" thickBot="1">
+    <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="184" t="s">
         <v>39</v>
       </c>
@@ -9625,7 +9687,7 @@
       <c r="V35" s="34"/>
       <c r="X35" s="29"/>
     </row>
-    <row r="36" spans="1:24" ht="15.75" thickBot="1">
+    <row r="36" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="187" t="s">
         <v>21</v>
       </c>
@@ -9641,11 +9703,11 @@
       </c>
       <c r="F36" s="87">
         <f t="shared" si="15"/>
-        <v>5271</v>
+        <v>5477</v>
       </c>
       <c r="G36" s="87">
         <f t="shared" si="15"/>
-        <v>124048</v>
+        <v>128992</v>
       </c>
       <c r="H36" s="87">
         <f t="shared" si="15"/>
@@ -9673,11 +9735,11 @@
       </c>
       <c r="N36" s="87">
         <f t="shared" si="15"/>
-        <v>-144</v>
+        <v>62</v>
       </c>
       <c r="O36" s="87">
         <f t="shared" si="15"/>
-        <v>-3408</v>
+        <v>1536</v>
       </c>
       <c r="T36" s="88">
         <f>SUM(T21:T34)</f>
@@ -9689,23 +9751,23 @@
       </c>
       <c r="V36" s="31">
         <f>T36+U36-O36</f>
-        <v>4968</v>
+        <v>24</v>
       </c>
       <c r="X36" s="29"/>
     </row>
-    <row r="37" spans="1:24" ht="9" customHeight="1">
+    <row r="37" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V37" s="32"/>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="W38" s="29"/>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="P40" s="75"/>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:24" ht="18.75">
+    <row r="42" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="P42" s="90"/>
     </row>
   </sheetData>
@@ -9808,14 +9870,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:J6"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
@@ -9842,7 +9904,7 @@
     <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.75">
+    <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="246" t="s">
         <v>66</v>
       </c>
@@ -9865,7 +9927,7 @@
       <c r="R1" s="246"/>
       <c r="S1" s="142"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="247"/>
       <c r="B2" s="247"/>
       <c r="C2" s="247"/>
@@ -9886,7 +9948,7 @@
       <c r="R2" s="247"/>
       <c r="S2" s="143"/>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1">
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="248" t="s">
         <v>67</v>
       </c>
@@ -9903,7 +9965,7 @@
       <c r="L3" s="218"/>
       <c r="M3" s="55"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="250"/>
       <c r="B4" s="251"/>
       <c r="C4" s="254" t="s">
@@ -9930,7 +9992,7 @@
       <c r="L4" s="255"/>
       <c r="M4" s="55"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1">
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="252"/>
       <c r="B5" s="253"/>
       <c r="C5" s="259" t="s">
@@ -9955,7 +10017,7 @@
       <c r="U5" s="29"/>
       <c r="V5" s="29"/>
     </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1">
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="261"/>
       <c r="B6" s="262"/>
       <c r="C6" s="263">
@@ -9986,7 +10048,7 @@
       <c r="O6" s="29"/>
       <c r="Q6" s="29"/>
     </row>
-    <row r="7" spans="1:24" ht="13.5" customHeight="1" thickBot="1">
+    <row r="7" spans="1:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="245" t="s">
         <v>68</v>
       </c>
@@ -10010,7 +10072,7 @@
       <c r="S7" s="121"/>
       <c r="V7" s="29"/>
     </row>
-    <row r="8" spans="1:24" ht="22.5" customHeight="1">
+    <row r="8" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="238" t="s">
         <v>6</v>
       </c>
@@ -10055,7 +10117,7 @@
       <c r="R8" s="228"/>
       <c r="S8" s="122"/>
     </row>
-    <row r="9" spans="1:24" ht="19.5" customHeight="1" thickBot="1">
+    <row r="9" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="239"/>
       <c r="B9" s="233" t="s">
         <v>5</v>
@@ -10090,7 +10152,7 @@
         <v>15063.320000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
@@ -10139,7 +10201,7 @@
         <v>22594.98</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1">
+    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58" t="s">
         <v>9</v>
       </c>
@@ -10184,7 +10246,7 @@
       <c r="S11" s="123"/>
       <c r="T11" s="32"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58" t="s">
         <v>10</v>
       </c>
@@ -10229,7 +10291,7 @@
       <c r="R12" s="224"/>
       <c r="S12" s="123"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1">
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58" t="s">
         <v>30</v>
       </c>
@@ -10276,7 +10338,7 @@
       <c r="W13" s="29"/>
       <c r="X13" s="29"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="221"/>
       <c r="C14" s="222"/>
@@ -10298,7 +10360,7 @@
       <c r="S14" s="123"/>
       <c r="U14" s="64"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" thickBot="1">
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59" t="s">
         <v>1</v>
       </c>
@@ -10355,7 +10417,7 @@
       <c r="S15" s="121"/>
       <c r="T15" s="29"/>
     </row>
-    <row r="16" spans="1:24" ht="6.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:24" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="65"/>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -10370,7 +10432,7 @@
       <c r="L16" s="67"/>
       <c r="M16" s="67"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="201" t="s">
         <v>11</v>
       </c>
@@ -10396,7 +10458,7 @@
       <c r="S17" s="68"/>
       <c r="T17" s="68"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="203"/>
       <c r="B18" s="204"/>
       <c r="C18" s="205"/>
@@ -10423,7 +10485,7 @@
       </c>
       <c r="O18" s="266"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="203"/>
       <c r="B19" s="204"/>
       <c r="C19" s="205"/>
@@ -10447,7 +10509,7 @@
       <c r="Q19" s="152"/>
       <c r="R19" s="152"/>
     </row>
-    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1">
+    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="206"/>
       <c r="B20" s="207"/>
       <c r="C20" s="208"/>
@@ -10500,7 +10562,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="178" t="s">
         <v>13</v>
       </c>
@@ -10569,7 +10631,7 @@
       <c r="V21" s="75"/>
       <c r="W21" s="29"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1">
+    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="181" t="s">
         <v>14</v>
       </c>
@@ -10638,7 +10700,7 @@
       <c r="V22" s="75"/>
       <c r="W22" s="29"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1">
+    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="184" t="s">
         <v>36</v>
       </c>
@@ -10701,7 +10763,7 @@
       <c r="V23" s="75"/>
       <c r="W23" s="29"/>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="178" t="s">
         <v>15</v>
       </c>
@@ -10770,7 +10832,7 @@
       <c r="V24" s="75"/>
       <c r="W24" s="29"/>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="196" t="s">
         <v>18</v>
       </c>
@@ -10838,7 +10900,7 @@
       <c r="V25" s="75"/>
       <c r="W25" s="29"/>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="193" t="s">
         <v>47</v>
       </c>
@@ -10907,7 +10969,7 @@
       <c r="V26" s="29"/>
       <c r="W26" s="29"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1">
+    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="190" t="s">
         <v>48</v>
       </c>
@@ -10975,7 +11037,7 @@
       <c r="V27" s="75"/>
       <c r="W27" s="29"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1">
+    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="184" t="s">
         <v>37</v>
       </c>
@@ -11038,7 +11100,7 @@
       <c r="V28" s="75"/>
       <c r="W28" s="29"/>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="178" t="s">
         <v>16</v>
       </c>
@@ -11106,7 +11168,7 @@
       <c r="V29" s="75"/>
       <c r="W29" s="29"/>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="193" t="s">
         <v>43</v>
       </c>
@@ -11174,7 +11236,7 @@
       <c r="V30" s="75"/>
       <c r="W30" s="29"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1">
+    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="193" t="s">
         <v>17</v>
       </c>
@@ -11244,7 +11306,7 @@
       <c r="V31" s="75"/>
       <c r="W31" s="29"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1">
+    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="184" t="s">
         <v>38</v>
       </c>
@@ -11307,7 +11369,7 @@
       <c r="V32" s="75"/>
       <c r="W32" s="29"/>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="178" t="s">
         <v>19</v>
       </c>
@@ -11377,7 +11439,7 @@
       <c r="V33" s="86"/>
       <c r="W33" s="29"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1">
+    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="181" t="s">
         <v>20</v>
       </c>
@@ -11442,7 +11504,7 @@
       <c r="V34" s="75"/>
       <c r="W34" s="29"/>
     </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1">
+    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="184" t="s">
         <v>39</v>
       </c>
@@ -11504,7 +11566,7 @@
       <c r="U35" s="34"/>
       <c r="W35" s="29"/>
     </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1">
+    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="187" t="s">
         <v>21</v>
       </c>
@@ -11575,19 +11637,19 @@
       </c>
       <c r="W36" s="29"/>
     </row>
-    <row r="37" spans="1:23" ht="9" customHeight="1">
+    <row r="37" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V37" s="32"/>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="W38" s="29"/>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="P40" s="75"/>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:23" ht="18.75">
+    <row r="42" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="P42" s="90"/>
     </row>
   </sheetData>
@@ -11694,14 +11756,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:L6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
@@ -11728,7 +11790,7 @@
     <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.75">
+    <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="246" t="s">
         <v>73</v>
       </c>
@@ -11751,7 +11813,7 @@
       <c r="R1" s="246"/>
       <c r="S1" s="161"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="247"/>
       <c r="B2" s="247"/>
       <c r="C2" s="247"/>
@@ -11772,7 +11834,7 @@
       <c r="R2" s="247"/>
       <c r="S2" s="162"/>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1">
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="248" t="s">
         <v>71</v>
       </c>
@@ -11789,7 +11851,7 @@
       <c r="L3" s="218"/>
       <c r="M3" s="55"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="250"/>
       <c r="B4" s="251"/>
       <c r="C4" s="254" t="s">
@@ -11816,7 +11878,7 @@
       <c r="L4" s="255"/>
       <c r="M4" s="55"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1">
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="252"/>
       <c r="B5" s="253"/>
       <c r="C5" s="259" t="s">
@@ -11841,7 +11903,7 @@
       <c r="U5" s="29"/>
       <c r="V5" s="29"/>
     </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1">
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="261"/>
       <c r="B6" s="262"/>
       <c r="C6" s="263">
@@ -11871,7 +11933,7 @@
       <c r="O6" s="29"/>
       <c r="Q6" s="29"/>
     </row>
-    <row r="7" spans="1:24" ht="13.5" customHeight="1" thickBot="1">
+    <row r="7" spans="1:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="245" t="s">
         <v>72</v>
       </c>
@@ -11895,7 +11957,7 @@
       <c r="S7" s="121"/>
       <c r="V7" s="29"/>
     </row>
-    <row r="8" spans="1:24" ht="22.5" customHeight="1">
+    <row r="8" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="238" t="s">
         <v>6</v>
       </c>
@@ -11940,7 +12002,7 @@
       <c r="R8" s="228"/>
       <c r="S8" s="122"/>
     </row>
-    <row r="9" spans="1:24" ht="19.5" customHeight="1" thickBot="1">
+    <row r="9" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="239"/>
       <c r="B9" s="233" t="s">
         <v>5</v>
@@ -11971,7 +12033,7 @@
       <c r="R9" s="230"/>
       <c r="S9" s="122"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
@@ -12024,7 +12086,7 @@
       <c r="S10" s="123"/>
       <c r="T10" s="32"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1">
+    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58" t="s">
         <v>9</v>
       </c>
@@ -12070,7 +12132,7 @@
       <c r="S11" s="123"/>
       <c r="T11" s="32"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58" t="s">
         <v>10</v>
       </c>
@@ -12120,7 +12182,7 @@
       <c r="R12" s="224"/>
       <c r="S12" s="123"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1">
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58" t="s">
         <v>30</v>
       </c>
@@ -12167,7 +12229,7 @@
       <c r="W13" s="29"/>
       <c r="X13" s="29"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="221"/>
       <c r="C14" s="222"/>
@@ -12189,7 +12251,7 @@
       <c r="S14" s="123"/>
       <c r="U14" s="64"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" thickBot="1">
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59" t="s">
         <v>1</v>
       </c>
@@ -12246,7 +12308,7 @@
       <c r="S15" s="121"/>
       <c r="T15" s="29"/>
     </row>
-    <row r="16" spans="1:24" ht="6.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:24" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="65"/>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -12261,7 +12323,7 @@
       <c r="L16" s="67"/>
       <c r="M16" s="67"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="201" t="s">
         <v>11</v>
       </c>
@@ -12287,7 +12349,7 @@
       <c r="S17" s="68"/>
       <c r="T17" s="68"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="203"/>
       <c r="B18" s="204"/>
       <c r="C18" s="205"/>
@@ -12314,7 +12376,7 @@
       </c>
       <c r="O18" s="266"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="203"/>
       <c r="B19" s="204"/>
       <c r="C19" s="205"/>
@@ -12338,7 +12400,7 @@
       <c r="Q19" s="152"/>
       <c r="R19" s="152"/>
     </row>
-    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1">
+    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="206"/>
       <c r="B20" s="207"/>
       <c r="C20" s="208"/>
@@ -12391,7 +12453,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15.75" thickBot="1">
+    <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="178" t="s">
         <v>13</v>
       </c>
@@ -12458,7 +12520,7 @@
       <c r="V21" s="75"/>
       <c r="W21" s="29"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1">
+    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="181" t="s">
         <v>14</v>
       </c>
@@ -12525,7 +12587,7 @@
       <c r="V22" s="75"/>
       <c r="W22" s="29"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1">
+    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="184" t="s">
         <v>36</v>
       </c>
@@ -12588,7 +12650,7 @@
       <c r="V23" s="75"/>
       <c r="W23" s="29"/>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="178" t="s">
         <v>15</v>
       </c>
@@ -12655,7 +12717,7 @@
       <c r="V24" s="75"/>
       <c r="W24" s="29"/>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="196" t="s">
         <v>18</v>
       </c>
@@ -12722,7 +12784,7 @@
       <c r="V25" s="75"/>
       <c r="W25" s="29"/>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="193" t="s">
         <v>47</v>
       </c>
@@ -12789,7 +12851,7 @@
       <c r="V26" s="29"/>
       <c r="W26" s="29"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1">
+    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="190" t="s">
         <v>48</v>
       </c>
@@ -12857,7 +12919,7 @@
       <c r="V27" s="75"/>
       <c r="W27" s="29"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1">
+    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="184" t="s">
         <v>37</v>
       </c>
@@ -12920,7 +12982,7 @@
       <c r="V28" s="75"/>
       <c r="W28" s="29"/>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="178" t="s">
         <v>16</v>
       </c>
@@ -12986,7 +13048,7 @@
       <c r="V29" s="75"/>
       <c r="W29" s="29"/>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="193" t="s">
         <v>43</v>
       </c>
@@ -13052,7 +13114,7 @@
       <c r="V30" s="75"/>
       <c r="W30" s="29"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1">
+    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="193" t="s">
         <v>17</v>
       </c>
@@ -13119,7 +13181,7 @@
       <c r="V31" s="75"/>
       <c r="W31" s="29"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1">
+    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="184" t="s">
         <v>38</v>
       </c>
@@ -13182,7 +13244,7 @@
       <c r="V32" s="75"/>
       <c r="W32" s="29"/>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="178" t="s">
         <v>19</v>
       </c>
@@ -13249,7 +13311,7 @@
       <c r="V33" s="86"/>
       <c r="W33" s="29"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1">
+    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="181" t="s">
         <v>20</v>
       </c>
@@ -13315,7 +13377,7 @@
       <c r="V34" s="75"/>
       <c r="W34" s="29"/>
     </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1">
+    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="184" t="s">
         <v>39</v>
       </c>
@@ -13377,7 +13439,7 @@
       <c r="U35" s="34"/>
       <c r="W35" s="29"/>
     </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1">
+    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="187" t="s">
         <v>21</v>
       </c>
@@ -13448,19 +13510,19 @@
       </c>
       <c r="W36" s="29"/>
     </row>
-    <row r="37" spans="1:23" ht="9" customHeight="1">
+    <row r="37" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V37" s="32"/>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="W38" s="29"/>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="P40" s="75"/>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:23" ht="18.75">
+    <row r="42" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="P42" s="90"/>
     </row>
   </sheetData>
@@ -13564,14 +13626,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
@@ -13598,7 +13660,7 @@
     <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.75">
+    <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="246" t="s">
         <v>74</v>
       </c>
@@ -13621,7 +13683,7 @@
       <c r="R1" s="246"/>
       <c r="S1" s="167"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="247"/>
       <c r="B2" s="247"/>
       <c r="C2" s="247"/>
@@ -13642,7 +13704,7 @@
       <c r="R2" s="247"/>
       <c r="S2" s="168"/>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1">
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="248" t="s">
         <v>75</v>
       </c>
@@ -13659,7 +13721,7 @@
       <c r="L3" s="218"/>
       <c r="M3" s="55"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="250"/>
       <c r="B4" s="251"/>
       <c r="C4" s="254" t="s">
@@ -13686,7 +13748,7 @@
       <c r="L4" s="255"/>
       <c r="M4" s="55"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1">
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="252"/>
       <c r="B5" s="253"/>
       <c r="C5" s="259" t="s">
@@ -13711,7 +13773,7 @@
       <c r="U5" s="29"/>
       <c r="V5" s="29"/>
     </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1">
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="261"/>
       <c r="B6" s="262"/>
       <c r="C6" s="263">
@@ -13719,28 +13781,30 @@
         <v>149997.5</v>
       </c>
       <c r="D6" s="264"/>
-      <c r="E6" s="54"/>
+      <c r="E6" s="54">
+        <v>73371.100000000006</v>
+      </c>
       <c r="F6" s="175"/>
       <c r="G6" s="172">
         <f>C6+E6+F6</f>
-        <v>149997.5</v>
+        <v>223368.6</v>
       </c>
       <c r="H6" s="263">
         <f>G15</f>
-        <v>0</v>
+        <v>35947.9</v>
       </c>
       <c r="I6" s="219"/>
       <c r="J6" s="264"/>
       <c r="K6" s="199">
         <f>G6-H6</f>
-        <v>149997.5</v>
+        <v>187420.7</v>
       </c>
       <c r="L6" s="200"/>
       <c r="M6" s="55"/>
       <c r="O6" s="29"/>
       <c r="Q6" s="29"/>
     </row>
-    <row r="7" spans="1:24" ht="13.5" customHeight="1" thickBot="1">
+    <row r="7" spans="1:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="245" t="s">
         <v>76</v>
       </c>
@@ -13764,7 +13828,7 @@
       <c r="S7" s="121"/>
       <c r="V7" s="29"/>
     </row>
-    <row r="8" spans="1:24" ht="22.5" customHeight="1">
+    <row r="8" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="238" t="s">
         <v>6</v>
       </c>
@@ -13809,7 +13873,7 @@
       <c r="R8" s="228"/>
       <c r="S8" s="122"/>
     </row>
-    <row r="9" spans="1:24" ht="19.5" customHeight="1" thickBot="1">
+    <row r="9" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="239"/>
       <c r="B9" s="233" t="s">
         <v>5</v>
@@ -13843,7 +13907,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
@@ -13871,27 +13935,26 @@
       <c r="K10" s="200"/>
       <c r="L10" s="199">
         <f>G29+G30+G31</f>
-        <v>19632</v>
+        <v>33480</v>
       </c>
       <c r="M10" s="220"/>
       <c r="N10" s="199">
         <f>J10-L10</f>
-        <v>15825.680000000008</v>
+        <v>1977.6800000000076</v>
       </c>
       <c r="O10" s="200"/>
       <c r="P10" s="60">
-        <f>35886.6-5981</f>
-        <v>29905.599999999999</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="199">
         <f>N10-P10</f>
-        <v>-14079.919999999991</v>
+        <v>1977.6800000000076</v>
       </c>
       <c r="R10" s="224"/>
       <c r="S10" s="123"/>
       <c r="T10" s="32"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1">
+    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58" t="s">
         <v>9</v>
       </c>
@@ -13938,7 +14001,7 @@
       <c r="S11" s="123"/>
       <c r="T11" s="32"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58" t="s">
         <v>10</v>
       </c>
@@ -13956,21 +14019,23 @@
       </c>
       <c r="F12" s="200"/>
       <c r="G12" s="173"/>
-      <c r="H12" s="60"/>
+      <c r="H12" s="60">
+        <v>36.86</v>
+      </c>
       <c r="I12" s="60"/>
       <c r="J12" s="199">
         <f>B12+G12+H12+I12</f>
-        <v>8079.8503999999994</v>
+        <v>8116.710399999999</v>
       </c>
       <c r="K12" s="200"/>
       <c r="L12" s="199">
         <f>SUM(G33:G34)</f>
-        <v>2988</v>
+        <v>4644</v>
       </c>
       <c r="M12" s="224"/>
       <c r="N12" s="199">
         <f>J12-L12</f>
-        <v>5091.8503999999994</v>
+        <v>3472.710399999999</v>
       </c>
       <c r="O12" s="200"/>
       <c r="P12" s="60">
@@ -13978,12 +14043,12 @@
       </c>
       <c r="Q12" s="199">
         <f>N12-P12</f>
-        <v>5091.8503999999994</v>
+        <v>3472.710399999999</v>
       </c>
       <c r="R12" s="224"/>
       <c r="S12" s="123"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1">
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58" t="s">
         <v>30</v>
       </c>
@@ -14000,37 +14065,40 @@
         <v>21854.239999999998</v>
       </c>
       <c r="F13" s="200"/>
-      <c r="G13" s="172"/>
+      <c r="G13" s="172">
+        <v>35947.9</v>
+      </c>
       <c r="H13" s="60"/>
       <c r="I13" s="60"/>
       <c r="J13" s="199">
         <f>B13+G13+H13+I13</f>
-        <v>21854.239999999998</v>
+        <v>57802.14</v>
       </c>
       <c r="K13" s="200"/>
       <c r="L13" s="199">
         <f>G24+G25+G26+G27</f>
-        <v>12246</v>
+        <v>20012</v>
       </c>
       <c r="M13" s="224"/>
       <c r="N13" s="199">
         <f>J13-L13</f>
-        <v>9608.239999999998</v>
+        <v>37790.14</v>
       </c>
       <c r="O13" s="200"/>
       <c r="P13" s="60">
-        <v>0</v>
+        <f>G13-(G13/6)</f>
+        <v>29956.583333333336</v>
       </c>
       <c r="Q13" s="199">
         <f>N13-P13</f>
-        <v>9608.239999999998</v>
+        <v>7833.5566666666637</v>
       </c>
       <c r="R13" s="224"/>
       <c r="S13" s="123"/>
       <c r="W13" s="29"/>
       <c r="X13" s="29"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="221"/>
       <c r="C14" s="222"/>
@@ -14052,7 +14120,7 @@
       <c r="S14" s="123"/>
       <c r="U14" s="64"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" thickBot="1">
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59" t="s">
         <v>1</v>
       </c>
@@ -14072,11 +14140,11 @@
       <c r="F15" s="218"/>
       <c r="G15" s="173">
         <f>SUM(G10:G14)</f>
-        <v>0</v>
+        <v>35947.9</v>
       </c>
       <c r="H15" s="60">
         <f>SUM(H10:H14)</f>
-        <v>0</v>
+        <v>36.86</v>
       </c>
       <c r="I15" s="60">
         <f>SUM(I10:I14)</f>
@@ -14084,32 +14152,32 @@
       </c>
       <c r="J15" s="219">
         <f>SUM(J10:K14)</f>
-        <v>69076.610400000005</v>
+        <v>105061.3704</v>
       </c>
       <c r="K15" s="200"/>
       <c r="L15" s="199">
         <f>SUM(L10:M14)</f>
-        <v>38634</v>
+        <v>61904</v>
       </c>
       <c r="M15" s="220"/>
       <c r="N15" s="199">
         <f>SUM(N10:O14)</f>
-        <v>30442.610400000005</v>
+        <v>43157.370400000007</v>
       </c>
       <c r="O15" s="200"/>
       <c r="P15" s="60">
         <f>SUM(P10:P14)</f>
-        <v>29905.599999999999</v>
+        <v>29956.583333333336</v>
       </c>
       <c r="Q15" s="199">
         <f>SUM(Q10:R13)</f>
-        <v>537.01040000000648</v>
+        <v>13200.787066666671</v>
       </c>
       <c r="R15" s="200"/>
       <c r="S15" s="121"/>
       <c r="T15" s="29"/>
     </row>
-    <row r="16" spans="1:24" ht="6.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="65"/>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -14124,7 +14192,7 @@
       <c r="L16" s="67"/>
       <c r="M16" s="67"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="201" t="s">
         <v>11</v>
       </c>
@@ -14150,7 +14218,7 @@
       <c r="S17" s="68"/>
       <c r="T17" s="68"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="203"/>
       <c r="B18" s="204"/>
       <c r="C18" s="205"/>
@@ -14177,7 +14245,7 @@
       </c>
       <c r="O18" s="266"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="203"/>
       <c r="B19" s="204"/>
       <c r="C19" s="205"/>
@@ -14201,7 +14269,7 @@
       <c r="Q19" s="152"/>
       <c r="R19" s="152"/>
     </row>
-    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1">
+    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="206"/>
       <c r="B20" s="207"/>
       <c r="C20" s="208"/>
@@ -14254,7 +14322,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15.75" thickBot="1">
+    <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="178" t="s">
         <v>13</v>
       </c>
@@ -14321,7 +14389,7 @@
       <c r="V21" s="75"/>
       <c r="W21" s="29"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1">
+    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="181" t="s">
         <v>14</v>
       </c>
@@ -14358,18 +14426,18 @@
       </c>
       <c r="L22" s="13">
         <f>M22/24</f>
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M22" s="12">
-        <v>48</v>
+        <v>480</v>
       </c>
       <c r="N22" s="24">
         <f>O22/24</f>
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="O22" s="36">
         <f t="shared" si="1"/>
-        <v>1608</v>
+        <v>1176</v>
       </c>
       <c r="P22" s="150"/>
       <c r="Q22" s="149"/>
@@ -14383,12 +14451,12 @@
       </c>
       <c r="U22" s="30">
         <f>S22+T22-O22</f>
-        <v>-696</v>
+        <v>-264</v>
       </c>
       <c r="V22" s="75"/>
       <c r="W22" s="29"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1">
+    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="184" t="s">
         <v>36</v>
       </c>
@@ -14428,19 +14496,19 @@
       </c>
       <c r="L23" s="77">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M23" s="78">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>480</v>
       </c>
       <c r="N23" s="77">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="O23" s="78">
         <f t="shared" si="3"/>
-        <v>1800</v>
+        <v>1368</v>
       </c>
       <c r="P23" s="154"/>
       <c r="Q23" s="154"/>
@@ -14451,7 +14519,7 @@
       <c r="V23" s="75"/>
       <c r="W23" s="29"/>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="178" t="s">
         <v>15</v>
       </c>
@@ -14466,11 +14534,11 @@
       </c>
       <c r="F24" s="74">
         <f>G24/30</f>
-        <v>389</v>
+        <v>631</v>
       </c>
       <c r="G24" s="10">
         <f>'[2]October 2021'!$D$30</f>
-        <v>11670</v>
+        <v>18930</v>
       </c>
       <c r="H24" s="23">
         <f>I24/30</f>
@@ -14488,18 +14556,18 @@
       </c>
       <c r="L24" s="23">
         <f>M24/30</f>
-        <v>230</v>
+        <v>540</v>
       </c>
       <c r="M24" s="10">
-        <v>6900</v>
+        <v>16200</v>
       </c>
       <c r="N24" s="23">
         <f>O24/30</f>
-        <v>192</v>
+        <v>124</v>
       </c>
       <c r="O24" s="36">
         <f t="shared" ref="O24:O36" si="4">E24+G24-I24-K24-M24</f>
-        <v>5760</v>
+        <v>3720</v>
       </c>
       <c r="P24" s="150"/>
       <c r="Q24" s="150"/>
@@ -14513,12 +14581,12 @@
       </c>
       <c r="U24" s="30">
         <f>S24+T24-O24</f>
-        <v>-4350</v>
+        <v>-2310</v>
       </c>
       <c r="V24" s="75"/>
       <c r="W24" s="29"/>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="196" t="s">
         <v>18</v>
       </c>
@@ -14555,18 +14623,18 @@
       </c>
       <c r="L25" s="40">
         <f t="shared" ref="L25" si="6">M25/24</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M25" s="36">
-        <v>240</v>
+        <v>336</v>
       </c>
       <c r="N25" s="39">
         <f>O25/24</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O25" s="36">
         <f t="shared" si="4"/>
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="P25" s="150"/>
       <c r="Q25" s="150"/>
@@ -14579,12 +14647,12 @@
       </c>
       <c r="U25" s="35">
         <f>S25+T25-O25</f>
-        <v>-96</v>
+        <v>0</v>
       </c>
       <c r="V25" s="75"/>
       <c r="W25" s="29"/>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="193" t="s">
         <v>47</v>
       </c>
@@ -14599,11 +14667,11 @@
       </c>
       <c r="F26" s="82">
         <f>G26/22</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G26" s="27">
         <f>'[2]October 2021'!$F$30</f>
-        <v>0</v>
+        <v>506</v>
       </c>
       <c r="H26" s="42">
         <f>I26/22</f>
@@ -14628,11 +14696,11 @@
       </c>
       <c r="N26" s="25">
         <f>O26/22</f>
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="O26" s="36">
         <f t="shared" si="4"/>
-        <v>66</v>
+        <v>572</v>
       </c>
       <c r="P26" s="150"/>
       <c r="Q26" s="150"/>
@@ -14646,12 +14714,12 @@
       </c>
       <c r="U26" s="35">
         <f>S26+T26-O26</f>
-        <v>154</v>
+        <v>-352</v>
       </c>
       <c r="V26" s="29"/>
       <c r="W26" s="29"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1">
+    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="190" t="s">
         <v>48</v>
       </c>
@@ -14718,7 +14786,7 @@
       <c r="V27" s="75"/>
       <c r="W27" s="29"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1">
+    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="184" t="s">
         <v>37</v>
       </c>
@@ -14734,11 +14802,11 @@
       </c>
       <c r="F28" s="79">
         <f t="shared" si="7"/>
-        <v>413</v>
+        <v>678</v>
       </c>
       <c r="G28" s="21">
         <f t="shared" si="7"/>
-        <v>12246</v>
+        <v>20012</v>
       </c>
       <c r="H28" s="79">
         <f t="shared" si="7"/>
@@ -14758,19 +14826,19 @@
       </c>
       <c r="L28" s="79">
         <f t="shared" si="7"/>
-        <v>240</v>
+        <v>554</v>
       </c>
       <c r="M28" s="21">
         <f t="shared" si="7"/>
-        <v>7140</v>
+        <v>16536</v>
       </c>
       <c r="N28" s="79">
         <f t="shared" si="7"/>
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="O28" s="21">
         <f t="shared" si="7"/>
-        <v>5966</v>
+        <v>4336</v>
       </c>
       <c r="P28" s="150"/>
       <c r="Q28" s="150"/>
@@ -14781,7 +14849,7 @@
       <c r="V28" s="75"/>
       <c r="W28" s="29"/>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="178" t="s">
         <v>16</v>
       </c>
@@ -14796,11 +14864,11 @@
       </c>
       <c r="F29" s="74">
         <f>G29/24</f>
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="G29" s="27">
         <f>'[2]October 2021'!$H$30</f>
-        <v>2592</v>
+        <v>5688</v>
       </c>
       <c r="H29" s="23">
         <f>I29/24</f>
@@ -14811,26 +14879,25 @@
       </c>
       <c r="J29" s="11">
         <f t="shared" ref="J29:J31" si="8">K29/24</f>
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="K29" s="10">
-        <f>240+1440</f>
-        <v>1680</v>
+        <v>240</v>
       </c>
       <c r="L29" s="11">
         <f t="shared" ref="L29:L31" si="9">M29/24</f>
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="M29" s="10">
-        <v>480</v>
+        <v>4080</v>
       </c>
       <c r="N29" s="23">
         <f>O29/24</f>
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="O29" s="36">
         <f t="shared" si="4"/>
-        <v>96</v>
+        <v>1032</v>
       </c>
       <c r="P29" s="150"/>
       <c r="Q29" s="150"/>
@@ -14843,12 +14910,12 @@
       </c>
       <c r="U29" s="30">
         <f>S29+T29-O29</f>
-        <v>168</v>
+        <v>-768</v>
       </c>
       <c r="V29" s="75"/>
       <c r="W29" s="29"/>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="193" t="s">
         <v>43</v>
       </c>
@@ -14863,11 +14930,11 @@
       </c>
       <c r="F30" s="82">
         <f>G30/24</f>
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="G30" s="27">
         <f>'[2]October 2021'!$I$30</f>
-        <v>1584</v>
+        <v>3168</v>
       </c>
       <c r="H30" s="25">
         <f>I30/24</f>
@@ -14878,25 +14945,25 @@
       </c>
       <c r="J30" s="1">
         <f t="shared" si="8"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K30" s="3">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1">
         <f>M30/24</f>
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="M30" s="3">
-        <v>600</v>
+        <v>2640</v>
       </c>
       <c r="N30" s="25">
         <f>O30/24</f>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="O30" s="36">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>528</v>
       </c>
       <c r="P30" s="150"/>
       <c r="Q30" s="150"/>
@@ -14909,12 +14976,12 @@
       </c>
       <c r="U30" s="35">
         <f>S30+T30-O30</f>
-        <v>576</v>
+        <v>72</v>
       </c>
       <c r="V30" s="75"/>
       <c r="W30" s="29"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1">
+    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="193" t="s">
         <v>17</v>
       </c>
@@ -14929,11 +14996,11 @@
       </c>
       <c r="F31" s="82">
         <f>G31/24</f>
-        <v>644</v>
+        <v>1026</v>
       </c>
       <c r="G31" s="27">
         <f>'[2]October 2021'!$J$30</f>
-        <v>15456</v>
+        <v>24624</v>
       </c>
       <c r="H31" s="25">
         <f>I31/24</f>
@@ -14944,26 +15011,25 @@
       </c>
       <c r="J31" s="1">
         <f t="shared" si="8"/>
-        <v>265</v>
+        <v>140</v>
       </c>
       <c r="K31" s="3">
-        <f>3360+3000</f>
-        <v>6360</v>
+        <v>3360</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="9"/>
-        <v>170</v>
+        <v>532</v>
       </c>
       <c r="M31" s="3">
-        <v>4080</v>
+        <v>12768</v>
       </c>
       <c r="N31" s="25">
         <f>O31/24</f>
-        <v>158</v>
+        <v>303</v>
       </c>
       <c r="O31" s="36">
         <f t="shared" si="4"/>
-        <v>3792</v>
+        <v>7272</v>
       </c>
       <c r="P31" s="150"/>
       <c r="Q31" s="267"/>
@@ -14977,12 +15043,12 @@
       </c>
       <c r="U31" s="35">
         <f>S31+T31-O31</f>
-        <v>-2616</v>
+        <v>-6096</v>
       </c>
       <c r="V31" s="75"/>
       <c r="W31" s="29"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1">
+    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="184" t="s">
         <v>38</v>
       </c>
@@ -14998,11 +15064,11 @@
       </c>
       <c r="F32" s="84">
         <f t="shared" si="10"/>
-        <v>818</v>
+        <v>1395</v>
       </c>
       <c r="G32" s="78">
         <f t="shared" si="10"/>
-        <v>19632</v>
+        <v>33480</v>
       </c>
       <c r="H32" s="79">
         <f t="shared" si="10"/>
@@ -15014,27 +15080,27 @@
       </c>
       <c r="J32" s="84">
         <f t="shared" si="10"/>
-        <v>375</v>
+        <v>150</v>
       </c>
       <c r="K32" s="78">
         <f t="shared" si="10"/>
-        <v>9000</v>
+        <v>3600</v>
       </c>
       <c r="L32" s="84">
         <f t="shared" si="10"/>
-        <v>215</v>
+        <v>812</v>
       </c>
       <c r="M32" s="78">
         <f t="shared" si="10"/>
-        <v>5160</v>
+        <v>19488</v>
       </c>
       <c r="N32" s="84">
         <f t="shared" si="10"/>
-        <v>163</v>
+        <v>368</v>
       </c>
       <c r="O32" s="78">
         <f t="shared" si="10"/>
-        <v>3912</v>
+        <v>8832</v>
       </c>
       <c r="P32" s="151"/>
       <c r="Q32" s="151"/>
@@ -15045,7 +15111,7 @@
       <c r="V32" s="75"/>
       <c r="W32" s="29"/>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="178" t="s">
         <v>19</v>
       </c>
@@ -15060,11 +15126,11 @@
       </c>
       <c r="F33" s="85">
         <f>G33/12</f>
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="G33" s="27">
         <f>'[2]October 2021'!$K$30</f>
-        <v>2856</v>
+        <v>4512</v>
       </c>
       <c r="H33" s="23">
         <f>I33/12</f>
@@ -15082,18 +15148,18 @@
       </c>
       <c r="L33" s="15">
         <f t="shared" ref="L33:L34" si="12">M33/12</f>
-        <v>205</v>
+        <v>355</v>
       </c>
       <c r="M33" s="10">
-        <v>2460</v>
+        <v>4260</v>
       </c>
       <c r="N33" s="23">
         <f>O33/12</f>
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="O33" s="36">
         <f t="shared" si="4"/>
-        <v>840</v>
+        <v>696</v>
       </c>
       <c r="P33" s="150"/>
       <c r="Q33" s="150"/>
@@ -15107,12 +15173,12 @@
       </c>
       <c r="U33" s="30">
         <f>S33+T33-O33</f>
-        <v>-156</v>
+        <v>-12</v>
       </c>
       <c r="V33" s="86"/>
       <c r="W33" s="29"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1">
+    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="181" t="s">
         <v>20</v>
       </c>
@@ -15178,7 +15244,7 @@
       <c r="V34" s="75"/>
       <c r="W34" s="29"/>
     </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1">
+    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="184" t="s">
         <v>39</v>
       </c>
@@ -15194,11 +15260,11 @@
       </c>
       <c r="F35" s="84">
         <f t="shared" si="13"/>
-        <v>249</v>
+        <v>387</v>
       </c>
       <c r="G35" s="78">
         <f t="shared" si="13"/>
-        <v>2988</v>
+        <v>4644</v>
       </c>
       <c r="H35" s="79">
         <f t="shared" si="13"/>
@@ -15218,19 +15284,19 @@
       </c>
       <c r="L35" s="84">
         <f t="shared" si="14"/>
-        <v>216</v>
+        <v>366</v>
       </c>
       <c r="M35" s="78">
         <f t="shared" si="14"/>
-        <v>2592</v>
+        <v>4392</v>
       </c>
       <c r="N35" s="84">
         <f t="shared" si="14"/>
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="O35" s="78">
         <f t="shared" si="14"/>
-        <v>840</v>
+        <v>696</v>
       </c>
       <c r="P35" s="151"/>
       <c r="Q35" s="151"/>
@@ -15240,7 +15306,7 @@
       <c r="U35" s="34"/>
       <c r="W35" s="29"/>
     </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1">
+    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="187" t="s">
         <v>21</v>
       </c>
@@ -15256,11 +15322,11 @@
       </c>
       <c r="F36" s="87">
         <f t="shared" si="15"/>
-        <v>1637</v>
+        <v>2617</v>
       </c>
       <c r="G36" s="87">
         <f t="shared" si="15"/>
-        <v>38634</v>
+        <v>61904</v>
       </c>
       <c r="H36" s="87">
         <f t="shared" si="15"/>
@@ -15272,27 +15338,27 @@
       </c>
       <c r="J36" s="87">
         <f t="shared" si="15"/>
-        <v>447</v>
+        <v>222</v>
       </c>
       <c r="K36" s="87">
         <f>SUM(K23,K28,K32,K35)</f>
-        <v>10514</v>
+        <v>5114</v>
       </c>
       <c r="L36" s="87">
         <f t="shared" si="15"/>
-        <v>673</v>
+        <v>1752</v>
       </c>
       <c r="M36" s="87">
         <f t="shared" si="15"/>
-        <v>14940</v>
+        <v>40896</v>
       </c>
       <c r="N36" s="87">
         <f t="shared" si="15"/>
-        <v>509</v>
+        <v>635</v>
       </c>
       <c r="O36" s="36">
         <f t="shared" si="4"/>
-        <v>12518</v>
+        <v>15232</v>
       </c>
       <c r="P36" s="151"/>
       <c r="Q36" s="151"/>
@@ -15307,23 +15373,23 @@
       </c>
       <c r="U36" s="147">
         <f>S36+T36-O36</f>
-        <v>-6604</v>
+        <v>-9318</v>
       </c>
       <c r="W36" s="29"/>
     </row>
-    <row r="37" spans="1:23" ht="9" customHeight="1">
+    <row r="37" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V37" s="32"/>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="W38" s="29"/>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="P40" s="75"/>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:23" ht="18.75">
+    <row r="42" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="P42" s="90"/>
     </row>
   </sheetData>
@@ -15421,7 +15487,7 @@
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="K6:L6"/>
   </mergeCells>
-  <pageMargins left="0.23" right="0.25" top="0.28000000000000003" bottom="0.22" header="0.22" footer="0.15"/>
+  <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.59055118110236227" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/D.K STATEMENT -2021-22.xlsx
+++ b/D.K STATEMENT -2021-22.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tusharpanja\Documents\GitHub\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB9796E-E4B1-4A1A-B0D3-33E5AC9B82A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021-22" sheetId="82" r:id="rId1"/>
@@ -24,16 +18,14 @@
   <externalReferences>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="79">
   <si>
     <t>Received</t>
   </si>
@@ -265,26 +257,29 @@
     <t>Destination Wise Production , Despatch and Stock Report for the month of September 01.09.2021 to 30.09.2021</t>
   </si>
   <si>
-    <t>Destination Wise Production , Despatch and Stock Report for the month of October 01.10.2021 to 15.10.2021</t>
+    <t>sale</t>
   </si>
   <si>
-    <t>ORIGINAL/BLACK TEA  STATEMENT  AS ON  (01.10.2021 to 15.10.2021)</t>
+    <t>Destination Wise Production , Despatch and Stock Report for the month of October 01.10.2021 to 19.10.2021</t>
   </si>
   <si>
-    <t>BLENDED TEA  STATEMENT AS ON (01.10.2021 TO 15.10.2021)</t>
+    <t>ORIGINAL/BLACK TEA  STATEMENT  AS ON  (01.10.2021 to 19.10.2021)</t>
   </si>
   <si>
-    <t>PACKED TEA  STATEMENT AS ON (01.10.2021 TO 15.10.2021)</t>
+    <t>BLENDED TEA  STATEMENT AS ON (01.10.2021 TO 19.10.2021)</t>
+  </si>
+  <si>
+    <t>PACKED TEA  STATEMENT AS ON (01.10.2021 TO 19.10.2021)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1865,15 +1860,16 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="April 2021-22"/>
       <sheetName val="May 2021"/>
       <sheetName val="June 2021"/>
-      <sheetName val="July"/>
+      <sheetName val="July 2021"/>
+      <sheetName val="August 2021"/>
+      <sheetName val="September 2021"/>
       <sheetName val="October 2021"/>
-      <sheetName val="July 2021"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1944,14 +1940,26 @@
       </sheetData>
       <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
+        <row r="15">
+          <cell r="K15">
+            <v>21233.040000000001</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="K45">
+            <v>21568.74</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="April 2021-22"/>
@@ -2076,12 +2084,6 @@
       </sheetData>
       <sheetData sheetId="3">
         <row r="30">
-          <cell r="B30">
-            <v>1008</v>
-          </cell>
-          <cell r="C30">
-            <v>3936</v>
-          </cell>
           <cell r="D30">
             <v>41880</v>
           </cell>
@@ -2194,31 +2196,70 @@
             <v>2736</v>
           </cell>
           <cell r="D30">
-            <v>18930</v>
+            <v>25290</v>
           </cell>
           <cell r="E30">
             <v>576</v>
           </cell>
           <cell r="F30">
-            <v>506</v>
+            <v>660</v>
           </cell>
           <cell r="G30">
             <v>0</v>
           </cell>
           <cell r="H30">
-            <v>5688</v>
+            <v>6360</v>
           </cell>
           <cell r="I30">
-            <v>3168</v>
+            <v>3768</v>
           </cell>
           <cell r="J30">
-            <v>24624</v>
+            <v>27696</v>
           </cell>
           <cell r="K30">
-            <v>4512</v>
+            <v>5904</v>
           </cell>
           <cell r="L30">
             <v>132</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="April 2021-22"/>
+      <sheetName val="May 2021"/>
+      <sheetName val="June 2021"/>
+      <sheetName val="July 2021"/>
+      <sheetName val="August 2021"/>
+      <sheetName val="September 2021"/>
+      <sheetName val="October 2021"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6">
+        <row r="60">
+          <cell r="O60">
+            <v>480</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="D61">
+            <v>15900</v>
+          </cell>
+          <cell r="O61">
+            <v>300</v>
           </cell>
         </row>
       </sheetData>
@@ -2270,7 +2311,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2302,27 +2343,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2354,24 +2377,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2547,14 +2552,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
@@ -2580,7 +2585,7 @@
     <col min="25" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="18.75">
       <c r="A1" s="246" t="s">
         <v>49</v>
       </c>
@@ -2602,7 +2607,7 @@
       <c r="Q1" s="246"/>
       <c r="R1" s="246"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1">
       <c r="A2" s="247"/>
       <c r="B2" s="247"/>
       <c r="C2" s="247"/>
@@ -2622,7 +2627,7 @@
       <c r="Q2" s="247"/>
       <c r="R2" s="247"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="15.75" thickBot="1">
       <c r="A3" s="248" t="s">
         <v>50</v>
       </c>
@@ -2639,7 +2644,7 @@
       <c r="L3" s="218"/>
       <c r="M3" s="55"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23">
       <c r="A4" s="250"/>
       <c r="B4" s="251"/>
       <c r="C4" s="254" t="s">
@@ -2666,7 +2671,7 @@
       <c r="L4" s="255"/>
       <c r="M4" s="55"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="15.75" thickBot="1">
       <c r="A5" s="252"/>
       <c r="B5" s="253"/>
       <c r="C5" s="259" t="s">
@@ -2691,7 +2696,7 @@
       <c r="T5" s="29"/>
       <c r="U5" s="29"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="15.75" thickBot="1">
       <c r="A6" s="261"/>
       <c r="B6" s="262"/>
       <c r="C6" s="263">
@@ -2719,7 +2724,7 @@
       <c r="O6" s="29"/>
       <c r="Q6" s="29"/>
     </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A7" s="245" t="s">
         <v>51</v>
       </c>
@@ -2742,7 +2747,7 @@
       <c r="R7" s="245"/>
       <c r="U7" s="29"/>
     </row>
-    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="22.5" customHeight="1">
       <c r="A8" s="238" t="s">
         <v>6</v>
       </c>
@@ -2786,7 +2791,7 @@
       </c>
       <c r="R8" s="228"/>
     </row>
-    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1">
       <c r="A9" s="239"/>
       <c r="B9" s="233" t="s">
         <v>5</v>
@@ -2816,7 +2821,7 @@
       <c r="Q9" s="229"/>
       <c r="R9" s="230"/>
     </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
@@ -2867,7 +2872,7 @@
       <c r="R10" s="224"/>
       <c r="S10" s="32"/>
     </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="15.75" thickBot="1">
       <c r="A11" s="58" t="s">
         <v>9</v>
       </c>
@@ -2914,7 +2919,7 @@
       <c r="R11" s="224"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="58" t="s">
         <v>10</v>
       </c>
@@ -2958,7 +2963,7 @@
       </c>
       <c r="R12" s="224"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="15.75" thickBot="1">
       <c r="A13" s="58" t="s">
         <v>30</v>
       </c>
@@ -3007,7 +3012,7 @@
       <c r="U13" s="29"/>
       <c r="W13" s="29"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="58"/>
       <c r="B14" s="221"/>
       <c r="C14" s="222"/>
@@ -3028,7 +3033,7 @@
       <c r="R14" s="224"/>
       <c r="T14" s="64"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="15.75" thickBot="1">
       <c r="A15" s="59" t="s">
         <v>1</v>
       </c>
@@ -3084,7 +3089,7 @@
       <c r="R15" s="200"/>
       <c r="S15" s="29"/>
     </row>
-    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1">
       <c r="A16" s="65"/>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -3099,7 +3104,7 @@
       <c r="L16" s="67"/>
       <c r="M16" s="67"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A17" s="201" t="s">
         <v>11</v>
       </c>
@@ -3124,7 +3129,7 @@
       <c r="R17" s="68"/>
       <c r="S17" s="68"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A18" s="203"/>
       <c r="B18" s="204"/>
       <c r="C18" s="205"/>
@@ -3151,7 +3156,7 @@
       </c>
       <c r="O18" s="213"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="203"/>
       <c r="B19" s="204"/>
       <c r="C19" s="205"/>
@@ -3172,7 +3177,7 @@
       <c r="N19" s="214"/>
       <c r="O19" s="215"/>
     </row>
-    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1">
       <c r="A20" s="206"/>
       <c r="B20" s="207"/>
       <c r="C20" s="208"/>
@@ -3222,7 +3227,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23">
       <c r="A21" s="178" t="s">
         <v>13</v>
       </c>
@@ -3288,7 +3293,7 @@
       <c r="V21" s="75"/>
       <c r="W21" s="29"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="15.75" thickBot="1">
       <c r="A22" s="181" t="s">
         <v>14</v>
       </c>
@@ -3355,7 +3360,7 @@
       <c r="V22" s="75"/>
       <c r="W22" s="29"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="15.75" thickBot="1">
       <c r="A23" s="184" t="s">
         <v>36</v>
       </c>
@@ -3415,7 +3420,7 @@
       <c r="V23" s="75"/>
       <c r="W23" s="29"/>
     </row>
-    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="15.75" thickBot="1">
       <c r="A24" s="178" t="s">
         <v>15</v>
       </c>
@@ -3482,7 +3487,7 @@
       <c r="V24" s="75"/>
       <c r="W24" s="29"/>
     </row>
-    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="15.75" thickBot="1">
       <c r="A25" s="196" t="s">
         <v>18</v>
       </c>
@@ -3547,7 +3552,7 @@
       <c r="V25" s="75"/>
       <c r="W25" s="29"/>
     </row>
-    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="15.75" thickBot="1">
       <c r="A26" s="193" t="s">
         <v>47</v>
       </c>
@@ -3613,7 +3618,7 @@
       <c r="V26" s="29"/>
       <c r="W26" s="29"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="15.75" thickBot="1">
       <c r="A27" s="190" t="s">
         <v>48</v>
       </c>
@@ -3679,7 +3684,7 @@
       <c r="V27" s="75"/>
       <c r="W27" s="29"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="15.75" thickBot="1">
       <c r="A28" s="184" t="s">
         <v>37</v>
       </c>
@@ -3739,7 +3744,7 @@
       <c r="V28" s="75"/>
       <c r="W28" s="29"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23">
       <c r="A29" s="178" t="s">
         <v>16</v>
       </c>
@@ -3805,7 +3810,7 @@
       <c r="V29" s="75"/>
       <c r="W29" s="29"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23">
       <c r="A30" s="193" t="s">
         <v>43</v>
       </c>
@@ -3871,7 +3876,7 @@
       <c r="V30" s="75"/>
       <c r="W30" s="29"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="15.75" thickBot="1">
       <c r="A31" s="193" t="s">
         <v>17</v>
       </c>
@@ -3938,7 +3943,7 @@
       <c r="V31" s="75"/>
       <c r="W31" s="29"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="15.75" thickBot="1">
       <c r="A32" s="184" t="s">
         <v>38</v>
       </c>
@@ -3998,7 +4003,7 @@
       <c r="V32" s="75"/>
       <c r="W32" s="29"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23">
       <c r="A33" s="178" t="s">
         <v>19</v>
       </c>
@@ -4065,7 +4070,7 @@
       <c r="V33" s="86"/>
       <c r="W33" s="29"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="15.75" thickBot="1">
       <c r="A34" s="181" t="s">
         <v>20</v>
       </c>
@@ -4129,7 +4134,7 @@
       <c r="V34" s="75"/>
       <c r="W34" s="29"/>
     </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="15.75" thickBot="1">
       <c r="A35" s="184" t="s">
         <v>39</v>
       </c>
@@ -4188,7 +4193,7 @@
       <c r="U35" s="34"/>
       <c r="W35" s="29"/>
     </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="15.75" thickBot="1">
       <c r="A36" s="187" t="s">
         <v>21</v>
       </c>
@@ -4256,19 +4261,19 @@
       </c>
       <c r="W36" s="29"/>
     </row>
-    <row r="37" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="9" customHeight="1">
       <c r="U37" s="32"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23">
       <c r="V38" s="29"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23">
       <c r="P40" s="75"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23">
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="18.75">
       <c r="P42" s="90"/>
     </row>
   </sheetData>
@@ -4371,14 +4376,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
@@ -4404,7 +4409,7 @@
     <col min="25" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="18.75">
       <c r="A1" s="246" t="s">
         <v>54</v>
       </c>
@@ -4426,7 +4431,7 @@
       <c r="Q1" s="246"/>
       <c r="R1" s="246"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1">
       <c r="A2" s="247"/>
       <c r="B2" s="247"/>
       <c r="C2" s="247"/>
@@ -4446,7 +4451,7 @@
       <c r="Q2" s="247"/>
       <c r="R2" s="247"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="15.75" thickBot="1">
       <c r="A3" s="248" t="s">
         <v>55</v>
       </c>
@@ -4463,7 +4468,7 @@
       <c r="L3" s="218"/>
       <c r="M3" s="55"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23">
       <c r="A4" s="250"/>
       <c r="B4" s="251"/>
       <c r="C4" s="254" t="s">
@@ -4490,7 +4495,7 @@
       <c r="L4" s="255"/>
       <c r="M4" s="55"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="15.75" thickBot="1">
       <c r="A5" s="252"/>
       <c r="B5" s="253"/>
       <c r="C5" s="259" t="s">
@@ -4515,7 +4520,7 @@
       <c r="T5" s="29"/>
       <c r="U5" s="29"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="15.75" thickBot="1">
       <c r="A6" s="261"/>
       <c r="B6" s="262"/>
       <c r="C6" s="263">
@@ -4543,7 +4548,7 @@
       <c r="O6" s="29"/>
       <c r="Q6" s="29"/>
     </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
       <c r="A7" s="245" t="s">
         <v>56</v>
       </c>
@@ -4566,7 +4571,7 @@
       <c r="R7" s="245"/>
       <c r="U7" s="29"/>
     </row>
-    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="22.5" customHeight="1">
       <c r="A8" s="238" t="s">
         <v>6</v>
       </c>
@@ -4610,7 +4615,7 @@
       </c>
       <c r="R8" s="228"/>
     </row>
-    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="19.5" customHeight="1" thickBot="1">
       <c r="A9" s="239"/>
       <c r="B9" s="233" t="s">
         <v>5</v>
@@ -4640,7 +4645,7 @@
       <c r="Q9" s="229"/>
       <c r="R9" s="230"/>
     </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
@@ -4692,7 +4697,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="15.75" thickBot="1">
       <c r="A11" s="58" t="s">
         <v>9</v>
       </c>
@@ -4737,7 +4742,7 @@
       <c r="R11" s="224"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="58" t="s">
         <v>10</v>
       </c>
@@ -4783,7 +4788,7 @@
       </c>
       <c r="R12" s="224"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="15.75" thickBot="1">
       <c r="A13" s="58" t="s">
         <v>30</v>
       </c>
@@ -4831,7 +4836,7 @@
       <c r="V13" s="29"/>
       <c r="W13" s="29"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="58"/>
       <c r="B14" s="221"/>
       <c r="C14" s="222"/>
@@ -4852,7 +4857,7 @@
       <c r="R14" s="224"/>
       <c r="T14" s="64"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="15.75" thickBot="1">
       <c r="A15" s="59" t="s">
         <v>1</v>
       </c>
@@ -4908,7 +4913,7 @@
       <c r="R15" s="200"/>
       <c r="S15" s="29"/>
     </row>
-    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="6.75" customHeight="1" thickBot="1">
       <c r="A16" s="65"/>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -4923,7 +4928,7 @@
       <c r="L16" s="67"/>
       <c r="M16" s="67"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A17" s="201" t="s">
         <v>11</v>
       </c>
@@ -4948,7 +4953,7 @@
       <c r="R17" s="68"/>
       <c r="S17" s="68"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A18" s="203"/>
       <c r="B18" s="204"/>
       <c r="C18" s="205"/>
@@ -4975,7 +4980,7 @@
       </c>
       <c r="O18" s="213"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="203"/>
       <c r="B19" s="204"/>
       <c r="C19" s="205"/>
@@ -4996,7 +5001,7 @@
       <c r="N19" s="214"/>
       <c r="O19" s="215"/>
     </row>
-    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1">
       <c r="A20" s="206"/>
       <c r="B20" s="207"/>
       <c r="C20" s="208"/>
@@ -5046,7 +5051,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23">
       <c r="A21" s="178" t="s">
         <v>13</v>
       </c>
@@ -5113,7 +5118,7 @@
       <c r="V21" s="75"/>
       <c r="W21" s="29"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="15.75" thickBot="1">
       <c r="A22" s="181" t="s">
         <v>14</v>
       </c>
@@ -5180,7 +5185,7 @@
       <c r="V22" s="75"/>
       <c r="W22" s="29"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="15.75" thickBot="1">
       <c r="A23" s="184" t="s">
         <v>36</v>
       </c>
@@ -5240,7 +5245,7 @@
       <c r="V23" s="75"/>
       <c r="W23" s="29"/>
     </row>
-    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="15.75" thickBot="1">
       <c r="A24" s="178" t="s">
         <v>15</v>
       </c>
@@ -5306,7 +5311,7 @@
       <c r="V24" s="75"/>
       <c r="W24" s="29"/>
     </row>
-    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="15.75" thickBot="1">
       <c r="A25" s="196" t="s">
         <v>18</v>
       </c>
@@ -5369,7 +5374,7 @@
       <c r="V25" s="75"/>
       <c r="W25" s="29"/>
     </row>
-    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="15.75" thickBot="1">
       <c r="A26" s="193" t="s">
         <v>47</v>
       </c>
@@ -5436,7 +5441,7 @@
       <c r="V26" s="29"/>
       <c r="W26" s="29"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="15.75" thickBot="1">
       <c r="A27" s="190" t="s">
         <v>48</v>
       </c>
@@ -5502,7 +5507,7 @@
       <c r="V27" s="75"/>
       <c r="W27" s="29"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="15.75" thickBot="1">
       <c r="A28" s="184" t="s">
         <v>37</v>
       </c>
@@ -5562,7 +5567,7 @@
       <c r="V28" s="75"/>
       <c r="W28" s="29"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23">
       <c r="A29" s="178" t="s">
         <v>16</v>
       </c>
@@ -5628,7 +5633,7 @@
       <c r="V29" s="75"/>
       <c r="W29" s="29"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23">
       <c r="A30" s="193" t="s">
         <v>43</v>
       </c>
@@ -5693,7 +5698,7 @@
       <c r="V30" s="75"/>
       <c r="W30" s="29"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="15.75" thickBot="1">
       <c r="A31" s="193" t="s">
         <v>17</v>
       </c>
@@ -5760,7 +5765,7 @@
       <c r="V31" s="75"/>
       <c r="W31" s="29"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="15.75" thickBot="1">
       <c r="A32" s="184" t="s">
         <v>38</v>
       </c>
@@ -5820,7 +5825,7 @@
       <c r="V32" s="75"/>
       <c r="W32" s="29"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23">
       <c r="A33" s="178" t="s">
         <v>19</v>
       </c>
@@ -5886,7 +5891,7 @@
       <c r="V33" s="86"/>
       <c r="W33" s="29"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="15.75" thickBot="1">
       <c r="A34" s="181" t="s">
         <v>20</v>
       </c>
@@ -5950,7 +5955,7 @@
       <c r="V34" s="75"/>
       <c r="W34" s="29"/>
     </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="15.75" thickBot="1">
       <c r="A35" s="184" t="s">
         <v>39</v>
       </c>
@@ -6009,7 +6014,7 @@
       <c r="U35" s="34"/>
       <c r="W35" s="29"/>
     </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="15.75" thickBot="1">
       <c r="A36" s="187" t="s">
         <v>21</v>
       </c>
@@ -6077,19 +6082,19 @@
       </c>
       <c r="W36" s="29"/>
     </row>
-    <row r="37" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="9" customHeight="1">
       <c r="U37" s="32"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23">
       <c r="V38" s="29"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23">
       <c r="P40" s="75"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23">
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="18.75">
       <c r="P42" s="90"/>
     </row>
   </sheetData>
@@ -6192,14 +6197,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
@@ -6225,7 +6230,7 @@
     <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="18.75">
       <c r="A1" s="246" t="s">
         <v>58</v>
       </c>
@@ -6248,7 +6253,7 @@
       <c r="R1" s="246"/>
       <c r="S1" s="119"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1">
       <c r="A2" s="247"/>
       <c r="B2" s="247"/>
       <c r="C2" s="247"/>
@@ -6269,7 +6274,7 @@
       <c r="R2" s="247"/>
       <c r="S2" s="120"/>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15.75" thickBot="1">
       <c r="A3" s="248" t="s">
         <v>59</v>
       </c>
@@ -6286,7 +6291,7 @@
       <c r="L3" s="218"/>
       <c r="M3" s="55"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="A4" s="250"/>
       <c r="B4" s="251"/>
       <c r="C4" s="254" t="s">
@@ -6313,7 +6318,7 @@
       <c r="L4" s="255"/>
       <c r="M4" s="55"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15.75" thickBot="1">
       <c r="A5" s="252"/>
       <c r="B5" s="253"/>
       <c r="C5" s="259" t="s">
@@ -6338,7 +6343,7 @@
       <c r="U5" s="29"/>
       <c r="V5" s="29"/>
     </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15.75" thickBot="1">
       <c r="A6" s="261"/>
       <c r="B6" s="262"/>
       <c r="C6" s="263">
@@ -6366,7 +6371,7 @@
       <c r="O6" s="29"/>
       <c r="Q6" s="29"/>
     </row>
-    <row r="7" spans="1:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="13.5" customHeight="1" thickBot="1">
       <c r="A7" s="245" t="s">
         <v>60</v>
       </c>
@@ -6390,7 +6395,7 @@
       <c r="S7" s="121"/>
       <c r="V7" s="29"/>
     </row>
-    <row r="8" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="22.5" customHeight="1">
       <c r="A8" s="238" t="s">
         <v>6</v>
       </c>
@@ -6435,7 +6440,7 @@
       <c r="R8" s="228"/>
       <c r="S8" s="122"/>
     </row>
-    <row r="9" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="19.5" customHeight="1" thickBot="1">
       <c r="A9" s="239"/>
       <c r="B9" s="233" t="s">
         <v>5</v>
@@ -6466,7 +6471,7 @@
       <c r="R9" s="230"/>
       <c r="S9" s="122"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
@@ -6518,7 +6523,7 @@
       <c r="S10" s="123"/>
       <c r="T10" s="32"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15.75" thickBot="1">
       <c r="A11" s="58" t="s">
         <v>9</v>
       </c>
@@ -6564,7 +6569,7 @@
       <c r="S11" s="123"/>
       <c r="T11" s="32"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="58" t="s">
         <v>10</v>
       </c>
@@ -6583,13 +6588,11 @@
       <c r="G12" s="110">
         <v>18585</v>
       </c>
-      <c r="H12" s="60">
-        <v>64</v>
-      </c>
+      <c r="H12" s="60"/>
       <c r="I12" s="60"/>
       <c r="J12" s="199">
         <f>B12+G12+H12+I12</f>
-        <v>29398.400000000001</v>
+        <v>29334.400000000001</v>
       </c>
       <c r="K12" s="200"/>
       <c r="L12" s="199">
@@ -6599,7 +6602,7 @@
       <c r="M12" s="224"/>
       <c r="N12" s="199">
         <f>J12-L12</f>
-        <v>17842.400000000001</v>
+        <v>17778.400000000001</v>
       </c>
       <c r="O12" s="200"/>
       <c r="P12" s="60">
@@ -6608,12 +6611,13 @@
       </c>
       <c r="Q12" s="199">
         <f t="shared" si="1"/>
-        <v>2974.4000000000015</v>
+        <v>2910.4000000000015</v>
       </c>
       <c r="R12" s="224"/>
       <c r="S12" s="123"/>
-    </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U12" s="29"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" thickBot="1">
       <c r="A13" s="58" t="s">
         <v>30</v>
       </c>
@@ -6664,7 +6668,7 @@
       <c r="W13" s="29"/>
       <c r="X13" s="29"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="58"/>
       <c r="B14" s="221"/>
       <c r="C14" s="222"/>
@@ -6686,7 +6690,7 @@
       <c r="S14" s="123"/>
       <c r="U14" s="64"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15.75" thickBot="1">
       <c r="A15" s="59" t="s">
         <v>1</v>
       </c>
@@ -6710,7 +6714,7 @@
       </c>
       <c r="H15" s="60">
         <f>SUM(H10:H14)</f>
-        <v>495.34000000000003</v>
+        <v>431.34000000000003</v>
       </c>
       <c r="I15" s="60">
         <f>SUM(I10:I14)</f>
@@ -6718,7 +6722,7 @@
       </c>
       <c r="J15" s="219">
         <f>SUM(J10:K14)</f>
-        <v>172254.87</v>
+        <v>172190.87</v>
       </c>
       <c r="K15" s="200"/>
       <c r="L15" s="199">
@@ -6728,7 +6732,7 @@
       <c r="M15" s="220"/>
       <c r="N15" s="199">
         <f>SUM(N10:O14)</f>
-        <v>65436.87</v>
+        <v>65372.87</v>
       </c>
       <c r="O15" s="200"/>
       <c r="P15" s="60">
@@ -6737,13 +6741,13 @@
       </c>
       <c r="Q15" s="199">
         <f>SUM(Q10:R14)</f>
-        <v>17499.350000000002</v>
+        <v>17435.350000000002</v>
       </c>
       <c r="R15" s="200"/>
       <c r="S15" s="121"/>
       <c r="T15" s="29"/>
     </row>
-    <row r="16" spans="1:24" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="6.75" customHeight="1" thickBot="1">
       <c r="A16" s="65"/>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -6758,7 +6762,7 @@
       <c r="L16" s="67"/>
       <c r="M16" s="67"/>
     </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A17" s="201" t="s">
         <v>11</v>
       </c>
@@ -6784,7 +6788,7 @@
       <c r="S17" s="68"/>
       <c r="T17" s="68"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A18" s="203"/>
       <c r="B18" s="204"/>
       <c r="C18" s="205"/>
@@ -6811,7 +6815,7 @@
       </c>
       <c r="O18" s="213"/>
     </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="203"/>
       <c r="B19" s="204"/>
       <c r="C19" s="205"/>
@@ -6832,7 +6836,7 @@
       <c r="N19" s="214"/>
       <c r="O19" s="215"/>
     </row>
-    <row r="20" spans="1:24" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" s="71" customFormat="1" ht="15.75" thickBot="1">
       <c r="A20" s="206"/>
       <c r="B20" s="207"/>
       <c r="C20" s="208"/>
@@ -6882,7 +6886,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24">
       <c r="A21" s="178" t="s">
         <v>13</v>
       </c>
@@ -6948,7 +6952,7 @@
       <c r="W21" s="75"/>
       <c r="X21" s="29"/>
     </row>
-    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="15.75" thickBot="1">
       <c r="A22" s="181" t="s">
         <v>14</v>
       </c>
@@ -7014,7 +7018,7 @@
       <c r="W22" s="75"/>
       <c r="X22" s="29"/>
     </row>
-    <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="15.75" thickBot="1">
       <c r="A23" s="184" t="s">
         <v>36</v>
       </c>
@@ -7074,7 +7078,7 @@
       <c r="W23" s="75"/>
       <c r="X23" s="29"/>
     </row>
-    <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="15.75" thickBot="1">
       <c r="A24" s="178" t="s">
         <v>15</v>
       </c>
@@ -7140,7 +7144,7 @@
       <c r="W24" s="75"/>
       <c r="X24" s="29"/>
     </row>
-    <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="15.75" thickBot="1">
       <c r="A25" s="196" t="s">
         <v>18</v>
       </c>
@@ -7204,7 +7208,7 @@
       <c r="W25" s="75"/>
       <c r="X25" s="29"/>
     </row>
-    <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="15.75" thickBot="1">
       <c r="A26" s="193" t="s">
         <v>47</v>
       </c>
@@ -7270,7 +7274,7 @@
       <c r="W26" s="29"/>
       <c r="X26" s="29"/>
     </row>
-    <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="15.75" thickBot="1">
       <c r="A27" s="190" t="s">
         <v>48</v>
       </c>
@@ -7335,7 +7339,7 @@
       <c r="W27" s="75"/>
       <c r="X27" s="29"/>
     </row>
-    <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="15.75" thickBot="1">
       <c r="A28" s="184" t="s">
         <v>37</v>
       </c>
@@ -7395,7 +7399,7 @@
       <c r="W28" s="75"/>
       <c r="X28" s="29"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24">
       <c r="A29" s="178" t="s">
         <v>16</v>
       </c>
@@ -7459,7 +7463,7 @@
       <c r="W29" s="75"/>
       <c r="X29" s="29"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24">
       <c r="A30" s="193" t="s">
         <v>43</v>
       </c>
@@ -7523,7 +7527,7 @@
       <c r="W30" s="75"/>
       <c r="X30" s="29"/>
     </row>
-    <row r="31" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="15.75" thickBot="1">
       <c r="A31" s="193" t="s">
         <v>17</v>
       </c>
@@ -7588,7 +7592,7 @@
       <c r="W31" s="75"/>
       <c r="X31" s="29"/>
     </row>
-    <row r="32" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="15.75" thickBot="1">
       <c r="A32" s="184" t="s">
         <v>38</v>
       </c>
@@ -7648,7 +7652,7 @@
       <c r="W32" s="75"/>
       <c r="X32" s="29"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24">
       <c r="A33" s="178" t="s">
         <v>19</v>
       </c>
@@ -7713,7 +7717,7 @@
       <c r="W33" s="86"/>
       <c r="X33" s="29"/>
     </row>
-    <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="15.75" thickBot="1">
       <c r="A34" s="181" t="s">
         <v>20</v>
       </c>
@@ -7777,7 +7781,7 @@
       <c r="W34" s="75"/>
       <c r="X34" s="29"/>
     </row>
-    <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="15.75" thickBot="1">
       <c r="A35" s="184" t="s">
         <v>39</v>
       </c>
@@ -7836,7 +7840,7 @@
       <c r="V35" s="34"/>
       <c r="X35" s="29"/>
     </row>
-    <row r="36" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="15.75" thickBot="1">
       <c r="A36" s="187" t="s">
         <v>21</v>
       </c>
@@ -7904,19 +7908,19 @@
       </c>
       <c r="X36" s="29"/>
     </row>
-    <row r="37" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="9" customHeight="1">
       <c r="V37" s="32"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24">
       <c r="W38" s="29"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24">
       <c r="P40" s="75"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24">
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" ht="18.75">
       <c r="P42" s="90"/>
     </row>
   </sheetData>
@@ -8019,14 +8023,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
@@ -8053,7 +8057,7 @@
     <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="18.75">
       <c r="A1" s="246" t="s">
         <v>64</v>
       </c>
@@ -8076,7 +8080,7 @@
       <c r="R1" s="246"/>
       <c r="S1" s="124"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1">
       <c r="A2" s="247"/>
       <c r="B2" s="247"/>
       <c r="C2" s="247"/>
@@ -8097,7 +8101,7 @@
       <c r="R2" s="247"/>
       <c r="S2" s="125"/>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15.75" thickBot="1">
       <c r="A3" s="248" t="s">
         <v>65</v>
       </c>
@@ -8114,7 +8118,7 @@
       <c r="L3" s="218"/>
       <c r="M3" s="55"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="A4" s="250"/>
       <c r="B4" s="251"/>
       <c r="C4" s="254" t="s">
@@ -8141,7 +8145,7 @@
       <c r="L4" s="255"/>
       <c r="M4" s="55"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15.75" thickBot="1">
       <c r="A5" s="252"/>
       <c r="B5" s="253"/>
       <c r="C5" s="259" t="s">
@@ -8166,7 +8170,7 @@
       <c r="U5" s="29"/>
       <c r="V5" s="29"/>
     </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15.75" thickBot="1">
       <c r="A6" s="261"/>
       <c r="B6" s="262"/>
       <c r="C6" s="263">
@@ -8194,7 +8198,7 @@
       <c r="O6" s="29"/>
       <c r="Q6" s="29"/>
     </row>
-    <row r="7" spans="1:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="13.5" customHeight="1" thickBot="1">
       <c r="A7" s="245" t="s">
         <v>63</v>
       </c>
@@ -8218,7 +8222,7 @@
       <c r="S7" s="121"/>
       <c r="V7" s="29"/>
     </row>
-    <row r="8" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="22.5" customHeight="1">
       <c r="A8" s="238" t="s">
         <v>6</v>
       </c>
@@ -8263,7 +8267,7 @@
       <c r="R8" s="228"/>
       <c r="S8" s="122"/>
     </row>
-    <row r="9" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="19.5" customHeight="1" thickBot="1">
       <c r="A9" s="239"/>
       <c r="B9" s="233" t="s">
         <v>5</v>
@@ -8294,7 +8298,7 @@
       <c r="R9" s="230"/>
       <c r="S9" s="122"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
@@ -8315,13 +8319,12 @@
         <v>113109.9</v>
       </c>
       <c r="H10" s="60">
-        <f>G10*0.4%</f>
-        <v>452.43959999999998</v>
+        <v>602.57000000000005</v>
       </c>
       <c r="I10" s="60"/>
       <c r="J10" s="199">
         <f>B10+G10+H10+I10</f>
-        <v>151734.08960000001</v>
+        <v>151884.22</v>
       </c>
       <c r="K10" s="200"/>
       <c r="L10" s="199">
@@ -8331,7 +8334,7 @@
       <c r="M10" s="220"/>
       <c r="N10" s="199">
         <f>J10-L10</f>
-        <v>83382.089600000007</v>
+        <v>83532.22</v>
       </c>
       <c r="O10" s="200"/>
       <c r="P10" s="60">
@@ -8339,13 +8342,13 @@
       </c>
       <c r="Q10" s="199">
         <f>N10-P10</f>
-        <v>7794.4896000000008</v>
+        <v>7944.6199999999953</v>
       </c>
       <c r="R10" s="224"/>
       <c r="S10" s="123"/>
       <c r="T10" s="32"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15.75" thickBot="1">
       <c r="A11" s="58" t="s">
         <v>9</v>
       </c>
@@ -8366,23 +8369,22 @@
         <v>18143.8</v>
       </c>
       <c r="H11" s="60">
-        <f>G11*0.4%</f>
-        <v>72.575199999999995</v>
+        <v>113.43</v>
       </c>
       <c r="I11" s="60"/>
       <c r="J11" s="199">
         <f>B11+G11+H11+I11</f>
-        <v>21443.0252</v>
+        <v>21483.88</v>
       </c>
       <c r="K11" s="200"/>
       <c r="L11" s="199">
         <f>SUM(G21:G22)</f>
-        <v>4944</v>
+        <v>0</v>
       </c>
       <c r="M11" s="220"/>
       <c r="N11" s="231">
         <f>J11-L11</f>
-        <v>16499.0252</v>
+        <v>21483.88</v>
       </c>
       <c r="O11" s="232"/>
       <c r="P11" s="60">
@@ -8391,13 +8393,13 @@
       </c>
       <c r="Q11" s="199">
         <f>N11-P11</f>
-        <v>1384.0252</v>
+        <v>6368.880000000001</v>
       </c>
       <c r="R11" s="224"/>
       <c r="S11" s="123"/>
       <c r="T11" s="32"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="58" t="s">
         <v>10</v>
       </c>
@@ -8417,11 +8419,13 @@
       <c r="G12" s="130">
         <v>9214.7999999999993</v>
       </c>
-      <c r="H12" s="60"/>
+      <c r="H12" s="60">
+        <v>111.2</v>
+      </c>
       <c r="I12" s="60"/>
       <c r="J12" s="199">
         <f>B12+G12+H12+I12</f>
-        <v>27057.200000000001</v>
+        <v>27168.400000000001</v>
       </c>
       <c r="K12" s="200"/>
       <c r="L12" s="199">
@@ -8431,7 +8435,7 @@
       <c r="M12" s="224"/>
       <c r="N12" s="199">
         <f>J12-L12</f>
-        <v>16449.2</v>
+        <v>16560.400000000001</v>
       </c>
       <c r="O12" s="200"/>
       <c r="P12" s="60">
@@ -8439,12 +8443,12 @@
       </c>
       <c r="Q12" s="199">
         <f>N12-P12</f>
-        <v>1233.2000000000007</v>
+        <v>1344.4000000000015</v>
       </c>
       <c r="R12" s="224"/>
       <c r="S12" s="123"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15.75" thickBot="1">
       <c r="A13" s="58" t="s">
         <v>30</v>
       </c>
@@ -8465,13 +8469,12 @@
         <v>145455.79999999999</v>
       </c>
       <c r="H13" s="60">
-        <f>G13*0.4%</f>
-        <v>581.82319999999993</v>
+        <v>581.82000000000005</v>
       </c>
       <c r="I13" s="60"/>
       <c r="J13" s="199">
         <f>B13+G13+H13+I13</f>
-        <v>152233.69320000001</v>
+        <v>152233.69</v>
       </c>
       <c r="K13" s="200"/>
       <c r="L13" s="199">
@@ -8481,7 +8484,7 @@
       <c r="M13" s="224"/>
       <c r="N13" s="199">
         <f>J13-L13</f>
-        <v>107145.69320000001</v>
+        <v>107145.69</v>
       </c>
       <c r="O13" s="200"/>
       <c r="P13" s="60">
@@ -8490,14 +8493,14 @@
       </c>
       <c r="Q13" s="199">
         <f>N13-P13</f>
-        <v>8264.3932000000059</v>
+        <v>8264.39</v>
       </c>
       <c r="R13" s="224"/>
       <c r="S13" s="123"/>
       <c r="W13" s="29"/>
       <c r="X13" s="29"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="58"/>
       <c r="B14" s="221"/>
       <c r="C14" s="222"/>
@@ -8519,7 +8522,7 @@
       <c r="S14" s="123"/>
       <c r="U14" s="64"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15.75" thickBot="1">
       <c r="A15" s="59" t="s">
         <v>1</v>
       </c>
@@ -8543,7 +8546,7 @@
       </c>
       <c r="H15" s="60">
         <f>SUM(H10:H14)</f>
-        <v>1106.8379999999997</v>
+        <v>1409.02</v>
       </c>
       <c r="I15" s="60">
         <f>SUM(I10:I14)</f>
@@ -8551,17 +8554,17 @@
       </c>
       <c r="J15" s="219">
         <f>SUM(J10:K14)</f>
-        <v>352468.00800000003</v>
+        <v>352770.19</v>
       </c>
       <c r="K15" s="200"/>
       <c r="L15" s="199">
         <f>SUM(L10:M14)</f>
-        <v>128992</v>
+        <v>124048</v>
       </c>
       <c r="M15" s="220"/>
       <c r="N15" s="199">
         <f>SUM(N10:O14)</f>
-        <v>223476.00800000003</v>
+        <v>228722.19</v>
       </c>
       <c r="O15" s="200"/>
       <c r="P15" s="60">
@@ -8570,13 +8573,13 @@
       </c>
       <c r="Q15" s="199">
         <f>SUM(Q10:R13)</f>
-        <v>18676.108000000007</v>
+        <v>23922.289999999997</v>
       </c>
       <c r="R15" s="200"/>
       <c r="S15" s="121"/>
       <c r="T15" s="29"/>
     </row>
-    <row r="16" spans="1:24" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="6.75" customHeight="1" thickBot="1">
       <c r="A16" s="65"/>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -8591,7 +8594,7 @@
       <c r="L16" s="67"/>
       <c r="M16" s="67"/>
     </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A17" s="201" t="s">
         <v>11</v>
       </c>
@@ -8617,7 +8620,7 @@
       <c r="S17" s="68"/>
       <c r="T17" s="68"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A18" s="203"/>
       <c r="B18" s="204"/>
       <c r="C18" s="205"/>
@@ -8644,7 +8647,7 @@
       </c>
       <c r="O18" s="213"/>
     </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="203"/>
       <c r="B19" s="204"/>
       <c r="C19" s="205"/>
@@ -8665,7 +8668,7 @@
       <c r="N19" s="214"/>
       <c r="O19" s="215"/>
     </row>
-    <row r="20" spans="1:24" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" s="71" customFormat="1" ht="15.75" thickBot="1">
       <c r="A20" s="206"/>
       <c r="B20" s="207"/>
       <c r="C20" s="208"/>
@@ -8715,7 +8718,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24">
       <c r="A21" s="178" t="s">
         <v>13</v>
       </c>
@@ -8730,12 +8733,9 @@
       </c>
       <c r="F21" s="74">
         <f>G21/24</f>
-        <v>42</v>
-      </c>
-      <c r="G21" s="74">
-        <f>'[2]July 2020'!$B$30</f>
-        <v>1008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G21" s="74"/>
       <c r="H21" s="23">
         <f>I21/24</f>
         <v>30</v>
@@ -8762,11 +8762,11 @@
       </c>
       <c r="N21" s="23">
         <f>O21/24</f>
-        <v>6</v>
+        <v>-36</v>
       </c>
       <c r="O21" s="36">
         <f>E21+G21-I21-K21-M21</f>
-        <v>144</v>
+        <v>-864</v>
       </c>
       <c r="T21" s="5">
         <v>168</v>
@@ -8776,12 +8776,12 @@
       </c>
       <c r="V21" s="30">
         <f>T21+U21-O21</f>
-        <v>24</v>
+        <v>1032</v>
       </c>
       <c r="W21" s="75"/>
       <c r="X21" s="29"/>
     </row>
-    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="15.75" thickBot="1">
       <c r="A22" s="181" t="s">
         <v>14</v>
       </c>
@@ -8796,12 +8796,9 @@
       </c>
       <c r="F22" s="76">
         <f>G22/24</f>
-        <v>164</v>
-      </c>
-      <c r="G22" s="12">
-        <f>'[2]July 2020'!$C$30</f>
-        <v>3936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G22" s="12"/>
       <c r="H22" s="24">
         <f>I22/24</f>
         <v>85</v>
@@ -8828,11 +8825,11 @@
       </c>
       <c r="N22" s="24">
         <f>O22/24</f>
-        <v>0</v>
+        <v>-164</v>
       </c>
       <c r="O22" s="36">
         <f>E22+G22-I22-K22-M22</f>
-        <v>0</v>
+        <v>-3936</v>
       </c>
       <c r="T22" s="6">
         <v>24</v>
@@ -8842,12 +8839,12 @@
       </c>
       <c r="V22" s="34">
         <f>T22-O22</f>
-        <v>24</v>
+        <v>3960</v>
       </c>
       <c r="W22" s="75"/>
       <c r="X22" s="29"/>
     </row>
-    <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="15.75" thickBot="1">
       <c r="A23" s="184" t="s">
         <v>36</v>
       </c>
@@ -8863,11 +8860,11 @@
       </c>
       <c r="F23" s="77">
         <f t="shared" si="1"/>
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="G23" s="78">
         <f t="shared" si="1"/>
-        <v>4944</v>
+        <v>0</v>
       </c>
       <c r="H23" s="79">
         <f t="shared" si="1"/>
@@ -8895,11 +8892,11 @@
       </c>
       <c r="N23" s="77">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>-200</v>
       </c>
       <c r="O23" s="78">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>-4800</v>
       </c>
       <c r="T23" s="45"/>
       <c r="U23" s="48"/>
@@ -8907,7 +8904,7 @@
       <c r="W23" s="75"/>
       <c r="X23" s="29"/>
     </row>
-    <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="15.75" thickBot="1">
       <c r="A24" s="178" t="s">
         <v>15</v>
       </c>
@@ -8973,7 +8970,7 @@
       <c r="W24" s="75"/>
       <c r="X24" s="29"/>
     </row>
-    <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="15.75" thickBot="1">
       <c r="A25" s="196" t="s">
         <v>18</v>
       </c>
@@ -9038,7 +9035,7 @@
       <c r="W25" s="75"/>
       <c r="X25" s="29"/>
     </row>
-    <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="15.75" thickBot="1">
       <c r="A26" s="193" t="s">
         <v>47</v>
       </c>
@@ -9108,7 +9105,7 @@
       <c r="W26" s="29"/>
       <c r="X26" s="29"/>
     </row>
-    <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="15.75" thickBot="1">
       <c r="A27" s="190" t="s">
         <v>48</v>
       </c>
@@ -9174,7 +9171,7 @@
       <c r="W27" s="75"/>
       <c r="X27" s="29"/>
     </row>
-    <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="15.75" thickBot="1">
       <c r="A28" s="184" t="s">
         <v>37</v>
       </c>
@@ -9234,7 +9231,7 @@
       <c r="W28" s="75"/>
       <c r="X28" s="29"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24">
       <c r="A29" s="178" t="s">
         <v>16</v>
       </c>
@@ -9300,7 +9297,7 @@
       <c r="W29" s="75"/>
       <c r="X29" s="29"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24">
       <c r="A30" s="193" t="s">
         <v>43</v>
       </c>
@@ -9366,7 +9363,7 @@
       <c r="W30" s="75"/>
       <c r="X30" s="29"/>
     </row>
-    <row r="31" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="15.75" thickBot="1">
       <c r="A31" s="193" t="s">
         <v>17</v>
       </c>
@@ -9436,7 +9433,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="15.75" thickBot="1">
       <c r="A32" s="184" t="s">
         <v>38</v>
       </c>
@@ -9496,7 +9493,7 @@
       <c r="W32" s="75"/>
       <c r="X32" s="29"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24">
       <c r="A33" s="178" t="s">
         <v>19</v>
       </c>
@@ -9565,7 +9562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="15.75" thickBot="1">
       <c r="A34" s="181" t="s">
         <v>20</v>
       </c>
@@ -9628,7 +9625,7 @@
       <c r="W34" s="75"/>
       <c r="X34" s="29"/>
     </row>
-    <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="15.75" thickBot="1">
       <c r="A35" s="184" t="s">
         <v>39</v>
       </c>
@@ -9687,7 +9684,7 @@
       <c r="V35" s="34"/>
       <c r="X35" s="29"/>
     </row>
-    <row r="36" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="15.75" thickBot="1">
       <c r="A36" s="187" t="s">
         <v>21</v>
       </c>
@@ -9703,11 +9700,11 @@
       </c>
       <c r="F36" s="87">
         <f t="shared" si="15"/>
-        <v>5477</v>
+        <v>5271</v>
       </c>
       <c r="G36" s="87">
         <f t="shared" si="15"/>
-        <v>128992</v>
+        <v>124048</v>
       </c>
       <c r="H36" s="87">
         <f t="shared" si="15"/>
@@ -9735,11 +9732,11 @@
       </c>
       <c r="N36" s="87">
         <f t="shared" si="15"/>
-        <v>62</v>
+        <v>-144</v>
       </c>
       <c r="O36" s="87">
         <f t="shared" si="15"/>
-        <v>1536</v>
+        <v>-3408</v>
       </c>
       <c r="T36" s="88">
         <f>SUM(T21:T34)</f>
@@ -9751,23 +9748,23 @@
       </c>
       <c r="V36" s="31">
         <f>T36+U36-O36</f>
-        <v>24</v>
+        <v>4968</v>
       </c>
       <c r="X36" s="29"/>
     </row>
-    <row r="37" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="9" customHeight="1">
       <c r="V37" s="32"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24">
       <c r="W38" s="29"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24">
       <c r="P40" s="75"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24">
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" ht="18.75">
       <c r="P42" s="90"/>
     </row>
   </sheetData>
@@ -9870,14 +9867,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:F11"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
@@ -9904,7 +9901,7 @@
     <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="18.75">
       <c r="A1" s="246" t="s">
         <v>66</v>
       </c>
@@ -9927,7 +9924,7 @@
       <c r="R1" s="246"/>
       <c r="S1" s="142"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1">
       <c r="A2" s="247"/>
       <c r="B2" s="247"/>
       <c r="C2" s="247"/>
@@ -9948,7 +9945,7 @@
       <c r="R2" s="247"/>
       <c r="S2" s="143"/>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15.75" thickBot="1">
       <c r="A3" s="248" t="s">
         <v>67</v>
       </c>
@@ -9965,7 +9962,7 @@
       <c r="L3" s="218"/>
       <c r="M3" s="55"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="A4" s="250"/>
       <c r="B4" s="251"/>
       <c r="C4" s="254" t="s">
@@ -9992,7 +9989,7 @@
       <c r="L4" s="255"/>
       <c r="M4" s="55"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15.75" thickBot="1">
       <c r="A5" s="252"/>
       <c r="B5" s="253"/>
       <c r="C5" s="259" t="s">
@@ -10017,7 +10014,7 @@
       <c r="U5" s="29"/>
       <c r="V5" s="29"/>
     </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15.75" thickBot="1">
       <c r="A6" s="261"/>
       <c r="B6" s="262"/>
       <c r="C6" s="263">
@@ -10048,7 +10045,7 @@
       <c r="O6" s="29"/>
       <c r="Q6" s="29"/>
     </row>
-    <row r="7" spans="1:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="13.5" customHeight="1" thickBot="1">
       <c r="A7" s="245" t="s">
         <v>68</v>
       </c>
@@ -10072,7 +10069,7 @@
       <c r="S7" s="121"/>
       <c r="V7" s="29"/>
     </row>
-    <row r="8" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="22.5" customHeight="1">
       <c r="A8" s="238" t="s">
         <v>6</v>
       </c>
@@ -10117,7 +10114,7 @@
       <c r="R8" s="228"/>
       <c r="S8" s="122"/>
     </row>
-    <row r="9" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="19.5" customHeight="1" thickBot="1">
       <c r="A9" s="239"/>
       <c r="B9" s="233" t="s">
         <v>5</v>
@@ -10152,7 +10149,7 @@
         <v>15063.320000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
@@ -10201,7 +10198,7 @@
         <v>22594.98</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15.75" thickBot="1">
       <c r="A11" s="58" t="s">
         <v>9</v>
       </c>
@@ -10246,7 +10243,7 @@
       <c r="S11" s="123"/>
       <c r="T11" s="32"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="58" t="s">
         <v>10</v>
       </c>
@@ -10291,7 +10288,7 @@
       <c r="R12" s="224"/>
       <c r="S12" s="123"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15.75" thickBot="1">
       <c r="A13" s="58" t="s">
         <v>30</v>
       </c>
@@ -10338,7 +10335,7 @@
       <c r="W13" s="29"/>
       <c r="X13" s="29"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="58"/>
       <c r="B14" s="221"/>
       <c r="C14" s="222"/>
@@ -10360,7 +10357,7 @@
       <c r="S14" s="123"/>
       <c r="U14" s="64"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15.75" thickBot="1">
       <c r="A15" s="59" t="s">
         <v>1</v>
       </c>
@@ -10417,7 +10414,7 @@
       <c r="S15" s="121"/>
       <c r="T15" s="29"/>
     </row>
-    <row r="16" spans="1:24" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="6.75" customHeight="1" thickBot="1">
       <c r="A16" s="65"/>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -10432,7 +10429,7 @@
       <c r="L16" s="67"/>
       <c r="M16" s="67"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A17" s="201" t="s">
         <v>11</v>
       </c>
@@ -10458,7 +10455,7 @@
       <c r="S17" s="68"/>
       <c r="T17" s="68"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A18" s="203"/>
       <c r="B18" s="204"/>
       <c r="C18" s="205"/>
@@ -10485,7 +10482,7 @@
       </c>
       <c r="O18" s="266"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="203"/>
       <c r="B19" s="204"/>
       <c r="C19" s="205"/>
@@ -10509,7 +10506,7 @@
       <c r="Q19" s="152"/>
       <c r="R19" s="152"/>
     </row>
-    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1">
       <c r="A20" s="206"/>
       <c r="B20" s="207"/>
       <c r="C20" s="208"/>
@@ -10562,7 +10559,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23">
       <c r="A21" s="178" t="s">
         <v>13</v>
       </c>
@@ -10631,7 +10628,7 @@
       <c r="V21" s="75"/>
       <c r="W21" s="29"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="15.75" thickBot="1">
       <c r="A22" s="181" t="s">
         <v>14</v>
       </c>
@@ -10700,7 +10697,7 @@
       <c r="V22" s="75"/>
       <c r="W22" s="29"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="15.75" thickBot="1">
       <c r="A23" s="184" t="s">
         <v>36</v>
       </c>
@@ -10763,7 +10760,7 @@
       <c r="V23" s="75"/>
       <c r="W23" s="29"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23">
       <c r="A24" s="178" t="s">
         <v>15</v>
       </c>
@@ -10832,7 +10829,7 @@
       <c r="V24" s="75"/>
       <c r="W24" s="29"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23">
       <c r="A25" s="196" t="s">
         <v>18</v>
       </c>
@@ -10900,7 +10897,7 @@
       <c r="V25" s="75"/>
       <c r="W25" s="29"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23">
       <c r="A26" s="193" t="s">
         <v>47</v>
       </c>
@@ -10969,7 +10966,7 @@
       <c r="V26" s="29"/>
       <c r="W26" s="29"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="15.75" thickBot="1">
       <c r="A27" s="190" t="s">
         <v>48</v>
       </c>
@@ -11037,7 +11034,7 @@
       <c r="V27" s="75"/>
       <c r="W27" s="29"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="15.75" thickBot="1">
       <c r="A28" s="184" t="s">
         <v>37</v>
       </c>
@@ -11100,7 +11097,7 @@
       <c r="V28" s="75"/>
       <c r="W28" s="29"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23">
       <c r="A29" s="178" t="s">
         <v>16</v>
       </c>
@@ -11168,7 +11165,7 @@
       <c r="V29" s="75"/>
       <c r="W29" s="29"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23">
       <c r="A30" s="193" t="s">
         <v>43</v>
       </c>
@@ -11236,7 +11233,7 @@
       <c r="V30" s="75"/>
       <c r="W30" s="29"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="15.75" thickBot="1">
       <c r="A31" s="193" t="s">
         <v>17</v>
       </c>
@@ -11306,7 +11303,7 @@
       <c r="V31" s="75"/>
       <c r="W31" s="29"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="15.75" thickBot="1">
       <c r="A32" s="184" t="s">
         <v>38</v>
       </c>
@@ -11369,7 +11366,7 @@
       <c r="V32" s="75"/>
       <c r="W32" s="29"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23">
       <c r="A33" s="178" t="s">
         <v>19</v>
       </c>
@@ -11439,7 +11436,7 @@
       <c r="V33" s="86"/>
       <c r="W33" s="29"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="15.75" thickBot="1">
       <c r="A34" s="181" t="s">
         <v>20</v>
       </c>
@@ -11504,7 +11501,7 @@
       <c r="V34" s="75"/>
       <c r="W34" s="29"/>
     </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="15.75" thickBot="1">
       <c r="A35" s="184" t="s">
         <v>39</v>
       </c>
@@ -11566,7 +11563,7 @@
       <c r="U35" s="34"/>
       <c r="W35" s="29"/>
     </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="15.75" thickBot="1">
       <c r="A36" s="187" t="s">
         <v>21</v>
       </c>
@@ -11637,19 +11634,19 @@
       </c>
       <c r="W36" s="29"/>
     </row>
-    <row r="37" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="9" customHeight="1">
       <c r="V37" s="32"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23">
       <c r="W38" s="29"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23">
       <c r="P40" s="75"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23">
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="18.75">
       <c r="P42" s="90"/>
     </row>
   </sheetData>
@@ -11756,14 +11753,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9:X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
@@ -11790,7 +11787,7 @@
     <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="18.75">
       <c r="A1" s="246" t="s">
         <v>73</v>
       </c>
@@ -11813,7 +11810,7 @@
       <c r="R1" s="246"/>
       <c r="S1" s="161"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1">
       <c r="A2" s="247"/>
       <c r="B2" s="247"/>
       <c r="C2" s="247"/>
@@ -11834,7 +11831,7 @@
       <c r="R2" s="247"/>
       <c r="S2" s="162"/>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15.75" thickBot="1">
       <c r="A3" s="248" t="s">
         <v>71</v>
       </c>
@@ -11851,7 +11848,7 @@
       <c r="L3" s="218"/>
       <c r="M3" s="55"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="A4" s="250"/>
       <c r="B4" s="251"/>
       <c r="C4" s="254" t="s">
@@ -11878,7 +11875,7 @@
       <c r="L4" s="255"/>
       <c r="M4" s="55"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15.75" thickBot="1">
       <c r="A5" s="252"/>
       <c r="B5" s="253"/>
       <c r="C5" s="259" t="s">
@@ -11903,7 +11900,7 @@
       <c r="U5" s="29"/>
       <c r="V5" s="29"/>
     </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15.75" thickBot="1">
       <c r="A6" s="261"/>
       <c r="B6" s="262"/>
       <c r="C6" s="263">
@@ -11933,7 +11930,7 @@
       <c r="O6" s="29"/>
       <c r="Q6" s="29"/>
     </row>
-    <row r="7" spans="1:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="13.5" customHeight="1" thickBot="1">
       <c r="A7" s="245" t="s">
         <v>72</v>
       </c>
@@ -11955,9 +11952,11 @@
       <c r="Q7" s="245"/>
       <c r="R7" s="245"/>
       <c r="S7" s="121"/>
-      <c r="V7" s="29"/>
-    </row>
-    <row r="8" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V7" s="29">
+        <v>4561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="22.5" customHeight="1">
       <c r="A8" s="238" t="s">
         <v>6</v>
       </c>
@@ -12001,8 +12000,12 @@
       </c>
       <c r="R8" s="228"/>
       <c r="S8" s="122"/>
-    </row>
-    <row r="9" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V8" s="2">
+        <f>V7*4%</f>
+        <v>182.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="19.5" customHeight="1" thickBot="1">
       <c r="A9" s="239"/>
       <c r="B9" s="233" t="s">
         <v>5</v>
@@ -12033,7 +12036,7 @@
       <c r="R9" s="230"/>
       <c r="S9" s="122"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
@@ -12086,7 +12089,7 @@
       <c r="S10" s="123"/>
       <c r="T10" s="32"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15.75" thickBot="1">
       <c r="A11" s="58" t="s">
         <v>9</v>
       </c>
@@ -12132,7 +12135,7 @@
       <c r="S11" s="123"/>
       <c r="T11" s="32"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="58" t="s">
         <v>10</v>
       </c>
@@ -12182,7 +12185,7 @@
       <c r="R12" s="224"/>
       <c r="S12" s="123"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15.75" thickBot="1">
       <c r="A13" s="58" t="s">
         <v>30</v>
       </c>
@@ -12229,7 +12232,7 @@
       <c r="W13" s="29"/>
       <c r="X13" s="29"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="58"/>
       <c r="B14" s="221"/>
       <c r="C14" s="222"/>
@@ -12251,7 +12254,7 @@
       <c r="S14" s="123"/>
       <c r="U14" s="64"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15.75" thickBot="1">
       <c r="A15" s="59" t="s">
         <v>1</v>
       </c>
@@ -12308,7 +12311,7 @@
       <c r="S15" s="121"/>
       <c r="T15" s="29"/>
     </row>
-    <row r="16" spans="1:24" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="6.75" customHeight="1" thickBot="1">
       <c r="A16" s="65"/>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -12323,7 +12326,7 @@
       <c r="L16" s="67"/>
       <c r="M16" s="67"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A17" s="201" t="s">
         <v>11</v>
       </c>
@@ -12349,7 +12352,7 @@
       <c r="S17" s="68"/>
       <c r="T17" s="68"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A18" s="203"/>
       <c r="B18" s="204"/>
       <c r="C18" s="205"/>
@@ -12376,7 +12379,7 @@
       </c>
       <c r="O18" s="266"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="203"/>
       <c r="B19" s="204"/>
       <c r="C19" s="205"/>
@@ -12400,7 +12403,7 @@
       <c r="Q19" s="152"/>
       <c r="R19" s="152"/>
     </row>
-    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1">
       <c r="A20" s="206"/>
       <c r="B20" s="207"/>
       <c r="C20" s="208"/>
@@ -12453,7 +12456,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="15.75" thickBot="1">
       <c r="A21" s="178" t="s">
         <v>13</v>
       </c>
@@ -12520,7 +12523,7 @@
       <c r="V21" s="75"/>
       <c r="W21" s="29"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="15.75" thickBot="1">
       <c r="A22" s="181" t="s">
         <v>14</v>
       </c>
@@ -12587,7 +12590,7 @@
       <c r="V22" s="75"/>
       <c r="W22" s="29"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="15.75" thickBot="1">
       <c r="A23" s="184" t="s">
         <v>36</v>
       </c>
@@ -12650,7 +12653,7 @@
       <c r="V23" s="75"/>
       <c r="W23" s="29"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23">
       <c r="A24" s="178" t="s">
         <v>15</v>
       </c>
@@ -12717,7 +12720,7 @@
       <c r="V24" s="75"/>
       <c r="W24" s="29"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23">
       <c r="A25" s="196" t="s">
         <v>18</v>
       </c>
@@ -12784,7 +12787,7 @@
       <c r="V25" s="75"/>
       <c r="W25" s="29"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23">
       <c r="A26" s="193" t="s">
         <v>47</v>
       </c>
@@ -12851,7 +12854,7 @@
       <c r="V26" s="29"/>
       <c r="W26" s="29"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="15.75" thickBot="1">
       <c r="A27" s="190" t="s">
         <v>48</v>
       </c>
@@ -12919,7 +12922,7 @@
       <c r="V27" s="75"/>
       <c r="W27" s="29"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="15.75" thickBot="1">
       <c r="A28" s="184" t="s">
         <v>37</v>
       </c>
@@ -12982,7 +12985,7 @@
       <c r="V28" s="75"/>
       <c r="W28" s="29"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23">
       <c r="A29" s="178" t="s">
         <v>16</v>
       </c>
@@ -13048,7 +13051,7 @@
       <c r="V29" s="75"/>
       <c r="W29" s="29"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23">
       <c r="A30" s="193" t="s">
         <v>43</v>
       </c>
@@ -13114,7 +13117,7 @@
       <c r="V30" s="75"/>
       <c r="W30" s="29"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="15.75" thickBot="1">
       <c r="A31" s="193" t="s">
         <v>17</v>
       </c>
@@ -13181,7 +13184,7 @@
       <c r="V31" s="75"/>
       <c r="W31" s="29"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="15.75" thickBot="1">
       <c r="A32" s="184" t="s">
         <v>38</v>
       </c>
@@ -13244,7 +13247,7 @@
       <c r="V32" s="75"/>
       <c r="W32" s="29"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23">
       <c r="A33" s="178" t="s">
         <v>19</v>
       </c>
@@ -13311,7 +13314,7 @@
       <c r="V33" s="86"/>
       <c r="W33" s="29"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="15.75" thickBot="1">
       <c r="A34" s="181" t="s">
         <v>20</v>
       </c>
@@ -13377,7 +13380,7 @@
       <c r="V34" s="75"/>
       <c r="W34" s="29"/>
     </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="15.75" thickBot="1">
       <c r="A35" s="184" t="s">
         <v>39</v>
       </c>
@@ -13439,7 +13442,7 @@
       <c r="U35" s="34"/>
       <c r="W35" s="29"/>
     </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="15.75" thickBot="1">
       <c r="A36" s="187" t="s">
         <v>21</v>
       </c>
@@ -13510,19 +13513,19 @@
       </c>
       <c r="W36" s="29"/>
     </row>
-    <row r="37" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="9" customHeight="1">
       <c r="V37" s="32"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23">
       <c r="W38" s="29"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23">
       <c r="P40" s="75"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23">
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="18.75">
       <c r="P42" s="90"/>
     </row>
   </sheetData>
@@ -13626,14 +13629,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
@@ -13660,9 +13663,9 @@
     <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="18.75">
       <c r="A1" s="246" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="246"/>
       <c r="C1" s="246"/>
@@ -13683,7 +13686,7 @@
       <c r="R1" s="246"/>
       <c r="S1" s="167"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1">
       <c r="A2" s="247"/>
       <c r="B2" s="247"/>
       <c r="C2" s="247"/>
@@ -13704,9 +13707,9 @@
       <c r="R2" s="247"/>
       <c r="S2" s="168"/>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15.75" thickBot="1">
       <c r="A3" s="248" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" s="249"/>
       <c r="C3" s="249"/>
@@ -13721,7 +13724,7 @@
       <c r="L3" s="218"/>
       <c r="M3" s="55"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="A4" s="250"/>
       <c r="B4" s="251"/>
       <c r="C4" s="254" t="s">
@@ -13748,7 +13751,7 @@
       <c r="L4" s="255"/>
       <c r="M4" s="55"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15.75" thickBot="1">
       <c r="A5" s="252"/>
       <c r="B5" s="253"/>
       <c r="C5" s="259" t="s">
@@ -13773,7 +13776,7 @@
       <c r="U5" s="29"/>
       <c r="V5" s="29"/>
     </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15.75" thickBot="1">
       <c r="A6" s="261"/>
       <c r="B6" s="262"/>
       <c r="C6" s="263">
@@ -13782,31 +13785,31 @@
       </c>
       <c r="D6" s="264"/>
       <c r="E6" s="54">
-        <v>73371.100000000006</v>
+        <v>102369.60000000001</v>
       </c>
       <c r="F6" s="175"/>
       <c r="G6" s="172">
         <f>C6+E6+F6</f>
-        <v>223368.6</v>
+        <v>252367.1</v>
       </c>
       <c r="H6" s="263">
         <f>G15</f>
-        <v>35947.9</v>
+        <v>107434.20000000001</v>
       </c>
       <c r="I6" s="219"/>
       <c r="J6" s="264"/>
       <c r="K6" s="199">
         <f>G6-H6</f>
-        <v>187420.7</v>
+        <v>144932.9</v>
       </c>
       <c r="L6" s="200"/>
       <c r="M6" s="55"/>
       <c r="O6" s="29"/>
       <c r="Q6" s="29"/>
     </row>
-    <row r="7" spans="1:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="13.5" customHeight="1" thickBot="1">
       <c r="A7" s="245" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B7" s="245"/>
       <c r="C7" s="245"/>
@@ -13826,9 +13829,12 @@
       <c r="Q7" s="245"/>
       <c r="R7" s="245"/>
       <c r="S7" s="121"/>
+      <c r="T7" s="2">
+        <v>4520</v>
+      </c>
       <c r="V7" s="29"/>
     </row>
-    <row r="8" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="22.5" customHeight="1">
       <c r="A8" s="238" t="s">
         <v>6</v>
       </c>
@@ -13873,7 +13879,7 @@
       <c r="R8" s="228"/>
       <c r="S8" s="122"/>
     </row>
-    <row r="9" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="19.5" customHeight="1" thickBot="1">
       <c r="A9" s="239"/>
       <c r="B9" s="233" t="s">
         <v>5</v>
@@ -13907,7 +13913,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
@@ -13925,36 +13931,39 @@
         <v>5552.080000000009</v>
       </c>
       <c r="F10" s="200"/>
-      <c r="G10" s="173"/>
+      <c r="G10" s="173">
+        <v>35538.400000000001</v>
+      </c>
       <c r="H10" s="60"/>
       <c r="I10" s="60"/>
       <c r="J10" s="199">
         <f>B10+G10+H10+I10</f>
-        <v>35457.680000000008</v>
+        <v>70996.080000000016</v>
       </c>
       <c r="K10" s="200"/>
       <c r="L10" s="199">
         <f>G29+G30+G31</f>
-        <v>33480</v>
+        <v>37824</v>
       </c>
       <c r="M10" s="220"/>
       <c r="N10" s="199">
         <f>J10-L10</f>
-        <v>1977.6800000000076</v>
+        <v>33172.080000000016</v>
       </c>
       <c r="O10" s="200"/>
       <c r="P10" s="60">
-        <v>0</v>
+        <f>'[1]October 2021'!$K$15</f>
+        <v>21233.040000000001</v>
       </c>
       <c r="Q10" s="199">
         <f>N10-P10</f>
-        <v>1977.6800000000076</v>
+        <v>11939.040000000015</v>
       </c>
       <c r="R10" s="224"/>
       <c r="S10" s="123"/>
       <c r="T10" s="32"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15.75" thickBot="1">
       <c r="A11" s="58" t="s">
         <v>9</v>
       </c>
@@ -14001,7 +14010,7 @@
       <c r="S11" s="123"/>
       <c r="T11" s="32"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="58" t="s">
         <v>10</v>
       </c>
@@ -14019,23 +14028,21 @@
       </c>
       <c r="F12" s="200"/>
       <c r="G12" s="173"/>
-      <c r="H12" s="60">
-        <v>36.86</v>
-      </c>
+      <c r="H12" s="60"/>
       <c r="I12" s="60"/>
       <c r="J12" s="199">
         <f>B12+G12+H12+I12</f>
-        <v>8116.710399999999</v>
+        <v>8079.8503999999994</v>
       </c>
       <c r="K12" s="200"/>
       <c r="L12" s="199">
         <f>SUM(G33:G34)</f>
-        <v>4644</v>
+        <v>6036</v>
       </c>
       <c r="M12" s="224"/>
       <c r="N12" s="199">
         <f>J12-L12</f>
-        <v>3472.710399999999</v>
+        <v>2043.8503999999994</v>
       </c>
       <c r="O12" s="200"/>
       <c r="P12" s="60">
@@ -14043,12 +14050,12 @@
       </c>
       <c r="Q12" s="199">
         <f>N12-P12</f>
-        <v>3472.710399999999</v>
+        <v>2043.8503999999994</v>
       </c>
       <c r="R12" s="224"/>
       <c r="S12" s="123"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15.75" thickBot="1">
       <c r="A13" s="58" t="s">
         <v>30</v>
       </c>
@@ -14066,39 +14073,40 @@
       </c>
       <c r="F13" s="200"/>
       <c r="G13" s="172">
-        <v>35947.9</v>
+        <f>35947.9+35947.9</f>
+        <v>71895.8</v>
       </c>
       <c r="H13" s="60"/>
       <c r="I13" s="60"/>
       <c r="J13" s="199">
         <f>B13+G13+H13+I13</f>
-        <v>57802.14</v>
+        <v>93750.040000000008</v>
       </c>
       <c r="K13" s="200"/>
       <c r="L13" s="199">
         <f>G24+G25+G26+G27</f>
-        <v>20012</v>
+        <v>26526</v>
       </c>
       <c r="M13" s="224"/>
       <c r="N13" s="199">
         <f>J13-L13</f>
-        <v>37790.14</v>
+        <v>67224.040000000008</v>
       </c>
       <c r="O13" s="200"/>
       <c r="P13" s="60">
-        <f>G13-(G13/6)</f>
-        <v>29956.583333333336</v>
+        <f>'[1]October 2021'!$K$45</f>
+        <v>21568.74</v>
       </c>
       <c r="Q13" s="199">
         <f>N13-P13</f>
-        <v>7833.5566666666637</v>
+        <v>45655.3</v>
       </c>
       <c r="R13" s="224"/>
       <c r="S13" s="123"/>
       <c r="W13" s="29"/>
       <c r="X13" s="29"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="58"/>
       <c r="B14" s="221"/>
       <c r="C14" s="222"/>
@@ -14120,7 +14128,7 @@
       <c r="S14" s="123"/>
       <c r="U14" s="64"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15.75" thickBot="1">
       <c r="A15" s="59" t="s">
         <v>1</v>
       </c>
@@ -14140,11 +14148,11 @@
       <c r="F15" s="218"/>
       <c r="G15" s="173">
         <f>SUM(G10:G14)</f>
-        <v>35947.9</v>
+        <v>107434.20000000001</v>
       </c>
       <c r="H15" s="60">
         <f>SUM(H10:H14)</f>
-        <v>36.86</v>
+        <v>0</v>
       </c>
       <c r="I15" s="60">
         <f>SUM(I10:I14)</f>
@@ -14152,32 +14160,32 @@
       </c>
       <c r="J15" s="219">
         <f>SUM(J10:K14)</f>
-        <v>105061.3704</v>
+        <v>176510.81040000002</v>
       </c>
       <c r="K15" s="200"/>
       <c r="L15" s="199">
         <f>SUM(L10:M14)</f>
-        <v>61904</v>
+        <v>74154</v>
       </c>
       <c r="M15" s="220"/>
       <c r="N15" s="199">
         <f>SUM(N10:O14)</f>
-        <v>43157.370400000007</v>
+        <v>102356.81040000002</v>
       </c>
       <c r="O15" s="200"/>
       <c r="P15" s="60">
         <f>SUM(P10:P14)</f>
-        <v>29956.583333333336</v>
+        <v>42801.78</v>
       </c>
       <c r="Q15" s="199">
         <f>SUM(Q10:R13)</f>
-        <v>13200.787066666671</v>
+        <v>59555.030400000018</v>
       </c>
       <c r="R15" s="200"/>
       <c r="S15" s="121"/>
       <c r="T15" s="29"/>
     </row>
-    <row r="16" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="6.75" customHeight="1" thickBot="1">
       <c r="A16" s="65"/>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -14192,14 +14200,14 @@
       <c r="L16" s="67"/>
       <c r="M16" s="67"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A17" s="201" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="202"/>
       <c r="C17" s="202"/>
       <c r="D17" s="209" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E17" s="210"/>
       <c r="F17" s="210"/>
@@ -14218,7 +14226,7 @@
       <c r="S17" s="68"/>
       <c r="T17" s="68"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A18" s="203"/>
       <c r="B18" s="204"/>
       <c r="C18" s="205"/>
@@ -14245,7 +14253,7 @@
       </c>
       <c r="O18" s="266"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="203"/>
       <c r="B19" s="204"/>
       <c r="C19" s="205"/>
@@ -14269,7 +14277,7 @@
       <c r="Q19" s="152"/>
       <c r="R19" s="152"/>
     </row>
-    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" s="71" customFormat="1" ht="15.75" thickBot="1">
       <c r="A20" s="206"/>
       <c r="B20" s="207"/>
       <c r="C20" s="208"/>
@@ -14321,8 +14329,11 @@
       <c r="U20" s="37" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W20" s="71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15.75" thickBot="1">
       <c r="A21" s="178" t="s">
         <v>13</v>
       </c>
@@ -14376,7 +14387,7 @@
       <c r="Q21" s="150"/>
       <c r="R21" s="150"/>
       <c r="S21" s="5">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="T21" s="7">
         <f>4*24</f>
@@ -14384,12 +14395,15 @@
       </c>
       <c r="U21" s="30">
         <f>S21+T21-O21</f>
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="V21" s="75"/>
-      <c r="W21" s="29"/>
-    </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W21" s="29">
+        <f>SUM('[3]October 2021'!$D$59,'[3]October 2021'!$H$59,'[3]October 2021'!$I$59,'[3]October 2021'!$J$59,'[3]October 2021'!$K$59,'[3]October 2021'!$L$59:$M$59,'[3]October 2021'!$N$59,'[3]October 2021'!$O$59,'[3]October 2021'!$P$59)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="15.75" thickBot="1">
       <c r="A22" s="181" t="s">
         <v>14</v>
       </c>
@@ -14426,24 +14440,24 @@
       </c>
       <c r="L22" s="13">
         <f>M22/24</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M22" s="12">
-        <v>480</v>
+        <v>576</v>
       </c>
       <c r="N22" s="24">
         <f>O22/24</f>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O22" s="36">
         <f t="shared" si="1"/>
-        <v>1176</v>
+        <v>1080</v>
       </c>
       <c r="P22" s="150"/>
       <c r="Q22" s="149"/>
       <c r="R22" s="150"/>
       <c r="S22" s="6">
-        <v>240</v>
+        <v>1080</v>
       </c>
       <c r="T22" s="9">
         <f>28*24</f>
@@ -14451,12 +14465,15 @@
       </c>
       <c r="U22" s="30">
         <f>S22+T22-O22</f>
-        <v>-264</v>
+        <v>672</v>
       </c>
       <c r="V22" s="75"/>
-      <c r="W22" s="29"/>
-    </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W22" s="29">
+        <f>SUM('[3]October 2021'!$D$60,'[3]October 2021'!$H$60,'[3]October 2021'!$I$60:$N$60,'[3]October 2021'!$O$60,'[3]October 2021'!$P$60)</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" thickBot="1">
       <c r="A23" s="184" t="s">
         <v>36</v>
       </c>
@@ -14496,19 +14513,19 @@
       </c>
       <c r="L23" s="77">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M23" s="78">
         <f t="shared" si="3"/>
-        <v>480</v>
+        <v>576</v>
       </c>
       <c r="N23" s="77">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="O23" s="78">
         <f t="shared" si="3"/>
-        <v>1368</v>
+        <v>1272</v>
       </c>
       <c r="P23" s="154"/>
       <c r="Q23" s="154"/>
@@ -14519,7 +14536,7 @@
       <c r="V23" s="75"/>
       <c r="W23" s="29"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23">
       <c r="A24" s="178" t="s">
         <v>15</v>
       </c>
@@ -14534,11 +14551,11 @@
       </c>
       <c r="F24" s="74">
         <f>G24/30</f>
-        <v>631</v>
+        <v>843</v>
       </c>
       <c r="G24" s="10">
         <f>'[2]October 2021'!$D$30</f>
-        <v>18930</v>
+        <v>25290</v>
       </c>
       <c r="H24" s="23">
         <f>I24/30</f>
@@ -14556,24 +14573,24 @@
       </c>
       <c r="L24" s="23">
         <f>M24/30</f>
-        <v>540</v>
+        <v>805</v>
       </c>
       <c r="M24" s="10">
-        <v>16200</v>
+        <v>24150</v>
       </c>
       <c r="N24" s="23">
         <f>O24/30</f>
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="O24" s="36">
         <f t="shared" ref="O24:O36" si="4">E24+G24-I24-K24-M24</f>
-        <v>3720</v>
+        <v>2130</v>
       </c>
       <c r="P24" s="150"/>
       <c r="Q24" s="150"/>
       <c r="R24" s="150"/>
       <c r="S24" s="50">
-        <v>1290</v>
+        <v>2130</v>
       </c>
       <c r="T24" s="51">
         <f>4*30</f>
@@ -14581,12 +14598,15 @@
       </c>
       <c r="U24" s="30">
         <f>S24+T24-O24</f>
-        <v>-2310</v>
+        <v>120</v>
       </c>
       <c r="V24" s="75"/>
-      <c r="W24" s="29"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W24" s="29">
+        <f>SUM('[3]October 2021'!$D$61,'[3]October 2021'!$H$61:$P$61)</f>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="196" t="s">
         <v>18</v>
       </c>
@@ -14652,7 +14672,7 @@
       <c r="V25" s="75"/>
       <c r="W25" s="29"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23">
       <c r="A26" s="193" t="s">
         <v>47</v>
       </c>
@@ -14667,11 +14687,11 @@
       </c>
       <c r="F26" s="82">
         <f>G26/22</f>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G26" s="27">
         <f>'[2]October 2021'!$F$30</f>
-        <v>506</v>
+        <v>660</v>
       </c>
       <c r="H26" s="42">
         <f>I26/22</f>
@@ -14696,17 +14716,17 @@
       </c>
       <c r="N26" s="25">
         <f>O26/22</f>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="O26" s="36">
         <f t="shared" si="4"/>
-        <v>572</v>
+        <v>726</v>
       </c>
       <c r="P26" s="150"/>
       <c r="Q26" s="150"/>
       <c r="R26" s="150"/>
       <c r="S26" s="4">
-        <v>220</v>
+        <v>726</v>
       </c>
       <c r="T26" s="22">
         <f>0*22</f>
@@ -14714,12 +14734,12 @@
       </c>
       <c r="U26" s="35">
         <f>S26+T26-O26</f>
-        <v>-352</v>
+        <v>0</v>
       </c>
       <c r="V26" s="29"/>
       <c r="W26" s="29"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="15.75" thickBot="1">
       <c r="A27" s="190" t="s">
         <v>48</v>
       </c>
@@ -14773,7 +14793,7 @@
       <c r="Q27" s="150"/>
       <c r="R27" s="150"/>
       <c r="S27" s="52">
-        <v>264</v>
+        <v>44</v>
       </c>
       <c r="T27" s="53">
         <f>4*30</f>
@@ -14781,12 +14801,12 @@
       </c>
       <c r="U27" s="148">
         <f>S27+T27-O27</f>
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="V27" s="75"/>
       <c r="W27" s="29"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="15.75" thickBot="1">
       <c r="A28" s="184" t="s">
         <v>37</v>
       </c>
@@ -14802,11 +14822,11 @@
       </c>
       <c r="F28" s="79">
         <f t="shared" si="7"/>
-        <v>678</v>
+        <v>897</v>
       </c>
       <c r="G28" s="21">
         <f t="shared" si="7"/>
-        <v>20012</v>
+        <v>26526</v>
       </c>
       <c r="H28" s="79">
         <f t="shared" si="7"/>
@@ -14826,19 +14846,19 @@
       </c>
       <c r="L28" s="79">
         <f t="shared" si="7"/>
-        <v>554</v>
+        <v>819</v>
       </c>
       <c r="M28" s="21">
         <f t="shared" si="7"/>
-        <v>16536</v>
+        <v>24486</v>
       </c>
       <c r="N28" s="79">
         <f t="shared" si="7"/>
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="O28" s="21">
         <f t="shared" si="7"/>
-        <v>4336</v>
+        <v>2900</v>
       </c>
       <c r="P28" s="150"/>
       <c r="Q28" s="150"/>
@@ -14849,7 +14869,7 @@
       <c r="V28" s="75"/>
       <c r="W28" s="29"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23">
       <c r="A29" s="178" t="s">
         <v>16</v>
       </c>
@@ -14864,11 +14884,11 @@
       </c>
       <c r="F29" s="74">
         <f>G29/24</f>
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="G29" s="27">
         <f>'[2]October 2021'!$H$30</f>
-        <v>5688</v>
+        <v>6360</v>
       </c>
       <c r="H29" s="23">
         <f>I29/24</f>
@@ -14886,36 +14906,36 @@
       </c>
       <c r="L29" s="11">
         <f t="shared" ref="L29:L31" si="9">M29/24</f>
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="M29" s="10">
-        <v>4080</v>
+        <v>5640</v>
       </c>
       <c r="N29" s="23">
         <f>O29/24</f>
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="O29" s="36">
         <f t="shared" si="4"/>
-        <v>1032</v>
+        <v>144</v>
       </c>
       <c r="P29" s="150"/>
       <c r="Q29" s="150"/>
       <c r="R29" s="150"/>
       <c r="S29" s="5">
-        <v>264</v>
+        <v>144</v>
       </c>
       <c r="T29" s="16">
         <v>0</v>
       </c>
       <c r="U29" s="30">
         <f>S29+T29-O29</f>
-        <v>-768</v>
+        <v>0</v>
       </c>
       <c r="V29" s="75"/>
       <c r="W29" s="29"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23">
       <c r="A30" s="193" t="s">
         <v>43</v>
       </c>
@@ -14930,11 +14950,11 @@
       </c>
       <c r="F30" s="82">
         <f>G30/24</f>
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="G30" s="27">
         <f>'[2]October 2021'!$I$30</f>
-        <v>3168</v>
+        <v>3768</v>
       </c>
       <c r="H30" s="25">
         <f>I30/24</f>
@@ -14952,36 +14972,36 @@
       </c>
       <c r="L30" s="1">
         <f>M30/24</f>
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="M30" s="3">
-        <v>2640</v>
+        <v>3720</v>
       </c>
       <c r="N30" s="25">
         <f>O30/24</f>
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="O30" s="36">
         <f t="shared" si="4"/>
-        <v>528</v>
+        <v>48</v>
       </c>
       <c r="P30" s="150"/>
       <c r="Q30" s="150"/>
       <c r="R30" s="150"/>
       <c r="S30" s="4">
-        <v>600</v>
+        <v>48</v>
       </c>
       <c r="T30" s="8">
         <v>0</v>
       </c>
       <c r="U30" s="35">
         <f>S30+T30-O30</f>
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="V30" s="75"/>
       <c r="W30" s="29"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="15.75" thickBot="1">
       <c r="A31" s="193" t="s">
         <v>17</v>
       </c>
@@ -14996,11 +15016,11 @@
       </c>
       <c r="F31" s="82">
         <f>G31/24</f>
-        <v>1026</v>
+        <v>1154</v>
       </c>
       <c r="G31" s="27">
         <f>'[2]October 2021'!$J$30</f>
-        <v>24624</v>
+        <v>27696</v>
       </c>
       <c r="H31" s="25">
         <f>I31/24</f>
@@ -15018,24 +15038,24 @@
       </c>
       <c r="L31" s="1">
         <f t="shared" si="9"/>
-        <v>532</v>
+        <v>759.5</v>
       </c>
       <c r="M31" s="3">
-        <v>12768</v>
+        <v>18228</v>
       </c>
       <c r="N31" s="25">
         <f>O31/24</f>
-        <v>303</v>
+        <v>203.5</v>
       </c>
       <c r="O31" s="36">
         <f t="shared" si="4"/>
-        <v>7272</v>
+        <v>4884</v>
       </c>
       <c r="P31" s="150"/>
       <c r="Q31" s="267"/>
       <c r="R31" s="268"/>
       <c r="S31" s="4">
-        <v>1176</v>
+        <v>4944</v>
       </c>
       <c r="T31" s="8">
         <f>0*24</f>
@@ -15043,12 +15063,12 @@
       </c>
       <c r="U31" s="35">
         <f>S31+T31-O31</f>
-        <v>-6096</v>
+        <v>60</v>
       </c>
       <c r="V31" s="75"/>
       <c r="W31" s="29"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="15.75" thickBot="1">
       <c r="A32" s="184" t="s">
         <v>38</v>
       </c>
@@ -15064,11 +15084,11 @@
       </c>
       <c r="F32" s="84">
         <f t="shared" si="10"/>
-        <v>1395</v>
+        <v>1576</v>
       </c>
       <c r="G32" s="78">
         <f t="shared" si="10"/>
-        <v>33480</v>
+        <v>37824</v>
       </c>
       <c r="H32" s="79">
         <f t="shared" si="10"/>
@@ -15088,19 +15108,19 @@
       </c>
       <c r="L32" s="84">
         <f t="shared" si="10"/>
-        <v>812</v>
+        <v>1149.5</v>
       </c>
       <c r="M32" s="78">
         <f t="shared" si="10"/>
-        <v>19488</v>
+        <v>27588</v>
       </c>
       <c r="N32" s="84">
         <f t="shared" si="10"/>
-        <v>368</v>
+        <v>211.5</v>
       </c>
       <c r="O32" s="78">
         <f t="shared" si="10"/>
-        <v>8832</v>
+        <v>5076</v>
       </c>
       <c r="P32" s="151"/>
       <c r="Q32" s="151"/>
@@ -15111,7 +15131,7 @@
       <c r="V32" s="75"/>
       <c r="W32" s="29"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23">
       <c r="A33" s="178" t="s">
         <v>19</v>
       </c>
@@ -15126,11 +15146,11 @@
       </c>
       <c r="F33" s="85">
         <f>G33/12</f>
-        <v>376</v>
+        <v>492</v>
       </c>
       <c r="G33" s="27">
         <f>'[2]October 2021'!$K$30</f>
-        <v>4512</v>
+        <v>5904</v>
       </c>
       <c r="H33" s="23">
         <f>I33/12</f>
@@ -15148,24 +15168,24 @@
       </c>
       <c r="L33" s="15">
         <f t="shared" ref="L33:L34" si="12">M33/12</f>
-        <v>355</v>
+        <v>455</v>
       </c>
       <c r="M33" s="10">
-        <v>4260</v>
+        <v>5460</v>
       </c>
       <c r="N33" s="23">
         <f>O33/12</f>
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="O33" s="36">
         <f t="shared" si="4"/>
-        <v>696</v>
+        <v>888</v>
       </c>
       <c r="P33" s="150"/>
       <c r="Q33" s="150"/>
       <c r="R33" s="150"/>
       <c r="S33" s="5">
-        <v>684</v>
+        <v>828</v>
       </c>
       <c r="T33" s="16">
         <f>0*12</f>
@@ -15173,12 +15193,12 @@
       </c>
       <c r="U33" s="30">
         <f>S33+T33-O33</f>
-        <v>-12</v>
+        <v>-60</v>
       </c>
       <c r="V33" s="86"/>
       <c r="W33" s="29"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="15.75" thickBot="1">
       <c r="A34" s="181" t="s">
         <v>20</v>
       </c>
@@ -15244,7 +15264,7 @@
       <c r="V34" s="75"/>
       <c r="W34" s="29"/>
     </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="15.75" thickBot="1">
       <c r="A35" s="184" t="s">
         <v>39</v>
       </c>
@@ -15260,11 +15280,11 @@
       </c>
       <c r="F35" s="84">
         <f t="shared" si="13"/>
-        <v>387</v>
+        <v>503</v>
       </c>
       <c r="G35" s="78">
         <f t="shared" si="13"/>
-        <v>4644</v>
+        <v>6036</v>
       </c>
       <c r="H35" s="79">
         <f t="shared" si="13"/>
@@ -15284,19 +15304,19 @@
       </c>
       <c r="L35" s="84">
         <f t="shared" si="14"/>
-        <v>366</v>
+        <v>466</v>
       </c>
       <c r="M35" s="78">
         <f t="shared" si="14"/>
-        <v>4392</v>
+        <v>5592</v>
       </c>
       <c r="N35" s="84">
         <f t="shared" si="14"/>
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="O35" s="78">
         <f t="shared" si="14"/>
-        <v>696</v>
+        <v>888</v>
       </c>
       <c r="P35" s="151"/>
       <c r="Q35" s="151"/>
@@ -15306,7 +15326,7 @@
       <c r="U35" s="34"/>
       <c r="W35" s="29"/>
     </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="15.75" thickBot="1">
       <c r="A36" s="187" t="s">
         <v>21</v>
       </c>
@@ -15322,11 +15342,11 @@
       </c>
       <c r="F36" s="87">
         <f t="shared" si="15"/>
-        <v>2617</v>
+        <v>3133</v>
       </c>
       <c r="G36" s="87">
         <f t="shared" si="15"/>
-        <v>61904</v>
+        <v>74154</v>
       </c>
       <c r="H36" s="87">
         <f t="shared" si="15"/>
@@ -15346,26 +15366,26 @@
       </c>
       <c r="L36" s="87">
         <f t="shared" si="15"/>
-        <v>1752</v>
+        <v>2458.5</v>
       </c>
       <c r="M36" s="87">
         <f t="shared" si="15"/>
-        <v>40896</v>
+        <v>58242</v>
       </c>
       <c r="N36" s="87">
         <f t="shared" si="15"/>
-        <v>635</v>
+        <v>444.5</v>
       </c>
       <c r="O36" s="36">
         <f t="shared" si="4"/>
-        <v>15232</v>
+        <v>10136</v>
       </c>
       <c r="P36" s="151"/>
       <c r="Q36" s="151"/>
       <c r="R36" s="151"/>
       <c r="S36" s="88">
         <f>SUM(S21:S34)</f>
-        <v>4906</v>
+        <v>10136</v>
       </c>
       <c r="T36" s="89">
         <f>SUM(T21:T34)</f>
@@ -15373,23 +15393,23 @@
       </c>
       <c r="U36" s="147">
         <f>S36+T36-O36</f>
-        <v>-9318</v>
+        <v>1008</v>
       </c>
       <c r="W36" s="29"/>
     </row>
-    <row r="37" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="9" customHeight="1">
       <c r="V37" s="32"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23">
       <c r="W38" s="29"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23">
       <c r="P40" s="75"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23">
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="18.75">
       <c r="P42" s="90"/>
     </row>
   </sheetData>
@@ -15487,7 +15507,7 @@
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="K6:L6"/>
   </mergeCells>
-  <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.59055118110236227" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.23" right="0.25" top="0.28000000000000003" bottom="0.22" header="0.22" footer="0.15"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>